--- a/03.指标管理/大宗/指标定义表V2.1.4.xlsx
+++ b/03.指标管理/大宗/指标定义表V2.1.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="705" activeTab="8"/>
+    <workbookView minimized="1" xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="705"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -19790,19 +19790,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19814,22 +19823,25 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19840,15 +19852,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19868,32 +19871,29 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -21046,10 +21046,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M412"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <selection pane="bottomLeft" activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="14.25" customHeight="1"/>
@@ -21107,13 +21107,13 @@
       <c r="A2" s="174">
         <v>1</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="306" t="s">
         <v>1334</v>
       </c>
-      <c r="C2" s="308" t="s">
+      <c r="C2" s="311" t="s">
         <v>1335</v>
       </c>
-      <c r="D2" s="306" t="s">
+      <c r="D2" s="331" t="s">
         <v>179</v>
       </c>
       <c r="E2" s="175" t="s">
@@ -21146,9 +21146,9 @@
       <c r="A3" s="174">
         <v>2</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="315"/>
+      <c r="B3" s="307"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="332"/>
       <c r="E3" s="175" t="s">
         <v>1340</v>
       </c>
@@ -21173,9 +21173,9 @@
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4" s="174"/>
-      <c r="B4" s="313"/>
-      <c r="C4" s="309"/>
-      <c r="D4" s="315"/>
+      <c r="B4" s="307"/>
+      <c r="C4" s="312"/>
+      <c r="D4" s="332"/>
       <c r="E4" s="175" t="s">
         <v>1343</v>
       </c>
@@ -21198,9 +21198,9 @@
     </row>
     <row r="5" spans="1:13" s="161" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="182"/>
-      <c r="B5" s="313"/>
-      <c r="C5" s="309"/>
-      <c r="D5" s="315"/>
+      <c r="B5" s="307"/>
+      <c r="C5" s="312"/>
+      <c r="D5" s="332"/>
       <c r="E5" s="183"/>
       <c r="F5" s="184"/>
       <c r="G5" s="177" t="s">
@@ -21225,9 +21225,9 @@
     </row>
     <row r="6" spans="1:13" ht="49.5">
       <c r="A6" s="174"/>
-      <c r="B6" s="313"/>
-      <c r="C6" s="309"/>
-      <c r="D6" s="315"/>
+      <c r="B6" s="307"/>
+      <c r="C6" s="312"/>
+      <c r="D6" s="332"/>
       <c r="E6" s="175"/>
       <c r="F6" s="176"/>
       <c r="G6" s="177" t="s">
@@ -21246,9 +21246,9 @@
     </row>
     <row r="7" spans="1:13" ht="33">
       <c r="A7" s="174"/>
-      <c r="B7" s="313"/>
-      <c r="C7" s="309"/>
-      <c r="D7" s="315"/>
+      <c r="B7" s="307"/>
+      <c r="C7" s="312"/>
+      <c r="D7" s="332"/>
       <c r="E7" s="175"/>
       <c r="F7" s="176"/>
       <c r="G7" s="177" t="s">
@@ -21267,8 +21267,8 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="174"/>
-      <c r="B8" s="313"/>
-      <c r="C8" s="309"/>
+      <c r="B8" s="307"/>
+      <c r="C8" s="312"/>
       <c r="D8" s="188"/>
       <c r="E8" s="175"/>
       <c r="F8" s="176"/>
@@ -21286,8 +21286,8 @@
     </row>
     <row r="9" spans="1:13" ht="66">
       <c r="A9" s="174"/>
-      <c r="B9" s="313"/>
-      <c r="C9" s="309"/>
+      <c r="B9" s="307"/>
+      <c r="C9" s="312"/>
       <c r="D9" s="188"/>
       <c r="E9" s="175"/>
       <c r="F9" s="176"/>
@@ -21307,8 +21307,8 @@
     </row>
     <row r="10" spans="1:13" ht="25.5" customHeight="1">
       <c r="A10" s="174"/>
-      <c r="B10" s="313"/>
-      <c r="C10" s="309"/>
+      <c r="B10" s="307"/>
+      <c r="C10" s="312"/>
       <c r="D10" s="188"/>
       <c r="E10" s="175"/>
       <c r="F10" s="176"/>
@@ -21328,8 +21328,8 @@
     </row>
     <row r="11" spans="1:13" s="161" customFormat="1" ht="87.75" customHeight="1">
       <c r="A11" s="182"/>
-      <c r="B11" s="313"/>
-      <c r="C11" s="309"/>
+      <c r="B11" s="307"/>
+      <c r="C11" s="312"/>
       <c r="D11" s="191" t="s">
         <v>0</v>
       </c>
@@ -21351,8 +21351,8 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
       <c r="A12" s="174"/>
-      <c r="B12" s="313"/>
-      <c r="C12" s="309"/>
+      <c r="B12" s="307"/>
+      <c r="C12" s="312"/>
       <c r="D12" s="192" t="s">
         <v>0</v>
       </c>
@@ -21374,8 +21374,8 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13" s="174"/>
-      <c r="B13" s="313"/>
-      <c r="C13" s="309"/>
+      <c r="B13" s="307"/>
+      <c r="C13" s="312"/>
       <c r="D13" s="192" t="s">
         <v>0</v>
       </c>
@@ -21397,8 +21397,8 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="174"/>
-      <c r="B14" s="313"/>
-      <c r="C14" s="309"/>
+      <c r="B14" s="307"/>
+      <c r="C14" s="312"/>
       <c r="D14" s="193" t="s">
         <v>2231</v>
       </c>
@@ -21422,8 +21422,8 @@
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="174"/>
-      <c r="B15" s="313"/>
-      <c r="C15" s="309"/>
+      <c r="B15" s="307"/>
+      <c r="C15" s="312"/>
       <c r="D15" s="193"/>
       <c r="E15" s="175"/>
       <c r="F15" s="176"/>
@@ -21443,9 +21443,9 @@
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" s="174"/>
-      <c r="B16" s="313"/>
-      <c r="C16" s="309"/>
-      <c r="D16" s="303" t="s">
+      <c r="B16" s="307"/>
+      <c r="C16" s="312"/>
+      <c r="D16" s="314" t="s">
         <v>1353</v>
       </c>
       <c r="E16" s="175"/>
@@ -21466,9 +21466,9 @@
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1">
       <c r="A17" s="174"/>
-      <c r="B17" s="313"/>
-      <c r="C17" s="309"/>
-      <c r="D17" s="304"/>
+      <c r="B17" s="307"/>
+      <c r="C17" s="312"/>
+      <c r="D17" s="316"/>
       <c r="E17" s="175"/>
       <c r="F17" s="176"/>
       <c r="G17" s="177" t="s">
@@ -21487,9 +21487,9 @@
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" s="174"/>
-      <c r="B18" s="313"/>
-      <c r="C18" s="309"/>
-      <c r="D18" s="305"/>
+      <c r="B18" s="307"/>
+      <c r="C18" s="312"/>
+      <c r="D18" s="315"/>
       <c r="E18" s="175"/>
       <c r="F18" s="176"/>
       <c r="G18" s="177" t="s">
@@ -21506,8 +21506,8 @@
     </row>
     <row r="19" spans="1:13" s="161" customFormat="1" ht="33">
       <c r="A19" s="182"/>
-      <c r="B19" s="313"/>
-      <c r="C19" s="309"/>
+      <c r="B19" s="307"/>
+      <c r="C19" s="312"/>
       <c r="D19" s="191" t="s">
         <v>1358</v>
       </c>
@@ -21531,8 +21531,8 @@
     </row>
     <row r="20" spans="1:13" ht="33">
       <c r="A20" s="174"/>
-      <c r="B20" s="313"/>
-      <c r="C20" s="309"/>
+      <c r="B20" s="307"/>
+      <c r="C20" s="312"/>
       <c r="D20" s="192" t="s">
         <v>1360</v>
       </c>
@@ -21556,9 +21556,9 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
       <c r="A21" s="174"/>
-      <c r="B21" s="313"/>
-      <c r="C21" s="309"/>
-      <c r="D21" s="312" t="s">
+      <c r="B21" s="307"/>
+      <c r="C21" s="312"/>
+      <c r="D21" s="306" t="s">
         <v>1362</v>
       </c>
       <c r="E21" s="175"/>
@@ -21579,9 +21579,9 @@
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
       <c r="A22" s="174"/>
-      <c r="B22" s="313"/>
-      <c r="C22" s="309"/>
-      <c r="D22" s="313"/>
+      <c r="B22" s="307"/>
+      <c r="C22" s="312"/>
+      <c r="D22" s="307"/>
       <c r="E22" s="175"/>
       <c r="F22" s="176"/>
       <c r="G22" s="177" t="s">
@@ -21600,9 +21600,9 @@
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1">
       <c r="A23" s="174"/>
-      <c r="B23" s="313"/>
-      <c r="C23" s="309"/>
-      <c r="D23" s="313"/>
+      <c r="B23" s="307"/>
+      <c r="C23" s="312"/>
+      <c r="D23" s="307"/>
       <c r="E23" s="175"/>
       <c r="F23" s="176"/>
       <c r="G23" s="177" t="s">
@@ -21623,9 +21623,9 @@
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1">
       <c r="A24" s="174"/>
-      <c r="B24" s="313"/>
-      <c r="C24" s="309"/>
-      <c r="D24" s="313"/>
+      <c r="B24" s="307"/>
+      <c r="C24" s="312"/>
+      <c r="D24" s="307"/>
       <c r="E24" s="175"/>
       <c r="F24" s="176"/>
       <c r="G24" s="177" t="s">
@@ -21646,9 +21646,9 @@
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1">
       <c r="A25" s="174"/>
-      <c r="B25" s="313"/>
-      <c r="C25" s="309"/>
-      <c r="D25" s="313"/>
+      <c r="B25" s="307"/>
+      <c r="C25" s="312"/>
+      <c r="D25" s="307"/>
       <c r="E25" s="175"/>
       <c r="F25" s="176"/>
       <c r="G25" s="177" t="s">
@@ -21667,9 +21667,9 @@
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="313"/>
-      <c r="C26" s="309"/>
-      <c r="D26" s="313"/>
+      <c r="B26" s="307"/>
+      <c r="C26" s="312"/>
+      <c r="D26" s="307"/>
       <c r="E26" s="175"/>
       <c r="F26" s="176"/>
       <c r="G26" s="177" t="s">
@@ -21690,9 +21690,9 @@
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="313"/>
-      <c r="C27" s="309"/>
-      <c r="D27" s="313"/>
+      <c r="B27" s="307"/>
+      <c r="C27" s="312"/>
+      <c r="D27" s="307"/>
       <c r="E27" s="175"/>
       <c r="F27" s="176"/>
       <c r="G27" s="197" t="s">
@@ -21713,9 +21713,9 @@
     </row>
     <row r="28" spans="1:13" ht="66">
       <c r="A28" s="174"/>
-      <c r="B28" s="313"/>
-      <c r="C28" s="309"/>
-      <c r="D28" s="313"/>
+      <c r="B28" s="307"/>
+      <c r="C28" s="312"/>
+      <c r="D28" s="307"/>
       <c r="E28" s="175"/>
       <c r="F28" s="176"/>
       <c r="G28" s="195" t="s">
@@ -21736,9 +21736,9 @@
     </row>
     <row r="29" spans="1:13" s="151" customFormat="1" ht="33">
       <c r="A29" s="199"/>
-      <c r="B29" s="313"/>
-      <c r="C29" s="309"/>
-      <c r="D29" s="313"/>
+      <c r="B29" s="307"/>
+      <c r="C29" s="312"/>
+      <c r="D29" s="307"/>
       <c r="E29" s="175"/>
       <c r="F29" s="176"/>
       <c r="G29" s="200" t="s">
@@ -21759,9 +21759,9 @@
     </row>
     <row r="30" spans="1:13" ht="49.5">
       <c r="A30" s="174"/>
-      <c r="B30" s="313"/>
-      <c r="C30" s="309"/>
-      <c r="D30" s="313"/>
+      <c r="B30" s="307"/>
+      <c r="C30" s="312"/>
+      <c r="D30" s="307"/>
       <c r="E30" s="175"/>
       <c r="F30" s="176"/>
       <c r="G30" s="195" t="s">
@@ -21782,9 +21782,9 @@
     </row>
     <row r="31" spans="1:13" ht="247.5">
       <c r="A31" s="174"/>
-      <c r="B31" s="313"/>
-      <c r="C31" s="309"/>
-      <c r="D31" s="313"/>
+      <c r="B31" s="307"/>
+      <c r="C31" s="312"/>
+      <c r="D31" s="307"/>
       <c r="E31" s="175"/>
       <c r="F31" s="176"/>
       <c r="G31" s="195" t="s">
@@ -21807,9 +21807,9 @@
     </row>
     <row r="32" spans="1:13" ht="159" customHeight="1">
       <c r="A32" s="174"/>
-      <c r="B32" s="313"/>
-      <c r="C32" s="309"/>
-      <c r="D32" s="313"/>
+      <c r="B32" s="307"/>
+      <c r="C32" s="312"/>
+      <c r="D32" s="307"/>
       <c r="E32" s="175"/>
       <c r="F32" s="176"/>
       <c r="G32" s="195" t="s">
@@ -21830,9 +21830,9 @@
     </row>
     <row r="33" spans="1:13" ht="102.75" customHeight="1">
       <c r="A33" s="174"/>
-      <c r="B33" s="313"/>
-      <c r="C33" s="309"/>
-      <c r="D33" s="313"/>
+      <c r="B33" s="307"/>
+      <c r="C33" s="312"/>
+      <c r="D33" s="307"/>
       <c r="E33" s="175"/>
       <c r="F33" s="176"/>
       <c r="G33" s="195" t="s">
@@ -21853,9 +21853,9 @@
     </row>
     <row r="34" spans="1:13" ht="83.25" customHeight="1">
       <c r="A34" s="174"/>
-      <c r="B34" s="313"/>
-      <c r="C34" s="309"/>
-      <c r="D34" s="313"/>
+      <c r="B34" s="307"/>
+      <c r="C34" s="312"/>
+      <c r="D34" s="307"/>
       <c r="E34" s="175"/>
       <c r="F34" s="176"/>
       <c r="G34" s="195" t="s">
@@ -21876,9 +21876,9 @@
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="174"/>
-      <c r="B35" s="313"/>
-      <c r="C35" s="309"/>
-      <c r="D35" s="313"/>
+      <c r="B35" s="307"/>
+      <c r="C35" s="312"/>
+      <c r="D35" s="307"/>
       <c r="E35" s="175"/>
       <c r="F35" s="176"/>
       <c r="G35" s="208" t="s">
@@ -21899,9 +21899,9 @@
     </row>
     <row r="36" spans="1:13" ht="41.25" customHeight="1">
       <c r="A36" s="174"/>
-      <c r="B36" s="313"/>
-      <c r="C36" s="309"/>
-      <c r="D36" s="313"/>
+      <c r="B36" s="307"/>
+      <c r="C36" s="312"/>
+      <c r="D36" s="307"/>
       <c r="E36" s="175"/>
       <c r="F36" s="176"/>
       <c r="G36" s="210" t="s">
@@ -21922,9 +21922,9 @@
     </row>
     <row r="37" spans="1:13" ht="45" customHeight="1">
       <c r="A37" s="174"/>
-      <c r="B37" s="313"/>
-      <c r="C37" s="309"/>
-      <c r="D37" s="313"/>
+      <c r="B37" s="307"/>
+      <c r="C37" s="312"/>
+      <c r="D37" s="307"/>
       <c r="E37" s="175"/>
       <c r="F37" s="176"/>
       <c r="G37" s="195" t="s">
@@ -21945,9 +21945,9 @@
     </row>
     <row r="38" spans="1:13" ht="43.5" customHeight="1">
       <c r="A38" s="174"/>
-      <c r="B38" s="313"/>
-      <c r="C38" s="309"/>
-      <c r="D38" s="313"/>
+      <c r="B38" s="307"/>
+      <c r="C38" s="312"/>
+      <c r="D38" s="307"/>
       <c r="E38" s="175"/>
       <c r="F38" s="176"/>
       <c r="G38" s="195" t="s">
@@ -21968,9 +21968,9 @@
     </row>
     <row r="39" spans="1:13" ht="49.5">
       <c r="A39" s="174"/>
-      <c r="B39" s="313"/>
-      <c r="C39" s="309"/>
-      <c r="D39" s="313"/>
+      <c r="B39" s="307"/>
+      <c r="C39" s="312"/>
+      <c r="D39" s="307"/>
       <c r="E39" s="175"/>
       <c r="F39" s="176"/>
       <c r="G39" s="195" t="s">
@@ -21991,9 +21991,9 @@
     </row>
     <row r="40" spans="1:13" ht="18" thickBot="1">
       <c r="A40" s="174"/>
-      <c r="B40" s="313"/>
-      <c r="C40" s="309"/>
-      <c r="D40" s="313"/>
+      <c r="B40" s="307"/>
+      <c r="C40" s="312"/>
+      <c r="D40" s="307"/>
       <c r="E40" s="175"/>
       <c r="F40" s="176"/>
       <c r="G40" s="200" t="s">
@@ -22014,9 +22014,9 @@
     </row>
     <row r="41" spans="1:13" ht="38.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="174"/>
-      <c r="B41" s="313"/>
-      <c r="C41" s="309"/>
-      <c r="D41" s="313"/>
+      <c r="B41" s="307"/>
+      <c r="C41" s="312"/>
+      <c r="D41" s="307"/>
       <c r="E41" s="175"/>
       <c r="F41" s="176"/>
       <c r="G41" s="213" t="s">
@@ -22037,9 +22037,9 @@
     </row>
     <row r="42" spans="1:13" ht="214.5">
       <c r="A42" s="174"/>
-      <c r="B42" s="313"/>
-      <c r="C42" s="309"/>
-      <c r="D42" s="313"/>
+      <c r="B42" s="307"/>
+      <c r="C42" s="312"/>
+      <c r="D42" s="307"/>
       <c r="E42" s="175"/>
       <c r="F42" s="176"/>
       <c r="G42" s="210" t="s">
@@ -22060,9 +22060,9 @@
     </row>
     <row r="43" spans="1:13" ht="120" customHeight="1">
       <c r="A43" s="174"/>
-      <c r="B43" s="313"/>
-      <c r="C43" s="309"/>
-      <c r="D43" s="313"/>
+      <c r="B43" s="307"/>
+      <c r="C43" s="312"/>
+      <c r="D43" s="307"/>
       <c r="E43" s="175"/>
       <c r="F43" s="176"/>
       <c r="G43" s="195" t="s">
@@ -22083,9 +22083,9 @@
     </row>
     <row r="44" spans="1:13" ht="106.5" customHeight="1">
       <c r="A44" s="174"/>
-      <c r="B44" s="313"/>
-      <c r="C44" s="309"/>
-      <c r="D44" s="313"/>
+      <c r="B44" s="307"/>
+      <c r="C44" s="312"/>
+      <c r="D44" s="307"/>
       <c r="E44" s="175"/>
       <c r="F44" s="176"/>
       <c r="G44" s="195" t="s">
@@ -22106,9 +22106,9 @@
     </row>
     <row r="45" spans="1:13" ht="56.1" customHeight="1">
       <c r="A45" s="174"/>
-      <c r="B45" s="313"/>
-      <c r="C45" s="309"/>
-      <c r="D45" s="313"/>
+      <c r="B45" s="307"/>
+      <c r="C45" s="312"/>
+      <c r="D45" s="307"/>
       <c r="E45" s="175"/>
       <c r="F45" s="176"/>
       <c r="G45" s="195" t="s">
@@ -22129,9 +22129,9 @@
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="174"/>
-      <c r="B46" s="313"/>
-      <c r="C46" s="309"/>
-      <c r="D46" s="313"/>
+      <c r="B46" s="307"/>
+      <c r="C46" s="312"/>
+      <c r="D46" s="307"/>
       <c r="E46" s="175"/>
       <c r="F46" s="176"/>
       <c r="G46" s="195" t="s">
@@ -22154,9 +22154,9 @@
     </row>
     <row r="47" spans="1:13" ht="26.25" hidden="1" customHeight="1">
       <c r="A47" s="174"/>
-      <c r="B47" s="313"/>
-      <c r="C47" s="309"/>
-      <c r="D47" s="313"/>
+      <c r="B47" s="307"/>
+      <c r="C47" s="312"/>
+      <c r="D47" s="307"/>
       <c r="E47" s="175"/>
       <c r="F47" s="176"/>
       <c r="G47" s="217" t="s">
@@ -22177,9 +22177,9 @@
     </row>
     <row r="48" spans="1:13" ht="25.5" hidden="1" customHeight="1">
       <c r="A48" s="174"/>
-      <c r="B48" s="313"/>
-      <c r="C48" s="309"/>
-      <c r="D48" s="313"/>
+      <c r="B48" s="307"/>
+      <c r="C48" s="312"/>
+      <c r="D48" s="307"/>
       <c r="E48" s="175"/>
       <c r="F48" s="176"/>
       <c r="G48" s="217" t="s">
@@ -22196,9 +22196,9 @@
     </row>
     <row r="49" spans="1:13" ht="78" customHeight="1" thickBot="1">
       <c r="A49" s="174"/>
-      <c r="B49" s="313"/>
-      <c r="C49" s="309"/>
-      <c r="D49" s="313"/>
+      <c r="B49" s="307"/>
+      <c r="C49" s="312"/>
+      <c r="D49" s="307"/>
       <c r="E49" s="175"/>
       <c r="F49" s="176"/>
       <c r="G49" s="208" t="s">
@@ -22219,9 +22219,9 @@
     </row>
     <row r="50" spans="1:13" ht="41.25" customHeight="1">
       <c r="A50" s="174"/>
-      <c r="B50" s="313"/>
-      <c r="C50" s="309"/>
-      <c r="D50" s="313"/>
+      <c r="B50" s="307"/>
+      <c r="C50" s="312"/>
+      <c r="D50" s="307"/>
       <c r="E50" s="175"/>
       <c r="F50" s="176"/>
       <c r="G50" s="210" t="s">
@@ -22242,9 +22242,9 @@
     </row>
     <row r="51" spans="1:13" ht="43.5" customHeight="1">
       <c r="A51" s="174"/>
-      <c r="B51" s="313"/>
-      <c r="C51" s="309"/>
-      <c r="D51" s="313"/>
+      <c r="B51" s="307"/>
+      <c r="C51" s="312"/>
+      <c r="D51" s="307"/>
       <c r="E51" s="175"/>
       <c r="F51" s="176"/>
       <c r="G51" s="195" t="s">
@@ -22265,9 +22265,9 @@
     </row>
     <row r="52" spans="1:13" ht="46.5" customHeight="1">
       <c r="A52" s="174"/>
-      <c r="B52" s="313"/>
-      <c r="C52" s="309"/>
-      <c r="D52" s="313"/>
+      <c r="B52" s="307"/>
+      <c r="C52" s="312"/>
+      <c r="D52" s="307"/>
       <c r="E52" s="175"/>
       <c r="F52" s="176"/>
       <c r="G52" s="195" t="s">
@@ -22288,9 +22288,9 @@
     </row>
     <row r="53" spans="1:13" ht="42" customHeight="1">
       <c r="A53" s="174"/>
-      <c r="B53" s="313"/>
-      <c r="C53" s="309"/>
-      <c r="D53" s="313"/>
+      <c r="B53" s="307"/>
+      <c r="C53" s="312"/>
+      <c r="D53" s="307"/>
       <c r="E53" s="175"/>
       <c r="F53" s="176"/>
       <c r="G53" s="195" t="s">
@@ -22311,9 +22311,9 @@
     </row>
     <row r="54" spans="1:13" ht="38.25" customHeight="1">
       <c r="A54" s="174"/>
-      <c r="B54" s="313"/>
-      <c r="C54" s="309"/>
-      <c r="D54" s="313"/>
+      <c r="B54" s="307"/>
+      <c r="C54" s="312"/>
+      <c r="D54" s="307"/>
       <c r="E54" s="175"/>
       <c r="F54" s="176"/>
       <c r="G54" s="195" t="s">
@@ -22329,14 +22329,14 @@
         <v>2837</v>
       </c>
       <c r="K54" s="222"/>
-      <c r="L54" s="323"/>
+      <c r="L54" s="324"/>
       <c r="M54" s="181"/>
     </row>
     <row r="55" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="174"/>
-      <c r="B55" s="313"/>
-      <c r="C55" s="309"/>
-      <c r="D55" s="313"/>
+      <c r="B55" s="307"/>
+      <c r="C55" s="312"/>
+      <c r="D55" s="307"/>
       <c r="E55" s="175"/>
       <c r="F55" s="176"/>
       <c r="G55" s="217" t="s">
@@ -22348,14 +22348,14 @@
       <c r="I55" s="201"/>
       <c r="J55" s="223"/>
       <c r="K55" s="223"/>
-      <c r="L55" s="324"/>
+      <c r="L55" s="325"/>
       <c r="M55" s="181"/>
     </row>
     <row r="56" spans="1:13" ht="33">
       <c r="A56" s="174"/>
-      <c r="B56" s="313"/>
-      <c r="C56" s="309"/>
-      <c r="D56" s="313"/>
+      <c r="B56" s="307"/>
+      <c r="C56" s="312"/>
+      <c r="D56" s="307"/>
       <c r="E56" s="175"/>
       <c r="F56" s="176"/>
       <c r="G56" s="195" t="s">
@@ -22378,9 +22378,9 @@
     </row>
     <row r="57" spans="1:13" ht="28.5" hidden="1" customHeight="1">
       <c r="A57" s="174"/>
-      <c r="B57" s="313"/>
-      <c r="C57" s="309"/>
-      <c r="D57" s="313"/>
+      <c r="B57" s="307"/>
+      <c r="C57" s="312"/>
+      <c r="D57" s="307"/>
       <c r="E57" s="175"/>
       <c r="F57" s="176"/>
       <c r="G57" s="217" t="s">
@@ -22399,9 +22399,9 @@
     </row>
     <row r="58" spans="1:13" ht="30.75" customHeight="1">
       <c r="A58" s="174"/>
-      <c r="B58" s="313"/>
-      <c r="C58" s="309"/>
-      <c r="D58" s="313"/>
+      <c r="B58" s="307"/>
+      <c r="C58" s="312"/>
+      <c r="D58" s="307"/>
       <c r="E58" s="175"/>
       <c r="F58" s="176"/>
       <c r="G58" s="195" t="s">
@@ -22422,9 +22422,9 @@
     </row>
     <row r="59" spans="1:13" ht="46.5" customHeight="1" thickBot="1">
       <c r="A59" s="174"/>
-      <c r="B59" s="313"/>
-      <c r="C59" s="309"/>
-      <c r="D59" s="313"/>
+      <c r="B59" s="307"/>
+      <c r="C59" s="312"/>
+      <c r="D59" s="307"/>
       <c r="E59" s="175"/>
       <c r="F59" s="176"/>
       <c r="G59" s="195" t="s">
@@ -22445,9 +22445,9 @@
     </row>
     <row r="60" spans="1:13" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="174"/>
-      <c r="B60" s="313"/>
-      <c r="C60" s="309"/>
-      <c r="D60" s="313"/>
+      <c r="B60" s="307"/>
+      <c r="C60" s="312"/>
+      <c r="D60" s="307"/>
       <c r="E60" s="175"/>
       <c r="F60" s="176"/>
       <c r="G60" s="213" t="s">
@@ -22466,9 +22466,9 @@
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1">
       <c r="A61" s="174"/>
-      <c r="B61" s="313"/>
-      <c r="C61" s="309"/>
-      <c r="D61" s="313"/>
+      <c r="B61" s="307"/>
+      <c r="C61" s="312"/>
+      <c r="D61" s="307"/>
       <c r="E61" s="175"/>
       <c r="F61" s="176"/>
       <c r="G61" s="210" t="s">
@@ -22489,9 +22489,9 @@
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1">
       <c r="A62" s="174"/>
-      <c r="B62" s="313"/>
-      <c r="C62" s="309"/>
-      <c r="D62" s="313"/>
+      <c r="B62" s="307"/>
+      <c r="C62" s="312"/>
+      <c r="D62" s="307"/>
       <c r="E62" s="175"/>
       <c r="F62" s="176"/>
       <c r="G62" s="195" t="s">
@@ -22510,9 +22510,9 @@
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1">
       <c r="A63" s="174"/>
-      <c r="B63" s="313"/>
-      <c r="C63" s="309"/>
-      <c r="D63" s="313"/>
+      <c r="B63" s="307"/>
+      <c r="C63" s="312"/>
+      <c r="D63" s="307"/>
       <c r="E63" s="175"/>
       <c r="F63" s="176"/>
       <c r="G63" s="195" t="s">
@@ -22531,9 +22531,9 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="174"/>
-      <c r="B64" s="313"/>
-      <c r="C64" s="309"/>
-      <c r="D64" s="313"/>
+      <c r="B64" s="307"/>
+      <c r="C64" s="312"/>
+      <c r="D64" s="307"/>
       <c r="E64" s="175"/>
       <c r="F64" s="176"/>
       <c r="G64" s="208" t="s">
@@ -22552,9 +22552,9 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1">
       <c r="A65" s="174"/>
-      <c r="B65" s="313"/>
-      <c r="C65" s="309"/>
-      <c r="D65" s="313"/>
+      <c r="B65" s="307"/>
+      <c r="C65" s="312"/>
+      <c r="D65" s="307"/>
       <c r="E65" s="175"/>
       <c r="F65" s="176"/>
       <c r="G65" s="210" t="s">
@@ -22573,9 +22573,9 @@
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="174"/>
-      <c r="B66" s="314"/>
-      <c r="C66" s="310"/>
-      <c r="D66" s="314"/>
+      <c r="B66" s="308"/>
+      <c r="C66" s="313"/>
+      <c r="D66" s="308"/>
       <c r="E66" s="175"/>
       <c r="F66" s="176"/>
       <c r="G66" s="228" t="s">
@@ -22594,13 +22594,13 @@
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="174"/>
-      <c r="B67" s="312" t="s">
+      <c r="B67" s="306" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="308" t="s">
+      <c r="C67" s="311" t="s">
         <v>1373</v>
       </c>
-      <c r="D67" s="303" t="s">
+      <c r="D67" s="314" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="175"/>
@@ -22623,9 +22623,9 @@
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1">
       <c r="A68" s="174"/>
-      <c r="B68" s="313"/>
-      <c r="C68" s="309"/>
-      <c r="D68" s="304"/>
+      <c r="B68" s="307"/>
+      <c r="C68" s="312"/>
+      <c r="D68" s="316"/>
       <c r="E68" s="175"/>
       <c r="F68" s="176"/>
       <c r="G68" s="177" t="s">
@@ -22644,9 +22644,9 @@
     </row>
     <row r="69" spans="1:13" ht="14.25" customHeight="1">
       <c r="A69" s="174"/>
-      <c r="B69" s="313"/>
-      <c r="C69" s="309"/>
-      <c r="D69" s="305"/>
+      <c r="B69" s="307"/>
+      <c r="C69" s="312"/>
+      <c r="D69" s="315"/>
       <c r="E69" s="175"/>
       <c r="F69" s="176"/>
       <c r="G69" s="177" t="s">
@@ -22669,11 +22669,11 @@
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1">
       <c r="A70" s="174"/>
-      <c r="B70" s="313"/>
-      <c r="C70" s="308" t="s">
+      <c r="B70" s="307"/>
+      <c r="C70" s="311" t="s">
         <v>1376</v>
       </c>
-      <c r="D70" s="303" t="s">
+      <c r="D70" s="314" t="s">
         <v>1377</v>
       </c>
       <c r="E70" s="175"/>
@@ -22696,9 +22696,9 @@
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1">
       <c r="A71" s="174"/>
-      <c r="B71" s="313"/>
-      <c r="C71" s="309"/>
-      <c r="D71" s="304"/>
+      <c r="B71" s="307"/>
+      <c r="C71" s="312"/>
+      <c r="D71" s="316"/>
       <c r="E71" s="175"/>
       <c r="F71" s="176"/>
       <c r="G71" s="177" t="s">
@@ -22719,9 +22719,9 @@
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1">
       <c r="A72" s="174"/>
-      <c r="B72" s="313"/>
-      <c r="C72" s="309"/>
-      <c r="D72" s="304"/>
+      <c r="B72" s="307"/>
+      <c r="C72" s="312"/>
+      <c r="D72" s="316"/>
       <c r="E72" s="175"/>
       <c r="F72" s="176"/>
       <c r="G72" s="177" t="s">
@@ -22742,9 +22742,9 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1">
       <c r="A73" s="174"/>
-      <c r="B73" s="313"/>
-      <c r="C73" s="309"/>
-      <c r="D73" s="305"/>
+      <c r="B73" s="307"/>
+      <c r="C73" s="312"/>
+      <c r="D73" s="315"/>
       <c r="E73" s="175"/>
       <c r="F73" s="176"/>
       <c r="G73" s="177" t="s">
@@ -22765,8 +22765,8 @@
     </row>
     <row r="74" spans="1:13" ht="49.5">
       <c r="A74" s="174"/>
-      <c r="B74" s="313"/>
-      <c r="C74" s="309"/>
+      <c r="B74" s="307"/>
+      <c r="C74" s="312"/>
       <c r="D74" s="231" t="s">
         <v>5</v>
       </c>
@@ -22790,10 +22790,10 @@
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
       <c r="A75" s="232"/>
-      <c r="B75" s="303" t="s">
+      <c r="B75" s="314" t="s">
         <v>1383</v>
       </c>
-      <c r="C75" s="308" t="s">
+      <c r="C75" s="311" t="s">
         <v>1384</v>
       </c>
       <c r="D75" s="192" t="s">
@@ -22817,8 +22817,8 @@
     </row>
     <row r="76" spans="1:13" ht="14.25" customHeight="1">
       <c r="A76" s="232"/>
-      <c r="B76" s="304"/>
-      <c r="C76" s="309"/>
+      <c r="B76" s="316"/>
+      <c r="C76" s="312"/>
       <c r="D76" s="193" t="s">
         <v>1577</v>
       </c>
@@ -22840,8 +22840,8 @@
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
       <c r="A77" s="232"/>
-      <c r="B77" s="304"/>
-      <c r="C77" s="309"/>
+      <c r="B77" s="316"/>
+      <c r="C77" s="312"/>
       <c r="D77" s="193" t="s">
         <v>1579</v>
       </c>
@@ -22865,9 +22865,9 @@
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
       <c r="A78" s="232"/>
-      <c r="B78" s="304"/>
-      <c r="C78" s="309"/>
-      <c r="D78" s="303" t="s">
+      <c r="B78" s="316"/>
+      <c r="C78" s="312"/>
+      <c r="D78" s="314" t="s">
         <v>1590</v>
       </c>
       <c r="E78" s="175"/>
@@ -22886,9 +22886,9 @@
     </row>
     <row r="79" spans="1:13" ht="100.5" customHeight="1">
       <c r="A79" s="232"/>
-      <c r="B79" s="304"/>
-      <c r="C79" s="309"/>
-      <c r="D79" s="304"/>
+      <c r="B79" s="316"/>
+      <c r="C79" s="312"/>
+      <c r="D79" s="316"/>
       <c r="E79" s="175"/>
       <c r="F79" s="176"/>
       <c r="G79" s="177" t="s">
@@ -22911,9 +22911,9 @@
     </row>
     <row r="80" spans="1:13" ht="91.5" customHeight="1">
       <c r="A80" s="232"/>
-      <c r="B80" s="304"/>
-      <c r="C80" s="309"/>
-      <c r="D80" s="305"/>
+      <c r="B80" s="316"/>
+      <c r="C80" s="312"/>
+      <c r="D80" s="315"/>
       <c r="E80" s="175"/>
       <c r="F80" s="176"/>
       <c r="G80" s="177" t="s">
@@ -22934,9 +22934,9 @@
     </row>
     <row r="81" spans="1:13" ht="14.25" customHeight="1">
       <c r="A81" s="232"/>
-      <c r="B81" s="304"/>
-      <c r="C81" s="309"/>
-      <c r="D81" s="303" t="s">
+      <c r="B81" s="316"/>
+      <c r="C81" s="312"/>
+      <c r="D81" s="314" t="s">
         <v>1387</v>
       </c>
       <c r="E81" s="175"/>
@@ -22961,9 +22961,9 @@
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
       <c r="A82" s="232"/>
-      <c r="B82" s="304"/>
-      <c r="C82" s="309"/>
-      <c r="D82" s="304"/>
+      <c r="B82" s="316"/>
+      <c r="C82" s="312"/>
+      <c r="D82" s="316"/>
       <c r="E82" s="175"/>
       <c r="F82" s="176"/>
       <c r="G82" s="177" t="s">
@@ -22984,9 +22984,9 @@
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1">
       <c r="A83" s="232"/>
-      <c r="B83" s="304"/>
-      <c r="C83" s="309"/>
-      <c r="D83" s="304"/>
+      <c r="B83" s="316"/>
+      <c r="C83" s="312"/>
+      <c r="D83" s="316"/>
       <c r="E83" s="175"/>
       <c r="F83" s="176"/>
       <c r="G83" s="177" t="s">
@@ -23007,9 +23007,9 @@
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1">
       <c r="A84" s="232"/>
-      <c r="B84" s="304"/>
-      <c r="C84" s="309"/>
-      <c r="D84" s="304"/>
+      <c r="B84" s="316"/>
+      <c r="C84" s="312"/>
+      <c r="D84" s="316"/>
       <c r="E84" s="175"/>
       <c r="F84" s="176"/>
       <c r="G84" s="177" t="s">
@@ -23030,9 +23030,9 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1">
       <c r="A85" s="232"/>
-      <c r="B85" s="304"/>
-      <c r="C85" s="309"/>
-      <c r="D85" s="305"/>
+      <c r="B85" s="316"/>
+      <c r="C85" s="312"/>
+      <c r="D85" s="315"/>
       <c r="E85" s="175"/>
       <c r="F85" s="176"/>
       <c r="G85" s="177" t="s">
@@ -23053,9 +23053,9 @@
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1">
       <c r="A86" s="232"/>
-      <c r="B86" s="304"/>
-      <c r="C86" s="309"/>
-      <c r="D86" s="303" t="s">
+      <c r="B86" s="316"/>
+      <c r="C86" s="312"/>
+      <c r="D86" s="314" t="s">
         <v>1394</v>
       </c>
       <c r="E86" s="175"/>
@@ -23080,9 +23080,9 @@
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1">
       <c r="A87" s="232"/>
-      <c r="B87" s="304"/>
-      <c r="C87" s="309"/>
-      <c r="D87" s="305"/>
+      <c r="B87" s="316"/>
+      <c r="C87" s="312"/>
+      <c r="D87" s="315"/>
       <c r="E87" s="175"/>
       <c r="F87" s="176"/>
       <c r="G87" s="177" t="s">
@@ -23103,8 +23103,8 @@
     </row>
     <row r="88" spans="1:13" ht="64.5" customHeight="1">
       <c r="A88" s="232"/>
-      <c r="B88" s="304"/>
-      <c r="C88" s="309"/>
+      <c r="B88" s="316"/>
+      <c r="C88" s="312"/>
       <c r="D88" s="192" t="s">
         <v>1</v>
       </c>
@@ -23130,9 +23130,9 @@
     </row>
     <row r="89" spans="1:13" ht="57" customHeight="1">
       <c r="A89" s="232"/>
-      <c r="B89" s="304"/>
-      <c r="C89" s="309"/>
-      <c r="D89" s="303" t="s">
+      <c r="B89" s="316"/>
+      <c r="C89" s="312"/>
+      <c r="D89" s="314" t="s">
         <v>1398</v>
       </c>
       <c r="E89" s="175"/>
@@ -23155,9 +23155,9 @@
     </row>
     <row r="90" spans="1:13" ht="49.5">
       <c r="A90" s="232"/>
-      <c r="B90" s="304"/>
-      <c r="C90" s="309"/>
-      <c r="D90" s="304"/>
+      <c r="B90" s="316"/>
+      <c r="C90" s="312"/>
+      <c r="D90" s="316"/>
       <c r="E90" s="175"/>
       <c r="F90" s="176"/>
       <c r="G90" s="177" t="s">
@@ -23178,9 +23178,9 @@
     </row>
     <row r="91" spans="1:13" ht="49.5">
       <c r="A91" s="232"/>
-      <c r="B91" s="304"/>
-      <c r="C91" s="309"/>
-      <c r="D91" s="304"/>
+      <c r="B91" s="316"/>
+      <c r="C91" s="312"/>
+      <c r="D91" s="316"/>
       <c r="E91" s="175"/>
       <c r="F91" s="176"/>
       <c r="G91" s="177" t="s">
@@ -23201,9 +23201,9 @@
     </row>
     <row r="92" spans="1:13" ht="49.5">
       <c r="A92" s="232"/>
-      <c r="B92" s="304"/>
-      <c r="C92" s="309"/>
-      <c r="D92" s="304"/>
+      <c r="B92" s="316"/>
+      <c r="C92" s="312"/>
+      <c r="D92" s="316"/>
       <c r="E92" s="175"/>
       <c r="F92" s="176"/>
       <c r="G92" s="177" t="s">
@@ -23224,9 +23224,9 @@
     </row>
     <row r="93" spans="1:13" ht="49.5">
       <c r="A93" s="232"/>
-      <c r="B93" s="304"/>
-      <c r="C93" s="309"/>
-      <c r="D93" s="305"/>
+      <c r="B93" s="316"/>
+      <c r="C93" s="312"/>
+      <c r="D93" s="315"/>
       <c r="E93" s="175"/>
       <c r="F93" s="176"/>
       <c r="G93" s="177" t="s">
@@ -23247,9 +23247,9 @@
     </row>
     <row r="94" spans="1:13" ht="16.5" customHeight="1">
       <c r="A94" s="232"/>
-      <c r="B94" s="304"/>
-      <c r="C94" s="309"/>
-      <c r="D94" s="303" t="s">
+      <c r="B94" s="316"/>
+      <c r="C94" s="312"/>
+      <c r="D94" s="314" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="175"/>
@@ -23272,9 +23272,9 @@
     </row>
     <row r="95" spans="1:13" ht="214.5">
       <c r="A95" s="232"/>
-      <c r="B95" s="304"/>
-      <c r="C95" s="309"/>
-      <c r="D95" s="304"/>
+      <c r="B95" s="316"/>
+      <c r="C95" s="312"/>
+      <c r="D95" s="316"/>
       <c r="E95" s="175"/>
       <c r="F95" s="176"/>
       <c r="G95" s="177" t="s">
@@ -23297,9 +23297,9 @@
     </row>
     <row r="96" spans="1:13" ht="30" customHeight="1">
       <c r="A96" s="232"/>
-      <c r="B96" s="304"/>
-      <c r="C96" s="309"/>
-      <c r="D96" s="305"/>
+      <c r="B96" s="316"/>
+      <c r="C96" s="312"/>
+      <c r="D96" s="315"/>
       <c r="E96" s="175"/>
       <c r="F96" s="176"/>
       <c r="G96" s="177" t="s">
@@ -23318,9 +23318,9 @@
     </row>
     <row r="97" spans="1:13" ht="131.25" customHeight="1">
       <c r="A97" s="232"/>
-      <c r="B97" s="304"/>
-      <c r="C97" s="309"/>
-      <c r="D97" s="303" t="s">
+      <c r="B97" s="316"/>
+      <c r="C97" s="312"/>
+      <c r="D97" s="314" t="s">
         <v>1406</v>
       </c>
       <c r="E97" s="175"/>
@@ -23343,9 +23343,9 @@
     </row>
     <row r="98" spans="1:13" ht="14.25" customHeight="1">
       <c r="A98" s="232"/>
-      <c r="B98" s="304"/>
-      <c r="C98" s="309"/>
-      <c r="D98" s="305"/>
+      <c r="B98" s="316"/>
+      <c r="C98" s="312"/>
+      <c r="D98" s="315"/>
       <c r="E98" s="175"/>
       <c r="F98" s="176"/>
       <c r="G98" s="177" t="s">
@@ -23364,9 +23364,9 @@
     </row>
     <row r="99" spans="1:13" s="161" customFormat="1" ht="214.5">
       <c r="A99" s="272"/>
-      <c r="B99" s="304"/>
-      <c r="C99" s="309"/>
-      <c r="D99" s="328" t="s">
+      <c r="B99" s="316"/>
+      <c r="C99" s="312"/>
+      <c r="D99" s="329" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="183"/>
@@ -23387,9 +23387,9 @@
     </row>
     <row r="100" spans="1:13" s="278" customFormat="1" ht="33">
       <c r="A100" s="273"/>
-      <c r="B100" s="304"/>
-      <c r="C100" s="310"/>
-      <c r="D100" s="328"/>
+      <c r="B100" s="316"/>
+      <c r="C100" s="313"/>
+      <c r="D100" s="329"/>
       <c r="E100" s="270"/>
       <c r="F100" s="274"/>
       <c r="G100" s="195" t="s">
@@ -23412,11 +23412,11 @@
     </row>
     <row r="101" spans="1:13" ht="14.25" customHeight="1">
       <c r="A101" s="232"/>
-      <c r="B101" s="304"/>
-      <c r="C101" s="308" t="s">
+      <c r="B101" s="316"/>
+      <c r="C101" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="304" t="s">
+      <c r="D101" s="316" t="s">
         <v>1589</v>
       </c>
       <c r="E101" s="175"/>
@@ -23437,9 +23437,9 @@
     </row>
     <row r="102" spans="1:13" ht="14.25" customHeight="1">
       <c r="A102" s="232"/>
-      <c r="B102" s="304"/>
-      <c r="C102" s="309"/>
-      <c r="D102" s="305"/>
+      <c r="B102" s="316"/>
+      <c r="C102" s="312"/>
+      <c r="D102" s="315"/>
       <c r="E102" s="175"/>
       <c r="F102" s="176"/>
       <c r="G102" s="177" t="s">
@@ -23458,8 +23458,8 @@
     </row>
     <row r="103" spans="1:13" ht="14.1" customHeight="1">
       <c r="A103" s="232"/>
-      <c r="B103" s="304"/>
-      <c r="C103" s="309"/>
+      <c r="B103" s="316"/>
+      <c r="C103" s="312"/>
       <c r="D103" s="192" t="s">
         <v>1412</v>
       </c>
@@ -23481,9 +23481,9 @@
     </row>
     <row r="104" spans="1:13" ht="66">
       <c r="A104" s="232"/>
-      <c r="B104" s="304"/>
-      <c r="C104" s="309"/>
-      <c r="D104" s="303" t="s">
+      <c r="B104" s="316"/>
+      <c r="C104" s="312"/>
+      <c r="D104" s="314" t="s">
         <v>1600</v>
       </c>
       <c r="E104" s="175"/>
@@ -23508,9 +23508,9 @@
     </row>
     <row r="105" spans="1:13" ht="14.25" customHeight="1">
       <c r="A105" s="232"/>
-      <c r="B105" s="304"/>
-      <c r="C105" s="309"/>
-      <c r="D105" s="304"/>
+      <c r="B105" s="316"/>
+      <c r="C105" s="312"/>
+      <c r="D105" s="316"/>
       <c r="E105" s="175"/>
       <c r="F105" s="176"/>
       <c r="G105" s="177" t="s">
@@ -23529,9 +23529,9 @@
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
       <c r="A106" s="232"/>
-      <c r="B106" s="304"/>
-      <c r="C106" s="309"/>
-      <c r="D106" s="304"/>
+      <c r="B106" s="316"/>
+      <c r="C106" s="312"/>
+      <c r="D106" s="316"/>
       <c r="E106" s="175"/>
       <c r="F106" s="176"/>
       <c r="G106" s="177" t="s">
@@ -23550,9 +23550,9 @@
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
       <c r="A107" s="232"/>
-      <c r="B107" s="304"/>
-      <c r="C107" s="309"/>
-      <c r="D107" s="305"/>
+      <c r="B107" s="316"/>
+      <c r="C107" s="312"/>
+      <c r="D107" s="315"/>
       <c r="E107" s="175"/>
       <c r="F107" s="176"/>
       <c r="G107" s="177" t="s">
@@ -23571,8 +23571,8 @@
     </row>
     <row r="108" spans="1:13" ht="14.25" customHeight="1">
       <c r="A108" s="232"/>
-      <c r="B108" s="304"/>
-      <c r="C108" s="309"/>
+      <c r="B108" s="316"/>
+      <c r="C108" s="312"/>
       <c r="D108" s="192" t="s">
         <v>1385</v>
       </c>
@@ -23594,8 +23594,8 @@
     </row>
     <row r="109" spans="1:13" ht="14.25" customHeight="1">
       <c r="A109" s="232"/>
-      <c r="B109" s="304"/>
-      <c r="C109" s="309"/>
+      <c r="B109" s="316"/>
+      <c r="C109" s="312"/>
       <c r="D109" s="300" t="s">
         <v>3041</v>
       </c>
@@ -23613,9 +23613,9 @@
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
       <c r="A110" s="232"/>
-      <c r="B110" s="304"/>
-      <c r="C110" s="309"/>
-      <c r="D110" s="303" t="s">
+      <c r="B110" s="316"/>
+      <c r="C110" s="312"/>
+      <c r="D110" s="314" t="s">
         <v>1413</v>
       </c>
       <c r="E110" s="175"/>
@@ -23638,9 +23638,9 @@
     </row>
     <row r="111" spans="1:13" ht="14.25" customHeight="1">
       <c r="A111" s="232"/>
-      <c r="B111" s="304"/>
-      <c r="C111" s="309"/>
-      <c r="D111" s="305"/>
+      <c r="B111" s="316"/>
+      <c r="C111" s="312"/>
+      <c r="D111" s="315"/>
       <c r="E111" s="175"/>
       <c r="F111" s="176"/>
       <c r="G111" s="177" t="s">
@@ -23661,9 +23661,9 @@
     </row>
     <row r="112" spans="1:13" ht="14.25" customHeight="1">
       <c r="A112" s="232"/>
-      <c r="B112" s="304"/>
-      <c r="C112" s="309"/>
-      <c r="D112" s="325" t="s">
+      <c r="B112" s="316"/>
+      <c r="C112" s="312"/>
+      <c r="D112" s="326" t="s">
         <v>1418</v>
       </c>
       <c r="E112" s="175"/>
@@ -23684,9 +23684,9 @@
     </row>
     <row r="113" spans="1:13" ht="14.25" customHeight="1">
       <c r="A113" s="232"/>
-      <c r="B113" s="304"/>
-      <c r="C113" s="309"/>
-      <c r="D113" s="326"/>
+      <c r="B113" s="316"/>
+      <c r="C113" s="312"/>
+      <c r="D113" s="327"/>
       <c r="E113" s="175"/>
       <c r="F113" s="176"/>
       <c r="G113" s="177" t="s">
@@ -23705,9 +23705,9 @@
     </row>
     <row r="114" spans="1:13" ht="14.25" customHeight="1">
       <c r="A114" s="232"/>
-      <c r="B114" s="304"/>
-      <c r="C114" s="309"/>
-      <c r="D114" s="327"/>
+      <c r="B114" s="316"/>
+      <c r="C114" s="312"/>
+      <c r="D114" s="328"/>
       <c r="E114" s="175"/>
       <c r="F114" s="176"/>
       <c r="G114" s="177" t="s">
@@ -23726,8 +23726,8 @@
     </row>
     <row r="115" spans="1:13" ht="14.25" customHeight="1">
       <c r="A115" s="232"/>
-      <c r="B115" s="304"/>
-      <c r="C115" s="309"/>
+      <c r="B115" s="316"/>
+      <c r="C115" s="312"/>
       <c r="D115" s="192" t="s">
         <v>9</v>
       </c>
@@ -23749,9 +23749,9 @@
     </row>
     <row r="116" spans="1:13" ht="33">
       <c r="A116" s="232"/>
-      <c r="B116" s="304"/>
-      <c r="C116" s="309"/>
-      <c r="D116" s="303" t="s">
+      <c r="B116" s="316"/>
+      <c r="C116" s="312"/>
+      <c r="D116" s="314" t="s">
         <v>1421</v>
       </c>
       <c r="E116" s="175"/>
@@ -23774,9 +23774,9 @@
     </row>
     <row r="117" spans="1:13" ht="14.25" customHeight="1">
       <c r="A117" s="232"/>
-      <c r="B117" s="304"/>
-      <c r="C117" s="309"/>
-      <c r="D117" s="304"/>
+      <c r="B117" s="316"/>
+      <c r="C117" s="312"/>
+      <c r="D117" s="316"/>
       <c r="E117" s="175"/>
       <c r="F117" s="176"/>
       <c r="G117" s="177" t="s">
@@ -23795,9 +23795,9 @@
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
       <c r="A118" s="232"/>
-      <c r="B118" s="304"/>
-      <c r="C118" s="310"/>
-      <c r="D118" s="305"/>
+      <c r="B118" s="316"/>
+      <c r="C118" s="313"/>
+      <c r="D118" s="315"/>
       <c r="E118" s="175"/>
       <c r="F118" s="176"/>
       <c r="G118" s="177" t="s">
@@ -23818,11 +23818,11 @@
     </row>
     <row r="119" spans="1:13" ht="14.25" customHeight="1">
       <c r="A119" s="232"/>
-      <c r="B119" s="304"/>
-      <c r="C119" s="308" t="s">
+      <c r="B119" s="316"/>
+      <c r="C119" s="311" t="s">
         <v>1427</v>
       </c>
-      <c r="D119" s="303" t="s">
+      <c r="D119" s="314" t="s">
         <v>1428</v>
       </c>
       <c r="E119" s="175"/>
@@ -23843,9 +23843,9 @@
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
       <c r="A120" s="232"/>
-      <c r="B120" s="304"/>
-      <c r="C120" s="309"/>
-      <c r="D120" s="305"/>
+      <c r="B120" s="316"/>
+      <c r="C120" s="312"/>
+      <c r="D120" s="315"/>
       <c r="E120" s="175"/>
       <c r="F120" s="176"/>
       <c r="G120" s="177" t="s">
@@ -23866,8 +23866,8 @@
     </row>
     <row r="121" spans="1:13" ht="14.25" customHeight="1">
       <c r="A121" s="181"/>
-      <c r="B121" s="304"/>
-      <c r="C121" s="309"/>
+      <c r="B121" s="316"/>
+      <c r="C121" s="312"/>
       <c r="D121" s="192" t="s">
         <v>1431</v>
       </c>
@@ -23891,8 +23891,8 @@
     </row>
     <row r="122" spans="1:13" ht="14.25" customHeight="1">
       <c r="A122" s="181"/>
-      <c r="B122" s="304"/>
-      <c r="C122" s="309"/>
+      <c r="B122" s="316"/>
+      <c r="C122" s="312"/>
       <c r="D122" s="192" t="s">
         <v>1434</v>
       </c>
@@ -23914,8 +23914,8 @@
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
       <c r="A123" s="181"/>
-      <c r="B123" s="304"/>
-      <c r="C123" s="309"/>
+      <c r="B123" s="316"/>
+      <c r="C123" s="312"/>
       <c r="D123" s="242" t="s">
         <v>1436</v>
       </c>
@@ -23939,9 +23939,9 @@
     </row>
     <row r="124" spans="1:13" ht="14.25" customHeight="1">
       <c r="A124" s="181"/>
-      <c r="B124" s="304"/>
-      <c r="C124" s="309"/>
-      <c r="D124" s="303" t="s">
+      <c r="B124" s="316"/>
+      <c r="C124" s="312"/>
+      <c r="D124" s="314" t="s">
         <v>171</v>
       </c>
       <c r="E124" s="175"/>
@@ -23962,9 +23962,9 @@
     </row>
     <row r="125" spans="1:13" ht="14.25" customHeight="1">
       <c r="A125" s="181"/>
-      <c r="B125" s="304"/>
-      <c r="C125" s="309"/>
-      <c r="D125" s="304"/>
+      <c r="B125" s="316"/>
+      <c r="C125" s="312"/>
+      <c r="D125" s="316"/>
       <c r="E125" s="175"/>
       <c r="F125" s="176"/>
       <c r="G125" s="177" t="s">
@@ -23985,9 +23985,9 @@
     </row>
     <row r="126" spans="1:13" ht="14.25" customHeight="1">
       <c r="A126" s="181"/>
-      <c r="B126" s="304"/>
-      <c r="C126" s="309"/>
-      <c r="D126" s="304"/>
+      <c r="B126" s="316"/>
+      <c r="C126" s="312"/>
+      <c r="D126" s="316"/>
       <c r="E126" s="175"/>
       <c r="F126" s="176"/>
       <c r="G126" s="177" t="s">
@@ -24006,9 +24006,9 @@
     </row>
     <row r="127" spans="1:13" ht="14.25" customHeight="1">
       <c r="A127" s="181"/>
-      <c r="B127" s="304"/>
-      <c r="C127" s="309"/>
-      <c r="D127" s="305"/>
+      <c r="B127" s="316"/>
+      <c r="C127" s="312"/>
+      <c r="D127" s="315"/>
       <c r="E127" s="175"/>
       <c r="F127" s="176"/>
       <c r="G127" s="177" t="s">
@@ -24029,9 +24029,9 @@
     </row>
     <row r="128" spans="1:13" ht="14.25" customHeight="1">
       <c r="A128" s="181"/>
-      <c r="B128" s="304"/>
-      <c r="C128" s="309"/>
-      <c r="D128" s="306" t="s">
+      <c r="B128" s="316"/>
+      <c r="C128" s="312"/>
+      <c r="D128" s="331" t="s">
         <v>1438</v>
       </c>
       <c r="E128" s="175"/>
@@ -24052,9 +24052,9 @@
     </row>
     <row r="129" spans="1:13" ht="14.25" customHeight="1">
       <c r="A129" s="181"/>
-      <c r="B129" s="304"/>
-      <c r="C129" s="309"/>
-      <c r="D129" s="307"/>
+      <c r="B129" s="316"/>
+      <c r="C129" s="312"/>
+      <c r="D129" s="334"/>
       <c r="E129" s="175"/>
       <c r="F129" s="176"/>
       <c r="G129" s="177" t="s">
@@ -24077,9 +24077,9 @@
     </row>
     <row r="130" spans="1:13" ht="14.25" customHeight="1">
       <c r="A130" s="181"/>
-      <c r="B130" s="304"/>
-      <c r="C130" s="309"/>
-      <c r="D130" s="303" t="s">
+      <c r="B130" s="316"/>
+      <c r="C130" s="312"/>
+      <c r="D130" s="314" t="s">
         <v>1441</v>
       </c>
       <c r="E130" s="175"/>
@@ -24100,9 +24100,9 @@
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
       <c r="A131" s="181"/>
-      <c r="B131" s="304"/>
-      <c r="C131" s="309"/>
-      <c r="D131" s="304"/>
+      <c r="B131" s="316"/>
+      <c r="C131" s="312"/>
+      <c r="D131" s="316"/>
       <c r="E131" s="175"/>
       <c r="F131" s="176"/>
       <c r="G131" s="197" t="s">
@@ -24121,9 +24121,9 @@
     </row>
     <row r="132" spans="1:13" ht="14.25" customHeight="1">
       <c r="A132" s="181"/>
-      <c r="B132" s="304"/>
-      <c r="C132" s="309"/>
-      <c r="D132" s="305"/>
+      <c r="B132" s="316"/>
+      <c r="C132" s="312"/>
+      <c r="D132" s="315"/>
       <c r="E132" s="175"/>
       <c r="F132" s="176"/>
       <c r="G132" s="177" t="s">
@@ -24140,9 +24140,9 @@
     </row>
     <row r="133" spans="1:13" ht="51.75" customHeight="1">
       <c r="A133" s="181"/>
-      <c r="B133" s="304"/>
-      <c r="C133" s="309"/>
-      <c r="D133" s="316" t="s">
+      <c r="B133" s="316"/>
+      <c r="C133" s="312"/>
+      <c r="D133" s="333" t="s">
         <v>166</v>
       </c>
       <c r="E133" s="175"/>
@@ -24161,9 +24161,9 @@
     </row>
     <row r="134" spans="1:13" ht="14.25" customHeight="1">
       <c r="A134" s="181"/>
-      <c r="B134" s="304"/>
-      <c r="C134" s="309"/>
-      <c r="D134" s="316"/>
+      <c r="B134" s="316"/>
+      <c r="C134" s="312"/>
+      <c r="D134" s="333"/>
       <c r="E134" s="175"/>
       <c r="F134" s="176"/>
       <c r="G134" s="177" t="s">
@@ -24180,8 +24180,8 @@
     </row>
     <row r="135" spans="1:13" ht="14.25" customHeight="1">
       <c r="A135" s="181"/>
-      <c r="B135" s="304"/>
-      <c r="C135" s="309"/>
+      <c r="B135" s="316"/>
+      <c r="C135" s="312"/>
       <c r="D135" s="191" t="s">
         <v>170</v>
       </c>
@@ -24203,9 +24203,9 @@
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
       <c r="A136" s="181"/>
-      <c r="B136" s="304"/>
-      <c r="C136" s="309"/>
-      <c r="D136" s="303" t="s">
+      <c r="B136" s="316"/>
+      <c r="C136" s="312"/>
+      <c r="D136" s="314" t="s">
         <v>13</v>
       </c>
       <c r="E136" s="175"/>
@@ -24226,9 +24226,9 @@
     </row>
     <row r="137" spans="1:13" ht="14.25" customHeight="1">
       <c r="A137" s="181"/>
-      <c r="B137" s="304"/>
-      <c r="C137" s="309"/>
-      <c r="D137" s="304"/>
+      <c r="B137" s="316"/>
+      <c r="C137" s="312"/>
+      <c r="D137" s="316"/>
       <c r="E137" s="175"/>
       <c r="F137" s="176"/>
       <c r="G137" s="177" t="s">
@@ -24247,9 +24247,9 @@
     </row>
     <row r="138" spans="1:13" ht="14.25" customHeight="1">
       <c r="A138" s="181"/>
-      <c r="B138" s="304"/>
-      <c r="C138" s="309"/>
-      <c r="D138" s="304"/>
+      <c r="B138" s="316"/>
+      <c r="C138" s="312"/>
+      <c r="D138" s="316"/>
       <c r="E138" s="175"/>
       <c r="F138" s="176"/>
       <c r="G138" s="177" t="s">
@@ -24268,9 +24268,9 @@
     </row>
     <row r="139" spans="1:13" ht="14.25" customHeight="1">
       <c r="A139" s="181"/>
-      <c r="B139" s="304"/>
-      <c r="C139" s="309"/>
-      <c r="D139" s="304"/>
+      <c r="B139" s="316"/>
+      <c r="C139" s="312"/>
+      <c r="D139" s="316"/>
       <c r="E139" s="175"/>
       <c r="F139" s="176"/>
       <c r="G139" s="177" t="s">
@@ -24289,9 +24289,9 @@
     </row>
     <row r="140" spans="1:13" ht="14.25" customHeight="1">
       <c r="A140" s="181"/>
-      <c r="B140" s="304"/>
-      <c r="C140" s="309"/>
-      <c r="D140" s="304"/>
+      <c r="B140" s="316"/>
+      <c r="C140" s="312"/>
+      <c r="D140" s="316"/>
       <c r="E140" s="175"/>
       <c r="F140" s="176"/>
       <c r="G140" s="177" t="s">
@@ -24310,9 +24310,9 @@
     </row>
     <row r="141" spans="1:13" ht="14.25" customHeight="1">
       <c r="A141" s="181"/>
-      <c r="B141" s="304"/>
-      <c r="C141" s="309"/>
-      <c r="D141" s="304"/>
+      <c r="B141" s="316"/>
+      <c r="C141" s="312"/>
+      <c r="D141" s="316"/>
       <c r="E141" s="175"/>
       <c r="F141" s="176"/>
       <c r="G141" s="177" t="s">
@@ -24331,9 +24331,9 @@
     </row>
     <row r="142" spans="1:13" ht="14.25" customHeight="1">
       <c r="A142" s="181"/>
-      <c r="B142" s="304"/>
-      <c r="C142" s="309"/>
-      <c r="D142" s="304"/>
+      <c r="B142" s="316"/>
+      <c r="C142" s="312"/>
+      <c r="D142" s="316"/>
       <c r="E142" s="175"/>
       <c r="F142" s="176"/>
       <c r="G142" s="177" t="s">
@@ -24352,9 +24352,9 @@
     </row>
     <row r="143" spans="1:13" ht="14.25" customHeight="1">
       <c r="A143" s="181"/>
-      <c r="B143" s="304"/>
-      <c r="C143" s="310"/>
-      <c r="D143" s="305"/>
+      <c r="B143" s="316"/>
+      <c r="C143" s="313"/>
+      <c r="D143" s="315"/>
       <c r="E143" s="175"/>
       <c r="F143" s="176"/>
       <c r="G143" s="177" t="s">
@@ -24373,11 +24373,11 @@
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
       <c r="A144" s="181"/>
-      <c r="B144" s="304"/>
-      <c r="C144" s="308" t="s">
+      <c r="B144" s="316"/>
+      <c r="C144" s="311" t="s">
         <v>18</v>
       </c>
-      <c r="D144" s="303" t="s">
+      <c r="D144" s="314" t="s">
         <v>19</v>
       </c>
       <c r="E144" s="175"/>
@@ -24398,9 +24398,9 @@
     </row>
     <row r="145" spans="1:13" ht="14.25" customHeight="1">
       <c r="A145" s="181"/>
-      <c r="B145" s="304"/>
-      <c r="C145" s="309"/>
-      <c r="D145" s="304"/>
+      <c r="B145" s="316"/>
+      <c r="C145" s="312"/>
+      <c r="D145" s="316"/>
       <c r="E145" s="175"/>
       <c r="F145" s="176"/>
       <c r="G145" s="177" t="s">
@@ -24419,9 +24419,9 @@
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
       <c r="A146" s="181"/>
-      <c r="B146" s="304"/>
-      <c r="C146" s="309"/>
-      <c r="D146" s="305"/>
+      <c r="B146" s="316"/>
+      <c r="C146" s="312"/>
+      <c r="D146" s="315"/>
       <c r="E146" s="175"/>
       <c r="F146" s="176"/>
       <c r="G146" s="177" t="s">
@@ -24440,9 +24440,9 @@
     </row>
     <row r="147" spans="1:13" ht="14.25" customHeight="1">
       <c r="A147" s="181"/>
-      <c r="B147" s="304"/>
-      <c r="C147" s="309"/>
-      <c r="D147" s="303" t="s">
+      <c r="B147" s="316"/>
+      <c r="C147" s="312"/>
+      <c r="D147" s="314" t="s">
         <v>21</v>
       </c>
       <c r="E147" s="175"/>
@@ -24463,9 +24463,9 @@
     </row>
     <row r="148" spans="1:13" ht="14.25" customHeight="1">
       <c r="A148" s="181"/>
-      <c r="B148" s="304"/>
-      <c r="C148" s="309"/>
-      <c r="D148" s="305"/>
+      <c r="B148" s="316"/>
+      <c r="C148" s="312"/>
+      <c r="D148" s="315"/>
       <c r="E148" s="175"/>
       <c r="F148" s="176"/>
       <c r="G148" s="177" t="s">
@@ -24484,8 +24484,8 @@
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
       <c r="A149" s="181"/>
-      <c r="B149" s="304"/>
-      <c r="C149" s="310"/>
+      <c r="B149" s="316"/>
+      <c r="C149" s="313"/>
       <c r="D149" s="192" t="s">
         <v>27</v>
       </c>
@@ -24507,11 +24507,11 @@
     </row>
     <row r="150" spans="1:13" ht="14.25" customHeight="1">
       <c r="A150" s="181"/>
-      <c r="B150" s="304"/>
-      <c r="C150" s="308" t="s">
+      <c r="B150" s="316"/>
+      <c r="C150" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="D150" s="303" t="s">
+      <c r="D150" s="314" t="s">
         <v>30</v>
       </c>
       <c r="E150" s="175"/>
@@ -24532,9 +24532,9 @@
     </row>
     <row r="151" spans="1:13" ht="14.25" customHeight="1">
       <c r="A151" s="181"/>
-      <c r="B151" s="304"/>
-      <c r="C151" s="309"/>
-      <c r="D151" s="304"/>
+      <c r="B151" s="316"/>
+      <c r="C151" s="312"/>
+      <c r="D151" s="316"/>
       <c r="E151" s="175"/>
       <c r="F151" s="176"/>
       <c r="G151" s="177" t="s">
@@ -24553,9 +24553,9 @@
     </row>
     <row r="152" spans="1:13" ht="14.25" customHeight="1">
       <c r="A152" s="181"/>
-      <c r="B152" s="304"/>
-      <c r="C152" s="309"/>
-      <c r="D152" s="304"/>
+      <c r="B152" s="316"/>
+      <c r="C152" s="312"/>
+      <c r="D152" s="316"/>
       <c r="E152" s="175"/>
       <c r="F152" s="176"/>
       <c r="G152" s="177" t="s">
@@ -24574,9 +24574,9 @@
     </row>
     <row r="153" spans="1:13" ht="14.25" customHeight="1">
       <c r="A153" s="181"/>
-      <c r="B153" s="304"/>
-      <c r="C153" s="309"/>
-      <c r="D153" s="305"/>
+      <c r="B153" s="316"/>
+      <c r="C153" s="312"/>
+      <c r="D153" s="315"/>
       <c r="E153" s="175"/>
       <c r="F153" s="176"/>
       <c r="G153" s="177" t="s">
@@ -24593,9 +24593,9 @@
     </row>
     <row r="154" spans="1:13" ht="14.25" customHeight="1">
       <c r="A154" s="181"/>
-      <c r="B154" s="304"/>
-      <c r="C154" s="309"/>
-      <c r="D154" s="306" t="s">
+      <c r="B154" s="316"/>
+      <c r="C154" s="312"/>
+      <c r="D154" s="331" t="s">
         <v>35</v>
       </c>
       <c r="E154" s="244"/>
@@ -24618,9 +24618,9 @@
     </row>
     <row r="155" spans="1:13" ht="14.25" customHeight="1">
       <c r="A155" s="181"/>
-      <c r="B155" s="304"/>
-      <c r="C155" s="309"/>
-      <c r="D155" s="307"/>
+      <c r="B155" s="316"/>
+      <c r="C155" s="312"/>
+      <c r="D155" s="334"/>
       <c r="E155" s="244"/>
       <c r="F155" s="245"/>
       <c r="G155" s="177" t="s">
@@ -24639,8 +24639,8 @@
     </row>
     <row r="156" spans="1:13" ht="14.25" customHeight="1">
       <c r="A156" s="181"/>
-      <c r="B156" s="304"/>
-      <c r="C156" s="309"/>
+      <c r="B156" s="316"/>
+      <c r="C156" s="312"/>
       <c r="D156" s="192" t="s">
         <v>38</v>
       </c>
@@ -24662,8 +24662,8 @@
     </row>
     <row r="157" spans="1:13" ht="33">
       <c r="A157" s="181"/>
-      <c r="B157" s="304"/>
-      <c r="C157" s="309"/>
+      <c r="B157" s="316"/>
+      <c r="C157" s="312"/>
       <c r="D157" s="192" t="s">
         <v>40</v>
       </c>
@@ -24685,9 +24685,9 @@
     </row>
     <row r="158" spans="1:13" ht="14.25" customHeight="1">
       <c r="A158" s="181"/>
-      <c r="B158" s="304"/>
-      <c r="C158" s="309"/>
-      <c r="D158" s="303" t="s">
+      <c r="B158" s="316"/>
+      <c r="C158" s="312"/>
+      <c r="D158" s="314" t="s">
         <v>42</v>
       </c>
       <c r="E158" s="175"/>
@@ -24710,9 +24710,9 @@
     </row>
     <row r="159" spans="1:13" ht="14.25" customHeight="1">
       <c r="A159" s="181"/>
-      <c r="B159" s="304"/>
-      <c r="C159" s="309"/>
-      <c r="D159" s="304"/>
+      <c r="B159" s="316"/>
+      <c r="C159" s="312"/>
+      <c r="D159" s="316"/>
       <c r="E159" s="175"/>
       <c r="F159" s="176"/>
       <c r="G159" s="177" t="s">
@@ -24731,9 +24731,9 @@
     </row>
     <row r="160" spans="1:13" ht="33">
       <c r="A160" s="181"/>
-      <c r="B160" s="304"/>
-      <c r="C160" s="309"/>
-      <c r="D160" s="304"/>
+      <c r="B160" s="316"/>
+      <c r="C160" s="312"/>
+      <c r="D160" s="316"/>
       <c r="E160" s="175"/>
       <c r="F160" s="176"/>
       <c r="G160" s="177" t="s">
@@ -24752,9 +24752,9 @@
     </row>
     <row r="161" spans="1:13" ht="14.25" customHeight="1">
       <c r="A161" s="181"/>
-      <c r="B161" s="304"/>
-      <c r="C161" s="309"/>
-      <c r="D161" s="304"/>
+      <c r="B161" s="316"/>
+      <c r="C161" s="312"/>
+      <c r="D161" s="316"/>
       <c r="E161" s="175"/>
       <c r="F161" s="176"/>
       <c r="G161" s="177" t="s">
@@ -24773,9 +24773,9 @@
     </row>
     <row r="162" spans="1:13" ht="14.25" customHeight="1">
       <c r="A162" s="181"/>
-      <c r="B162" s="304"/>
-      <c r="C162" s="309"/>
-      <c r="D162" s="304"/>
+      <c r="B162" s="316"/>
+      <c r="C162" s="312"/>
+      <c r="D162" s="316"/>
       <c r="E162" s="175"/>
       <c r="F162" s="176"/>
       <c r="G162" s="177" t="s">
@@ -24794,9 +24794,9 @@
     </row>
     <row r="163" spans="1:13" ht="46.5" customHeight="1">
       <c r="A163" s="181"/>
-      <c r="B163" s="304"/>
-      <c r="C163" s="309"/>
-      <c r="D163" s="304"/>
+      <c r="B163" s="316"/>
+      <c r="C163" s="312"/>
+      <c r="D163" s="316"/>
       <c r="E163" s="175"/>
       <c r="F163" s="176"/>
       <c r="G163" s="177" t="s">
@@ -24815,9 +24815,9 @@
     </row>
     <row r="164" spans="1:13" ht="26.25" customHeight="1">
       <c r="A164" s="181"/>
-      <c r="B164" s="304"/>
-      <c r="C164" s="309"/>
-      <c r="D164" s="304"/>
+      <c r="B164" s="316"/>
+      <c r="C164" s="312"/>
+      <c r="D164" s="316"/>
       <c r="E164" s="175"/>
       <c r="F164" s="176"/>
       <c r="G164" s="247" t="s">
@@ -24836,9 +24836,9 @@
     </row>
     <row r="165" spans="1:13" ht="14.25" customHeight="1">
       <c r="A165" s="181"/>
-      <c r="B165" s="304"/>
-      <c r="C165" s="309"/>
-      <c r="D165" s="304"/>
+      <c r="B165" s="316"/>
+      <c r="C165" s="312"/>
+      <c r="D165" s="316"/>
       <c r="E165" s="175"/>
       <c r="F165" s="176"/>
       <c r="G165" s="177" t="s">
@@ -24857,9 +24857,9 @@
     </row>
     <row r="166" spans="1:13" ht="14.25" customHeight="1">
       <c r="A166" s="181"/>
-      <c r="B166" s="304"/>
-      <c r="C166" s="309"/>
-      <c r="D166" s="304"/>
+      <c r="B166" s="316"/>
+      <c r="C166" s="312"/>
+      <c r="D166" s="316"/>
       <c r="E166" s="175"/>
       <c r="F166" s="176"/>
       <c r="G166" s="177" t="s">
@@ -24878,9 +24878,9 @@
     </row>
     <row r="167" spans="1:13" ht="33">
       <c r="A167" s="181"/>
-      <c r="B167" s="304"/>
-      <c r="C167" s="310"/>
-      <c r="D167" s="305"/>
+      <c r="B167" s="316"/>
+      <c r="C167" s="313"/>
+      <c r="D167" s="315"/>
       <c r="E167" s="175"/>
       <c r="F167" s="176"/>
       <c r="G167" s="177" t="s">
@@ -24899,11 +24899,11 @@
     </row>
     <row r="168" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A168" s="181"/>
-      <c r="B168" s="304"/>
-      <c r="C168" s="308" t="s">
+      <c r="B168" s="316"/>
+      <c r="C168" s="311" t="s">
         <v>53</v>
       </c>
-      <c r="D168" s="303" t="s">
+      <c r="D168" s="314" t="s">
         <v>106</v>
       </c>
       <c r="E168" s="175"/>
@@ -24920,9 +24920,9 @@
     </row>
     <row r="169" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A169" s="181"/>
-      <c r="B169" s="304"/>
-      <c r="C169" s="309"/>
-      <c r="D169" s="304"/>
+      <c r="B169" s="316"/>
+      <c r="C169" s="312"/>
+      <c r="D169" s="316"/>
       <c r="E169" s="175"/>
       <c r="F169" s="176"/>
       <c r="G169" s="177" t="s">
@@ -24937,9 +24937,9 @@
     </row>
     <row r="170" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A170" s="181"/>
-      <c r="B170" s="304"/>
-      <c r="C170" s="309"/>
-      <c r="D170" s="304"/>
+      <c r="B170" s="316"/>
+      <c r="C170" s="312"/>
+      <c r="D170" s="316"/>
       <c r="E170" s="175"/>
       <c r="F170" s="176"/>
       <c r="G170" s="177" t="s">
@@ -24954,9 +24954,9 @@
     </row>
     <row r="171" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A171" s="181"/>
-      <c r="B171" s="304"/>
-      <c r="C171" s="309"/>
-      <c r="D171" s="304"/>
+      <c r="B171" s="316"/>
+      <c r="C171" s="312"/>
+      <c r="D171" s="316"/>
       <c r="E171" s="175"/>
       <c r="F171" s="176"/>
       <c r="G171" s="177" t="s">
@@ -24971,9 +24971,9 @@
     </row>
     <row r="172" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A172" s="181"/>
-      <c r="B172" s="304"/>
-      <c r="C172" s="309"/>
-      <c r="D172" s="304"/>
+      <c r="B172" s="316"/>
+      <c r="C172" s="312"/>
+      <c r="D172" s="316"/>
       <c r="E172" s="175"/>
       <c r="F172" s="176"/>
       <c r="G172" s="177" t="s">
@@ -24988,9 +24988,9 @@
     </row>
     <row r="173" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="304"/>
-      <c r="C173" s="309"/>
-      <c r="D173" s="304"/>
+      <c r="B173" s="316"/>
+      <c r="C173" s="312"/>
+      <c r="D173" s="316"/>
       <c r="E173" s="175"/>
       <c r="F173" s="176"/>
       <c r="G173" s="177" t="s">
@@ -25005,9 +25005,9 @@
     </row>
     <row r="174" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A174" s="181"/>
-      <c r="B174" s="304"/>
-      <c r="C174" s="309"/>
-      <c r="D174" s="304"/>
+      <c r="B174" s="316"/>
+      <c r="C174" s="312"/>
+      <c r="D174" s="316"/>
       <c r="E174" s="175"/>
       <c r="F174" s="176"/>
       <c r="G174" s="177" t="s">
@@ -25022,9 +25022,9 @@
     </row>
     <row r="175" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A175" s="181"/>
-      <c r="B175" s="304"/>
-      <c r="C175" s="309"/>
-      <c r="D175" s="304"/>
+      <c r="B175" s="316"/>
+      <c r="C175" s="312"/>
+      <c r="D175" s="316"/>
       <c r="E175" s="175"/>
       <c r="F175" s="176"/>
       <c r="G175" s="177" t="s">
@@ -25039,9 +25039,9 @@
     </row>
     <row r="176" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A176" s="181"/>
-      <c r="B176" s="304"/>
-      <c r="C176" s="309"/>
-      <c r="D176" s="305"/>
+      <c r="B176" s="316"/>
+      <c r="C176" s="312"/>
+      <c r="D176" s="315"/>
       <c r="E176" s="175"/>
       <c r="F176" s="176"/>
       <c r="G176" s="177" t="s">
@@ -25056,9 +25056,9 @@
     </row>
     <row r="177" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A177" s="181"/>
-      <c r="B177" s="304"/>
-      <c r="C177" s="309"/>
-      <c r="D177" s="303" t="s">
+      <c r="B177" s="316"/>
+      <c r="C177" s="312"/>
+      <c r="D177" s="314" t="s">
         <v>108</v>
       </c>
       <c r="E177" s="175"/>
@@ -25075,9 +25075,9 @@
     </row>
     <row r="178" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A178" s="181"/>
-      <c r="B178" s="304"/>
-      <c r="C178" s="309"/>
-      <c r="D178" s="304"/>
+      <c r="B178" s="316"/>
+      <c r="C178" s="312"/>
+      <c r="D178" s="316"/>
       <c r="E178" s="175"/>
       <c r="F178" s="176"/>
       <c r="G178" s="177" t="s">
@@ -25092,9 +25092,9 @@
     </row>
     <row r="179" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A179" s="181"/>
-      <c r="B179" s="304"/>
-      <c r="C179" s="309"/>
-      <c r="D179" s="304"/>
+      <c r="B179" s="316"/>
+      <c r="C179" s="312"/>
+      <c r="D179" s="316"/>
       <c r="E179" s="175"/>
       <c r="F179" s="176"/>
       <c r="G179" s="177" t="s">
@@ -25109,9 +25109,9 @@
     </row>
     <row r="180" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A180" s="181"/>
-      <c r="B180" s="304"/>
-      <c r="C180" s="309"/>
-      <c r="D180" s="304"/>
+      <c r="B180" s="316"/>
+      <c r="C180" s="312"/>
+      <c r="D180" s="316"/>
       <c r="E180" s="175"/>
       <c r="F180" s="176"/>
       <c r="G180" s="177" t="s">
@@ -25126,9 +25126,9 @@
     </row>
     <row r="181" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A181" s="181"/>
-      <c r="B181" s="304"/>
-      <c r="C181" s="309"/>
-      <c r="D181" s="304"/>
+      <c r="B181" s="316"/>
+      <c r="C181" s="312"/>
+      <c r="D181" s="316"/>
       <c r="E181" s="175"/>
       <c r="F181" s="176"/>
       <c r="G181" s="177" t="s">
@@ -25143,9 +25143,9 @@
     </row>
     <row r="182" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A182" s="181"/>
-      <c r="B182" s="304"/>
-      <c r="C182" s="309"/>
-      <c r="D182" s="304"/>
+      <c r="B182" s="316"/>
+      <c r="C182" s="312"/>
+      <c r="D182" s="316"/>
       <c r="E182" s="175"/>
       <c r="F182" s="176"/>
       <c r="G182" s="177" t="s">
@@ -25160,9 +25160,9 @@
     </row>
     <row r="183" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A183" s="181"/>
-      <c r="B183" s="304"/>
-      <c r="C183" s="309"/>
-      <c r="D183" s="304"/>
+      <c r="B183" s="316"/>
+      <c r="C183" s="312"/>
+      <c r="D183" s="316"/>
       <c r="E183" s="175"/>
       <c r="F183" s="176"/>
       <c r="G183" s="177" t="s">
@@ -25177,9 +25177,9 @@
     </row>
     <row r="184" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A184" s="181"/>
-      <c r="B184" s="304"/>
-      <c r="C184" s="310"/>
-      <c r="D184" s="305"/>
+      <c r="B184" s="316"/>
+      <c r="C184" s="313"/>
+      <c r="D184" s="315"/>
       <c r="E184" s="175"/>
       <c r="F184" s="176"/>
       <c r="G184" s="177" t="s">
@@ -25194,8 +25194,8 @@
     </row>
     <row r="185" spans="1:13" ht="14.25" customHeight="1">
       <c r="A185" s="181"/>
-      <c r="B185" s="304"/>
-      <c r="C185" s="317" t="s">
+      <c r="B185" s="316"/>
+      <c r="C185" s="321" t="s">
         <v>54</v>
       </c>
       <c r="D185" s="192"/>
@@ -25215,8 +25215,8 @@
     </row>
     <row r="186" spans="1:13" ht="14.25" customHeight="1">
       <c r="A186" s="181"/>
-      <c r="B186" s="304"/>
-      <c r="C186" s="318"/>
+      <c r="B186" s="316"/>
+      <c r="C186" s="322"/>
       <c r="D186" s="197" t="s">
         <v>156</v>
       </c>
@@ -25236,8 +25236,8 @@
     </row>
     <row r="187" spans="1:13" ht="14.25" customHeight="1">
       <c r="A187" s="181"/>
-      <c r="B187" s="304"/>
-      <c r="C187" s="318"/>
+      <c r="B187" s="316"/>
+      <c r="C187" s="322"/>
       <c r="D187" s="252"/>
       <c r="E187" s="236"/>
       <c r="F187" s="251"/>
@@ -25255,8 +25255,8 @@
     </row>
     <row r="188" spans="1:13" ht="14.25" customHeight="1">
       <c r="A188" s="181"/>
-      <c r="B188" s="304"/>
-      <c r="C188" s="318"/>
+      <c r="B188" s="316"/>
+      <c r="C188" s="322"/>
       <c r="D188" s="193" t="s">
         <v>158</v>
       </c>
@@ -25274,8 +25274,8 @@
     </row>
     <row r="189" spans="1:13" ht="14.25" customHeight="1">
       <c r="A189" s="181"/>
-      <c r="B189" s="304"/>
-      <c r="C189" s="318"/>
+      <c r="B189" s="316"/>
+      <c r="C189" s="322"/>
       <c r="D189" s="193" t="s">
         <v>159</v>
       </c>
@@ -25293,8 +25293,8 @@
     </row>
     <row r="190" spans="1:13" ht="14.25" customHeight="1">
       <c r="A190" s="181"/>
-      <c r="B190" s="304"/>
-      <c r="C190" s="318"/>
+      <c r="B190" s="316"/>
+      <c r="C190" s="322"/>
       <c r="D190" s="193" t="s">
         <v>160</v>
       </c>
@@ -25312,8 +25312,8 @@
     </row>
     <row r="191" spans="1:13" ht="14.25" customHeight="1">
       <c r="A191" s="181"/>
-      <c r="B191" s="304"/>
-      <c r="C191" s="318"/>
+      <c r="B191" s="316"/>
+      <c r="C191" s="322"/>
       <c r="D191" s="193" t="s">
         <v>161</v>
       </c>
@@ -25331,8 +25331,8 @@
     </row>
     <row r="192" spans="1:13" ht="37.5" customHeight="1">
       <c r="A192" s="181"/>
-      <c r="B192" s="304"/>
-      <c r="C192" s="318"/>
+      <c r="B192" s="316"/>
+      <c r="C192" s="322"/>
       <c r="D192" s="254" t="s">
         <v>195</v>
       </c>
@@ -25350,8 +25350,8 @@
     </row>
     <row r="193" spans="1:13" ht="14.25" customHeight="1">
       <c r="A193" s="181"/>
-      <c r="B193" s="304"/>
-      <c r="C193" s="318"/>
+      <c r="B193" s="316"/>
+      <c r="C193" s="322"/>
       <c r="D193" s="193" t="s">
         <v>162</v>
       </c>
@@ -25369,8 +25369,8 @@
     </row>
     <row r="194" spans="1:13" ht="14.25" customHeight="1">
       <c r="A194" s="181"/>
-      <c r="B194" s="305"/>
-      <c r="C194" s="319"/>
+      <c r="B194" s="315"/>
+      <c r="C194" s="323"/>
       <c r="D194" s="193" t="s">
         <v>163</v>
       </c>
@@ -25388,13 +25388,13 @@
     </row>
     <row r="195" spans="1:13" ht="14.25" customHeight="1">
       <c r="A195" s="181"/>
-      <c r="B195" s="312" t="s">
+      <c r="B195" s="306" t="s">
         <v>128</v>
       </c>
-      <c r="C195" s="308" t="s">
+      <c r="C195" s="311" t="s">
         <v>57</v>
       </c>
-      <c r="D195" s="303" t="s">
+      <c r="D195" s="314" t="s">
         <v>56</v>
       </c>
       <c r="E195" s="175"/>
@@ -25415,9 +25415,9 @@
     </row>
     <row r="196" spans="1:13" ht="14.25" customHeight="1">
       <c r="A196" s="181"/>
-      <c r="B196" s="313"/>
-      <c r="C196" s="309"/>
-      <c r="D196" s="305"/>
+      <c r="B196" s="307"/>
+      <c r="C196" s="312"/>
+      <c r="D196" s="315"/>
       <c r="E196" s="175"/>
       <c r="F196" s="176"/>
       <c r="G196" s="177" t="s">
@@ -25436,8 +25436,8 @@
     </row>
     <row r="197" spans="1:13" ht="14.25" customHeight="1">
       <c r="A197" s="181"/>
-      <c r="B197" s="313"/>
-      <c r="C197" s="309"/>
+      <c r="B197" s="307"/>
+      <c r="C197" s="312"/>
       <c r="D197" s="255" t="s">
         <v>2878</v>
       </c>
@@ -25457,9 +25457,9 @@
     </row>
     <row r="198" spans="1:13" ht="14.25" customHeight="1">
       <c r="A198" s="181"/>
-      <c r="B198" s="313"/>
-      <c r="C198" s="309"/>
-      <c r="D198" s="303" t="s">
+      <c r="B198" s="307"/>
+      <c r="C198" s="312"/>
+      <c r="D198" s="314" t="s">
         <v>61</v>
       </c>
       <c r="E198" s="175"/>
@@ -25478,9 +25478,9 @@
     </row>
     <row r="199" spans="1:13" ht="14.25" customHeight="1">
       <c r="A199" s="181"/>
-      <c r="B199" s="313"/>
-      <c r="C199" s="309"/>
-      <c r="D199" s="304"/>
+      <c r="B199" s="307"/>
+      <c r="C199" s="312"/>
+      <c r="D199" s="316"/>
       <c r="E199" s="175"/>
       <c r="F199" s="176"/>
       <c r="G199" s="177" t="s">
@@ -25499,9 +25499,9 @@
     </row>
     <row r="200" spans="1:13" ht="14.25" customHeight="1">
       <c r="A200" s="181"/>
-      <c r="B200" s="313"/>
-      <c r="C200" s="309"/>
-      <c r="D200" s="305"/>
+      <c r="B200" s="307"/>
+      <c r="C200" s="312"/>
+      <c r="D200" s="315"/>
       <c r="E200" s="175"/>
       <c r="F200" s="176"/>
       <c r="G200" s="177" t="s">
@@ -25518,9 +25518,9 @@
     </row>
     <row r="201" spans="1:13" ht="14.25" customHeight="1">
       <c r="A201" s="181"/>
-      <c r="B201" s="313"/>
-      <c r="C201" s="309"/>
-      <c r="D201" s="303" t="s">
+      <c r="B201" s="307"/>
+      <c r="C201" s="312"/>
+      <c r="D201" s="314" t="s">
         <v>65</v>
       </c>
       <c r="E201" s="175"/>
@@ -25541,9 +25541,9 @@
     </row>
     <row r="202" spans="1:13" ht="33">
       <c r="A202" s="181"/>
-      <c r="B202" s="313"/>
-      <c r="C202" s="309"/>
-      <c r="D202" s="305"/>
+      <c r="B202" s="307"/>
+      <c r="C202" s="312"/>
+      <c r="D202" s="315"/>
       <c r="E202" s="175"/>
       <c r="F202" s="176"/>
       <c r="G202" s="177" t="s">
@@ -25560,9 +25560,9 @@
     </row>
     <row r="203" spans="1:13" ht="14.25" customHeight="1">
       <c r="A203" s="181"/>
-      <c r="B203" s="313"/>
-      <c r="C203" s="309"/>
-      <c r="D203" s="303" t="s">
+      <c r="B203" s="307"/>
+      <c r="C203" s="312"/>
+      <c r="D203" s="314" t="s">
         <v>68</v>
       </c>
       <c r="E203" s="175"/>
@@ -25581,9 +25581,9 @@
     </row>
     <row r="204" spans="1:13" ht="14.25" customHeight="1">
       <c r="A204" s="181"/>
-      <c r="B204" s="313"/>
-      <c r="C204" s="309"/>
-      <c r="D204" s="305"/>
+      <c r="B204" s="307"/>
+      <c r="C204" s="312"/>
+      <c r="D204" s="315"/>
       <c r="E204" s="175"/>
       <c r="F204" s="176"/>
       <c r="G204" s="177" t="s">
@@ -25602,9 +25602,9 @@
     </row>
     <row r="205" spans="1:13" ht="14.25" customHeight="1">
       <c r="A205" s="181"/>
-      <c r="B205" s="313"/>
-      <c r="C205" s="309"/>
-      <c r="D205" s="303" t="s">
+      <c r="B205" s="307"/>
+      <c r="C205" s="312"/>
+      <c r="D205" s="314" t="s">
         <v>70</v>
       </c>
       <c r="E205" s="175"/>
@@ -25623,9 +25623,9 @@
     </row>
     <row r="206" spans="1:13" ht="14.25" customHeight="1">
       <c r="A206" s="181"/>
-      <c r="B206" s="313"/>
-      <c r="C206" s="309"/>
-      <c r="D206" s="304"/>
+      <c r="B206" s="307"/>
+      <c r="C206" s="312"/>
+      <c r="D206" s="316"/>
       <c r="E206" s="175"/>
       <c r="F206" s="176"/>
       <c r="G206" s="177" t="s">
@@ -25644,9 +25644,9 @@
     </row>
     <row r="207" spans="1:13" ht="14.25" customHeight="1">
       <c r="A207" s="181"/>
-      <c r="B207" s="313"/>
-      <c r="C207" s="309"/>
-      <c r="D207" s="304"/>
+      <c r="B207" s="307"/>
+      <c r="C207" s="312"/>
+      <c r="D207" s="316"/>
       <c r="E207" s="175"/>
       <c r="F207" s="176"/>
       <c r="G207" s="177" t="s">
@@ -25663,9 +25663,9 @@
     </row>
     <row r="208" spans="1:13" ht="14.25" customHeight="1">
       <c r="A208" s="181"/>
-      <c r="B208" s="313"/>
-      <c r="C208" s="309"/>
-      <c r="D208" s="304"/>
+      <c r="B208" s="307"/>
+      <c r="C208" s="312"/>
+      <c r="D208" s="316"/>
       <c r="E208" s="175"/>
       <c r="F208" s="176"/>
       <c r="G208" s="177" t="s">
@@ -25682,9 +25682,9 @@
     </row>
     <row r="209" spans="1:13" ht="14.25" customHeight="1">
       <c r="A209" s="181"/>
-      <c r="B209" s="313"/>
-      <c r="C209" s="309"/>
-      <c r="D209" s="304"/>
+      <c r="B209" s="307"/>
+      <c r="C209" s="312"/>
+      <c r="D209" s="316"/>
       <c r="E209" s="175"/>
       <c r="F209" s="176"/>
       <c r="G209" s="177" t="s">
@@ -25701,9 +25701,9 @@
     </row>
     <row r="210" spans="1:13" ht="30" customHeight="1">
       <c r="A210" s="181"/>
-      <c r="B210" s="313"/>
-      <c r="C210" s="310"/>
-      <c r="D210" s="305"/>
+      <c r="B210" s="307"/>
+      <c r="C210" s="313"/>
+      <c r="D210" s="315"/>
       <c r="E210" s="175"/>
       <c r="F210" s="176"/>
       <c r="G210" s="177" t="s">
@@ -25722,11 +25722,11 @@
     </row>
     <row r="211" spans="1:13" ht="14.25" customHeight="1">
       <c r="A211" s="181"/>
-      <c r="B211" s="313"/>
-      <c r="C211" s="308" t="s">
+      <c r="B211" s="307"/>
+      <c r="C211" s="311" t="s">
         <v>112</v>
       </c>
-      <c r="D211" s="303" t="s">
+      <c r="D211" s="314" t="s">
         <v>1446</v>
       </c>
       <c r="E211" s="175"/>
@@ -25745,9 +25745,9 @@
     </row>
     <row r="212" spans="1:13" ht="14.25" customHeight="1">
       <c r="A212" s="181"/>
-      <c r="B212" s="313"/>
-      <c r="C212" s="309"/>
-      <c r="D212" s="304"/>
+      <c r="B212" s="307"/>
+      <c r="C212" s="312"/>
+      <c r="D212" s="316"/>
       <c r="E212" s="175"/>
       <c r="F212" s="176"/>
       <c r="G212" s="177" t="s">
@@ -25764,9 +25764,9 @@
     </row>
     <row r="213" spans="1:13" ht="14.25" customHeight="1">
       <c r="A213" s="181"/>
-      <c r="B213" s="313"/>
-      <c r="C213" s="309"/>
-      <c r="D213" s="304"/>
+      <c r="B213" s="307"/>
+      <c r="C213" s="312"/>
+      <c r="D213" s="316"/>
       <c r="E213" s="175"/>
       <c r="F213" s="176"/>
       <c r="G213" s="177" t="s">
@@ -25783,9 +25783,9 @@
     </row>
     <row r="214" spans="1:13" ht="14.25" customHeight="1">
       <c r="A214" s="181"/>
-      <c r="B214" s="313"/>
-      <c r="C214" s="309"/>
-      <c r="D214" s="304"/>
+      <c r="B214" s="307"/>
+      <c r="C214" s="312"/>
+      <c r="D214" s="316"/>
       <c r="E214" s="175"/>
       <c r="F214" s="176"/>
       <c r="G214" s="177" t="s">
@@ -25802,9 +25802,9 @@
     </row>
     <row r="215" spans="1:13" ht="14.25" customHeight="1">
       <c r="A215" s="181"/>
-      <c r="B215" s="313"/>
-      <c r="C215" s="309"/>
-      <c r="D215" s="304"/>
+      <c r="B215" s="307"/>
+      <c r="C215" s="312"/>
+      <c r="D215" s="316"/>
       <c r="E215" s="175"/>
       <c r="F215" s="176"/>
       <c r="G215" s="177" t="s">
@@ -25821,9 +25821,9 @@
     </row>
     <row r="216" spans="1:13" ht="14.25" customHeight="1">
       <c r="A216" s="181"/>
-      <c r="B216" s="313"/>
-      <c r="C216" s="309"/>
-      <c r="D216" s="304"/>
+      <c r="B216" s="307"/>
+      <c r="C216" s="312"/>
+      <c r="D216" s="316"/>
       <c r="E216" s="175"/>
       <c r="F216" s="176"/>
       <c r="G216" s="177" t="s">
@@ -25840,9 +25840,9 @@
     </row>
     <row r="217" spans="1:13" ht="14.25" customHeight="1">
       <c r="A217" s="181"/>
-      <c r="B217" s="313"/>
-      <c r="C217" s="309"/>
-      <c r="D217" s="304"/>
+      <c r="B217" s="307"/>
+      <c r="C217" s="312"/>
+      <c r="D217" s="316"/>
       <c r="E217" s="175"/>
       <c r="F217" s="176"/>
       <c r="G217" s="177" t="s">
@@ -25859,9 +25859,9 @@
     </row>
     <row r="218" spans="1:13" ht="14.25" customHeight="1">
       <c r="A218" s="181"/>
-      <c r="B218" s="313"/>
-      <c r="C218" s="309"/>
-      <c r="D218" s="304"/>
+      <c r="B218" s="307"/>
+      <c r="C218" s="312"/>
+      <c r="D218" s="316"/>
       <c r="E218" s="175"/>
       <c r="F218" s="176"/>
       <c r="G218" s="177" t="s">
@@ -25878,9 +25878,9 @@
     </row>
     <row r="219" spans="1:13" ht="14.25" customHeight="1">
       <c r="A219" s="181"/>
-      <c r="B219" s="313"/>
-      <c r="C219" s="309"/>
-      <c r="D219" s="304"/>
+      <c r="B219" s="307"/>
+      <c r="C219" s="312"/>
+      <c r="D219" s="316"/>
       <c r="E219" s="175"/>
       <c r="F219" s="176"/>
       <c r="G219" s="177" t="s">
@@ -25897,9 +25897,9 @@
     </row>
     <row r="220" spans="1:13" ht="14.25" customHeight="1">
       <c r="A220" s="181"/>
-      <c r="B220" s="313"/>
-      <c r="C220" s="309"/>
-      <c r="D220" s="304"/>
+      <c r="B220" s="307"/>
+      <c r="C220" s="312"/>
+      <c r="D220" s="316"/>
       <c r="E220" s="175"/>
       <c r="F220" s="176"/>
       <c r="G220" s="177" t="s">
@@ -25916,9 +25916,9 @@
     </row>
     <row r="221" spans="1:13" ht="14.25" customHeight="1">
       <c r="A221" s="181"/>
-      <c r="B221" s="313"/>
-      <c r="C221" s="309"/>
-      <c r="D221" s="304"/>
+      <c r="B221" s="307"/>
+      <c r="C221" s="312"/>
+      <c r="D221" s="316"/>
       <c r="E221" s="175"/>
       <c r="F221" s="176"/>
       <c r="G221" s="177" t="s">
@@ -25935,9 +25935,9 @@
     </row>
     <row r="222" spans="1:13" ht="14.25" customHeight="1">
       <c r="A222" s="181"/>
-      <c r="B222" s="313"/>
-      <c r="C222" s="309"/>
-      <c r="D222" s="304"/>
+      <c r="B222" s="307"/>
+      <c r="C222" s="312"/>
+      <c r="D222" s="316"/>
       <c r="E222" s="175"/>
       <c r="F222" s="176"/>
       <c r="G222" s="177" t="s">
@@ -25954,9 +25954,9 @@
     </row>
     <row r="223" spans="1:13" ht="14.25" customHeight="1">
       <c r="A223" s="181"/>
-      <c r="B223" s="313"/>
-      <c r="C223" s="309"/>
-      <c r="D223" s="304"/>
+      <c r="B223" s="307"/>
+      <c r="C223" s="312"/>
+      <c r="D223" s="316"/>
       <c r="E223" s="175"/>
       <c r="F223" s="176"/>
       <c r="G223" s="177" t="s">
@@ -25973,9 +25973,9 @@
     </row>
     <row r="224" spans="1:13" ht="14.25" customHeight="1">
       <c r="A224" s="181"/>
-      <c r="B224" s="313"/>
-      <c r="C224" s="309"/>
-      <c r="D224" s="304"/>
+      <c r="B224" s="307"/>
+      <c r="C224" s="312"/>
+      <c r="D224" s="316"/>
       <c r="E224" s="175"/>
       <c r="F224" s="176"/>
       <c r="G224" s="177" t="s">
@@ -25992,9 +25992,9 @@
     </row>
     <row r="225" spans="1:13" ht="14.25" customHeight="1">
       <c r="A225" s="181"/>
-      <c r="B225" s="313"/>
-      <c r="C225" s="309"/>
-      <c r="D225" s="304"/>
+      <c r="B225" s="307"/>
+      <c r="C225" s="312"/>
+      <c r="D225" s="316"/>
       <c r="E225" s="175"/>
       <c r="F225" s="176"/>
       <c r="G225" s="177" t="s">
@@ -26011,9 +26011,9 @@
     </row>
     <row r="226" spans="1:13" ht="14.25" customHeight="1">
       <c r="A226" s="181"/>
-      <c r="B226" s="313"/>
-      <c r="C226" s="309"/>
-      <c r="D226" s="304"/>
+      <c r="B226" s="307"/>
+      <c r="C226" s="312"/>
+      <c r="D226" s="316"/>
       <c r="E226" s="175"/>
       <c r="F226" s="176"/>
       <c r="G226" s="177" t="s">
@@ -26030,9 +26030,9 @@
     </row>
     <row r="227" spans="1:13" ht="14.25" customHeight="1">
       <c r="A227" s="181"/>
-      <c r="B227" s="313"/>
-      <c r="C227" s="309"/>
-      <c r="D227" s="304"/>
+      <c r="B227" s="307"/>
+      <c r="C227" s="312"/>
+      <c r="D227" s="316"/>
       <c r="E227" s="175"/>
       <c r="F227" s="176"/>
       <c r="G227" s="177" t="s">
@@ -26049,9 +26049,9 @@
     </row>
     <row r="228" spans="1:13" ht="14.25" customHeight="1">
       <c r="A228" s="181"/>
-      <c r="B228" s="313"/>
-      <c r="C228" s="309"/>
-      <c r="D228" s="304"/>
+      <c r="B228" s="307"/>
+      <c r="C228" s="312"/>
+      <c r="D228" s="316"/>
       <c r="E228" s="175"/>
       <c r="F228" s="176"/>
       <c r="G228" s="177" t="s">
@@ -26068,9 +26068,9 @@
     </row>
     <row r="229" spans="1:13" ht="14.25" customHeight="1">
       <c r="A229" s="181"/>
-      <c r="B229" s="313"/>
-      <c r="C229" s="309"/>
-      <c r="D229" s="304"/>
+      <c r="B229" s="307"/>
+      <c r="C229" s="312"/>
+      <c r="D229" s="316"/>
       <c r="E229" s="175"/>
       <c r="F229" s="176"/>
       <c r="G229" s="177" t="s">
@@ -26087,9 +26087,9 @@
     </row>
     <row r="230" spans="1:13" ht="14.25" customHeight="1">
       <c r="A230" s="181"/>
-      <c r="B230" s="313"/>
-      <c r="C230" s="309"/>
-      <c r="D230" s="304"/>
+      <c r="B230" s="307"/>
+      <c r="C230" s="312"/>
+      <c r="D230" s="316"/>
       <c r="E230" s="175"/>
       <c r="F230" s="176"/>
       <c r="G230" s="177" t="s">
@@ -26106,9 +26106,9 @@
     </row>
     <row r="231" spans="1:13" ht="14.25" customHeight="1">
       <c r="A231" s="181"/>
-      <c r="B231" s="313"/>
-      <c r="C231" s="309"/>
-      <c r="D231" s="304"/>
+      <c r="B231" s="307"/>
+      <c r="C231" s="312"/>
+      <c r="D231" s="316"/>
       <c r="E231" s="175"/>
       <c r="F231" s="176"/>
       <c r="G231" s="177" t="s">
@@ -26125,9 +26125,9 @@
     </row>
     <row r="232" spans="1:13" ht="14.25" customHeight="1">
       <c r="A232" s="181"/>
-      <c r="B232" s="313"/>
-      <c r="C232" s="309"/>
-      <c r="D232" s="304"/>
+      <c r="B232" s="307"/>
+      <c r="C232" s="312"/>
+      <c r="D232" s="316"/>
       <c r="E232" s="175"/>
       <c r="F232" s="176"/>
       <c r="G232" s="177" t="s">
@@ -26144,9 +26144,9 @@
     </row>
     <row r="233" spans="1:13" ht="14.25" customHeight="1">
       <c r="A233" s="181"/>
-      <c r="B233" s="313"/>
-      <c r="C233" s="309"/>
-      <c r="D233" s="304"/>
+      <c r="B233" s="307"/>
+      <c r="C233" s="312"/>
+      <c r="D233" s="316"/>
       <c r="E233" s="175"/>
       <c r="F233" s="176"/>
       <c r="G233" s="177" t="s">
@@ -26163,9 +26163,9 @@
     </row>
     <row r="234" spans="1:13" ht="14.25" customHeight="1">
       <c r="A234" s="181"/>
-      <c r="B234" s="313"/>
-      <c r="C234" s="309"/>
-      <c r="D234" s="304"/>
+      <c r="B234" s="307"/>
+      <c r="C234" s="312"/>
+      <c r="D234" s="316"/>
       <c r="E234" s="175"/>
       <c r="F234" s="176"/>
       <c r="G234" s="177" t="s">
@@ -26182,9 +26182,9 @@
     </row>
     <row r="235" spans="1:13" ht="14.25" customHeight="1">
       <c r="A235" s="181"/>
-      <c r="B235" s="313"/>
-      <c r="C235" s="309"/>
-      <c r="D235" s="304"/>
+      <c r="B235" s="307"/>
+      <c r="C235" s="312"/>
+      <c r="D235" s="316"/>
       <c r="E235" s="175"/>
       <c r="F235" s="176"/>
       <c r="G235" s="177" t="s">
@@ -26201,9 +26201,9 @@
     </row>
     <row r="236" spans="1:13" ht="14.25" customHeight="1">
       <c r="A236" s="181"/>
-      <c r="B236" s="313"/>
-      <c r="C236" s="309"/>
-      <c r="D236" s="304"/>
+      <c r="B236" s="307"/>
+      <c r="C236" s="312"/>
+      <c r="D236" s="316"/>
       <c r="E236" s="175"/>
       <c r="F236" s="176"/>
       <c r="G236" s="177" t="s">
@@ -26220,9 +26220,9 @@
     </row>
     <row r="237" spans="1:13" ht="14.25" customHeight="1">
       <c r="A237" s="181"/>
-      <c r="B237" s="313"/>
-      <c r="C237" s="309"/>
-      <c r="D237" s="304"/>
+      <c r="B237" s="307"/>
+      <c r="C237" s="312"/>
+      <c r="D237" s="316"/>
       <c r="E237" s="175"/>
       <c r="F237" s="176"/>
       <c r="G237" s="177" t="s">
@@ -26239,9 +26239,9 @@
     </row>
     <row r="238" spans="1:13" ht="14.25" customHeight="1">
       <c r="A238" s="181"/>
-      <c r="B238" s="313"/>
-      <c r="C238" s="309"/>
-      <c r="D238" s="304"/>
+      <c r="B238" s="307"/>
+      <c r="C238" s="312"/>
+      <c r="D238" s="316"/>
       <c r="E238" s="175"/>
       <c r="F238" s="176"/>
       <c r="G238" s="177" t="s">
@@ -26258,9 +26258,9 @@
     </row>
     <row r="239" spans="1:13" ht="14.25" customHeight="1">
       <c r="A239" s="181"/>
-      <c r="B239" s="313"/>
-      <c r="C239" s="309"/>
-      <c r="D239" s="304"/>
+      <c r="B239" s="307"/>
+      <c r="C239" s="312"/>
+      <c r="D239" s="316"/>
       <c r="E239" s="175"/>
       <c r="F239" s="176"/>
       <c r="G239" s="177" t="s">
@@ -26277,9 +26277,9 @@
     </row>
     <row r="240" spans="1:13" ht="14.25" customHeight="1">
       <c r="A240" s="181"/>
-      <c r="B240" s="313"/>
-      <c r="C240" s="309"/>
-      <c r="D240" s="304"/>
+      <c r="B240" s="307"/>
+      <c r="C240" s="312"/>
+      <c r="D240" s="316"/>
       <c r="E240" s="175"/>
       <c r="F240" s="176"/>
       <c r="G240" s="177" t="s">
@@ -26296,9 +26296,9 @@
     </row>
     <row r="241" spans="1:13" ht="14.25" customHeight="1">
       <c r="A241" s="181"/>
-      <c r="B241" s="313"/>
-      <c r="C241" s="310"/>
-      <c r="D241" s="305"/>
+      <c r="B241" s="307"/>
+      <c r="C241" s="313"/>
+      <c r="D241" s="315"/>
       <c r="E241" s="175"/>
       <c r="F241" s="176"/>
       <c r="G241" s="177" t="s">
@@ -26315,11 +26315,11 @@
     </row>
     <row r="242" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A242" s="289"/>
-      <c r="B242" s="313"/>
-      <c r="C242" s="320" t="s">
+      <c r="B242" s="307"/>
+      <c r="C242" s="335" t="s">
         <v>1464</v>
       </c>
-      <c r="D242" s="335" t="s">
+      <c r="D242" s="318" t="s">
         <v>133</v>
       </c>
       <c r="E242" s="290"/>
@@ -26338,9 +26338,9 @@
     </row>
     <row r="243" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A243" s="289"/>
-      <c r="B243" s="313"/>
-      <c r="C243" s="321"/>
-      <c r="D243" s="336"/>
+      <c r="B243" s="307"/>
+      <c r="C243" s="336"/>
+      <c r="D243" s="319"/>
       <c r="E243" s="290"/>
       <c r="F243" s="291"/>
       <c r="G243" s="292" t="s">
@@ -26357,9 +26357,9 @@
     </row>
     <row r="244" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A244" s="289"/>
-      <c r="B244" s="313"/>
-      <c r="C244" s="321"/>
-      <c r="D244" s="336"/>
+      <c r="B244" s="307"/>
+      <c r="C244" s="336"/>
+      <c r="D244" s="319"/>
       <c r="E244" s="290"/>
       <c r="F244" s="291"/>
       <c r="G244" s="292" t="s">
@@ -26376,9 +26376,9 @@
     </row>
     <row r="245" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A245" s="289"/>
-      <c r="B245" s="313"/>
-      <c r="C245" s="321"/>
-      <c r="D245" s="336"/>
+      <c r="B245" s="307"/>
+      <c r="C245" s="336"/>
+      <c r="D245" s="319"/>
       <c r="E245" s="290"/>
       <c r="F245" s="291"/>
       <c r="G245" s="292" t="s">
@@ -26395,9 +26395,9 @@
     </row>
     <row r="246" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A246" s="289"/>
-      <c r="B246" s="313"/>
-      <c r="C246" s="321"/>
-      <c r="D246" s="336"/>
+      <c r="B246" s="307"/>
+      <c r="C246" s="336"/>
+      <c r="D246" s="319"/>
       <c r="E246" s="290"/>
       <c r="F246" s="291"/>
       <c r="G246" s="292" t="s">
@@ -26414,9 +26414,9 @@
     </row>
     <row r="247" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A247" s="289"/>
-      <c r="B247" s="313"/>
-      <c r="C247" s="321"/>
-      <c r="D247" s="336"/>
+      <c r="B247" s="307"/>
+      <c r="C247" s="336"/>
+      <c r="D247" s="319"/>
       <c r="E247" s="290"/>
       <c r="F247" s="291"/>
       <c r="G247" s="292" t="s">
@@ -26433,9 +26433,9 @@
     </row>
     <row r="248" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A248" s="289"/>
-      <c r="B248" s="313"/>
-      <c r="C248" s="321"/>
-      <c r="D248" s="336"/>
+      <c r="B248" s="307"/>
+      <c r="C248" s="336"/>
+      <c r="D248" s="319"/>
       <c r="E248" s="290"/>
       <c r="F248" s="291"/>
       <c r="G248" s="292" t="s">
@@ -26452,9 +26452,9 @@
     </row>
     <row r="249" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A249" s="289"/>
-      <c r="B249" s="313"/>
-      <c r="C249" s="321"/>
-      <c r="D249" s="336"/>
+      <c r="B249" s="307"/>
+      <c r="C249" s="336"/>
+      <c r="D249" s="319"/>
       <c r="E249" s="290"/>
       <c r="F249" s="291"/>
       <c r="G249" s="292" t="s">
@@ -26471,9 +26471,9 @@
     </row>
     <row r="250" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A250" s="289"/>
-      <c r="B250" s="313"/>
-      <c r="C250" s="321"/>
-      <c r="D250" s="336"/>
+      <c r="B250" s="307"/>
+      <c r="C250" s="336"/>
+      <c r="D250" s="319"/>
       <c r="E250" s="290"/>
       <c r="F250" s="291"/>
       <c r="G250" s="292" t="s">
@@ -26490,9 +26490,9 @@
     </row>
     <row r="251" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A251" s="289"/>
-      <c r="B251" s="313"/>
-      <c r="C251" s="321"/>
-      <c r="D251" s="336"/>
+      <c r="B251" s="307"/>
+      <c r="C251" s="336"/>
+      <c r="D251" s="319"/>
       <c r="E251" s="290"/>
       <c r="F251" s="291"/>
       <c r="G251" s="292" t="s">
@@ -26509,9 +26509,9 @@
     </row>
     <row r="252" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A252" s="289"/>
-      <c r="B252" s="313"/>
-      <c r="C252" s="321"/>
-      <c r="D252" s="336"/>
+      <c r="B252" s="307"/>
+      <c r="C252" s="336"/>
+      <c r="D252" s="319"/>
       <c r="E252" s="290"/>
       <c r="F252" s="291"/>
       <c r="G252" s="292" t="s">
@@ -26528,9 +26528,9 @@
     </row>
     <row r="253" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A253" s="289"/>
-      <c r="B253" s="313"/>
-      <c r="C253" s="321"/>
-      <c r="D253" s="336"/>
+      <c r="B253" s="307"/>
+      <c r="C253" s="336"/>
+      <c r="D253" s="319"/>
       <c r="E253" s="290"/>
       <c r="F253" s="291"/>
       <c r="G253" s="292" t="s">
@@ -26547,9 +26547,9 @@
     </row>
     <row r="254" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A254" s="289"/>
-      <c r="B254" s="313"/>
-      <c r="C254" s="321"/>
-      <c r="D254" s="336"/>
+      <c r="B254" s="307"/>
+      <c r="C254" s="336"/>
+      <c r="D254" s="319"/>
       <c r="E254" s="290"/>
       <c r="F254" s="291"/>
       <c r="G254" s="292" t="s">
@@ -26566,9 +26566,9 @@
     </row>
     <row r="255" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A255" s="289"/>
-      <c r="B255" s="313"/>
-      <c r="C255" s="321"/>
-      <c r="D255" s="336"/>
+      <c r="B255" s="307"/>
+      <c r="C255" s="336"/>
+      <c r="D255" s="319"/>
       <c r="E255" s="290"/>
       <c r="F255" s="291"/>
       <c r="G255" s="292" t="s">
@@ -26585,9 +26585,9 @@
     </row>
     <row r="256" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A256" s="289"/>
-      <c r="B256" s="313"/>
-      <c r="C256" s="321"/>
-      <c r="D256" s="336"/>
+      <c r="B256" s="307"/>
+      <c r="C256" s="336"/>
+      <c r="D256" s="319"/>
       <c r="E256" s="290"/>
       <c r="F256" s="291"/>
       <c r="G256" s="292" t="s">
@@ -26604,9 +26604,9 @@
     </row>
     <row r="257" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A257" s="289"/>
-      <c r="B257" s="313"/>
-      <c r="C257" s="321"/>
-      <c r="D257" s="336"/>
+      <c r="B257" s="307"/>
+      <c r="C257" s="336"/>
+      <c r="D257" s="319"/>
       <c r="E257" s="290"/>
       <c r="F257" s="291"/>
       <c r="G257" s="292" t="s">
@@ -26623,9 +26623,9 @@
     </row>
     <row r="258" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A258" s="289"/>
-      <c r="B258" s="313"/>
-      <c r="C258" s="322"/>
-      <c r="D258" s="337"/>
+      <c r="B258" s="307"/>
+      <c r="C258" s="337"/>
+      <c r="D258" s="320"/>
       <c r="E258" s="290"/>
       <c r="F258" s="291"/>
       <c r="G258" s="292" t="s">
@@ -26642,11 +26642,11 @@
     </row>
     <row r="259" spans="1:13" ht="14.25" customHeight="1">
       <c r="A259" s="181"/>
-      <c r="B259" s="313"/>
-      <c r="C259" s="317" t="s">
+      <c r="B259" s="307"/>
+      <c r="C259" s="321" t="s">
         <v>126</v>
       </c>
-      <c r="D259" s="303" t="s">
+      <c r="D259" s="314" t="s">
         <v>1470</v>
       </c>
       <c r="E259" s="175"/>
@@ -26665,9 +26665,9 @@
     </row>
     <row r="260" spans="1:13" ht="14.25" customHeight="1">
       <c r="A260" s="181"/>
-      <c r="B260" s="313"/>
-      <c r="C260" s="318"/>
-      <c r="D260" s="304"/>
+      <c r="B260" s="307"/>
+      <c r="C260" s="322"/>
+      <c r="D260" s="316"/>
       <c r="E260" s="175"/>
       <c r="F260" s="175"/>
       <c r="G260" s="177" t="s">
@@ -26684,9 +26684,9 @@
     </row>
     <row r="261" spans="1:13" ht="14.25" customHeight="1">
       <c r="A261" s="181"/>
-      <c r="B261" s="313"/>
-      <c r="C261" s="318"/>
-      <c r="D261" s="304"/>
+      <c r="B261" s="307"/>
+      <c r="C261" s="322"/>
+      <c r="D261" s="316"/>
       <c r="E261" s="175"/>
       <c r="F261" s="175"/>
       <c r="G261" s="177" t="s">
@@ -26703,9 +26703,9 @@
     </row>
     <row r="262" spans="1:13" ht="14.25" customHeight="1">
       <c r="A262" s="181"/>
-      <c r="B262" s="313"/>
-      <c r="C262" s="318"/>
-      <c r="D262" s="304"/>
+      <c r="B262" s="307"/>
+      <c r="C262" s="322"/>
+      <c r="D262" s="316"/>
       <c r="E262" s="175"/>
       <c r="F262" s="175"/>
       <c r="G262" s="177" t="s">
@@ -26722,9 +26722,9 @@
     </row>
     <row r="263" spans="1:13" ht="14.25" customHeight="1">
       <c r="A263" s="181"/>
-      <c r="B263" s="313"/>
-      <c r="C263" s="318"/>
-      <c r="D263" s="304"/>
+      <c r="B263" s="307"/>
+      <c r="C263" s="322"/>
+      <c r="D263" s="316"/>
       <c r="E263" s="175"/>
       <c r="F263" s="175"/>
       <c r="G263" s="177" t="s">
@@ -26741,9 +26741,9 @@
     </row>
     <row r="264" spans="1:13" ht="14.25" customHeight="1">
       <c r="A264" s="181"/>
-      <c r="B264" s="313"/>
-      <c r="C264" s="318"/>
-      <c r="D264" s="304"/>
+      <c r="B264" s="307"/>
+      <c r="C264" s="322"/>
+      <c r="D264" s="316"/>
       <c r="E264" s="175"/>
       <c r="F264" s="175"/>
       <c r="G264" s="177" t="s">
@@ -26760,9 +26760,9 @@
     </row>
     <row r="265" spans="1:13" ht="14.25" customHeight="1">
       <c r="A265" s="181"/>
-      <c r="B265" s="313"/>
-      <c r="C265" s="318"/>
-      <c r="D265" s="304"/>
+      <c r="B265" s="307"/>
+      <c r="C265" s="322"/>
+      <c r="D265" s="316"/>
       <c r="E265" s="175"/>
       <c r="F265" s="175"/>
       <c r="G265" s="177" t="s">
@@ -26779,9 +26779,9 @@
     </row>
     <row r="266" spans="1:13" ht="14.25" customHeight="1">
       <c r="A266" s="181"/>
-      <c r="B266" s="313"/>
-      <c r="C266" s="318"/>
-      <c r="D266" s="304"/>
+      <c r="B266" s="307"/>
+      <c r="C266" s="322"/>
+      <c r="D266" s="316"/>
       <c r="E266" s="175"/>
       <c r="F266" s="175"/>
       <c r="G266" s="177" t="s">
@@ -26798,9 +26798,9 @@
     </row>
     <row r="267" spans="1:13" ht="14.25" customHeight="1">
       <c r="A267" s="181"/>
-      <c r="B267" s="313"/>
-      <c r="C267" s="318"/>
-      <c r="D267" s="304"/>
+      <c r="B267" s="307"/>
+      <c r="C267" s="322"/>
+      <c r="D267" s="316"/>
       <c r="E267" s="175"/>
       <c r="F267" s="175"/>
       <c r="G267" s="177" t="s">
@@ -26817,9 +26817,9 @@
     </row>
     <row r="268" spans="1:13" ht="14.25" customHeight="1">
       <c r="A268" s="181"/>
-      <c r="B268" s="313"/>
-      <c r="C268" s="318"/>
-      <c r="D268" s="304"/>
+      <c r="B268" s="307"/>
+      <c r="C268" s="322"/>
+      <c r="D268" s="316"/>
       <c r="E268" s="175"/>
       <c r="F268" s="175"/>
       <c r="G268" s="177" t="s">
@@ -26836,9 +26836,9 @@
     </row>
     <row r="269" spans="1:13" ht="14.25" customHeight="1">
       <c r="A269" s="181"/>
-      <c r="B269" s="313"/>
-      <c r="C269" s="318"/>
-      <c r="D269" s="304"/>
+      <c r="B269" s="307"/>
+      <c r="C269" s="322"/>
+      <c r="D269" s="316"/>
       <c r="E269" s="175"/>
       <c r="F269" s="175"/>
       <c r="G269" s="177" t="s">
@@ -26855,9 +26855,9 @@
     </row>
     <row r="270" spans="1:13" ht="14.25" customHeight="1">
       <c r="A270" s="181"/>
-      <c r="B270" s="313"/>
-      <c r="C270" s="318"/>
-      <c r="D270" s="304"/>
+      <c r="B270" s="307"/>
+      <c r="C270" s="322"/>
+      <c r="D270" s="316"/>
       <c r="E270" s="175"/>
       <c r="F270" s="175"/>
       <c r="G270" s="177" t="s">
@@ -26874,9 +26874,9 @@
     </row>
     <row r="271" spans="1:13" ht="14.25" customHeight="1">
       <c r="A271" s="181"/>
-      <c r="B271" s="313"/>
-      <c r="C271" s="318"/>
-      <c r="D271" s="304"/>
+      <c r="B271" s="307"/>
+      <c r="C271" s="322"/>
+      <c r="D271" s="316"/>
       <c r="E271" s="175"/>
       <c r="F271" s="175"/>
       <c r="G271" s="177" t="s">
@@ -26893,9 +26893,9 @@
     </row>
     <row r="272" spans="1:13" ht="14.25" customHeight="1">
       <c r="A272" s="181"/>
-      <c r="B272" s="313"/>
-      <c r="C272" s="318"/>
-      <c r="D272" s="304"/>
+      <c r="B272" s="307"/>
+      <c r="C272" s="322"/>
+      <c r="D272" s="316"/>
       <c r="E272" s="175"/>
       <c r="F272" s="175"/>
       <c r="G272" s="177" t="s">
@@ -26912,9 +26912,9 @@
     </row>
     <row r="273" spans="1:13" ht="14.25" customHeight="1">
       <c r="A273" s="181"/>
-      <c r="B273" s="313"/>
-      <c r="C273" s="318"/>
-      <c r="D273" s="304"/>
+      <c r="B273" s="307"/>
+      <c r="C273" s="322"/>
+      <c r="D273" s="316"/>
       <c r="E273" s="175"/>
       <c r="F273" s="175"/>
       <c r="G273" s="177" t="s">
@@ -26931,9 +26931,9 @@
     </row>
     <row r="274" spans="1:13" ht="14.25" customHeight="1">
       <c r="A274" s="181"/>
-      <c r="B274" s="313"/>
-      <c r="C274" s="318"/>
-      <c r="D274" s="304"/>
+      <c r="B274" s="307"/>
+      <c r="C274" s="322"/>
+      <c r="D274" s="316"/>
       <c r="E274" s="175"/>
       <c r="F274" s="175"/>
       <c r="G274" s="177" t="s">
@@ -26950,9 +26950,9 @@
     </row>
     <row r="275" spans="1:13" ht="14.25" customHeight="1">
       <c r="A275" s="181"/>
-      <c r="B275" s="313"/>
-      <c r="C275" s="318"/>
-      <c r="D275" s="304"/>
+      <c r="B275" s="307"/>
+      <c r="C275" s="322"/>
+      <c r="D275" s="316"/>
       <c r="E275" s="175"/>
       <c r="F275" s="175"/>
       <c r="G275" s="177" t="s">
@@ -26969,9 +26969,9 @@
     </row>
     <row r="276" spans="1:13" ht="14.25" customHeight="1">
       <c r="A276" s="181"/>
-      <c r="B276" s="313"/>
-      <c r="C276" s="318"/>
-      <c r="D276" s="304"/>
+      <c r="B276" s="307"/>
+      <c r="C276" s="322"/>
+      <c r="D276" s="316"/>
       <c r="E276" s="175"/>
       <c r="F276" s="175"/>
       <c r="G276" s="177" t="s">
@@ -26988,9 +26988,9 @@
     </row>
     <row r="277" spans="1:13" ht="14.25" customHeight="1">
       <c r="A277" s="181"/>
-      <c r="B277" s="313"/>
-      <c r="C277" s="318"/>
-      <c r="D277" s="304"/>
+      <c r="B277" s="307"/>
+      <c r="C277" s="322"/>
+      <c r="D277" s="316"/>
       <c r="E277" s="175"/>
       <c r="F277" s="175"/>
       <c r="G277" s="177" t="s">
@@ -27007,9 +27007,9 @@
     </row>
     <row r="278" spans="1:13" ht="14.25" customHeight="1">
       <c r="A278" s="181"/>
-      <c r="B278" s="313"/>
-      <c r="C278" s="318"/>
-      <c r="D278" s="304"/>
+      <c r="B278" s="307"/>
+      <c r="C278" s="322"/>
+      <c r="D278" s="316"/>
       <c r="E278" s="175"/>
       <c r="F278" s="175"/>
       <c r="G278" s="177" t="s">
@@ -27026,9 +27026,9 @@
     </row>
     <row r="279" spans="1:13" ht="14.25" customHeight="1">
       <c r="A279" s="181"/>
-      <c r="B279" s="313"/>
-      <c r="C279" s="319"/>
-      <c r="D279" s="305"/>
+      <c r="B279" s="307"/>
+      <c r="C279" s="323"/>
+      <c r="D279" s="315"/>
       <c r="E279" s="175"/>
       <c r="F279" s="175"/>
       <c r="G279" s="177" t="s">
@@ -27045,11 +27045,11 @@
     </row>
     <row r="280" spans="1:13" ht="14.25" customHeight="1">
       <c r="A280" s="181"/>
-      <c r="B280" s="313"/>
-      <c r="C280" s="317" t="s">
+      <c r="B280" s="307"/>
+      <c r="C280" s="321" t="s">
         <v>1485</v>
       </c>
-      <c r="D280" s="303" t="s">
+      <c r="D280" s="314" t="s">
         <v>1486</v>
       </c>
       <c r="E280" s="175"/>
@@ -27068,9 +27068,9 @@
     </row>
     <row r="281" spans="1:13" ht="14.25" customHeight="1">
       <c r="A281" s="181"/>
-      <c r="B281" s="313"/>
-      <c r="C281" s="318"/>
-      <c r="D281" s="304"/>
+      <c r="B281" s="307"/>
+      <c r="C281" s="322"/>
+      <c r="D281" s="316"/>
       <c r="E281" s="175"/>
       <c r="F281" s="175"/>
       <c r="G281" s="177" t="s">
@@ -27087,9 +27087,9 @@
     </row>
     <row r="282" spans="1:13" ht="14.25" customHeight="1">
       <c r="A282" s="181"/>
-      <c r="B282" s="313"/>
-      <c r="C282" s="318"/>
-      <c r="D282" s="304"/>
+      <c r="B282" s="307"/>
+      <c r="C282" s="322"/>
+      <c r="D282" s="316"/>
       <c r="E282" s="175"/>
       <c r="F282" s="175"/>
       <c r="G282" s="177" t="s">
@@ -27106,9 +27106,9 @@
     </row>
     <row r="283" spans="1:13" ht="14.25" customHeight="1">
       <c r="A283" s="181"/>
-      <c r="B283" s="313"/>
-      <c r="C283" s="318"/>
-      <c r="D283" s="304"/>
+      <c r="B283" s="307"/>
+      <c r="C283" s="322"/>
+      <c r="D283" s="316"/>
       <c r="E283" s="175"/>
       <c r="F283" s="175"/>
       <c r="G283" s="177" t="s">
@@ -27125,9 +27125,9 @@
     </row>
     <row r="284" spans="1:13" ht="14.25" customHeight="1">
       <c r="A284" s="181"/>
-      <c r="B284" s="313"/>
-      <c r="C284" s="318"/>
-      <c r="D284" s="304"/>
+      <c r="B284" s="307"/>
+      <c r="C284" s="322"/>
+      <c r="D284" s="316"/>
       <c r="E284" s="175"/>
       <c r="F284" s="175"/>
       <c r="G284" s="177" t="s">
@@ -27144,9 +27144,9 @@
     </row>
     <row r="285" spans="1:13" ht="14.25" customHeight="1">
       <c r="A285" s="181"/>
-      <c r="B285" s="313"/>
-      <c r="C285" s="318"/>
-      <c r="D285" s="304"/>
+      <c r="B285" s="307"/>
+      <c r="C285" s="322"/>
+      <c r="D285" s="316"/>
       <c r="E285" s="175"/>
       <c r="F285" s="175"/>
       <c r="G285" s="177" t="s">
@@ -27163,9 +27163,9 @@
     </row>
     <row r="286" spans="1:13" ht="14.25" customHeight="1">
       <c r="A286" s="181"/>
-      <c r="B286" s="313"/>
-      <c r="C286" s="318"/>
-      <c r="D286" s="304"/>
+      <c r="B286" s="307"/>
+      <c r="C286" s="322"/>
+      <c r="D286" s="316"/>
       <c r="E286" s="175"/>
       <c r="F286" s="175"/>
       <c r="G286" s="177" t="s">
@@ -27182,9 +27182,9 @@
     </row>
     <row r="287" spans="1:13" ht="14.25" customHeight="1">
       <c r="A287" s="181"/>
-      <c r="B287" s="313"/>
-      <c r="C287" s="318"/>
-      <c r="D287" s="304"/>
+      <c r="B287" s="307"/>
+      <c r="C287" s="322"/>
+      <c r="D287" s="316"/>
       <c r="E287" s="175"/>
       <c r="F287" s="175"/>
       <c r="G287" s="177" t="s">
@@ -27201,9 +27201,9 @@
     </row>
     <row r="288" spans="1:13" ht="14.25" customHeight="1">
       <c r="A288" s="181"/>
-      <c r="B288" s="313"/>
-      <c r="C288" s="318"/>
-      <c r="D288" s="304"/>
+      <c r="B288" s="307"/>
+      <c r="C288" s="322"/>
+      <c r="D288" s="316"/>
       <c r="E288" s="175"/>
       <c r="F288" s="175"/>
       <c r="G288" s="177" t="s">
@@ -27220,9 +27220,9 @@
     </row>
     <row r="289" spans="1:13" ht="14.25" customHeight="1">
       <c r="A289" s="181"/>
-      <c r="B289" s="313"/>
-      <c r="C289" s="318"/>
-      <c r="D289" s="304"/>
+      <c r="B289" s="307"/>
+      <c r="C289" s="322"/>
+      <c r="D289" s="316"/>
       <c r="E289" s="175"/>
       <c r="F289" s="175"/>
       <c r="G289" s="177" t="s">
@@ -27239,9 +27239,9 @@
     </row>
     <row r="290" spans="1:13" ht="14.25" customHeight="1">
       <c r="A290" s="181"/>
-      <c r="B290" s="313"/>
-      <c r="C290" s="318"/>
-      <c r="D290" s="304"/>
+      <c r="B290" s="307"/>
+      <c r="C290" s="322"/>
+      <c r="D290" s="316"/>
       <c r="E290" s="175"/>
       <c r="F290" s="175"/>
       <c r="G290" s="177" t="s">
@@ -27258,9 +27258,9 @@
     </row>
     <row r="291" spans="1:13" ht="14.25" customHeight="1">
       <c r="A291" s="181"/>
-      <c r="B291" s="313"/>
-      <c r="C291" s="318"/>
-      <c r="D291" s="304"/>
+      <c r="B291" s="307"/>
+      <c r="C291" s="322"/>
+      <c r="D291" s="316"/>
       <c r="E291" s="175"/>
       <c r="F291" s="175"/>
       <c r="G291" s="177" t="s">
@@ -27277,9 +27277,9 @@
     </row>
     <row r="292" spans="1:13" ht="14.25" customHeight="1">
       <c r="A292" s="181"/>
-      <c r="B292" s="313"/>
-      <c r="C292" s="318"/>
-      <c r="D292" s="304"/>
+      <c r="B292" s="307"/>
+      <c r="C292" s="322"/>
+      <c r="D292" s="316"/>
       <c r="E292" s="175"/>
       <c r="F292" s="175"/>
       <c r="G292" s="177" t="s">
@@ -27296,9 +27296,9 @@
     </row>
     <row r="293" spans="1:13" ht="14.25" customHeight="1">
       <c r="A293" s="181"/>
-      <c r="B293" s="313"/>
-      <c r="C293" s="318"/>
-      <c r="D293" s="304"/>
+      <c r="B293" s="307"/>
+      <c r="C293" s="322"/>
+      <c r="D293" s="316"/>
       <c r="E293" s="175"/>
       <c r="F293" s="175"/>
       <c r="G293" s="177" t="s">
@@ -27315,9 +27315,9 @@
     </row>
     <row r="294" spans="1:13" ht="14.25" customHeight="1">
       <c r="A294" s="181"/>
-      <c r="B294" s="313"/>
-      <c r="C294" s="318"/>
-      <c r="D294" s="304"/>
+      <c r="B294" s="307"/>
+      <c r="C294" s="322"/>
+      <c r="D294" s="316"/>
       <c r="E294" s="175"/>
       <c r="F294" s="175"/>
       <c r="G294" s="177" t="s">
@@ -27334,9 +27334,9 @@
     </row>
     <row r="295" spans="1:13" ht="14.25" customHeight="1">
       <c r="A295" s="181"/>
-      <c r="B295" s="313"/>
-      <c r="C295" s="318"/>
-      <c r="D295" s="304"/>
+      <c r="B295" s="307"/>
+      <c r="C295" s="322"/>
+      <c r="D295" s="316"/>
       <c r="E295" s="175"/>
       <c r="F295" s="175"/>
       <c r="G295" s="177" t="s">
@@ -27353,9 +27353,9 @@
     </row>
     <row r="296" spans="1:13" ht="14.25" customHeight="1">
       <c r="A296" s="181"/>
-      <c r="B296" s="313"/>
-      <c r="C296" s="318"/>
-      <c r="D296" s="304"/>
+      <c r="B296" s="307"/>
+      <c r="C296" s="322"/>
+      <c r="D296" s="316"/>
       <c r="E296" s="175"/>
       <c r="F296" s="175"/>
       <c r="G296" s="177" t="s">
@@ -27372,9 +27372,9 @@
     </row>
     <row r="297" spans="1:13" ht="14.25" customHeight="1">
       <c r="A297" s="181"/>
-      <c r="B297" s="313"/>
-      <c r="C297" s="318"/>
-      <c r="D297" s="304"/>
+      <c r="B297" s="307"/>
+      <c r="C297" s="322"/>
+      <c r="D297" s="316"/>
       <c r="E297" s="175"/>
       <c r="F297" s="175"/>
       <c r="G297" s="177" t="s">
@@ -27391,9 +27391,9 @@
     </row>
     <row r="298" spans="1:13" ht="14.25" customHeight="1">
       <c r="A298" s="181"/>
-      <c r="B298" s="313"/>
-      <c r="C298" s="318"/>
-      <c r="D298" s="304"/>
+      <c r="B298" s="307"/>
+      <c r="C298" s="322"/>
+      <c r="D298" s="316"/>
       <c r="E298" s="175"/>
       <c r="F298" s="175"/>
       <c r="G298" s="177" t="s">
@@ -27412,8 +27412,8 @@
       <c r="A299" s="183" t="s">
         <v>1487</v>
       </c>
-      <c r="B299" s="313"/>
-      <c r="C299" s="308" t="s">
+      <c r="B299" s="307"/>
+      <c r="C299" s="311" t="s">
         <v>3013</v>
       </c>
       <c r="D299" s="192" t="s">
@@ -27433,8 +27433,8 @@
     </row>
     <row r="300" spans="1:13" ht="14.25" customHeight="1">
       <c r="A300" s="183"/>
-      <c r="B300" s="314"/>
-      <c r="C300" s="310"/>
+      <c r="B300" s="308"/>
+      <c r="C300" s="313"/>
       <c r="D300" s="193" t="s">
         <v>2899</v>
       </c>
@@ -28119,7 +28119,7 @@
     </row>
     <row r="340" spans="1:13" ht="14.25" customHeight="1">
       <c r="A340" s="183"/>
-      <c r="B340" s="312" t="s">
+      <c r="B340" s="306" t="s">
         <v>3038</v>
       </c>
       <c r="C340" s="258" t="s">
@@ -28140,11 +28140,11 @@
     </row>
     <row r="341" spans="1:13" ht="14.25" customHeight="1">
       <c r="A341" s="183"/>
-      <c r="B341" s="313"/>
-      <c r="C341" s="311" t="s">
+      <c r="B341" s="307"/>
+      <c r="C341" s="330" t="s">
         <v>132</v>
       </c>
-      <c r="D341" s="303" t="s">
+      <c r="D341" s="314" t="s">
         <v>2149</v>
       </c>
       <c r="E341" s="175"/>
@@ -28161,9 +28161,9 @@
     </row>
     <row r="342" spans="1:13" ht="14.25" customHeight="1">
       <c r="A342" s="183"/>
-      <c r="B342" s="313"/>
-      <c r="C342" s="311"/>
-      <c r="D342" s="304"/>
+      <c r="B342" s="307"/>
+      <c r="C342" s="330"/>
+      <c r="D342" s="316"/>
       <c r="E342" s="175"/>
       <c r="F342" s="175"/>
       <c r="G342" s="177" t="s">
@@ -28180,9 +28180,9 @@
     </row>
     <row r="343" spans="1:13" ht="14.25" customHeight="1">
       <c r="A343" s="183"/>
-      <c r="B343" s="313"/>
-      <c r="C343" s="311"/>
-      <c r="D343" s="304"/>
+      <c r="B343" s="307"/>
+      <c r="C343" s="330"/>
+      <c r="D343" s="316"/>
       <c r="E343" s="175"/>
       <c r="F343" s="175"/>
       <c r="G343" s="177" t="s">
@@ -28199,9 +28199,9 @@
     </row>
     <row r="344" spans="1:13" ht="14.25" customHeight="1">
       <c r="A344" s="183"/>
-      <c r="B344" s="313"/>
-      <c r="C344" s="311"/>
-      <c r="D344" s="304"/>
+      <c r="B344" s="307"/>
+      <c r="C344" s="330"/>
+      <c r="D344" s="316"/>
       <c r="E344" s="174"/>
       <c r="F344" s="174"/>
       <c r="G344" s="259" t="s">
@@ -28218,9 +28218,9 @@
     </row>
     <row r="345" spans="1:13" ht="14.25" customHeight="1">
       <c r="A345" s="183"/>
-      <c r="B345" s="313"/>
-      <c r="C345" s="311"/>
-      <c r="D345" s="304"/>
+      <c r="B345" s="307"/>
+      <c r="C345" s="330"/>
+      <c r="D345" s="316"/>
       <c r="E345" s="174"/>
       <c r="F345" s="174"/>
       <c r="G345" s="259" t="s">
@@ -28237,9 +28237,9 @@
     </row>
     <row r="346" spans="1:13" ht="14.25" customHeight="1">
       <c r="A346" s="183"/>
-      <c r="B346" s="313"/>
-      <c r="C346" s="311"/>
-      <c r="D346" s="304"/>
+      <c r="B346" s="307"/>
+      <c r="C346" s="330"/>
+      <c r="D346" s="316"/>
       <c r="E346" s="174"/>
       <c r="F346" s="174"/>
       <c r="G346" s="259" t="s">
@@ -28256,9 +28256,9 @@
     </row>
     <row r="347" spans="1:13" ht="14.25" customHeight="1">
       <c r="A347" s="183"/>
-      <c r="B347" s="313"/>
-      <c r="C347" s="311"/>
-      <c r="D347" s="304"/>
+      <c r="B347" s="307"/>
+      <c r="C347" s="330"/>
+      <c r="D347" s="316"/>
       <c r="E347" s="174"/>
       <c r="F347" s="174"/>
       <c r="G347" s="259" t="s">
@@ -28275,9 +28275,9 @@
     </row>
     <row r="348" spans="1:13" ht="14.25" customHeight="1">
       <c r="A348" s="183"/>
-      <c r="B348" s="313"/>
-      <c r="C348" s="311"/>
-      <c r="D348" s="304"/>
+      <c r="B348" s="307"/>
+      <c r="C348" s="330"/>
+      <c r="D348" s="316"/>
       <c r="E348" s="174"/>
       <c r="F348" s="174"/>
       <c r="G348" s="259" t="s">
@@ -28294,9 +28294,9 @@
     </row>
     <row r="349" spans="1:13" ht="14.25" customHeight="1">
       <c r="A349" s="183"/>
-      <c r="B349" s="313"/>
-      <c r="C349" s="311"/>
-      <c r="D349" s="304"/>
+      <c r="B349" s="307"/>
+      <c r="C349" s="330"/>
+      <c r="D349" s="316"/>
       <c r="E349" s="174"/>
       <c r="F349" s="174"/>
       <c r="G349" s="259" t="s">
@@ -28313,9 +28313,9 @@
     </row>
     <row r="350" spans="1:13" ht="14.25" customHeight="1">
       <c r="A350" s="183"/>
-      <c r="B350" s="313"/>
-      <c r="C350" s="311"/>
-      <c r="D350" s="304"/>
+      <c r="B350" s="307"/>
+      <c r="C350" s="330"/>
+      <c r="D350" s="316"/>
       <c r="E350" s="174"/>
       <c r="F350" s="174"/>
       <c r="G350" s="259" t="s">
@@ -28332,9 +28332,9 @@
     </row>
     <row r="351" spans="1:13" ht="14.25" customHeight="1">
       <c r="A351" s="183"/>
-      <c r="B351" s="313"/>
-      <c r="C351" s="311"/>
-      <c r="D351" s="305"/>
+      <c r="B351" s="307"/>
+      <c r="C351" s="330"/>
+      <c r="D351" s="315"/>
       <c r="E351" s="174"/>
       <c r="F351" s="174"/>
       <c r="G351" s="259" t="s">
@@ -28351,8 +28351,8 @@
     </row>
     <row r="352" spans="1:13" ht="14.25" customHeight="1">
       <c r="A352" s="183"/>
-      <c r="B352" s="313"/>
-      <c r="C352" s="311"/>
+      <c r="B352" s="307"/>
+      <c r="C352" s="330"/>
       <c r="D352" s="260" t="s">
         <v>2160</v>
       </c>
@@ -28370,9 +28370,9 @@
     </row>
     <row r="353" spans="1:13" ht="14.25" customHeight="1">
       <c r="A353" s="183"/>
-      <c r="B353" s="313"/>
-      <c r="C353" s="311"/>
-      <c r="D353" s="332" t="s">
+      <c r="B353" s="307"/>
+      <c r="C353" s="330"/>
+      <c r="D353" s="309" t="s">
         <v>2175</v>
       </c>
       <c r="E353" s="174"/>
@@ -28393,9 +28393,9 @@
     </row>
     <row r="354" spans="1:13" ht="14.25" customHeight="1">
       <c r="A354" s="183"/>
-      <c r="B354" s="313"/>
-      <c r="C354" s="311"/>
-      <c r="D354" s="334"/>
+      <c r="B354" s="307"/>
+      <c r="C354" s="330"/>
+      <c r="D354" s="317"/>
       <c r="E354" s="174"/>
       <c r="F354" s="174"/>
       <c r="G354" s="259" t="s">
@@ -28412,9 +28412,9 @@
     </row>
     <row r="355" spans="1:13" ht="14.25" customHeight="1">
       <c r="A355" s="183"/>
-      <c r="B355" s="313"/>
-      <c r="C355" s="311"/>
-      <c r="D355" s="334"/>
+      <c r="B355" s="307"/>
+      <c r="C355" s="330"/>
+      <c r="D355" s="317"/>
       <c r="E355" s="174"/>
       <c r="F355" s="174"/>
       <c r="G355" s="259" t="s">
@@ -28433,9 +28433,9 @@
     </row>
     <row r="356" spans="1:13" ht="14.25" customHeight="1">
       <c r="A356" s="183"/>
-      <c r="B356" s="313"/>
-      <c r="C356" s="311"/>
-      <c r="D356" s="334"/>
+      <c r="B356" s="307"/>
+      <c r="C356" s="330"/>
+      <c r="D356" s="317"/>
       <c r="E356" s="174"/>
       <c r="F356" s="174"/>
       <c r="G356" s="259" t="s">
@@ -28452,9 +28452,9 @@
     </row>
     <row r="357" spans="1:13" ht="14.25" customHeight="1">
       <c r="A357" s="183"/>
-      <c r="B357" s="313"/>
-      <c r="C357" s="311"/>
-      <c r="D357" s="334"/>
+      <c r="B357" s="307"/>
+      <c r="C357" s="330"/>
+      <c r="D357" s="317"/>
       <c r="E357" s="174"/>
       <c r="F357" s="174"/>
       <c r="G357" s="259" t="s">
@@ -28473,9 +28473,9 @@
     </row>
     <row r="358" spans="1:13" ht="14.25" customHeight="1">
       <c r="A358" s="183"/>
-      <c r="B358" s="313"/>
-      <c r="C358" s="311"/>
-      <c r="D358" s="334"/>
+      <c r="B358" s="307"/>
+      <c r="C358" s="330"/>
+      <c r="D358" s="317"/>
       <c r="E358" s="174"/>
       <c r="F358" s="174"/>
       <c r="G358" s="259" t="s">
@@ -28492,9 +28492,9 @@
     </row>
     <row r="359" spans="1:13" ht="14.25" customHeight="1">
       <c r="A359" s="183"/>
-      <c r="B359" s="313"/>
-      <c r="C359" s="311"/>
-      <c r="D359" s="334"/>
+      <c r="B359" s="307"/>
+      <c r="C359" s="330"/>
+      <c r="D359" s="317"/>
       <c r="E359" s="174"/>
       <c r="F359" s="174"/>
       <c r="G359" s="259" t="s">
@@ -28513,9 +28513,9 @@
     </row>
     <row r="360" spans="1:13" ht="14.25" customHeight="1">
       <c r="A360" s="183"/>
-      <c r="B360" s="313"/>
-      <c r="C360" s="311"/>
-      <c r="D360" s="334"/>
+      <c r="B360" s="307"/>
+      <c r="C360" s="330"/>
+      <c r="D360" s="317"/>
       <c r="E360" s="174"/>
       <c r="F360" s="174"/>
       <c r="G360" s="259" t="s">
@@ -28532,9 +28532,9 @@
     </row>
     <row r="361" spans="1:13" ht="14.25" customHeight="1">
       <c r="A361" s="183"/>
-      <c r="B361" s="313"/>
-      <c r="C361" s="311"/>
-      <c r="D361" s="334"/>
+      <c r="B361" s="307"/>
+      <c r="C361" s="330"/>
+      <c r="D361" s="317"/>
       <c r="E361" s="174"/>
       <c r="F361" s="174"/>
       <c r="G361" s="259" t="s">
@@ -28553,9 +28553,9 @@
     </row>
     <row r="362" spans="1:13" ht="14.25" customHeight="1">
       <c r="A362" s="183"/>
-      <c r="B362" s="313"/>
-      <c r="C362" s="311"/>
-      <c r="D362" s="334"/>
+      <c r="B362" s="307"/>
+      <c r="C362" s="330"/>
+      <c r="D362" s="317"/>
       <c r="E362" s="174"/>
       <c r="F362" s="174"/>
       <c r="G362" s="261" t="s">
@@ -28576,9 +28576,9 @@
     </row>
     <row r="363" spans="1:13" ht="14.25" customHeight="1">
       <c r="A363" s="183"/>
-      <c r="B363" s="313"/>
-      <c r="C363" s="311"/>
-      <c r="D363" s="333"/>
+      <c r="B363" s="307"/>
+      <c r="C363" s="330"/>
+      <c r="D363" s="310"/>
       <c r="E363" s="174"/>
       <c r="F363" s="174"/>
       <c r="G363" s="261" t="s">
@@ -28597,9 +28597,9 @@
     </row>
     <row r="364" spans="1:13" ht="14.25" customHeight="1">
       <c r="A364" s="183"/>
-      <c r="B364" s="313"/>
-      <c r="C364" s="311"/>
-      <c r="D364" s="329" t="s">
+      <c r="B364" s="307"/>
+      <c r="C364" s="330"/>
+      <c r="D364" s="303" t="s">
         <v>2176</v>
       </c>
       <c r="E364" s="174"/>
@@ -28618,9 +28618,9 @@
     </row>
     <row r="365" spans="1:13" ht="14.25" customHeight="1">
       <c r="A365" s="183"/>
-      <c r="B365" s="313"/>
-      <c r="C365" s="311"/>
-      <c r="D365" s="330"/>
+      <c r="B365" s="307"/>
+      <c r="C365" s="330"/>
+      <c r="D365" s="304"/>
       <c r="E365" s="174"/>
       <c r="F365" s="174"/>
       <c r="G365" s="259" t="s">
@@ -28639,9 +28639,9 @@
     </row>
     <row r="366" spans="1:13" ht="14.25" customHeight="1">
       <c r="A366" s="183"/>
-      <c r="B366" s="313"/>
-      <c r="C366" s="311"/>
-      <c r="D366" s="330"/>
+      <c r="B366" s="307"/>
+      <c r="C366" s="330"/>
+      <c r="D366" s="304"/>
       <c r="E366" s="174"/>
       <c r="F366" s="174"/>
       <c r="G366" s="259" t="s">
@@ -28660,9 +28660,9 @@
     </row>
     <row r="367" spans="1:13" ht="14.25" customHeight="1">
       <c r="A367" s="183"/>
-      <c r="B367" s="313"/>
-      <c r="C367" s="311"/>
-      <c r="D367" s="331"/>
+      <c r="B367" s="307"/>
+      <c r="C367" s="330"/>
+      <c r="D367" s="305"/>
       <c r="E367" s="174"/>
       <c r="F367" s="174"/>
       <c r="G367" s="259" t="s">
@@ -28681,9 +28681,9 @@
     </row>
     <row r="368" spans="1:13" ht="14.25" customHeight="1">
       <c r="A368" s="183"/>
-      <c r="B368" s="313"/>
-      <c r="C368" s="311"/>
-      <c r="D368" s="329" t="s">
+      <c r="B368" s="307"/>
+      <c r="C368" s="330"/>
+      <c r="D368" s="303" t="s">
         <v>2177</v>
       </c>
       <c r="E368" s="174"/>
@@ -28704,9 +28704,9 @@
     </row>
     <row r="369" spans="1:13" ht="14.25" customHeight="1">
       <c r="A369" s="183"/>
-      <c r="B369" s="313"/>
-      <c r="C369" s="311"/>
-      <c r="D369" s="330"/>
+      <c r="B369" s="307"/>
+      <c r="C369" s="330"/>
+      <c r="D369" s="304"/>
       <c r="E369" s="174"/>
       <c r="F369" s="174"/>
       <c r="G369" s="259" t="s">
@@ -28725,9 +28725,9 @@
     </row>
     <row r="370" spans="1:13" ht="14.25" customHeight="1">
       <c r="A370" s="183"/>
-      <c r="B370" s="313"/>
-      <c r="C370" s="311"/>
-      <c r="D370" s="330"/>
+      <c r="B370" s="307"/>
+      <c r="C370" s="330"/>
+      <c r="D370" s="304"/>
       <c r="E370" s="174"/>
       <c r="F370" s="174"/>
       <c r="G370" s="259" t="s">
@@ -28746,9 +28746,9 @@
     </row>
     <row r="371" spans="1:13" ht="14.25" customHeight="1">
       <c r="A371" s="183"/>
-      <c r="B371" s="313"/>
-      <c r="C371" s="311"/>
-      <c r="D371" s="331"/>
+      <c r="B371" s="307"/>
+      <c r="C371" s="330"/>
+      <c r="D371" s="305"/>
       <c r="E371" s="174"/>
       <c r="F371" s="174"/>
       <c r="G371" s="259" t="s">
@@ -28767,9 +28767,9 @@
     </row>
     <row r="372" spans="1:13" ht="14.25" customHeight="1">
       <c r="A372" s="183"/>
-      <c r="B372" s="313"/>
-      <c r="C372" s="311"/>
-      <c r="D372" s="332" t="s">
+      <c r="B372" s="307"/>
+      <c r="C372" s="330"/>
+      <c r="D372" s="309" t="s">
         <v>2182</v>
       </c>
       <c r="E372" s="174"/>
@@ -28788,9 +28788,9 @@
     </row>
     <row r="373" spans="1:13" ht="14.25" customHeight="1">
       <c r="A373" s="183"/>
-      <c r="B373" s="313"/>
-      <c r="C373" s="311"/>
-      <c r="D373" s="333"/>
+      <c r="B373" s="307"/>
+      <c r="C373" s="330"/>
+      <c r="D373" s="310"/>
       <c r="E373" s="174"/>
       <c r="F373" s="174"/>
       <c r="G373" s="259" t="s">
@@ -28809,8 +28809,8 @@
     </row>
     <row r="374" spans="1:13" ht="14.25" customHeight="1">
       <c r="A374" s="183"/>
-      <c r="B374" s="313"/>
-      <c r="C374" s="311"/>
+      <c r="B374" s="307"/>
+      <c r="C374" s="330"/>
       <c r="D374" s="288" t="s">
         <v>2183</v>
       </c>
@@ -28830,8 +28830,8 @@
     </row>
     <row r="375" spans="1:13" ht="18.95" customHeight="1">
       <c r="A375" s="183"/>
-      <c r="B375" s="313"/>
-      <c r="C375" s="311"/>
+      <c r="B375" s="307"/>
+      <c r="C375" s="330"/>
       <c r="D375" s="263" t="s">
         <v>2189</v>
       </c>
@@ -28855,8 +28855,8 @@
     </row>
     <row r="376" spans="1:13" ht="14.25" customHeight="1">
       <c r="A376" s="183"/>
-      <c r="B376" s="313"/>
-      <c r="C376" s="311"/>
+      <c r="B376" s="307"/>
+      <c r="C376" s="330"/>
       <c r="D376" s="264" t="s">
         <v>2190</v>
       </c>
@@ -28874,8 +28874,8 @@
     </row>
     <row r="377" spans="1:13" ht="14.25" customHeight="1">
       <c r="A377" s="183"/>
-      <c r="B377" s="313"/>
-      <c r="C377" s="311"/>
+      <c r="B377" s="307"/>
+      <c r="C377" s="330"/>
       <c r="D377" s="260" t="s">
         <v>2206</v>
       </c>
@@ -28895,8 +28895,8 @@
     </row>
     <row r="378" spans="1:13" ht="14.25" customHeight="1">
       <c r="A378" s="183"/>
-      <c r="B378" s="313"/>
-      <c r="C378" s="311"/>
+      <c r="B378" s="307"/>
+      <c r="C378" s="330"/>
       <c r="D378" s="260"/>
       <c r="E378" s="174"/>
       <c r="F378" s="174"/>
@@ -28916,8 +28916,8 @@
     </row>
     <row r="379" spans="1:13" ht="14.25" customHeight="1">
       <c r="A379" s="183"/>
-      <c r="B379" s="313"/>
-      <c r="C379" s="311"/>
+      <c r="B379" s="307"/>
+      <c r="C379" s="330"/>
       <c r="D379" s="260"/>
       <c r="E379" s="174"/>
       <c r="F379" s="174"/>
@@ -28935,8 +28935,8 @@
     </row>
     <row r="380" spans="1:13" ht="14.25" customHeight="1">
       <c r="A380" s="183"/>
-      <c r="B380" s="313"/>
-      <c r="C380" s="311"/>
+      <c r="B380" s="307"/>
+      <c r="C380" s="330"/>
       <c r="D380" s="260" t="s">
         <v>2215</v>
       </c>
@@ -28956,8 +28956,8 @@
     </row>
     <row r="381" spans="1:13" ht="14.25" customHeight="1">
       <c r="A381" s="183"/>
-      <c r="B381" s="313"/>
-      <c r="C381" s="311"/>
+      <c r="B381" s="307"/>
+      <c r="C381" s="330"/>
       <c r="D381" s="260"/>
       <c r="E381" s="174"/>
       <c r="F381" s="174"/>
@@ -28977,8 +28977,8 @@
     </row>
     <row r="382" spans="1:13" ht="14.25" customHeight="1">
       <c r="A382" s="183"/>
-      <c r="B382" s="313"/>
-      <c r="C382" s="311"/>
+      <c r="B382" s="307"/>
+      <c r="C382" s="330"/>
       <c r="D382" s="260"/>
       <c r="E382" s="174"/>
       <c r="F382" s="174"/>
@@ -28996,8 +28996,8 @@
     </row>
     <row r="383" spans="1:13" ht="14.25" customHeight="1">
       <c r="A383" s="183"/>
-      <c r="B383" s="313"/>
-      <c r="C383" s="311"/>
+      <c r="B383" s="307"/>
+      <c r="C383" s="330"/>
       <c r="D383" s="260" t="s">
         <v>2216</v>
       </c>
@@ -29015,8 +29015,8 @@
     </row>
     <row r="384" spans="1:13" ht="14.25" customHeight="1">
       <c r="A384" s="183"/>
-      <c r="B384" s="313"/>
-      <c r="C384" s="311"/>
+      <c r="B384" s="307"/>
+      <c r="C384" s="330"/>
       <c r="D384" s="260" t="s">
         <v>2217</v>
       </c>
@@ -29034,7 +29034,7 @@
     </row>
     <row r="385" spans="1:13" ht="14.25" customHeight="1">
       <c r="A385" s="181"/>
-      <c r="B385" s="314"/>
+      <c r="B385" s="308"/>
       <c r="C385" s="265" t="s">
         <v>2218</v>
       </c>
@@ -29202,6 +29202,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="D136:D143"/>
+    <mergeCell ref="D158:D167"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="C119:C143"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="C2:C66"/>
+    <mergeCell ref="C341:C384"/>
+    <mergeCell ref="B2:B66"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="B75:B194"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="C150:C167"/>
+    <mergeCell ref="C185:C194"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="D177:D184"/>
+    <mergeCell ref="D168:D176"/>
+    <mergeCell ref="C242:C258"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D21:D66"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="C75:C100"/>
+    <mergeCell ref="C101:C118"/>
+    <mergeCell ref="C259:C279"/>
+    <mergeCell ref="D259:D279"/>
+    <mergeCell ref="C280:C298"/>
+    <mergeCell ref="D280:D298"/>
+    <mergeCell ref="D205:D210"/>
     <mergeCell ref="D364:D367"/>
     <mergeCell ref="D368:D371"/>
     <mergeCell ref="B340:B385"/>
@@ -29218,57 +29269,6 @@
     <mergeCell ref="D242:D258"/>
     <mergeCell ref="C211:C241"/>
     <mergeCell ref="D211:D241"/>
-    <mergeCell ref="C259:C279"/>
-    <mergeCell ref="D259:D279"/>
-    <mergeCell ref="C280:C298"/>
-    <mergeCell ref="D280:D298"/>
-    <mergeCell ref="D205:D210"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="C75:C100"/>
-    <mergeCell ref="C101:C118"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D21:D66"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="C2:C66"/>
-    <mergeCell ref="C341:C384"/>
-    <mergeCell ref="B2:B66"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="B75:B194"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="C150:C167"/>
-    <mergeCell ref="C185:C194"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="D177:D184"/>
-    <mergeCell ref="D168:D176"/>
-    <mergeCell ref="C242:C258"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="D136:D143"/>
-    <mergeCell ref="D158:D167"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="C119:C143"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="D147:D148"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31549,10 +31549,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M402"/>
+  <dimension ref="B1:M414"/>
   <sheetViews>
-    <sheetView topLeftCell="C64" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="C400" workbookViewId="0">
+      <selection activeCell="J414" sqref="J414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -39731,8 +39731,49 @@
       <c r="I402" s="58"/>
       <c r="M402" s="169"/>
     </row>
+    <row r="414" spans="2:13">
+      <c r="J414" s="43">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B69:B84"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B5:B34"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="B40:B63"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:I68"/>
+    <mergeCell ref="B167:B192"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="B90:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="B118:B161"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C166:I166"/>
+    <mergeCell ref="B260:B307"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="B226:B253"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:I259"/>
     <mergeCell ref="B374:B402"/>
     <mergeCell ref="C309:G309"/>
     <mergeCell ref="C310:G310"/>
@@ -39745,42 +39786,6 @@
     <mergeCell ref="C371:G371"/>
     <mergeCell ref="C372:G372"/>
     <mergeCell ref="C373:I373"/>
-    <mergeCell ref="B260:B307"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="B198:B220"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="B226:B253"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C259:I259"/>
-    <mergeCell ref="B167:B192"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="B90:B112"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:B161"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B69:B84"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B5:B34"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="B40:B63"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:I68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -54218,8 +54223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/03.指标管理/大宗/指标定义表V2.1.4.xlsx
+++ b/03.指标管理/大宗/指标定义表V2.1.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="705"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="705" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6017" uniqueCount="3071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6020" uniqueCount="3074">
   <si>
     <t>文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -18052,6 +18052,18 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心产品类别表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -19790,28 +19802,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19823,25 +19826,22 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19852,6 +19852,15 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19871,29 +19880,32 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -21046,10 +21058,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G166" sqref="G166"/>
+      <selection pane="bottomLeft" activeCell="G305" sqref="G305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="14.25" customHeight="1"/>
@@ -21107,13 +21119,13 @@
       <c r="A2" s="174">
         <v>1</v>
       </c>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="312" t="s">
         <v>1334</v>
       </c>
-      <c r="C2" s="311" t="s">
+      <c r="C2" s="308" t="s">
         <v>1335</v>
       </c>
-      <c r="D2" s="331" t="s">
+      <c r="D2" s="306" t="s">
         <v>179</v>
       </c>
       <c r="E2" s="175" t="s">
@@ -21146,9 +21158,9 @@
       <c r="A3" s="174">
         <v>2</v>
       </c>
-      <c r="B3" s="307"/>
-      <c r="C3" s="312"/>
-      <c r="D3" s="332"/>
+      <c r="B3" s="313"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="315"/>
       <c r="E3" s="175" t="s">
         <v>1340</v>
       </c>
@@ -21173,9 +21185,9 @@
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4" s="174"/>
-      <c r="B4" s="307"/>
-      <c r="C4" s="312"/>
-      <c r="D4" s="332"/>
+      <c r="B4" s="313"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="175" t="s">
         <v>1343</v>
       </c>
@@ -21198,9 +21210,9 @@
     </row>
     <row r="5" spans="1:13" s="161" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="182"/>
-      <c r="B5" s="307"/>
-      <c r="C5" s="312"/>
-      <c r="D5" s="332"/>
+      <c r="B5" s="313"/>
+      <c r="C5" s="309"/>
+      <c r="D5" s="315"/>
       <c r="E5" s="183"/>
       <c r="F5" s="184"/>
       <c r="G5" s="177" t="s">
@@ -21225,9 +21237,9 @@
     </row>
     <row r="6" spans="1:13" ht="49.5">
       <c r="A6" s="174"/>
-      <c r="B6" s="307"/>
-      <c r="C6" s="312"/>
-      <c r="D6" s="332"/>
+      <c r="B6" s="313"/>
+      <c r="C6" s="309"/>
+      <c r="D6" s="315"/>
       <c r="E6" s="175"/>
       <c r="F6" s="176"/>
       <c r="G6" s="177" t="s">
@@ -21246,9 +21258,9 @@
     </row>
     <row r="7" spans="1:13" ht="33">
       <c r="A7" s="174"/>
-      <c r="B7" s="307"/>
-      <c r="C7" s="312"/>
-      <c r="D7" s="332"/>
+      <c r="B7" s="313"/>
+      <c r="C7" s="309"/>
+      <c r="D7" s="315"/>
       <c r="E7" s="175"/>
       <c r="F7" s="176"/>
       <c r="G7" s="177" t="s">
@@ -21267,8 +21279,8 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="174"/>
-      <c r="B8" s="307"/>
-      <c r="C8" s="312"/>
+      <c r="B8" s="313"/>
+      <c r="C8" s="309"/>
       <c r="D8" s="188"/>
       <c r="E8" s="175"/>
       <c r="F8" s="176"/>
@@ -21286,8 +21298,8 @@
     </row>
     <row r="9" spans="1:13" ht="66">
       <c r="A9" s="174"/>
-      <c r="B9" s="307"/>
-      <c r="C9" s="312"/>
+      <c r="B9" s="313"/>
+      <c r="C9" s="309"/>
       <c r="D9" s="188"/>
       <c r="E9" s="175"/>
       <c r="F9" s="176"/>
@@ -21307,8 +21319,8 @@
     </row>
     <row r="10" spans="1:13" ht="25.5" customHeight="1">
       <c r="A10" s="174"/>
-      <c r="B10" s="307"/>
-      <c r="C10" s="312"/>
+      <c r="B10" s="313"/>
+      <c r="C10" s="309"/>
       <c r="D10" s="188"/>
       <c r="E10" s="175"/>
       <c r="F10" s="176"/>
@@ -21328,8 +21340,8 @@
     </row>
     <row r="11" spans="1:13" s="161" customFormat="1" ht="87.75" customHeight="1">
       <c r="A11" s="182"/>
-      <c r="B11" s="307"/>
-      <c r="C11" s="312"/>
+      <c r="B11" s="313"/>
+      <c r="C11" s="309"/>
       <c r="D11" s="191" t="s">
         <v>0</v>
       </c>
@@ -21351,8 +21363,8 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
       <c r="A12" s="174"/>
-      <c r="B12" s="307"/>
-      <c r="C12" s="312"/>
+      <c r="B12" s="313"/>
+      <c r="C12" s="309"/>
       <c r="D12" s="192" t="s">
         <v>0</v>
       </c>
@@ -21374,8 +21386,8 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13" s="174"/>
-      <c r="B13" s="307"/>
-      <c r="C13" s="312"/>
+      <c r="B13" s="313"/>
+      <c r="C13" s="309"/>
       <c r="D13" s="192" t="s">
         <v>0</v>
       </c>
@@ -21397,8 +21409,8 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="174"/>
-      <c r="B14" s="307"/>
-      <c r="C14" s="312"/>
+      <c r="B14" s="313"/>
+      <c r="C14" s="309"/>
       <c r="D14" s="193" t="s">
         <v>2231</v>
       </c>
@@ -21422,8 +21434,8 @@
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="174"/>
-      <c r="B15" s="307"/>
-      <c r="C15" s="312"/>
+      <c r="B15" s="313"/>
+      <c r="C15" s="309"/>
       <c r="D15" s="193"/>
       <c r="E15" s="175"/>
       <c r="F15" s="176"/>
@@ -21443,9 +21455,9 @@
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" s="174"/>
-      <c r="B16" s="307"/>
-      <c r="C16" s="312"/>
-      <c r="D16" s="314" t="s">
+      <c r="B16" s="313"/>
+      <c r="C16" s="309"/>
+      <c r="D16" s="303" t="s">
         <v>1353</v>
       </c>
       <c r="E16" s="175"/>
@@ -21466,9 +21478,9 @@
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1">
       <c r="A17" s="174"/>
-      <c r="B17" s="307"/>
-      <c r="C17" s="312"/>
-      <c r="D17" s="316"/>
+      <c r="B17" s="313"/>
+      <c r="C17" s="309"/>
+      <c r="D17" s="304"/>
       <c r="E17" s="175"/>
       <c r="F17" s="176"/>
       <c r="G17" s="177" t="s">
@@ -21487,9 +21499,9 @@
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" s="174"/>
-      <c r="B18" s="307"/>
-      <c r="C18" s="312"/>
-      <c r="D18" s="315"/>
+      <c r="B18" s="313"/>
+      <c r="C18" s="309"/>
+      <c r="D18" s="305"/>
       <c r="E18" s="175"/>
       <c r="F18" s="176"/>
       <c r="G18" s="177" t="s">
@@ -21506,8 +21518,8 @@
     </row>
     <row r="19" spans="1:13" s="161" customFormat="1" ht="33">
       <c r="A19" s="182"/>
-      <c r="B19" s="307"/>
-      <c r="C19" s="312"/>
+      <c r="B19" s="313"/>
+      <c r="C19" s="309"/>
       <c r="D19" s="191" t="s">
         <v>1358</v>
       </c>
@@ -21531,8 +21543,8 @@
     </row>
     <row r="20" spans="1:13" ht="33">
       <c r="A20" s="174"/>
-      <c r="B20" s="307"/>
-      <c r="C20" s="312"/>
+      <c r="B20" s="313"/>
+      <c r="C20" s="309"/>
       <c r="D20" s="192" t="s">
         <v>1360</v>
       </c>
@@ -21556,9 +21568,9 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
       <c r="A21" s="174"/>
-      <c r="B21" s="307"/>
-      <c r="C21" s="312"/>
-      <c r="D21" s="306" t="s">
+      <c r="B21" s="313"/>
+      <c r="C21" s="309"/>
+      <c r="D21" s="312" t="s">
         <v>1362</v>
       </c>
       <c r="E21" s="175"/>
@@ -21579,9 +21591,9 @@
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
       <c r="A22" s="174"/>
-      <c r="B22" s="307"/>
-      <c r="C22" s="312"/>
-      <c r="D22" s="307"/>
+      <c r="B22" s="313"/>
+      <c r="C22" s="309"/>
+      <c r="D22" s="313"/>
       <c r="E22" s="175"/>
       <c r="F22" s="176"/>
       <c r="G22" s="177" t="s">
@@ -21600,9 +21612,9 @@
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1">
       <c r="A23" s="174"/>
-      <c r="B23" s="307"/>
-      <c r="C23" s="312"/>
-      <c r="D23" s="307"/>
+      <c r="B23" s="313"/>
+      <c r="C23" s="309"/>
+      <c r="D23" s="313"/>
       <c r="E23" s="175"/>
       <c r="F23" s="176"/>
       <c r="G23" s="177" t="s">
@@ -21623,9 +21635,9 @@
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1">
       <c r="A24" s="174"/>
-      <c r="B24" s="307"/>
-      <c r="C24" s="312"/>
-      <c r="D24" s="307"/>
+      <c r="B24" s="313"/>
+      <c r="C24" s="309"/>
+      <c r="D24" s="313"/>
       <c r="E24" s="175"/>
       <c r="F24" s="176"/>
       <c r="G24" s="177" t="s">
@@ -21646,9 +21658,9 @@
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1">
       <c r="A25" s="174"/>
-      <c r="B25" s="307"/>
-      <c r="C25" s="312"/>
-      <c r="D25" s="307"/>
+      <c r="B25" s="313"/>
+      <c r="C25" s="309"/>
+      <c r="D25" s="313"/>
       <c r="E25" s="175"/>
       <c r="F25" s="176"/>
       <c r="G25" s="177" t="s">
@@ -21667,9 +21679,9 @@
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="307"/>
-      <c r="C26" s="312"/>
-      <c r="D26" s="307"/>
+      <c r="B26" s="313"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="313"/>
       <c r="E26" s="175"/>
       <c r="F26" s="176"/>
       <c r="G26" s="177" t="s">
@@ -21690,9 +21702,9 @@
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="307"/>
-      <c r="C27" s="312"/>
-      <c r="D27" s="307"/>
+      <c r="B27" s="313"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="313"/>
       <c r="E27" s="175"/>
       <c r="F27" s="176"/>
       <c r="G27" s="197" t="s">
@@ -21713,9 +21725,9 @@
     </row>
     <row r="28" spans="1:13" ht="66">
       <c r="A28" s="174"/>
-      <c r="B28" s="307"/>
-      <c r="C28" s="312"/>
-      <c r="D28" s="307"/>
+      <c r="B28" s="313"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="313"/>
       <c r="E28" s="175"/>
       <c r="F28" s="176"/>
       <c r="G28" s="195" t="s">
@@ -21736,9 +21748,9 @@
     </row>
     <row r="29" spans="1:13" s="151" customFormat="1" ht="33">
       <c r="A29" s="199"/>
-      <c r="B29" s="307"/>
-      <c r="C29" s="312"/>
-      <c r="D29" s="307"/>
+      <c r="B29" s="313"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="313"/>
       <c r="E29" s="175"/>
       <c r="F29" s="176"/>
       <c r="G29" s="200" t="s">
@@ -21759,9 +21771,9 @@
     </row>
     <row r="30" spans="1:13" ht="49.5">
       <c r="A30" s="174"/>
-      <c r="B30" s="307"/>
-      <c r="C30" s="312"/>
-      <c r="D30" s="307"/>
+      <c r="B30" s="313"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="313"/>
       <c r="E30" s="175"/>
       <c r="F30" s="176"/>
       <c r="G30" s="195" t="s">
@@ -21782,9 +21794,9 @@
     </row>
     <row r="31" spans="1:13" ht="247.5">
       <c r="A31" s="174"/>
-      <c r="B31" s="307"/>
-      <c r="C31" s="312"/>
-      <c r="D31" s="307"/>
+      <c r="B31" s="313"/>
+      <c r="C31" s="309"/>
+      <c r="D31" s="313"/>
       <c r="E31" s="175"/>
       <c r="F31" s="176"/>
       <c r="G31" s="195" t="s">
@@ -21807,9 +21819,9 @@
     </row>
     <row r="32" spans="1:13" ht="159" customHeight="1">
       <c r="A32" s="174"/>
-      <c r="B32" s="307"/>
-      <c r="C32" s="312"/>
-      <c r="D32" s="307"/>
+      <c r="B32" s="313"/>
+      <c r="C32" s="309"/>
+      <c r="D32" s="313"/>
       <c r="E32" s="175"/>
       <c r="F32" s="176"/>
       <c r="G32" s="195" t="s">
@@ -21830,9 +21842,9 @@
     </row>
     <row r="33" spans="1:13" ht="102.75" customHeight="1">
       <c r="A33" s="174"/>
-      <c r="B33" s="307"/>
-      <c r="C33" s="312"/>
-      <c r="D33" s="307"/>
+      <c r="B33" s="313"/>
+      <c r="C33" s="309"/>
+      <c r="D33" s="313"/>
       <c r="E33" s="175"/>
       <c r="F33" s="176"/>
       <c r="G33" s="195" t="s">
@@ -21853,9 +21865,9 @@
     </row>
     <row r="34" spans="1:13" ht="83.25" customHeight="1">
       <c r="A34" s="174"/>
-      <c r="B34" s="307"/>
-      <c r="C34" s="312"/>
-      <c r="D34" s="307"/>
+      <c r="B34" s="313"/>
+      <c r="C34" s="309"/>
+      <c r="D34" s="313"/>
       <c r="E34" s="175"/>
       <c r="F34" s="176"/>
       <c r="G34" s="195" t="s">
@@ -21876,9 +21888,9 @@
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="174"/>
-      <c r="B35" s="307"/>
-      <c r="C35" s="312"/>
-      <c r="D35" s="307"/>
+      <c r="B35" s="313"/>
+      <c r="C35" s="309"/>
+      <c r="D35" s="313"/>
       <c r="E35" s="175"/>
       <c r="F35" s="176"/>
       <c r="G35" s="208" t="s">
@@ -21899,9 +21911,9 @@
     </row>
     <row r="36" spans="1:13" ht="41.25" customHeight="1">
       <c r="A36" s="174"/>
-      <c r="B36" s="307"/>
-      <c r="C36" s="312"/>
-      <c r="D36" s="307"/>
+      <c r="B36" s="313"/>
+      <c r="C36" s="309"/>
+      <c r="D36" s="313"/>
       <c r="E36" s="175"/>
       <c r="F36" s="176"/>
       <c r="G36" s="210" t="s">
@@ -21922,9 +21934,9 @@
     </row>
     <row r="37" spans="1:13" ht="45" customHeight="1">
       <c r="A37" s="174"/>
-      <c r="B37" s="307"/>
-      <c r="C37" s="312"/>
-      <c r="D37" s="307"/>
+      <c r="B37" s="313"/>
+      <c r="C37" s="309"/>
+      <c r="D37" s="313"/>
       <c r="E37" s="175"/>
       <c r="F37" s="176"/>
       <c r="G37" s="195" t="s">
@@ -21945,9 +21957,9 @@
     </row>
     <row r="38" spans="1:13" ht="43.5" customHeight="1">
       <c r="A38" s="174"/>
-      <c r="B38" s="307"/>
-      <c r="C38" s="312"/>
-      <c r="D38" s="307"/>
+      <c r="B38" s="313"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="313"/>
       <c r="E38" s="175"/>
       <c r="F38" s="176"/>
       <c r="G38" s="195" t="s">
@@ -21968,9 +21980,9 @@
     </row>
     <row r="39" spans="1:13" ht="49.5">
       <c r="A39" s="174"/>
-      <c r="B39" s="307"/>
-      <c r="C39" s="312"/>
-      <c r="D39" s="307"/>
+      <c r="B39" s="313"/>
+      <c r="C39" s="309"/>
+      <c r="D39" s="313"/>
       <c r="E39" s="175"/>
       <c r="F39" s="176"/>
       <c r="G39" s="195" t="s">
@@ -21991,9 +22003,9 @@
     </row>
     <row r="40" spans="1:13" ht="18" thickBot="1">
       <c r="A40" s="174"/>
-      <c r="B40" s="307"/>
-      <c r="C40" s="312"/>
-      <c r="D40" s="307"/>
+      <c r="B40" s="313"/>
+      <c r="C40" s="309"/>
+      <c r="D40" s="313"/>
       <c r="E40" s="175"/>
       <c r="F40" s="176"/>
       <c r="G40" s="200" t="s">
@@ -22014,9 +22026,9 @@
     </row>
     <row r="41" spans="1:13" ht="38.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="174"/>
-      <c r="B41" s="307"/>
-      <c r="C41" s="312"/>
-      <c r="D41" s="307"/>
+      <c r="B41" s="313"/>
+      <c r="C41" s="309"/>
+      <c r="D41" s="313"/>
       <c r="E41" s="175"/>
       <c r="F41" s="176"/>
       <c r="G41" s="213" t="s">
@@ -22037,9 +22049,9 @@
     </row>
     <row r="42" spans="1:13" ht="214.5">
       <c r="A42" s="174"/>
-      <c r="B42" s="307"/>
-      <c r="C42" s="312"/>
-      <c r="D42" s="307"/>
+      <c r="B42" s="313"/>
+      <c r="C42" s="309"/>
+      <c r="D42" s="313"/>
       <c r="E42" s="175"/>
       <c r="F42" s="176"/>
       <c r="G42" s="210" t="s">
@@ -22060,9 +22072,9 @@
     </row>
     <row r="43" spans="1:13" ht="120" customHeight="1">
       <c r="A43" s="174"/>
-      <c r="B43" s="307"/>
-      <c r="C43" s="312"/>
-      <c r="D43" s="307"/>
+      <c r="B43" s="313"/>
+      <c r="C43" s="309"/>
+      <c r="D43" s="313"/>
       <c r="E43" s="175"/>
       <c r="F43" s="176"/>
       <c r="G43" s="195" t="s">
@@ -22083,9 +22095,9 @@
     </row>
     <row r="44" spans="1:13" ht="106.5" customHeight="1">
       <c r="A44" s="174"/>
-      <c r="B44" s="307"/>
-      <c r="C44" s="312"/>
-      <c r="D44" s="307"/>
+      <c r="B44" s="313"/>
+      <c r="C44" s="309"/>
+      <c r="D44" s="313"/>
       <c r="E44" s="175"/>
       <c r="F44" s="176"/>
       <c r="G44" s="195" t="s">
@@ -22106,9 +22118,9 @@
     </row>
     <row r="45" spans="1:13" ht="56.1" customHeight="1">
       <c r="A45" s="174"/>
-      <c r="B45" s="307"/>
-      <c r="C45" s="312"/>
-      <c r="D45" s="307"/>
+      <c r="B45" s="313"/>
+      <c r="C45" s="309"/>
+      <c r="D45" s="313"/>
       <c r="E45" s="175"/>
       <c r="F45" s="176"/>
       <c r="G45" s="195" t="s">
@@ -22129,9 +22141,9 @@
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="174"/>
-      <c r="B46" s="307"/>
-      <c r="C46" s="312"/>
-      <c r="D46" s="307"/>
+      <c r="B46" s="313"/>
+      <c r="C46" s="309"/>
+      <c r="D46" s="313"/>
       <c r="E46" s="175"/>
       <c r="F46" s="176"/>
       <c r="G46" s="195" t="s">
@@ -22154,9 +22166,9 @@
     </row>
     <row r="47" spans="1:13" ht="26.25" hidden="1" customHeight="1">
       <c r="A47" s="174"/>
-      <c r="B47" s="307"/>
-      <c r="C47" s="312"/>
-      <c r="D47" s="307"/>
+      <c r="B47" s="313"/>
+      <c r="C47" s="309"/>
+      <c r="D47" s="313"/>
       <c r="E47" s="175"/>
       <c r="F47" s="176"/>
       <c r="G47" s="217" t="s">
@@ -22177,9 +22189,9 @@
     </row>
     <row r="48" spans="1:13" ht="25.5" hidden="1" customHeight="1">
       <c r="A48" s="174"/>
-      <c r="B48" s="307"/>
-      <c r="C48" s="312"/>
-      <c r="D48" s="307"/>
+      <c r="B48" s="313"/>
+      <c r="C48" s="309"/>
+      <c r="D48" s="313"/>
       <c r="E48" s="175"/>
       <c r="F48" s="176"/>
       <c r="G48" s="217" t="s">
@@ -22196,9 +22208,9 @@
     </row>
     <row r="49" spans="1:13" ht="78" customHeight="1" thickBot="1">
       <c r="A49" s="174"/>
-      <c r="B49" s="307"/>
-      <c r="C49" s="312"/>
-      <c r="D49" s="307"/>
+      <c r="B49" s="313"/>
+      <c r="C49" s="309"/>
+      <c r="D49" s="313"/>
       <c r="E49" s="175"/>
       <c r="F49" s="176"/>
       <c r="G49" s="208" t="s">
@@ -22219,9 +22231,9 @@
     </row>
     <row r="50" spans="1:13" ht="41.25" customHeight="1">
       <c r="A50" s="174"/>
-      <c r="B50" s="307"/>
-      <c r="C50" s="312"/>
-      <c r="D50" s="307"/>
+      <c r="B50" s="313"/>
+      <c r="C50" s="309"/>
+      <c r="D50" s="313"/>
       <c r="E50" s="175"/>
       <c r="F50" s="176"/>
       <c r="G50" s="210" t="s">
@@ -22242,9 +22254,9 @@
     </row>
     <row r="51" spans="1:13" ht="43.5" customHeight="1">
       <c r="A51" s="174"/>
-      <c r="B51" s="307"/>
-      <c r="C51" s="312"/>
-      <c r="D51" s="307"/>
+      <c r="B51" s="313"/>
+      <c r="C51" s="309"/>
+      <c r="D51" s="313"/>
       <c r="E51" s="175"/>
       <c r="F51" s="176"/>
       <c r="G51" s="195" t="s">
@@ -22265,9 +22277,9 @@
     </row>
     <row r="52" spans="1:13" ht="46.5" customHeight="1">
       <c r="A52" s="174"/>
-      <c r="B52" s="307"/>
-      <c r="C52" s="312"/>
-      <c r="D52" s="307"/>
+      <c r="B52" s="313"/>
+      <c r="C52" s="309"/>
+      <c r="D52" s="313"/>
       <c r="E52" s="175"/>
       <c r="F52" s="176"/>
       <c r="G52" s="195" t="s">
@@ -22288,9 +22300,9 @@
     </row>
     <row r="53" spans="1:13" ht="42" customHeight="1">
       <c r="A53" s="174"/>
-      <c r="B53" s="307"/>
-      <c r="C53" s="312"/>
-      <c r="D53" s="307"/>
+      <c r="B53" s="313"/>
+      <c r="C53" s="309"/>
+      <c r="D53" s="313"/>
       <c r="E53" s="175"/>
       <c r="F53" s="176"/>
       <c r="G53" s="195" t="s">
@@ -22311,9 +22323,9 @@
     </row>
     <row r="54" spans="1:13" ht="38.25" customHeight="1">
       <c r="A54" s="174"/>
-      <c r="B54" s="307"/>
-      <c r="C54" s="312"/>
-      <c r="D54" s="307"/>
+      <c r="B54" s="313"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="313"/>
       <c r="E54" s="175"/>
       <c r="F54" s="176"/>
       <c r="G54" s="195" t="s">
@@ -22329,14 +22341,14 @@
         <v>2837</v>
       </c>
       <c r="K54" s="222"/>
-      <c r="L54" s="324"/>
+      <c r="L54" s="323"/>
       <c r="M54" s="181"/>
     </row>
     <row r="55" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="174"/>
-      <c r="B55" s="307"/>
-      <c r="C55" s="312"/>
-      <c r="D55" s="307"/>
+      <c r="B55" s="313"/>
+      <c r="C55" s="309"/>
+      <c r="D55" s="313"/>
       <c r="E55" s="175"/>
       <c r="F55" s="176"/>
       <c r="G55" s="217" t="s">
@@ -22348,14 +22360,14 @@
       <c r="I55" s="201"/>
       <c r="J55" s="223"/>
       <c r="K55" s="223"/>
-      <c r="L55" s="325"/>
+      <c r="L55" s="324"/>
       <c r="M55" s="181"/>
     </row>
     <row r="56" spans="1:13" ht="33">
       <c r="A56" s="174"/>
-      <c r="B56" s="307"/>
-      <c r="C56" s="312"/>
-      <c r="D56" s="307"/>
+      <c r="B56" s="313"/>
+      <c r="C56" s="309"/>
+      <c r="D56" s="313"/>
       <c r="E56" s="175"/>
       <c r="F56" s="176"/>
       <c r="G56" s="195" t="s">
@@ -22378,9 +22390,9 @@
     </row>
     <row r="57" spans="1:13" ht="28.5" hidden="1" customHeight="1">
       <c r="A57" s="174"/>
-      <c r="B57" s="307"/>
-      <c r="C57" s="312"/>
-      <c r="D57" s="307"/>
+      <c r="B57" s="313"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="313"/>
       <c r="E57" s="175"/>
       <c r="F57" s="176"/>
       <c r="G57" s="217" t="s">
@@ -22399,9 +22411,9 @@
     </row>
     <row r="58" spans="1:13" ht="30.75" customHeight="1">
       <c r="A58" s="174"/>
-      <c r="B58" s="307"/>
-      <c r="C58" s="312"/>
-      <c r="D58" s="307"/>
+      <c r="B58" s="313"/>
+      <c r="C58" s="309"/>
+      <c r="D58" s="313"/>
       <c r="E58" s="175"/>
       <c r="F58" s="176"/>
       <c r="G58" s="195" t="s">
@@ -22422,9 +22434,9 @@
     </row>
     <row r="59" spans="1:13" ht="46.5" customHeight="1" thickBot="1">
       <c r="A59" s="174"/>
-      <c r="B59" s="307"/>
-      <c r="C59" s="312"/>
-      <c r="D59" s="307"/>
+      <c r="B59" s="313"/>
+      <c r="C59" s="309"/>
+      <c r="D59" s="313"/>
       <c r="E59" s="175"/>
       <c r="F59" s="176"/>
       <c r="G59" s="195" t="s">
@@ -22445,9 +22457,9 @@
     </row>
     <row r="60" spans="1:13" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="174"/>
-      <c r="B60" s="307"/>
-      <c r="C60" s="312"/>
-      <c r="D60" s="307"/>
+      <c r="B60" s="313"/>
+      <c r="C60" s="309"/>
+      <c r="D60" s="313"/>
       <c r="E60" s="175"/>
       <c r="F60" s="176"/>
       <c r="G60" s="213" t="s">
@@ -22466,9 +22478,9 @@
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1">
       <c r="A61" s="174"/>
-      <c r="B61" s="307"/>
-      <c r="C61" s="312"/>
-      <c r="D61" s="307"/>
+      <c r="B61" s="313"/>
+      <c r="C61" s="309"/>
+      <c r="D61" s="313"/>
       <c r="E61" s="175"/>
       <c r="F61" s="176"/>
       <c r="G61" s="210" t="s">
@@ -22489,9 +22501,9 @@
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1">
       <c r="A62" s="174"/>
-      <c r="B62" s="307"/>
-      <c r="C62" s="312"/>
-      <c r="D62" s="307"/>
+      <c r="B62" s="313"/>
+      <c r="C62" s="309"/>
+      <c r="D62" s="313"/>
       <c r="E62" s="175"/>
       <c r="F62" s="176"/>
       <c r="G62" s="195" t="s">
@@ -22510,9 +22522,9 @@
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1">
       <c r="A63" s="174"/>
-      <c r="B63" s="307"/>
-      <c r="C63" s="312"/>
-      <c r="D63" s="307"/>
+      <c r="B63" s="313"/>
+      <c r="C63" s="309"/>
+      <c r="D63" s="313"/>
       <c r="E63" s="175"/>
       <c r="F63" s="176"/>
       <c r="G63" s="195" t="s">
@@ -22531,9 +22543,9 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="174"/>
-      <c r="B64" s="307"/>
-      <c r="C64" s="312"/>
-      <c r="D64" s="307"/>
+      <c r="B64" s="313"/>
+      <c r="C64" s="309"/>
+      <c r="D64" s="313"/>
       <c r="E64" s="175"/>
       <c r="F64" s="176"/>
       <c r="G64" s="208" t="s">
@@ -22552,9 +22564,9 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1">
       <c r="A65" s="174"/>
-      <c r="B65" s="307"/>
-      <c r="C65" s="312"/>
-      <c r="D65" s="307"/>
+      <c r="B65" s="313"/>
+      <c r="C65" s="309"/>
+      <c r="D65" s="313"/>
       <c r="E65" s="175"/>
       <c r="F65" s="176"/>
       <c r="G65" s="210" t="s">
@@ -22573,9 +22585,9 @@
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="174"/>
-      <c r="B66" s="308"/>
-      <c r="C66" s="313"/>
-      <c r="D66" s="308"/>
+      <c r="B66" s="314"/>
+      <c r="C66" s="310"/>
+      <c r="D66" s="314"/>
       <c r="E66" s="175"/>
       <c r="F66" s="176"/>
       <c r="G66" s="228" t="s">
@@ -22594,13 +22606,13 @@
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="174"/>
-      <c r="B67" s="306" t="s">
+      <c r="B67" s="312" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="311" t="s">
+      <c r="C67" s="308" t="s">
         <v>1373</v>
       </c>
-      <c r="D67" s="314" t="s">
+      <c r="D67" s="303" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="175"/>
@@ -22623,9 +22635,9 @@
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1">
       <c r="A68" s="174"/>
-      <c r="B68" s="307"/>
-      <c r="C68" s="312"/>
-      <c r="D68" s="316"/>
+      <c r="B68" s="313"/>
+      <c r="C68" s="309"/>
+      <c r="D68" s="304"/>
       <c r="E68" s="175"/>
       <c r="F68" s="176"/>
       <c r="G68" s="177" t="s">
@@ -22644,9 +22656,9 @@
     </row>
     <row r="69" spans="1:13" ht="14.25" customHeight="1">
       <c r="A69" s="174"/>
-      <c r="B69" s="307"/>
-      <c r="C69" s="312"/>
-      <c r="D69" s="315"/>
+      <c r="B69" s="313"/>
+      <c r="C69" s="309"/>
+      <c r="D69" s="305"/>
       <c r="E69" s="175"/>
       <c r="F69" s="176"/>
       <c r="G69" s="177" t="s">
@@ -22669,11 +22681,11 @@
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1">
       <c r="A70" s="174"/>
-      <c r="B70" s="307"/>
-      <c r="C70" s="311" t="s">
+      <c r="B70" s="313"/>
+      <c r="C70" s="308" t="s">
         <v>1376</v>
       </c>
-      <c r="D70" s="314" t="s">
+      <c r="D70" s="303" t="s">
         <v>1377</v>
       </c>
       <c r="E70" s="175"/>
@@ -22696,9 +22708,9 @@
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1">
       <c r="A71" s="174"/>
-      <c r="B71" s="307"/>
-      <c r="C71" s="312"/>
-      <c r="D71" s="316"/>
+      <c r="B71" s="313"/>
+      <c r="C71" s="309"/>
+      <c r="D71" s="304"/>
       <c r="E71" s="175"/>
       <c r="F71" s="176"/>
       <c r="G71" s="177" t="s">
@@ -22719,9 +22731,9 @@
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1">
       <c r="A72" s="174"/>
-      <c r="B72" s="307"/>
-      <c r="C72" s="312"/>
-      <c r="D72" s="316"/>
+      <c r="B72" s="313"/>
+      <c r="C72" s="309"/>
+      <c r="D72" s="304"/>
       <c r="E72" s="175"/>
       <c r="F72" s="176"/>
       <c r="G72" s="177" t="s">
@@ -22742,9 +22754,9 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1">
       <c r="A73" s="174"/>
-      <c r="B73" s="307"/>
-      <c r="C73" s="312"/>
-      <c r="D73" s="315"/>
+      <c r="B73" s="313"/>
+      <c r="C73" s="309"/>
+      <c r="D73" s="305"/>
       <c r="E73" s="175"/>
       <c r="F73" s="176"/>
       <c r="G73" s="177" t="s">
@@ -22765,8 +22777,8 @@
     </row>
     <row r="74" spans="1:13" ht="49.5">
       <c r="A74" s="174"/>
-      <c r="B74" s="307"/>
-      <c r="C74" s="312"/>
+      <c r="B74" s="313"/>
+      <c r="C74" s="309"/>
       <c r="D74" s="231" t="s">
         <v>5</v>
       </c>
@@ -22790,10 +22802,10 @@
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
       <c r="A75" s="232"/>
-      <c r="B75" s="314" t="s">
+      <c r="B75" s="303" t="s">
         <v>1383</v>
       </c>
-      <c r="C75" s="311" t="s">
+      <c r="C75" s="308" t="s">
         <v>1384</v>
       </c>
       <c r="D75" s="192" t="s">
@@ -22817,8 +22829,8 @@
     </row>
     <row r="76" spans="1:13" ht="14.25" customHeight="1">
       <c r="A76" s="232"/>
-      <c r="B76" s="316"/>
-      <c r="C76" s="312"/>
+      <c r="B76" s="304"/>
+      <c r="C76" s="309"/>
       <c r="D76" s="193" t="s">
         <v>1577</v>
       </c>
@@ -22840,8 +22852,8 @@
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
       <c r="A77" s="232"/>
-      <c r="B77" s="316"/>
-      <c r="C77" s="312"/>
+      <c r="B77" s="304"/>
+      <c r="C77" s="309"/>
       <c r="D77" s="193" t="s">
         <v>1579</v>
       </c>
@@ -22865,9 +22877,9 @@
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
       <c r="A78" s="232"/>
-      <c r="B78" s="316"/>
-      <c r="C78" s="312"/>
-      <c r="D78" s="314" t="s">
+      <c r="B78" s="304"/>
+      <c r="C78" s="309"/>
+      <c r="D78" s="303" t="s">
         <v>1590</v>
       </c>
       <c r="E78" s="175"/>
@@ -22886,9 +22898,9 @@
     </row>
     <row r="79" spans="1:13" ht="100.5" customHeight="1">
       <c r="A79" s="232"/>
-      <c r="B79" s="316"/>
-      <c r="C79" s="312"/>
-      <c r="D79" s="316"/>
+      <c r="B79" s="304"/>
+      <c r="C79" s="309"/>
+      <c r="D79" s="304"/>
       <c r="E79" s="175"/>
       <c r="F79" s="176"/>
       <c r="G79" s="177" t="s">
@@ -22911,9 +22923,9 @@
     </row>
     <row r="80" spans="1:13" ht="91.5" customHeight="1">
       <c r="A80" s="232"/>
-      <c r="B80" s="316"/>
-      <c r="C80" s="312"/>
-      <c r="D80" s="315"/>
+      <c r="B80" s="304"/>
+      <c r="C80" s="309"/>
+      <c r="D80" s="305"/>
       <c r="E80" s="175"/>
       <c r="F80" s="176"/>
       <c r="G80" s="177" t="s">
@@ -22934,9 +22946,9 @@
     </row>
     <row r="81" spans="1:13" ht="14.25" customHeight="1">
       <c r="A81" s="232"/>
-      <c r="B81" s="316"/>
-      <c r="C81" s="312"/>
-      <c r="D81" s="314" t="s">
+      <c r="B81" s="304"/>
+      <c r="C81" s="309"/>
+      <c r="D81" s="303" t="s">
         <v>1387</v>
       </c>
       <c r="E81" s="175"/>
@@ -22961,9 +22973,9 @@
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
       <c r="A82" s="232"/>
-      <c r="B82" s="316"/>
-      <c r="C82" s="312"/>
-      <c r="D82" s="316"/>
+      <c r="B82" s="304"/>
+      <c r="C82" s="309"/>
+      <c r="D82" s="304"/>
       <c r="E82" s="175"/>
       <c r="F82" s="176"/>
       <c r="G82" s="177" t="s">
@@ -22984,9 +22996,9 @@
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1">
       <c r="A83" s="232"/>
-      <c r="B83" s="316"/>
-      <c r="C83" s="312"/>
-      <c r="D83" s="316"/>
+      <c r="B83" s="304"/>
+      <c r="C83" s="309"/>
+      <c r="D83" s="304"/>
       <c r="E83" s="175"/>
       <c r="F83" s="176"/>
       <c r="G83" s="177" t="s">
@@ -23007,9 +23019,9 @@
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1">
       <c r="A84" s="232"/>
-      <c r="B84" s="316"/>
-      <c r="C84" s="312"/>
-      <c r="D84" s="316"/>
+      <c r="B84" s="304"/>
+      <c r="C84" s="309"/>
+      <c r="D84" s="304"/>
       <c r="E84" s="175"/>
       <c r="F84" s="176"/>
       <c r="G84" s="177" t="s">
@@ -23030,9 +23042,9 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1">
       <c r="A85" s="232"/>
-      <c r="B85" s="316"/>
-      <c r="C85" s="312"/>
-      <c r="D85" s="315"/>
+      <c r="B85" s="304"/>
+      <c r="C85" s="309"/>
+      <c r="D85" s="305"/>
       <c r="E85" s="175"/>
       <c r="F85" s="176"/>
       <c r="G85" s="177" t="s">
@@ -23053,9 +23065,9 @@
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1">
       <c r="A86" s="232"/>
-      <c r="B86" s="316"/>
-      <c r="C86" s="312"/>
-      <c r="D86" s="314" t="s">
+      <c r="B86" s="304"/>
+      <c r="C86" s="309"/>
+      <c r="D86" s="303" t="s">
         <v>1394</v>
       </c>
       <c r="E86" s="175"/>
@@ -23080,9 +23092,9 @@
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1">
       <c r="A87" s="232"/>
-      <c r="B87" s="316"/>
-      <c r="C87" s="312"/>
-      <c r="D87" s="315"/>
+      <c r="B87" s="304"/>
+      <c r="C87" s="309"/>
+      <c r="D87" s="305"/>
       <c r="E87" s="175"/>
       <c r="F87" s="176"/>
       <c r="G87" s="177" t="s">
@@ -23103,8 +23115,8 @@
     </row>
     <row r="88" spans="1:13" ht="64.5" customHeight="1">
       <c r="A88" s="232"/>
-      <c r="B88" s="316"/>
-      <c r="C88" s="312"/>
+      <c r="B88" s="304"/>
+      <c r="C88" s="309"/>
       <c r="D88" s="192" t="s">
         <v>1</v>
       </c>
@@ -23130,9 +23142,9 @@
     </row>
     <row r="89" spans="1:13" ht="57" customHeight="1">
       <c r="A89" s="232"/>
-      <c r="B89" s="316"/>
-      <c r="C89" s="312"/>
-      <c r="D89" s="314" t="s">
+      <c r="B89" s="304"/>
+      <c r="C89" s="309"/>
+      <c r="D89" s="303" t="s">
         <v>1398</v>
       </c>
       <c r="E89" s="175"/>
@@ -23155,9 +23167,9 @@
     </row>
     <row r="90" spans="1:13" ht="49.5">
       <c r="A90" s="232"/>
-      <c r="B90" s="316"/>
-      <c r="C90" s="312"/>
-      <c r="D90" s="316"/>
+      <c r="B90" s="304"/>
+      <c r="C90" s="309"/>
+      <c r="D90" s="304"/>
       <c r="E90" s="175"/>
       <c r="F90" s="176"/>
       <c r="G90" s="177" t="s">
@@ -23178,9 +23190,9 @@
     </row>
     <row r="91" spans="1:13" ht="49.5">
       <c r="A91" s="232"/>
-      <c r="B91" s="316"/>
-      <c r="C91" s="312"/>
-      <c r="D91" s="316"/>
+      <c r="B91" s="304"/>
+      <c r="C91" s="309"/>
+      <c r="D91" s="304"/>
       <c r="E91" s="175"/>
       <c r="F91" s="176"/>
       <c r="G91" s="177" t="s">
@@ -23201,9 +23213,9 @@
     </row>
     <row r="92" spans="1:13" ht="49.5">
       <c r="A92" s="232"/>
-      <c r="B92" s="316"/>
-      <c r="C92" s="312"/>
-      <c r="D92" s="316"/>
+      <c r="B92" s="304"/>
+      <c r="C92" s="309"/>
+      <c r="D92" s="304"/>
       <c r="E92" s="175"/>
       <c r="F92" s="176"/>
       <c r="G92" s="177" t="s">
@@ -23224,9 +23236,9 @@
     </row>
     <row r="93" spans="1:13" ht="49.5">
       <c r="A93" s="232"/>
-      <c r="B93" s="316"/>
-      <c r="C93" s="312"/>
-      <c r="D93" s="315"/>
+      <c r="B93" s="304"/>
+      <c r="C93" s="309"/>
+      <c r="D93" s="305"/>
       <c r="E93" s="175"/>
       <c r="F93" s="176"/>
       <c r="G93" s="177" t="s">
@@ -23247,9 +23259,9 @@
     </row>
     <row r="94" spans="1:13" ht="16.5" customHeight="1">
       <c r="A94" s="232"/>
-      <c r="B94" s="316"/>
-      <c r="C94" s="312"/>
-      <c r="D94" s="314" t="s">
+      <c r="B94" s="304"/>
+      <c r="C94" s="309"/>
+      <c r="D94" s="303" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="175"/>
@@ -23272,9 +23284,9 @@
     </row>
     <row r="95" spans="1:13" ht="214.5">
       <c r="A95" s="232"/>
-      <c r="B95" s="316"/>
-      <c r="C95" s="312"/>
-      <c r="D95" s="316"/>
+      <c r="B95" s="304"/>
+      <c r="C95" s="309"/>
+      <c r="D95" s="304"/>
       <c r="E95" s="175"/>
       <c r="F95" s="176"/>
       <c r="G95" s="177" t="s">
@@ -23297,9 +23309,9 @@
     </row>
     <row r="96" spans="1:13" ht="30" customHeight="1">
       <c r="A96" s="232"/>
-      <c r="B96" s="316"/>
-      <c r="C96" s="312"/>
-      <c r="D96" s="315"/>
+      <c r="B96" s="304"/>
+      <c r="C96" s="309"/>
+      <c r="D96" s="305"/>
       <c r="E96" s="175"/>
       <c r="F96" s="176"/>
       <c r="G96" s="177" t="s">
@@ -23318,9 +23330,9 @@
     </row>
     <row r="97" spans="1:13" ht="131.25" customHeight="1">
       <c r="A97" s="232"/>
-      <c r="B97" s="316"/>
-      <c r="C97" s="312"/>
-      <c r="D97" s="314" t="s">
+      <c r="B97" s="304"/>
+      <c r="C97" s="309"/>
+      <c r="D97" s="303" t="s">
         <v>1406</v>
       </c>
       <c r="E97" s="175"/>
@@ -23343,9 +23355,9 @@
     </row>
     <row r="98" spans="1:13" ht="14.25" customHeight="1">
       <c r="A98" s="232"/>
-      <c r="B98" s="316"/>
-      <c r="C98" s="312"/>
-      <c r="D98" s="315"/>
+      <c r="B98" s="304"/>
+      <c r="C98" s="309"/>
+      <c r="D98" s="305"/>
       <c r="E98" s="175"/>
       <c r="F98" s="176"/>
       <c r="G98" s="177" t="s">
@@ -23364,9 +23376,9 @@
     </row>
     <row r="99" spans="1:13" s="161" customFormat="1" ht="214.5">
       <c r="A99" s="272"/>
-      <c r="B99" s="316"/>
-      <c r="C99" s="312"/>
-      <c r="D99" s="329" t="s">
+      <c r="B99" s="304"/>
+      <c r="C99" s="309"/>
+      <c r="D99" s="328" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="183"/>
@@ -23387,9 +23399,9 @@
     </row>
     <row r="100" spans="1:13" s="278" customFormat="1" ht="33">
       <c r="A100" s="273"/>
-      <c r="B100" s="316"/>
-      <c r="C100" s="313"/>
-      <c r="D100" s="329"/>
+      <c r="B100" s="304"/>
+      <c r="C100" s="310"/>
+      <c r="D100" s="328"/>
       <c r="E100" s="270"/>
       <c r="F100" s="274"/>
       <c r="G100" s="195" t="s">
@@ -23412,11 +23424,11 @@
     </row>
     <row r="101" spans="1:13" ht="14.25" customHeight="1">
       <c r="A101" s="232"/>
-      <c r="B101" s="316"/>
-      <c r="C101" s="311" t="s">
+      <c r="B101" s="304"/>
+      <c r="C101" s="308" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="316" t="s">
+      <c r="D101" s="304" t="s">
         <v>1589</v>
       </c>
       <c r="E101" s="175"/>
@@ -23437,9 +23449,9 @@
     </row>
     <row r="102" spans="1:13" ht="14.25" customHeight="1">
       <c r="A102" s="232"/>
-      <c r="B102" s="316"/>
-      <c r="C102" s="312"/>
-      <c r="D102" s="315"/>
+      <c r="B102" s="304"/>
+      <c r="C102" s="309"/>
+      <c r="D102" s="305"/>
       <c r="E102" s="175"/>
       <c r="F102" s="176"/>
       <c r="G102" s="177" t="s">
@@ -23458,8 +23470,8 @@
     </row>
     <row r="103" spans="1:13" ht="14.1" customHeight="1">
       <c r="A103" s="232"/>
-      <c r="B103" s="316"/>
-      <c r="C103" s="312"/>
+      <c r="B103" s="304"/>
+      <c r="C103" s="309"/>
       <c r="D103" s="192" t="s">
         <v>1412</v>
       </c>
@@ -23481,9 +23493,9 @@
     </row>
     <row r="104" spans="1:13" ht="66">
       <c r="A104" s="232"/>
-      <c r="B104" s="316"/>
-      <c r="C104" s="312"/>
-      <c r="D104" s="314" t="s">
+      <c r="B104" s="304"/>
+      <c r="C104" s="309"/>
+      <c r="D104" s="303" t="s">
         <v>1600</v>
       </c>
       <c r="E104" s="175"/>
@@ -23508,9 +23520,9 @@
     </row>
     <row r="105" spans="1:13" ht="14.25" customHeight="1">
       <c r="A105" s="232"/>
-      <c r="B105" s="316"/>
-      <c r="C105" s="312"/>
-      <c r="D105" s="316"/>
+      <c r="B105" s="304"/>
+      <c r="C105" s="309"/>
+      <c r="D105" s="304"/>
       <c r="E105" s="175"/>
       <c r="F105" s="176"/>
       <c r="G105" s="177" t="s">
@@ -23529,9 +23541,9 @@
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
       <c r="A106" s="232"/>
-      <c r="B106" s="316"/>
-      <c r="C106" s="312"/>
-      <c r="D106" s="316"/>
+      <c r="B106" s="304"/>
+      <c r="C106" s="309"/>
+      <c r="D106" s="304"/>
       <c r="E106" s="175"/>
       <c r="F106" s="176"/>
       <c r="G106" s="177" t="s">
@@ -23550,9 +23562,9 @@
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
       <c r="A107" s="232"/>
-      <c r="B107" s="316"/>
-      <c r="C107" s="312"/>
-      <c r="D107" s="315"/>
+      <c r="B107" s="304"/>
+      <c r="C107" s="309"/>
+      <c r="D107" s="305"/>
       <c r="E107" s="175"/>
       <c r="F107" s="176"/>
       <c r="G107" s="177" t="s">
@@ -23571,8 +23583,8 @@
     </row>
     <row r="108" spans="1:13" ht="14.25" customHeight="1">
       <c r="A108" s="232"/>
-      <c r="B108" s="316"/>
-      <c r="C108" s="312"/>
+      <c r="B108" s="304"/>
+      <c r="C108" s="309"/>
       <c r="D108" s="192" t="s">
         <v>1385</v>
       </c>
@@ -23594,8 +23606,8 @@
     </row>
     <row r="109" spans="1:13" ht="14.25" customHeight="1">
       <c r="A109" s="232"/>
-      <c r="B109" s="316"/>
-      <c r="C109" s="312"/>
+      <c r="B109" s="304"/>
+      <c r="C109" s="309"/>
       <c r="D109" s="300" t="s">
         <v>3041</v>
       </c>
@@ -23613,9 +23625,9 @@
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
       <c r="A110" s="232"/>
-      <c r="B110" s="316"/>
-      <c r="C110" s="312"/>
-      <c r="D110" s="314" t="s">
+      <c r="B110" s="304"/>
+      <c r="C110" s="309"/>
+      <c r="D110" s="303" t="s">
         <v>1413</v>
       </c>
       <c r="E110" s="175"/>
@@ -23638,9 +23650,9 @@
     </row>
     <row r="111" spans="1:13" ht="14.25" customHeight="1">
       <c r="A111" s="232"/>
-      <c r="B111" s="316"/>
-      <c r="C111" s="312"/>
-      <c r="D111" s="315"/>
+      <c r="B111" s="304"/>
+      <c r="C111" s="309"/>
+      <c r="D111" s="305"/>
       <c r="E111" s="175"/>
       <c r="F111" s="176"/>
       <c r="G111" s="177" t="s">
@@ -23661,9 +23673,9 @@
     </row>
     <row r="112" spans="1:13" ht="14.25" customHeight="1">
       <c r="A112" s="232"/>
-      <c r="B112" s="316"/>
-      <c r="C112" s="312"/>
-      <c r="D112" s="326" t="s">
+      <c r="B112" s="304"/>
+      <c r="C112" s="309"/>
+      <c r="D112" s="325" t="s">
         <v>1418</v>
       </c>
       <c r="E112" s="175"/>
@@ -23684,9 +23696,9 @@
     </row>
     <row r="113" spans="1:13" ht="14.25" customHeight="1">
       <c r="A113" s="232"/>
-      <c r="B113" s="316"/>
-      <c r="C113" s="312"/>
-      <c r="D113" s="327"/>
+      <c r="B113" s="304"/>
+      <c r="C113" s="309"/>
+      <c r="D113" s="326"/>
       <c r="E113" s="175"/>
       <c r="F113" s="176"/>
       <c r="G113" s="177" t="s">
@@ -23705,9 +23717,9 @@
     </row>
     <row r="114" spans="1:13" ht="14.25" customHeight="1">
       <c r="A114" s="232"/>
-      <c r="B114" s="316"/>
-      <c r="C114" s="312"/>
-      <c r="D114" s="328"/>
+      <c r="B114" s="304"/>
+      <c r="C114" s="309"/>
+      <c r="D114" s="327"/>
       <c r="E114" s="175"/>
       <c r="F114" s="176"/>
       <c r="G114" s="177" t="s">
@@ -23726,8 +23738,8 @@
     </row>
     <row r="115" spans="1:13" ht="14.25" customHeight="1">
       <c r="A115" s="232"/>
-      <c r="B115" s="316"/>
-      <c r="C115" s="312"/>
+      <c r="B115" s="304"/>
+      <c r="C115" s="309"/>
       <c r="D115" s="192" t="s">
         <v>9</v>
       </c>
@@ -23749,9 +23761,9 @@
     </row>
     <row r="116" spans="1:13" ht="33">
       <c r="A116" s="232"/>
-      <c r="B116" s="316"/>
-      <c r="C116" s="312"/>
-      <c r="D116" s="314" t="s">
+      <c r="B116" s="304"/>
+      <c r="C116" s="309"/>
+      <c r="D116" s="303" t="s">
         <v>1421</v>
       </c>
       <c r="E116" s="175"/>
@@ -23774,9 +23786,9 @@
     </row>
     <row r="117" spans="1:13" ht="14.25" customHeight="1">
       <c r="A117" s="232"/>
-      <c r="B117" s="316"/>
-      <c r="C117" s="312"/>
-      <c r="D117" s="316"/>
+      <c r="B117" s="304"/>
+      <c r="C117" s="309"/>
+      <c r="D117" s="304"/>
       <c r="E117" s="175"/>
       <c r="F117" s="176"/>
       <c r="G117" s="177" t="s">
@@ -23795,9 +23807,9 @@
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
       <c r="A118" s="232"/>
-      <c r="B118" s="316"/>
-      <c r="C118" s="313"/>
-      <c r="D118" s="315"/>
+      <c r="B118" s="304"/>
+      <c r="C118" s="310"/>
+      <c r="D118" s="305"/>
       <c r="E118" s="175"/>
       <c r="F118" s="176"/>
       <c r="G118" s="177" t="s">
@@ -23818,11 +23830,11 @@
     </row>
     <row r="119" spans="1:13" ht="14.25" customHeight="1">
       <c r="A119" s="232"/>
-      <c r="B119" s="316"/>
-      <c r="C119" s="311" t="s">
+      <c r="B119" s="304"/>
+      <c r="C119" s="308" t="s">
         <v>1427</v>
       </c>
-      <c r="D119" s="314" t="s">
+      <c r="D119" s="303" t="s">
         <v>1428</v>
       </c>
       <c r="E119" s="175"/>
@@ -23843,9 +23855,9 @@
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
       <c r="A120" s="232"/>
-      <c r="B120" s="316"/>
-      <c r="C120" s="312"/>
-      <c r="D120" s="315"/>
+      <c r="B120" s="304"/>
+      <c r="C120" s="309"/>
+      <c r="D120" s="305"/>
       <c r="E120" s="175"/>
       <c r="F120" s="176"/>
       <c r="G120" s="177" t="s">
@@ -23866,8 +23878,8 @@
     </row>
     <row r="121" spans="1:13" ht="14.25" customHeight="1">
       <c r="A121" s="181"/>
-      <c r="B121" s="316"/>
-      <c r="C121" s="312"/>
+      <c r="B121" s="304"/>
+      <c r="C121" s="309"/>
       <c r="D121" s="192" t="s">
         <v>1431</v>
       </c>
@@ -23891,8 +23903,8 @@
     </row>
     <row r="122" spans="1:13" ht="14.25" customHeight="1">
       <c r="A122" s="181"/>
-      <c r="B122" s="316"/>
-      <c r="C122" s="312"/>
+      <c r="B122" s="304"/>
+      <c r="C122" s="309"/>
       <c r="D122" s="192" t="s">
         <v>1434</v>
       </c>
@@ -23914,8 +23926,8 @@
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
       <c r="A123" s="181"/>
-      <c r="B123" s="316"/>
-      <c r="C123" s="312"/>
+      <c r="B123" s="304"/>
+      <c r="C123" s="309"/>
       <c r="D123" s="242" t="s">
         <v>1436</v>
       </c>
@@ -23939,9 +23951,9 @@
     </row>
     <row r="124" spans="1:13" ht="14.25" customHeight="1">
       <c r="A124" s="181"/>
-      <c r="B124" s="316"/>
-      <c r="C124" s="312"/>
-      <c r="D124" s="314" t="s">
+      <c r="B124" s="304"/>
+      <c r="C124" s="309"/>
+      <c r="D124" s="303" t="s">
         <v>171</v>
       </c>
       <c r="E124" s="175"/>
@@ -23962,9 +23974,9 @@
     </row>
     <row r="125" spans="1:13" ht="14.25" customHeight="1">
       <c r="A125" s="181"/>
-      <c r="B125" s="316"/>
-      <c r="C125" s="312"/>
-      <c r="D125" s="316"/>
+      <c r="B125" s="304"/>
+      <c r="C125" s="309"/>
+      <c r="D125" s="304"/>
       <c r="E125" s="175"/>
       <c r="F125" s="176"/>
       <c r="G125" s="177" t="s">
@@ -23985,9 +23997,9 @@
     </row>
     <row r="126" spans="1:13" ht="14.25" customHeight="1">
       <c r="A126" s="181"/>
-      <c r="B126" s="316"/>
-      <c r="C126" s="312"/>
-      <c r="D126" s="316"/>
+      <c r="B126" s="304"/>
+      <c r="C126" s="309"/>
+      <c r="D126" s="304"/>
       <c r="E126" s="175"/>
       <c r="F126" s="176"/>
       <c r="G126" s="177" t="s">
@@ -24006,9 +24018,9 @@
     </row>
     <row r="127" spans="1:13" ht="14.25" customHeight="1">
       <c r="A127" s="181"/>
-      <c r="B127" s="316"/>
-      <c r="C127" s="312"/>
-      <c r="D127" s="315"/>
+      <c r="B127" s="304"/>
+      <c r="C127" s="309"/>
+      <c r="D127" s="305"/>
       <c r="E127" s="175"/>
       <c r="F127" s="176"/>
       <c r="G127" s="177" t="s">
@@ -24029,9 +24041,9 @@
     </row>
     <row r="128" spans="1:13" ht="14.25" customHeight="1">
       <c r="A128" s="181"/>
-      <c r="B128" s="316"/>
-      <c r="C128" s="312"/>
-      <c r="D128" s="331" t="s">
+      <c r="B128" s="304"/>
+      <c r="C128" s="309"/>
+      <c r="D128" s="306" t="s">
         <v>1438</v>
       </c>
       <c r="E128" s="175"/>
@@ -24052,9 +24064,9 @@
     </row>
     <row r="129" spans="1:13" ht="14.25" customHeight="1">
       <c r="A129" s="181"/>
-      <c r="B129" s="316"/>
-      <c r="C129" s="312"/>
-      <c r="D129" s="334"/>
+      <c r="B129" s="304"/>
+      <c r="C129" s="309"/>
+      <c r="D129" s="307"/>
       <c r="E129" s="175"/>
       <c r="F129" s="176"/>
       <c r="G129" s="177" t="s">
@@ -24077,9 +24089,9 @@
     </row>
     <row r="130" spans="1:13" ht="14.25" customHeight="1">
       <c r="A130" s="181"/>
-      <c r="B130" s="316"/>
-      <c r="C130" s="312"/>
-      <c r="D130" s="314" t="s">
+      <c r="B130" s="304"/>
+      <c r="C130" s="309"/>
+      <c r="D130" s="303" t="s">
         <v>1441</v>
       </c>
       <c r="E130" s="175"/>
@@ -24100,9 +24112,9 @@
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
       <c r="A131" s="181"/>
-      <c r="B131" s="316"/>
-      <c r="C131" s="312"/>
-      <c r="D131" s="316"/>
+      <c r="B131" s="304"/>
+      <c r="C131" s="309"/>
+      <c r="D131" s="304"/>
       <c r="E131" s="175"/>
       <c r="F131" s="176"/>
       <c r="G131" s="197" t="s">
@@ -24121,9 +24133,9 @@
     </row>
     <row r="132" spans="1:13" ht="14.25" customHeight="1">
       <c r="A132" s="181"/>
-      <c r="B132" s="316"/>
-      <c r="C132" s="312"/>
-      <c r="D132" s="315"/>
+      <c r="B132" s="304"/>
+      <c r="C132" s="309"/>
+      <c r="D132" s="305"/>
       <c r="E132" s="175"/>
       <c r="F132" s="176"/>
       <c r="G132" s="177" t="s">
@@ -24140,9 +24152,9 @@
     </row>
     <row r="133" spans="1:13" ht="51.75" customHeight="1">
       <c r="A133" s="181"/>
-      <c r="B133" s="316"/>
-      <c r="C133" s="312"/>
-      <c r="D133" s="333" t="s">
+      <c r="B133" s="304"/>
+      <c r="C133" s="309"/>
+      <c r="D133" s="316" t="s">
         <v>166</v>
       </c>
       <c r="E133" s="175"/>
@@ -24161,9 +24173,9 @@
     </row>
     <row r="134" spans="1:13" ht="14.25" customHeight="1">
       <c r="A134" s="181"/>
-      <c r="B134" s="316"/>
-      <c r="C134" s="312"/>
-      <c r="D134" s="333"/>
+      <c r="B134" s="304"/>
+      <c r="C134" s="309"/>
+      <c r="D134" s="316"/>
       <c r="E134" s="175"/>
       <c r="F134" s="176"/>
       <c r="G134" s="177" t="s">
@@ -24180,8 +24192,8 @@
     </row>
     <row r="135" spans="1:13" ht="14.25" customHeight="1">
       <c r="A135" s="181"/>
-      <c r="B135" s="316"/>
-      <c r="C135" s="312"/>
+      <c r="B135" s="304"/>
+      <c r="C135" s="309"/>
       <c r="D135" s="191" t="s">
         <v>170</v>
       </c>
@@ -24203,9 +24215,9 @@
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
       <c r="A136" s="181"/>
-      <c r="B136" s="316"/>
-      <c r="C136" s="312"/>
-      <c r="D136" s="314" t="s">
+      <c r="B136" s="304"/>
+      <c r="C136" s="309"/>
+      <c r="D136" s="303" t="s">
         <v>13</v>
       </c>
       <c r="E136" s="175"/>
@@ -24226,9 +24238,9 @@
     </row>
     <row r="137" spans="1:13" ht="14.25" customHeight="1">
       <c r="A137" s="181"/>
-      <c r="B137" s="316"/>
-      <c r="C137" s="312"/>
-      <c r="D137" s="316"/>
+      <c r="B137" s="304"/>
+      <c r="C137" s="309"/>
+      <c r="D137" s="304"/>
       <c r="E137" s="175"/>
       <c r="F137" s="176"/>
       <c r="G137" s="177" t="s">
@@ -24247,9 +24259,9 @@
     </row>
     <row r="138" spans="1:13" ht="14.25" customHeight="1">
       <c r="A138" s="181"/>
-      <c r="B138" s="316"/>
-      <c r="C138" s="312"/>
-      <c r="D138" s="316"/>
+      <c r="B138" s="304"/>
+      <c r="C138" s="309"/>
+      <c r="D138" s="304"/>
       <c r="E138" s="175"/>
       <c r="F138" s="176"/>
       <c r="G138" s="177" t="s">
@@ -24268,9 +24280,9 @@
     </row>
     <row r="139" spans="1:13" ht="14.25" customHeight="1">
       <c r="A139" s="181"/>
-      <c r="B139" s="316"/>
-      <c r="C139" s="312"/>
-      <c r="D139" s="316"/>
+      <c r="B139" s="304"/>
+      <c r="C139" s="309"/>
+      <c r="D139" s="304"/>
       <c r="E139" s="175"/>
       <c r="F139" s="176"/>
       <c r="G139" s="177" t="s">
@@ -24289,9 +24301,9 @@
     </row>
     <row r="140" spans="1:13" ht="14.25" customHeight="1">
       <c r="A140" s="181"/>
-      <c r="B140" s="316"/>
-      <c r="C140" s="312"/>
-      <c r="D140" s="316"/>
+      <c r="B140" s="304"/>
+      <c r="C140" s="309"/>
+      <c r="D140" s="304"/>
       <c r="E140" s="175"/>
       <c r="F140" s="176"/>
       <c r="G140" s="177" t="s">
@@ -24310,9 +24322,9 @@
     </row>
     <row r="141" spans="1:13" ht="14.25" customHeight="1">
       <c r="A141" s="181"/>
-      <c r="B141" s="316"/>
-      <c r="C141" s="312"/>
-      <c r="D141" s="316"/>
+      <c r="B141" s="304"/>
+      <c r="C141" s="309"/>
+      <c r="D141" s="304"/>
       <c r="E141" s="175"/>
       <c r="F141" s="176"/>
       <c r="G141" s="177" t="s">
@@ -24331,9 +24343,9 @@
     </row>
     <row r="142" spans="1:13" ht="14.25" customHeight="1">
       <c r="A142" s="181"/>
-      <c r="B142" s="316"/>
-      <c r="C142" s="312"/>
-      <c r="D142" s="316"/>
+      <c r="B142" s="304"/>
+      <c r="C142" s="309"/>
+      <c r="D142" s="304"/>
       <c r="E142" s="175"/>
       <c r="F142" s="176"/>
       <c r="G142" s="177" t="s">
@@ -24352,9 +24364,9 @@
     </row>
     <row r="143" spans="1:13" ht="14.25" customHeight="1">
       <c r="A143" s="181"/>
-      <c r="B143" s="316"/>
-      <c r="C143" s="313"/>
-      <c r="D143" s="315"/>
+      <c r="B143" s="304"/>
+      <c r="C143" s="310"/>
+      <c r="D143" s="305"/>
       <c r="E143" s="175"/>
       <c r="F143" s="176"/>
       <c r="G143" s="177" t="s">
@@ -24373,11 +24385,11 @@
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
       <c r="A144" s="181"/>
-      <c r="B144" s="316"/>
-      <c r="C144" s="311" t="s">
+      <c r="B144" s="304"/>
+      <c r="C144" s="308" t="s">
         <v>18</v>
       </c>
-      <c r="D144" s="314" t="s">
+      <c r="D144" s="303" t="s">
         <v>19</v>
       </c>
       <c r="E144" s="175"/>
@@ -24398,9 +24410,9 @@
     </row>
     <row r="145" spans="1:13" ht="14.25" customHeight="1">
       <c r="A145" s="181"/>
-      <c r="B145" s="316"/>
-      <c r="C145" s="312"/>
-      <c r="D145" s="316"/>
+      <c r="B145" s="304"/>
+      <c r="C145" s="309"/>
+      <c r="D145" s="304"/>
       <c r="E145" s="175"/>
       <c r="F145" s="176"/>
       <c r="G145" s="177" t="s">
@@ -24419,9 +24431,9 @@
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
       <c r="A146" s="181"/>
-      <c r="B146" s="316"/>
-      <c r="C146" s="312"/>
-      <c r="D146" s="315"/>
+      <c r="B146" s="304"/>
+      <c r="C146" s="309"/>
+      <c r="D146" s="305"/>
       <c r="E146" s="175"/>
       <c r="F146" s="176"/>
       <c r="G146" s="177" t="s">
@@ -24440,9 +24452,9 @@
     </row>
     <row r="147" spans="1:13" ht="14.25" customHeight="1">
       <c r="A147" s="181"/>
-      <c r="B147" s="316"/>
-      <c r="C147" s="312"/>
-      <c r="D147" s="314" t="s">
+      <c r="B147" s="304"/>
+      <c r="C147" s="309"/>
+      <c r="D147" s="303" t="s">
         <v>21</v>
       </c>
       <c r="E147" s="175"/>
@@ -24463,9 +24475,9 @@
     </row>
     <row r="148" spans="1:13" ht="14.25" customHeight="1">
       <c r="A148" s="181"/>
-      <c r="B148" s="316"/>
-      <c r="C148" s="312"/>
-      <c r="D148" s="315"/>
+      <c r="B148" s="304"/>
+      <c r="C148" s="309"/>
+      <c r="D148" s="305"/>
       <c r="E148" s="175"/>
       <c r="F148" s="176"/>
       <c r="G148" s="177" t="s">
@@ -24484,8 +24496,8 @@
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
       <c r="A149" s="181"/>
-      <c r="B149" s="316"/>
-      <c r="C149" s="313"/>
+      <c r="B149" s="304"/>
+      <c r="C149" s="310"/>
       <c r="D149" s="192" t="s">
         <v>27</v>
       </c>
@@ -24507,11 +24519,11 @@
     </row>
     <row r="150" spans="1:13" ht="14.25" customHeight="1">
       <c r="A150" s="181"/>
-      <c r="B150" s="316"/>
-      <c r="C150" s="311" t="s">
+      <c r="B150" s="304"/>
+      <c r="C150" s="308" t="s">
         <v>29</v>
       </c>
-      <c r="D150" s="314" t="s">
+      <c r="D150" s="303" t="s">
         <v>30</v>
       </c>
       <c r="E150" s="175"/>
@@ -24532,9 +24544,9 @@
     </row>
     <row r="151" spans="1:13" ht="14.25" customHeight="1">
       <c r="A151" s="181"/>
-      <c r="B151" s="316"/>
-      <c r="C151" s="312"/>
-      <c r="D151" s="316"/>
+      <c r="B151" s="304"/>
+      <c r="C151" s="309"/>
+      <c r="D151" s="304"/>
       <c r="E151" s="175"/>
       <c r="F151" s="176"/>
       <c r="G151" s="177" t="s">
@@ -24553,9 +24565,9 @@
     </row>
     <row r="152" spans="1:13" ht="14.25" customHeight="1">
       <c r="A152" s="181"/>
-      <c r="B152" s="316"/>
-      <c r="C152" s="312"/>
-      <c r="D152" s="316"/>
+      <c r="B152" s="304"/>
+      <c r="C152" s="309"/>
+      <c r="D152" s="304"/>
       <c r="E152" s="175"/>
       <c r="F152" s="176"/>
       <c r="G152" s="177" t="s">
@@ -24574,9 +24586,9 @@
     </row>
     <row r="153" spans="1:13" ht="14.25" customHeight="1">
       <c r="A153" s="181"/>
-      <c r="B153" s="316"/>
-      <c r="C153" s="312"/>
-      <c r="D153" s="315"/>
+      <c r="B153" s="304"/>
+      <c r="C153" s="309"/>
+      <c r="D153" s="305"/>
       <c r="E153" s="175"/>
       <c r="F153" s="176"/>
       <c r="G153" s="177" t="s">
@@ -24593,9 +24605,9 @@
     </row>
     <row r="154" spans="1:13" ht="14.25" customHeight="1">
       <c r="A154" s="181"/>
-      <c r="B154" s="316"/>
-      <c r="C154" s="312"/>
-      <c r="D154" s="331" t="s">
+      <c r="B154" s="304"/>
+      <c r="C154" s="309"/>
+      <c r="D154" s="306" t="s">
         <v>35</v>
       </c>
       <c r="E154" s="244"/>
@@ -24618,9 +24630,9 @@
     </row>
     <row r="155" spans="1:13" ht="14.25" customHeight="1">
       <c r="A155" s="181"/>
-      <c r="B155" s="316"/>
-      <c r="C155" s="312"/>
-      <c r="D155" s="334"/>
+      <c r="B155" s="304"/>
+      <c r="C155" s="309"/>
+      <c r="D155" s="307"/>
       <c r="E155" s="244"/>
       <c r="F155" s="245"/>
       <c r="G155" s="177" t="s">
@@ -24639,8 +24651,8 @@
     </row>
     <row r="156" spans="1:13" ht="14.25" customHeight="1">
       <c r="A156" s="181"/>
-      <c r="B156" s="316"/>
-      <c r="C156" s="312"/>
+      <c r="B156" s="304"/>
+      <c r="C156" s="309"/>
       <c r="D156" s="192" t="s">
         <v>38</v>
       </c>
@@ -24662,8 +24674,8 @@
     </row>
     <row r="157" spans="1:13" ht="33">
       <c r="A157" s="181"/>
-      <c r="B157" s="316"/>
-      <c r="C157" s="312"/>
+      <c r="B157" s="304"/>
+      <c r="C157" s="309"/>
       <c r="D157" s="192" t="s">
         <v>40</v>
       </c>
@@ -24685,9 +24697,9 @@
     </row>
     <row r="158" spans="1:13" ht="14.25" customHeight="1">
       <c r="A158" s="181"/>
-      <c r="B158" s="316"/>
-      <c r="C158" s="312"/>
-      <c r="D158" s="314" t="s">
+      <c r="B158" s="304"/>
+      <c r="C158" s="309"/>
+      <c r="D158" s="303" t="s">
         <v>42</v>
       </c>
       <c r="E158" s="175"/>
@@ -24710,9 +24722,9 @@
     </row>
     <row r="159" spans="1:13" ht="14.25" customHeight="1">
       <c r="A159" s="181"/>
-      <c r="B159" s="316"/>
-      <c r="C159" s="312"/>
-      <c r="D159" s="316"/>
+      <c r="B159" s="304"/>
+      <c r="C159" s="309"/>
+      <c r="D159" s="304"/>
       <c r="E159" s="175"/>
       <c r="F159" s="176"/>
       <c r="G159" s="177" t="s">
@@ -24731,9 +24743,9 @@
     </row>
     <row r="160" spans="1:13" ht="33">
       <c r="A160" s="181"/>
-      <c r="B160" s="316"/>
-      <c r="C160" s="312"/>
-      <c r="D160" s="316"/>
+      <c r="B160" s="304"/>
+      <c r="C160" s="309"/>
+      <c r="D160" s="304"/>
       <c r="E160" s="175"/>
       <c r="F160" s="176"/>
       <c r="G160" s="177" t="s">
@@ -24752,9 +24764,9 @@
     </row>
     <row r="161" spans="1:13" ht="14.25" customHeight="1">
       <c r="A161" s="181"/>
-      <c r="B161" s="316"/>
-      <c r="C161" s="312"/>
-      <c r="D161" s="316"/>
+      <c r="B161" s="304"/>
+      <c r="C161" s="309"/>
+      <c r="D161" s="304"/>
       <c r="E161" s="175"/>
       <c r="F161" s="176"/>
       <c r="G161" s="177" t="s">
@@ -24773,9 +24785,9 @@
     </row>
     <row r="162" spans="1:13" ht="14.25" customHeight="1">
       <c r="A162" s="181"/>
-      <c r="B162" s="316"/>
-      <c r="C162" s="312"/>
-      <c r="D162" s="316"/>
+      <c r="B162" s="304"/>
+      <c r="C162" s="309"/>
+      <c r="D162" s="304"/>
       <c r="E162" s="175"/>
       <c r="F162" s="176"/>
       <c r="G162" s="177" t="s">
@@ -24794,9 +24806,9 @@
     </row>
     <row r="163" spans="1:13" ht="46.5" customHeight="1">
       <c r="A163" s="181"/>
-      <c r="B163" s="316"/>
-      <c r="C163" s="312"/>
-      <c r="D163" s="316"/>
+      <c r="B163" s="304"/>
+      <c r="C163" s="309"/>
+      <c r="D163" s="304"/>
       <c r="E163" s="175"/>
       <c r="F163" s="176"/>
       <c r="G163" s="177" t="s">
@@ -24815,9 +24827,9 @@
     </row>
     <row r="164" spans="1:13" ht="26.25" customHeight="1">
       <c r="A164" s="181"/>
-      <c r="B164" s="316"/>
-      <c r="C164" s="312"/>
-      <c r="D164" s="316"/>
+      <c r="B164" s="304"/>
+      <c r="C164" s="309"/>
+      <c r="D164" s="304"/>
       <c r="E164" s="175"/>
       <c r="F164" s="176"/>
       <c r="G164" s="247" t="s">
@@ -24836,9 +24848,9 @@
     </row>
     <row r="165" spans="1:13" ht="14.25" customHeight="1">
       <c r="A165" s="181"/>
-      <c r="B165" s="316"/>
-      <c r="C165" s="312"/>
-      <c r="D165" s="316"/>
+      <c r="B165" s="304"/>
+      <c r="C165" s="309"/>
+      <c r="D165" s="304"/>
       <c r="E165" s="175"/>
       <c r="F165" s="176"/>
       <c r="G165" s="177" t="s">
@@ -24857,9 +24869,9 @@
     </row>
     <row r="166" spans="1:13" ht="14.25" customHeight="1">
       <c r="A166" s="181"/>
-      <c r="B166" s="316"/>
-      <c r="C166" s="312"/>
-      <c r="D166" s="316"/>
+      <c r="B166" s="304"/>
+      <c r="C166" s="309"/>
+      <c r="D166" s="304"/>
       <c r="E166" s="175"/>
       <c r="F166" s="176"/>
       <c r="G166" s="177" t="s">
@@ -24878,9 +24890,9 @@
     </row>
     <row r="167" spans="1:13" ht="33">
       <c r="A167" s="181"/>
-      <c r="B167" s="316"/>
-      <c r="C167" s="313"/>
-      <c r="D167" s="315"/>
+      <c r="B167" s="304"/>
+      <c r="C167" s="310"/>
+      <c r="D167" s="305"/>
       <c r="E167" s="175"/>
       <c r="F167" s="176"/>
       <c r="G167" s="177" t="s">
@@ -24899,11 +24911,11 @@
     </row>
     <row r="168" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A168" s="181"/>
-      <c r="B168" s="316"/>
-      <c r="C168" s="311" t="s">
+      <c r="B168" s="304"/>
+      <c r="C168" s="308" t="s">
         <v>53</v>
       </c>
-      <c r="D168" s="314" t="s">
+      <c r="D168" s="303" t="s">
         <v>106</v>
       </c>
       <c r="E168" s="175"/>
@@ -24920,9 +24932,9 @@
     </row>
     <row r="169" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A169" s="181"/>
-      <c r="B169" s="316"/>
-      <c r="C169" s="312"/>
-      <c r="D169" s="316"/>
+      <c r="B169" s="304"/>
+      <c r="C169" s="309"/>
+      <c r="D169" s="304"/>
       <c r="E169" s="175"/>
       <c r="F169" s="176"/>
       <c r="G169" s="177" t="s">
@@ -24937,9 +24949,9 @@
     </row>
     <row r="170" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A170" s="181"/>
-      <c r="B170" s="316"/>
-      <c r="C170" s="312"/>
-      <c r="D170" s="316"/>
+      <c r="B170" s="304"/>
+      <c r="C170" s="309"/>
+      <c r="D170" s="304"/>
       <c r="E170" s="175"/>
       <c r="F170" s="176"/>
       <c r="G170" s="177" t="s">
@@ -24954,9 +24966,9 @@
     </row>
     <row r="171" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A171" s="181"/>
-      <c r="B171" s="316"/>
-      <c r="C171" s="312"/>
-      <c r="D171" s="316"/>
+      <c r="B171" s="304"/>
+      <c r="C171" s="309"/>
+      <c r="D171" s="304"/>
       <c r="E171" s="175"/>
       <c r="F171" s="176"/>
       <c r="G171" s="177" t="s">
@@ -24971,9 +24983,9 @@
     </row>
     <row r="172" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A172" s="181"/>
-      <c r="B172" s="316"/>
-      <c r="C172" s="312"/>
-      <c r="D172" s="316"/>
+      <c r="B172" s="304"/>
+      <c r="C172" s="309"/>
+      <c r="D172" s="304"/>
       <c r="E172" s="175"/>
       <c r="F172" s="176"/>
       <c r="G172" s="177" t="s">
@@ -24988,9 +25000,9 @@
     </row>
     <row r="173" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="316"/>
-      <c r="C173" s="312"/>
-      <c r="D173" s="316"/>
+      <c r="B173" s="304"/>
+      <c r="C173" s="309"/>
+      <c r="D173" s="304"/>
       <c r="E173" s="175"/>
       <c r="F173" s="176"/>
       <c r="G173" s="177" t="s">
@@ -25005,9 +25017,9 @@
     </row>
     <row r="174" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A174" s="181"/>
-      <c r="B174" s="316"/>
-      <c r="C174" s="312"/>
-      <c r="D174" s="316"/>
+      <c r="B174" s="304"/>
+      <c r="C174" s="309"/>
+      <c r="D174" s="304"/>
       <c r="E174" s="175"/>
       <c r="F174" s="176"/>
       <c r="G174" s="177" t="s">
@@ -25022,9 +25034,9 @@
     </row>
     <row r="175" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A175" s="181"/>
-      <c r="B175" s="316"/>
-      <c r="C175" s="312"/>
-      <c r="D175" s="316"/>
+      <c r="B175" s="304"/>
+      <c r="C175" s="309"/>
+      <c r="D175" s="304"/>
       <c r="E175" s="175"/>
       <c r="F175" s="176"/>
       <c r="G175" s="177" t="s">
@@ -25039,9 +25051,9 @@
     </row>
     <row r="176" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A176" s="181"/>
-      <c r="B176" s="316"/>
-      <c r="C176" s="312"/>
-      <c r="D176" s="315"/>
+      <c r="B176" s="304"/>
+      <c r="C176" s="309"/>
+      <c r="D176" s="305"/>
       <c r="E176" s="175"/>
       <c r="F176" s="176"/>
       <c r="G176" s="177" t="s">
@@ -25056,9 +25068,9 @@
     </row>
     <row r="177" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A177" s="181"/>
-      <c r="B177" s="316"/>
-      <c r="C177" s="312"/>
-      <c r="D177" s="314" t="s">
+      <c r="B177" s="304"/>
+      <c r="C177" s="309"/>
+      <c r="D177" s="303" t="s">
         <v>108</v>
       </c>
       <c r="E177" s="175"/>
@@ -25075,9 +25087,9 @@
     </row>
     <row r="178" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A178" s="181"/>
-      <c r="B178" s="316"/>
-      <c r="C178" s="312"/>
-      <c r="D178" s="316"/>
+      <c r="B178" s="304"/>
+      <c r="C178" s="309"/>
+      <c r="D178" s="304"/>
       <c r="E178" s="175"/>
       <c r="F178" s="176"/>
       <c r="G178" s="177" t="s">
@@ -25092,9 +25104,9 @@
     </row>
     <row r="179" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A179" s="181"/>
-      <c r="B179" s="316"/>
-      <c r="C179" s="312"/>
-      <c r="D179" s="316"/>
+      <c r="B179" s="304"/>
+      <c r="C179" s="309"/>
+      <c r="D179" s="304"/>
       <c r="E179" s="175"/>
       <c r="F179" s="176"/>
       <c r="G179" s="177" t="s">
@@ -25109,9 +25121,9 @@
     </row>
     <row r="180" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A180" s="181"/>
-      <c r="B180" s="316"/>
-      <c r="C180" s="312"/>
-      <c r="D180" s="316"/>
+      <c r="B180" s="304"/>
+      <c r="C180" s="309"/>
+      <c r="D180" s="304"/>
       <c r="E180" s="175"/>
       <c r="F180" s="176"/>
       <c r="G180" s="177" t="s">
@@ -25126,9 +25138,9 @@
     </row>
     <row r="181" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A181" s="181"/>
-      <c r="B181" s="316"/>
-      <c r="C181" s="312"/>
-      <c r="D181" s="316"/>
+      <c r="B181" s="304"/>
+      <c r="C181" s="309"/>
+      <c r="D181" s="304"/>
       <c r="E181" s="175"/>
       <c r="F181" s="176"/>
       <c r="G181" s="177" t="s">
@@ -25143,9 +25155,9 @@
     </row>
     <row r="182" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A182" s="181"/>
-      <c r="B182" s="316"/>
-      <c r="C182" s="312"/>
-      <c r="D182" s="316"/>
+      <c r="B182" s="304"/>
+      <c r="C182" s="309"/>
+      <c r="D182" s="304"/>
       <c r="E182" s="175"/>
       <c r="F182" s="176"/>
       <c r="G182" s="177" t="s">
@@ -25160,9 +25172,9 @@
     </row>
     <row r="183" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A183" s="181"/>
-      <c r="B183" s="316"/>
-      <c r="C183" s="312"/>
-      <c r="D183" s="316"/>
+      <c r="B183" s="304"/>
+      <c r="C183" s="309"/>
+      <c r="D183" s="304"/>
       <c r="E183" s="175"/>
       <c r="F183" s="176"/>
       <c r="G183" s="177" t="s">
@@ -25177,9 +25189,9 @@
     </row>
     <row r="184" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A184" s="181"/>
-      <c r="B184" s="316"/>
-      <c r="C184" s="313"/>
-      <c r="D184" s="315"/>
+      <c r="B184" s="304"/>
+      <c r="C184" s="310"/>
+      <c r="D184" s="305"/>
       <c r="E184" s="175"/>
       <c r="F184" s="176"/>
       <c r="G184" s="177" t="s">
@@ -25194,8 +25206,8 @@
     </row>
     <row r="185" spans="1:13" ht="14.25" customHeight="1">
       <c r="A185" s="181"/>
-      <c r="B185" s="316"/>
-      <c r="C185" s="321" t="s">
+      <c r="B185" s="304"/>
+      <c r="C185" s="317" t="s">
         <v>54</v>
       </c>
       <c r="D185" s="192"/>
@@ -25215,8 +25227,8 @@
     </row>
     <row r="186" spans="1:13" ht="14.25" customHeight="1">
       <c r="A186" s="181"/>
-      <c r="B186" s="316"/>
-      <c r="C186" s="322"/>
+      <c r="B186" s="304"/>
+      <c r="C186" s="318"/>
       <c r="D186" s="197" t="s">
         <v>156</v>
       </c>
@@ -25236,8 +25248,8 @@
     </row>
     <row r="187" spans="1:13" ht="14.25" customHeight="1">
       <c r="A187" s="181"/>
-      <c r="B187" s="316"/>
-      <c r="C187" s="322"/>
+      <c r="B187" s="304"/>
+      <c r="C187" s="318"/>
       <c r="D187" s="252"/>
       <c r="E187" s="236"/>
       <c r="F187" s="251"/>
@@ -25255,8 +25267,8 @@
     </row>
     <row r="188" spans="1:13" ht="14.25" customHeight="1">
       <c r="A188" s="181"/>
-      <c r="B188" s="316"/>
-      <c r="C188" s="322"/>
+      <c r="B188" s="304"/>
+      <c r="C188" s="318"/>
       <c r="D188" s="193" t="s">
         <v>158</v>
       </c>
@@ -25274,8 +25286,8 @@
     </row>
     <row r="189" spans="1:13" ht="14.25" customHeight="1">
       <c r="A189" s="181"/>
-      <c r="B189" s="316"/>
-      <c r="C189" s="322"/>
+      <c r="B189" s="304"/>
+      <c r="C189" s="318"/>
       <c r="D189" s="193" t="s">
         <v>159</v>
       </c>
@@ -25293,8 +25305,8 @@
     </row>
     <row r="190" spans="1:13" ht="14.25" customHeight="1">
       <c r="A190" s="181"/>
-      <c r="B190" s="316"/>
-      <c r="C190" s="322"/>
+      <c r="B190" s="304"/>
+      <c r="C190" s="318"/>
       <c r="D190" s="193" t="s">
         <v>160</v>
       </c>
@@ -25312,8 +25324,8 @@
     </row>
     <row r="191" spans="1:13" ht="14.25" customHeight="1">
       <c r="A191" s="181"/>
-      <c r="B191" s="316"/>
-      <c r="C191" s="322"/>
+      <c r="B191" s="304"/>
+      <c r="C191" s="318"/>
       <c r="D191" s="193" t="s">
         <v>161</v>
       </c>
@@ -25331,8 +25343,8 @@
     </row>
     <row r="192" spans="1:13" ht="37.5" customHeight="1">
       <c r="A192" s="181"/>
-      <c r="B192" s="316"/>
-      <c r="C192" s="322"/>
+      <c r="B192" s="304"/>
+      <c r="C192" s="318"/>
       <c r="D192" s="254" t="s">
         <v>195</v>
       </c>
@@ -25350,8 +25362,8 @@
     </row>
     <row r="193" spans="1:13" ht="14.25" customHeight="1">
       <c r="A193" s="181"/>
-      <c r="B193" s="316"/>
-      <c r="C193" s="322"/>
+      <c r="B193" s="304"/>
+      <c r="C193" s="318"/>
       <c r="D193" s="193" t="s">
         <v>162</v>
       </c>
@@ -25369,8 +25381,8 @@
     </row>
     <row r="194" spans="1:13" ht="14.25" customHeight="1">
       <c r="A194" s="181"/>
-      <c r="B194" s="315"/>
-      <c r="C194" s="323"/>
+      <c r="B194" s="305"/>
+      <c r="C194" s="319"/>
       <c r="D194" s="193" t="s">
         <v>163</v>
       </c>
@@ -25388,13 +25400,13 @@
     </row>
     <row r="195" spans="1:13" ht="14.25" customHeight="1">
       <c r="A195" s="181"/>
-      <c r="B195" s="306" t="s">
+      <c r="B195" s="312" t="s">
         <v>128</v>
       </c>
-      <c r="C195" s="311" t="s">
+      <c r="C195" s="308" t="s">
         <v>57</v>
       </c>
-      <c r="D195" s="314" t="s">
+      <c r="D195" s="303" t="s">
         <v>56</v>
       </c>
       <c r="E195" s="175"/>
@@ -25415,9 +25427,9 @@
     </row>
     <row r="196" spans="1:13" ht="14.25" customHeight="1">
       <c r="A196" s="181"/>
-      <c r="B196" s="307"/>
-      <c r="C196" s="312"/>
-      <c r="D196" s="315"/>
+      <c r="B196" s="313"/>
+      <c r="C196" s="309"/>
+      <c r="D196" s="305"/>
       <c r="E196" s="175"/>
       <c r="F196" s="176"/>
       <c r="G196" s="177" t="s">
@@ -25436,8 +25448,8 @@
     </row>
     <row r="197" spans="1:13" ht="14.25" customHeight="1">
       <c r="A197" s="181"/>
-      <c r="B197" s="307"/>
-      <c r="C197" s="312"/>
+      <c r="B197" s="313"/>
+      <c r="C197" s="309"/>
       <c r="D197" s="255" t="s">
         <v>2878</v>
       </c>
@@ -25457,9 +25469,9 @@
     </row>
     <row r="198" spans="1:13" ht="14.25" customHeight="1">
       <c r="A198" s="181"/>
-      <c r="B198" s="307"/>
-      <c r="C198" s="312"/>
-      <c r="D198" s="314" t="s">
+      <c r="B198" s="313"/>
+      <c r="C198" s="309"/>
+      <c r="D198" s="303" t="s">
         <v>61</v>
       </c>
       <c r="E198" s="175"/>
@@ -25478,9 +25490,9 @@
     </row>
     <row r="199" spans="1:13" ht="14.25" customHeight="1">
       <c r="A199" s="181"/>
-      <c r="B199" s="307"/>
-      <c r="C199" s="312"/>
-      <c r="D199" s="316"/>
+      <c r="B199" s="313"/>
+      <c r="C199" s="309"/>
+      <c r="D199" s="304"/>
       <c r="E199" s="175"/>
       <c r="F199" s="176"/>
       <c r="G199" s="177" t="s">
@@ -25499,9 +25511,9 @@
     </row>
     <row r="200" spans="1:13" ht="14.25" customHeight="1">
       <c r="A200" s="181"/>
-      <c r="B200" s="307"/>
-      <c r="C200" s="312"/>
-      <c r="D200" s="315"/>
+      <c r="B200" s="313"/>
+      <c r="C200" s="309"/>
+      <c r="D200" s="305"/>
       <c r="E200" s="175"/>
       <c r="F200" s="176"/>
       <c r="G200" s="177" t="s">
@@ -25518,9 +25530,9 @@
     </row>
     <row r="201" spans="1:13" ht="14.25" customHeight="1">
       <c r="A201" s="181"/>
-      <c r="B201" s="307"/>
-      <c r="C201" s="312"/>
-      <c r="D201" s="314" t="s">
+      <c r="B201" s="313"/>
+      <c r="C201" s="309"/>
+      <c r="D201" s="303" t="s">
         <v>65</v>
       </c>
       <c r="E201" s="175"/>
@@ -25541,9 +25553,9 @@
     </row>
     <row r="202" spans="1:13" ht="33">
       <c r="A202" s="181"/>
-      <c r="B202" s="307"/>
-      <c r="C202" s="312"/>
-      <c r="D202" s="315"/>
+      <c r="B202" s="313"/>
+      <c r="C202" s="309"/>
+      <c r="D202" s="305"/>
       <c r="E202" s="175"/>
       <c r="F202" s="176"/>
       <c r="G202" s="177" t="s">
@@ -25560,9 +25572,9 @@
     </row>
     <row r="203" spans="1:13" ht="14.25" customHeight="1">
       <c r="A203" s="181"/>
-      <c r="B203" s="307"/>
-      <c r="C203" s="312"/>
-      <c r="D203" s="314" t="s">
+      <c r="B203" s="313"/>
+      <c r="C203" s="309"/>
+      <c r="D203" s="303" t="s">
         <v>68</v>
       </c>
       <c r="E203" s="175"/>
@@ -25581,9 +25593,9 @@
     </row>
     <row r="204" spans="1:13" ht="14.25" customHeight="1">
       <c r="A204" s="181"/>
-      <c r="B204" s="307"/>
-      <c r="C204" s="312"/>
-      <c r="D204" s="315"/>
+      <c r="B204" s="313"/>
+      <c r="C204" s="309"/>
+      <c r="D204" s="305"/>
       <c r="E204" s="175"/>
       <c r="F204" s="176"/>
       <c r="G204" s="177" t="s">
@@ -25602,9 +25614,9 @@
     </row>
     <row r="205" spans="1:13" ht="14.25" customHeight="1">
       <c r="A205" s="181"/>
-      <c r="B205" s="307"/>
-      <c r="C205" s="312"/>
-      <c r="D205" s="314" t="s">
+      <c r="B205" s="313"/>
+      <c r="C205" s="309"/>
+      <c r="D205" s="303" t="s">
         <v>70</v>
       </c>
       <c r="E205" s="175"/>
@@ -25623,9 +25635,9 @@
     </row>
     <row r="206" spans="1:13" ht="14.25" customHeight="1">
       <c r="A206" s="181"/>
-      <c r="B206" s="307"/>
-      <c r="C206" s="312"/>
-      <c r="D206" s="316"/>
+      <c r="B206" s="313"/>
+      <c r="C206" s="309"/>
+      <c r="D206" s="304"/>
       <c r="E206" s="175"/>
       <c r="F206" s="176"/>
       <c r="G206" s="177" t="s">
@@ -25644,9 +25656,9 @@
     </row>
     <row r="207" spans="1:13" ht="14.25" customHeight="1">
       <c r="A207" s="181"/>
-      <c r="B207" s="307"/>
-      <c r="C207" s="312"/>
-      <c r="D207" s="316"/>
+      <c r="B207" s="313"/>
+      <c r="C207" s="309"/>
+      <c r="D207" s="304"/>
       <c r="E207" s="175"/>
       <c r="F207" s="176"/>
       <c r="G207" s="177" t="s">
@@ -25663,9 +25675,9 @@
     </row>
     <row r="208" spans="1:13" ht="14.25" customHeight="1">
       <c r="A208" s="181"/>
-      <c r="B208" s="307"/>
-      <c r="C208" s="312"/>
-      <c r="D208" s="316"/>
+      <c r="B208" s="313"/>
+      <c r="C208" s="309"/>
+      <c r="D208" s="304"/>
       <c r="E208" s="175"/>
       <c r="F208" s="176"/>
       <c r="G208" s="177" t="s">
@@ -25682,9 +25694,9 @@
     </row>
     <row r="209" spans="1:13" ht="14.25" customHeight="1">
       <c r="A209" s="181"/>
-      <c r="B209" s="307"/>
-      <c r="C209" s="312"/>
-      <c r="D209" s="316"/>
+      <c r="B209" s="313"/>
+      <c r="C209" s="309"/>
+      <c r="D209" s="304"/>
       <c r="E209" s="175"/>
       <c r="F209" s="176"/>
       <c r="G209" s="177" t="s">
@@ -25701,9 +25713,9 @@
     </row>
     <row r="210" spans="1:13" ht="30" customHeight="1">
       <c r="A210" s="181"/>
-      <c r="B210" s="307"/>
-      <c r="C210" s="313"/>
-      <c r="D210" s="315"/>
+      <c r="B210" s="313"/>
+      <c r="C210" s="310"/>
+      <c r="D210" s="305"/>
       <c r="E210" s="175"/>
       <c r="F210" s="176"/>
       <c r="G210" s="177" t="s">
@@ -25722,11 +25734,11 @@
     </row>
     <row r="211" spans="1:13" ht="14.25" customHeight="1">
       <c r="A211" s="181"/>
-      <c r="B211" s="307"/>
-      <c r="C211" s="311" t="s">
+      <c r="B211" s="313"/>
+      <c r="C211" s="308" t="s">
         <v>112</v>
       </c>
-      <c r="D211" s="314" t="s">
+      <c r="D211" s="303" t="s">
         <v>1446</v>
       </c>
       <c r="E211" s="175"/>
@@ -25745,9 +25757,9 @@
     </row>
     <row r="212" spans="1:13" ht="14.25" customHeight="1">
       <c r="A212" s="181"/>
-      <c r="B212" s="307"/>
-      <c r="C212" s="312"/>
-      <c r="D212" s="316"/>
+      <c r="B212" s="313"/>
+      <c r="C212" s="309"/>
+      <c r="D212" s="304"/>
       <c r="E212" s="175"/>
       <c r="F212" s="176"/>
       <c r="G212" s="177" t="s">
@@ -25764,9 +25776,9 @@
     </row>
     <row r="213" spans="1:13" ht="14.25" customHeight="1">
       <c r="A213" s="181"/>
-      <c r="B213" s="307"/>
-      <c r="C213" s="312"/>
-      <c r="D213" s="316"/>
+      <c r="B213" s="313"/>
+      <c r="C213" s="309"/>
+      <c r="D213" s="304"/>
       <c r="E213" s="175"/>
       <c r="F213" s="176"/>
       <c r="G213" s="177" t="s">
@@ -25783,9 +25795,9 @@
     </row>
     <row r="214" spans="1:13" ht="14.25" customHeight="1">
       <c r="A214" s="181"/>
-      <c r="B214" s="307"/>
-      <c r="C214" s="312"/>
-      <c r="D214" s="316"/>
+      <c r="B214" s="313"/>
+      <c r="C214" s="309"/>
+      <c r="D214" s="304"/>
       <c r="E214" s="175"/>
       <c r="F214" s="176"/>
       <c r="G214" s="177" t="s">
@@ -25802,9 +25814,9 @@
     </row>
     <row r="215" spans="1:13" ht="14.25" customHeight="1">
       <c r="A215" s="181"/>
-      <c r="B215" s="307"/>
-      <c r="C215" s="312"/>
-      <c r="D215" s="316"/>
+      <c r="B215" s="313"/>
+      <c r="C215" s="309"/>
+      <c r="D215" s="304"/>
       <c r="E215" s="175"/>
       <c r="F215" s="176"/>
       <c r="G215" s="177" t="s">
@@ -25821,9 +25833,9 @@
     </row>
     <row r="216" spans="1:13" ht="14.25" customHeight="1">
       <c r="A216" s="181"/>
-      <c r="B216" s="307"/>
-      <c r="C216" s="312"/>
-      <c r="D216" s="316"/>
+      <c r="B216" s="313"/>
+      <c r="C216" s="309"/>
+      <c r="D216" s="304"/>
       <c r="E216" s="175"/>
       <c r="F216" s="176"/>
       <c r="G216" s="177" t="s">
@@ -25840,9 +25852,9 @@
     </row>
     <row r="217" spans="1:13" ht="14.25" customHeight="1">
       <c r="A217" s="181"/>
-      <c r="B217" s="307"/>
-      <c r="C217" s="312"/>
-      <c r="D217" s="316"/>
+      <c r="B217" s="313"/>
+      <c r="C217" s="309"/>
+      <c r="D217" s="304"/>
       <c r="E217" s="175"/>
       <c r="F217" s="176"/>
       <c r="G217" s="177" t="s">
@@ -25859,9 +25871,9 @@
     </row>
     <row r="218" spans="1:13" ht="14.25" customHeight="1">
       <c r="A218" s="181"/>
-      <c r="B218" s="307"/>
-      <c r="C218" s="312"/>
-      <c r="D218" s="316"/>
+      <c r="B218" s="313"/>
+      <c r="C218" s="309"/>
+      <c r="D218" s="304"/>
       <c r="E218" s="175"/>
       <c r="F218" s="176"/>
       <c r="G218" s="177" t="s">
@@ -25878,9 +25890,9 @@
     </row>
     <row r="219" spans="1:13" ht="14.25" customHeight="1">
       <c r="A219" s="181"/>
-      <c r="B219" s="307"/>
-      <c r="C219" s="312"/>
-      <c r="D219" s="316"/>
+      <c r="B219" s="313"/>
+      <c r="C219" s="309"/>
+      <c r="D219" s="304"/>
       <c r="E219" s="175"/>
       <c r="F219" s="176"/>
       <c r="G219" s="177" t="s">
@@ -25897,9 +25909,9 @@
     </row>
     <row r="220" spans="1:13" ht="14.25" customHeight="1">
       <c r="A220" s="181"/>
-      <c r="B220" s="307"/>
-      <c r="C220" s="312"/>
-      <c r="D220" s="316"/>
+      <c r="B220" s="313"/>
+      <c r="C220" s="309"/>
+      <c r="D220" s="304"/>
       <c r="E220" s="175"/>
       <c r="F220" s="176"/>
       <c r="G220" s="177" t="s">
@@ -25916,9 +25928,9 @@
     </row>
     <row r="221" spans="1:13" ht="14.25" customHeight="1">
       <c r="A221" s="181"/>
-      <c r="B221" s="307"/>
-      <c r="C221" s="312"/>
-      <c r="D221" s="316"/>
+      <c r="B221" s="313"/>
+      <c r="C221" s="309"/>
+      <c r="D221" s="304"/>
       <c r="E221" s="175"/>
       <c r="F221" s="176"/>
       <c r="G221" s="177" t="s">
@@ -25935,9 +25947,9 @@
     </row>
     <row r="222" spans="1:13" ht="14.25" customHeight="1">
       <c r="A222" s="181"/>
-      <c r="B222" s="307"/>
-      <c r="C222" s="312"/>
-      <c r="D222" s="316"/>
+      <c r="B222" s="313"/>
+      <c r="C222" s="309"/>
+      <c r="D222" s="304"/>
       <c r="E222" s="175"/>
       <c r="F222" s="176"/>
       <c r="G222" s="177" t="s">
@@ -25954,9 +25966,9 @@
     </row>
     <row r="223" spans="1:13" ht="14.25" customHeight="1">
       <c r="A223" s="181"/>
-      <c r="B223" s="307"/>
-      <c r="C223" s="312"/>
-      <c r="D223" s="316"/>
+      <c r="B223" s="313"/>
+      <c r="C223" s="309"/>
+      <c r="D223" s="304"/>
       <c r="E223" s="175"/>
       <c r="F223" s="176"/>
       <c r="G223" s="177" t="s">
@@ -25973,9 +25985,9 @@
     </row>
     <row r="224" spans="1:13" ht="14.25" customHeight="1">
       <c r="A224" s="181"/>
-      <c r="B224" s="307"/>
-      <c r="C224" s="312"/>
-      <c r="D224" s="316"/>
+      <c r="B224" s="313"/>
+      <c r="C224" s="309"/>
+      <c r="D224" s="304"/>
       <c r="E224" s="175"/>
       <c r="F224" s="176"/>
       <c r="G224" s="177" t="s">
@@ -25992,9 +26004,9 @@
     </row>
     <row r="225" spans="1:13" ht="14.25" customHeight="1">
       <c r="A225" s="181"/>
-      <c r="B225" s="307"/>
-      <c r="C225" s="312"/>
-      <c r="D225" s="316"/>
+      <c r="B225" s="313"/>
+      <c r="C225" s="309"/>
+      <c r="D225" s="304"/>
       <c r="E225" s="175"/>
       <c r="F225" s="176"/>
       <c r="G225" s="177" t="s">
@@ -26011,9 +26023,9 @@
     </row>
     <row r="226" spans="1:13" ht="14.25" customHeight="1">
       <c r="A226" s="181"/>
-      <c r="B226" s="307"/>
-      <c r="C226" s="312"/>
-      <c r="D226" s="316"/>
+      <c r="B226" s="313"/>
+      <c r="C226" s="309"/>
+      <c r="D226" s="304"/>
       <c r="E226" s="175"/>
       <c r="F226" s="176"/>
       <c r="G226" s="177" t="s">
@@ -26030,9 +26042,9 @@
     </row>
     <row r="227" spans="1:13" ht="14.25" customHeight="1">
       <c r="A227" s="181"/>
-      <c r="B227" s="307"/>
-      <c r="C227" s="312"/>
-      <c r="D227" s="316"/>
+      <c r="B227" s="313"/>
+      <c r="C227" s="309"/>
+      <c r="D227" s="304"/>
       <c r="E227" s="175"/>
       <c r="F227" s="176"/>
       <c r="G227" s="177" t="s">
@@ -26049,9 +26061,9 @@
     </row>
     <row r="228" spans="1:13" ht="14.25" customHeight="1">
       <c r="A228" s="181"/>
-      <c r="B228" s="307"/>
-      <c r="C228" s="312"/>
-      <c r="D228" s="316"/>
+      <c r="B228" s="313"/>
+      <c r="C228" s="309"/>
+      <c r="D228" s="304"/>
       <c r="E228" s="175"/>
       <c r="F228" s="176"/>
       <c r="G228" s="177" t="s">
@@ -26068,9 +26080,9 @@
     </row>
     <row r="229" spans="1:13" ht="14.25" customHeight="1">
       <c r="A229" s="181"/>
-      <c r="B229" s="307"/>
-      <c r="C229" s="312"/>
-      <c r="D229" s="316"/>
+      <c r="B229" s="313"/>
+      <c r="C229" s="309"/>
+      <c r="D229" s="304"/>
       <c r="E229" s="175"/>
       <c r="F229" s="176"/>
       <c r="G229" s="177" t="s">
@@ -26087,9 +26099,9 @@
     </row>
     <row r="230" spans="1:13" ht="14.25" customHeight="1">
       <c r="A230" s="181"/>
-      <c r="B230" s="307"/>
-      <c r="C230" s="312"/>
-      <c r="D230" s="316"/>
+      <c r="B230" s="313"/>
+      <c r="C230" s="309"/>
+      <c r="D230" s="304"/>
       <c r="E230" s="175"/>
       <c r="F230" s="176"/>
       <c r="G230" s="177" t="s">
@@ -26106,9 +26118,9 @@
     </row>
     <row r="231" spans="1:13" ht="14.25" customHeight="1">
       <c r="A231" s="181"/>
-      <c r="B231" s="307"/>
-      <c r="C231" s="312"/>
-      <c r="D231" s="316"/>
+      <c r="B231" s="313"/>
+      <c r="C231" s="309"/>
+      <c r="D231" s="304"/>
       <c r="E231" s="175"/>
       <c r="F231" s="176"/>
       <c r="G231" s="177" t="s">
@@ -26125,9 +26137,9 @@
     </row>
     <row r="232" spans="1:13" ht="14.25" customHeight="1">
       <c r="A232" s="181"/>
-      <c r="B232" s="307"/>
-      <c r="C232" s="312"/>
-      <c r="D232" s="316"/>
+      <c r="B232" s="313"/>
+      <c r="C232" s="309"/>
+      <c r="D232" s="304"/>
       <c r="E232" s="175"/>
       <c r="F232" s="176"/>
       <c r="G232" s="177" t="s">
@@ -26144,9 +26156,9 @@
     </row>
     <row r="233" spans="1:13" ht="14.25" customHeight="1">
       <c r="A233" s="181"/>
-      <c r="B233" s="307"/>
-      <c r="C233" s="312"/>
-      <c r="D233" s="316"/>
+      <c r="B233" s="313"/>
+      <c r="C233" s="309"/>
+      <c r="D233" s="304"/>
       <c r="E233" s="175"/>
       <c r="F233" s="176"/>
       <c r="G233" s="177" t="s">
@@ -26163,9 +26175,9 @@
     </row>
     <row r="234" spans="1:13" ht="14.25" customHeight="1">
       <c r="A234" s="181"/>
-      <c r="B234" s="307"/>
-      <c r="C234" s="312"/>
-      <c r="D234" s="316"/>
+      <c r="B234" s="313"/>
+      <c r="C234" s="309"/>
+      <c r="D234" s="304"/>
       <c r="E234" s="175"/>
       <c r="F234" s="176"/>
       <c r="G234" s="177" t="s">
@@ -26182,9 +26194,9 @@
     </row>
     <row r="235" spans="1:13" ht="14.25" customHeight="1">
       <c r="A235" s="181"/>
-      <c r="B235" s="307"/>
-      <c r="C235" s="312"/>
-      <c r="D235" s="316"/>
+      <c r="B235" s="313"/>
+      <c r="C235" s="309"/>
+      <c r="D235" s="304"/>
       <c r="E235" s="175"/>
       <c r="F235" s="176"/>
       <c r="G235" s="177" t="s">
@@ -26201,9 +26213,9 @@
     </row>
     <row r="236" spans="1:13" ht="14.25" customHeight="1">
       <c r="A236" s="181"/>
-      <c r="B236" s="307"/>
-      <c r="C236" s="312"/>
-      <c r="D236" s="316"/>
+      <c r="B236" s="313"/>
+      <c r="C236" s="309"/>
+      <c r="D236" s="304"/>
       <c r="E236" s="175"/>
       <c r="F236" s="176"/>
       <c r="G236" s="177" t="s">
@@ -26220,9 +26232,9 @@
     </row>
     <row r="237" spans="1:13" ht="14.25" customHeight="1">
       <c r="A237" s="181"/>
-      <c r="B237" s="307"/>
-      <c r="C237" s="312"/>
-      <c r="D237" s="316"/>
+      <c r="B237" s="313"/>
+      <c r="C237" s="309"/>
+      <c r="D237" s="304"/>
       <c r="E237" s="175"/>
       <c r="F237" s="176"/>
       <c r="G237" s="177" t="s">
@@ -26239,9 +26251,9 @@
     </row>
     <row r="238" spans="1:13" ht="14.25" customHeight="1">
       <c r="A238" s="181"/>
-      <c r="B238" s="307"/>
-      <c r="C238" s="312"/>
-      <c r="D238" s="316"/>
+      <c r="B238" s="313"/>
+      <c r="C238" s="309"/>
+      <c r="D238" s="304"/>
       <c r="E238" s="175"/>
       <c r="F238" s="176"/>
       <c r="G238" s="177" t="s">
@@ -26258,9 +26270,9 @@
     </row>
     <row r="239" spans="1:13" ht="14.25" customHeight="1">
       <c r="A239" s="181"/>
-      <c r="B239" s="307"/>
-      <c r="C239" s="312"/>
-      <c r="D239" s="316"/>
+      <c r="B239" s="313"/>
+      <c r="C239" s="309"/>
+      <c r="D239" s="304"/>
       <c r="E239" s="175"/>
       <c r="F239" s="176"/>
       <c r="G239" s="177" t="s">
@@ -26277,9 +26289,9 @@
     </row>
     <row r="240" spans="1:13" ht="14.25" customHeight="1">
       <c r="A240" s="181"/>
-      <c r="B240" s="307"/>
-      <c r="C240" s="312"/>
-      <c r="D240" s="316"/>
+      <c r="B240" s="313"/>
+      <c r="C240" s="309"/>
+      <c r="D240" s="304"/>
       <c r="E240" s="175"/>
       <c r="F240" s="176"/>
       <c r="G240" s="177" t="s">
@@ -26296,9 +26308,9 @@
     </row>
     <row r="241" spans="1:13" ht="14.25" customHeight="1">
       <c r="A241" s="181"/>
-      <c r="B241" s="307"/>
-      <c r="C241" s="313"/>
-      <c r="D241" s="315"/>
+      <c r="B241" s="313"/>
+      <c r="C241" s="310"/>
+      <c r="D241" s="305"/>
       <c r="E241" s="175"/>
       <c r="F241" s="176"/>
       <c r="G241" s="177" t="s">
@@ -26315,11 +26327,11 @@
     </row>
     <row r="242" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A242" s="289"/>
-      <c r="B242" s="307"/>
-      <c r="C242" s="335" t="s">
+      <c r="B242" s="313"/>
+      <c r="C242" s="320" t="s">
         <v>1464</v>
       </c>
-      <c r="D242" s="318" t="s">
+      <c r="D242" s="335" t="s">
         <v>133</v>
       </c>
       <c r="E242" s="290"/>
@@ -26338,9 +26350,9 @@
     </row>
     <row r="243" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A243" s="289"/>
-      <c r="B243" s="307"/>
-      <c r="C243" s="336"/>
-      <c r="D243" s="319"/>
+      <c r="B243" s="313"/>
+      <c r="C243" s="321"/>
+      <c r="D243" s="336"/>
       <c r="E243" s="290"/>
       <c r="F243" s="291"/>
       <c r="G243" s="292" t="s">
@@ -26357,9 +26369,9 @@
     </row>
     <row r="244" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A244" s="289"/>
-      <c r="B244" s="307"/>
-      <c r="C244" s="336"/>
-      <c r="D244" s="319"/>
+      <c r="B244" s="313"/>
+      <c r="C244" s="321"/>
+      <c r="D244" s="336"/>
       <c r="E244" s="290"/>
       <c r="F244" s="291"/>
       <c r="G244" s="292" t="s">
@@ -26376,9 +26388,9 @@
     </row>
     <row r="245" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A245" s="289"/>
-      <c r="B245" s="307"/>
-      <c r="C245" s="336"/>
-      <c r="D245" s="319"/>
+      <c r="B245" s="313"/>
+      <c r="C245" s="321"/>
+      <c r="D245" s="336"/>
       <c r="E245" s="290"/>
       <c r="F245" s="291"/>
       <c r="G245" s="292" t="s">
@@ -26395,9 +26407,9 @@
     </row>
     <row r="246" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A246" s="289"/>
-      <c r="B246" s="307"/>
-      <c r="C246" s="336"/>
-      <c r="D246" s="319"/>
+      <c r="B246" s="313"/>
+      <c r="C246" s="321"/>
+      <c r="D246" s="336"/>
       <c r="E246" s="290"/>
       <c r="F246" s="291"/>
       <c r="G246" s="292" t="s">
@@ -26414,9 +26426,9 @@
     </row>
     <row r="247" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A247" s="289"/>
-      <c r="B247" s="307"/>
-      <c r="C247" s="336"/>
-      <c r="D247" s="319"/>
+      <c r="B247" s="313"/>
+      <c r="C247" s="321"/>
+      <c r="D247" s="336"/>
       <c r="E247" s="290"/>
       <c r="F247" s="291"/>
       <c r="G247" s="292" t="s">
@@ -26433,9 +26445,9 @@
     </row>
     <row r="248" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A248" s="289"/>
-      <c r="B248" s="307"/>
-      <c r="C248" s="336"/>
-      <c r="D248" s="319"/>
+      <c r="B248" s="313"/>
+      <c r="C248" s="321"/>
+      <c r="D248" s="336"/>
       <c r="E248" s="290"/>
       <c r="F248" s="291"/>
       <c r="G248" s="292" t="s">
@@ -26452,9 +26464,9 @@
     </row>
     <row r="249" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A249" s="289"/>
-      <c r="B249" s="307"/>
-      <c r="C249" s="336"/>
-      <c r="D249" s="319"/>
+      <c r="B249" s="313"/>
+      <c r="C249" s="321"/>
+      <c r="D249" s="336"/>
       <c r="E249" s="290"/>
       <c r="F249" s="291"/>
       <c r="G249" s="292" t="s">
@@ -26471,9 +26483,9 @@
     </row>
     <row r="250" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A250" s="289"/>
-      <c r="B250" s="307"/>
-      <c r="C250" s="336"/>
-      <c r="D250" s="319"/>
+      <c r="B250" s="313"/>
+      <c r="C250" s="321"/>
+      <c r="D250" s="336"/>
       <c r="E250" s="290"/>
       <c r="F250" s="291"/>
       <c r="G250" s="292" t="s">
@@ -26490,9 +26502,9 @@
     </row>
     <row r="251" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A251" s="289"/>
-      <c r="B251" s="307"/>
-      <c r="C251" s="336"/>
-      <c r="D251" s="319"/>
+      <c r="B251" s="313"/>
+      <c r="C251" s="321"/>
+      <c r="D251" s="336"/>
       <c r="E251" s="290"/>
       <c r="F251" s="291"/>
       <c r="G251" s="292" t="s">
@@ -26509,9 +26521,9 @@
     </row>
     <row r="252" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A252" s="289"/>
-      <c r="B252" s="307"/>
-      <c r="C252" s="336"/>
-      <c r="D252" s="319"/>
+      <c r="B252" s="313"/>
+      <c r="C252" s="321"/>
+      <c r="D252" s="336"/>
       <c r="E252" s="290"/>
       <c r="F252" s="291"/>
       <c r="G252" s="292" t="s">
@@ -26528,9 +26540,9 @@
     </row>
     <row r="253" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A253" s="289"/>
-      <c r="B253" s="307"/>
-      <c r="C253" s="336"/>
-      <c r="D253" s="319"/>
+      <c r="B253" s="313"/>
+      <c r="C253" s="321"/>
+      <c r="D253" s="336"/>
       <c r="E253" s="290"/>
       <c r="F253" s="291"/>
       <c r="G253" s="292" t="s">
@@ -26547,9 +26559,9 @@
     </row>
     <row r="254" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A254" s="289"/>
-      <c r="B254" s="307"/>
-      <c r="C254" s="336"/>
-      <c r="D254" s="319"/>
+      <c r="B254" s="313"/>
+      <c r="C254" s="321"/>
+      <c r="D254" s="336"/>
       <c r="E254" s="290"/>
       <c r="F254" s="291"/>
       <c r="G254" s="292" t="s">
@@ -26566,9 +26578,9 @@
     </row>
     <row r="255" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A255" s="289"/>
-      <c r="B255" s="307"/>
-      <c r="C255" s="336"/>
-      <c r="D255" s="319"/>
+      <c r="B255" s="313"/>
+      <c r="C255" s="321"/>
+      <c r="D255" s="336"/>
       <c r="E255" s="290"/>
       <c r="F255" s="291"/>
       <c r="G255" s="292" t="s">
@@ -26585,9 +26597,9 @@
     </row>
     <row r="256" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A256" s="289"/>
-      <c r="B256" s="307"/>
-      <c r="C256" s="336"/>
-      <c r="D256" s="319"/>
+      <c r="B256" s="313"/>
+      <c r="C256" s="321"/>
+      <c r="D256" s="336"/>
       <c r="E256" s="290"/>
       <c r="F256" s="291"/>
       <c r="G256" s="292" t="s">
@@ -26604,9 +26616,9 @@
     </row>
     <row r="257" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A257" s="289"/>
-      <c r="B257" s="307"/>
-      <c r="C257" s="336"/>
-      <c r="D257" s="319"/>
+      <c r="B257" s="313"/>
+      <c r="C257" s="321"/>
+      <c r="D257" s="336"/>
       <c r="E257" s="290"/>
       <c r="F257" s="291"/>
       <c r="G257" s="292" t="s">
@@ -26623,9 +26635,9 @@
     </row>
     <row r="258" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A258" s="289"/>
-      <c r="B258" s="307"/>
-      <c r="C258" s="337"/>
-      <c r="D258" s="320"/>
+      <c r="B258" s="313"/>
+      <c r="C258" s="322"/>
+      <c r="D258" s="337"/>
       <c r="E258" s="290"/>
       <c r="F258" s="291"/>
       <c r="G258" s="292" t="s">
@@ -26642,11 +26654,11 @@
     </row>
     <row r="259" spans="1:13" ht="14.25" customHeight="1">
       <c r="A259" s="181"/>
-      <c r="B259" s="307"/>
-      <c r="C259" s="321" t="s">
+      <c r="B259" s="313"/>
+      <c r="C259" s="317" t="s">
         <v>126</v>
       </c>
-      <c r="D259" s="314" t="s">
+      <c r="D259" s="303" t="s">
         <v>1470</v>
       </c>
       <c r="E259" s="175"/>
@@ -26665,9 +26677,9 @@
     </row>
     <row r="260" spans="1:13" ht="14.25" customHeight="1">
       <c r="A260" s="181"/>
-      <c r="B260" s="307"/>
-      <c r="C260" s="322"/>
-      <c r="D260" s="316"/>
+      <c r="B260" s="313"/>
+      <c r="C260" s="318"/>
+      <c r="D260" s="304"/>
       <c r="E260" s="175"/>
       <c r="F260" s="175"/>
       <c r="G260" s="177" t="s">
@@ -26684,9 +26696,9 @@
     </row>
     <row r="261" spans="1:13" ht="14.25" customHeight="1">
       <c r="A261" s="181"/>
-      <c r="B261" s="307"/>
-      <c r="C261" s="322"/>
-      <c r="D261" s="316"/>
+      <c r="B261" s="313"/>
+      <c r="C261" s="318"/>
+      <c r="D261" s="304"/>
       <c r="E261" s="175"/>
       <c r="F261" s="175"/>
       <c r="G261" s="177" t="s">
@@ -26703,9 +26715,9 @@
     </row>
     <row r="262" spans="1:13" ht="14.25" customHeight="1">
       <c r="A262" s="181"/>
-      <c r="B262" s="307"/>
-      <c r="C262" s="322"/>
-      <c r="D262" s="316"/>
+      <c r="B262" s="313"/>
+      <c r="C262" s="318"/>
+      <c r="D262" s="304"/>
       <c r="E262" s="175"/>
       <c r="F262" s="175"/>
       <c r="G262" s="177" t="s">
@@ -26722,9 +26734,9 @@
     </row>
     <row r="263" spans="1:13" ht="14.25" customHeight="1">
       <c r="A263" s="181"/>
-      <c r="B263" s="307"/>
-      <c r="C263" s="322"/>
-      <c r="D263" s="316"/>
+      <c r="B263" s="313"/>
+      <c r="C263" s="318"/>
+      <c r="D263" s="304"/>
       <c r="E263" s="175"/>
       <c r="F263" s="175"/>
       <c r="G263" s="177" t="s">
@@ -26741,9 +26753,9 @@
     </row>
     <row r="264" spans="1:13" ht="14.25" customHeight="1">
       <c r="A264" s="181"/>
-      <c r="B264" s="307"/>
-      <c r="C264" s="322"/>
-      <c r="D264" s="316"/>
+      <c r="B264" s="313"/>
+      <c r="C264" s="318"/>
+      <c r="D264" s="304"/>
       <c r="E264" s="175"/>
       <c r="F264" s="175"/>
       <c r="G264" s="177" t="s">
@@ -26760,9 +26772,9 @@
     </row>
     <row r="265" spans="1:13" ht="14.25" customHeight="1">
       <c r="A265" s="181"/>
-      <c r="B265" s="307"/>
-      <c r="C265" s="322"/>
-      <c r="D265" s="316"/>
+      <c r="B265" s="313"/>
+      <c r="C265" s="318"/>
+      <c r="D265" s="304"/>
       <c r="E265" s="175"/>
       <c r="F265" s="175"/>
       <c r="G265" s="177" t="s">
@@ -26779,9 +26791,9 @@
     </row>
     <row r="266" spans="1:13" ht="14.25" customHeight="1">
       <c r="A266" s="181"/>
-      <c r="B266" s="307"/>
-      <c r="C266" s="322"/>
-      <c r="D266" s="316"/>
+      <c r="B266" s="313"/>
+      <c r="C266" s="318"/>
+      <c r="D266" s="304"/>
       <c r="E266" s="175"/>
       <c r="F266" s="175"/>
       <c r="G266" s="177" t="s">
@@ -26798,9 +26810,9 @@
     </row>
     <row r="267" spans="1:13" ht="14.25" customHeight="1">
       <c r="A267" s="181"/>
-      <c r="B267" s="307"/>
-      <c r="C267" s="322"/>
-      <c r="D267" s="316"/>
+      <c r="B267" s="313"/>
+      <c r="C267" s="318"/>
+      <c r="D267" s="304"/>
       <c r="E267" s="175"/>
       <c r="F267" s="175"/>
       <c r="G267" s="177" t="s">
@@ -26817,9 +26829,9 @@
     </row>
     <row r="268" spans="1:13" ht="14.25" customHeight="1">
       <c r="A268" s="181"/>
-      <c r="B268" s="307"/>
-      <c r="C268" s="322"/>
-      <c r="D268" s="316"/>
+      <c r="B268" s="313"/>
+      <c r="C268" s="318"/>
+      <c r="D268" s="304"/>
       <c r="E268" s="175"/>
       <c r="F268" s="175"/>
       <c r="G268" s="177" t="s">
@@ -26836,9 +26848,9 @@
     </row>
     <row r="269" spans="1:13" ht="14.25" customHeight="1">
       <c r="A269" s="181"/>
-      <c r="B269" s="307"/>
-      <c r="C269" s="322"/>
-      <c r="D269" s="316"/>
+      <c r="B269" s="313"/>
+      <c r="C269" s="318"/>
+      <c r="D269" s="304"/>
       <c r="E269" s="175"/>
       <c r="F269" s="175"/>
       <c r="G269" s="177" t="s">
@@ -26855,9 +26867,9 @@
     </row>
     <row r="270" spans="1:13" ht="14.25" customHeight="1">
       <c r="A270" s="181"/>
-      <c r="B270" s="307"/>
-      <c r="C270" s="322"/>
-      <c r="D270" s="316"/>
+      <c r="B270" s="313"/>
+      <c r="C270" s="318"/>
+      <c r="D270" s="304"/>
       <c r="E270" s="175"/>
       <c r="F270" s="175"/>
       <c r="G270" s="177" t="s">
@@ -26874,9 +26886,9 @@
     </row>
     <row r="271" spans="1:13" ht="14.25" customHeight="1">
       <c r="A271" s="181"/>
-      <c r="B271" s="307"/>
-      <c r="C271" s="322"/>
-      <c r="D271" s="316"/>
+      <c r="B271" s="313"/>
+      <c r="C271" s="318"/>
+      <c r="D271" s="304"/>
       <c r="E271" s="175"/>
       <c r="F271" s="175"/>
       <c r="G271" s="177" t="s">
@@ -26893,9 +26905,9 @@
     </row>
     <row r="272" spans="1:13" ht="14.25" customHeight="1">
       <c r="A272" s="181"/>
-      <c r="B272" s="307"/>
-      <c r="C272" s="322"/>
-      <c r="D272" s="316"/>
+      <c r="B272" s="313"/>
+      <c r="C272" s="318"/>
+      <c r="D272" s="304"/>
       <c r="E272" s="175"/>
       <c r="F272" s="175"/>
       <c r="G272" s="177" t="s">
@@ -26912,9 +26924,9 @@
     </row>
     <row r="273" spans="1:13" ht="14.25" customHeight="1">
       <c r="A273" s="181"/>
-      <c r="B273" s="307"/>
-      <c r="C273" s="322"/>
-      <c r="D273" s="316"/>
+      <c r="B273" s="313"/>
+      <c r="C273" s="318"/>
+      <c r="D273" s="304"/>
       <c r="E273" s="175"/>
       <c r="F273" s="175"/>
       <c r="G273" s="177" t="s">
@@ -26931,9 +26943,9 @@
     </row>
     <row r="274" spans="1:13" ht="14.25" customHeight="1">
       <c r="A274" s="181"/>
-      <c r="B274" s="307"/>
-      <c r="C274" s="322"/>
-      <c r="D274" s="316"/>
+      <c r="B274" s="313"/>
+      <c r="C274" s="318"/>
+      <c r="D274" s="304"/>
       <c r="E274" s="175"/>
       <c r="F274" s="175"/>
       <c r="G274" s="177" t="s">
@@ -26950,9 +26962,9 @@
     </row>
     <row r="275" spans="1:13" ht="14.25" customHeight="1">
       <c r="A275" s="181"/>
-      <c r="B275" s="307"/>
-      <c r="C275" s="322"/>
-      <c r="D275" s="316"/>
+      <c r="B275" s="313"/>
+      <c r="C275" s="318"/>
+      <c r="D275" s="304"/>
       <c r="E275" s="175"/>
       <c r="F275" s="175"/>
       <c r="G275" s="177" t="s">
@@ -26969,9 +26981,9 @@
     </row>
     <row r="276" spans="1:13" ht="14.25" customHeight="1">
       <c r="A276" s="181"/>
-      <c r="B276" s="307"/>
-      <c r="C276" s="322"/>
-      <c r="D276" s="316"/>
+      <c r="B276" s="313"/>
+      <c r="C276" s="318"/>
+      <c r="D276" s="304"/>
       <c r="E276" s="175"/>
       <c r="F276" s="175"/>
       <c r="G276" s="177" t="s">
@@ -26988,9 +27000,9 @@
     </row>
     <row r="277" spans="1:13" ht="14.25" customHeight="1">
       <c r="A277" s="181"/>
-      <c r="B277" s="307"/>
-      <c r="C277" s="322"/>
-      <c r="D277" s="316"/>
+      <c r="B277" s="313"/>
+      <c r="C277" s="318"/>
+      <c r="D277" s="304"/>
       <c r="E277" s="175"/>
       <c r="F277" s="175"/>
       <c r="G277" s="177" t="s">
@@ -27007,9 +27019,9 @@
     </row>
     <row r="278" spans="1:13" ht="14.25" customHeight="1">
       <c r="A278" s="181"/>
-      <c r="B278" s="307"/>
-      <c r="C278" s="322"/>
-      <c r="D278" s="316"/>
+      <c r="B278" s="313"/>
+      <c r="C278" s="318"/>
+      <c r="D278" s="304"/>
       <c r="E278" s="175"/>
       <c r="F278" s="175"/>
       <c r="G278" s="177" t="s">
@@ -27026,9 +27038,9 @@
     </row>
     <row r="279" spans="1:13" ht="14.25" customHeight="1">
       <c r="A279" s="181"/>
-      <c r="B279" s="307"/>
-      <c r="C279" s="323"/>
-      <c r="D279" s="315"/>
+      <c r="B279" s="313"/>
+      <c r="C279" s="319"/>
+      <c r="D279" s="305"/>
       <c r="E279" s="175"/>
       <c r="F279" s="175"/>
       <c r="G279" s="177" t="s">
@@ -27045,11 +27057,11 @@
     </row>
     <row r="280" spans="1:13" ht="14.25" customHeight="1">
       <c r="A280" s="181"/>
-      <c r="B280" s="307"/>
-      <c r="C280" s="321" t="s">
+      <c r="B280" s="313"/>
+      <c r="C280" s="317" t="s">
         <v>1485</v>
       </c>
-      <c r="D280" s="314" t="s">
+      <c r="D280" s="303" t="s">
         <v>1486</v>
       </c>
       <c r="E280" s="175"/>
@@ -27068,9 +27080,9 @@
     </row>
     <row r="281" spans="1:13" ht="14.25" customHeight="1">
       <c r="A281" s="181"/>
-      <c r="B281" s="307"/>
-      <c r="C281" s="322"/>
-      <c r="D281" s="316"/>
+      <c r="B281" s="313"/>
+      <c r="C281" s="318"/>
+      <c r="D281" s="304"/>
       <c r="E281" s="175"/>
       <c r="F281" s="175"/>
       <c r="G281" s="177" t="s">
@@ -27087,9 +27099,9 @@
     </row>
     <row r="282" spans="1:13" ht="14.25" customHeight="1">
       <c r="A282" s="181"/>
-      <c r="B282" s="307"/>
-      <c r="C282" s="322"/>
-      <c r="D282" s="316"/>
+      <c r="B282" s="313"/>
+      <c r="C282" s="318"/>
+      <c r="D282" s="304"/>
       <c r="E282" s="175"/>
       <c r="F282" s="175"/>
       <c r="G282" s="177" t="s">
@@ -27106,9 +27118,9 @@
     </row>
     <row r="283" spans="1:13" ht="14.25" customHeight="1">
       <c r="A283" s="181"/>
-      <c r="B283" s="307"/>
-      <c r="C283" s="322"/>
-      <c r="D283" s="316"/>
+      <c r="B283" s="313"/>
+      <c r="C283" s="318"/>
+      <c r="D283" s="304"/>
       <c r="E283" s="175"/>
       <c r="F283" s="175"/>
       <c r="G283" s="177" t="s">
@@ -27125,9 +27137,9 @@
     </row>
     <row r="284" spans="1:13" ht="14.25" customHeight="1">
       <c r="A284" s="181"/>
-      <c r="B284" s="307"/>
-      <c r="C284" s="322"/>
-      <c r="D284" s="316"/>
+      <c r="B284" s="313"/>
+      <c r="C284" s="318"/>
+      <c r="D284" s="304"/>
       <c r="E284" s="175"/>
       <c r="F284" s="175"/>
       <c r="G284" s="177" t="s">
@@ -27144,9 +27156,9 @@
     </row>
     <row r="285" spans="1:13" ht="14.25" customHeight="1">
       <c r="A285" s="181"/>
-      <c r="B285" s="307"/>
-      <c r="C285" s="322"/>
-      <c r="D285" s="316"/>
+      <c r="B285" s="313"/>
+      <c r="C285" s="318"/>
+      <c r="D285" s="304"/>
       <c r="E285" s="175"/>
       <c r="F285" s="175"/>
       <c r="G285" s="177" t="s">
@@ -27163,9 +27175,9 @@
     </row>
     <row r="286" spans="1:13" ht="14.25" customHeight="1">
       <c r="A286" s="181"/>
-      <c r="B286" s="307"/>
-      <c r="C286" s="322"/>
-      <c r="D286" s="316"/>
+      <c r="B286" s="313"/>
+      <c r="C286" s="318"/>
+      <c r="D286" s="304"/>
       <c r="E286" s="175"/>
       <c r="F286" s="175"/>
       <c r="G286" s="177" t="s">
@@ -27182,9 +27194,9 @@
     </row>
     <row r="287" spans="1:13" ht="14.25" customHeight="1">
       <c r="A287" s="181"/>
-      <c r="B287" s="307"/>
-      <c r="C287" s="322"/>
-      <c r="D287" s="316"/>
+      <c r="B287" s="313"/>
+      <c r="C287" s="318"/>
+      <c r="D287" s="304"/>
       <c r="E287" s="175"/>
       <c r="F287" s="175"/>
       <c r="G287" s="177" t="s">
@@ -27201,9 +27213,9 @@
     </row>
     <row r="288" spans="1:13" ht="14.25" customHeight="1">
       <c r="A288" s="181"/>
-      <c r="B288" s="307"/>
-      <c r="C288" s="322"/>
-      <c r="D288" s="316"/>
+      <c r="B288" s="313"/>
+      <c r="C288" s="318"/>
+      <c r="D288" s="304"/>
       <c r="E288" s="175"/>
       <c r="F288" s="175"/>
       <c r="G288" s="177" t="s">
@@ -27220,9 +27232,9 @@
     </row>
     <row r="289" spans="1:13" ht="14.25" customHeight="1">
       <c r="A289" s="181"/>
-      <c r="B289" s="307"/>
-      <c r="C289" s="322"/>
-      <c r="D289" s="316"/>
+      <c r="B289" s="313"/>
+      <c r="C289" s="318"/>
+      <c r="D289" s="304"/>
       <c r="E289" s="175"/>
       <c r="F289" s="175"/>
       <c r="G289" s="177" t="s">
@@ -27239,9 +27251,9 @@
     </row>
     <row r="290" spans="1:13" ht="14.25" customHeight="1">
       <c r="A290" s="181"/>
-      <c r="B290" s="307"/>
-      <c r="C290" s="322"/>
-      <c r="D290" s="316"/>
+      <c r="B290" s="313"/>
+      <c r="C290" s="318"/>
+      <c r="D290" s="304"/>
       <c r="E290" s="175"/>
       <c r="F290" s="175"/>
       <c r="G290" s="177" t="s">
@@ -27258,9 +27270,9 @@
     </row>
     <row r="291" spans="1:13" ht="14.25" customHeight="1">
       <c r="A291" s="181"/>
-      <c r="B291" s="307"/>
-      <c r="C291" s="322"/>
-      <c r="D291" s="316"/>
+      <c r="B291" s="313"/>
+      <c r="C291" s="318"/>
+      <c r="D291" s="304"/>
       <c r="E291" s="175"/>
       <c r="F291" s="175"/>
       <c r="G291" s="177" t="s">
@@ -27277,9 +27289,9 @@
     </row>
     <row r="292" spans="1:13" ht="14.25" customHeight="1">
       <c r="A292" s="181"/>
-      <c r="B292" s="307"/>
-      <c r="C292" s="322"/>
-      <c r="D292" s="316"/>
+      <c r="B292" s="313"/>
+      <c r="C292" s="318"/>
+      <c r="D292" s="304"/>
       <c r="E292" s="175"/>
       <c r="F292" s="175"/>
       <c r="G292" s="177" t="s">
@@ -27296,9 +27308,9 @@
     </row>
     <row r="293" spans="1:13" ht="14.25" customHeight="1">
       <c r="A293" s="181"/>
-      <c r="B293" s="307"/>
-      <c r="C293" s="322"/>
-      <c r="D293" s="316"/>
+      <c r="B293" s="313"/>
+      <c r="C293" s="318"/>
+      <c r="D293" s="304"/>
       <c r="E293" s="175"/>
       <c r="F293" s="175"/>
       <c r="G293" s="177" t="s">
@@ -27315,9 +27327,9 @@
     </row>
     <row r="294" spans="1:13" ht="14.25" customHeight="1">
       <c r="A294" s="181"/>
-      <c r="B294" s="307"/>
-      <c r="C294" s="322"/>
-      <c r="D294" s="316"/>
+      <c r="B294" s="313"/>
+      <c r="C294" s="318"/>
+      <c r="D294" s="304"/>
       <c r="E294" s="175"/>
       <c r="F294" s="175"/>
       <c r="G294" s="177" t="s">
@@ -27334,9 +27346,9 @@
     </row>
     <row r="295" spans="1:13" ht="14.25" customHeight="1">
       <c r="A295" s="181"/>
-      <c r="B295" s="307"/>
-      <c r="C295" s="322"/>
-      <c r="D295" s="316"/>
+      <c r="B295" s="313"/>
+      <c r="C295" s="318"/>
+      <c r="D295" s="304"/>
       <c r="E295" s="175"/>
       <c r="F295" s="175"/>
       <c r="G295" s="177" t="s">
@@ -27353,9 +27365,9 @@
     </row>
     <row r="296" spans="1:13" ht="14.25" customHeight="1">
       <c r="A296" s="181"/>
-      <c r="B296" s="307"/>
-      <c r="C296" s="322"/>
-      <c r="D296" s="316"/>
+      <c r="B296" s="313"/>
+      <c r="C296" s="318"/>
+      <c r="D296" s="304"/>
       <c r="E296" s="175"/>
       <c r="F296" s="175"/>
       <c r="G296" s="177" t="s">
@@ -27372,9 +27384,9 @@
     </row>
     <row r="297" spans="1:13" ht="14.25" customHeight="1">
       <c r="A297" s="181"/>
-      <c r="B297" s="307"/>
-      <c r="C297" s="322"/>
-      <c r="D297" s="316"/>
+      <c r="B297" s="313"/>
+      <c r="C297" s="318"/>
+      <c r="D297" s="304"/>
       <c r="E297" s="175"/>
       <c r="F297" s="175"/>
       <c r="G297" s="177" t="s">
@@ -27391,9 +27403,9 @@
     </row>
     <row r="298" spans="1:13" ht="14.25" customHeight="1">
       <c r="A298" s="181"/>
-      <c r="B298" s="307"/>
-      <c r="C298" s="322"/>
-      <c r="D298" s="316"/>
+      <c r="B298" s="313"/>
+      <c r="C298" s="318"/>
+      <c r="D298" s="304"/>
       <c r="E298" s="175"/>
       <c r="F298" s="175"/>
       <c r="G298" s="177" t="s">
@@ -27412,8 +27424,8 @@
       <c r="A299" s="183" t="s">
         <v>1487</v>
       </c>
-      <c r="B299" s="307"/>
-      <c r="C299" s="311" t="s">
+      <c r="B299" s="313"/>
+      <c r="C299" s="308" t="s">
         <v>3013</v>
       </c>
       <c r="D299" s="192" t="s">
@@ -27433,8 +27445,8 @@
     </row>
     <row r="300" spans="1:13" ht="14.25" customHeight="1">
       <c r="A300" s="183"/>
-      <c r="B300" s="308"/>
-      <c r="C300" s="313"/>
+      <c r="B300" s="314"/>
+      <c r="C300" s="310"/>
       <c r="D300" s="193" t="s">
         <v>2899</v>
       </c>
@@ -28119,7 +28131,7 @@
     </row>
     <row r="340" spans="1:13" ht="14.25" customHeight="1">
       <c r="A340" s="183"/>
-      <c r="B340" s="306" t="s">
+      <c r="B340" s="312" t="s">
         <v>3038</v>
       </c>
       <c r="C340" s="258" t="s">
@@ -28140,11 +28152,11 @@
     </row>
     <row r="341" spans="1:13" ht="14.25" customHeight="1">
       <c r="A341" s="183"/>
-      <c r="B341" s="307"/>
-      <c r="C341" s="330" t="s">
+      <c r="B341" s="313"/>
+      <c r="C341" s="311" t="s">
         <v>132</v>
       </c>
-      <c r="D341" s="314" t="s">
+      <c r="D341" s="303" t="s">
         <v>2149</v>
       </c>
       <c r="E341" s="175"/>
@@ -28161,9 +28173,9 @@
     </row>
     <row r="342" spans="1:13" ht="14.25" customHeight="1">
       <c r="A342" s="183"/>
-      <c r="B342" s="307"/>
-      <c r="C342" s="330"/>
-      <c r="D342" s="316"/>
+      <c r="B342" s="313"/>
+      <c r="C342" s="311"/>
+      <c r="D342" s="304"/>
       <c r="E342" s="175"/>
       <c r="F342" s="175"/>
       <c r="G342" s="177" t="s">
@@ -28180,9 +28192,9 @@
     </row>
     <row r="343" spans="1:13" ht="14.25" customHeight="1">
       <c r="A343" s="183"/>
-      <c r="B343" s="307"/>
-      <c r="C343" s="330"/>
-      <c r="D343" s="316"/>
+      <c r="B343" s="313"/>
+      <c r="C343" s="311"/>
+      <c r="D343" s="304"/>
       <c r="E343" s="175"/>
       <c r="F343" s="175"/>
       <c r="G343" s="177" t="s">
@@ -28199,9 +28211,9 @@
     </row>
     <row r="344" spans="1:13" ht="14.25" customHeight="1">
       <c r="A344" s="183"/>
-      <c r="B344" s="307"/>
-      <c r="C344" s="330"/>
-      <c r="D344" s="316"/>
+      <c r="B344" s="313"/>
+      <c r="C344" s="311"/>
+      <c r="D344" s="304"/>
       <c r="E344" s="174"/>
       <c r="F344" s="174"/>
       <c r="G344" s="259" t="s">
@@ -28218,9 +28230,9 @@
     </row>
     <row r="345" spans="1:13" ht="14.25" customHeight="1">
       <c r="A345" s="183"/>
-      <c r="B345" s="307"/>
-      <c r="C345" s="330"/>
-      <c r="D345" s="316"/>
+      <c r="B345" s="313"/>
+      <c r="C345" s="311"/>
+      <c r="D345" s="304"/>
       <c r="E345" s="174"/>
       <c r="F345" s="174"/>
       <c r="G345" s="259" t="s">
@@ -28237,9 +28249,9 @@
     </row>
     <row r="346" spans="1:13" ht="14.25" customHeight="1">
       <c r="A346" s="183"/>
-      <c r="B346" s="307"/>
-      <c r="C346" s="330"/>
-      <c r="D346" s="316"/>
+      <c r="B346" s="313"/>
+      <c r="C346" s="311"/>
+      <c r="D346" s="304"/>
       <c r="E346" s="174"/>
       <c r="F346" s="174"/>
       <c r="G346" s="259" t="s">
@@ -28256,9 +28268,9 @@
     </row>
     <row r="347" spans="1:13" ht="14.25" customHeight="1">
       <c r="A347" s="183"/>
-      <c r="B347" s="307"/>
-      <c r="C347" s="330"/>
-      <c r="D347" s="316"/>
+      <c r="B347" s="313"/>
+      <c r="C347" s="311"/>
+      <c r="D347" s="304"/>
       <c r="E347" s="174"/>
       <c r="F347" s="174"/>
       <c r="G347" s="259" t="s">
@@ -28275,9 +28287,9 @@
     </row>
     <row r="348" spans="1:13" ht="14.25" customHeight="1">
       <c r="A348" s="183"/>
-      <c r="B348" s="307"/>
-      <c r="C348" s="330"/>
-      <c r="D348" s="316"/>
+      <c r="B348" s="313"/>
+      <c r="C348" s="311"/>
+      <c r="D348" s="304"/>
       <c r="E348" s="174"/>
       <c r="F348" s="174"/>
       <c r="G348" s="259" t="s">
@@ -28294,9 +28306,9 @@
     </row>
     <row r="349" spans="1:13" ht="14.25" customHeight="1">
       <c r="A349" s="183"/>
-      <c r="B349" s="307"/>
-      <c r="C349" s="330"/>
-      <c r="D349" s="316"/>
+      <c r="B349" s="313"/>
+      <c r="C349" s="311"/>
+      <c r="D349" s="304"/>
       <c r="E349" s="174"/>
       <c r="F349" s="174"/>
       <c r="G349" s="259" t="s">
@@ -28313,9 +28325,9 @@
     </row>
     <row r="350" spans="1:13" ht="14.25" customHeight="1">
       <c r="A350" s="183"/>
-      <c r="B350" s="307"/>
-      <c r="C350" s="330"/>
-      <c r="D350" s="316"/>
+      <c r="B350" s="313"/>
+      <c r="C350" s="311"/>
+      <c r="D350" s="304"/>
       <c r="E350" s="174"/>
       <c r="F350" s="174"/>
       <c r="G350" s="259" t="s">
@@ -28332,9 +28344,9 @@
     </row>
     <row r="351" spans="1:13" ht="14.25" customHeight="1">
       <c r="A351" s="183"/>
-      <c r="B351" s="307"/>
-      <c r="C351" s="330"/>
-      <c r="D351" s="315"/>
+      <c r="B351" s="313"/>
+      <c r="C351" s="311"/>
+      <c r="D351" s="305"/>
       <c r="E351" s="174"/>
       <c r="F351" s="174"/>
       <c r="G351" s="259" t="s">
@@ -28351,8 +28363,8 @@
     </row>
     <row r="352" spans="1:13" ht="14.25" customHeight="1">
       <c r="A352" s="183"/>
-      <c r="B352" s="307"/>
-      <c r="C352" s="330"/>
+      <c r="B352" s="313"/>
+      <c r="C352" s="311"/>
       <c r="D352" s="260" t="s">
         <v>2160</v>
       </c>
@@ -28370,9 +28382,9 @@
     </row>
     <row r="353" spans="1:13" ht="14.25" customHeight="1">
       <c r="A353" s="183"/>
-      <c r="B353" s="307"/>
-      <c r="C353" s="330"/>
-      <c r="D353" s="309" t="s">
+      <c r="B353" s="313"/>
+      <c r="C353" s="311"/>
+      <c r="D353" s="332" t="s">
         <v>2175</v>
       </c>
       <c r="E353" s="174"/>
@@ -28393,9 +28405,9 @@
     </row>
     <row r="354" spans="1:13" ht="14.25" customHeight="1">
       <c r="A354" s="183"/>
-      <c r="B354" s="307"/>
-      <c r="C354" s="330"/>
-      <c r="D354" s="317"/>
+      <c r="B354" s="313"/>
+      <c r="C354" s="311"/>
+      <c r="D354" s="334"/>
       <c r="E354" s="174"/>
       <c r="F354" s="174"/>
       <c r="G354" s="259" t="s">
@@ -28412,9 +28424,9 @@
     </row>
     <row r="355" spans="1:13" ht="14.25" customHeight="1">
       <c r="A355" s="183"/>
-      <c r="B355" s="307"/>
-      <c r="C355" s="330"/>
-      <c r="D355" s="317"/>
+      <c r="B355" s="313"/>
+      <c r="C355" s="311"/>
+      <c r="D355" s="334"/>
       <c r="E355" s="174"/>
       <c r="F355" s="174"/>
       <c r="G355" s="259" t="s">
@@ -28433,9 +28445,9 @@
     </row>
     <row r="356" spans="1:13" ht="14.25" customHeight="1">
       <c r="A356" s="183"/>
-      <c r="B356" s="307"/>
-      <c r="C356" s="330"/>
-      <c r="D356" s="317"/>
+      <c r="B356" s="313"/>
+      <c r="C356" s="311"/>
+      <c r="D356" s="334"/>
       <c r="E356" s="174"/>
       <c r="F356" s="174"/>
       <c r="G356" s="259" t="s">
@@ -28452,9 +28464,9 @@
     </row>
     <row r="357" spans="1:13" ht="14.25" customHeight="1">
       <c r="A357" s="183"/>
-      <c r="B357" s="307"/>
-      <c r="C357" s="330"/>
-      <c r="D357" s="317"/>
+      <c r="B357" s="313"/>
+      <c r="C357" s="311"/>
+      <c r="D357" s="334"/>
       <c r="E357" s="174"/>
       <c r="F357" s="174"/>
       <c r="G357" s="259" t="s">
@@ -28473,9 +28485,9 @@
     </row>
     <row r="358" spans="1:13" ht="14.25" customHeight="1">
       <c r="A358" s="183"/>
-      <c r="B358" s="307"/>
-      <c r="C358" s="330"/>
-      <c r="D358" s="317"/>
+      <c r="B358" s="313"/>
+      <c r="C358" s="311"/>
+      <c r="D358" s="334"/>
       <c r="E358" s="174"/>
       <c r="F358" s="174"/>
       <c r="G358" s="259" t="s">
@@ -28492,9 +28504,9 @@
     </row>
     <row r="359" spans="1:13" ht="14.25" customHeight="1">
       <c r="A359" s="183"/>
-      <c r="B359" s="307"/>
-      <c r="C359" s="330"/>
-      <c r="D359" s="317"/>
+      <c r="B359" s="313"/>
+      <c r="C359" s="311"/>
+      <c r="D359" s="334"/>
       <c r="E359" s="174"/>
       <c r="F359" s="174"/>
       <c r="G359" s="259" t="s">
@@ -28513,9 +28525,9 @@
     </row>
     <row r="360" spans="1:13" ht="14.25" customHeight="1">
       <c r="A360" s="183"/>
-      <c r="B360" s="307"/>
-      <c r="C360" s="330"/>
-      <c r="D360" s="317"/>
+      <c r="B360" s="313"/>
+      <c r="C360" s="311"/>
+      <c r="D360" s="334"/>
       <c r="E360" s="174"/>
       <c r="F360" s="174"/>
       <c r="G360" s="259" t="s">
@@ -28532,9 +28544,9 @@
     </row>
     <row r="361" spans="1:13" ht="14.25" customHeight="1">
       <c r="A361" s="183"/>
-      <c r="B361" s="307"/>
-      <c r="C361" s="330"/>
-      <c r="D361" s="317"/>
+      <c r="B361" s="313"/>
+      <c r="C361" s="311"/>
+      <c r="D361" s="334"/>
       <c r="E361" s="174"/>
       <c r="F361" s="174"/>
       <c r="G361" s="259" t="s">
@@ -28553,9 +28565,9 @@
     </row>
     <row r="362" spans="1:13" ht="14.25" customHeight="1">
       <c r="A362" s="183"/>
-      <c r="B362" s="307"/>
-      <c r="C362" s="330"/>
-      <c r="D362" s="317"/>
+      <c r="B362" s="313"/>
+      <c r="C362" s="311"/>
+      <c r="D362" s="334"/>
       <c r="E362" s="174"/>
       <c r="F362" s="174"/>
       <c r="G362" s="261" t="s">
@@ -28576,9 +28588,9 @@
     </row>
     <row r="363" spans="1:13" ht="14.25" customHeight="1">
       <c r="A363" s="183"/>
-      <c r="B363" s="307"/>
-      <c r="C363" s="330"/>
-      <c r="D363" s="310"/>
+      <c r="B363" s="313"/>
+      <c r="C363" s="311"/>
+      <c r="D363" s="333"/>
       <c r="E363" s="174"/>
       <c r="F363" s="174"/>
       <c r="G363" s="261" t="s">
@@ -28597,9 +28609,9 @@
     </row>
     <row r="364" spans="1:13" ht="14.25" customHeight="1">
       <c r="A364" s="183"/>
-      <c r="B364" s="307"/>
-      <c r="C364" s="330"/>
-      <c r="D364" s="303" t="s">
+      <c r="B364" s="313"/>
+      <c r="C364" s="311"/>
+      <c r="D364" s="329" t="s">
         <v>2176</v>
       </c>
       <c r="E364" s="174"/>
@@ -28618,9 +28630,9 @@
     </row>
     <row r="365" spans="1:13" ht="14.25" customHeight="1">
       <c r="A365" s="183"/>
-      <c r="B365" s="307"/>
-      <c r="C365" s="330"/>
-      <c r="D365" s="304"/>
+      <c r="B365" s="313"/>
+      <c r="C365" s="311"/>
+      <c r="D365" s="330"/>
       <c r="E365" s="174"/>
       <c r="F365" s="174"/>
       <c r="G365" s="259" t="s">
@@ -28639,9 +28651,9 @@
     </row>
     <row r="366" spans="1:13" ht="14.25" customHeight="1">
       <c r="A366" s="183"/>
-      <c r="B366" s="307"/>
-      <c r="C366" s="330"/>
-      <c r="D366" s="304"/>
+      <c r="B366" s="313"/>
+      <c r="C366" s="311"/>
+      <c r="D366" s="330"/>
       <c r="E366" s="174"/>
       <c r="F366" s="174"/>
       <c r="G366" s="259" t="s">
@@ -28660,9 +28672,9 @@
     </row>
     <row r="367" spans="1:13" ht="14.25" customHeight="1">
       <c r="A367" s="183"/>
-      <c r="B367" s="307"/>
-      <c r="C367" s="330"/>
-      <c r="D367" s="305"/>
+      <c r="B367" s="313"/>
+      <c r="C367" s="311"/>
+      <c r="D367" s="331"/>
       <c r="E367" s="174"/>
       <c r="F367" s="174"/>
       <c r="G367" s="259" t="s">
@@ -28681,9 +28693,9 @@
     </row>
     <row r="368" spans="1:13" ht="14.25" customHeight="1">
       <c r="A368" s="183"/>
-      <c r="B368" s="307"/>
-      <c r="C368" s="330"/>
-      <c r="D368" s="303" t="s">
+      <c r="B368" s="313"/>
+      <c r="C368" s="311"/>
+      <c r="D368" s="329" t="s">
         <v>2177</v>
       </c>
       <c r="E368" s="174"/>
@@ -28704,9 +28716,9 @@
     </row>
     <row r="369" spans="1:13" ht="14.25" customHeight="1">
       <c r="A369" s="183"/>
-      <c r="B369" s="307"/>
-      <c r="C369" s="330"/>
-      <c r="D369" s="304"/>
+      <c r="B369" s="313"/>
+      <c r="C369" s="311"/>
+      <c r="D369" s="330"/>
       <c r="E369" s="174"/>
       <c r="F369" s="174"/>
       <c r="G369" s="259" t="s">
@@ -28725,9 +28737,9 @@
     </row>
     <row r="370" spans="1:13" ht="14.25" customHeight="1">
       <c r="A370" s="183"/>
-      <c r="B370" s="307"/>
-      <c r="C370" s="330"/>
-      <c r="D370" s="304"/>
+      <c r="B370" s="313"/>
+      <c r="C370" s="311"/>
+      <c r="D370" s="330"/>
       <c r="E370" s="174"/>
       <c r="F370" s="174"/>
       <c r="G370" s="259" t="s">
@@ -28746,9 +28758,9 @@
     </row>
     <row r="371" spans="1:13" ht="14.25" customHeight="1">
       <c r="A371" s="183"/>
-      <c r="B371" s="307"/>
-      <c r="C371" s="330"/>
-      <c r="D371" s="305"/>
+      <c r="B371" s="313"/>
+      <c r="C371" s="311"/>
+      <c r="D371" s="331"/>
       <c r="E371" s="174"/>
       <c r="F371" s="174"/>
       <c r="G371" s="259" t="s">
@@ -28767,9 +28779,9 @@
     </row>
     <row r="372" spans="1:13" ht="14.25" customHeight="1">
       <c r="A372" s="183"/>
-      <c r="B372" s="307"/>
-      <c r="C372" s="330"/>
-      <c r="D372" s="309" t="s">
+      <c r="B372" s="313"/>
+      <c r="C372" s="311"/>
+      <c r="D372" s="332" t="s">
         <v>2182</v>
       </c>
       <c r="E372" s="174"/>
@@ -28788,9 +28800,9 @@
     </row>
     <row r="373" spans="1:13" ht="14.25" customHeight="1">
       <c r="A373" s="183"/>
-      <c r="B373" s="307"/>
-      <c r="C373" s="330"/>
-      <c r="D373" s="310"/>
+      <c r="B373" s="313"/>
+      <c r="C373" s="311"/>
+      <c r="D373" s="333"/>
       <c r="E373" s="174"/>
       <c r="F373" s="174"/>
       <c r="G373" s="259" t="s">
@@ -28809,8 +28821,8 @@
     </row>
     <row r="374" spans="1:13" ht="14.25" customHeight="1">
       <c r="A374" s="183"/>
-      <c r="B374" s="307"/>
-      <c r="C374" s="330"/>
+      <c r="B374" s="313"/>
+      <c r="C374" s="311"/>
       <c r="D374" s="288" t="s">
         <v>2183</v>
       </c>
@@ -28830,8 +28842,8 @@
     </row>
     <row r="375" spans="1:13" ht="18.95" customHeight="1">
       <c r="A375" s="183"/>
-      <c r="B375" s="307"/>
-      <c r="C375" s="330"/>
+      <c r="B375" s="313"/>
+      <c r="C375" s="311"/>
       <c r="D375" s="263" t="s">
         <v>2189</v>
       </c>
@@ -28855,8 +28867,8 @@
     </row>
     <row r="376" spans="1:13" ht="14.25" customHeight="1">
       <c r="A376" s="183"/>
-      <c r="B376" s="307"/>
-      <c r="C376" s="330"/>
+      <c r="B376" s="313"/>
+      <c r="C376" s="311"/>
       <c r="D376" s="264" t="s">
         <v>2190</v>
       </c>
@@ -28874,8 +28886,8 @@
     </row>
     <row r="377" spans="1:13" ht="14.25" customHeight="1">
       <c r="A377" s="183"/>
-      <c r="B377" s="307"/>
-      <c r="C377" s="330"/>
+      <c r="B377" s="313"/>
+      <c r="C377" s="311"/>
       <c r="D377" s="260" t="s">
         <v>2206</v>
       </c>
@@ -28895,8 +28907,8 @@
     </row>
     <row r="378" spans="1:13" ht="14.25" customHeight="1">
       <c r="A378" s="183"/>
-      <c r="B378" s="307"/>
-      <c r="C378" s="330"/>
+      <c r="B378" s="313"/>
+      <c r="C378" s="311"/>
       <c r="D378" s="260"/>
       <c r="E378" s="174"/>
       <c r="F378" s="174"/>
@@ -28916,8 +28928,8 @@
     </row>
     <row r="379" spans="1:13" ht="14.25" customHeight="1">
       <c r="A379" s="183"/>
-      <c r="B379" s="307"/>
-      <c r="C379" s="330"/>
+      <c r="B379" s="313"/>
+      <c r="C379" s="311"/>
       <c r="D379" s="260"/>
       <c r="E379" s="174"/>
       <c r="F379" s="174"/>
@@ -28935,8 +28947,8 @@
     </row>
     <row r="380" spans="1:13" ht="14.25" customHeight="1">
       <c r="A380" s="183"/>
-      <c r="B380" s="307"/>
-      <c r="C380" s="330"/>
+      <c r="B380" s="313"/>
+      <c r="C380" s="311"/>
       <c r="D380" s="260" t="s">
         <v>2215</v>
       </c>
@@ -28956,8 +28968,8 @@
     </row>
     <row r="381" spans="1:13" ht="14.25" customHeight="1">
       <c r="A381" s="183"/>
-      <c r="B381" s="307"/>
-      <c r="C381" s="330"/>
+      <c r="B381" s="313"/>
+      <c r="C381" s="311"/>
       <c r="D381" s="260"/>
       <c r="E381" s="174"/>
       <c r="F381" s="174"/>
@@ -28977,8 +28989,8 @@
     </row>
     <row r="382" spans="1:13" ht="14.25" customHeight="1">
       <c r="A382" s="183"/>
-      <c r="B382" s="307"/>
-      <c r="C382" s="330"/>
+      <c r="B382" s="313"/>
+      <c r="C382" s="311"/>
       <c r="D382" s="260"/>
       <c r="E382" s="174"/>
       <c r="F382" s="174"/>
@@ -28996,8 +29008,8 @@
     </row>
     <row r="383" spans="1:13" ht="14.25" customHeight="1">
       <c r="A383" s="183"/>
-      <c r="B383" s="307"/>
-      <c r="C383" s="330"/>
+      <c r="B383" s="313"/>
+      <c r="C383" s="311"/>
       <c r="D383" s="260" t="s">
         <v>2216</v>
       </c>
@@ -29015,8 +29027,8 @@
     </row>
     <row r="384" spans="1:13" ht="14.25" customHeight="1">
       <c r="A384" s="183"/>
-      <c r="B384" s="307"/>
-      <c r="C384" s="330"/>
+      <c r="B384" s="313"/>
+      <c r="C384" s="311"/>
       <c r="D384" s="260" t="s">
         <v>2217</v>
       </c>
@@ -29034,7 +29046,7 @@
     </row>
     <row r="385" spans="1:13" ht="14.25" customHeight="1">
       <c r="A385" s="181"/>
-      <c r="B385" s="308"/>
+      <c r="B385" s="314"/>
       <c r="C385" s="265" t="s">
         <v>2218</v>
       </c>
@@ -29202,15 +29214,48 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="D136:D143"/>
-    <mergeCell ref="D158:D167"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="C119:C143"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="D364:D367"/>
+    <mergeCell ref="D368:D371"/>
+    <mergeCell ref="B340:B385"/>
+    <mergeCell ref="D372:D373"/>
+    <mergeCell ref="C168:C184"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="B195:B300"/>
+    <mergeCell ref="D341:D351"/>
+    <mergeCell ref="D353:D363"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="C195:C210"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="D198:D200"/>
+    <mergeCell ref="D242:D258"/>
+    <mergeCell ref="C211:C241"/>
+    <mergeCell ref="D211:D241"/>
+    <mergeCell ref="C259:C279"/>
+    <mergeCell ref="D259:D279"/>
+    <mergeCell ref="C280:C298"/>
+    <mergeCell ref="D280:D298"/>
+    <mergeCell ref="D205:D210"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="C75:C100"/>
+    <mergeCell ref="C101:C118"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D21:D66"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D104:D107"/>
     <mergeCell ref="C2:C66"/>
     <mergeCell ref="C341:C384"/>
     <mergeCell ref="B2:B66"/>
@@ -29227,48 +29272,15 @@
     <mergeCell ref="D168:D176"/>
     <mergeCell ref="C242:C258"/>
     <mergeCell ref="C299:C300"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D21:D66"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="C75:C100"/>
-    <mergeCell ref="C101:C118"/>
-    <mergeCell ref="C259:C279"/>
-    <mergeCell ref="D259:D279"/>
-    <mergeCell ref="C280:C298"/>
-    <mergeCell ref="D280:D298"/>
-    <mergeCell ref="D205:D210"/>
-    <mergeCell ref="D364:D367"/>
-    <mergeCell ref="D368:D371"/>
-    <mergeCell ref="B340:B385"/>
-    <mergeCell ref="D372:D373"/>
-    <mergeCell ref="C168:C184"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="B195:B300"/>
-    <mergeCell ref="D341:D351"/>
-    <mergeCell ref="D353:D363"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="C195:C210"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="D198:D200"/>
-    <mergeCell ref="D242:D258"/>
-    <mergeCell ref="C211:C241"/>
-    <mergeCell ref="D211:D241"/>
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="D136:D143"/>
+    <mergeCell ref="D158:D167"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="C119:C143"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="D147:D148"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39738,6 +39750,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B374:B402"/>
+    <mergeCell ref="C309:G309"/>
+    <mergeCell ref="C310:G310"/>
+    <mergeCell ref="C311:I311"/>
+    <mergeCell ref="B312:B337"/>
+    <mergeCell ref="C340:G340"/>
+    <mergeCell ref="C341:G341"/>
+    <mergeCell ref="C342:I342"/>
+    <mergeCell ref="B343:B368"/>
+    <mergeCell ref="C371:G371"/>
+    <mergeCell ref="C372:G372"/>
+    <mergeCell ref="C373:I373"/>
+    <mergeCell ref="B260:B307"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="B226:B253"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:I259"/>
+    <mergeCell ref="B167:B192"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="B90:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="B118:B161"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C166:I166"/>
     <mergeCell ref="B69:B84"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -39750,42 +39798,6 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:I68"/>
-    <mergeCell ref="B167:B192"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="B90:B112"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:B161"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B260:B307"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="B198:B220"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="B226:B253"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C259:I259"/>
-    <mergeCell ref="B374:B402"/>
-    <mergeCell ref="C309:G309"/>
-    <mergeCell ref="C310:G310"/>
-    <mergeCell ref="C311:I311"/>
-    <mergeCell ref="B312:B337"/>
-    <mergeCell ref="C340:G340"/>
-    <mergeCell ref="C341:G341"/>
-    <mergeCell ref="C342:I342"/>
-    <mergeCell ref="B343:B368"/>
-    <mergeCell ref="C371:G371"/>
-    <mergeCell ref="C372:G372"/>
-    <mergeCell ref="C373:I373"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -39798,8 +39810,8 @@
   <dimension ref="A1:H414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E159" sqref="E159"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -50406,7 +50418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -54221,10 +54233,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X29"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -54588,6 +54600,19 @@
         <v>3070</v>
       </c>
     </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3073</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03.指标管理/大宗/指标定义表V2.1.4.xlsx
+++ b/03.指标管理/大宗/指标定义表V2.1.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="705" activeTab="8"/>
+    <workbookView minimized="1" xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="705"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6020" uniqueCount="3074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6033" uniqueCount="3077">
   <si>
     <t>文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -18060,6 +18060,18 @@
   </si>
   <si>
     <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出入金流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易所编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -19802,19 +19814,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19826,22 +19847,25 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19852,15 +19876,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19880,32 +19895,29 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -21058,8 +21070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M412"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="G305" sqref="G305"/>
     </sheetView>
@@ -21119,13 +21131,13 @@
       <c r="A2" s="174">
         <v>1</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="306" t="s">
         <v>1334</v>
       </c>
-      <c r="C2" s="308" t="s">
+      <c r="C2" s="311" t="s">
         <v>1335</v>
       </c>
-      <c r="D2" s="306" t="s">
+      <c r="D2" s="331" t="s">
         <v>179</v>
       </c>
       <c r="E2" s="175" t="s">
@@ -21158,9 +21170,9 @@
       <c r="A3" s="174">
         <v>2</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="315"/>
+      <c r="B3" s="307"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="332"/>
       <c r="E3" s="175" t="s">
         <v>1340</v>
       </c>
@@ -21185,9 +21197,9 @@
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4" s="174"/>
-      <c r="B4" s="313"/>
-      <c r="C4" s="309"/>
-      <c r="D4" s="315"/>
+      <c r="B4" s="307"/>
+      <c r="C4" s="312"/>
+      <c r="D4" s="332"/>
       <c r="E4" s="175" t="s">
         <v>1343</v>
       </c>
@@ -21210,9 +21222,9 @@
     </row>
     <row r="5" spans="1:13" s="161" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="182"/>
-      <c r="B5" s="313"/>
-      <c r="C5" s="309"/>
-      <c r="D5" s="315"/>
+      <c r="B5" s="307"/>
+      <c r="C5" s="312"/>
+      <c r="D5" s="332"/>
       <c r="E5" s="183"/>
       <c r="F5" s="184"/>
       <c r="G5" s="177" t="s">
@@ -21237,9 +21249,9 @@
     </row>
     <row r="6" spans="1:13" ht="49.5">
       <c r="A6" s="174"/>
-      <c r="B6" s="313"/>
-      <c r="C6" s="309"/>
-      <c r="D6" s="315"/>
+      <c r="B6" s="307"/>
+      <c r="C6" s="312"/>
+      <c r="D6" s="332"/>
       <c r="E6" s="175"/>
       <c r="F6" s="176"/>
       <c r="G6" s="177" t="s">
@@ -21258,9 +21270,9 @@
     </row>
     <row r="7" spans="1:13" ht="33">
       <c r="A7" s="174"/>
-      <c r="B7" s="313"/>
-      <c r="C7" s="309"/>
-      <c r="D7" s="315"/>
+      <c r="B7" s="307"/>
+      <c r="C7" s="312"/>
+      <c r="D7" s="332"/>
       <c r="E7" s="175"/>
       <c r="F7" s="176"/>
       <c r="G7" s="177" t="s">
@@ -21279,8 +21291,8 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="174"/>
-      <c r="B8" s="313"/>
-      <c r="C8" s="309"/>
+      <c r="B8" s="307"/>
+      <c r="C8" s="312"/>
       <c r="D8" s="188"/>
       <c r="E8" s="175"/>
       <c r="F8" s="176"/>
@@ -21298,8 +21310,8 @@
     </row>
     <row r="9" spans="1:13" ht="66">
       <c r="A9" s="174"/>
-      <c r="B9" s="313"/>
-      <c r="C9" s="309"/>
+      <c r="B9" s="307"/>
+      <c r="C9" s="312"/>
       <c r="D9" s="188"/>
       <c r="E9" s="175"/>
       <c r="F9" s="176"/>
@@ -21319,8 +21331,8 @@
     </row>
     <row r="10" spans="1:13" ht="25.5" customHeight="1">
       <c r="A10" s="174"/>
-      <c r="B10" s="313"/>
-      <c r="C10" s="309"/>
+      <c r="B10" s="307"/>
+      <c r="C10" s="312"/>
       <c r="D10" s="188"/>
       <c r="E10" s="175"/>
       <c r="F10" s="176"/>
@@ -21340,8 +21352,8 @@
     </row>
     <row r="11" spans="1:13" s="161" customFormat="1" ht="87.75" customHeight="1">
       <c r="A11" s="182"/>
-      <c r="B11" s="313"/>
-      <c r="C11" s="309"/>
+      <c r="B11" s="307"/>
+      <c r="C11" s="312"/>
       <c r="D11" s="191" t="s">
         <v>0</v>
       </c>
@@ -21363,8 +21375,8 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
       <c r="A12" s="174"/>
-      <c r="B12" s="313"/>
-      <c r="C12" s="309"/>
+      <c r="B12" s="307"/>
+      <c r="C12" s="312"/>
       <c r="D12" s="192" t="s">
         <v>0</v>
       </c>
@@ -21386,8 +21398,8 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13" s="174"/>
-      <c r="B13" s="313"/>
-      <c r="C13" s="309"/>
+      <c r="B13" s="307"/>
+      <c r="C13" s="312"/>
       <c r="D13" s="192" t="s">
         <v>0</v>
       </c>
@@ -21409,8 +21421,8 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="174"/>
-      <c r="B14" s="313"/>
-      <c r="C14" s="309"/>
+      <c r="B14" s="307"/>
+      <c r="C14" s="312"/>
       <c r="D14" s="193" t="s">
         <v>2231</v>
       </c>
@@ -21434,8 +21446,8 @@
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="174"/>
-      <c r="B15" s="313"/>
-      <c r="C15" s="309"/>
+      <c r="B15" s="307"/>
+      <c r="C15" s="312"/>
       <c r="D15" s="193"/>
       <c r="E15" s="175"/>
       <c r="F15" s="176"/>
@@ -21455,9 +21467,9 @@
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" s="174"/>
-      <c r="B16" s="313"/>
-      <c r="C16" s="309"/>
-      <c r="D16" s="303" t="s">
+      <c r="B16" s="307"/>
+      <c r="C16" s="312"/>
+      <c r="D16" s="314" t="s">
         <v>1353</v>
       </c>
       <c r="E16" s="175"/>
@@ -21478,9 +21490,9 @@
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1">
       <c r="A17" s="174"/>
-      <c r="B17" s="313"/>
-      <c r="C17" s="309"/>
-      <c r="D17" s="304"/>
+      <c r="B17" s="307"/>
+      <c r="C17" s="312"/>
+      <c r="D17" s="316"/>
       <c r="E17" s="175"/>
       <c r="F17" s="176"/>
       <c r="G17" s="177" t="s">
@@ -21499,9 +21511,9 @@
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" s="174"/>
-      <c r="B18" s="313"/>
-      <c r="C18" s="309"/>
-      <c r="D18" s="305"/>
+      <c r="B18" s="307"/>
+      <c r="C18" s="312"/>
+      <c r="D18" s="315"/>
       <c r="E18" s="175"/>
       <c r="F18" s="176"/>
       <c r="G18" s="177" t="s">
@@ -21518,8 +21530,8 @@
     </row>
     <row r="19" spans="1:13" s="161" customFormat="1" ht="33">
       <c r="A19" s="182"/>
-      <c r="B19" s="313"/>
-      <c r="C19" s="309"/>
+      <c r="B19" s="307"/>
+      <c r="C19" s="312"/>
       <c r="D19" s="191" t="s">
         <v>1358</v>
       </c>
@@ -21543,8 +21555,8 @@
     </row>
     <row r="20" spans="1:13" ht="33">
       <c r="A20" s="174"/>
-      <c r="B20" s="313"/>
-      <c r="C20" s="309"/>
+      <c r="B20" s="307"/>
+      <c r="C20" s="312"/>
       <c r="D20" s="192" t="s">
         <v>1360</v>
       </c>
@@ -21568,9 +21580,9 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
       <c r="A21" s="174"/>
-      <c r="B21" s="313"/>
-      <c r="C21" s="309"/>
-      <c r="D21" s="312" t="s">
+      <c r="B21" s="307"/>
+      <c r="C21" s="312"/>
+      <c r="D21" s="306" t="s">
         <v>1362</v>
       </c>
       <c r="E21" s="175"/>
@@ -21591,9 +21603,9 @@
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
       <c r="A22" s="174"/>
-      <c r="B22" s="313"/>
-      <c r="C22" s="309"/>
-      <c r="D22" s="313"/>
+      <c r="B22" s="307"/>
+      <c r="C22" s="312"/>
+      <c r="D22" s="307"/>
       <c r="E22" s="175"/>
       <c r="F22" s="176"/>
       <c r="G22" s="177" t="s">
@@ -21612,9 +21624,9 @@
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1">
       <c r="A23" s="174"/>
-      <c r="B23" s="313"/>
-      <c r="C23" s="309"/>
-      <c r="D23" s="313"/>
+      <c r="B23" s="307"/>
+      <c r="C23" s="312"/>
+      <c r="D23" s="307"/>
       <c r="E23" s="175"/>
       <c r="F23" s="176"/>
       <c r="G23" s="177" t="s">
@@ -21635,9 +21647,9 @@
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1">
       <c r="A24" s="174"/>
-      <c r="B24" s="313"/>
-      <c r="C24" s="309"/>
-      <c r="D24" s="313"/>
+      <c r="B24" s="307"/>
+      <c r="C24" s="312"/>
+      <c r="D24" s="307"/>
       <c r="E24" s="175"/>
       <c r="F24" s="176"/>
       <c r="G24" s="177" t="s">
@@ -21658,9 +21670,9 @@
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1">
       <c r="A25" s="174"/>
-      <c r="B25" s="313"/>
-      <c r="C25" s="309"/>
-      <c r="D25" s="313"/>
+      <c r="B25" s="307"/>
+      <c r="C25" s="312"/>
+      <c r="D25" s="307"/>
       <c r="E25" s="175"/>
       <c r="F25" s="176"/>
       <c r="G25" s="177" t="s">
@@ -21679,9 +21691,9 @@
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="313"/>
-      <c r="C26" s="309"/>
-      <c r="D26" s="313"/>
+      <c r="B26" s="307"/>
+      <c r="C26" s="312"/>
+      <c r="D26" s="307"/>
       <c r="E26" s="175"/>
       <c r="F26" s="176"/>
       <c r="G26" s="177" t="s">
@@ -21702,9 +21714,9 @@
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="313"/>
-      <c r="C27" s="309"/>
-      <c r="D27" s="313"/>
+      <c r="B27" s="307"/>
+      <c r="C27" s="312"/>
+      <c r="D27" s="307"/>
       <c r="E27" s="175"/>
       <c r="F27" s="176"/>
       <c r="G27" s="197" t="s">
@@ -21725,9 +21737,9 @@
     </row>
     <row r="28" spans="1:13" ht="66">
       <c r="A28" s="174"/>
-      <c r="B28" s="313"/>
-      <c r="C28" s="309"/>
-      <c r="D28" s="313"/>
+      <c r="B28" s="307"/>
+      <c r="C28" s="312"/>
+      <c r="D28" s="307"/>
       <c r="E28" s="175"/>
       <c r="F28" s="176"/>
       <c r="G28" s="195" t="s">
@@ -21748,9 +21760,9 @@
     </row>
     <row r="29" spans="1:13" s="151" customFormat="1" ht="33">
       <c r="A29" s="199"/>
-      <c r="B29" s="313"/>
-      <c r="C29" s="309"/>
-      <c r="D29" s="313"/>
+      <c r="B29" s="307"/>
+      <c r="C29" s="312"/>
+      <c r="D29" s="307"/>
       <c r="E29" s="175"/>
       <c r="F29" s="176"/>
       <c r="G29" s="200" t="s">
@@ -21771,9 +21783,9 @@
     </row>
     <row r="30" spans="1:13" ht="49.5">
       <c r="A30" s="174"/>
-      <c r="B30" s="313"/>
-      <c r="C30" s="309"/>
-      <c r="D30" s="313"/>
+      <c r="B30" s="307"/>
+      <c r="C30" s="312"/>
+      <c r="D30" s="307"/>
       <c r="E30" s="175"/>
       <c r="F30" s="176"/>
       <c r="G30" s="195" t="s">
@@ -21794,9 +21806,9 @@
     </row>
     <row r="31" spans="1:13" ht="247.5">
       <c r="A31" s="174"/>
-      <c r="B31" s="313"/>
-      <c r="C31" s="309"/>
-      <c r="D31" s="313"/>
+      <c r="B31" s="307"/>
+      <c r="C31" s="312"/>
+      <c r="D31" s="307"/>
       <c r="E31" s="175"/>
       <c r="F31" s="176"/>
       <c r="G31" s="195" t="s">
@@ -21819,9 +21831,9 @@
     </row>
     <row r="32" spans="1:13" ht="159" customHeight="1">
       <c r="A32" s="174"/>
-      <c r="B32" s="313"/>
-      <c r="C32" s="309"/>
-      <c r="D32" s="313"/>
+      <c r="B32" s="307"/>
+      <c r="C32" s="312"/>
+      <c r="D32" s="307"/>
       <c r="E32" s="175"/>
       <c r="F32" s="176"/>
       <c r="G32" s="195" t="s">
@@ -21842,9 +21854,9 @@
     </row>
     <row r="33" spans="1:13" ht="102.75" customHeight="1">
       <c r="A33" s="174"/>
-      <c r="B33" s="313"/>
-      <c r="C33" s="309"/>
-      <c r="D33" s="313"/>
+      <c r="B33" s="307"/>
+      <c r="C33" s="312"/>
+      <c r="D33" s="307"/>
       <c r="E33" s="175"/>
       <c r="F33" s="176"/>
       <c r="G33" s="195" t="s">
@@ -21865,9 +21877,9 @@
     </row>
     <row r="34" spans="1:13" ht="83.25" customHeight="1">
       <c r="A34" s="174"/>
-      <c r="B34" s="313"/>
-      <c r="C34" s="309"/>
-      <c r="D34" s="313"/>
+      <c r="B34" s="307"/>
+      <c r="C34" s="312"/>
+      <c r="D34" s="307"/>
       <c r="E34" s="175"/>
       <c r="F34" s="176"/>
       <c r="G34" s="195" t="s">
@@ -21888,9 +21900,9 @@
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="174"/>
-      <c r="B35" s="313"/>
-      <c r="C35" s="309"/>
-      <c r="D35" s="313"/>
+      <c r="B35" s="307"/>
+      <c r="C35" s="312"/>
+      <c r="D35" s="307"/>
       <c r="E35" s="175"/>
       <c r="F35" s="176"/>
       <c r="G35" s="208" t="s">
@@ -21911,9 +21923,9 @@
     </row>
     <row r="36" spans="1:13" ht="41.25" customHeight="1">
       <c r="A36" s="174"/>
-      <c r="B36" s="313"/>
-      <c r="C36" s="309"/>
-      <c r="D36" s="313"/>
+      <c r="B36" s="307"/>
+      <c r="C36" s="312"/>
+      <c r="D36" s="307"/>
       <c r="E36" s="175"/>
       <c r="F36" s="176"/>
       <c r="G36" s="210" t="s">
@@ -21934,9 +21946,9 @@
     </row>
     <row r="37" spans="1:13" ht="45" customHeight="1">
       <c r="A37" s="174"/>
-      <c r="B37" s="313"/>
-      <c r="C37" s="309"/>
-      <c r="D37" s="313"/>
+      <c r="B37" s="307"/>
+      <c r="C37" s="312"/>
+      <c r="D37" s="307"/>
       <c r="E37" s="175"/>
       <c r="F37" s="176"/>
       <c r="G37" s="195" t="s">
@@ -21957,9 +21969,9 @@
     </row>
     <row r="38" spans="1:13" ht="43.5" customHeight="1">
       <c r="A38" s="174"/>
-      <c r="B38" s="313"/>
-      <c r="C38" s="309"/>
-      <c r="D38" s="313"/>
+      <c r="B38" s="307"/>
+      <c r="C38" s="312"/>
+      <c r="D38" s="307"/>
       <c r="E38" s="175"/>
       <c r="F38" s="176"/>
       <c r="G38" s="195" t="s">
@@ -21980,9 +21992,9 @@
     </row>
     <row r="39" spans="1:13" ht="49.5">
       <c r="A39" s="174"/>
-      <c r="B39" s="313"/>
-      <c r="C39" s="309"/>
-      <c r="D39" s="313"/>
+      <c r="B39" s="307"/>
+      <c r="C39" s="312"/>
+      <c r="D39" s="307"/>
       <c r="E39" s="175"/>
       <c r="F39" s="176"/>
       <c r="G39" s="195" t="s">
@@ -22003,9 +22015,9 @@
     </row>
     <row r="40" spans="1:13" ht="18" thickBot="1">
       <c r="A40" s="174"/>
-      <c r="B40" s="313"/>
-      <c r="C40" s="309"/>
-      <c r="D40" s="313"/>
+      <c r="B40" s="307"/>
+      <c r="C40" s="312"/>
+      <c r="D40" s="307"/>
       <c r="E40" s="175"/>
       <c r="F40" s="176"/>
       <c r="G40" s="200" t="s">
@@ -22026,9 +22038,9 @@
     </row>
     <row r="41" spans="1:13" ht="38.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="174"/>
-      <c r="B41" s="313"/>
-      <c r="C41" s="309"/>
-      <c r="D41" s="313"/>
+      <c r="B41" s="307"/>
+      <c r="C41" s="312"/>
+      <c r="D41" s="307"/>
       <c r="E41" s="175"/>
       <c r="F41" s="176"/>
       <c r="G41" s="213" t="s">
@@ -22049,9 +22061,9 @@
     </row>
     <row r="42" spans="1:13" ht="214.5">
       <c r="A42" s="174"/>
-      <c r="B42" s="313"/>
-      <c r="C42" s="309"/>
-      <c r="D42" s="313"/>
+      <c r="B42" s="307"/>
+      <c r="C42" s="312"/>
+      <c r="D42" s="307"/>
       <c r="E42" s="175"/>
       <c r="F42" s="176"/>
       <c r="G42" s="210" t="s">
@@ -22072,9 +22084,9 @@
     </row>
     <row r="43" spans="1:13" ht="120" customHeight="1">
       <c r="A43" s="174"/>
-      <c r="B43" s="313"/>
-      <c r="C43" s="309"/>
-      <c r="D43" s="313"/>
+      <c r="B43" s="307"/>
+      <c r="C43" s="312"/>
+      <c r="D43" s="307"/>
       <c r="E43" s="175"/>
       <c r="F43" s="176"/>
       <c r="G43" s="195" t="s">
@@ -22095,9 +22107,9 @@
     </row>
     <row r="44" spans="1:13" ht="106.5" customHeight="1">
       <c r="A44" s="174"/>
-      <c r="B44" s="313"/>
-      <c r="C44" s="309"/>
-      <c r="D44" s="313"/>
+      <c r="B44" s="307"/>
+      <c r="C44" s="312"/>
+      <c r="D44" s="307"/>
       <c r="E44" s="175"/>
       <c r="F44" s="176"/>
       <c r="G44" s="195" t="s">
@@ -22118,9 +22130,9 @@
     </row>
     <row r="45" spans="1:13" ht="56.1" customHeight="1">
       <c r="A45" s="174"/>
-      <c r="B45" s="313"/>
-      <c r="C45" s="309"/>
-      <c r="D45" s="313"/>
+      <c r="B45" s="307"/>
+      <c r="C45" s="312"/>
+      <c r="D45" s="307"/>
       <c r="E45" s="175"/>
       <c r="F45" s="176"/>
       <c r="G45" s="195" t="s">
@@ -22141,9 +22153,9 @@
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="174"/>
-      <c r="B46" s="313"/>
-      <c r="C46" s="309"/>
-      <c r="D46" s="313"/>
+      <c r="B46" s="307"/>
+      <c r="C46" s="312"/>
+      <c r="D46" s="307"/>
       <c r="E46" s="175"/>
       <c r="F46" s="176"/>
       <c r="G46" s="195" t="s">
@@ -22166,9 +22178,9 @@
     </row>
     <row r="47" spans="1:13" ht="26.25" hidden="1" customHeight="1">
       <c r="A47" s="174"/>
-      <c r="B47" s="313"/>
-      <c r="C47" s="309"/>
-      <c r="D47" s="313"/>
+      <c r="B47" s="307"/>
+      <c r="C47" s="312"/>
+      <c r="D47" s="307"/>
       <c r="E47" s="175"/>
       <c r="F47" s="176"/>
       <c r="G47" s="217" t="s">
@@ -22189,9 +22201,9 @@
     </row>
     <row r="48" spans="1:13" ht="25.5" hidden="1" customHeight="1">
       <c r="A48" s="174"/>
-      <c r="B48" s="313"/>
-      <c r="C48" s="309"/>
-      <c r="D48" s="313"/>
+      <c r="B48" s="307"/>
+      <c r="C48" s="312"/>
+      <c r="D48" s="307"/>
       <c r="E48" s="175"/>
       <c r="F48" s="176"/>
       <c r="G48" s="217" t="s">
@@ -22208,9 +22220,9 @@
     </row>
     <row r="49" spans="1:13" ht="78" customHeight="1" thickBot="1">
       <c r="A49" s="174"/>
-      <c r="B49" s="313"/>
-      <c r="C49" s="309"/>
-      <c r="D49" s="313"/>
+      <c r="B49" s="307"/>
+      <c r="C49" s="312"/>
+      <c r="D49" s="307"/>
       <c r="E49" s="175"/>
       <c r="F49" s="176"/>
       <c r="G49" s="208" t="s">
@@ -22231,9 +22243,9 @@
     </row>
     <row r="50" spans="1:13" ht="41.25" customHeight="1">
       <c r="A50" s="174"/>
-      <c r="B50" s="313"/>
-      <c r="C50" s="309"/>
-      <c r="D50" s="313"/>
+      <c r="B50" s="307"/>
+      <c r="C50" s="312"/>
+      <c r="D50" s="307"/>
       <c r="E50" s="175"/>
       <c r="F50" s="176"/>
       <c r="G50" s="210" t="s">
@@ -22254,9 +22266,9 @@
     </row>
     <row r="51" spans="1:13" ht="43.5" customHeight="1">
       <c r="A51" s="174"/>
-      <c r="B51" s="313"/>
-      <c r="C51" s="309"/>
-      <c r="D51" s="313"/>
+      <c r="B51" s="307"/>
+      <c r="C51" s="312"/>
+      <c r="D51" s="307"/>
       <c r="E51" s="175"/>
       <c r="F51" s="176"/>
       <c r="G51" s="195" t="s">
@@ -22277,9 +22289,9 @@
     </row>
     <row r="52" spans="1:13" ht="46.5" customHeight="1">
       <c r="A52" s="174"/>
-      <c r="B52" s="313"/>
-      <c r="C52" s="309"/>
-      <c r="D52" s="313"/>
+      <c r="B52" s="307"/>
+      <c r="C52" s="312"/>
+      <c r="D52" s="307"/>
       <c r="E52" s="175"/>
       <c r="F52" s="176"/>
       <c r="G52" s="195" t="s">
@@ -22300,9 +22312,9 @@
     </row>
     <row r="53" spans="1:13" ht="42" customHeight="1">
       <c r="A53" s="174"/>
-      <c r="B53" s="313"/>
-      <c r="C53" s="309"/>
-      <c r="D53" s="313"/>
+      <c r="B53" s="307"/>
+      <c r="C53" s="312"/>
+      <c r="D53" s="307"/>
       <c r="E53" s="175"/>
       <c r="F53" s="176"/>
       <c r="G53" s="195" t="s">
@@ -22323,9 +22335,9 @@
     </row>
     <row r="54" spans="1:13" ht="38.25" customHeight="1">
       <c r="A54" s="174"/>
-      <c r="B54" s="313"/>
-      <c r="C54" s="309"/>
-      <c r="D54" s="313"/>
+      <c r="B54" s="307"/>
+      <c r="C54" s="312"/>
+      <c r="D54" s="307"/>
       <c r="E54" s="175"/>
       <c r="F54" s="176"/>
       <c r="G54" s="195" t="s">
@@ -22341,14 +22353,14 @@
         <v>2837</v>
       </c>
       <c r="K54" s="222"/>
-      <c r="L54" s="323"/>
+      <c r="L54" s="324"/>
       <c r="M54" s="181"/>
     </row>
     <row r="55" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="174"/>
-      <c r="B55" s="313"/>
-      <c r="C55" s="309"/>
-      <c r="D55" s="313"/>
+      <c r="B55" s="307"/>
+      <c r="C55" s="312"/>
+      <c r="D55" s="307"/>
       <c r="E55" s="175"/>
       <c r="F55" s="176"/>
       <c r="G55" s="217" t="s">
@@ -22360,14 +22372,14 @@
       <c r="I55" s="201"/>
       <c r="J55" s="223"/>
       <c r="K55" s="223"/>
-      <c r="L55" s="324"/>
+      <c r="L55" s="325"/>
       <c r="M55" s="181"/>
     </row>
     <row r="56" spans="1:13" ht="33">
       <c r="A56" s="174"/>
-      <c r="B56" s="313"/>
-      <c r="C56" s="309"/>
-      <c r="D56" s="313"/>
+      <c r="B56" s="307"/>
+      <c r="C56" s="312"/>
+      <c r="D56" s="307"/>
       <c r="E56" s="175"/>
       <c r="F56" s="176"/>
       <c r="G56" s="195" t="s">
@@ -22390,9 +22402,9 @@
     </row>
     <row r="57" spans="1:13" ht="28.5" hidden="1" customHeight="1">
       <c r="A57" s="174"/>
-      <c r="B57" s="313"/>
-      <c r="C57" s="309"/>
-      <c r="D57" s="313"/>
+      <c r="B57" s="307"/>
+      <c r="C57" s="312"/>
+      <c r="D57" s="307"/>
       <c r="E57" s="175"/>
       <c r="F57" s="176"/>
       <c r="G57" s="217" t="s">
@@ -22411,9 +22423,9 @@
     </row>
     <row r="58" spans="1:13" ht="30.75" customHeight="1">
       <c r="A58" s="174"/>
-      <c r="B58" s="313"/>
-      <c r="C58" s="309"/>
-      <c r="D58" s="313"/>
+      <c r="B58" s="307"/>
+      <c r="C58" s="312"/>
+      <c r="D58" s="307"/>
       <c r="E58" s="175"/>
       <c r="F58" s="176"/>
       <c r="G58" s="195" t="s">
@@ -22434,9 +22446,9 @@
     </row>
     <row r="59" spans="1:13" ht="46.5" customHeight="1" thickBot="1">
       <c r="A59" s="174"/>
-      <c r="B59" s="313"/>
-      <c r="C59" s="309"/>
-      <c r="D59" s="313"/>
+      <c r="B59" s="307"/>
+      <c r="C59" s="312"/>
+      <c r="D59" s="307"/>
       <c r="E59" s="175"/>
       <c r="F59" s="176"/>
       <c r="G59" s="195" t="s">
@@ -22457,9 +22469,9 @@
     </row>
     <row r="60" spans="1:13" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="174"/>
-      <c r="B60" s="313"/>
-      <c r="C60" s="309"/>
-      <c r="D60" s="313"/>
+      <c r="B60" s="307"/>
+      <c r="C60" s="312"/>
+      <c r="D60" s="307"/>
       <c r="E60" s="175"/>
       <c r="F60" s="176"/>
       <c r="G60" s="213" t="s">
@@ -22478,9 +22490,9 @@
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1">
       <c r="A61" s="174"/>
-      <c r="B61" s="313"/>
-      <c r="C61" s="309"/>
-      <c r="D61" s="313"/>
+      <c r="B61" s="307"/>
+      <c r="C61" s="312"/>
+      <c r="D61" s="307"/>
       <c r="E61" s="175"/>
       <c r="F61" s="176"/>
       <c r="G61" s="210" t="s">
@@ -22501,9 +22513,9 @@
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1">
       <c r="A62" s="174"/>
-      <c r="B62" s="313"/>
-      <c r="C62" s="309"/>
-      <c r="D62" s="313"/>
+      <c r="B62" s="307"/>
+      <c r="C62" s="312"/>
+      <c r="D62" s="307"/>
       <c r="E62" s="175"/>
       <c r="F62" s="176"/>
       <c r="G62" s="195" t="s">
@@ -22522,9 +22534,9 @@
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1">
       <c r="A63" s="174"/>
-      <c r="B63" s="313"/>
-      <c r="C63" s="309"/>
-      <c r="D63" s="313"/>
+      <c r="B63" s="307"/>
+      <c r="C63" s="312"/>
+      <c r="D63" s="307"/>
       <c r="E63" s="175"/>
       <c r="F63" s="176"/>
       <c r="G63" s="195" t="s">
@@ -22543,9 +22555,9 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="174"/>
-      <c r="B64" s="313"/>
-      <c r="C64" s="309"/>
-      <c r="D64" s="313"/>
+      <c r="B64" s="307"/>
+      <c r="C64" s="312"/>
+      <c r="D64" s="307"/>
       <c r="E64" s="175"/>
       <c r="F64" s="176"/>
       <c r="G64" s="208" t="s">
@@ -22564,9 +22576,9 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1">
       <c r="A65" s="174"/>
-      <c r="B65" s="313"/>
-      <c r="C65" s="309"/>
-      <c r="D65" s="313"/>
+      <c r="B65" s="307"/>
+      <c r="C65" s="312"/>
+      <c r="D65" s="307"/>
       <c r="E65" s="175"/>
       <c r="F65" s="176"/>
       <c r="G65" s="210" t="s">
@@ -22585,9 +22597,9 @@
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="174"/>
-      <c r="B66" s="314"/>
-      <c r="C66" s="310"/>
-      <c r="D66" s="314"/>
+      <c r="B66" s="308"/>
+      <c r="C66" s="313"/>
+      <c r="D66" s="308"/>
       <c r="E66" s="175"/>
       <c r="F66" s="176"/>
       <c r="G66" s="228" t="s">
@@ -22606,13 +22618,13 @@
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="174"/>
-      <c r="B67" s="312" t="s">
+      <c r="B67" s="306" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="308" t="s">
+      <c r="C67" s="311" t="s">
         <v>1373</v>
       </c>
-      <c r="D67" s="303" t="s">
+      <c r="D67" s="314" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="175"/>
@@ -22635,9 +22647,9 @@
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1">
       <c r="A68" s="174"/>
-      <c r="B68" s="313"/>
-      <c r="C68" s="309"/>
-      <c r="D68" s="304"/>
+      <c r="B68" s="307"/>
+      <c r="C68" s="312"/>
+      <c r="D68" s="316"/>
       <c r="E68" s="175"/>
       <c r="F68" s="176"/>
       <c r="G68" s="177" t="s">
@@ -22656,9 +22668,9 @@
     </row>
     <row r="69" spans="1:13" ht="14.25" customHeight="1">
       <c r="A69" s="174"/>
-      <c r="B69" s="313"/>
-      <c r="C69" s="309"/>
-      <c r="D69" s="305"/>
+      <c r="B69" s="307"/>
+      <c r="C69" s="312"/>
+      <c r="D69" s="315"/>
       <c r="E69" s="175"/>
       <c r="F69" s="176"/>
       <c r="G69" s="177" t="s">
@@ -22681,11 +22693,11 @@
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1">
       <c r="A70" s="174"/>
-      <c r="B70" s="313"/>
-      <c r="C70" s="308" t="s">
+      <c r="B70" s="307"/>
+      <c r="C70" s="311" t="s">
         <v>1376</v>
       </c>
-      <c r="D70" s="303" t="s">
+      <c r="D70" s="314" t="s">
         <v>1377</v>
       </c>
       <c r="E70" s="175"/>
@@ -22708,9 +22720,9 @@
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1">
       <c r="A71" s="174"/>
-      <c r="B71" s="313"/>
-      <c r="C71" s="309"/>
-      <c r="D71" s="304"/>
+      <c r="B71" s="307"/>
+      <c r="C71" s="312"/>
+      <c r="D71" s="316"/>
       <c r="E71" s="175"/>
       <c r="F71" s="176"/>
       <c r="G71" s="177" t="s">
@@ -22731,9 +22743,9 @@
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1">
       <c r="A72" s="174"/>
-      <c r="B72" s="313"/>
-      <c r="C72" s="309"/>
-      <c r="D72" s="304"/>
+      <c r="B72" s="307"/>
+      <c r="C72" s="312"/>
+      <c r="D72" s="316"/>
       <c r="E72" s="175"/>
       <c r="F72" s="176"/>
       <c r="G72" s="177" t="s">
@@ -22754,9 +22766,9 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1">
       <c r="A73" s="174"/>
-      <c r="B73" s="313"/>
-      <c r="C73" s="309"/>
-      <c r="D73" s="305"/>
+      <c r="B73" s="307"/>
+      <c r="C73" s="312"/>
+      <c r="D73" s="315"/>
       <c r="E73" s="175"/>
       <c r="F73" s="176"/>
       <c r="G73" s="177" t="s">
@@ -22777,8 +22789,8 @@
     </row>
     <row r="74" spans="1:13" ht="49.5">
       <c r="A74" s="174"/>
-      <c r="B74" s="313"/>
-      <c r="C74" s="309"/>
+      <c r="B74" s="307"/>
+      <c r="C74" s="312"/>
       <c r="D74" s="231" t="s">
         <v>5</v>
       </c>
@@ -22802,10 +22814,10 @@
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
       <c r="A75" s="232"/>
-      <c r="B75" s="303" t="s">
+      <c r="B75" s="314" t="s">
         <v>1383</v>
       </c>
-      <c r="C75" s="308" t="s">
+      <c r="C75" s="311" t="s">
         <v>1384</v>
       </c>
       <c r="D75" s="192" t="s">
@@ -22829,8 +22841,8 @@
     </row>
     <row r="76" spans="1:13" ht="14.25" customHeight="1">
       <c r="A76" s="232"/>
-      <c r="B76" s="304"/>
-      <c r="C76" s="309"/>
+      <c r="B76" s="316"/>
+      <c r="C76" s="312"/>
       <c r="D76" s="193" t="s">
         <v>1577</v>
       </c>
@@ -22852,8 +22864,8 @@
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
       <c r="A77" s="232"/>
-      <c r="B77" s="304"/>
-      <c r="C77" s="309"/>
+      <c r="B77" s="316"/>
+      <c r="C77" s="312"/>
       <c r="D77" s="193" t="s">
         <v>1579</v>
       </c>
@@ -22877,9 +22889,9 @@
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
       <c r="A78" s="232"/>
-      <c r="B78" s="304"/>
-      <c r="C78" s="309"/>
-      <c r="D78" s="303" t="s">
+      <c r="B78" s="316"/>
+      <c r="C78" s="312"/>
+      <c r="D78" s="314" t="s">
         <v>1590</v>
       </c>
       <c r="E78" s="175"/>
@@ -22898,9 +22910,9 @@
     </row>
     <row r="79" spans="1:13" ht="100.5" customHeight="1">
       <c r="A79" s="232"/>
-      <c r="B79" s="304"/>
-      <c r="C79" s="309"/>
-      <c r="D79" s="304"/>
+      <c r="B79" s="316"/>
+      <c r="C79" s="312"/>
+      <c r="D79" s="316"/>
       <c r="E79" s="175"/>
       <c r="F79" s="176"/>
       <c r="G79" s="177" t="s">
@@ -22923,9 +22935,9 @@
     </row>
     <row r="80" spans="1:13" ht="91.5" customHeight="1">
       <c r="A80" s="232"/>
-      <c r="B80" s="304"/>
-      <c r="C80" s="309"/>
-      <c r="D80" s="305"/>
+      <c r="B80" s="316"/>
+      <c r="C80" s="312"/>
+      <c r="D80" s="315"/>
       <c r="E80" s="175"/>
       <c r="F80" s="176"/>
       <c r="G80" s="177" t="s">
@@ -22946,9 +22958,9 @@
     </row>
     <row r="81" spans="1:13" ht="14.25" customHeight="1">
       <c r="A81" s="232"/>
-      <c r="B81" s="304"/>
-      <c r="C81" s="309"/>
-      <c r="D81" s="303" t="s">
+      <c r="B81" s="316"/>
+      <c r="C81" s="312"/>
+      <c r="D81" s="314" t="s">
         <v>1387</v>
       </c>
       <c r="E81" s="175"/>
@@ -22973,9 +22985,9 @@
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
       <c r="A82" s="232"/>
-      <c r="B82" s="304"/>
-      <c r="C82" s="309"/>
-      <c r="D82" s="304"/>
+      <c r="B82" s="316"/>
+      <c r="C82" s="312"/>
+      <c r="D82" s="316"/>
       <c r="E82" s="175"/>
       <c r="F82" s="176"/>
       <c r="G82" s="177" t="s">
@@ -22996,9 +23008,9 @@
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1">
       <c r="A83" s="232"/>
-      <c r="B83" s="304"/>
-      <c r="C83" s="309"/>
-      <c r="D83" s="304"/>
+      <c r="B83" s="316"/>
+      <c r="C83" s="312"/>
+      <c r="D83" s="316"/>
       <c r="E83" s="175"/>
       <c r="F83" s="176"/>
       <c r="G83" s="177" t="s">
@@ -23019,9 +23031,9 @@
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1">
       <c r="A84" s="232"/>
-      <c r="B84" s="304"/>
-      <c r="C84" s="309"/>
-      <c r="D84" s="304"/>
+      <c r="B84" s="316"/>
+      <c r="C84" s="312"/>
+      <c r="D84" s="316"/>
       <c r="E84" s="175"/>
       <c r="F84" s="176"/>
       <c r="G84" s="177" t="s">
@@ -23042,9 +23054,9 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1">
       <c r="A85" s="232"/>
-      <c r="B85" s="304"/>
-      <c r="C85" s="309"/>
-      <c r="D85" s="305"/>
+      <c r="B85" s="316"/>
+      <c r="C85" s="312"/>
+      <c r="D85" s="315"/>
       <c r="E85" s="175"/>
       <c r="F85" s="176"/>
       <c r="G85" s="177" t="s">
@@ -23065,9 +23077,9 @@
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1">
       <c r="A86" s="232"/>
-      <c r="B86" s="304"/>
-      <c r="C86" s="309"/>
-      <c r="D86" s="303" t="s">
+      <c r="B86" s="316"/>
+      <c r="C86" s="312"/>
+      <c r="D86" s="314" t="s">
         <v>1394</v>
       </c>
       <c r="E86" s="175"/>
@@ -23092,9 +23104,9 @@
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1">
       <c r="A87" s="232"/>
-      <c r="B87" s="304"/>
-      <c r="C87" s="309"/>
-      <c r="D87" s="305"/>
+      <c r="B87" s="316"/>
+      <c r="C87" s="312"/>
+      <c r="D87" s="315"/>
       <c r="E87" s="175"/>
       <c r="F87" s="176"/>
       <c r="G87" s="177" t="s">
@@ -23115,8 +23127,8 @@
     </row>
     <row r="88" spans="1:13" ht="64.5" customHeight="1">
       <c r="A88" s="232"/>
-      <c r="B88" s="304"/>
-      <c r="C88" s="309"/>
+      <c r="B88" s="316"/>
+      <c r="C88" s="312"/>
       <c r="D88" s="192" t="s">
         <v>1</v>
       </c>
@@ -23142,9 +23154,9 @@
     </row>
     <row r="89" spans="1:13" ht="57" customHeight="1">
       <c r="A89" s="232"/>
-      <c r="B89" s="304"/>
-      <c r="C89" s="309"/>
-      <c r="D89" s="303" t="s">
+      <c r="B89" s="316"/>
+      <c r="C89" s="312"/>
+      <c r="D89" s="314" t="s">
         <v>1398</v>
       </c>
       <c r="E89" s="175"/>
@@ -23167,9 +23179,9 @@
     </row>
     <row r="90" spans="1:13" ht="49.5">
       <c r="A90" s="232"/>
-      <c r="B90" s="304"/>
-      <c r="C90" s="309"/>
-      <c r="D90" s="304"/>
+      <c r="B90" s="316"/>
+      <c r="C90" s="312"/>
+      <c r="D90" s="316"/>
       <c r="E90" s="175"/>
       <c r="F90" s="176"/>
       <c r="G90" s="177" t="s">
@@ -23190,9 +23202,9 @@
     </row>
     <row r="91" spans="1:13" ht="49.5">
       <c r="A91" s="232"/>
-      <c r="B91" s="304"/>
-      <c r="C91" s="309"/>
-      <c r="D91" s="304"/>
+      <c r="B91" s="316"/>
+      <c r="C91" s="312"/>
+      <c r="D91" s="316"/>
       <c r="E91" s="175"/>
       <c r="F91" s="176"/>
       <c r="G91" s="177" t="s">
@@ -23213,9 +23225,9 @@
     </row>
     <row r="92" spans="1:13" ht="49.5">
       <c r="A92" s="232"/>
-      <c r="B92" s="304"/>
-      <c r="C92" s="309"/>
-      <c r="D92" s="304"/>
+      <c r="B92" s="316"/>
+      <c r="C92" s="312"/>
+      <c r="D92" s="316"/>
       <c r="E92" s="175"/>
       <c r="F92" s="176"/>
       <c r="G92" s="177" t="s">
@@ -23236,9 +23248,9 @@
     </row>
     <row r="93" spans="1:13" ht="49.5">
       <c r="A93" s="232"/>
-      <c r="B93" s="304"/>
-      <c r="C93" s="309"/>
-      <c r="D93" s="305"/>
+      <c r="B93" s="316"/>
+      <c r="C93" s="312"/>
+      <c r="D93" s="315"/>
       <c r="E93" s="175"/>
       <c r="F93" s="176"/>
       <c r="G93" s="177" t="s">
@@ -23259,9 +23271,9 @@
     </row>
     <row r="94" spans="1:13" ht="16.5" customHeight="1">
       <c r="A94" s="232"/>
-      <c r="B94" s="304"/>
-      <c r="C94" s="309"/>
-      <c r="D94" s="303" t="s">
+      <c r="B94" s="316"/>
+      <c r="C94" s="312"/>
+      <c r="D94" s="314" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="175"/>
@@ -23284,9 +23296,9 @@
     </row>
     <row r="95" spans="1:13" ht="214.5">
       <c r="A95" s="232"/>
-      <c r="B95" s="304"/>
-      <c r="C95" s="309"/>
-      <c r="D95" s="304"/>
+      <c r="B95" s="316"/>
+      <c r="C95" s="312"/>
+      <c r="D95" s="316"/>
       <c r="E95" s="175"/>
       <c r="F95" s="176"/>
       <c r="G95" s="177" t="s">
@@ -23309,9 +23321,9 @@
     </row>
     <row r="96" spans="1:13" ht="30" customHeight="1">
       <c r="A96" s="232"/>
-      <c r="B96" s="304"/>
-      <c r="C96" s="309"/>
-      <c r="D96" s="305"/>
+      <c r="B96" s="316"/>
+      <c r="C96" s="312"/>
+      <c r="D96" s="315"/>
       <c r="E96" s="175"/>
       <c r="F96" s="176"/>
       <c r="G96" s="177" t="s">
@@ -23330,9 +23342,9 @@
     </row>
     <row r="97" spans="1:13" ht="131.25" customHeight="1">
       <c r="A97" s="232"/>
-      <c r="B97" s="304"/>
-      <c r="C97" s="309"/>
-      <c r="D97" s="303" t="s">
+      <c r="B97" s="316"/>
+      <c r="C97" s="312"/>
+      <c r="D97" s="314" t="s">
         <v>1406</v>
       </c>
       <c r="E97" s="175"/>
@@ -23355,9 +23367,9 @@
     </row>
     <row r="98" spans="1:13" ht="14.25" customHeight="1">
       <c r="A98" s="232"/>
-      <c r="B98" s="304"/>
-      <c r="C98" s="309"/>
-      <c r="D98" s="305"/>
+      <c r="B98" s="316"/>
+      <c r="C98" s="312"/>
+      <c r="D98" s="315"/>
       <c r="E98" s="175"/>
       <c r="F98" s="176"/>
       <c r="G98" s="177" t="s">
@@ -23376,9 +23388,9 @@
     </row>
     <row r="99" spans="1:13" s="161" customFormat="1" ht="214.5">
       <c r="A99" s="272"/>
-      <c r="B99" s="304"/>
-      <c r="C99" s="309"/>
-      <c r="D99" s="328" t="s">
+      <c r="B99" s="316"/>
+      <c r="C99" s="312"/>
+      <c r="D99" s="329" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="183"/>
@@ -23399,9 +23411,9 @@
     </row>
     <row r="100" spans="1:13" s="278" customFormat="1" ht="33">
       <c r="A100" s="273"/>
-      <c r="B100" s="304"/>
-      <c r="C100" s="310"/>
-      <c r="D100" s="328"/>
+      <c r="B100" s="316"/>
+      <c r="C100" s="313"/>
+      <c r="D100" s="329"/>
       <c r="E100" s="270"/>
       <c r="F100" s="274"/>
       <c r="G100" s="195" t="s">
@@ -23424,11 +23436,11 @@
     </row>
     <row r="101" spans="1:13" ht="14.25" customHeight="1">
       <c r="A101" s="232"/>
-      <c r="B101" s="304"/>
-      <c r="C101" s="308" t="s">
+      <c r="B101" s="316"/>
+      <c r="C101" s="311" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="304" t="s">
+      <c r="D101" s="316" t="s">
         <v>1589</v>
       </c>
       <c r="E101" s="175"/>
@@ -23449,9 +23461,9 @@
     </row>
     <row r="102" spans="1:13" ht="14.25" customHeight="1">
       <c r="A102" s="232"/>
-      <c r="B102" s="304"/>
-      <c r="C102" s="309"/>
-      <c r="D102" s="305"/>
+      <c r="B102" s="316"/>
+      <c r="C102" s="312"/>
+      <c r="D102" s="315"/>
       <c r="E102" s="175"/>
       <c r="F102" s="176"/>
       <c r="G102" s="177" t="s">
@@ -23470,8 +23482,8 @@
     </row>
     <row r="103" spans="1:13" ht="14.1" customHeight="1">
       <c r="A103" s="232"/>
-      <c r="B103" s="304"/>
-      <c r="C103" s="309"/>
+      <c r="B103" s="316"/>
+      <c r="C103" s="312"/>
       <c r="D103" s="192" t="s">
         <v>1412</v>
       </c>
@@ -23493,9 +23505,9 @@
     </row>
     <row r="104" spans="1:13" ht="66">
       <c r="A104" s="232"/>
-      <c r="B104" s="304"/>
-      <c r="C104" s="309"/>
-      <c r="D104" s="303" t="s">
+      <c r="B104" s="316"/>
+      <c r="C104" s="312"/>
+      <c r="D104" s="314" t="s">
         <v>1600</v>
       </c>
       <c r="E104" s="175"/>
@@ -23520,9 +23532,9 @@
     </row>
     <row r="105" spans="1:13" ht="14.25" customHeight="1">
       <c r="A105" s="232"/>
-      <c r="B105" s="304"/>
-      <c r="C105" s="309"/>
-      <c r="D105" s="304"/>
+      <c r="B105" s="316"/>
+      <c r="C105" s="312"/>
+      <c r="D105" s="316"/>
       <c r="E105" s="175"/>
       <c r="F105" s="176"/>
       <c r="G105" s="177" t="s">
@@ -23541,9 +23553,9 @@
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
       <c r="A106" s="232"/>
-      <c r="B106" s="304"/>
-      <c r="C106" s="309"/>
-      <c r="D106" s="304"/>
+      <c r="B106" s="316"/>
+      <c r="C106" s="312"/>
+      <c r="D106" s="316"/>
       <c r="E106" s="175"/>
       <c r="F106" s="176"/>
       <c r="G106" s="177" t="s">
@@ -23562,9 +23574,9 @@
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
       <c r="A107" s="232"/>
-      <c r="B107" s="304"/>
-      <c r="C107" s="309"/>
-      <c r="D107" s="305"/>
+      <c r="B107" s="316"/>
+      <c r="C107" s="312"/>
+      <c r="D107" s="315"/>
       <c r="E107" s="175"/>
       <c r="F107" s="176"/>
       <c r="G107" s="177" t="s">
@@ -23583,8 +23595,8 @@
     </row>
     <row r="108" spans="1:13" ht="14.25" customHeight="1">
       <c r="A108" s="232"/>
-      <c r="B108" s="304"/>
-      <c r="C108" s="309"/>
+      <c r="B108" s="316"/>
+      <c r="C108" s="312"/>
       <c r="D108" s="192" t="s">
         <v>1385</v>
       </c>
@@ -23606,8 +23618,8 @@
     </row>
     <row r="109" spans="1:13" ht="14.25" customHeight="1">
       <c r="A109" s="232"/>
-      <c r="B109" s="304"/>
-      <c r="C109" s="309"/>
+      <c r="B109" s="316"/>
+      <c r="C109" s="312"/>
       <c r="D109" s="300" t="s">
         <v>3041</v>
       </c>
@@ -23625,9 +23637,9 @@
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
       <c r="A110" s="232"/>
-      <c r="B110" s="304"/>
-      <c r="C110" s="309"/>
-      <c r="D110" s="303" t="s">
+      <c r="B110" s="316"/>
+      <c r="C110" s="312"/>
+      <c r="D110" s="314" t="s">
         <v>1413</v>
       </c>
       <c r="E110" s="175"/>
@@ -23650,9 +23662,9 @@
     </row>
     <row r="111" spans="1:13" ht="14.25" customHeight="1">
       <c r="A111" s="232"/>
-      <c r="B111" s="304"/>
-      <c r="C111" s="309"/>
-      <c r="D111" s="305"/>
+      <c r="B111" s="316"/>
+      <c r="C111" s="312"/>
+      <c r="D111" s="315"/>
       <c r="E111" s="175"/>
       <c r="F111" s="176"/>
       <c r="G111" s="177" t="s">
@@ -23673,9 +23685,9 @@
     </row>
     <row r="112" spans="1:13" ht="14.25" customHeight="1">
       <c r="A112" s="232"/>
-      <c r="B112" s="304"/>
-      <c r="C112" s="309"/>
-      <c r="D112" s="325" t="s">
+      <c r="B112" s="316"/>
+      <c r="C112" s="312"/>
+      <c r="D112" s="326" t="s">
         <v>1418</v>
       </c>
       <c r="E112" s="175"/>
@@ -23696,9 +23708,9 @@
     </row>
     <row r="113" spans="1:13" ht="14.25" customHeight="1">
       <c r="A113" s="232"/>
-      <c r="B113" s="304"/>
-      <c r="C113" s="309"/>
-      <c r="D113" s="326"/>
+      <c r="B113" s="316"/>
+      <c r="C113" s="312"/>
+      <c r="D113" s="327"/>
       <c r="E113" s="175"/>
       <c r="F113" s="176"/>
       <c r="G113" s="177" t="s">
@@ -23717,9 +23729,9 @@
     </row>
     <row r="114" spans="1:13" ht="14.25" customHeight="1">
       <c r="A114" s="232"/>
-      <c r="B114" s="304"/>
-      <c r="C114" s="309"/>
-      <c r="D114" s="327"/>
+      <c r="B114" s="316"/>
+      <c r="C114" s="312"/>
+      <c r="D114" s="328"/>
       <c r="E114" s="175"/>
       <c r="F114" s="176"/>
       <c r="G114" s="177" t="s">
@@ -23738,8 +23750,8 @@
     </row>
     <row r="115" spans="1:13" ht="14.25" customHeight="1">
       <c r="A115" s="232"/>
-      <c r="B115" s="304"/>
-      <c r="C115" s="309"/>
+      <c r="B115" s="316"/>
+      <c r="C115" s="312"/>
       <c r="D115" s="192" t="s">
         <v>9</v>
       </c>
@@ -23761,9 +23773,9 @@
     </row>
     <row r="116" spans="1:13" ht="33">
       <c r="A116" s="232"/>
-      <c r="B116" s="304"/>
-      <c r="C116" s="309"/>
-      <c r="D116" s="303" t="s">
+      <c r="B116" s="316"/>
+      <c r="C116" s="312"/>
+      <c r="D116" s="314" t="s">
         <v>1421</v>
       </c>
       <c r="E116" s="175"/>
@@ -23786,9 +23798,9 @@
     </row>
     <row r="117" spans="1:13" ht="14.25" customHeight="1">
       <c r="A117" s="232"/>
-      <c r="B117" s="304"/>
-      <c r="C117" s="309"/>
-      <c r="D117" s="304"/>
+      <c r="B117" s="316"/>
+      <c r="C117" s="312"/>
+      <c r="D117" s="316"/>
       <c r="E117" s="175"/>
       <c r="F117" s="176"/>
       <c r="G117" s="177" t="s">
@@ -23807,9 +23819,9 @@
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
       <c r="A118" s="232"/>
-      <c r="B118" s="304"/>
-      <c r="C118" s="310"/>
-      <c r="D118" s="305"/>
+      <c r="B118" s="316"/>
+      <c r="C118" s="313"/>
+      <c r="D118" s="315"/>
       <c r="E118" s="175"/>
       <c r="F118" s="176"/>
       <c r="G118" s="177" t="s">
@@ -23830,11 +23842,11 @@
     </row>
     <row r="119" spans="1:13" ht="14.25" customHeight="1">
       <c r="A119" s="232"/>
-      <c r="B119" s="304"/>
-      <c r="C119" s="308" t="s">
+      <c r="B119" s="316"/>
+      <c r="C119" s="311" t="s">
         <v>1427</v>
       </c>
-      <c r="D119" s="303" t="s">
+      <c r="D119" s="314" t="s">
         <v>1428</v>
       </c>
       <c r="E119" s="175"/>
@@ -23855,9 +23867,9 @@
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
       <c r="A120" s="232"/>
-      <c r="B120" s="304"/>
-      <c r="C120" s="309"/>
-      <c r="D120" s="305"/>
+      <c r="B120" s="316"/>
+      <c r="C120" s="312"/>
+      <c r="D120" s="315"/>
       <c r="E120" s="175"/>
       <c r="F120" s="176"/>
       <c r="G120" s="177" t="s">
@@ -23878,8 +23890,8 @@
     </row>
     <row r="121" spans="1:13" ht="14.25" customHeight="1">
       <c r="A121" s="181"/>
-      <c r="B121" s="304"/>
-      <c r="C121" s="309"/>
+      <c r="B121" s="316"/>
+      <c r="C121" s="312"/>
       <c r="D121" s="192" t="s">
         <v>1431</v>
       </c>
@@ -23903,8 +23915,8 @@
     </row>
     <row r="122" spans="1:13" ht="14.25" customHeight="1">
       <c r="A122" s="181"/>
-      <c r="B122" s="304"/>
-      <c r="C122" s="309"/>
+      <c r="B122" s="316"/>
+      <c r="C122" s="312"/>
       <c r="D122" s="192" t="s">
         <v>1434</v>
       </c>
@@ -23926,8 +23938,8 @@
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
       <c r="A123" s="181"/>
-      <c r="B123" s="304"/>
-      <c r="C123" s="309"/>
+      <c r="B123" s="316"/>
+      <c r="C123" s="312"/>
       <c r="D123" s="242" t="s">
         <v>1436</v>
       </c>
@@ -23951,9 +23963,9 @@
     </row>
     <row r="124" spans="1:13" ht="14.25" customHeight="1">
       <c r="A124" s="181"/>
-      <c r="B124" s="304"/>
-      <c r="C124" s="309"/>
-      <c r="D124" s="303" t="s">
+      <c r="B124" s="316"/>
+      <c r="C124" s="312"/>
+      <c r="D124" s="314" t="s">
         <v>171</v>
       </c>
       <c r="E124" s="175"/>
@@ -23974,9 +23986,9 @@
     </row>
     <row r="125" spans="1:13" ht="14.25" customHeight="1">
       <c r="A125" s="181"/>
-      <c r="B125" s="304"/>
-      <c r="C125" s="309"/>
-      <c r="D125" s="304"/>
+      <c r="B125" s="316"/>
+      <c r="C125" s="312"/>
+      <c r="D125" s="316"/>
       <c r="E125" s="175"/>
       <c r="F125" s="176"/>
       <c r="G125" s="177" t="s">
@@ -23997,9 +24009,9 @@
     </row>
     <row r="126" spans="1:13" ht="14.25" customHeight="1">
       <c r="A126" s="181"/>
-      <c r="B126" s="304"/>
-      <c r="C126" s="309"/>
-      <c r="D126" s="304"/>
+      <c r="B126" s="316"/>
+      <c r="C126" s="312"/>
+      <c r="D126" s="316"/>
       <c r="E126" s="175"/>
       <c r="F126" s="176"/>
       <c r="G126" s="177" t="s">
@@ -24018,9 +24030,9 @@
     </row>
     <row r="127" spans="1:13" ht="14.25" customHeight="1">
       <c r="A127" s="181"/>
-      <c r="B127" s="304"/>
-      <c r="C127" s="309"/>
-      <c r="D127" s="305"/>
+      <c r="B127" s="316"/>
+      <c r="C127" s="312"/>
+      <c r="D127" s="315"/>
       <c r="E127" s="175"/>
       <c r="F127" s="176"/>
       <c r="G127" s="177" t="s">
@@ -24041,9 +24053,9 @@
     </row>
     <row r="128" spans="1:13" ht="14.25" customHeight="1">
       <c r="A128" s="181"/>
-      <c r="B128" s="304"/>
-      <c r="C128" s="309"/>
-      <c r="D128" s="306" t="s">
+      <c r="B128" s="316"/>
+      <c r="C128" s="312"/>
+      <c r="D128" s="331" t="s">
         <v>1438</v>
       </c>
       <c r="E128" s="175"/>
@@ -24064,9 +24076,9 @@
     </row>
     <row r="129" spans="1:13" ht="14.25" customHeight="1">
       <c r="A129" s="181"/>
-      <c r="B129" s="304"/>
-      <c r="C129" s="309"/>
-      <c r="D129" s="307"/>
+      <c r="B129" s="316"/>
+      <c r="C129" s="312"/>
+      <c r="D129" s="334"/>
       <c r="E129" s="175"/>
       <c r="F129" s="176"/>
       <c r="G129" s="177" t="s">
@@ -24089,9 +24101,9 @@
     </row>
     <row r="130" spans="1:13" ht="14.25" customHeight="1">
       <c r="A130" s="181"/>
-      <c r="B130" s="304"/>
-      <c r="C130" s="309"/>
-      <c r="D130" s="303" t="s">
+      <c r="B130" s="316"/>
+      <c r="C130" s="312"/>
+      <c r="D130" s="314" t="s">
         <v>1441</v>
       </c>
       <c r="E130" s="175"/>
@@ -24112,9 +24124,9 @@
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
       <c r="A131" s="181"/>
-      <c r="B131" s="304"/>
-      <c r="C131" s="309"/>
-      <c r="D131" s="304"/>
+      <c r="B131" s="316"/>
+      <c r="C131" s="312"/>
+      <c r="D131" s="316"/>
       <c r="E131" s="175"/>
       <c r="F131" s="176"/>
       <c r="G131" s="197" t="s">
@@ -24133,9 +24145,9 @@
     </row>
     <row r="132" spans="1:13" ht="14.25" customHeight="1">
       <c r="A132" s="181"/>
-      <c r="B132" s="304"/>
-      <c r="C132" s="309"/>
-      <c r="D132" s="305"/>
+      <c r="B132" s="316"/>
+      <c r="C132" s="312"/>
+      <c r="D132" s="315"/>
       <c r="E132" s="175"/>
       <c r="F132" s="176"/>
       <c r="G132" s="177" t="s">
@@ -24152,9 +24164,9 @@
     </row>
     <row r="133" spans="1:13" ht="51.75" customHeight="1">
       <c r="A133" s="181"/>
-      <c r="B133" s="304"/>
-      <c r="C133" s="309"/>
-      <c r="D133" s="316" t="s">
+      <c r="B133" s="316"/>
+      <c r="C133" s="312"/>
+      <c r="D133" s="333" t="s">
         <v>166</v>
       </c>
       <c r="E133" s="175"/>
@@ -24173,9 +24185,9 @@
     </row>
     <row r="134" spans="1:13" ht="14.25" customHeight="1">
       <c r="A134" s="181"/>
-      <c r="B134" s="304"/>
-      <c r="C134" s="309"/>
-      <c r="D134" s="316"/>
+      <c r="B134" s="316"/>
+      <c r="C134" s="312"/>
+      <c r="D134" s="333"/>
       <c r="E134" s="175"/>
       <c r="F134" s="176"/>
       <c r="G134" s="177" t="s">
@@ -24192,8 +24204,8 @@
     </row>
     <row r="135" spans="1:13" ht="14.25" customHeight="1">
       <c r="A135" s="181"/>
-      <c r="B135" s="304"/>
-      <c r="C135" s="309"/>
+      <c r="B135" s="316"/>
+      <c r="C135" s="312"/>
       <c r="D135" s="191" t="s">
         <v>170</v>
       </c>
@@ -24215,9 +24227,9 @@
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
       <c r="A136" s="181"/>
-      <c r="B136" s="304"/>
-      <c r="C136" s="309"/>
-      <c r="D136" s="303" t="s">
+      <c r="B136" s="316"/>
+      <c r="C136" s="312"/>
+      <c r="D136" s="314" t="s">
         <v>13</v>
       </c>
       <c r="E136" s="175"/>
@@ -24238,9 +24250,9 @@
     </row>
     <row r="137" spans="1:13" ht="14.25" customHeight="1">
       <c r="A137" s="181"/>
-      <c r="B137" s="304"/>
-      <c r="C137" s="309"/>
-      <c r="D137" s="304"/>
+      <c r="B137" s="316"/>
+      <c r="C137" s="312"/>
+      <c r="D137" s="316"/>
       <c r="E137" s="175"/>
       <c r="F137" s="176"/>
       <c r="G137" s="177" t="s">
@@ -24259,9 +24271,9 @@
     </row>
     <row r="138" spans="1:13" ht="14.25" customHeight="1">
       <c r="A138" s="181"/>
-      <c r="B138" s="304"/>
-      <c r="C138" s="309"/>
-      <c r="D138" s="304"/>
+      <c r="B138" s="316"/>
+      <c r="C138" s="312"/>
+      <c r="D138" s="316"/>
       <c r="E138" s="175"/>
       <c r="F138" s="176"/>
       <c r="G138" s="177" t="s">
@@ -24280,9 +24292,9 @@
     </row>
     <row r="139" spans="1:13" ht="14.25" customHeight="1">
       <c r="A139" s="181"/>
-      <c r="B139" s="304"/>
-      <c r="C139" s="309"/>
-      <c r="D139" s="304"/>
+      <c r="B139" s="316"/>
+      <c r="C139" s="312"/>
+      <c r="D139" s="316"/>
       <c r="E139" s="175"/>
       <c r="F139" s="176"/>
       <c r="G139" s="177" t="s">
@@ -24301,9 +24313,9 @@
     </row>
     <row r="140" spans="1:13" ht="14.25" customHeight="1">
       <c r="A140" s="181"/>
-      <c r="B140" s="304"/>
-      <c r="C140" s="309"/>
-      <c r="D140" s="304"/>
+      <c r="B140" s="316"/>
+      <c r="C140" s="312"/>
+      <c r="D140" s="316"/>
       <c r="E140" s="175"/>
       <c r="F140" s="176"/>
       <c r="G140" s="177" t="s">
@@ -24322,9 +24334,9 @@
     </row>
     <row r="141" spans="1:13" ht="14.25" customHeight="1">
       <c r="A141" s="181"/>
-      <c r="B141" s="304"/>
-      <c r="C141" s="309"/>
-      <c r="D141" s="304"/>
+      <c r="B141" s="316"/>
+      <c r="C141" s="312"/>
+      <c r="D141" s="316"/>
       <c r="E141" s="175"/>
       <c r="F141" s="176"/>
       <c r="G141" s="177" t="s">
@@ -24343,9 +24355,9 @@
     </row>
     <row r="142" spans="1:13" ht="14.25" customHeight="1">
       <c r="A142" s="181"/>
-      <c r="B142" s="304"/>
-      <c r="C142" s="309"/>
-      <c r="D142" s="304"/>
+      <c r="B142" s="316"/>
+      <c r="C142" s="312"/>
+      <c r="D142" s="316"/>
       <c r="E142" s="175"/>
       <c r="F142" s="176"/>
       <c r="G142" s="177" t="s">
@@ -24364,9 +24376,9 @@
     </row>
     <row r="143" spans="1:13" ht="14.25" customHeight="1">
       <c r="A143" s="181"/>
-      <c r="B143" s="304"/>
-      <c r="C143" s="310"/>
-      <c r="D143" s="305"/>
+      <c r="B143" s="316"/>
+      <c r="C143" s="313"/>
+      <c r="D143" s="315"/>
       <c r="E143" s="175"/>
       <c r="F143" s="176"/>
       <c r="G143" s="177" t="s">
@@ -24385,11 +24397,11 @@
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
       <c r="A144" s="181"/>
-      <c r="B144" s="304"/>
-      <c r="C144" s="308" t="s">
+      <c r="B144" s="316"/>
+      <c r="C144" s="311" t="s">
         <v>18</v>
       </c>
-      <c r="D144" s="303" t="s">
+      <c r="D144" s="314" t="s">
         <v>19</v>
       </c>
       <c r="E144" s="175"/>
@@ -24410,9 +24422,9 @@
     </row>
     <row r="145" spans="1:13" ht="14.25" customHeight="1">
       <c r="A145" s="181"/>
-      <c r="B145" s="304"/>
-      <c r="C145" s="309"/>
-      <c r="D145" s="304"/>
+      <c r="B145" s="316"/>
+      <c r="C145" s="312"/>
+      <c r="D145" s="316"/>
       <c r="E145" s="175"/>
       <c r="F145" s="176"/>
       <c r="G145" s="177" t="s">
@@ -24431,9 +24443,9 @@
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
       <c r="A146" s="181"/>
-      <c r="B146" s="304"/>
-      <c r="C146" s="309"/>
-      <c r="D146" s="305"/>
+      <c r="B146" s="316"/>
+      <c r="C146" s="312"/>
+      <c r="D146" s="315"/>
       <c r="E146" s="175"/>
       <c r="F146" s="176"/>
       <c r="G146" s="177" t="s">
@@ -24452,9 +24464,9 @@
     </row>
     <row r="147" spans="1:13" ht="14.25" customHeight="1">
       <c r="A147" s="181"/>
-      <c r="B147" s="304"/>
-      <c r="C147" s="309"/>
-      <c r="D147" s="303" t="s">
+      <c r="B147" s="316"/>
+      <c r="C147" s="312"/>
+      <c r="D147" s="314" t="s">
         <v>21</v>
       </c>
       <c r="E147" s="175"/>
@@ -24475,9 +24487,9 @@
     </row>
     <row r="148" spans="1:13" ht="14.25" customHeight="1">
       <c r="A148" s="181"/>
-      <c r="B148" s="304"/>
-      <c r="C148" s="309"/>
-      <c r="D148" s="305"/>
+      <c r="B148" s="316"/>
+      <c r="C148" s="312"/>
+      <c r="D148" s="315"/>
       <c r="E148" s="175"/>
       <c r="F148" s="176"/>
       <c r="G148" s="177" t="s">
@@ -24496,8 +24508,8 @@
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
       <c r="A149" s="181"/>
-      <c r="B149" s="304"/>
-      <c r="C149" s="310"/>
+      <c r="B149" s="316"/>
+      <c r="C149" s="313"/>
       <c r="D149" s="192" t="s">
         <v>27</v>
       </c>
@@ -24519,11 +24531,11 @@
     </row>
     <row r="150" spans="1:13" ht="14.25" customHeight="1">
       <c r="A150" s="181"/>
-      <c r="B150" s="304"/>
-      <c r="C150" s="308" t="s">
+      <c r="B150" s="316"/>
+      <c r="C150" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="D150" s="303" t="s">
+      <c r="D150" s="314" t="s">
         <v>30</v>
       </c>
       <c r="E150" s="175"/>
@@ -24544,9 +24556,9 @@
     </row>
     <row r="151" spans="1:13" ht="14.25" customHeight="1">
       <c r="A151" s="181"/>
-      <c r="B151" s="304"/>
-      <c r="C151" s="309"/>
-      <c r="D151" s="304"/>
+      <c r="B151" s="316"/>
+      <c r="C151" s="312"/>
+      <c r="D151" s="316"/>
       <c r="E151" s="175"/>
       <c r="F151" s="176"/>
       <c r="G151" s="177" t="s">
@@ -24565,9 +24577,9 @@
     </row>
     <row r="152" spans="1:13" ht="14.25" customHeight="1">
       <c r="A152" s="181"/>
-      <c r="B152" s="304"/>
-      <c r="C152" s="309"/>
-      <c r="D152" s="304"/>
+      <c r="B152" s="316"/>
+      <c r="C152" s="312"/>
+      <c r="D152" s="316"/>
       <c r="E152" s="175"/>
       <c r="F152" s="176"/>
       <c r="G152" s="177" t="s">
@@ -24586,9 +24598,9 @@
     </row>
     <row r="153" spans="1:13" ht="14.25" customHeight="1">
       <c r="A153" s="181"/>
-      <c r="B153" s="304"/>
-      <c r="C153" s="309"/>
-      <c r="D153" s="305"/>
+      <c r="B153" s="316"/>
+      <c r="C153" s="312"/>
+      <c r="D153" s="315"/>
       <c r="E153" s="175"/>
       <c r="F153" s="176"/>
       <c r="G153" s="177" t="s">
@@ -24605,9 +24617,9 @@
     </row>
     <row r="154" spans="1:13" ht="14.25" customHeight="1">
       <c r="A154" s="181"/>
-      <c r="B154" s="304"/>
-      <c r="C154" s="309"/>
-      <c r="D154" s="306" t="s">
+      <c r="B154" s="316"/>
+      <c r="C154" s="312"/>
+      <c r="D154" s="331" t="s">
         <v>35</v>
       </c>
       <c r="E154" s="244"/>
@@ -24630,9 +24642,9 @@
     </row>
     <row r="155" spans="1:13" ht="14.25" customHeight="1">
       <c r="A155" s="181"/>
-      <c r="B155" s="304"/>
-      <c r="C155" s="309"/>
-      <c r="D155" s="307"/>
+      <c r="B155" s="316"/>
+      <c r="C155" s="312"/>
+      <c r="D155" s="334"/>
       <c r="E155" s="244"/>
       <c r="F155" s="245"/>
       <c r="G155" s="177" t="s">
@@ -24651,8 +24663,8 @@
     </row>
     <row r="156" spans="1:13" ht="14.25" customHeight="1">
       <c r="A156" s="181"/>
-      <c r="B156" s="304"/>
-      <c r="C156" s="309"/>
+      <c r="B156" s="316"/>
+      <c r="C156" s="312"/>
       <c r="D156" s="192" t="s">
         <v>38</v>
       </c>
@@ -24674,8 +24686,8 @@
     </row>
     <row r="157" spans="1:13" ht="33">
       <c r="A157" s="181"/>
-      <c r="B157" s="304"/>
-      <c r="C157" s="309"/>
+      <c r="B157" s="316"/>
+      <c r="C157" s="312"/>
       <c r="D157" s="192" t="s">
         <v>40</v>
       </c>
@@ -24697,9 +24709,9 @@
     </row>
     <row r="158" spans="1:13" ht="14.25" customHeight="1">
       <c r="A158" s="181"/>
-      <c r="B158" s="304"/>
-      <c r="C158" s="309"/>
-      <c r="D158" s="303" t="s">
+      <c r="B158" s="316"/>
+      <c r="C158" s="312"/>
+      <c r="D158" s="314" t="s">
         <v>42</v>
       </c>
       <c r="E158" s="175"/>
@@ -24722,9 +24734,9 @@
     </row>
     <row r="159" spans="1:13" ht="14.25" customHeight="1">
       <c r="A159" s="181"/>
-      <c r="B159" s="304"/>
-      <c r="C159" s="309"/>
-      <c r="D159" s="304"/>
+      <c r="B159" s="316"/>
+      <c r="C159" s="312"/>
+      <c r="D159" s="316"/>
       <c r="E159" s="175"/>
       <c r="F159" s="176"/>
       <c r="G159" s="177" t="s">
@@ -24743,9 +24755,9 @@
     </row>
     <row r="160" spans="1:13" ht="33">
       <c r="A160" s="181"/>
-      <c r="B160" s="304"/>
-      <c r="C160" s="309"/>
-      <c r="D160" s="304"/>
+      <c r="B160" s="316"/>
+      <c r="C160" s="312"/>
+      <c r="D160" s="316"/>
       <c r="E160" s="175"/>
       <c r="F160" s="176"/>
       <c r="G160" s="177" t="s">
@@ -24764,9 +24776,9 @@
     </row>
     <row r="161" spans="1:13" ht="14.25" customHeight="1">
       <c r="A161" s="181"/>
-      <c r="B161" s="304"/>
-      <c r="C161" s="309"/>
-      <c r="D161" s="304"/>
+      <c r="B161" s="316"/>
+      <c r="C161" s="312"/>
+      <c r="D161" s="316"/>
       <c r="E161" s="175"/>
       <c r="F161" s="176"/>
       <c r="G161" s="177" t="s">
@@ -24785,9 +24797,9 @@
     </row>
     <row r="162" spans="1:13" ht="14.25" customHeight="1">
       <c r="A162" s="181"/>
-      <c r="B162" s="304"/>
-      <c r="C162" s="309"/>
-      <c r="D162" s="304"/>
+      <c r="B162" s="316"/>
+      <c r="C162" s="312"/>
+      <c r="D162" s="316"/>
       <c r="E162" s="175"/>
       <c r="F162" s="176"/>
       <c r="G162" s="177" t="s">
@@ -24806,9 +24818,9 @@
     </row>
     <row r="163" spans="1:13" ht="46.5" customHeight="1">
       <c r="A163" s="181"/>
-      <c r="B163" s="304"/>
-      <c r="C163" s="309"/>
-      <c r="D163" s="304"/>
+      <c r="B163" s="316"/>
+      <c r="C163" s="312"/>
+      <c r="D163" s="316"/>
       <c r="E163" s="175"/>
       <c r="F163" s="176"/>
       <c r="G163" s="177" t="s">
@@ -24827,9 +24839,9 @@
     </row>
     <row r="164" spans="1:13" ht="26.25" customHeight="1">
       <c r="A164" s="181"/>
-      <c r="B164" s="304"/>
-      <c r="C164" s="309"/>
-      <c r="D164" s="304"/>
+      <c r="B164" s="316"/>
+      <c r="C164" s="312"/>
+      <c r="D164" s="316"/>
       <c r="E164" s="175"/>
       <c r="F164" s="176"/>
       <c r="G164" s="247" t="s">
@@ -24848,9 +24860,9 @@
     </row>
     <row r="165" spans="1:13" ht="14.25" customHeight="1">
       <c r="A165" s="181"/>
-      <c r="B165" s="304"/>
-      <c r="C165" s="309"/>
-      <c r="D165" s="304"/>
+      <c r="B165" s="316"/>
+      <c r="C165" s="312"/>
+      <c r="D165" s="316"/>
       <c r="E165" s="175"/>
       <c r="F165" s="176"/>
       <c r="G165" s="177" t="s">
@@ -24869,9 +24881,9 @@
     </row>
     <row r="166" spans="1:13" ht="14.25" customHeight="1">
       <c r="A166" s="181"/>
-      <c r="B166" s="304"/>
-      <c r="C166" s="309"/>
-      <c r="D166" s="304"/>
+      <c r="B166" s="316"/>
+      <c r="C166" s="312"/>
+      <c r="D166" s="316"/>
       <c r="E166" s="175"/>
       <c r="F166" s="176"/>
       <c r="G166" s="177" t="s">
@@ -24890,9 +24902,9 @@
     </row>
     <row r="167" spans="1:13" ht="33">
       <c r="A167" s="181"/>
-      <c r="B167" s="304"/>
-      <c r="C167" s="310"/>
-      <c r="D167" s="305"/>
+      <c r="B167" s="316"/>
+      <c r="C167" s="313"/>
+      <c r="D167" s="315"/>
       <c r="E167" s="175"/>
       <c r="F167" s="176"/>
       <c r="G167" s="177" t="s">
@@ -24911,11 +24923,11 @@
     </row>
     <row r="168" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A168" s="181"/>
-      <c r="B168" s="304"/>
-      <c r="C168" s="308" t="s">
+      <c r="B168" s="316"/>
+      <c r="C168" s="311" t="s">
         <v>53</v>
       </c>
-      <c r="D168" s="303" t="s">
+      <c r="D168" s="314" t="s">
         <v>106</v>
       </c>
       <c r="E168" s="175"/>
@@ -24932,9 +24944,9 @@
     </row>
     <row r="169" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A169" s="181"/>
-      <c r="B169" s="304"/>
-      <c r="C169" s="309"/>
-      <c r="D169" s="304"/>
+      <c r="B169" s="316"/>
+      <c r="C169" s="312"/>
+      <c r="D169" s="316"/>
       <c r="E169" s="175"/>
       <c r="F169" s="176"/>
       <c r="G169" s="177" t="s">
@@ -24949,9 +24961,9 @@
     </row>
     <row r="170" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A170" s="181"/>
-      <c r="B170" s="304"/>
-      <c r="C170" s="309"/>
-      <c r="D170" s="304"/>
+      <c r="B170" s="316"/>
+      <c r="C170" s="312"/>
+      <c r="D170" s="316"/>
       <c r="E170" s="175"/>
       <c r="F170" s="176"/>
       <c r="G170" s="177" t="s">
@@ -24966,9 +24978,9 @@
     </row>
     <row r="171" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A171" s="181"/>
-      <c r="B171" s="304"/>
-      <c r="C171" s="309"/>
-      <c r="D171" s="304"/>
+      <c r="B171" s="316"/>
+      <c r="C171" s="312"/>
+      <c r="D171" s="316"/>
       <c r="E171" s="175"/>
       <c r="F171" s="176"/>
       <c r="G171" s="177" t="s">
@@ -24983,9 +24995,9 @@
     </row>
     <row r="172" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A172" s="181"/>
-      <c r="B172" s="304"/>
-      <c r="C172" s="309"/>
-      <c r="D172" s="304"/>
+      <c r="B172" s="316"/>
+      <c r="C172" s="312"/>
+      <c r="D172" s="316"/>
       <c r="E172" s="175"/>
       <c r="F172" s="176"/>
       <c r="G172" s="177" t="s">
@@ -25000,9 +25012,9 @@
     </row>
     <row r="173" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="304"/>
-      <c r="C173" s="309"/>
-      <c r="D173" s="304"/>
+      <c r="B173" s="316"/>
+      <c r="C173" s="312"/>
+      <c r="D173" s="316"/>
       <c r="E173" s="175"/>
       <c r="F173" s="176"/>
       <c r="G173" s="177" t="s">
@@ -25017,9 +25029,9 @@
     </row>
     <row r="174" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A174" s="181"/>
-      <c r="B174" s="304"/>
-      <c r="C174" s="309"/>
-      <c r="D174" s="304"/>
+      <c r="B174" s="316"/>
+      <c r="C174" s="312"/>
+      <c r="D174" s="316"/>
       <c r="E174" s="175"/>
       <c r="F174" s="176"/>
       <c r="G174" s="177" t="s">
@@ -25034,9 +25046,9 @@
     </row>
     <row r="175" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A175" s="181"/>
-      <c r="B175" s="304"/>
-      <c r="C175" s="309"/>
-      <c r="D175" s="304"/>
+      <c r="B175" s="316"/>
+      <c r="C175" s="312"/>
+      <c r="D175" s="316"/>
       <c r="E175" s="175"/>
       <c r="F175" s="176"/>
       <c r="G175" s="177" t="s">
@@ -25051,9 +25063,9 @@
     </row>
     <row r="176" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A176" s="181"/>
-      <c r="B176" s="304"/>
-      <c r="C176" s="309"/>
-      <c r="D176" s="305"/>
+      <c r="B176" s="316"/>
+      <c r="C176" s="312"/>
+      <c r="D176" s="315"/>
       <c r="E176" s="175"/>
       <c r="F176" s="176"/>
       <c r="G176" s="177" t="s">
@@ -25068,9 +25080,9 @@
     </row>
     <row r="177" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A177" s="181"/>
-      <c r="B177" s="304"/>
-      <c r="C177" s="309"/>
-      <c r="D177" s="303" t="s">
+      <c r="B177" s="316"/>
+      <c r="C177" s="312"/>
+      <c r="D177" s="314" t="s">
         <v>108</v>
       </c>
       <c r="E177" s="175"/>
@@ -25087,9 +25099,9 @@
     </row>
     <row r="178" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A178" s="181"/>
-      <c r="B178" s="304"/>
-      <c r="C178" s="309"/>
-      <c r="D178" s="304"/>
+      <c r="B178" s="316"/>
+      <c r="C178" s="312"/>
+      <c r="D178" s="316"/>
       <c r="E178" s="175"/>
       <c r="F178" s="176"/>
       <c r="G178" s="177" t="s">
@@ -25104,9 +25116,9 @@
     </row>
     <row r="179" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A179" s="181"/>
-      <c r="B179" s="304"/>
-      <c r="C179" s="309"/>
-      <c r="D179" s="304"/>
+      <c r="B179" s="316"/>
+      <c r="C179" s="312"/>
+      <c r="D179" s="316"/>
       <c r="E179" s="175"/>
       <c r="F179" s="176"/>
       <c r="G179" s="177" t="s">
@@ -25121,9 +25133,9 @@
     </row>
     <row r="180" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A180" s="181"/>
-      <c r="B180" s="304"/>
-      <c r="C180" s="309"/>
-      <c r="D180" s="304"/>
+      <c r="B180" s="316"/>
+      <c r="C180" s="312"/>
+      <c r="D180" s="316"/>
       <c r="E180" s="175"/>
       <c r="F180" s="176"/>
       <c r="G180" s="177" t="s">
@@ -25138,9 +25150,9 @@
     </row>
     <row r="181" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A181" s="181"/>
-      <c r="B181" s="304"/>
-      <c r="C181" s="309"/>
-      <c r="D181" s="304"/>
+      <c r="B181" s="316"/>
+      <c r="C181" s="312"/>
+      <c r="D181" s="316"/>
       <c r="E181" s="175"/>
       <c r="F181" s="176"/>
       <c r="G181" s="177" t="s">
@@ -25155,9 +25167,9 @@
     </row>
     <row r="182" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A182" s="181"/>
-      <c r="B182" s="304"/>
-      <c r="C182" s="309"/>
-      <c r="D182" s="304"/>
+      <c r="B182" s="316"/>
+      <c r="C182" s="312"/>
+      <c r="D182" s="316"/>
       <c r="E182" s="175"/>
       <c r="F182" s="176"/>
       <c r="G182" s="177" t="s">
@@ -25172,9 +25184,9 @@
     </row>
     <row r="183" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A183" s="181"/>
-      <c r="B183" s="304"/>
-      <c r="C183" s="309"/>
-      <c r="D183" s="304"/>
+      <c r="B183" s="316"/>
+      <c r="C183" s="312"/>
+      <c r="D183" s="316"/>
       <c r="E183" s="175"/>
       <c r="F183" s="176"/>
       <c r="G183" s="177" t="s">
@@ -25189,9 +25201,9 @@
     </row>
     <row r="184" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A184" s="181"/>
-      <c r="B184" s="304"/>
-      <c r="C184" s="310"/>
-      <c r="D184" s="305"/>
+      <c r="B184" s="316"/>
+      <c r="C184" s="313"/>
+      <c r="D184" s="315"/>
       <c r="E184" s="175"/>
       <c r="F184" s="176"/>
       <c r="G184" s="177" t="s">
@@ -25206,8 +25218,8 @@
     </row>
     <row r="185" spans="1:13" ht="14.25" customHeight="1">
       <c r="A185" s="181"/>
-      <c r="B185" s="304"/>
-      <c r="C185" s="317" t="s">
+      <c r="B185" s="316"/>
+      <c r="C185" s="321" t="s">
         <v>54</v>
       </c>
       <c r="D185" s="192"/>
@@ -25227,8 +25239,8 @@
     </row>
     <row r="186" spans="1:13" ht="14.25" customHeight="1">
       <c r="A186" s="181"/>
-      <c r="B186" s="304"/>
-      <c r="C186" s="318"/>
+      <c r="B186" s="316"/>
+      <c r="C186" s="322"/>
       <c r="D186" s="197" t="s">
         <v>156</v>
       </c>
@@ -25248,8 +25260,8 @@
     </row>
     <row r="187" spans="1:13" ht="14.25" customHeight="1">
       <c r="A187" s="181"/>
-      <c r="B187" s="304"/>
-      <c r="C187" s="318"/>
+      <c r="B187" s="316"/>
+      <c r="C187" s="322"/>
       <c r="D187" s="252"/>
       <c r="E187" s="236"/>
       <c r="F187" s="251"/>
@@ -25267,8 +25279,8 @@
     </row>
     <row r="188" spans="1:13" ht="14.25" customHeight="1">
       <c r="A188" s="181"/>
-      <c r="B188" s="304"/>
-      <c r="C188" s="318"/>
+      <c r="B188" s="316"/>
+      <c r="C188" s="322"/>
       <c r="D188" s="193" t="s">
         <v>158</v>
       </c>
@@ -25286,8 +25298,8 @@
     </row>
     <row r="189" spans="1:13" ht="14.25" customHeight="1">
       <c r="A189" s="181"/>
-      <c r="B189" s="304"/>
-      <c r="C189" s="318"/>
+      <c r="B189" s="316"/>
+      <c r="C189" s="322"/>
       <c r="D189" s="193" t="s">
         <v>159</v>
       </c>
@@ -25305,8 +25317,8 @@
     </row>
     <row r="190" spans="1:13" ht="14.25" customHeight="1">
       <c r="A190" s="181"/>
-      <c r="B190" s="304"/>
-      <c r="C190" s="318"/>
+      <c r="B190" s="316"/>
+      <c r="C190" s="322"/>
       <c r="D190" s="193" t="s">
         <v>160</v>
       </c>
@@ -25324,8 +25336,8 @@
     </row>
     <row r="191" spans="1:13" ht="14.25" customHeight="1">
       <c r="A191" s="181"/>
-      <c r="B191" s="304"/>
-      <c r="C191" s="318"/>
+      <c r="B191" s="316"/>
+      <c r="C191" s="322"/>
       <c r="D191" s="193" t="s">
         <v>161</v>
       </c>
@@ -25343,8 +25355,8 @@
     </row>
     <row r="192" spans="1:13" ht="37.5" customHeight="1">
       <c r="A192" s="181"/>
-      <c r="B192" s="304"/>
-      <c r="C192" s="318"/>
+      <c r="B192" s="316"/>
+      <c r="C192" s="322"/>
       <c r="D192" s="254" t="s">
         <v>195</v>
       </c>
@@ -25362,8 +25374,8 @@
     </row>
     <row r="193" spans="1:13" ht="14.25" customHeight="1">
       <c r="A193" s="181"/>
-      <c r="B193" s="304"/>
-      <c r="C193" s="318"/>
+      <c r="B193" s="316"/>
+      <c r="C193" s="322"/>
       <c r="D193" s="193" t="s">
         <v>162</v>
       </c>
@@ -25381,8 +25393,8 @@
     </row>
     <row r="194" spans="1:13" ht="14.25" customHeight="1">
       <c r="A194" s="181"/>
-      <c r="B194" s="305"/>
-      <c r="C194" s="319"/>
+      <c r="B194" s="315"/>
+      <c r="C194" s="323"/>
       <c r="D194" s="193" t="s">
         <v>163</v>
       </c>
@@ -25400,13 +25412,13 @@
     </row>
     <row r="195" spans="1:13" ht="14.25" customHeight="1">
       <c r="A195" s="181"/>
-      <c r="B195" s="312" t="s">
+      <c r="B195" s="306" t="s">
         <v>128</v>
       </c>
-      <c r="C195" s="308" t="s">
+      <c r="C195" s="311" t="s">
         <v>57</v>
       </c>
-      <c r="D195" s="303" t="s">
+      <c r="D195" s="314" t="s">
         <v>56</v>
       </c>
       <c r="E195" s="175"/>
@@ -25427,9 +25439,9 @@
     </row>
     <row r="196" spans="1:13" ht="14.25" customHeight="1">
       <c r="A196" s="181"/>
-      <c r="B196" s="313"/>
-      <c r="C196" s="309"/>
-      <c r="D196" s="305"/>
+      <c r="B196" s="307"/>
+      <c r="C196" s="312"/>
+      <c r="D196" s="315"/>
       <c r="E196" s="175"/>
       <c r="F196" s="176"/>
       <c r="G196" s="177" t="s">
@@ -25448,8 +25460,8 @@
     </row>
     <row r="197" spans="1:13" ht="14.25" customHeight="1">
       <c r="A197" s="181"/>
-      <c r="B197" s="313"/>
-      <c r="C197" s="309"/>
+      <c r="B197" s="307"/>
+      <c r="C197" s="312"/>
       <c r="D197" s="255" t="s">
         <v>2878</v>
       </c>
@@ -25469,9 +25481,9 @@
     </row>
     <row r="198" spans="1:13" ht="14.25" customHeight="1">
       <c r="A198" s="181"/>
-      <c r="B198" s="313"/>
-      <c r="C198" s="309"/>
-      <c r="D198" s="303" t="s">
+      <c r="B198" s="307"/>
+      <c r="C198" s="312"/>
+      <c r="D198" s="314" t="s">
         <v>61</v>
       </c>
       <c r="E198" s="175"/>
@@ -25490,9 +25502,9 @@
     </row>
     <row r="199" spans="1:13" ht="14.25" customHeight="1">
       <c r="A199" s="181"/>
-      <c r="B199" s="313"/>
-      <c r="C199" s="309"/>
-      <c r="D199" s="304"/>
+      <c r="B199" s="307"/>
+      <c r="C199" s="312"/>
+      <c r="D199" s="316"/>
       <c r="E199" s="175"/>
       <c r="F199" s="176"/>
       <c r="G199" s="177" t="s">
@@ -25511,9 +25523,9 @@
     </row>
     <row r="200" spans="1:13" ht="14.25" customHeight="1">
       <c r="A200" s="181"/>
-      <c r="B200" s="313"/>
-      <c r="C200" s="309"/>
-      <c r="D200" s="305"/>
+      <c r="B200" s="307"/>
+      <c r="C200" s="312"/>
+      <c r="D200" s="315"/>
       <c r="E200" s="175"/>
       <c r="F200" s="176"/>
       <c r="G200" s="177" t="s">
@@ -25530,9 +25542,9 @@
     </row>
     <row r="201" spans="1:13" ht="14.25" customHeight="1">
       <c r="A201" s="181"/>
-      <c r="B201" s="313"/>
-      <c r="C201" s="309"/>
-      <c r="D201" s="303" t="s">
+      <c r="B201" s="307"/>
+      <c r="C201" s="312"/>
+      <c r="D201" s="314" t="s">
         <v>65</v>
       </c>
       <c r="E201" s="175"/>
@@ -25553,9 +25565,9 @@
     </row>
     <row r="202" spans="1:13" ht="33">
       <c r="A202" s="181"/>
-      <c r="B202" s="313"/>
-      <c r="C202" s="309"/>
-      <c r="D202" s="305"/>
+      <c r="B202" s="307"/>
+      <c r="C202" s="312"/>
+      <c r="D202" s="315"/>
       <c r="E202" s="175"/>
       <c r="F202" s="176"/>
       <c r="G202" s="177" t="s">
@@ -25572,9 +25584,9 @@
     </row>
     <row r="203" spans="1:13" ht="14.25" customHeight="1">
       <c r="A203" s="181"/>
-      <c r="B203" s="313"/>
-      <c r="C203" s="309"/>
-      <c r="D203" s="303" t="s">
+      <c r="B203" s="307"/>
+      <c r="C203" s="312"/>
+      <c r="D203" s="314" t="s">
         <v>68</v>
       </c>
       <c r="E203" s="175"/>
@@ -25593,9 +25605,9 @@
     </row>
     <row r="204" spans="1:13" ht="14.25" customHeight="1">
       <c r="A204" s="181"/>
-      <c r="B204" s="313"/>
-      <c r="C204" s="309"/>
-      <c r="D204" s="305"/>
+      <c r="B204" s="307"/>
+      <c r="C204" s="312"/>
+      <c r="D204" s="315"/>
       <c r="E204" s="175"/>
       <c r="F204" s="176"/>
       <c r="G204" s="177" t="s">
@@ -25614,9 +25626,9 @@
     </row>
     <row r="205" spans="1:13" ht="14.25" customHeight="1">
       <c r="A205" s="181"/>
-      <c r="B205" s="313"/>
-      <c r="C205" s="309"/>
-      <c r="D205" s="303" t="s">
+      <c r="B205" s="307"/>
+      <c r="C205" s="312"/>
+      <c r="D205" s="314" t="s">
         <v>70</v>
       </c>
       <c r="E205" s="175"/>
@@ -25635,9 +25647,9 @@
     </row>
     <row r="206" spans="1:13" ht="14.25" customHeight="1">
       <c r="A206" s="181"/>
-      <c r="B206" s="313"/>
-      <c r="C206" s="309"/>
-      <c r="D206" s="304"/>
+      <c r="B206" s="307"/>
+      <c r="C206" s="312"/>
+      <c r="D206" s="316"/>
       <c r="E206" s="175"/>
       <c r="F206" s="176"/>
       <c r="G206" s="177" t="s">
@@ -25656,9 +25668,9 @@
     </row>
     <row r="207" spans="1:13" ht="14.25" customHeight="1">
       <c r="A207" s="181"/>
-      <c r="B207" s="313"/>
-      <c r="C207" s="309"/>
-      <c r="D207" s="304"/>
+      <c r="B207" s="307"/>
+      <c r="C207" s="312"/>
+      <c r="D207" s="316"/>
       <c r="E207" s="175"/>
       <c r="F207" s="176"/>
       <c r="G207" s="177" t="s">
@@ -25675,9 +25687,9 @@
     </row>
     <row r="208" spans="1:13" ht="14.25" customHeight="1">
       <c r="A208" s="181"/>
-      <c r="B208" s="313"/>
-      <c r="C208" s="309"/>
-      <c r="D208" s="304"/>
+      <c r="B208" s="307"/>
+      <c r="C208" s="312"/>
+      <c r="D208" s="316"/>
       <c r="E208" s="175"/>
       <c r="F208" s="176"/>
       <c r="G208" s="177" t="s">
@@ -25694,9 +25706,9 @@
     </row>
     <row r="209" spans="1:13" ht="14.25" customHeight="1">
       <c r="A209" s="181"/>
-      <c r="B209" s="313"/>
-      <c r="C209" s="309"/>
-      <c r="D209" s="304"/>
+      <c r="B209" s="307"/>
+      <c r="C209" s="312"/>
+      <c r="D209" s="316"/>
       <c r="E209" s="175"/>
       <c r="F209" s="176"/>
       <c r="G209" s="177" t="s">
@@ -25713,9 +25725,9 @@
     </row>
     <row r="210" spans="1:13" ht="30" customHeight="1">
       <c r="A210" s="181"/>
-      <c r="B210" s="313"/>
-      <c r="C210" s="310"/>
-      <c r="D210" s="305"/>
+      <c r="B210" s="307"/>
+      <c r="C210" s="313"/>
+      <c r="D210" s="315"/>
       <c r="E210" s="175"/>
       <c r="F210" s="176"/>
       <c r="G210" s="177" t="s">
@@ -25734,11 +25746,11 @@
     </row>
     <row r="211" spans="1:13" ht="14.25" customHeight="1">
       <c r="A211" s="181"/>
-      <c r="B211" s="313"/>
-      <c r="C211" s="308" t="s">
+      <c r="B211" s="307"/>
+      <c r="C211" s="311" t="s">
         <v>112</v>
       </c>
-      <c r="D211" s="303" t="s">
+      <c r="D211" s="314" t="s">
         <v>1446</v>
       </c>
       <c r="E211" s="175"/>
@@ -25757,9 +25769,9 @@
     </row>
     <row r="212" spans="1:13" ht="14.25" customHeight="1">
       <c r="A212" s="181"/>
-      <c r="B212" s="313"/>
-      <c r="C212" s="309"/>
-      <c r="D212" s="304"/>
+      <c r="B212" s="307"/>
+      <c r="C212" s="312"/>
+      <c r="D212" s="316"/>
       <c r="E212" s="175"/>
       <c r="F212" s="176"/>
       <c r="G212" s="177" t="s">
@@ -25776,9 +25788,9 @@
     </row>
     <row r="213" spans="1:13" ht="14.25" customHeight="1">
       <c r="A213" s="181"/>
-      <c r="B213" s="313"/>
-      <c r="C213" s="309"/>
-      <c r="D213" s="304"/>
+      <c r="B213" s="307"/>
+      <c r="C213" s="312"/>
+      <c r="D213" s="316"/>
       <c r="E213" s="175"/>
       <c r="F213" s="176"/>
       <c r="G213" s="177" t="s">
@@ -25795,9 +25807,9 @@
     </row>
     <row r="214" spans="1:13" ht="14.25" customHeight="1">
       <c r="A214" s="181"/>
-      <c r="B214" s="313"/>
-      <c r="C214" s="309"/>
-      <c r="D214" s="304"/>
+      <c r="B214" s="307"/>
+      <c r="C214" s="312"/>
+      <c r="D214" s="316"/>
       <c r="E214" s="175"/>
       <c r="F214" s="176"/>
       <c r="G214" s="177" t="s">
@@ -25814,9 +25826,9 @@
     </row>
     <row r="215" spans="1:13" ht="14.25" customHeight="1">
       <c r="A215" s="181"/>
-      <c r="B215" s="313"/>
-      <c r="C215" s="309"/>
-      <c r="D215" s="304"/>
+      <c r="B215" s="307"/>
+      <c r="C215" s="312"/>
+      <c r="D215" s="316"/>
       <c r="E215" s="175"/>
       <c r="F215" s="176"/>
       <c r="G215" s="177" t="s">
@@ -25833,9 +25845,9 @@
     </row>
     <row r="216" spans="1:13" ht="14.25" customHeight="1">
       <c r="A216" s="181"/>
-      <c r="B216" s="313"/>
-      <c r="C216" s="309"/>
-      <c r="D216" s="304"/>
+      <c r="B216" s="307"/>
+      <c r="C216" s="312"/>
+      <c r="D216" s="316"/>
       <c r="E216" s="175"/>
       <c r="F216" s="176"/>
       <c r="G216" s="177" t="s">
@@ -25852,9 +25864,9 @@
     </row>
     <row r="217" spans="1:13" ht="14.25" customHeight="1">
       <c r="A217" s="181"/>
-      <c r="B217" s="313"/>
-      <c r="C217" s="309"/>
-      <c r="D217" s="304"/>
+      <c r="B217" s="307"/>
+      <c r="C217" s="312"/>
+      <c r="D217" s="316"/>
       <c r="E217" s="175"/>
       <c r="F217" s="176"/>
       <c r="G217" s="177" t="s">
@@ -25871,9 +25883,9 @@
     </row>
     <row r="218" spans="1:13" ht="14.25" customHeight="1">
       <c r="A218" s="181"/>
-      <c r="B218" s="313"/>
-      <c r="C218" s="309"/>
-      <c r="D218" s="304"/>
+      <c r="B218" s="307"/>
+      <c r="C218" s="312"/>
+      <c r="D218" s="316"/>
       <c r="E218" s="175"/>
       <c r="F218" s="176"/>
       <c r="G218" s="177" t="s">
@@ -25890,9 +25902,9 @@
     </row>
     <row r="219" spans="1:13" ht="14.25" customHeight="1">
       <c r="A219" s="181"/>
-      <c r="B219" s="313"/>
-      <c r="C219" s="309"/>
-      <c r="D219" s="304"/>
+      <c r="B219" s="307"/>
+      <c r="C219" s="312"/>
+      <c r="D219" s="316"/>
       <c r="E219" s="175"/>
       <c r="F219" s="176"/>
       <c r="G219" s="177" t="s">
@@ -25909,9 +25921,9 @@
     </row>
     <row r="220" spans="1:13" ht="14.25" customHeight="1">
       <c r="A220" s="181"/>
-      <c r="B220" s="313"/>
-      <c r="C220" s="309"/>
-      <c r="D220" s="304"/>
+      <c r="B220" s="307"/>
+      <c r="C220" s="312"/>
+      <c r="D220" s="316"/>
       <c r="E220" s="175"/>
       <c r="F220" s="176"/>
       <c r="G220" s="177" t="s">
@@ -25928,9 +25940,9 @@
     </row>
     <row r="221" spans="1:13" ht="14.25" customHeight="1">
       <c r="A221" s="181"/>
-      <c r="B221" s="313"/>
-      <c r="C221" s="309"/>
-      <c r="D221" s="304"/>
+      <c r="B221" s="307"/>
+      <c r="C221" s="312"/>
+      <c r="D221" s="316"/>
       <c r="E221" s="175"/>
       <c r="F221" s="176"/>
       <c r="G221" s="177" t="s">
@@ -25947,9 +25959,9 @@
     </row>
     <row r="222" spans="1:13" ht="14.25" customHeight="1">
       <c r="A222" s="181"/>
-      <c r="B222" s="313"/>
-      <c r="C222" s="309"/>
-      <c r="D222" s="304"/>
+      <c r="B222" s="307"/>
+      <c r="C222" s="312"/>
+      <c r="D222" s="316"/>
       <c r="E222" s="175"/>
       <c r="F222" s="176"/>
       <c r="G222" s="177" t="s">
@@ -25966,9 +25978,9 @@
     </row>
     <row r="223" spans="1:13" ht="14.25" customHeight="1">
       <c r="A223" s="181"/>
-      <c r="B223" s="313"/>
-      <c r="C223" s="309"/>
-      <c r="D223" s="304"/>
+      <c r="B223" s="307"/>
+      <c r="C223" s="312"/>
+      <c r="D223" s="316"/>
       <c r="E223" s="175"/>
       <c r="F223" s="176"/>
       <c r="G223" s="177" t="s">
@@ -25985,9 +25997,9 @@
     </row>
     <row r="224" spans="1:13" ht="14.25" customHeight="1">
       <c r="A224" s="181"/>
-      <c r="B224" s="313"/>
-      <c r="C224" s="309"/>
-      <c r="D224" s="304"/>
+      <c r="B224" s="307"/>
+      <c r="C224" s="312"/>
+      <c r="D224" s="316"/>
       <c r="E224" s="175"/>
       <c r="F224" s="176"/>
       <c r="G224" s="177" t="s">
@@ -26004,9 +26016,9 @@
     </row>
     <row r="225" spans="1:13" ht="14.25" customHeight="1">
       <c r="A225" s="181"/>
-      <c r="B225" s="313"/>
-      <c r="C225" s="309"/>
-      <c r="D225" s="304"/>
+      <c r="B225" s="307"/>
+      <c r="C225" s="312"/>
+      <c r="D225" s="316"/>
       <c r="E225" s="175"/>
       <c r="F225" s="176"/>
       <c r="G225" s="177" t="s">
@@ -26023,9 +26035,9 @@
     </row>
     <row r="226" spans="1:13" ht="14.25" customHeight="1">
       <c r="A226" s="181"/>
-      <c r="B226" s="313"/>
-      <c r="C226" s="309"/>
-      <c r="D226" s="304"/>
+      <c r="B226" s="307"/>
+      <c r="C226" s="312"/>
+      <c r="D226" s="316"/>
       <c r="E226" s="175"/>
       <c r="F226" s="176"/>
       <c r="G226" s="177" t="s">
@@ -26042,9 +26054,9 @@
     </row>
     <row r="227" spans="1:13" ht="14.25" customHeight="1">
       <c r="A227" s="181"/>
-      <c r="B227" s="313"/>
-      <c r="C227" s="309"/>
-      <c r="D227" s="304"/>
+      <c r="B227" s="307"/>
+      <c r="C227" s="312"/>
+      <c r="D227" s="316"/>
       <c r="E227" s="175"/>
       <c r="F227" s="176"/>
       <c r="G227" s="177" t="s">
@@ -26061,9 +26073,9 @@
     </row>
     <row r="228" spans="1:13" ht="14.25" customHeight="1">
       <c r="A228" s="181"/>
-      <c r="B228" s="313"/>
-      <c r="C228" s="309"/>
-      <c r="D228" s="304"/>
+      <c r="B228" s="307"/>
+      <c r="C228" s="312"/>
+      <c r="D228" s="316"/>
       <c r="E228" s="175"/>
       <c r="F228" s="176"/>
       <c r="G228" s="177" t="s">
@@ -26080,9 +26092,9 @@
     </row>
     <row r="229" spans="1:13" ht="14.25" customHeight="1">
       <c r="A229" s="181"/>
-      <c r="B229" s="313"/>
-      <c r="C229" s="309"/>
-      <c r="D229" s="304"/>
+      <c r="B229" s="307"/>
+      <c r="C229" s="312"/>
+      <c r="D229" s="316"/>
       <c r="E229" s="175"/>
       <c r="F229" s="176"/>
       <c r="G229" s="177" t="s">
@@ -26099,9 +26111,9 @@
     </row>
     <row r="230" spans="1:13" ht="14.25" customHeight="1">
       <c r="A230" s="181"/>
-      <c r="B230" s="313"/>
-      <c r="C230" s="309"/>
-      <c r="D230" s="304"/>
+      <c r="B230" s="307"/>
+      <c r="C230" s="312"/>
+      <c r="D230" s="316"/>
       <c r="E230" s="175"/>
       <c r="F230" s="176"/>
       <c r="G230" s="177" t="s">
@@ -26118,9 +26130,9 @@
     </row>
     <row r="231" spans="1:13" ht="14.25" customHeight="1">
       <c r="A231" s="181"/>
-      <c r="B231" s="313"/>
-      <c r="C231" s="309"/>
-      <c r="D231" s="304"/>
+      <c r="B231" s="307"/>
+      <c r="C231" s="312"/>
+      <c r="D231" s="316"/>
       <c r="E231" s="175"/>
       <c r="F231" s="176"/>
       <c r="G231" s="177" t="s">
@@ -26137,9 +26149,9 @@
     </row>
     <row r="232" spans="1:13" ht="14.25" customHeight="1">
       <c r="A232" s="181"/>
-      <c r="B232" s="313"/>
-      <c r="C232" s="309"/>
-      <c r="D232" s="304"/>
+      <c r="B232" s="307"/>
+      <c r="C232" s="312"/>
+      <c r="D232" s="316"/>
       <c r="E232" s="175"/>
       <c r="F232" s="176"/>
       <c r="G232" s="177" t="s">
@@ -26156,9 +26168,9 @@
     </row>
     <row r="233" spans="1:13" ht="14.25" customHeight="1">
       <c r="A233" s="181"/>
-      <c r="B233" s="313"/>
-      <c r="C233" s="309"/>
-      <c r="D233" s="304"/>
+      <c r="B233" s="307"/>
+      <c r="C233" s="312"/>
+      <c r="D233" s="316"/>
       <c r="E233" s="175"/>
       <c r="F233" s="176"/>
       <c r="G233" s="177" t="s">
@@ -26175,9 +26187,9 @@
     </row>
     <row r="234" spans="1:13" ht="14.25" customHeight="1">
       <c r="A234" s="181"/>
-      <c r="B234" s="313"/>
-      <c r="C234" s="309"/>
-      <c r="D234" s="304"/>
+      <c r="B234" s="307"/>
+      <c r="C234" s="312"/>
+      <c r="D234" s="316"/>
       <c r="E234" s="175"/>
       <c r="F234" s="176"/>
       <c r="G234" s="177" t="s">
@@ -26194,9 +26206,9 @@
     </row>
     <row r="235" spans="1:13" ht="14.25" customHeight="1">
       <c r="A235" s="181"/>
-      <c r="B235" s="313"/>
-      <c r="C235" s="309"/>
-      <c r="D235" s="304"/>
+      <c r="B235" s="307"/>
+      <c r="C235" s="312"/>
+      <c r="D235" s="316"/>
       <c r="E235" s="175"/>
       <c r="F235" s="176"/>
       <c r="G235" s="177" t="s">
@@ -26213,9 +26225,9 @@
     </row>
     <row r="236" spans="1:13" ht="14.25" customHeight="1">
       <c r="A236" s="181"/>
-      <c r="B236" s="313"/>
-      <c r="C236" s="309"/>
-      <c r="D236" s="304"/>
+      <c r="B236" s="307"/>
+      <c r="C236" s="312"/>
+      <c r="D236" s="316"/>
       <c r="E236" s="175"/>
       <c r="F236" s="176"/>
       <c r="G236" s="177" t="s">
@@ -26232,9 +26244,9 @@
     </row>
     <row r="237" spans="1:13" ht="14.25" customHeight="1">
       <c r="A237" s="181"/>
-      <c r="B237" s="313"/>
-      <c r="C237" s="309"/>
-      <c r="D237" s="304"/>
+      <c r="B237" s="307"/>
+      <c r="C237" s="312"/>
+      <c r="D237" s="316"/>
       <c r="E237" s="175"/>
       <c r="F237" s="176"/>
       <c r="G237" s="177" t="s">
@@ -26251,9 +26263,9 @@
     </row>
     <row r="238" spans="1:13" ht="14.25" customHeight="1">
       <c r="A238" s="181"/>
-      <c r="B238" s="313"/>
-      <c r="C238" s="309"/>
-      <c r="D238" s="304"/>
+      <c r="B238" s="307"/>
+      <c r="C238" s="312"/>
+      <c r="D238" s="316"/>
       <c r="E238" s="175"/>
       <c r="F238" s="176"/>
       <c r="G238" s="177" t="s">
@@ -26270,9 +26282,9 @@
     </row>
     <row r="239" spans="1:13" ht="14.25" customHeight="1">
       <c r="A239" s="181"/>
-      <c r="B239" s="313"/>
-      <c r="C239" s="309"/>
-      <c r="D239" s="304"/>
+      <c r="B239" s="307"/>
+      <c r="C239" s="312"/>
+      <c r="D239" s="316"/>
       <c r="E239" s="175"/>
       <c r="F239" s="176"/>
       <c r="G239" s="177" t="s">
@@ -26289,9 +26301,9 @@
     </row>
     <row r="240" spans="1:13" ht="14.25" customHeight="1">
       <c r="A240" s="181"/>
-      <c r="B240" s="313"/>
-      <c r="C240" s="309"/>
-      <c r="D240" s="304"/>
+      <c r="B240" s="307"/>
+      <c r="C240" s="312"/>
+      <c r="D240" s="316"/>
       <c r="E240" s="175"/>
       <c r="F240" s="176"/>
       <c r="G240" s="177" t="s">
@@ -26308,9 +26320,9 @@
     </row>
     <row r="241" spans="1:13" ht="14.25" customHeight="1">
       <c r="A241" s="181"/>
-      <c r="B241" s="313"/>
-      <c r="C241" s="310"/>
-      <c r="D241" s="305"/>
+      <c r="B241" s="307"/>
+      <c r="C241" s="313"/>
+      <c r="D241" s="315"/>
       <c r="E241" s="175"/>
       <c r="F241" s="176"/>
       <c r="G241" s="177" t="s">
@@ -26327,11 +26339,11 @@
     </row>
     <row r="242" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A242" s="289"/>
-      <c r="B242" s="313"/>
-      <c r="C242" s="320" t="s">
+      <c r="B242" s="307"/>
+      <c r="C242" s="335" t="s">
         <v>1464</v>
       </c>
-      <c r="D242" s="335" t="s">
+      <c r="D242" s="318" t="s">
         <v>133</v>
       </c>
       <c r="E242" s="290"/>
@@ -26350,9 +26362,9 @@
     </row>
     <row r="243" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A243" s="289"/>
-      <c r="B243" s="313"/>
-      <c r="C243" s="321"/>
-      <c r="D243" s="336"/>
+      <c r="B243" s="307"/>
+      <c r="C243" s="336"/>
+      <c r="D243" s="319"/>
       <c r="E243" s="290"/>
       <c r="F243" s="291"/>
       <c r="G243" s="292" t="s">
@@ -26369,9 +26381,9 @@
     </row>
     <row r="244" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A244" s="289"/>
-      <c r="B244" s="313"/>
-      <c r="C244" s="321"/>
-      <c r="D244" s="336"/>
+      <c r="B244" s="307"/>
+      <c r="C244" s="336"/>
+      <c r="D244" s="319"/>
       <c r="E244" s="290"/>
       <c r="F244" s="291"/>
       <c r="G244" s="292" t="s">
@@ -26388,9 +26400,9 @@
     </row>
     <row r="245" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A245" s="289"/>
-      <c r="B245" s="313"/>
-      <c r="C245" s="321"/>
-      <c r="D245" s="336"/>
+      <c r="B245" s="307"/>
+      <c r="C245" s="336"/>
+      <c r="D245" s="319"/>
       <c r="E245" s="290"/>
       <c r="F245" s="291"/>
       <c r="G245" s="292" t="s">
@@ -26407,9 +26419,9 @@
     </row>
     <row r="246" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A246" s="289"/>
-      <c r="B246" s="313"/>
-      <c r="C246" s="321"/>
-      <c r="D246" s="336"/>
+      <c r="B246" s="307"/>
+      <c r="C246" s="336"/>
+      <c r="D246" s="319"/>
       <c r="E246" s="290"/>
       <c r="F246" s="291"/>
       <c r="G246" s="292" t="s">
@@ -26426,9 +26438,9 @@
     </row>
     <row r="247" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A247" s="289"/>
-      <c r="B247" s="313"/>
-      <c r="C247" s="321"/>
-      <c r="D247" s="336"/>
+      <c r="B247" s="307"/>
+      <c r="C247" s="336"/>
+      <c r="D247" s="319"/>
       <c r="E247" s="290"/>
       <c r="F247" s="291"/>
       <c r="G247" s="292" t="s">
@@ -26445,9 +26457,9 @@
     </row>
     <row r="248" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A248" s="289"/>
-      <c r="B248" s="313"/>
-      <c r="C248" s="321"/>
-      <c r="D248" s="336"/>
+      <c r="B248" s="307"/>
+      <c r="C248" s="336"/>
+      <c r="D248" s="319"/>
       <c r="E248" s="290"/>
       <c r="F248" s="291"/>
       <c r="G248" s="292" t="s">
@@ -26464,9 +26476,9 @@
     </row>
     <row r="249" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A249" s="289"/>
-      <c r="B249" s="313"/>
-      <c r="C249" s="321"/>
-      <c r="D249" s="336"/>
+      <c r="B249" s="307"/>
+      <c r="C249" s="336"/>
+      <c r="D249" s="319"/>
       <c r="E249" s="290"/>
       <c r="F249" s="291"/>
       <c r="G249" s="292" t="s">
@@ -26483,9 +26495,9 @@
     </row>
     <row r="250" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A250" s="289"/>
-      <c r="B250" s="313"/>
-      <c r="C250" s="321"/>
-      <c r="D250" s="336"/>
+      <c r="B250" s="307"/>
+      <c r="C250" s="336"/>
+      <c r="D250" s="319"/>
       <c r="E250" s="290"/>
       <c r="F250" s="291"/>
       <c r="G250" s="292" t="s">
@@ -26502,9 +26514,9 @@
     </row>
     <row r="251" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A251" s="289"/>
-      <c r="B251" s="313"/>
-      <c r="C251" s="321"/>
-      <c r="D251" s="336"/>
+      <c r="B251" s="307"/>
+      <c r="C251" s="336"/>
+      <c r="D251" s="319"/>
       <c r="E251" s="290"/>
       <c r="F251" s="291"/>
       <c r="G251" s="292" t="s">
@@ -26521,9 +26533,9 @@
     </row>
     <row r="252" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A252" s="289"/>
-      <c r="B252" s="313"/>
-      <c r="C252" s="321"/>
-      <c r="D252" s="336"/>
+      <c r="B252" s="307"/>
+      <c r="C252" s="336"/>
+      <c r="D252" s="319"/>
       <c r="E252" s="290"/>
       <c r="F252" s="291"/>
       <c r="G252" s="292" t="s">
@@ -26540,9 +26552,9 @@
     </row>
     <row r="253" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A253" s="289"/>
-      <c r="B253" s="313"/>
-      <c r="C253" s="321"/>
-      <c r="D253" s="336"/>
+      <c r="B253" s="307"/>
+      <c r="C253" s="336"/>
+      <c r="D253" s="319"/>
       <c r="E253" s="290"/>
       <c r="F253" s="291"/>
       <c r="G253" s="292" t="s">
@@ -26559,9 +26571,9 @@
     </row>
     <row r="254" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A254" s="289"/>
-      <c r="B254" s="313"/>
-      <c r="C254" s="321"/>
-      <c r="D254" s="336"/>
+      <c r="B254" s="307"/>
+      <c r="C254" s="336"/>
+      <c r="D254" s="319"/>
       <c r="E254" s="290"/>
       <c r="F254" s="291"/>
       <c r="G254" s="292" t="s">
@@ -26578,9 +26590,9 @@
     </row>
     <row r="255" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A255" s="289"/>
-      <c r="B255" s="313"/>
-      <c r="C255" s="321"/>
-      <c r="D255" s="336"/>
+      <c r="B255" s="307"/>
+      <c r="C255" s="336"/>
+      <c r="D255" s="319"/>
       <c r="E255" s="290"/>
       <c r="F255" s="291"/>
       <c r="G255" s="292" t="s">
@@ -26597,9 +26609,9 @@
     </row>
     <row r="256" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A256" s="289"/>
-      <c r="B256" s="313"/>
-      <c r="C256" s="321"/>
-      <c r="D256" s="336"/>
+      <c r="B256" s="307"/>
+      <c r="C256" s="336"/>
+      <c r="D256" s="319"/>
       <c r="E256" s="290"/>
       <c r="F256" s="291"/>
       <c r="G256" s="292" t="s">
@@ -26616,9 +26628,9 @@
     </row>
     <row r="257" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A257" s="289"/>
-      <c r="B257" s="313"/>
-      <c r="C257" s="321"/>
-      <c r="D257" s="336"/>
+      <c r="B257" s="307"/>
+      <c r="C257" s="336"/>
+      <c r="D257" s="319"/>
       <c r="E257" s="290"/>
       <c r="F257" s="291"/>
       <c r="G257" s="292" t="s">
@@ -26635,9 +26647,9 @@
     </row>
     <row r="258" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A258" s="289"/>
-      <c r="B258" s="313"/>
-      <c r="C258" s="322"/>
-      <c r="D258" s="337"/>
+      <c r="B258" s="307"/>
+      <c r="C258" s="337"/>
+      <c r="D258" s="320"/>
       <c r="E258" s="290"/>
       <c r="F258" s="291"/>
       <c r="G258" s="292" t="s">
@@ -26654,11 +26666,11 @@
     </row>
     <row r="259" spans="1:13" ht="14.25" customHeight="1">
       <c r="A259" s="181"/>
-      <c r="B259" s="313"/>
-      <c r="C259" s="317" t="s">
+      <c r="B259" s="307"/>
+      <c r="C259" s="321" t="s">
         <v>126</v>
       </c>
-      <c r="D259" s="303" t="s">
+      <c r="D259" s="314" t="s">
         <v>1470</v>
       </c>
       <c r="E259" s="175"/>
@@ -26677,9 +26689,9 @@
     </row>
     <row r="260" spans="1:13" ht="14.25" customHeight="1">
       <c r="A260" s="181"/>
-      <c r="B260" s="313"/>
-      <c r="C260" s="318"/>
-      <c r="D260" s="304"/>
+      <c r="B260" s="307"/>
+      <c r="C260" s="322"/>
+      <c r="D260" s="316"/>
       <c r="E260" s="175"/>
       <c r="F260" s="175"/>
       <c r="G260" s="177" t="s">
@@ -26696,9 +26708,9 @@
     </row>
     <row r="261" spans="1:13" ht="14.25" customHeight="1">
       <c r="A261" s="181"/>
-      <c r="B261" s="313"/>
-      <c r="C261" s="318"/>
-      <c r="D261" s="304"/>
+      <c r="B261" s="307"/>
+      <c r="C261" s="322"/>
+      <c r="D261" s="316"/>
       <c r="E261" s="175"/>
       <c r="F261" s="175"/>
       <c r="G261" s="177" t="s">
@@ -26715,9 +26727,9 @@
     </row>
     <row r="262" spans="1:13" ht="14.25" customHeight="1">
       <c r="A262" s="181"/>
-      <c r="B262" s="313"/>
-      <c r="C262" s="318"/>
-      <c r="D262" s="304"/>
+      <c r="B262" s="307"/>
+      <c r="C262" s="322"/>
+      <c r="D262" s="316"/>
       <c r="E262" s="175"/>
       <c r="F262" s="175"/>
       <c r="G262" s="177" t="s">
@@ -26734,9 +26746,9 @@
     </row>
     <row r="263" spans="1:13" ht="14.25" customHeight="1">
       <c r="A263" s="181"/>
-      <c r="B263" s="313"/>
-      <c r="C263" s="318"/>
-      <c r="D263" s="304"/>
+      <c r="B263" s="307"/>
+      <c r="C263" s="322"/>
+      <c r="D263" s="316"/>
       <c r="E263" s="175"/>
       <c r="F263" s="175"/>
       <c r="G263" s="177" t="s">
@@ -26753,9 +26765,9 @@
     </row>
     <row r="264" spans="1:13" ht="14.25" customHeight="1">
       <c r="A264" s="181"/>
-      <c r="B264" s="313"/>
-      <c r="C264" s="318"/>
-      <c r="D264" s="304"/>
+      <c r="B264" s="307"/>
+      <c r="C264" s="322"/>
+      <c r="D264" s="316"/>
       <c r="E264" s="175"/>
       <c r="F264" s="175"/>
       <c r="G264" s="177" t="s">
@@ -26772,9 +26784,9 @@
     </row>
     <row r="265" spans="1:13" ht="14.25" customHeight="1">
       <c r="A265" s="181"/>
-      <c r="B265" s="313"/>
-      <c r="C265" s="318"/>
-      <c r="D265" s="304"/>
+      <c r="B265" s="307"/>
+      <c r="C265" s="322"/>
+      <c r="D265" s="316"/>
       <c r="E265" s="175"/>
       <c r="F265" s="175"/>
       <c r="G265" s="177" t="s">
@@ -26791,9 +26803,9 @@
     </row>
     <row r="266" spans="1:13" ht="14.25" customHeight="1">
       <c r="A266" s="181"/>
-      <c r="B266" s="313"/>
-      <c r="C266" s="318"/>
-      <c r="D266" s="304"/>
+      <c r="B266" s="307"/>
+      <c r="C266" s="322"/>
+      <c r="D266" s="316"/>
       <c r="E266" s="175"/>
       <c r="F266" s="175"/>
       <c r="G266" s="177" t="s">
@@ -26810,9 +26822,9 @@
     </row>
     <row r="267" spans="1:13" ht="14.25" customHeight="1">
       <c r="A267" s="181"/>
-      <c r="B267" s="313"/>
-      <c r="C267" s="318"/>
-      <c r="D267" s="304"/>
+      <c r="B267" s="307"/>
+      <c r="C267" s="322"/>
+      <c r="D267" s="316"/>
       <c r="E267" s="175"/>
       <c r="F267" s="175"/>
       <c r="G267" s="177" t="s">
@@ -26829,9 +26841,9 @@
     </row>
     <row r="268" spans="1:13" ht="14.25" customHeight="1">
       <c r="A268" s="181"/>
-      <c r="B268" s="313"/>
-      <c r="C268" s="318"/>
-      <c r="D268" s="304"/>
+      <c r="B268" s="307"/>
+      <c r="C268" s="322"/>
+      <c r="D268" s="316"/>
       <c r="E268" s="175"/>
       <c r="F268" s="175"/>
       <c r="G268" s="177" t="s">
@@ -26848,9 +26860,9 @@
     </row>
     <row r="269" spans="1:13" ht="14.25" customHeight="1">
       <c r="A269" s="181"/>
-      <c r="B269" s="313"/>
-      <c r="C269" s="318"/>
-      <c r="D269" s="304"/>
+      <c r="B269" s="307"/>
+      <c r="C269" s="322"/>
+      <c r="D269" s="316"/>
       <c r="E269" s="175"/>
       <c r="F269" s="175"/>
       <c r="G269" s="177" t="s">
@@ -26867,9 +26879,9 @@
     </row>
     <row r="270" spans="1:13" ht="14.25" customHeight="1">
       <c r="A270" s="181"/>
-      <c r="B270" s="313"/>
-      <c r="C270" s="318"/>
-      <c r="D270" s="304"/>
+      <c r="B270" s="307"/>
+      <c r="C270" s="322"/>
+      <c r="D270" s="316"/>
       <c r="E270" s="175"/>
       <c r="F270" s="175"/>
       <c r="G270" s="177" t="s">
@@ -26886,9 +26898,9 @@
     </row>
     <row r="271" spans="1:13" ht="14.25" customHeight="1">
       <c r="A271" s="181"/>
-      <c r="B271" s="313"/>
-      <c r="C271" s="318"/>
-      <c r="D271" s="304"/>
+      <c r="B271" s="307"/>
+      <c r="C271" s="322"/>
+      <c r="D271" s="316"/>
       <c r="E271" s="175"/>
       <c r="F271" s="175"/>
       <c r="G271" s="177" t="s">
@@ -26905,9 +26917,9 @@
     </row>
     <row r="272" spans="1:13" ht="14.25" customHeight="1">
       <c r="A272" s="181"/>
-      <c r="B272" s="313"/>
-      <c r="C272" s="318"/>
-      <c r="D272" s="304"/>
+      <c r="B272" s="307"/>
+      <c r="C272" s="322"/>
+      <c r="D272" s="316"/>
       <c r="E272" s="175"/>
       <c r="F272" s="175"/>
       <c r="G272" s="177" t="s">
@@ -26924,9 +26936,9 @@
     </row>
     <row r="273" spans="1:13" ht="14.25" customHeight="1">
       <c r="A273" s="181"/>
-      <c r="B273" s="313"/>
-      <c r="C273" s="318"/>
-      <c r="D273" s="304"/>
+      <c r="B273" s="307"/>
+      <c r="C273" s="322"/>
+      <c r="D273" s="316"/>
       <c r="E273" s="175"/>
       <c r="F273" s="175"/>
       <c r="G273" s="177" t="s">
@@ -26943,9 +26955,9 @@
     </row>
     <row r="274" spans="1:13" ht="14.25" customHeight="1">
       <c r="A274" s="181"/>
-      <c r="B274" s="313"/>
-      <c r="C274" s="318"/>
-      <c r="D274" s="304"/>
+      <c r="B274" s="307"/>
+      <c r="C274" s="322"/>
+      <c r="D274" s="316"/>
       <c r="E274" s="175"/>
       <c r="F274" s="175"/>
       <c r="G274" s="177" t="s">
@@ -26962,9 +26974,9 @@
     </row>
     <row r="275" spans="1:13" ht="14.25" customHeight="1">
       <c r="A275" s="181"/>
-      <c r="B275" s="313"/>
-      <c r="C275" s="318"/>
-      <c r="D275" s="304"/>
+      <c r="B275" s="307"/>
+      <c r="C275" s="322"/>
+      <c r="D275" s="316"/>
       <c r="E275" s="175"/>
       <c r="F275" s="175"/>
       <c r="G275" s="177" t="s">
@@ -26981,9 +26993,9 @@
     </row>
     <row r="276" spans="1:13" ht="14.25" customHeight="1">
       <c r="A276" s="181"/>
-      <c r="B276" s="313"/>
-      <c r="C276" s="318"/>
-      <c r="D276" s="304"/>
+      <c r="B276" s="307"/>
+      <c r="C276" s="322"/>
+      <c r="D276" s="316"/>
       <c r="E276" s="175"/>
       <c r="F276" s="175"/>
       <c r="G276" s="177" t="s">
@@ -27000,9 +27012,9 @@
     </row>
     <row r="277" spans="1:13" ht="14.25" customHeight="1">
       <c r="A277" s="181"/>
-      <c r="B277" s="313"/>
-      <c r="C277" s="318"/>
-      <c r="D277" s="304"/>
+      <c r="B277" s="307"/>
+      <c r="C277" s="322"/>
+      <c r="D277" s="316"/>
       <c r="E277" s="175"/>
       <c r="F277" s="175"/>
       <c r="G277" s="177" t="s">
@@ -27019,9 +27031,9 @@
     </row>
     <row r="278" spans="1:13" ht="14.25" customHeight="1">
       <c r="A278" s="181"/>
-      <c r="B278" s="313"/>
-      <c r="C278" s="318"/>
-      <c r="D278" s="304"/>
+      <c r="B278" s="307"/>
+      <c r="C278" s="322"/>
+      <c r="D278" s="316"/>
       <c r="E278" s="175"/>
       <c r="F278" s="175"/>
       <c r="G278" s="177" t="s">
@@ -27038,9 +27050,9 @@
     </row>
     <row r="279" spans="1:13" ht="14.25" customHeight="1">
       <c r="A279" s="181"/>
-      <c r="B279" s="313"/>
-      <c r="C279" s="319"/>
-      <c r="D279" s="305"/>
+      <c r="B279" s="307"/>
+      <c r="C279" s="323"/>
+      <c r="D279" s="315"/>
       <c r="E279" s="175"/>
       <c r="F279" s="175"/>
       <c r="G279" s="177" t="s">
@@ -27057,11 +27069,11 @@
     </row>
     <row r="280" spans="1:13" ht="14.25" customHeight="1">
       <c r="A280" s="181"/>
-      <c r="B280" s="313"/>
-      <c r="C280" s="317" t="s">
+      <c r="B280" s="307"/>
+      <c r="C280" s="321" t="s">
         <v>1485</v>
       </c>
-      <c r="D280" s="303" t="s">
+      <c r="D280" s="314" t="s">
         <v>1486</v>
       </c>
       <c r="E280" s="175"/>
@@ -27080,9 +27092,9 @@
     </row>
     <row r="281" spans="1:13" ht="14.25" customHeight="1">
       <c r="A281" s="181"/>
-      <c r="B281" s="313"/>
-      <c r="C281" s="318"/>
-      <c r="D281" s="304"/>
+      <c r="B281" s="307"/>
+      <c r="C281" s="322"/>
+      <c r="D281" s="316"/>
       <c r="E281" s="175"/>
       <c r="F281" s="175"/>
       <c r="G281" s="177" t="s">
@@ -27099,9 +27111,9 @@
     </row>
     <row r="282" spans="1:13" ht="14.25" customHeight="1">
       <c r="A282" s="181"/>
-      <c r="B282" s="313"/>
-      <c r="C282" s="318"/>
-      <c r="D282" s="304"/>
+      <c r="B282" s="307"/>
+      <c r="C282" s="322"/>
+      <c r="D282" s="316"/>
       <c r="E282" s="175"/>
       <c r="F282" s="175"/>
       <c r="G282" s="177" t="s">
@@ -27118,9 +27130,9 @@
     </row>
     <row r="283" spans="1:13" ht="14.25" customHeight="1">
       <c r="A283" s="181"/>
-      <c r="B283" s="313"/>
-      <c r="C283" s="318"/>
-      <c r="D283" s="304"/>
+      <c r="B283" s="307"/>
+      <c r="C283" s="322"/>
+      <c r="D283" s="316"/>
       <c r="E283" s="175"/>
       <c r="F283" s="175"/>
       <c r="G283" s="177" t="s">
@@ -27137,9 +27149,9 @@
     </row>
     <row r="284" spans="1:13" ht="14.25" customHeight="1">
       <c r="A284" s="181"/>
-      <c r="B284" s="313"/>
-      <c r="C284" s="318"/>
-      <c r="D284" s="304"/>
+      <c r="B284" s="307"/>
+      <c r="C284" s="322"/>
+      <c r="D284" s="316"/>
       <c r="E284" s="175"/>
       <c r="F284" s="175"/>
       <c r="G284" s="177" t="s">
@@ -27156,9 +27168,9 @@
     </row>
     <row r="285" spans="1:13" ht="14.25" customHeight="1">
       <c r="A285" s="181"/>
-      <c r="B285" s="313"/>
-      <c r="C285" s="318"/>
-      <c r="D285" s="304"/>
+      <c r="B285" s="307"/>
+      <c r="C285" s="322"/>
+      <c r="D285" s="316"/>
       <c r="E285" s="175"/>
       <c r="F285" s="175"/>
       <c r="G285" s="177" t="s">
@@ -27175,9 +27187,9 @@
     </row>
     <row r="286" spans="1:13" ht="14.25" customHeight="1">
       <c r="A286" s="181"/>
-      <c r="B286" s="313"/>
-      <c r="C286" s="318"/>
-      <c r="D286" s="304"/>
+      <c r="B286" s="307"/>
+      <c r="C286" s="322"/>
+      <c r="D286" s="316"/>
       <c r="E286" s="175"/>
       <c r="F286" s="175"/>
       <c r="G286" s="177" t="s">
@@ -27194,9 +27206,9 @@
     </row>
     <row r="287" spans="1:13" ht="14.25" customHeight="1">
       <c r="A287" s="181"/>
-      <c r="B287" s="313"/>
-      <c r="C287" s="318"/>
-      <c r="D287" s="304"/>
+      <c r="B287" s="307"/>
+      <c r="C287" s="322"/>
+      <c r="D287" s="316"/>
       <c r="E287" s="175"/>
       <c r="F287" s="175"/>
       <c r="G287" s="177" t="s">
@@ -27213,9 +27225,9 @@
     </row>
     <row r="288" spans="1:13" ht="14.25" customHeight="1">
       <c r="A288" s="181"/>
-      <c r="B288" s="313"/>
-      <c r="C288" s="318"/>
-      <c r="D288" s="304"/>
+      <c r="B288" s="307"/>
+      <c r="C288" s="322"/>
+      <c r="D288" s="316"/>
       <c r="E288" s="175"/>
       <c r="F288" s="175"/>
       <c r="G288" s="177" t="s">
@@ -27232,9 +27244,9 @@
     </row>
     <row r="289" spans="1:13" ht="14.25" customHeight="1">
       <c r="A289" s="181"/>
-      <c r="B289" s="313"/>
-      <c r="C289" s="318"/>
-      <c r="D289" s="304"/>
+      <c r="B289" s="307"/>
+      <c r="C289" s="322"/>
+      <c r="D289" s="316"/>
       <c r="E289" s="175"/>
       <c r="F289" s="175"/>
       <c r="G289" s="177" t="s">
@@ -27251,9 +27263,9 @@
     </row>
     <row r="290" spans="1:13" ht="14.25" customHeight="1">
       <c r="A290" s="181"/>
-      <c r="B290" s="313"/>
-      <c r="C290" s="318"/>
-      <c r="D290" s="304"/>
+      <c r="B290" s="307"/>
+      <c r="C290" s="322"/>
+      <c r="D290" s="316"/>
       <c r="E290" s="175"/>
       <c r="F290" s="175"/>
       <c r="G290" s="177" t="s">
@@ -27270,9 +27282,9 @@
     </row>
     <row r="291" spans="1:13" ht="14.25" customHeight="1">
       <c r="A291" s="181"/>
-      <c r="B291" s="313"/>
-      <c r="C291" s="318"/>
-      <c r="D291" s="304"/>
+      <c r="B291" s="307"/>
+      <c r="C291" s="322"/>
+      <c r="D291" s="316"/>
       <c r="E291" s="175"/>
       <c r="F291" s="175"/>
       <c r="G291" s="177" t="s">
@@ -27289,9 +27301,9 @@
     </row>
     <row r="292" spans="1:13" ht="14.25" customHeight="1">
       <c r="A292" s="181"/>
-      <c r="B292" s="313"/>
-      <c r="C292" s="318"/>
-      <c r="D292" s="304"/>
+      <c r="B292" s="307"/>
+      <c r="C292" s="322"/>
+      <c r="D292" s="316"/>
       <c r="E292" s="175"/>
       <c r="F292" s="175"/>
       <c r="G292" s="177" t="s">
@@ -27308,9 +27320,9 @@
     </row>
     <row r="293" spans="1:13" ht="14.25" customHeight="1">
       <c r="A293" s="181"/>
-      <c r="B293" s="313"/>
-      <c r="C293" s="318"/>
-      <c r="D293" s="304"/>
+      <c r="B293" s="307"/>
+      <c r="C293" s="322"/>
+      <c r="D293" s="316"/>
       <c r="E293" s="175"/>
       <c r="F293" s="175"/>
       <c r="G293" s="177" t="s">
@@ -27327,9 +27339,9 @@
     </row>
     <row r="294" spans="1:13" ht="14.25" customHeight="1">
       <c r="A294" s="181"/>
-      <c r="B294" s="313"/>
-      <c r="C294" s="318"/>
-      <c r="D294" s="304"/>
+      <c r="B294" s="307"/>
+      <c r="C294" s="322"/>
+      <c r="D294" s="316"/>
       <c r="E294" s="175"/>
       <c r="F294" s="175"/>
       <c r="G294" s="177" t="s">
@@ -27346,9 +27358,9 @@
     </row>
     <row r="295" spans="1:13" ht="14.25" customHeight="1">
       <c r="A295" s="181"/>
-      <c r="B295" s="313"/>
-      <c r="C295" s="318"/>
-      <c r="D295" s="304"/>
+      <c r="B295" s="307"/>
+      <c r="C295" s="322"/>
+      <c r="D295" s="316"/>
       <c r="E295" s="175"/>
       <c r="F295" s="175"/>
       <c r="G295" s="177" t="s">
@@ -27365,9 +27377,9 @@
     </row>
     <row r="296" spans="1:13" ht="14.25" customHeight="1">
       <c r="A296" s="181"/>
-      <c r="B296" s="313"/>
-      <c r="C296" s="318"/>
-      <c r="D296" s="304"/>
+      <c r="B296" s="307"/>
+      <c r="C296" s="322"/>
+      <c r="D296" s="316"/>
       <c r="E296" s="175"/>
       <c r="F296" s="175"/>
       <c r="G296" s="177" t="s">
@@ -27384,9 +27396,9 @@
     </row>
     <row r="297" spans="1:13" ht="14.25" customHeight="1">
       <c r="A297" s="181"/>
-      <c r="B297" s="313"/>
-      <c r="C297" s="318"/>
-      <c r="D297" s="304"/>
+      <c r="B297" s="307"/>
+      <c r="C297" s="322"/>
+      <c r="D297" s="316"/>
       <c r="E297" s="175"/>
       <c r="F297" s="175"/>
       <c r="G297" s="177" t="s">
@@ -27403,9 +27415,9 @@
     </row>
     <row r="298" spans="1:13" ht="14.25" customHeight="1">
       <c r="A298" s="181"/>
-      <c r="B298" s="313"/>
-      <c r="C298" s="318"/>
-      <c r="D298" s="304"/>
+      <c r="B298" s="307"/>
+      <c r="C298" s="322"/>
+      <c r="D298" s="316"/>
       <c r="E298" s="175"/>
       <c r="F298" s="175"/>
       <c r="G298" s="177" t="s">
@@ -27424,8 +27436,8 @@
       <c r="A299" s="183" t="s">
         <v>1487</v>
       </c>
-      <c r="B299" s="313"/>
-      <c r="C299" s="308" t="s">
+      <c r="B299" s="307"/>
+      <c r="C299" s="311" t="s">
         <v>3013</v>
       </c>
       <c r="D299" s="192" t="s">
@@ -27445,8 +27457,8 @@
     </row>
     <row r="300" spans="1:13" ht="14.25" customHeight="1">
       <c r="A300" s="183"/>
-      <c r="B300" s="314"/>
-      <c r="C300" s="310"/>
+      <c r="B300" s="308"/>
+      <c r="C300" s="313"/>
       <c r="D300" s="193" t="s">
         <v>2899</v>
       </c>
@@ -28131,7 +28143,7 @@
     </row>
     <row r="340" spans="1:13" ht="14.25" customHeight="1">
       <c r="A340" s="183"/>
-      <c r="B340" s="312" t="s">
+      <c r="B340" s="306" t="s">
         <v>3038</v>
       </c>
       <c r="C340" s="258" t="s">
@@ -28152,11 +28164,11 @@
     </row>
     <row r="341" spans="1:13" ht="14.25" customHeight="1">
       <c r="A341" s="183"/>
-      <c r="B341" s="313"/>
-      <c r="C341" s="311" t="s">
+      <c r="B341" s="307"/>
+      <c r="C341" s="330" t="s">
         <v>132</v>
       </c>
-      <c r="D341" s="303" t="s">
+      <c r="D341" s="314" t="s">
         <v>2149</v>
       </c>
       <c r="E341" s="175"/>
@@ -28173,9 +28185,9 @@
     </row>
     <row r="342" spans="1:13" ht="14.25" customHeight="1">
       <c r="A342" s="183"/>
-      <c r="B342" s="313"/>
-      <c r="C342" s="311"/>
-      <c r="D342" s="304"/>
+      <c r="B342" s="307"/>
+      <c r="C342" s="330"/>
+      <c r="D342" s="316"/>
       <c r="E342" s="175"/>
       <c r="F342" s="175"/>
       <c r="G342" s="177" t="s">
@@ -28192,9 +28204,9 @@
     </row>
     <row r="343" spans="1:13" ht="14.25" customHeight="1">
       <c r="A343" s="183"/>
-      <c r="B343" s="313"/>
-      <c r="C343" s="311"/>
-      <c r="D343" s="304"/>
+      <c r="B343" s="307"/>
+      <c r="C343" s="330"/>
+      <c r="D343" s="316"/>
       <c r="E343" s="175"/>
       <c r="F343" s="175"/>
       <c r="G343" s="177" t="s">
@@ -28211,9 +28223,9 @@
     </row>
     <row r="344" spans="1:13" ht="14.25" customHeight="1">
       <c r="A344" s="183"/>
-      <c r="B344" s="313"/>
-      <c r="C344" s="311"/>
-      <c r="D344" s="304"/>
+      <c r="B344" s="307"/>
+      <c r="C344" s="330"/>
+      <c r="D344" s="316"/>
       <c r="E344" s="174"/>
       <c r="F344" s="174"/>
       <c r="G344" s="259" t="s">
@@ -28230,9 +28242,9 @@
     </row>
     <row r="345" spans="1:13" ht="14.25" customHeight="1">
       <c r="A345" s="183"/>
-      <c r="B345" s="313"/>
-      <c r="C345" s="311"/>
-      <c r="D345" s="304"/>
+      <c r="B345" s="307"/>
+      <c r="C345" s="330"/>
+      <c r="D345" s="316"/>
       <c r="E345" s="174"/>
       <c r="F345" s="174"/>
       <c r="G345" s="259" t="s">
@@ -28249,9 +28261,9 @@
     </row>
     <row r="346" spans="1:13" ht="14.25" customHeight="1">
       <c r="A346" s="183"/>
-      <c r="B346" s="313"/>
-      <c r="C346" s="311"/>
-      <c r="D346" s="304"/>
+      <c r="B346" s="307"/>
+      <c r="C346" s="330"/>
+      <c r="D346" s="316"/>
       <c r="E346" s="174"/>
       <c r="F346" s="174"/>
       <c r="G346" s="259" t="s">
@@ -28268,9 +28280,9 @@
     </row>
     <row r="347" spans="1:13" ht="14.25" customHeight="1">
       <c r="A347" s="183"/>
-      <c r="B347" s="313"/>
-      <c r="C347" s="311"/>
-      <c r="D347" s="304"/>
+      <c r="B347" s="307"/>
+      <c r="C347" s="330"/>
+      <c r="D347" s="316"/>
       <c r="E347" s="174"/>
       <c r="F347" s="174"/>
       <c r="G347" s="259" t="s">
@@ -28287,9 +28299,9 @@
     </row>
     <row r="348" spans="1:13" ht="14.25" customHeight="1">
       <c r="A348" s="183"/>
-      <c r="B348" s="313"/>
-      <c r="C348" s="311"/>
-      <c r="D348" s="304"/>
+      <c r="B348" s="307"/>
+      <c r="C348" s="330"/>
+      <c r="D348" s="316"/>
       <c r="E348" s="174"/>
       <c r="F348" s="174"/>
       <c r="G348" s="259" t="s">
@@ -28306,9 +28318,9 @@
     </row>
     <row r="349" spans="1:13" ht="14.25" customHeight="1">
       <c r="A349" s="183"/>
-      <c r="B349" s="313"/>
-      <c r="C349" s="311"/>
-      <c r="D349" s="304"/>
+      <c r="B349" s="307"/>
+      <c r="C349" s="330"/>
+      <c r="D349" s="316"/>
       <c r="E349" s="174"/>
       <c r="F349" s="174"/>
       <c r="G349" s="259" t="s">
@@ -28325,9 +28337,9 @@
     </row>
     <row r="350" spans="1:13" ht="14.25" customHeight="1">
       <c r="A350" s="183"/>
-      <c r="B350" s="313"/>
-      <c r="C350" s="311"/>
-      <c r="D350" s="304"/>
+      <c r="B350" s="307"/>
+      <c r="C350" s="330"/>
+      <c r="D350" s="316"/>
       <c r="E350" s="174"/>
       <c r="F350" s="174"/>
       <c r="G350" s="259" t="s">
@@ -28344,9 +28356,9 @@
     </row>
     <row r="351" spans="1:13" ht="14.25" customHeight="1">
       <c r="A351" s="183"/>
-      <c r="B351" s="313"/>
-      <c r="C351" s="311"/>
-      <c r="D351" s="305"/>
+      <c r="B351" s="307"/>
+      <c r="C351" s="330"/>
+      <c r="D351" s="315"/>
       <c r="E351" s="174"/>
       <c r="F351" s="174"/>
       <c r="G351" s="259" t="s">
@@ -28363,8 +28375,8 @@
     </row>
     <row r="352" spans="1:13" ht="14.25" customHeight="1">
       <c r="A352" s="183"/>
-      <c r="B352" s="313"/>
-      <c r="C352" s="311"/>
+      <c r="B352" s="307"/>
+      <c r="C352" s="330"/>
       <c r="D352" s="260" t="s">
         <v>2160</v>
       </c>
@@ -28382,9 +28394,9 @@
     </row>
     <row r="353" spans="1:13" ht="14.25" customHeight="1">
       <c r="A353" s="183"/>
-      <c r="B353" s="313"/>
-      <c r="C353" s="311"/>
-      <c r="D353" s="332" t="s">
+      <c r="B353" s="307"/>
+      <c r="C353" s="330"/>
+      <c r="D353" s="309" t="s">
         <v>2175</v>
       </c>
       <c r="E353" s="174"/>
@@ -28405,9 +28417,9 @@
     </row>
     <row r="354" spans="1:13" ht="14.25" customHeight="1">
       <c r="A354" s="183"/>
-      <c r="B354" s="313"/>
-      <c r="C354" s="311"/>
-      <c r="D354" s="334"/>
+      <c r="B354" s="307"/>
+      <c r="C354" s="330"/>
+      <c r="D354" s="317"/>
       <c r="E354" s="174"/>
       <c r="F354" s="174"/>
       <c r="G354" s="259" t="s">
@@ -28424,9 +28436,9 @@
     </row>
     <row r="355" spans="1:13" ht="14.25" customHeight="1">
       <c r="A355" s="183"/>
-      <c r="B355" s="313"/>
-      <c r="C355" s="311"/>
-      <c r="D355" s="334"/>
+      <c r="B355" s="307"/>
+      <c r="C355" s="330"/>
+      <c r="D355" s="317"/>
       <c r="E355" s="174"/>
       <c r="F355" s="174"/>
       <c r="G355" s="259" t="s">
@@ -28445,9 +28457,9 @@
     </row>
     <row r="356" spans="1:13" ht="14.25" customHeight="1">
       <c r="A356" s="183"/>
-      <c r="B356" s="313"/>
-      <c r="C356" s="311"/>
-      <c r="D356" s="334"/>
+      <c r="B356" s="307"/>
+      <c r="C356" s="330"/>
+      <c r="D356" s="317"/>
       <c r="E356" s="174"/>
       <c r="F356" s="174"/>
       <c r="G356" s="259" t="s">
@@ -28464,9 +28476,9 @@
     </row>
     <row r="357" spans="1:13" ht="14.25" customHeight="1">
       <c r="A357" s="183"/>
-      <c r="B357" s="313"/>
-      <c r="C357" s="311"/>
-      <c r="D357" s="334"/>
+      <c r="B357" s="307"/>
+      <c r="C357" s="330"/>
+      <c r="D357" s="317"/>
       <c r="E357" s="174"/>
       <c r="F357" s="174"/>
       <c r="G357" s="259" t="s">
@@ -28485,9 +28497,9 @@
     </row>
     <row r="358" spans="1:13" ht="14.25" customHeight="1">
       <c r="A358" s="183"/>
-      <c r="B358" s="313"/>
-      <c r="C358" s="311"/>
-      <c r="D358" s="334"/>
+      <c r="B358" s="307"/>
+      <c r="C358" s="330"/>
+      <c r="D358" s="317"/>
       <c r="E358" s="174"/>
       <c r="F358" s="174"/>
       <c r="G358" s="259" t="s">
@@ -28504,9 +28516,9 @@
     </row>
     <row r="359" spans="1:13" ht="14.25" customHeight="1">
       <c r="A359" s="183"/>
-      <c r="B359" s="313"/>
-      <c r="C359" s="311"/>
-      <c r="D359" s="334"/>
+      <c r="B359" s="307"/>
+      <c r="C359" s="330"/>
+      <c r="D359" s="317"/>
       <c r="E359" s="174"/>
       <c r="F359" s="174"/>
       <c r="G359" s="259" t="s">
@@ -28525,9 +28537,9 @@
     </row>
     <row r="360" spans="1:13" ht="14.25" customHeight="1">
       <c r="A360" s="183"/>
-      <c r="B360" s="313"/>
-      <c r="C360" s="311"/>
-      <c r="D360" s="334"/>
+      <c r="B360" s="307"/>
+      <c r="C360" s="330"/>
+      <c r="D360" s="317"/>
       <c r="E360" s="174"/>
       <c r="F360" s="174"/>
       <c r="G360" s="259" t="s">
@@ -28544,9 +28556,9 @@
     </row>
     <row r="361" spans="1:13" ht="14.25" customHeight="1">
       <c r="A361" s="183"/>
-      <c r="B361" s="313"/>
-      <c r="C361" s="311"/>
-      <c r="D361" s="334"/>
+      <c r="B361" s="307"/>
+      <c r="C361" s="330"/>
+      <c r="D361" s="317"/>
       <c r="E361" s="174"/>
       <c r="F361" s="174"/>
       <c r="G361" s="259" t="s">
@@ -28565,9 +28577,9 @@
     </row>
     <row r="362" spans="1:13" ht="14.25" customHeight="1">
       <c r="A362" s="183"/>
-      <c r="B362" s="313"/>
-      <c r="C362" s="311"/>
-      <c r="D362" s="334"/>
+      <c r="B362" s="307"/>
+      <c r="C362" s="330"/>
+      <c r="D362" s="317"/>
       <c r="E362" s="174"/>
       <c r="F362" s="174"/>
       <c r="G362" s="261" t="s">
@@ -28588,9 +28600,9 @@
     </row>
     <row r="363" spans="1:13" ht="14.25" customHeight="1">
       <c r="A363" s="183"/>
-      <c r="B363" s="313"/>
-      <c r="C363" s="311"/>
-      <c r="D363" s="333"/>
+      <c r="B363" s="307"/>
+      <c r="C363" s="330"/>
+      <c r="D363" s="310"/>
       <c r="E363" s="174"/>
       <c r="F363" s="174"/>
       <c r="G363" s="261" t="s">
@@ -28609,9 +28621,9 @@
     </row>
     <row r="364" spans="1:13" ht="14.25" customHeight="1">
       <c r="A364" s="183"/>
-      <c r="B364" s="313"/>
-      <c r="C364" s="311"/>
-      <c r="D364" s="329" t="s">
+      <c r="B364" s="307"/>
+      <c r="C364" s="330"/>
+      <c r="D364" s="303" t="s">
         <v>2176</v>
       </c>
       <c r="E364" s="174"/>
@@ -28630,9 +28642,9 @@
     </row>
     <row r="365" spans="1:13" ht="14.25" customHeight="1">
       <c r="A365" s="183"/>
-      <c r="B365" s="313"/>
-      <c r="C365" s="311"/>
-      <c r="D365" s="330"/>
+      <c r="B365" s="307"/>
+      <c r="C365" s="330"/>
+      <c r="D365" s="304"/>
       <c r="E365" s="174"/>
       <c r="F365" s="174"/>
       <c r="G365" s="259" t="s">
@@ -28651,9 +28663,9 @@
     </row>
     <row r="366" spans="1:13" ht="14.25" customHeight="1">
       <c r="A366" s="183"/>
-      <c r="B366" s="313"/>
-      <c r="C366" s="311"/>
-      <c r="D366" s="330"/>
+      <c r="B366" s="307"/>
+      <c r="C366" s="330"/>
+      <c r="D366" s="304"/>
       <c r="E366" s="174"/>
       <c r="F366" s="174"/>
       <c r="G366" s="259" t="s">
@@ -28672,9 +28684,9 @@
     </row>
     <row r="367" spans="1:13" ht="14.25" customHeight="1">
       <c r="A367" s="183"/>
-      <c r="B367" s="313"/>
-      <c r="C367" s="311"/>
-      <c r="D367" s="331"/>
+      <c r="B367" s="307"/>
+      <c r="C367" s="330"/>
+      <c r="D367" s="305"/>
       <c r="E367" s="174"/>
       <c r="F367" s="174"/>
       <c r="G367" s="259" t="s">
@@ -28693,9 +28705,9 @@
     </row>
     <row r="368" spans="1:13" ht="14.25" customHeight="1">
       <c r="A368" s="183"/>
-      <c r="B368" s="313"/>
-      <c r="C368" s="311"/>
-      <c r="D368" s="329" t="s">
+      <c r="B368" s="307"/>
+      <c r="C368" s="330"/>
+      <c r="D368" s="303" t="s">
         <v>2177</v>
       </c>
       <c r="E368" s="174"/>
@@ -28716,9 +28728,9 @@
     </row>
     <row r="369" spans="1:13" ht="14.25" customHeight="1">
       <c r="A369" s="183"/>
-      <c r="B369" s="313"/>
-      <c r="C369" s="311"/>
-      <c r="D369" s="330"/>
+      <c r="B369" s="307"/>
+      <c r="C369" s="330"/>
+      <c r="D369" s="304"/>
       <c r="E369" s="174"/>
       <c r="F369" s="174"/>
       <c r="G369" s="259" t="s">
@@ -28737,9 +28749,9 @@
     </row>
     <row r="370" spans="1:13" ht="14.25" customHeight="1">
       <c r="A370" s="183"/>
-      <c r="B370" s="313"/>
-      <c r="C370" s="311"/>
-      <c r="D370" s="330"/>
+      <c r="B370" s="307"/>
+      <c r="C370" s="330"/>
+      <c r="D370" s="304"/>
       <c r="E370" s="174"/>
       <c r="F370" s="174"/>
       <c r="G370" s="259" t="s">
@@ -28758,9 +28770,9 @@
     </row>
     <row r="371" spans="1:13" ht="14.25" customHeight="1">
       <c r="A371" s="183"/>
-      <c r="B371" s="313"/>
-      <c r="C371" s="311"/>
-      <c r="D371" s="331"/>
+      <c r="B371" s="307"/>
+      <c r="C371" s="330"/>
+      <c r="D371" s="305"/>
       <c r="E371" s="174"/>
       <c r="F371" s="174"/>
       <c r="G371" s="259" t="s">
@@ -28779,9 +28791,9 @@
     </row>
     <row r="372" spans="1:13" ht="14.25" customHeight="1">
       <c r="A372" s="183"/>
-      <c r="B372" s="313"/>
-      <c r="C372" s="311"/>
-      <c r="D372" s="332" t="s">
+      <c r="B372" s="307"/>
+      <c r="C372" s="330"/>
+      <c r="D372" s="309" t="s">
         <v>2182</v>
       </c>
       <c r="E372" s="174"/>
@@ -28800,9 +28812,9 @@
     </row>
     <row r="373" spans="1:13" ht="14.25" customHeight="1">
       <c r="A373" s="183"/>
-      <c r="B373" s="313"/>
-      <c r="C373" s="311"/>
-      <c r="D373" s="333"/>
+      <c r="B373" s="307"/>
+      <c r="C373" s="330"/>
+      <c r="D373" s="310"/>
       <c r="E373" s="174"/>
       <c r="F373" s="174"/>
       <c r="G373" s="259" t="s">
@@ -28821,8 +28833,8 @@
     </row>
     <row r="374" spans="1:13" ht="14.25" customHeight="1">
       <c r="A374" s="183"/>
-      <c r="B374" s="313"/>
-      <c r="C374" s="311"/>
+      <c r="B374" s="307"/>
+      <c r="C374" s="330"/>
       <c r="D374" s="288" t="s">
         <v>2183</v>
       </c>
@@ -28842,8 +28854,8 @@
     </row>
     <row r="375" spans="1:13" ht="18.95" customHeight="1">
       <c r="A375" s="183"/>
-      <c r="B375" s="313"/>
-      <c r="C375" s="311"/>
+      <c r="B375" s="307"/>
+      <c r="C375" s="330"/>
       <c r="D375" s="263" t="s">
         <v>2189</v>
       </c>
@@ -28867,8 +28879,8 @@
     </row>
     <row r="376" spans="1:13" ht="14.25" customHeight="1">
       <c r="A376" s="183"/>
-      <c r="B376" s="313"/>
-      <c r="C376" s="311"/>
+      <c r="B376" s="307"/>
+      <c r="C376" s="330"/>
       <c r="D376" s="264" t="s">
         <v>2190</v>
       </c>
@@ -28886,8 +28898,8 @@
     </row>
     <row r="377" spans="1:13" ht="14.25" customHeight="1">
       <c r="A377" s="183"/>
-      <c r="B377" s="313"/>
-      <c r="C377" s="311"/>
+      <c r="B377" s="307"/>
+      <c r="C377" s="330"/>
       <c r="D377" s="260" t="s">
         <v>2206</v>
       </c>
@@ -28907,8 +28919,8 @@
     </row>
     <row r="378" spans="1:13" ht="14.25" customHeight="1">
       <c r="A378" s="183"/>
-      <c r="B378" s="313"/>
-      <c r="C378" s="311"/>
+      <c r="B378" s="307"/>
+      <c r="C378" s="330"/>
       <c r="D378" s="260"/>
       <c r="E378" s="174"/>
       <c r="F378" s="174"/>
@@ -28928,8 +28940,8 @@
     </row>
     <row r="379" spans="1:13" ht="14.25" customHeight="1">
       <c r="A379" s="183"/>
-      <c r="B379" s="313"/>
-      <c r="C379" s="311"/>
+      <c r="B379" s="307"/>
+      <c r="C379" s="330"/>
       <c r="D379" s="260"/>
       <c r="E379" s="174"/>
       <c r="F379" s="174"/>
@@ -28947,8 +28959,8 @@
     </row>
     <row r="380" spans="1:13" ht="14.25" customHeight="1">
       <c r="A380" s="183"/>
-      <c r="B380" s="313"/>
-      <c r="C380" s="311"/>
+      <c r="B380" s="307"/>
+      <c r="C380" s="330"/>
       <c r="D380" s="260" t="s">
         <v>2215</v>
       </c>
@@ -28968,8 +28980,8 @@
     </row>
     <row r="381" spans="1:13" ht="14.25" customHeight="1">
       <c r="A381" s="183"/>
-      <c r="B381" s="313"/>
-      <c r="C381" s="311"/>
+      <c r="B381" s="307"/>
+      <c r="C381" s="330"/>
       <c r="D381" s="260"/>
       <c r="E381" s="174"/>
       <c r="F381" s="174"/>
@@ -28989,8 +29001,8 @@
     </row>
     <row r="382" spans="1:13" ht="14.25" customHeight="1">
       <c r="A382" s="183"/>
-      <c r="B382" s="313"/>
-      <c r="C382" s="311"/>
+      <c r="B382" s="307"/>
+      <c r="C382" s="330"/>
       <c r="D382" s="260"/>
       <c r="E382" s="174"/>
       <c r="F382" s="174"/>
@@ -29008,8 +29020,8 @@
     </row>
     <row r="383" spans="1:13" ht="14.25" customHeight="1">
       <c r="A383" s="183"/>
-      <c r="B383" s="313"/>
-      <c r="C383" s="311"/>
+      <c r="B383" s="307"/>
+      <c r="C383" s="330"/>
       <c r="D383" s="260" t="s">
         <v>2216</v>
       </c>
@@ -29027,8 +29039,8 @@
     </row>
     <row r="384" spans="1:13" ht="14.25" customHeight="1">
       <c r="A384" s="183"/>
-      <c r="B384" s="313"/>
-      <c r="C384" s="311"/>
+      <c r="B384" s="307"/>
+      <c r="C384" s="330"/>
       <c r="D384" s="260" t="s">
         <v>2217</v>
       </c>
@@ -29046,7 +29058,7 @@
     </row>
     <row r="385" spans="1:13" ht="14.25" customHeight="1">
       <c r="A385" s="181"/>
-      <c r="B385" s="314"/>
+      <c r="B385" s="308"/>
       <c r="C385" s="265" t="s">
         <v>2218</v>
       </c>
@@ -29214,6 +29226,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="D136:D143"/>
+    <mergeCell ref="D158:D167"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="C119:C143"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="C2:C66"/>
+    <mergeCell ref="C341:C384"/>
+    <mergeCell ref="B2:B66"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="B75:B194"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="C150:C167"/>
+    <mergeCell ref="C185:C194"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="D177:D184"/>
+    <mergeCell ref="D168:D176"/>
+    <mergeCell ref="C242:C258"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D21:D66"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="C75:C100"/>
+    <mergeCell ref="C101:C118"/>
+    <mergeCell ref="C259:C279"/>
+    <mergeCell ref="D259:D279"/>
+    <mergeCell ref="C280:C298"/>
+    <mergeCell ref="D280:D298"/>
+    <mergeCell ref="D205:D210"/>
     <mergeCell ref="D364:D367"/>
     <mergeCell ref="D368:D371"/>
     <mergeCell ref="B340:B385"/>
@@ -29230,57 +29293,6 @@
     <mergeCell ref="D242:D258"/>
     <mergeCell ref="C211:C241"/>
     <mergeCell ref="D211:D241"/>
-    <mergeCell ref="C259:C279"/>
-    <mergeCell ref="D259:D279"/>
-    <mergeCell ref="C280:C298"/>
-    <mergeCell ref="D280:D298"/>
-    <mergeCell ref="D205:D210"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="C75:C100"/>
-    <mergeCell ref="C101:C118"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D21:D66"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="C2:C66"/>
-    <mergeCell ref="C341:C384"/>
-    <mergeCell ref="B2:B66"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="B75:B194"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="C150:C167"/>
-    <mergeCell ref="C185:C194"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="D177:D184"/>
-    <mergeCell ref="D168:D176"/>
-    <mergeCell ref="C242:C258"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="D136:D143"/>
-    <mergeCell ref="D158:D167"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="C119:C143"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="D147:D148"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29349,8 +29361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="12.75"/>
@@ -29712,7 +29724,9 @@
       <c r="D13" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="E13" s="82"/>
+      <c r="E13" s="165" t="s">
+        <v>3074</v>
+      </c>
       <c r="F13" s="85" t="s">
         <v>1526</v>
       </c>
@@ -29737,7 +29751,9 @@
       <c r="D14" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="E14" s="82"/>
+      <c r="E14" s="165" t="s">
+        <v>3074</v>
+      </c>
       <c r="F14" s="85" t="s">
         <v>1527</v>
       </c>
@@ -29762,7 +29778,9 @@
       <c r="D15" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="E15" s="82"/>
+      <c r="E15" s="165" t="s">
+        <v>3075</v>
+      </c>
       <c r="F15" s="99" t="s">
         <v>1536</v>
       </c>
@@ -29816,7 +29834,7 @@
       <c r="D17" s="118" t="s">
         <v>1538</v>
       </c>
-      <c r="E17" s="118"/>
+      <c r="E17" s="165"/>
       <c r="F17" s="118" t="s">
         <v>1539</v>
       </c>
@@ -30040,7 +30058,9 @@
       <c r="D25" s="100" t="s">
         <v>1492</v>
       </c>
-      <c r="E25" s="100"/>
+      <c r="E25" s="118" t="s">
+        <v>3076</v>
+      </c>
       <c r="F25" s="100" t="s">
         <v>1508</v>
       </c>
@@ -30068,7 +30088,9 @@
       <c r="D26" s="85" t="s">
         <v>1493</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="119" t="s">
+        <v>3076</v>
+      </c>
       <c r="F26" s="85" t="s">
         <v>1509</v>
       </c>
@@ -30093,7 +30115,9 @@
       <c r="D27" s="119" t="s">
         <v>1494</v>
       </c>
-      <c r="E27" s="119"/>
+      <c r="E27" s="119" t="s">
+        <v>3076</v>
+      </c>
       <c r="F27" s="85" t="s">
         <v>1510</v>
       </c>
@@ -30124,7 +30148,9 @@
       <c r="D28" s="119" t="s">
         <v>1545</v>
       </c>
-      <c r="E28" s="119"/>
+      <c r="E28" s="119" t="s">
+        <v>3076</v>
+      </c>
       <c r="F28" s="85" t="s">
         <v>1511</v>
       </c>
@@ -30152,7 +30178,9 @@
       <c r="D29" s="119" t="s">
         <v>1550</v>
       </c>
-      <c r="E29" s="119"/>
+      <c r="E29" s="119" t="s">
+        <v>3076</v>
+      </c>
       <c r="F29" s="120" t="s">
         <v>1551</v>
       </c>
@@ -30180,7 +30208,9 @@
       <c r="D30" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="82"/>
+      <c r="E30" s="119" t="s">
+        <v>3076</v>
+      </c>
       <c r="F30" s="85"/>
       <c r="G30" s="83">
         <v>1</v>
@@ -30206,7 +30236,9 @@
       <c r="D31" s="85" t="s">
         <v>1531</v>
       </c>
-      <c r="E31" s="85"/>
+      <c r="E31" s="119" t="s">
+        <v>3076</v>
+      </c>
       <c r="F31" s="85" t="s">
         <v>1529</v>
       </c>
@@ -30234,7 +30266,9 @@
       <c r="D32" s="85" t="s">
         <v>1530</v>
       </c>
-      <c r="E32" s="85"/>
+      <c r="E32" s="119" t="s">
+        <v>3076</v>
+      </c>
       <c r="F32" s="85"/>
       <c r="G32" s="86">
         <v>0.04</v>
@@ -30260,7 +30294,9 @@
       <c r="D33" s="119" t="s">
         <v>1544</v>
       </c>
-      <c r="E33" s="119"/>
+      <c r="E33" s="119" t="s">
+        <v>3076</v>
+      </c>
       <c r="F33" s="85" t="s">
         <v>1532</v>
       </c>
@@ -30288,7 +30324,9 @@
       <c r="D34" s="85" t="s">
         <v>1533</v>
       </c>
-      <c r="E34" s="85"/>
+      <c r="E34" s="119" t="s">
+        <v>3076</v>
+      </c>
       <c r="F34" s="85" t="s">
         <v>1534</v>
       </c>
@@ -39750,6 +39788,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B69:B84"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B5:B34"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="B40:B63"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:I68"/>
+    <mergeCell ref="B167:B192"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="B90:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="B118:B161"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C166:I166"/>
+    <mergeCell ref="B260:B307"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="B226:B253"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:I259"/>
     <mergeCell ref="B374:B402"/>
     <mergeCell ref="C309:G309"/>
     <mergeCell ref="C310:G310"/>
@@ -39762,42 +39836,6 @@
     <mergeCell ref="C371:G371"/>
     <mergeCell ref="C372:G372"/>
     <mergeCell ref="C373:I373"/>
-    <mergeCell ref="B260:B307"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="B198:B220"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="B226:B253"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C259:I259"/>
-    <mergeCell ref="B167:B192"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="B90:B112"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:B161"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B69:B84"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B5:B34"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="B40:B63"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:I68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -50419,7 +50457,7 @@
   <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -54235,8 +54273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M11" sqref="L11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/03.指标管理/大宗/指标定义表V2.1.4.xlsx
+++ b/03.指标管理/大宗/指标定义表V2.1.4.xlsx
@@ -17,7 +17,7 @@
     <sheet name="维度信息（老系统）" sheetId="9" r:id="rId8"/>
     <sheet name="人工维护" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6033" uniqueCount="3077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6034" uniqueCount="3079">
   <si>
     <t>文字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -17589,14 +17589,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>持仓量占总库存量的比例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存数据不完整，库存变动逻辑待验证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DATACENTER.TQS_IMP_JGLS_LS-JGSL，历史交割无数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -18076,6 +18068,22 @@
   </si>
   <si>
     <t>产品代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交割率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交割数量/交易数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积总交割数量/累积交易数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATACENTER.TQS_IMP_JGLS_LS-JGSL，历史交割无数据；DATACENTER.TQS_IMP_CJLS_LS取交易数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18985,7 +18993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -19814,28 +19822,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19847,25 +19846,22 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19876,6 +19872,15 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19895,29 +19900,32 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -19981,6 +19989,9 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -20065,7 +20076,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>3504316</xdr:colOff>
       <xdr:row>277</xdr:row>
-      <xdr:rowOff>78317</xdr:rowOff>
+      <xdr:rowOff>78316</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20109,7 +20120,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>3514725</xdr:colOff>
       <xdr:row>296</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -21070,10 +21081,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G305" sqref="G305"/>
+      <selection pane="bottomLeft" activeCell="J164" sqref="J164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="14.25" customHeight="1"/>
@@ -21131,13 +21142,13 @@
       <c r="A2" s="174">
         <v>1</v>
       </c>
-      <c r="B2" s="306" t="s">
+      <c r="B2" s="312" t="s">
         <v>1334</v>
       </c>
-      <c r="C2" s="311" t="s">
+      <c r="C2" s="308" t="s">
         <v>1335</v>
       </c>
-      <c r="D2" s="331" t="s">
+      <c r="D2" s="306" t="s">
         <v>179</v>
       </c>
       <c r="E2" s="175" t="s">
@@ -21157,10 +21168,10 @@
         <v>2223</v>
       </c>
       <c r="K2" s="179" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="L2" s="175" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="M2" s="180" t="s">
         <v>1339</v>
@@ -21170,9 +21181,9 @@
       <c r="A3" s="174">
         <v>2</v>
       </c>
-      <c r="B3" s="307"/>
-      <c r="C3" s="312"/>
-      <c r="D3" s="332"/>
+      <c r="B3" s="313"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="315"/>
       <c r="E3" s="175" t="s">
         <v>1340</v>
       </c>
@@ -21188,7 +21199,7 @@
         <v>2224</v>
       </c>
       <c r="K3" s="175" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="L3" s="175" t="s">
         <v>1342</v>
@@ -21197,9 +21208,9 @@
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4" s="174"/>
-      <c r="B4" s="307"/>
-      <c r="C4" s="312"/>
-      <c r="D4" s="332"/>
+      <c r="B4" s="313"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="175" t="s">
         <v>1343</v>
       </c>
@@ -21212,19 +21223,19 @@
       </c>
       <c r="I4" s="179"/>
       <c r="J4" s="179" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="K4" s="179" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="L4" s="175"/>
       <c r="M4" s="181"/>
     </row>
     <row r="5" spans="1:13" s="161" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="182"/>
-      <c r="B5" s="307"/>
-      <c r="C5" s="312"/>
-      <c r="D5" s="332"/>
+      <c r="B5" s="313"/>
+      <c r="C5" s="309"/>
+      <c r="D5" s="315"/>
       <c r="E5" s="183"/>
       <c r="F5" s="184"/>
       <c r="G5" s="177" t="s">
@@ -21240,7 +21251,7 @@
         <v>2226</v>
       </c>
       <c r="K5" s="267" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="L5" s="183" t="s">
         <v>1344</v>
@@ -21249,9 +21260,9 @@
     </row>
     <row r="6" spans="1:13" ht="49.5">
       <c r="A6" s="174"/>
-      <c r="B6" s="307"/>
-      <c r="C6" s="312"/>
-      <c r="D6" s="332"/>
+      <c r="B6" s="313"/>
+      <c r="C6" s="309"/>
+      <c r="D6" s="315"/>
       <c r="E6" s="175"/>
       <c r="F6" s="176"/>
       <c r="G6" s="177" t="s">
@@ -21270,9 +21281,9 @@
     </row>
     <row r="7" spans="1:13" ht="33">
       <c r="A7" s="174"/>
-      <c r="B7" s="307"/>
-      <c r="C7" s="312"/>
-      <c r="D7" s="332"/>
+      <c r="B7" s="313"/>
+      <c r="C7" s="309"/>
+      <c r="D7" s="315"/>
       <c r="E7" s="175"/>
       <c r="F7" s="176"/>
       <c r="G7" s="177" t="s">
@@ -21291,8 +21302,8 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="174"/>
-      <c r="B8" s="307"/>
-      <c r="C8" s="312"/>
+      <c r="B8" s="313"/>
+      <c r="C8" s="309"/>
       <c r="D8" s="188"/>
       <c r="E8" s="175"/>
       <c r="F8" s="176"/>
@@ -21310,8 +21321,8 @@
     </row>
     <row r="9" spans="1:13" ht="66">
       <c r="A9" s="174"/>
-      <c r="B9" s="307"/>
-      <c r="C9" s="312"/>
+      <c r="B9" s="313"/>
+      <c r="C9" s="309"/>
       <c r="D9" s="188"/>
       <c r="E9" s="175"/>
       <c r="F9" s="176"/>
@@ -21331,8 +21342,8 @@
     </row>
     <row r="10" spans="1:13" ht="25.5" customHeight="1">
       <c r="A10" s="174"/>
-      <c r="B10" s="307"/>
-      <c r="C10" s="312"/>
+      <c r="B10" s="313"/>
+      <c r="C10" s="309"/>
       <c r="D10" s="188"/>
       <c r="E10" s="175"/>
       <c r="F10" s="176"/>
@@ -21352,8 +21363,8 @@
     </row>
     <row r="11" spans="1:13" s="161" customFormat="1" ht="87.75" customHeight="1">
       <c r="A11" s="182"/>
-      <c r="B11" s="307"/>
-      <c r="C11" s="312"/>
+      <c r="B11" s="313"/>
+      <c r="C11" s="309"/>
       <c r="D11" s="191" t="s">
         <v>0</v>
       </c>
@@ -21375,8 +21386,8 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
       <c r="A12" s="174"/>
-      <c r="B12" s="307"/>
-      <c r="C12" s="312"/>
+      <c r="B12" s="313"/>
+      <c r="C12" s="309"/>
       <c r="D12" s="192" t="s">
         <v>0</v>
       </c>
@@ -21398,8 +21409,8 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13" s="174"/>
-      <c r="B13" s="307"/>
-      <c r="C13" s="312"/>
+      <c r="B13" s="313"/>
+      <c r="C13" s="309"/>
       <c r="D13" s="192" t="s">
         <v>0</v>
       </c>
@@ -21421,8 +21432,8 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="174"/>
-      <c r="B14" s="307"/>
-      <c r="C14" s="312"/>
+      <c r="B14" s="313"/>
+      <c r="C14" s="309"/>
       <c r="D14" s="193" t="s">
         <v>2231</v>
       </c>
@@ -21446,8 +21457,8 @@
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="174"/>
-      <c r="B15" s="307"/>
-      <c r="C15" s="312"/>
+      <c r="B15" s="313"/>
+      <c r="C15" s="309"/>
       <c r="D15" s="193"/>
       <c r="E15" s="175"/>
       <c r="F15" s="176"/>
@@ -21467,9 +21478,9 @@
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" s="174"/>
-      <c r="B16" s="307"/>
-      <c r="C16" s="312"/>
-      <c r="D16" s="314" t="s">
+      <c r="B16" s="313"/>
+      <c r="C16" s="309"/>
+      <c r="D16" s="303" t="s">
         <v>1353</v>
       </c>
       <c r="E16" s="175"/>
@@ -21490,9 +21501,9 @@
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1">
       <c r="A17" s="174"/>
-      <c r="B17" s="307"/>
-      <c r="C17" s="312"/>
-      <c r="D17" s="316"/>
+      <c r="B17" s="313"/>
+      <c r="C17" s="309"/>
+      <c r="D17" s="304"/>
       <c r="E17" s="175"/>
       <c r="F17" s="176"/>
       <c r="G17" s="177" t="s">
@@ -21511,9 +21522,9 @@
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" s="174"/>
-      <c r="B18" s="307"/>
-      <c r="C18" s="312"/>
-      <c r="D18" s="315"/>
+      <c r="B18" s="313"/>
+      <c r="C18" s="309"/>
+      <c r="D18" s="305"/>
       <c r="E18" s="175"/>
       <c r="F18" s="176"/>
       <c r="G18" s="177" t="s">
@@ -21530,8 +21541,8 @@
     </row>
     <row r="19" spans="1:13" s="161" customFormat="1" ht="33">
       <c r="A19" s="182"/>
-      <c r="B19" s="307"/>
-      <c r="C19" s="312"/>
+      <c r="B19" s="313"/>
+      <c r="C19" s="309"/>
       <c r="D19" s="191" t="s">
         <v>1358</v>
       </c>
@@ -21555,8 +21566,8 @@
     </row>
     <row r="20" spans="1:13" ht="33">
       <c r="A20" s="174"/>
-      <c r="B20" s="307"/>
-      <c r="C20" s="312"/>
+      <c r="B20" s="313"/>
+      <c r="C20" s="309"/>
       <c r="D20" s="192" t="s">
         <v>1360</v>
       </c>
@@ -21580,9 +21591,9 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
       <c r="A21" s="174"/>
-      <c r="B21" s="307"/>
-      <c r="C21" s="312"/>
-      <c r="D21" s="306" t="s">
+      <c r="B21" s="313"/>
+      <c r="C21" s="309"/>
+      <c r="D21" s="312" t="s">
         <v>1362</v>
       </c>
       <c r="E21" s="175"/>
@@ -21603,9 +21614,9 @@
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
       <c r="A22" s="174"/>
-      <c r="B22" s="307"/>
-      <c r="C22" s="312"/>
-      <c r="D22" s="307"/>
+      <c r="B22" s="313"/>
+      <c r="C22" s="309"/>
+      <c r="D22" s="313"/>
       <c r="E22" s="175"/>
       <c r="F22" s="176"/>
       <c r="G22" s="177" t="s">
@@ -21624,9 +21635,9 @@
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1">
       <c r="A23" s="174"/>
-      <c r="B23" s="307"/>
-      <c r="C23" s="312"/>
-      <c r="D23" s="307"/>
+      <c r="B23" s="313"/>
+      <c r="C23" s="309"/>
+      <c r="D23" s="313"/>
       <c r="E23" s="175"/>
       <c r="F23" s="176"/>
       <c r="G23" s="177" t="s">
@@ -21647,9 +21658,9 @@
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1">
       <c r="A24" s="174"/>
-      <c r="B24" s="307"/>
-      <c r="C24" s="312"/>
-      <c r="D24" s="307"/>
+      <c r="B24" s="313"/>
+      <c r="C24" s="309"/>
+      <c r="D24" s="313"/>
       <c r="E24" s="175"/>
       <c r="F24" s="176"/>
       <c r="G24" s="177" t="s">
@@ -21670,9 +21681,9 @@
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1">
       <c r="A25" s="174"/>
-      <c r="B25" s="307"/>
-      <c r="C25" s="312"/>
-      <c r="D25" s="307"/>
+      <c r="B25" s="313"/>
+      <c r="C25" s="309"/>
+      <c r="D25" s="313"/>
       <c r="E25" s="175"/>
       <c r="F25" s="176"/>
       <c r="G25" s="177" t="s">
@@ -21691,9 +21702,9 @@
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="307"/>
-      <c r="C26" s="312"/>
-      <c r="D26" s="307"/>
+      <c r="B26" s="313"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="313"/>
       <c r="E26" s="175"/>
       <c r="F26" s="176"/>
       <c r="G26" s="177" t="s">
@@ -21714,9 +21725,9 @@
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="307"/>
-      <c r="C27" s="312"/>
-      <c r="D27" s="307"/>
+      <c r="B27" s="313"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="313"/>
       <c r="E27" s="175"/>
       <c r="F27" s="176"/>
       <c r="G27" s="197" t="s">
@@ -21737,9 +21748,9 @@
     </row>
     <row r="28" spans="1:13" ht="66">
       <c r="A28" s="174"/>
-      <c r="B28" s="307"/>
-      <c r="C28" s="312"/>
-      <c r="D28" s="307"/>
+      <c r="B28" s="313"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="313"/>
       <c r="E28" s="175"/>
       <c r="F28" s="176"/>
       <c r="G28" s="195" t="s">
@@ -21760,9 +21771,9 @@
     </row>
     <row r="29" spans="1:13" s="151" customFormat="1" ht="33">
       <c r="A29" s="199"/>
-      <c r="B29" s="307"/>
-      <c r="C29" s="312"/>
-      <c r="D29" s="307"/>
+      <c r="B29" s="313"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="313"/>
       <c r="E29" s="175"/>
       <c r="F29" s="176"/>
       <c r="G29" s="200" t="s">
@@ -21783,9 +21794,9 @@
     </row>
     <row r="30" spans="1:13" ht="49.5">
       <c r="A30" s="174"/>
-      <c r="B30" s="307"/>
-      <c r="C30" s="312"/>
-      <c r="D30" s="307"/>
+      <c r="B30" s="313"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="313"/>
       <c r="E30" s="175"/>
       <c r="F30" s="176"/>
       <c r="G30" s="195" t="s">
@@ -21806,9 +21817,9 @@
     </row>
     <row r="31" spans="1:13" ht="247.5">
       <c r="A31" s="174"/>
-      <c r="B31" s="307"/>
-      <c r="C31" s="312"/>
-      <c r="D31" s="307"/>
+      <c r="B31" s="313"/>
+      <c r="C31" s="309"/>
+      <c r="D31" s="313"/>
       <c r="E31" s="175"/>
       <c r="F31" s="176"/>
       <c r="G31" s="195" t="s">
@@ -21818,10 +21829,10 @@
         <v>1498</v>
       </c>
       <c r="I31" s="201" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="J31" s="201" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="K31" s="201"/>
       <c r="L31" s="175" t="s">
@@ -21831,9 +21842,9 @@
     </row>
     <row r="32" spans="1:13" ht="159" customHeight="1">
       <c r="A32" s="174"/>
-      <c r="B32" s="307"/>
-      <c r="C32" s="312"/>
-      <c r="D32" s="307"/>
+      <c r="B32" s="313"/>
+      <c r="C32" s="309"/>
+      <c r="D32" s="313"/>
       <c r="E32" s="175"/>
       <c r="F32" s="176"/>
       <c r="G32" s="195" t="s">
@@ -21846,7 +21857,7 @@
         <v>2961</v>
       </c>
       <c r="J32" s="201" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="K32" s="201"/>
       <c r="L32" s="175"/>
@@ -21854,16 +21865,16 @@
     </row>
     <row r="33" spans="1:13" ht="102.75" customHeight="1">
       <c r="A33" s="174"/>
-      <c r="B33" s="307"/>
-      <c r="C33" s="312"/>
-      <c r="D33" s="307"/>
+      <c r="B33" s="313"/>
+      <c r="C33" s="309"/>
+      <c r="D33" s="313"/>
       <c r="E33" s="175"/>
       <c r="F33" s="176"/>
       <c r="G33" s="195" t="s">
         <v>201</v>
       </c>
       <c r="H33" s="207" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="I33" s="206" t="s">
         <v>2957</v>
@@ -21877,9 +21888,9 @@
     </row>
     <row r="34" spans="1:13" ht="83.25" customHeight="1">
       <c r="A34" s="174"/>
-      <c r="B34" s="307"/>
-      <c r="C34" s="312"/>
-      <c r="D34" s="307"/>
+      <c r="B34" s="313"/>
+      <c r="C34" s="309"/>
+      <c r="D34" s="313"/>
       <c r="E34" s="175"/>
       <c r="F34" s="176"/>
       <c r="G34" s="195" t="s">
@@ -21900,9 +21911,9 @@
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="174"/>
-      <c r="B35" s="307"/>
-      <c r="C35" s="312"/>
-      <c r="D35" s="307"/>
+      <c r="B35" s="313"/>
+      <c r="C35" s="309"/>
+      <c r="D35" s="313"/>
       <c r="E35" s="175"/>
       <c r="F35" s="176"/>
       <c r="G35" s="208" t="s">
@@ -21923,9 +21934,9 @@
     </row>
     <row r="36" spans="1:13" ht="41.25" customHeight="1">
       <c r="A36" s="174"/>
-      <c r="B36" s="307"/>
-      <c r="C36" s="312"/>
-      <c r="D36" s="307"/>
+      <c r="B36" s="313"/>
+      <c r="C36" s="309"/>
+      <c r="D36" s="313"/>
       <c r="E36" s="175"/>
       <c r="F36" s="176"/>
       <c r="G36" s="210" t="s">
@@ -21938,7 +21949,7 @@
         <v>2903</v>
       </c>
       <c r="J36" s="201" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="K36" s="201"/>
       <c r="L36" s="175"/>
@@ -21946,9 +21957,9 @@
     </row>
     <row r="37" spans="1:13" ht="45" customHeight="1">
       <c r="A37" s="174"/>
-      <c r="B37" s="307"/>
-      <c r="C37" s="312"/>
-      <c r="D37" s="307"/>
+      <c r="B37" s="313"/>
+      <c r="C37" s="309"/>
+      <c r="D37" s="313"/>
       <c r="E37" s="175"/>
       <c r="F37" s="176"/>
       <c r="G37" s="195" t="s">
@@ -21961,7 +21972,7 @@
         <v>2904</v>
       </c>
       <c r="J37" s="201" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="K37" s="201"/>
       <c r="L37" s="175"/>
@@ -21969,9 +21980,9 @@
     </row>
     <row r="38" spans="1:13" ht="43.5" customHeight="1">
       <c r="A38" s="174"/>
-      <c r="B38" s="307"/>
-      <c r="C38" s="312"/>
-      <c r="D38" s="307"/>
+      <c r="B38" s="313"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="313"/>
       <c r="E38" s="175"/>
       <c r="F38" s="176"/>
       <c r="G38" s="195" t="s">
@@ -21992,9 +22003,9 @@
     </row>
     <row r="39" spans="1:13" ht="49.5">
       <c r="A39" s="174"/>
-      <c r="B39" s="307"/>
-      <c r="C39" s="312"/>
-      <c r="D39" s="307"/>
+      <c r="B39" s="313"/>
+      <c r="C39" s="309"/>
+      <c r="D39" s="313"/>
       <c r="E39" s="175"/>
       <c r="F39" s="176"/>
       <c r="G39" s="195" t="s">
@@ -22015,9 +22026,9 @@
     </row>
     <row r="40" spans="1:13" ht="18" thickBot="1">
       <c r="A40" s="174"/>
-      <c r="B40" s="307"/>
-      <c r="C40" s="312"/>
-      <c r="D40" s="307"/>
+      <c r="B40" s="313"/>
+      <c r="C40" s="309"/>
+      <c r="D40" s="313"/>
       <c r="E40" s="175"/>
       <c r="F40" s="176"/>
       <c r="G40" s="200" t="s">
@@ -22027,10 +22038,10 @@
         <v>225</v>
       </c>
       <c r="I40" s="201" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="J40" s="201" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
       <c r="K40" s="201"/>
       <c r="L40" s="175"/>
@@ -22038,9 +22049,9 @@
     </row>
     <row r="41" spans="1:13" ht="38.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="174"/>
-      <c r="B41" s="307"/>
-      <c r="C41" s="312"/>
-      <c r="D41" s="307"/>
+      <c r="B41" s="313"/>
+      <c r="C41" s="309"/>
+      <c r="D41" s="313"/>
       <c r="E41" s="175"/>
       <c r="F41" s="176"/>
       <c r="G41" s="213" t="s">
@@ -22061,9 +22072,9 @@
     </row>
     <row r="42" spans="1:13" ht="214.5">
       <c r="A42" s="174"/>
-      <c r="B42" s="307"/>
-      <c r="C42" s="312"/>
-      <c r="D42" s="307"/>
+      <c r="B42" s="313"/>
+      <c r="C42" s="309"/>
+      <c r="D42" s="313"/>
       <c r="E42" s="175"/>
       <c r="F42" s="176"/>
       <c r="G42" s="210" t="s">
@@ -22084,9 +22095,9 @@
     </row>
     <row r="43" spans="1:13" ht="120" customHeight="1">
       <c r="A43" s="174"/>
-      <c r="B43" s="307"/>
-      <c r="C43" s="312"/>
-      <c r="D43" s="307"/>
+      <c r="B43" s="313"/>
+      <c r="C43" s="309"/>
+      <c r="D43" s="313"/>
       <c r="E43" s="175"/>
       <c r="F43" s="176"/>
       <c r="G43" s="195" t="s">
@@ -22107,9 +22118,9 @@
     </row>
     <row r="44" spans="1:13" ht="106.5" customHeight="1">
       <c r="A44" s="174"/>
-      <c r="B44" s="307"/>
-      <c r="C44" s="312"/>
-      <c r="D44" s="307"/>
+      <c r="B44" s="313"/>
+      <c r="C44" s="309"/>
+      <c r="D44" s="313"/>
       <c r="E44" s="175"/>
       <c r="F44" s="176"/>
       <c r="G44" s="195" t="s">
@@ -22130,9 +22141,9 @@
     </row>
     <row r="45" spans="1:13" ht="56.1" customHeight="1">
       <c r="A45" s="174"/>
-      <c r="B45" s="307"/>
-      <c r="C45" s="312"/>
-      <c r="D45" s="307"/>
+      <c r="B45" s="313"/>
+      <c r="C45" s="309"/>
+      <c r="D45" s="313"/>
       <c r="E45" s="175"/>
       <c r="F45" s="176"/>
       <c r="G45" s="195" t="s">
@@ -22153,9 +22164,9 @@
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="174"/>
-      <c r="B46" s="307"/>
-      <c r="C46" s="312"/>
-      <c r="D46" s="307"/>
+      <c r="B46" s="313"/>
+      <c r="C46" s="309"/>
+      <c r="D46" s="313"/>
       <c r="E46" s="175"/>
       <c r="F46" s="176"/>
       <c r="G46" s="195" t="s">
@@ -22178,9 +22189,9 @@
     </row>
     <row r="47" spans="1:13" ht="26.25" hidden="1" customHeight="1">
       <c r="A47" s="174"/>
-      <c r="B47" s="307"/>
-      <c r="C47" s="312"/>
-      <c r="D47" s="307"/>
+      <c r="B47" s="313"/>
+      <c r="C47" s="309"/>
+      <c r="D47" s="313"/>
       <c r="E47" s="175"/>
       <c r="F47" s="176"/>
       <c r="G47" s="217" t="s">
@@ -22201,9 +22212,9 @@
     </row>
     <row r="48" spans="1:13" ht="25.5" hidden="1" customHeight="1">
       <c r="A48" s="174"/>
-      <c r="B48" s="307"/>
-      <c r="C48" s="312"/>
-      <c r="D48" s="307"/>
+      <c r="B48" s="313"/>
+      <c r="C48" s="309"/>
+      <c r="D48" s="313"/>
       <c r="E48" s="175"/>
       <c r="F48" s="176"/>
       <c r="G48" s="217" t="s">
@@ -22220,9 +22231,9 @@
     </row>
     <row r="49" spans="1:13" ht="78" customHeight="1" thickBot="1">
       <c r="A49" s="174"/>
-      <c r="B49" s="307"/>
-      <c r="C49" s="312"/>
-      <c r="D49" s="307"/>
+      <c r="B49" s="313"/>
+      <c r="C49" s="309"/>
+      <c r="D49" s="313"/>
       <c r="E49" s="175"/>
       <c r="F49" s="176"/>
       <c r="G49" s="208" t="s">
@@ -22232,7 +22243,7 @@
         <v>1507</v>
       </c>
       <c r="I49" s="209" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="J49" s="218" t="s">
         <v>2826</v>
@@ -22243,9 +22254,9 @@
     </row>
     <row r="50" spans="1:13" ht="41.25" customHeight="1">
       <c r="A50" s="174"/>
-      <c r="B50" s="307"/>
-      <c r="C50" s="312"/>
-      <c r="D50" s="307"/>
+      <c r="B50" s="313"/>
+      <c r="C50" s="309"/>
+      <c r="D50" s="313"/>
       <c r="E50" s="175"/>
       <c r="F50" s="176"/>
       <c r="G50" s="210" t="s">
@@ -22255,7 +22266,7 @@
         <v>1492</v>
       </c>
       <c r="I50" s="219" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="J50" s="220" t="s">
         <v>2827</v>
@@ -22266,9 +22277,9 @@
     </row>
     <row r="51" spans="1:13" ht="43.5" customHeight="1">
       <c r="A51" s="174"/>
-      <c r="B51" s="307"/>
-      <c r="C51" s="312"/>
-      <c r="D51" s="307"/>
+      <c r="B51" s="313"/>
+      <c r="C51" s="309"/>
+      <c r="D51" s="313"/>
       <c r="E51" s="175"/>
       <c r="F51" s="176"/>
       <c r="G51" s="195" t="s">
@@ -22289,9 +22300,9 @@
     </row>
     <row r="52" spans="1:13" ht="46.5" customHeight="1">
       <c r="A52" s="174"/>
-      <c r="B52" s="307"/>
-      <c r="C52" s="312"/>
-      <c r="D52" s="307"/>
+      <c r="B52" s="313"/>
+      <c r="C52" s="309"/>
+      <c r="D52" s="313"/>
       <c r="E52" s="175"/>
       <c r="F52" s="176"/>
       <c r="G52" s="195" t="s">
@@ -22312,9 +22323,9 @@
     </row>
     <row r="53" spans="1:13" ht="42" customHeight="1">
       <c r="A53" s="174"/>
-      <c r="B53" s="307"/>
-      <c r="C53" s="312"/>
-      <c r="D53" s="307"/>
+      <c r="B53" s="313"/>
+      <c r="C53" s="309"/>
+      <c r="D53" s="313"/>
       <c r="E53" s="175"/>
       <c r="F53" s="176"/>
       <c r="G53" s="195" t="s">
@@ -22335,9 +22346,9 @@
     </row>
     <row r="54" spans="1:13" ht="38.25" customHeight="1">
       <c r="A54" s="174"/>
-      <c r="B54" s="307"/>
-      <c r="C54" s="312"/>
-      <c r="D54" s="307"/>
+      <c r="B54" s="313"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="313"/>
       <c r="E54" s="175"/>
       <c r="F54" s="176"/>
       <c r="G54" s="195" t="s">
@@ -22353,14 +22364,14 @@
         <v>2837</v>
       </c>
       <c r="K54" s="222"/>
-      <c r="L54" s="324"/>
+      <c r="L54" s="323"/>
       <c r="M54" s="181"/>
     </row>
     <row r="55" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="174"/>
-      <c r="B55" s="307"/>
-      <c r="C55" s="312"/>
-      <c r="D55" s="307"/>
+      <c r="B55" s="313"/>
+      <c r="C55" s="309"/>
+      <c r="D55" s="313"/>
       <c r="E55" s="175"/>
       <c r="F55" s="176"/>
       <c r="G55" s="217" t="s">
@@ -22372,14 +22383,14 @@
       <c r="I55" s="201"/>
       <c r="J55" s="223"/>
       <c r="K55" s="223"/>
-      <c r="L55" s="325"/>
+      <c r="L55" s="324"/>
       <c r="M55" s="181"/>
     </row>
     <row r="56" spans="1:13" ht="33">
       <c r="A56" s="174"/>
-      <c r="B56" s="307"/>
-      <c r="C56" s="312"/>
-      <c r="D56" s="307"/>
+      <c r="B56" s="313"/>
+      <c r="C56" s="309"/>
+      <c r="D56" s="313"/>
       <c r="E56" s="175"/>
       <c r="F56" s="176"/>
       <c r="G56" s="195" t="s">
@@ -22402,9 +22413,9 @@
     </row>
     <row r="57" spans="1:13" ht="28.5" hidden="1" customHeight="1">
       <c r="A57" s="174"/>
-      <c r="B57" s="307"/>
-      <c r="C57" s="312"/>
-      <c r="D57" s="307"/>
+      <c r="B57" s="313"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="313"/>
       <c r="E57" s="175"/>
       <c r="F57" s="176"/>
       <c r="G57" s="217" t="s">
@@ -22423,9 +22434,9 @@
     </row>
     <row r="58" spans="1:13" ht="30.75" customHeight="1">
       <c r="A58" s="174"/>
-      <c r="B58" s="307"/>
-      <c r="C58" s="312"/>
-      <c r="D58" s="307"/>
+      <c r="B58" s="313"/>
+      <c r="C58" s="309"/>
+      <c r="D58" s="313"/>
       <c r="E58" s="175"/>
       <c r="F58" s="176"/>
       <c r="G58" s="195" t="s">
@@ -22446,9 +22457,9 @@
     </row>
     <row r="59" spans="1:13" ht="46.5" customHeight="1" thickBot="1">
       <c r="A59" s="174"/>
-      <c r="B59" s="307"/>
-      <c r="C59" s="312"/>
-      <c r="D59" s="307"/>
+      <c r="B59" s="313"/>
+      <c r="C59" s="309"/>
+      <c r="D59" s="313"/>
       <c r="E59" s="175"/>
       <c r="F59" s="176"/>
       <c r="G59" s="195" t="s">
@@ -22469,9 +22480,9 @@
     </row>
     <row r="60" spans="1:13" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="174"/>
-      <c r="B60" s="307"/>
-      <c r="C60" s="312"/>
-      <c r="D60" s="307"/>
+      <c r="B60" s="313"/>
+      <c r="C60" s="309"/>
+      <c r="D60" s="313"/>
       <c r="E60" s="175"/>
       <c r="F60" s="176"/>
       <c r="G60" s="213" t="s">
@@ -22490,9 +22501,9 @@
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1">
       <c r="A61" s="174"/>
-      <c r="B61" s="307"/>
-      <c r="C61" s="312"/>
-      <c r="D61" s="307"/>
+      <c r="B61" s="313"/>
+      <c r="C61" s="309"/>
+      <c r="D61" s="313"/>
       <c r="E61" s="175"/>
       <c r="F61" s="176"/>
       <c r="G61" s="210" t="s">
@@ -22513,9 +22524,9 @@
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1">
       <c r="A62" s="174"/>
-      <c r="B62" s="307"/>
-      <c r="C62" s="312"/>
-      <c r="D62" s="307"/>
+      <c r="B62" s="313"/>
+      <c r="C62" s="309"/>
+      <c r="D62" s="313"/>
       <c r="E62" s="175"/>
       <c r="F62" s="176"/>
       <c r="G62" s="195" t="s">
@@ -22534,9 +22545,9 @@
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1">
       <c r="A63" s="174"/>
-      <c r="B63" s="307"/>
-      <c r="C63" s="312"/>
-      <c r="D63" s="307"/>
+      <c r="B63" s="313"/>
+      <c r="C63" s="309"/>
+      <c r="D63" s="313"/>
       <c r="E63" s="175"/>
       <c r="F63" s="176"/>
       <c r="G63" s="195" t="s">
@@ -22555,9 +22566,9 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="174"/>
-      <c r="B64" s="307"/>
-      <c r="C64" s="312"/>
-      <c r="D64" s="307"/>
+      <c r="B64" s="313"/>
+      <c r="C64" s="309"/>
+      <c r="D64" s="313"/>
       <c r="E64" s="175"/>
       <c r="F64" s="176"/>
       <c r="G64" s="208" t="s">
@@ -22576,9 +22587,9 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1">
       <c r="A65" s="174"/>
-      <c r="B65" s="307"/>
-      <c r="C65" s="312"/>
-      <c r="D65" s="307"/>
+      <c r="B65" s="313"/>
+      <c r="C65" s="309"/>
+      <c r="D65" s="313"/>
       <c r="E65" s="175"/>
       <c r="F65" s="176"/>
       <c r="G65" s="210" t="s">
@@ -22597,9 +22608,9 @@
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="174"/>
-      <c r="B66" s="308"/>
-      <c r="C66" s="313"/>
-      <c r="D66" s="308"/>
+      <c r="B66" s="314"/>
+      <c r="C66" s="310"/>
+      <c r="D66" s="314"/>
       <c r="E66" s="175"/>
       <c r="F66" s="176"/>
       <c r="G66" s="228" t="s">
@@ -22618,13 +22629,13 @@
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="174"/>
-      <c r="B67" s="306" t="s">
+      <c r="B67" s="312" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="311" t="s">
+      <c r="C67" s="308" t="s">
         <v>1373</v>
       </c>
-      <c r="D67" s="314" t="s">
+      <c r="D67" s="303" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="175"/>
@@ -22647,9 +22658,9 @@
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1">
       <c r="A68" s="174"/>
-      <c r="B68" s="307"/>
-      <c r="C68" s="312"/>
-      <c r="D68" s="316"/>
+      <c r="B68" s="313"/>
+      <c r="C68" s="309"/>
+      <c r="D68" s="304"/>
       <c r="E68" s="175"/>
       <c r="F68" s="176"/>
       <c r="G68" s="177" t="s">
@@ -22668,9 +22679,9 @@
     </row>
     <row r="69" spans="1:13" ht="14.25" customHeight="1">
       <c r="A69" s="174"/>
-      <c r="B69" s="307"/>
-      <c r="C69" s="312"/>
-      <c r="D69" s="315"/>
+      <c r="B69" s="313"/>
+      <c r="C69" s="309"/>
+      <c r="D69" s="305"/>
       <c r="E69" s="175"/>
       <c r="F69" s="176"/>
       <c r="G69" s="177" t="s">
@@ -22693,11 +22704,11 @@
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1">
       <c r="A70" s="174"/>
-      <c r="B70" s="307"/>
-      <c r="C70" s="311" t="s">
+      <c r="B70" s="313"/>
+      <c r="C70" s="308" t="s">
         <v>1376</v>
       </c>
-      <c r="D70" s="314" t="s">
+      <c r="D70" s="303" t="s">
         <v>1377</v>
       </c>
       <c r="E70" s="175"/>
@@ -22720,9 +22731,9 @@
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1">
       <c r="A71" s="174"/>
-      <c r="B71" s="307"/>
-      <c r="C71" s="312"/>
-      <c r="D71" s="316"/>
+      <c r="B71" s="313"/>
+      <c r="C71" s="309"/>
+      <c r="D71" s="304"/>
       <c r="E71" s="175"/>
       <c r="F71" s="176"/>
       <c r="G71" s="177" t="s">
@@ -22743,9 +22754,9 @@
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1">
       <c r="A72" s="174"/>
-      <c r="B72" s="307"/>
-      <c r="C72" s="312"/>
-      <c r="D72" s="316"/>
+      <c r="B72" s="313"/>
+      <c r="C72" s="309"/>
+      <c r="D72" s="304"/>
       <c r="E72" s="175"/>
       <c r="F72" s="176"/>
       <c r="G72" s="177" t="s">
@@ -22766,9 +22777,9 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1">
       <c r="A73" s="174"/>
-      <c r="B73" s="307"/>
-      <c r="C73" s="312"/>
-      <c r="D73" s="315"/>
+      <c r="B73" s="313"/>
+      <c r="C73" s="309"/>
+      <c r="D73" s="305"/>
       <c r="E73" s="175"/>
       <c r="F73" s="176"/>
       <c r="G73" s="177" t="s">
@@ -22789,8 +22800,8 @@
     </row>
     <row r="74" spans="1:13" ht="49.5">
       <c r="A74" s="174"/>
-      <c r="B74" s="307"/>
-      <c r="C74" s="312"/>
+      <c r="B74" s="313"/>
+      <c r="C74" s="309"/>
       <c r="D74" s="231" t="s">
         <v>5</v>
       </c>
@@ -22814,10 +22825,10 @@
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
       <c r="A75" s="232"/>
-      <c r="B75" s="314" t="s">
+      <c r="B75" s="303" t="s">
         <v>1383</v>
       </c>
-      <c r="C75" s="311" t="s">
+      <c r="C75" s="308" t="s">
         <v>1384</v>
       </c>
       <c r="D75" s="192" t="s">
@@ -22841,8 +22852,8 @@
     </row>
     <row r="76" spans="1:13" ht="14.25" customHeight="1">
       <c r="A76" s="232"/>
-      <c r="B76" s="316"/>
-      <c r="C76" s="312"/>
+      <c r="B76" s="304"/>
+      <c r="C76" s="309"/>
       <c r="D76" s="193" t="s">
         <v>1577</v>
       </c>
@@ -22864,8 +22875,8 @@
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
       <c r="A77" s="232"/>
-      <c r="B77" s="316"/>
-      <c r="C77" s="312"/>
+      <c r="B77" s="304"/>
+      <c r="C77" s="309"/>
       <c r="D77" s="193" t="s">
         <v>1579</v>
       </c>
@@ -22889,9 +22900,9 @@
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
       <c r="A78" s="232"/>
-      <c r="B78" s="316"/>
-      <c r="C78" s="312"/>
-      <c r="D78" s="314" t="s">
+      <c r="B78" s="304"/>
+      <c r="C78" s="309"/>
+      <c r="D78" s="303" t="s">
         <v>1590</v>
       </c>
       <c r="E78" s="175"/>
@@ -22910,9 +22921,9 @@
     </row>
     <row r="79" spans="1:13" ht="100.5" customHeight="1">
       <c r="A79" s="232"/>
-      <c r="B79" s="316"/>
-      <c r="C79" s="312"/>
-      <c r="D79" s="316"/>
+      <c r="B79" s="304"/>
+      <c r="C79" s="309"/>
+      <c r="D79" s="304"/>
       <c r="E79" s="175"/>
       <c r="F79" s="176"/>
       <c r="G79" s="177" t="s">
@@ -22922,7 +22933,7 @@
         <v>1594</v>
       </c>
       <c r="I79" s="201" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="J79" s="201" t="s">
         <v>2902</v>
@@ -22935,9 +22946,9 @@
     </row>
     <row r="80" spans="1:13" ht="91.5" customHeight="1">
       <c r="A80" s="232"/>
-      <c r="B80" s="316"/>
-      <c r="C80" s="312"/>
-      <c r="D80" s="315"/>
+      <c r="B80" s="304"/>
+      <c r="C80" s="309"/>
+      <c r="D80" s="305"/>
       <c r="E80" s="175"/>
       <c r="F80" s="176"/>
       <c r="G80" s="177" t="s">
@@ -22947,7 +22958,7 @@
         <v>1595</v>
       </c>
       <c r="I80" s="201" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="J80" s="201" t="s">
         <v>2902</v>
@@ -22958,9 +22969,9 @@
     </row>
     <row r="81" spans="1:13" ht="14.25" customHeight="1">
       <c r="A81" s="232"/>
-      <c r="B81" s="316"/>
-      <c r="C81" s="312"/>
-      <c r="D81" s="314" t="s">
+      <c r="B81" s="304"/>
+      <c r="C81" s="309"/>
+      <c r="D81" s="303" t="s">
         <v>1387</v>
       </c>
       <c r="E81" s="175"/>
@@ -22985,9 +22996,9 @@
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
       <c r="A82" s="232"/>
-      <c r="B82" s="316"/>
-      <c r="C82" s="312"/>
-      <c r="D82" s="316"/>
+      <c r="B82" s="304"/>
+      <c r="C82" s="309"/>
+      <c r="D82" s="304"/>
       <c r="E82" s="175"/>
       <c r="F82" s="176"/>
       <c r="G82" s="177" t="s">
@@ -23008,9 +23019,9 @@
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1">
       <c r="A83" s="232"/>
-      <c r="B83" s="316"/>
-      <c r="C83" s="312"/>
-      <c r="D83" s="316"/>
+      <c r="B83" s="304"/>
+      <c r="C83" s="309"/>
+      <c r="D83" s="304"/>
       <c r="E83" s="175"/>
       <c r="F83" s="176"/>
       <c r="G83" s="177" t="s">
@@ -23031,9 +23042,9 @@
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1">
       <c r="A84" s="232"/>
-      <c r="B84" s="316"/>
-      <c r="C84" s="312"/>
-      <c r="D84" s="316"/>
+      <c r="B84" s="304"/>
+      <c r="C84" s="309"/>
+      <c r="D84" s="304"/>
       <c r="E84" s="175"/>
       <c r="F84" s="176"/>
       <c r="G84" s="177" t="s">
@@ -23054,9 +23065,9 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1">
       <c r="A85" s="232"/>
-      <c r="B85" s="316"/>
-      <c r="C85" s="312"/>
-      <c r="D85" s="315"/>
+      <c r="B85" s="304"/>
+      <c r="C85" s="309"/>
+      <c r="D85" s="305"/>
       <c r="E85" s="175"/>
       <c r="F85" s="176"/>
       <c r="G85" s="177" t="s">
@@ -23077,9 +23088,9 @@
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1">
       <c r="A86" s="232"/>
-      <c r="B86" s="316"/>
-      <c r="C86" s="312"/>
-      <c r="D86" s="314" t="s">
+      <c r="B86" s="304"/>
+      <c r="C86" s="309"/>
+      <c r="D86" s="303" t="s">
         <v>1394</v>
       </c>
       <c r="E86" s="175"/>
@@ -23104,9 +23115,9 @@
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1">
       <c r="A87" s="232"/>
-      <c r="B87" s="316"/>
-      <c r="C87" s="312"/>
-      <c r="D87" s="315"/>
+      <c r="B87" s="304"/>
+      <c r="C87" s="309"/>
+      <c r="D87" s="305"/>
       <c r="E87" s="175"/>
       <c r="F87" s="176"/>
       <c r="G87" s="177" t="s">
@@ -23127,8 +23138,8 @@
     </row>
     <row r="88" spans="1:13" ht="64.5" customHeight="1">
       <c r="A88" s="232"/>
-      <c r="B88" s="316"/>
-      <c r="C88" s="312"/>
+      <c r="B88" s="304"/>
+      <c r="C88" s="309"/>
       <c r="D88" s="192" t="s">
         <v>1</v>
       </c>
@@ -23154,9 +23165,9 @@
     </row>
     <row r="89" spans="1:13" ht="57" customHeight="1">
       <c r="A89" s="232"/>
-      <c r="B89" s="316"/>
-      <c r="C89" s="312"/>
-      <c r="D89" s="314" t="s">
+      <c r="B89" s="304"/>
+      <c r="C89" s="309"/>
+      <c r="D89" s="303" t="s">
         <v>1398</v>
       </c>
       <c r="E89" s="175"/>
@@ -23179,9 +23190,9 @@
     </row>
     <row r="90" spans="1:13" ht="49.5">
       <c r="A90" s="232"/>
-      <c r="B90" s="316"/>
-      <c r="C90" s="312"/>
-      <c r="D90" s="316"/>
+      <c r="B90" s="304"/>
+      <c r="C90" s="309"/>
+      <c r="D90" s="304"/>
       <c r="E90" s="175"/>
       <c r="F90" s="176"/>
       <c r="G90" s="177" t="s">
@@ -23202,9 +23213,9 @@
     </row>
     <row r="91" spans="1:13" ht="49.5">
       <c r="A91" s="232"/>
-      <c r="B91" s="316"/>
-      <c r="C91" s="312"/>
-      <c r="D91" s="316"/>
+      <c r="B91" s="304"/>
+      <c r="C91" s="309"/>
+      <c r="D91" s="304"/>
       <c r="E91" s="175"/>
       <c r="F91" s="176"/>
       <c r="G91" s="177" t="s">
@@ -23225,9 +23236,9 @@
     </row>
     <row r="92" spans="1:13" ht="49.5">
       <c r="A92" s="232"/>
-      <c r="B92" s="316"/>
-      <c r="C92" s="312"/>
-      <c r="D92" s="316"/>
+      <c r="B92" s="304"/>
+      <c r="C92" s="309"/>
+      <c r="D92" s="304"/>
       <c r="E92" s="175"/>
       <c r="F92" s="176"/>
       <c r="G92" s="177" t="s">
@@ -23248,9 +23259,9 @@
     </row>
     <row r="93" spans="1:13" ht="49.5">
       <c r="A93" s="232"/>
-      <c r="B93" s="316"/>
-      <c r="C93" s="312"/>
-      <c r="D93" s="315"/>
+      <c r="B93" s="304"/>
+      <c r="C93" s="309"/>
+      <c r="D93" s="305"/>
       <c r="E93" s="175"/>
       <c r="F93" s="176"/>
       <c r="G93" s="177" t="s">
@@ -23271,9 +23282,9 @@
     </row>
     <row r="94" spans="1:13" ht="16.5" customHeight="1">
       <c r="A94" s="232"/>
-      <c r="B94" s="316"/>
-      <c r="C94" s="312"/>
-      <c r="D94" s="314" t="s">
+      <c r="B94" s="304"/>
+      <c r="C94" s="309"/>
+      <c r="D94" s="303" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="175"/>
@@ -23296,9 +23307,9 @@
     </row>
     <row r="95" spans="1:13" ht="214.5">
       <c r="A95" s="232"/>
-      <c r="B95" s="316"/>
-      <c r="C95" s="312"/>
-      <c r="D95" s="316"/>
+      <c r="B95" s="304"/>
+      <c r="C95" s="309"/>
+      <c r="D95" s="304"/>
       <c r="E95" s="175"/>
       <c r="F95" s="176"/>
       <c r="G95" s="177" t="s">
@@ -23321,9 +23332,9 @@
     </row>
     <row r="96" spans="1:13" ht="30" customHeight="1">
       <c r="A96" s="232"/>
-      <c r="B96" s="316"/>
-      <c r="C96" s="312"/>
-      <c r="D96" s="315"/>
+      <c r="B96" s="304"/>
+      <c r="C96" s="309"/>
+      <c r="D96" s="305"/>
       <c r="E96" s="175"/>
       <c r="F96" s="176"/>
       <c r="G96" s="177" t="s">
@@ -23342,9 +23353,9 @@
     </row>
     <row r="97" spans="1:13" ht="131.25" customHeight="1">
       <c r="A97" s="232"/>
-      <c r="B97" s="316"/>
-      <c r="C97" s="312"/>
-      <c r="D97" s="314" t="s">
+      <c r="B97" s="304"/>
+      <c r="C97" s="309"/>
+      <c r="D97" s="303" t="s">
         <v>1406</v>
       </c>
       <c r="E97" s="175"/>
@@ -23353,7 +23364,7 @@
         <v>1407</v>
       </c>
       <c r="H97" s="178" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="I97" s="239" t="s">
         <v>2961</v>
@@ -23367,9 +23378,9 @@
     </row>
     <row r="98" spans="1:13" ht="14.25" customHeight="1">
       <c r="A98" s="232"/>
-      <c r="B98" s="316"/>
-      <c r="C98" s="312"/>
-      <c r="D98" s="315"/>
+      <c r="B98" s="304"/>
+      <c r="C98" s="309"/>
+      <c r="D98" s="305"/>
       <c r="E98" s="175"/>
       <c r="F98" s="176"/>
       <c r="G98" s="177" t="s">
@@ -23388,9 +23399,9 @@
     </row>
     <row r="99" spans="1:13" s="161" customFormat="1" ht="214.5">
       <c r="A99" s="272"/>
-      <c r="B99" s="316"/>
-      <c r="C99" s="312"/>
-      <c r="D99" s="329" t="s">
+      <c r="B99" s="304"/>
+      <c r="C99" s="309"/>
+      <c r="D99" s="328" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="183"/>
@@ -23411,9 +23422,9 @@
     </row>
     <row r="100" spans="1:13" s="278" customFormat="1" ht="33">
       <c r="A100" s="273"/>
-      <c r="B100" s="316"/>
-      <c r="C100" s="313"/>
-      <c r="D100" s="329"/>
+      <c r="B100" s="304"/>
+      <c r="C100" s="310"/>
+      <c r="D100" s="328"/>
       <c r="E100" s="270"/>
       <c r="F100" s="274"/>
       <c r="G100" s="195" t="s">
@@ -23436,11 +23447,11 @@
     </row>
     <row r="101" spans="1:13" ht="14.25" customHeight="1">
       <c r="A101" s="232"/>
-      <c r="B101" s="316"/>
-      <c r="C101" s="311" t="s">
+      <c r="B101" s="304"/>
+      <c r="C101" s="308" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="316" t="s">
+      <c r="D101" s="304" t="s">
         <v>1589</v>
       </c>
       <c r="E101" s="175"/>
@@ -23461,9 +23472,9 @@
     </row>
     <row r="102" spans="1:13" ht="14.25" customHeight="1">
       <c r="A102" s="232"/>
-      <c r="B102" s="316"/>
-      <c r="C102" s="312"/>
-      <c r="D102" s="315"/>
+      <c r="B102" s="304"/>
+      <c r="C102" s="309"/>
+      <c r="D102" s="305"/>
       <c r="E102" s="175"/>
       <c r="F102" s="176"/>
       <c r="G102" s="177" t="s">
@@ -23482,8 +23493,8 @@
     </row>
     <row r="103" spans="1:13" ht="14.1" customHeight="1">
       <c r="A103" s="232"/>
-      <c r="B103" s="316"/>
-      <c r="C103" s="312"/>
+      <c r="B103" s="304"/>
+      <c r="C103" s="309"/>
       <c r="D103" s="192" t="s">
         <v>1412</v>
       </c>
@@ -23505,9 +23516,9 @@
     </row>
     <row r="104" spans="1:13" ht="66">
       <c r="A104" s="232"/>
-      <c r="B104" s="316"/>
-      <c r="C104" s="312"/>
-      <c r="D104" s="314" t="s">
+      <c r="B104" s="304"/>
+      <c r="C104" s="309"/>
+      <c r="D104" s="303" t="s">
         <v>1600</v>
       </c>
       <c r="E104" s="175"/>
@@ -23519,7 +23530,7 @@
         <v>1603</v>
       </c>
       <c r="I104" s="179" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="J104" s="179" t="s">
         <v>2858</v>
@@ -23532,9 +23543,9 @@
     </row>
     <row r="105" spans="1:13" ht="14.25" customHeight="1">
       <c r="A105" s="232"/>
-      <c r="B105" s="316"/>
-      <c r="C105" s="312"/>
-      <c r="D105" s="316"/>
+      <c r="B105" s="304"/>
+      <c r="C105" s="309"/>
+      <c r="D105" s="304"/>
       <c r="E105" s="175"/>
       <c r="F105" s="176"/>
       <c r="G105" s="177" t="s">
@@ -23553,9 +23564,9 @@
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
       <c r="A106" s="232"/>
-      <c r="B106" s="316"/>
-      <c r="C106" s="312"/>
-      <c r="D106" s="316"/>
+      <c r="B106" s="304"/>
+      <c r="C106" s="309"/>
+      <c r="D106" s="304"/>
       <c r="E106" s="175"/>
       <c r="F106" s="176"/>
       <c r="G106" s="177" t="s">
@@ -23574,9 +23585,9 @@
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
       <c r="A107" s="232"/>
-      <c r="B107" s="316"/>
-      <c r="C107" s="312"/>
-      <c r="D107" s="315"/>
+      <c r="B107" s="304"/>
+      <c r="C107" s="309"/>
+      <c r="D107" s="305"/>
       <c r="E107" s="175"/>
       <c r="F107" s="176"/>
       <c r="G107" s="177" t="s">
@@ -23595,8 +23606,8 @@
     </row>
     <row r="108" spans="1:13" ht="14.25" customHeight="1">
       <c r="A108" s="232"/>
-      <c r="B108" s="316"/>
-      <c r="C108" s="312"/>
+      <c r="B108" s="304"/>
+      <c r="C108" s="309"/>
       <c r="D108" s="192" t="s">
         <v>1385</v>
       </c>
@@ -23618,15 +23629,15 @@
     </row>
     <row r="109" spans="1:13" ht="14.25" customHeight="1">
       <c r="A109" s="232"/>
-      <c r="B109" s="316"/>
-      <c r="C109" s="312"/>
+      <c r="B109" s="304"/>
+      <c r="C109" s="309"/>
       <c r="D109" s="300" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="E109" s="175"/>
       <c r="F109" s="176"/>
       <c r="G109" s="177" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="H109" s="178"/>
       <c r="I109" s="179"/>
@@ -23637,9 +23648,9 @@
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
       <c r="A110" s="232"/>
-      <c r="B110" s="316"/>
-      <c r="C110" s="312"/>
-      <c r="D110" s="314" t="s">
+      <c r="B110" s="304"/>
+      <c r="C110" s="309"/>
+      <c r="D110" s="303" t="s">
         <v>1413</v>
       </c>
       <c r="E110" s="175"/>
@@ -23662,9 +23673,9 @@
     </row>
     <row r="111" spans="1:13" ht="14.25" customHeight="1">
       <c r="A111" s="232"/>
-      <c r="B111" s="316"/>
-      <c r="C111" s="312"/>
-      <c r="D111" s="315"/>
+      <c r="B111" s="304"/>
+      <c r="C111" s="309"/>
+      <c r="D111" s="305"/>
       <c r="E111" s="175"/>
       <c r="F111" s="176"/>
       <c r="G111" s="177" t="s">
@@ -23685,9 +23696,9 @@
     </row>
     <row r="112" spans="1:13" ht="14.25" customHeight="1">
       <c r="A112" s="232"/>
-      <c r="B112" s="316"/>
-      <c r="C112" s="312"/>
-      <c r="D112" s="326" t="s">
+      <c r="B112" s="304"/>
+      <c r="C112" s="309"/>
+      <c r="D112" s="325" t="s">
         <v>1418</v>
       </c>
       <c r="E112" s="175"/>
@@ -23708,9 +23719,9 @@
     </row>
     <row r="113" spans="1:13" ht="14.25" customHeight="1">
       <c r="A113" s="232"/>
-      <c r="B113" s="316"/>
-      <c r="C113" s="312"/>
-      <c r="D113" s="327"/>
+      <c r="B113" s="304"/>
+      <c r="C113" s="309"/>
+      <c r="D113" s="326"/>
       <c r="E113" s="175"/>
       <c r="F113" s="176"/>
       <c r="G113" s="177" t="s">
@@ -23729,9 +23740,9 @@
     </row>
     <row r="114" spans="1:13" ht="14.25" customHeight="1">
       <c r="A114" s="232"/>
-      <c r="B114" s="316"/>
-      <c r="C114" s="312"/>
-      <c r="D114" s="328"/>
+      <c r="B114" s="304"/>
+      <c r="C114" s="309"/>
+      <c r="D114" s="327"/>
       <c r="E114" s="175"/>
       <c r="F114" s="176"/>
       <c r="G114" s="177" t="s">
@@ -23750,8 +23761,8 @@
     </row>
     <row r="115" spans="1:13" ht="14.25" customHeight="1">
       <c r="A115" s="232"/>
-      <c r="B115" s="316"/>
-      <c r="C115" s="312"/>
+      <c r="B115" s="304"/>
+      <c r="C115" s="309"/>
       <c r="D115" s="192" t="s">
         <v>9</v>
       </c>
@@ -23773,9 +23784,9 @@
     </row>
     <row r="116" spans="1:13" ht="33">
       <c r="A116" s="232"/>
-      <c r="B116" s="316"/>
-      <c r="C116" s="312"/>
-      <c r="D116" s="314" t="s">
+      <c r="B116" s="304"/>
+      <c r="C116" s="309"/>
+      <c r="D116" s="303" t="s">
         <v>1421</v>
       </c>
       <c r="E116" s="175"/>
@@ -23798,9 +23809,9 @@
     </row>
     <row r="117" spans="1:13" ht="14.25" customHeight="1">
       <c r="A117" s="232"/>
-      <c r="B117" s="316"/>
-      <c r="C117" s="312"/>
-      <c r="D117" s="316"/>
+      <c r="B117" s="304"/>
+      <c r="C117" s="309"/>
+      <c r="D117" s="304"/>
       <c r="E117" s="175"/>
       <c r="F117" s="176"/>
       <c r="G117" s="177" t="s">
@@ -23819,9 +23830,9 @@
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
       <c r="A118" s="232"/>
-      <c r="B118" s="316"/>
-      <c r="C118" s="313"/>
-      <c r="D118" s="315"/>
+      <c r="B118" s="304"/>
+      <c r="C118" s="310"/>
+      <c r="D118" s="305"/>
       <c r="E118" s="175"/>
       <c r="F118" s="176"/>
       <c r="G118" s="177" t="s">
@@ -23842,11 +23853,11 @@
     </row>
     <row r="119" spans="1:13" ht="14.25" customHeight="1">
       <c r="A119" s="232"/>
-      <c r="B119" s="316"/>
-      <c r="C119" s="311" t="s">
+      <c r="B119" s="304"/>
+      <c r="C119" s="308" t="s">
         <v>1427</v>
       </c>
-      <c r="D119" s="314" t="s">
+      <c r="D119" s="303" t="s">
         <v>1428</v>
       </c>
       <c r="E119" s="175"/>
@@ -23867,9 +23878,9 @@
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
       <c r="A120" s="232"/>
-      <c r="B120" s="316"/>
-      <c r="C120" s="312"/>
-      <c r="D120" s="315"/>
+      <c r="B120" s="304"/>
+      <c r="C120" s="309"/>
+      <c r="D120" s="305"/>
       <c r="E120" s="175"/>
       <c r="F120" s="176"/>
       <c r="G120" s="177" t="s">
@@ -23890,8 +23901,8 @@
     </row>
     <row r="121" spans="1:13" ht="14.25" customHeight="1">
       <c r="A121" s="181"/>
-      <c r="B121" s="316"/>
-      <c r="C121" s="312"/>
+      <c r="B121" s="304"/>
+      <c r="C121" s="309"/>
       <c r="D121" s="192" t="s">
         <v>1431</v>
       </c>
@@ -23915,8 +23926,8 @@
     </row>
     <row r="122" spans="1:13" ht="14.25" customHeight="1">
       <c r="A122" s="181"/>
-      <c r="B122" s="316"/>
-      <c r="C122" s="312"/>
+      <c r="B122" s="304"/>
+      <c r="C122" s="309"/>
       <c r="D122" s="192" t="s">
         <v>1434</v>
       </c>
@@ -23938,8 +23949,8 @@
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
       <c r="A123" s="181"/>
-      <c r="B123" s="316"/>
-      <c r="C123" s="312"/>
+      <c r="B123" s="304"/>
+      <c r="C123" s="309"/>
       <c r="D123" s="242" t="s">
         <v>1436</v>
       </c>
@@ -23963,9 +23974,9 @@
     </row>
     <row r="124" spans="1:13" ht="14.25" customHeight="1">
       <c r="A124" s="181"/>
-      <c r="B124" s="316"/>
-      <c r="C124" s="312"/>
-      <c r="D124" s="314" t="s">
+      <c r="B124" s="304"/>
+      <c r="C124" s="309"/>
+      <c r="D124" s="303" t="s">
         <v>171</v>
       </c>
       <c r="E124" s="175"/>
@@ -23986,9 +23997,9 @@
     </row>
     <row r="125" spans="1:13" ht="14.25" customHeight="1">
       <c r="A125" s="181"/>
-      <c r="B125" s="316"/>
-      <c r="C125" s="312"/>
-      <c r="D125" s="316"/>
+      <c r="B125" s="304"/>
+      <c r="C125" s="309"/>
+      <c r="D125" s="304"/>
       <c r="E125" s="175"/>
       <c r="F125" s="176"/>
       <c r="G125" s="177" t="s">
@@ -24009,9 +24020,9 @@
     </row>
     <row r="126" spans="1:13" ht="14.25" customHeight="1">
       <c r="A126" s="181"/>
-      <c r="B126" s="316"/>
-      <c r="C126" s="312"/>
-      <c r="D126" s="316"/>
+      <c r="B126" s="304"/>
+      <c r="C126" s="309"/>
+      <c r="D126" s="304"/>
       <c r="E126" s="175"/>
       <c r="F126" s="176"/>
       <c r="G126" s="177" t="s">
@@ -24030,9 +24041,9 @@
     </row>
     <row r="127" spans="1:13" ht="14.25" customHeight="1">
       <c r="A127" s="181"/>
-      <c r="B127" s="316"/>
-      <c r="C127" s="312"/>
-      <c r="D127" s="315"/>
+      <c r="B127" s="304"/>
+      <c r="C127" s="309"/>
+      <c r="D127" s="305"/>
       <c r="E127" s="175"/>
       <c r="F127" s="176"/>
       <c r="G127" s="177" t="s">
@@ -24053,9 +24064,9 @@
     </row>
     <row r="128" spans="1:13" ht="14.25" customHeight="1">
       <c r="A128" s="181"/>
-      <c r="B128" s="316"/>
-      <c r="C128" s="312"/>
-      <c r="D128" s="331" t="s">
+      <c r="B128" s="304"/>
+      <c r="C128" s="309"/>
+      <c r="D128" s="306" t="s">
         <v>1438</v>
       </c>
       <c r="E128" s="175"/>
@@ -24076,16 +24087,16 @@
     </row>
     <row r="129" spans="1:13" ht="14.25" customHeight="1">
       <c r="A129" s="181"/>
-      <c r="B129" s="316"/>
-      <c r="C129" s="312"/>
-      <c r="D129" s="334"/>
+      <c r="B129" s="304"/>
+      <c r="C129" s="309"/>
+      <c r="D129" s="307"/>
       <c r="E129" s="175"/>
       <c r="F129" s="176"/>
       <c r="G129" s="177" t="s">
         <v>1440</v>
       </c>
       <c r="H129" s="178" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="I129" s="241" t="s">
         <v>2144</v>
@@ -24101,9 +24112,9 @@
     </row>
     <row r="130" spans="1:13" ht="14.25" customHeight="1">
       <c r="A130" s="181"/>
-      <c r="B130" s="316"/>
-      <c r="C130" s="312"/>
-      <c r="D130" s="314" t="s">
+      <c r="B130" s="304"/>
+      <c r="C130" s="309"/>
+      <c r="D130" s="303" t="s">
         <v>1441</v>
       </c>
       <c r="E130" s="175"/>
@@ -24124,9 +24135,9 @@
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
       <c r="A131" s="181"/>
-      <c r="B131" s="316"/>
-      <c r="C131" s="312"/>
-      <c r="D131" s="316"/>
+      <c r="B131" s="304"/>
+      <c r="C131" s="309"/>
+      <c r="D131" s="304"/>
       <c r="E131" s="175"/>
       <c r="F131" s="176"/>
       <c r="G131" s="197" t="s">
@@ -24145,9 +24156,9 @@
     </row>
     <row r="132" spans="1:13" ht="14.25" customHeight="1">
       <c r="A132" s="181"/>
-      <c r="B132" s="316"/>
-      <c r="C132" s="312"/>
-      <c r="D132" s="315"/>
+      <c r="B132" s="304"/>
+      <c r="C132" s="309"/>
+      <c r="D132" s="305"/>
       <c r="E132" s="175"/>
       <c r="F132" s="176"/>
       <c r="G132" s="177" t="s">
@@ -24164,9 +24175,9 @@
     </row>
     <row r="133" spans="1:13" ht="51.75" customHeight="1">
       <c r="A133" s="181"/>
-      <c r="B133" s="316"/>
-      <c r="C133" s="312"/>
-      <c r="D133" s="333" t="s">
+      <c r="B133" s="304"/>
+      <c r="C133" s="309"/>
+      <c r="D133" s="316" t="s">
         <v>166</v>
       </c>
       <c r="E133" s="175"/>
@@ -24185,9 +24196,9 @@
     </row>
     <row r="134" spans="1:13" ht="14.25" customHeight="1">
       <c r="A134" s="181"/>
-      <c r="B134" s="316"/>
-      <c r="C134" s="312"/>
-      <c r="D134" s="333"/>
+      <c r="B134" s="304"/>
+      <c r="C134" s="309"/>
+      <c r="D134" s="316"/>
       <c r="E134" s="175"/>
       <c r="F134" s="176"/>
       <c r="G134" s="177" t="s">
@@ -24204,8 +24215,8 @@
     </row>
     <row r="135" spans="1:13" ht="14.25" customHeight="1">
       <c r="A135" s="181"/>
-      <c r="B135" s="316"/>
-      <c r="C135" s="312"/>
+      <c r="B135" s="304"/>
+      <c r="C135" s="309"/>
       <c r="D135" s="191" t="s">
         <v>170</v>
       </c>
@@ -24227,9 +24238,9 @@
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
       <c r="A136" s="181"/>
-      <c r="B136" s="316"/>
-      <c r="C136" s="312"/>
-      <c r="D136" s="314" t="s">
+      <c r="B136" s="304"/>
+      <c r="C136" s="309"/>
+      <c r="D136" s="303" t="s">
         <v>13</v>
       </c>
       <c r="E136" s="175"/>
@@ -24250,9 +24261,9 @@
     </row>
     <row r="137" spans="1:13" ht="14.25" customHeight="1">
       <c r="A137" s="181"/>
-      <c r="B137" s="316"/>
-      <c r="C137" s="312"/>
-      <c r="D137" s="316"/>
+      <c r="B137" s="304"/>
+      <c r="C137" s="309"/>
+      <c r="D137" s="304"/>
       <c r="E137" s="175"/>
       <c r="F137" s="176"/>
       <c r="G137" s="177" t="s">
@@ -24271,9 +24282,9 @@
     </row>
     <row r="138" spans="1:13" ht="14.25" customHeight="1">
       <c r="A138" s="181"/>
-      <c r="B138" s="316"/>
-      <c r="C138" s="312"/>
-      <c r="D138" s="316"/>
+      <c r="B138" s="304"/>
+      <c r="C138" s="309"/>
+      <c r="D138" s="304"/>
       <c r="E138" s="175"/>
       <c r="F138" s="176"/>
       <c r="G138" s="177" t="s">
@@ -24292,9 +24303,9 @@
     </row>
     <row r="139" spans="1:13" ht="14.25" customHeight="1">
       <c r="A139" s="181"/>
-      <c r="B139" s="316"/>
-      <c r="C139" s="312"/>
-      <c r="D139" s="316"/>
+      <c r="B139" s="304"/>
+      <c r="C139" s="309"/>
+      <c r="D139" s="304"/>
       <c r="E139" s="175"/>
       <c r="F139" s="176"/>
       <c r="G139" s="177" t="s">
@@ -24313,9 +24324,9 @@
     </row>
     <row r="140" spans="1:13" ht="14.25" customHeight="1">
       <c r="A140" s="181"/>
-      <c r="B140" s="316"/>
-      <c r="C140" s="312"/>
-      <c r="D140" s="316"/>
+      <c r="B140" s="304"/>
+      <c r="C140" s="309"/>
+      <c r="D140" s="304"/>
       <c r="E140" s="175"/>
       <c r="F140" s="176"/>
       <c r="G140" s="177" t="s">
@@ -24334,9 +24345,9 @@
     </row>
     <row r="141" spans="1:13" ht="14.25" customHeight="1">
       <c r="A141" s="181"/>
-      <c r="B141" s="316"/>
-      <c r="C141" s="312"/>
-      <c r="D141" s="316"/>
+      <c r="B141" s="304"/>
+      <c r="C141" s="309"/>
+      <c r="D141" s="304"/>
       <c r="E141" s="175"/>
       <c r="F141" s="176"/>
       <c r="G141" s="177" t="s">
@@ -24355,9 +24366,9 @@
     </row>
     <row r="142" spans="1:13" ht="14.25" customHeight="1">
       <c r="A142" s="181"/>
-      <c r="B142" s="316"/>
-      <c r="C142" s="312"/>
-      <c r="D142" s="316"/>
+      <c r="B142" s="304"/>
+      <c r="C142" s="309"/>
+      <c r="D142" s="304"/>
       <c r="E142" s="175"/>
       <c r="F142" s="176"/>
       <c r="G142" s="177" t="s">
@@ -24376,9 +24387,9 @@
     </row>
     <row r="143" spans="1:13" ht="14.25" customHeight="1">
       <c r="A143" s="181"/>
-      <c r="B143" s="316"/>
-      <c r="C143" s="313"/>
-      <c r="D143" s="315"/>
+      <c r="B143" s="304"/>
+      <c r="C143" s="310"/>
+      <c r="D143" s="305"/>
       <c r="E143" s="175"/>
       <c r="F143" s="176"/>
       <c r="G143" s="177" t="s">
@@ -24397,11 +24408,11 @@
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
       <c r="A144" s="181"/>
-      <c r="B144" s="316"/>
-      <c r="C144" s="311" t="s">
+      <c r="B144" s="304"/>
+      <c r="C144" s="308" t="s">
         <v>18</v>
       </c>
-      <c r="D144" s="314" t="s">
+      <c r="D144" s="303" t="s">
         <v>19</v>
       </c>
       <c r="E144" s="175"/>
@@ -24422,9 +24433,9 @@
     </row>
     <row r="145" spans="1:13" ht="14.25" customHeight="1">
       <c r="A145" s="181"/>
-      <c r="B145" s="316"/>
-      <c r="C145" s="312"/>
-      <c r="D145" s="316"/>
+      <c r="B145" s="304"/>
+      <c r="C145" s="309"/>
+      <c r="D145" s="304"/>
       <c r="E145" s="175"/>
       <c r="F145" s="176"/>
       <c r="G145" s="177" t="s">
@@ -24443,9 +24454,9 @@
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
       <c r="A146" s="181"/>
-      <c r="B146" s="316"/>
-      <c r="C146" s="312"/>
-      <c r="D146" s="315"/>
+      <c r="B146" s="304"/>
+      <c r="C146" s="309"/>
+      <c r="D146" s="305"/>
       <c r="E146" s="175"/>
       <c r="F146" s="176"/>
       <c r="G146" s="177" t="s">
@@ -24464,9 +24475,9 @@
     </row>
     <row r="147" spans="1:13" ht="14.25" customHeight="1">
       <c r="A147" s="181"/>
-      <c r="B147" s="316"/>
-      <c r="C147" s="312"/>
-      <c r="D147" s="314" t="s">
+      <c r="B147" s="304"/>
+      <c r="C147" s="309"/>
+      <c r="D147" s="303" t="s">
         <v>21</v>
       </c>
       <c r="E147" s="175"/>
@@ -24487,9 +24498,9 @@
     </row>
     <row r="148" spans="1:13" ht="14.25" customHeight="1">
       <c r="A148" s="181"/>
-      <c r="B148" s="316"/>
-      <c r="C148" s="312"/>
-      <c r="D148" s="315"/>
+      <c r="B148" s="304"/>
+      <c r="C148" s="309"/>
+      <c r="D148" s="305"/>
       <c r="E148" s="175"/>
       <c r="F148" s="176"/>
       <c r="G148" s="177" t="s">
@@ -24508,8 +24519,8 @@
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
       <c r="A149" s="181"/>
-      <c r="B149" s="316"/>
-      <c r="C149" s="313"/>
+      <c r="B149" s="304"/>
+      <c r="C149" s="310"/>
       <c r="D149" s="192" t="s">
         <v>27</v>
       </c>
@@ -24531,11 +24542,11 @@
     </row>
     <row r="150" spans="1:13" ht="14.25" customHeight="1">
       <c r="A150" s="181"/>
-      <c r="B150" s="316"/>
-      <c r="C150" s="311" t="s">
+      <c r="B150" s="304"/>
+      <c r="C150" s="308" t="s">
         <v>29</v>
       </c>
-      <c r="D150" s="314" t="s">
+      <c r="D150" s="303" t="s">
         <v>30</v>
       </c>
       <c r="E150" s="175"/>
@@ -24556,9 +24567,9 @@
     </row>
     <row r="151" spans="1:13" ht="14.25" customHeight="1">
       <c r="A151" s="181"/>
-      <c r="B151" s="316"/>
-      <c r="C151" s="312"/>
-      <c r="D151" s="316"/>
+      <c r="B151" s="304"/>
+      <c r="C151" s="309"/>
+      <c r="D151" s="304"/>
       <c r="E151" s="175"/>
       <c r="F151" s="176"/>
       <c r="G151" s="177" t="s">
@@ -24577,9 +24588,9 @@
     </row>
     <row r="152" spans="1:13" ht="14.25" customHeight="1">
       <c r="A152" s="181"/>
-      <c r="B152" s="316"/>
-      <c r="C152" s="312"/>
-      <c r="D152" s="316"/>
+      <c r="B152" s="304"/>
+      <c r="C152" s="309"/>
+      <c r="D152" s="304"/>
       <c r="E152" s="175"/>
       <c r="F152" s="176"/>
       <c r="G152" s="177" t="s">
@@ -24598,9 +24609,9 @@
     </row>
     <row r="153" spans="1:13" ht="14.25" customHeight="1">
       <c r="A153" s="181"/>
-      <c r="B153" s="316"/>
-      <c r="C153" s="312"/>
-      <c r="D153" s="315"/>
+      <c r="B153" s="304"/>
+      <c r="C153" s="309"/>
+      <c r="D153" s="305"/>
       <c r="E153" s="175"/>
       <c r="F153" s="176"/>
       <c r="G153" s="177" t="s">
@@ -24617,9 +24628,9 @@
     </row>
     <row r="154" spans="1:13" ht="14.25" customHeight="1">
       <c r="A154" s="181"/>
-      <c r="B154" s="316"/>
-      <c r="C154" s="312"/>
-      <c r="D154" s="331" t="s">
+      <c r="B154" s="304"/>
+      <c r="C154" s="309"/>
+      <c r="D154" s="306" t="s">
         <v>35</v>
       </c>
       <c r="E154" s="244"/>
@@ -24642,9 +24653,9 @@
     </row>
     <row r="155" spans="1:13" ht="14.25" customHeight="1">
       <c r="A155" s="181"/>
-      <c r="B155" s="316"/>
-      <c r="C155" s="312"/>
-      <c r="D155" s="334"/>
+      <c r="B155" s="304"/>
+      <c r="C155" s="309"/>
+      <c r="D155" s="307"/>
       <c r="E155" s="244"/>
       <c r="F155" s="245"/>
       <c r="G155" s="177" t="s">
@@ -24663,8 +24674,8 @@
     </row>
     <row r="156" spans="1:13" ht="14.25" customHeight="1">
       <c r="A156" s="181"/>
-      <c r="B156" s="316"/>
-      <c r="C156" s="312"/>
+      <c r="B156" s="304"/>
+      <c r="C156" s="309"/>
       <c r="D156" s="192" t="s">
         <v>38</v>
       </c>
@@ -24686,8 +24697,8 @@
     </row>
     <row r="157" spans="1:13" ht="33">
       <c r="A157" s="181"/>
-      <c r="B157" s="316"/>
-      <c r="C157" s="312"/>
+      <c r="B157" s="304"/>
+      <c r="C157" s="309"/>
       <c r="D157" s="192" t="s">
         <v>40</v>
       </c>
@@ -24709,9 +24720,9 @@
     </row>
     <row r="158" spans="1:13" ht="14.25" customHeight="1">
       <c r="A158" s="181"/>
-      <c r="B158" s="316"/>
-      <c r="C158" s="312"/>
-      <c r="D158" s="314" t="s">
+      <c r="B158" s="304"/>
+      <c r="C158" s="309"/>
+      <c r="D158" s="303" t="s">
         <v>42</v>
       </c>
       <c r="E158" s="175"/>
@@ -24734,9 +24745,9 @@
     </row>
     <row r="159" spans="1:13" ht="14.25" customHeight="1">
       <c r="A159" s="181"/>
-      <c r="B159" s="316"/>
-      <c r="C159" s="312"/>
-      <c r="D159" s="316"/>
+      <c r="B159" s="304"/>
+      <c r="C159" s="309"/>
+      <c r="D159" s="304"/>
       <c r="E159" s="175"/>
       <c r="F159" s="176"/>
       <c r="G159" s="177" t="s">
@@ -24755,16 +24766,16 @@
     </row>
     <row r="160" spans="1:13" ht="33">
       <c r="A160" s="181"/>
-      <c r="B160" s="316"/>
-      <c r="C160" s="312"/>
-      <c r="D160" s="316"/>
+      <c r="B160" s="304"/>
+      <c r="C160" s="309"/>
+      <c r="D160" s="304"/>
       <c r="E160" s="175"/>
       <c r="F160" s="176"/>
       <c r="G160" s="177" t="s">
         <v>45</v>
       </c>
       <c r="H160" s="178" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="I160" s="179"/>
       <c r="J160" s="220" t="s">
@@ -24776,9 +24787,9 @@
     </row>
     <row r="161" spans="1:13" ht="14.25" customHeight="1">
       <c r="A161" s="181"/>
-      <c r="B161" s="316"/>
-      <c r="C161" s="312"/>
-      <c r="D161" s="316"/>
+      <c r="B161" s="304"/>
+      <c r="C161" s="309"/>
+      <c r="D161" s="304"/>
       <c r="E161" s="175"/>
       <c r="F161" s="176"/>
       <c r="G161" s="177" t="s">
@@ -24795,32 +24806,32 @@
       <c r="L161" s="175"/>
       <c r="M161" s="181"/>
     </row>
-    <row r="162" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A162" s="181"/>
-      <c r="B162" s="316"/>
-      <c r="C162" s="312"/>
-      <c r="D162" s="316"/>
-      <c r="E162" s="175"/>
-      <c r="F162" s="176"/>
-      <c r="G162" s="177" t="s">
+    <row r="162" spans="1:13" s="297" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A162" s="289"/>
+      <c r="B162" s="304"/>
+      <c r="C162" s="309"/>
+      <c r="D162" s="304"/>
+      <c r="E162" s="290"/>
+      <c r="F162" s="291"/>
+      <c r="G162" s="292" t="s">
         <v>47</v>
       </c>
-      <c r="H162" s="178" t="s">
+      <c r="H162" s="293" t="s">
         <v>2139</v>
       </c>
-      <c r="I162" s="179"/>
-      <c r="J162" s="235" t="s">
+      <c r="I162" s="294"/>
+      <c r="J162" s="359" t="s">
         <v>2991</v>
       </c>
-      <c r="K162" s="235"/>
-      <c r="L162" s="175"/>
-      <c r="M162" s="181"/>
+      <c r="K162" s="359"/>
+      <c r="L162" s="290"/>
+      <c r="M162" s="289"/>
     </row>
     <row r="163" spans="1:13" ht="46.5" customHeight="1">
       <c r="A163" s="181"/>
-      <c r="B163" s="316"/>
-      <c r="C163" s="312"/>
-      <c r="D163" s="316"/>
+      <c r="B163" s="304"/>
+      <c r="C163" s="309"/>
+      <c r="D163" s="304"/>
       <c r="E163" s="175"/>
       <c r="F163" s="176"/>
       <c r="G163" s="177" t="s">
@@ -24837,22 +24848,24 @@
       <c r="L163" s="175"/>
       <c r="M163" s="181"/>
     </row>
-    <row r="164" spans="1:13" ht="26.25" customHeight="1">
+    <row r="164" spans="1:13" ht="33">
       <c r="A164" s="181"/>
-      <c r="B164" s="316"/>
-      <c r="C164" s="312"/>
-      <c r="D164" s="316"/>
+      <c r="B164" s="304"/>
+      <c r="C164" s="309"/>
+      <c r="D164" s="304"/>
       <c r="E164" s="175"/>
       <c r="F164" s="176"/>
       <c r="G164" s="247" t="s">
-        <v>49</v>
+        <v>3075</v>
       </c>
       <c r="H164" s="185" t="s">
-        <v>2996</v>
-      </c>
-      <c r="I164" s="179"/>
-      <c r="J164" s="202" t="s">
-        <v>2997</v>
+        <v>3076</v>
+      </c>
+      <c r="I164" s="179" t="s">
+        <v>3077</v>
+      </c>
+      <c r="J164" s="248" t="s">
+        <v>3078</v>
       </c>
       <c r="K164" s="202"/>
       <c r="L164" s="175"/>
@@ -24860,9 +24873,9 @@
     </row>
     <row r="165" spans="1:13" ht="14.25" customHeight="1">
       <c r="A165" s="181"/>
-      <c r="B165" s="316"/>
-      <c r="C165" s="312"/>
-      <c r="D165" s="316"/>
+      <c r="B165" s="304"/>
+      <c r="C165" s="309"/>
+      <c r="D165" s="304"/>
       <c r="E165" s="175"/>
       <c r="F165" s="176"/>
       <c r="G165" s="177" t="s">
@@ -24873,7 +24886,7 @@
       </c>
       <c r="I165" s="179"/>
       <c r="J165" s="248" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="K165" s="224"/>
       <c r="L165" s="175"/>
@@ -24881,9 +24894,9 @@
     </row>
     <row r="166" spans="1:13" ht="14.25" customHeight="1">
       <c r="A166" s="181"/>
-      <c r="B166" s="316"/>
-      <c r="C166" s="312"/>
-      <c r="D166" s="316"/>
+      <c r="B166" s="304"/>
+      <c r="C166" s="309"/>
+      <c r="D166" s="304"/>
       <c r="E166" s="175"/>
       <c r="F166" s="176"/>
       <c r="G166" s="177" t="s">
@@ -24894,7 +24907,7 @@
       </c>
       <c r="I166" s="179"/>
       <c r="J166" s="235" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="K166" s="235"/>
       <c r="L166" s="175"/>
@@ -24902,9 +24915,9 @@
     </row>
     <row r="167" spans="1:13" ht="33">
       <c r="A167" s="181"/>
-      <c r="B167" s="316"/>
-      <c r="C167" s="313"/>
-      <c r="D167" s="315"/>
+      <c r="B167" s="304"/>
+      <c r="C167" s="310"/>
+      <c r="D167" s="305"/>
       <c r="E167" s="175"/>
       <c r="F167" s="176"/>
       <c r="G167" s="177" t="s">
@@ -24915,7 +24928,7 @@
       </c>
       <c r="I167" s="249"/>
       <c r="J167" s="179" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="K167" s="179"/>
       <c r="L167" s="250"/>
@@ -24923,11 +24936,11 @@
     </row>
     <row r="168" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A168" s="181"/>
-      <c r="B168" s="316"/>
-      <c r="C168" s="311" t="s">
+      <c r="B168" s="304"/>
+      <c r="C168" s="308" t="s">
         <v>53</v>
       </c>
-      <c r="D168" s="314" t="s">
+      <c r="D168" s="303" t="s">
         <v>106</v>
       </c>
       <c r="E168" s="175"/>
@@ -24944,9 +24957,9 @@
     </row>
     <row r="169" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A169" s="181"/>
-      <c r="B169" s="316"/>
-      <c r="C169" s="312"/>
-      <c r="D169" s="316"/>
+      <c r="B169" s="304"/>
+      <c r="C169" s="309"/>
+      <c r="D169" s="304"/>
       <c r="E169" s="175"/>
       <c r="F169" s="176"/>
       <c r="G169" s="177" t="s">
@@ -24961,9 +24974,9 @@
     </row>
     <row r="170" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A170" s="181"/>
-      <c r="B170" s="316"/>
-      <c r="C170" s="312"/>
-      <c r="D170" s="316"/>
+      <c r="B170" s="304"/>
+      <c r="C170" s="309"/>
+      <c r="D170" s="304"/>
       <c r="E170" s="175"/>
       <c r="F170" s="176"/>
       <c r="G170" s="177" t="s">
@@ -24978,9 +24991,9 @@
     </row>
     <row r="171" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A171" s="181"/>
-      <c r="B171" s="316"/>
-      <c r="C171" s="312"/>
-      <c r="D171" s="316"/>
+      <c r="B171" s="304"/>
+      <c r="C171" s="309"/>
+      <c r="D171" s="304"/>
       <c r="E171" s="175"/>
       <c r="F171" s="176"/>
       <c r="G171" s="177" t="s">
@@ -24995,9 +25008,9 @@
     </row>
     <row r="172" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A172" s="181"/>
-      <c r="B172" s="316"/>
-      <c r="C172" s="312"/>
-      <c r="D172" s="316"/>
+      <c r="B172" s="304"/>
+      <c r="C172" s="309"/>
+      <c r="D172" s="304"/>
       <c r="E172" s="175"/>
       <c r="F172" s="176"/>
       <c r="G172" s="177" t="s">
@@ -25012,9 +25025,9 @@
     </row>
     <row r="173" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="316"/>
-      <c r="C173" s="312"/>
-      <c r="D173" s="316"/>
+      <c r="B173" s="304"/>
+      <c r="C173" s="309"/>
+      <c r="D173" s="304"/>
       <c r="E173" s="175"/>
       <c r="F173" s="176"/>
       <c r="G173" s="177" t="s">
@@ -25029,9 +25042,9 @@
     </row>
     <row r="174" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A174" s="181"/>
-      <c r="B174" s="316"/>
-      <c r="C174" s="312"/>
-      <c r="D174" s="316"/>
+      <c r="B174" s="304"/>
+      <c r="C174" s="309"/>
+      <c r="D174" s="304"/>
       <c r="E174" s="175"/>
       <c r="F174" s="176"/>
       <c r="G174" s="177" t="s">
@@ -25046,9 +25059,9 @@
     </row>
     <row r="175" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A175" s="181"/>
-      <c r="B175" s="316"/>
-      <c r="C175" s="312"/>
-      <c r="D175" s="316"/>
+      <c r="B175" s="304"/>
+      <c r="C175" s="309"/>
+      <c r="D175" s="304"/>
       <c r="E175" s="175"/>
       <c r="F175" s="176"/>
       <c r="G175" s="177" t="s">
@@ -25063,9 +25076,9 @@
     </row>
     <row r="176" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A176" s="181"/>
-      <c r="B176" s="316"/>
-      <c r="C176" s="312"/>
-      <c r="D176" s="315"/>
+      <c r="B176" s="304"/>
+      <c r="C176" s="309"/>
+      <c r="D176" s="305"/>
       <c r="E176" s="175"/>
       <c r="F176" s="176"/>
       <c r="G176" s="177" t="s">
@@ -25080,9 +25093,9 @@
     </row>
     <row r="177" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A177" s="181"/>
-      <c r="B177" s="316"/>
-      <c r="C177" s="312"/>
-      <c r="D177" s="314" t="s">
+      <c r="B177" s="304"/>
+      <c r="C177" s="309"/>
+      <c r="D177" s="303" t="s">
         <v>108</v>
       </c>
       <c r="E177" s="175"/>
@@ -25099,9 +25112,9 @@
     </row>
     <row r="178" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A178" s="181"/>
-      <c r="B178" s="316"/>
-      <c r="C178" s="312"/>
-      <c r="D178" s="316"/>
+      <c r="B178" s="304"/>
+      <c r="C178" s="309"/>
+      <c r="D178" s="304"/>
       <c r="E178" s="175"/>
       <c r="F178" s="176"/>
       <c r="G178" s="177" t="s">
@@ -25116,9 +25129,9 @@
     </row>
     <row r="179" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A179" s="181"/>
-      <c r="B179" s="316"/>
-      <c r="C179" s="312"/>
-      <c r="D179" s="316"/>
+      <c r="B179" s="304"/>
+      <c r="C179" s="309"/>
+      <c r="D179" s="304"/>
       <c r="E179" s="175"/>
       <c r="F179" s="176"/>
       <c r="G179" s="177" t="s">
@@ -25133,9 +25146,9 @@
     </row>
     <row r="180" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A180" s="181"/>
-      <c r="B180" s="316"/>
-      <c r="C180" s="312"/>
-      <c r="D180" s="316"/>
+      <c r="B180" s="304"/>
+      <c r="C180" s="309"/>
+      <c r="D180" s="304"/>
       <c r="E180" s="175"/>
       <c r="F180" s="176"/>
       <c r="G180" s="177" t="s">
@@ -25150,9 +25163,9 @@
     </row>
     <row r="181" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A181" s="181"/>
-      <c r="B181" s="316"/>
-      <c r="C181" s="312"/>
-      <c r="D181" s="316"/>
+      <c r="B181" s="304"/>
+      <c r="C181" s="309"/>
+      <c r="D181" s="304"/>
       <c r="E181" s="175"/>
       <c r="F181" s="176"/>
       <c r="G181" s="177" t="s">
@@ -25167,9 +25180,9 @@
     </row>
     <row r="182" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A182" s="181"/>
-      <c r="B182" s="316"/>
-      <c r="C182" s="312"/>
-      <c r="D182" s="316"/>
+      <c r="B182" s="304"/>
+      <c r="C182" s="309"/>
+      <c r="D182" s="304"/>
       <c r="E182" s="175"/>
       <c r="F182" s="176"/>
       <c r="G182" s="177" t="s">
@@ -25184,9 +25197,9 @@
     </row>
     <row r="183" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A183" s="181"/>
-      <c r="B183" s="316"/>
-      <c r="C183" s="312"/>
-      <c r="D183" s="316"/>
+      <c r="B183" s="304"/>
+      <c r="C183" s="309"/>
+      <c r="D183" s="304"/>
       <c r="E183" s="175"/>
       <c r="F183" s="176"/>
       <c r="G183" s="177" t="s">
@@ -25201,9 +25214,9 @@
     </row>
     <row r="184" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A184" s="181"/>
-      <c r="B184" s="316"/>
-      <c r="C184" s="313"/>
-      <c r="D184" s="315"/>
+      <c r="B184" s="304"/>
+      <c r="C184" s="310"/>
+      <c r="D184" s="305"/>
       <c r="E184" s="175"/>
       <c r="F184" s="176"/>
       <c r="G184" s="177" t="s">
@@ -25218,8 +25231,8 @@
     </row>
     <row r="185" spans="1:13" ht="14.25" customHeight="1">
       <c r="A185" s="181"/>
-      <c r="B185" s="316"/>
-      <c r="C185" s="321" t="s">
+      <c r="B185" s="304"/>
+      <c r="C185" s="317" t="s">
         <v>54</v>
       </c>
       <c r="D185" s="192"/>
@@ -25239,8 +25252,8 @@
     </row>
     <row r="186" spans="1:13" ht="14.25" customHeight="1">
       <c r="A186" s="181"/>
-      <c r="B186" s="316"/>
-      <c r="C186" s="322"/>
+      <c r="B186" s="304"/>
+      <c r="C186" s="318"/>
       <c r="D186" s="197" t="s">
         <v>156</v>
       </c>
@@ -25260,8 +25273,8 @@
     </row>
     <row r="187" spans="1:13" ht="14.25" customHeight="1">
       <c r="A187" s="181"/>
-      <c r="B187" s="316"/>
-      <c r="C187" s="322"/>
+      <c r="B187" s="304"/>
+      <c r="C187" s="318"/>
       <c r="D187" s="252"/>
       <c r="E187" s="236"/>
       <c r="F187" s="251"/>
@@ -25279,8 +25292,8 @@
     </row>
     <row r="188" spans="1:13" ht="14.25" customHeight="1">
       <c r="A188" s="181"/>
-      <c r="B188" s="316"/>
-      <c r="C188" s="322"/>
+      <c r="B188" s="304"/>
+      <c r="C188" s="318"/>
       <c r="D188" s="193" t="s">
         <v>158</v>
       </c>
@@ -25298,8 +25311,8 @@
     </row>
     <row r="189" spans="1:13" ht="14.25" customHeight="1">
       <c r="A189" s="181"/>
-      <c r="B189" s="316"/>
-      <c r="C189" s="322"/>
+      <c r="B189" s="304"/>
+      <c r="C189" s="318"/>
       <c r="D189" s="193" t="s">
         <v>159</v>
       </c>
@@ -25317,8 +25330,8 @@
     </row>
     <row r="190" spans="1:13" ht="14.25" customHeight="1">
       <c r="A190" s="181"/>
-      <c r="B190" s="316"/>
-      <c r="C190" s="322"/>
+      <c r="B190" s="304"/>
+      <c r="C190" s="318"/>
       <c r="D190" s="193" t="s">
         <v>160</v>
       </c>
@@ -25336,8 +25349,8 @@
     </row>
     <row r="191" spans="1:13" ht="14.25" customHeight="1">
       <c r="A191" s="181"/>
-      <c r="B191" s="316"/>
-      <c r="C191" s="322"/>
+      <c r="B191" s="304"/>
+      <c r="C191" s="318"/>
       <c r="D191" s="193" t="s">
         <v>161</v>
       </c>
@@ -25355,8 +25368,8 @@
     </row>
     <row r="192" spans="1:13" ht="37.5" customHeight="1">
       <c r="A192" s="181"/>
-      <c r="B192" s="316"/>
-      <c r="C192" s="322"/>
+      <c r="B192" s="304"/>
+      <c r="C192" s="318"/>
       <c r="D192" s="254" t="s">
         <v>195</v>
       </c>
@@ -25374,8 +25387,8 @@
     </row>
     <row r="193" spans="1:13" ht="14.25" customHeight="1">
       <c r="A193" s="181"/>
-      <c r="B193" s="316"/>
-      <c r="C193" s="322"/>
+      <c r="B193" s="304"/>
+      <c r="C193" s="318"/>
       <c r="D193" s="193" t="s">
         <v>162</v>
       </c>
@@ -25393,8 +25406,8 @@
     </row>
     <row r="194" spans="1:13" ht="14.25" customHeight="1">
       <c r="A194" s="181"/>
-      <c r="B194" s="315"/>
-      <c r="C194" s="323"/>
+      <c r="B194" s="305"/>
+      <c r="C194" s="319"/>
       <c r="D194" s="193" t="s">
         <v>163</v>
       </c>
@@ -25412,13 +25425,13 @@
     </row>
     <row r="195" spans="1:13" ht="14.25" customHeight="1">
       <c r="A195" s="181"/>
-      <c r="B195" s="306" t="s">
+      <c r="B195" s="312" t="s">
         <v>128</v>
       </c>
-      <c r="C195" s="311" t="s">
+      <c r="C195" s="308" t="s">
         <v>57</v>
       </c>
-      <c r="D195" s="314" t="s">
+      <c r="D195" s="303" t="s">
         <v>56</v>
       </c>
       <c r="E195" s="175"/>
@@ -25439,9 +25452,9 @@
     </row>
     <row r="196" spans="1:13" ht="14.25" customHeight="1">
       <c r="A196" s="181"/>
-      <c r="B196" s="307"/>
-      <c r="C196" s="312"/>
-      <c r="D196" s="315"/>
+      <c r="B196" s="313"/>
+      <c r="C196" s="309"/>
+      <c r="D196" s="305"/>
       <c r="E196" s="175"/>
       <c r="F196" s="176"/>
       <c r="G196" s="177" t="s">
@@ -25460,8 +25473,8 @@
     </row>
     <row r="197" spans="1:13" ht="14.25" customHeight="1">
       <c r="A197" s="181"/>
-      <c r="B197" s="307"/>
-      <c r="C197" s="312"/>
+      <c r="B197" s="313"/>
+      <c r="C197" s="309"/>
       <c r="D197" s="255" t="s">
         <v>2878</v>
       </c>
@@ -25473,7 +25486,7 @@
       <c r="H197" s="178"/>
       <c r="I197" s="179"/>
       <c r="J197" s="178" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="K197" s="178"/>
       <c r="L197" s="175"/>
@@ -25481,9 +25494,9 @@
     </row>
     <row r="198" spans="1:13" ht="14.25" customHeight="1">
       <c r="A198" s="181"/>
-      <c r="B198" s="307"/>
-      <c r="C198" s="312"/>
-      <c r="D198" s="314" t="s">
+      <c r="B198" s="313"/>
+      <c r="C198" s="309"/>
+      <c r="D198" s="303" t="s">
         <v>61</v>
       </c>
       <c r="E198" s="175"/>
@@ -25502,9 +25515,9 @@
     </row>
     <row r="199" spans="1:13" ht="14.25" customHeight="1">
       <c r="A199" s="181"/>
-      <c r="B199" s="307"/>
-      <c r="C199" s="312"/>
-      <c r="D199" s="316"/>
+      <c r="B199" s="313"/>
+      <c r="C199" s="309"/>
+      <c r="D199" s="304"/>
       <c r="E199" s="175"/>
       <c r="F199" s="176"/>
       <c r="G199" s="177" t="s">
@@ -25523,9 +25536,9 @@
     </row>
     <row r="200" spans="1:13" ht="14.25" customHeight="1">
       <c r="A200" s="181"/>
-      <c r="B200" s="307"/>
-      <c r="C200" s="312"/>
-      <c r="D200" s="315"/>
+      <c r="B200" s="313"/>
+      <c r="C200" s="309"/>
+      <c r="D200" s="305"/>
       <c r="E200" s="175"/>
       <c r="F200" s="176"/>
       <c r="G200" s="177" t="s">
@@ -25542,9 +25555,9 @@
     </row>
     <row r="201" spans="1:13" ht="14.25" customHeight="1">
       <c r="A201" s="181"/>
-      <c r="B201" s="307"/>
-      <c r="C201" s="312"/>
-      <c r="D201" s="314" t="s">
+      <c r="B201" s="313"/>
+      <c r="C201" s="309"/>
+      <c r="D201" s="303" t="s">
         <v>65</v>
       </c>
       <c r="E201" s="175"/>
@@ -25565,9 +25578,9 @@
     </row>
     <row r="202" spans="1:13" ht="33">
       <c r="A202" s="181"/>
-      <c r="B202" s="307"/>
-      <c r="C202" s="312"/>
-      <c r="D202" s="315"/>
+      <c r="B202" s="313"/>
+      <c r="C202" s="309"/>
+      <c r="D202" s="305"/>
       <c r="E202" s="175"/>
       <c r="F202" s="176"/>
       <c r="G202" s="177" t="s">
@@ -25584,9 +25597,9 @@
     </row>
     <row r="203" spans="1:13" ht="14.25" customHeight="1">
       <c r="A203" s="181"/>
-      <c r="B203" s="307"/>
-      <c r="C203" s="312"/>
-      <c r="D203" s="314" t="s">
+      <c r="B203" s="313"/>
+      <c r="C203" s="309"/>
+      <c r="D203" s="303" t="s">
         <v>68</v>
       </c>
       <c r="E203" s="175"/>
@@ -25605,9 +25618,9 @@
     </row>
     <row r="204" spans="1:13" ht="14.25" customHeight="1">
       <c r="A204" s="181"/>
-      <c r="B204" s="307"/>
-      <c r="C204" s="312"/>
-      <c r="D204" s="315"/>
+      <c r="B204" s="313"/>
+      <c r="C204" s="309"/>
+      <c r="D204" s="305"/>
       <c r="E204" s="175"/>
       <c r="F204" s="176"/>
       <c r="G204" s="177" t="s">
@@ -25626,9 +25639,9 @@
     </row>
     <row r="205" spans="1:13" ht="14.25" customHeight="1">
       <c r="A205" s="181"/>
-      <c r="B205" s="307"/>
-      <c r="C205" s="312"/>
-      <c r="D205" s="314" t="s">
+      <c r="B205" s="313"/>
+      <c r="C205" s="309"/>
+      <c r="D205" s="303" t="s">
         <v>70</v>
       </c>
       <c r="E205" s="175"/>
@@ -25647,9 +25660,9 @@
     </row>
     <row r="206" spans="1:13" ht="14.25" customHeight="1">
       <c r="A206" s="181"/>
-      <c r="B206" s="307"/>
-      <c r="C206" s="312"/>
-      <c r="D206" s="316"/>
+      <c r="B206" s="313"/>
+      <c r="C206" s="309"/>
+      <c r="D206" s="304"/>
       <c r="E206" s="175"/>
       <c r="F206" s="176"/>
       <c r="G206" s="177" t="s">
@@ -25668,9 +25681,9 @@
     </row>
     <row r="207" spans="1:13" ht="14.25" customHeight="1">
       <c r="A207" s="181"/>
-      <c r="B207" s="307"/>
-      <c r="C207" s="312"/>
-      <c r="D207" s="316"/>
+      <c r="B207" s="313"/>
+      <c r="C207" s="309"/>
+      <c r="D207" s="304"/>
       <c r="E207" s="175"/>
       <c r="F207" s="176"/>
       <c r="G207" s="177" t="s">
@@ -25687,9 +25700,9 @@
     </row>
     <row r="208" spans="1:13" ht="14.25" customHeight="1">
       <c r="A208" s="181"/>
-      <c r="B208" s="307"/>
-      <c r="C208" s="312"/>
-      <c r="D208" s="316"/>
+      <c r="B208" s="313"/>
+      <c r="C208" s="309"/>
+      <c r="D208" s="304"/>
       <c r="E208" s="175"/>
       <c r="F208" s="176"/>
       <c r="G208" s="177" t="s">
@@ -25706,9 +25719,9 @@
     </row>
     <row r="209" spans="1:13" ht="14.25" customHeight="1">
       <c r="A209" s="181"/>
-      <c r="B209" s="307"/>
-      <c r="C209" s="312"/>
-      <c r="D209" s="316"/>
+      <c r="B209" s="313"/>
+      <c r="C209" s="309"/>
+      <c r="D209" s="304"/>
       <c r="E209" s="175"/>
       <c r="F209" s="176"/>
       <c r="G209" s="177" t="s">
@@ -25725,9 +25738,9 @@
     </row>
     <row r="210" spans="1:13" ht="30" customHeight="1">
       <c r="A210" s="181"/>
-      <c r="B210" s="307"/>
-      <c r="C210" s="313"/>
-      <c r="D210" s="315"/>
+      <c r="B210" s="313"/>
+      <c r="C210" s="310"/>
+      <c r="D210" s="305"/>
       <c r="E210" s="175"/>
       <c r="F210" s="176"/>
       <c r="G210" s="177" t="s">
@@ -25746,11 +25759,11 @@
     </row>
     <row r="211" spans="1:13" ht="14.25" customHeight="1">
       <c r="A211" s="181"/>
-      <c r="B211" s="307"/>
-      <c r="C211" s="311" t="s">
+      <c r="B211" s="313"/>
+      <c r="C211" s="308" t="s">
         <v>112</v>
       </c>
-      <c r="D211" s="314" t="s">
+      <c r="D211" s="303" t="s">
         <v>1446</v>
       </c>
       <c r="E211" s="175"/>
@@ -25769,9 +25782,9 @@
     </row>
     <row r="212" spans="1:13" ht="14.25" customHeight="1">
       <c r="A212" s="181"/>
-      <c r="B212" s="307"/>
-      <c r="C212" s="312"/>
-      <c r="D212" s="316"/>
+      <c r="B212" s="313"/>
+      <c r="C212" s="309"/>
+      <c r="D212" s="304"/>
       <c r="E212" s="175"/>
       <c r="F212" s="176"/>
       <c r="G212" s="177" t="s">
@@ -25788,9 +25801,9 @@
     </row>
     <row r="213" spans="1:13" ht="14.25" customHeight="1">
       <c r="A213" s="181"/>
-      <c r="B213" s="307"/>
-      <c r="C213" s="312"/>
-      <c r="D213" s="316"/>
+      <c r="B213" s="313"/>
+      <c r="C213" s="309"/>
+      <c r="D213" s="304"/>
       <c r="E213" s="175"/>
       <c r="F213" s="176"/>
       <c r="G213" s="177" t="s">
@@ -25807,9 +25820,9 @@
     </row>
     <row r="214" spans="1:13" ht="14.25" customHeight="1">
       <c r="A214" s="181"/>
-      <c r="B214" s="307"/>
-      <c r="C214" s="312"/>
-      <c r="D214" s="316"/>
+      <c r="B214" s="313"/>
+      <c r="C214" s="309"/>
+      <c r="D214" s="304"/>
       <c r="E214" s="175"/>
       <c r="F214" s="176"/>
       <c r="G214" s="177" t="s">
@@ -25826,9 +25839,9 @@
     </row>
     <row r="215" spans="1:13" ht="14.25" customHeight="1">
       <c r="A215" s="181"/>
-      <c r="B215" s="307"/>
-      <c r="C215" s="312"/>
-      <c r="D215" s="316"/>
+      <c r="B215" s="313"/>
+      <c r="C215" s="309"/>
+      <c r="D215" s="304"/>
       <c r="E215" s="175"/>
       <c r="F215" s="176"/>
       <c r="G215" s="177" t="s">
@@ -25845,9 +25858,9 @@
     </row>
     <row r="216" spans="1:13" ht="14.25" customHeight="1">
       <c r="A216" s="181"/>
-      <c r="B216" s="307"/>
-      <c r="C216" s="312"/>
-      <c r="D216" s="316"/>
+      <c r="B216" s="313"/>
+      <c r="C216" s="309"/>
+      <c r="D216" s="304"/>
       <c r="E216" s="175"/>
       <c r="F216" s="176"/>
       <c r="G216" s="177" t="s">
@@ -25864,9 +25877,9 @@
     </row>
     <row r="217" spans="1:13" ht="14.25" customHeight="1">
       <c r="A217" s="181"/>
-      <c r="B217" s="307"/>
-      <c r="C217" s="312"/>
-      <c r="D217" s="316"/>
+      <c r="B217" s="313"/>
+      <c r="C217" s="309"/>
+      <c r="D217" s="304"/>
       <c r="E217" s="175"/>
       <c r="F217" s="176"/>
       <c r="G217" s="177" t="s">
@@ -25883,9 +25896,9 @@
     </row>
     <row r="218" spans="1:13" ht="14.25" customHeight="1">
       <c r="A218" s="181"/>
-      <c r="B218" s="307"/>
-      <c r="C218" s="312"/>
-      <c r="D218" s="316"/>
+      <c r="B218" s="313"/>
+      <c r="C218" s="309"/>
+      <c r="D218" s="304"/>
       <c r="E218" s="175"/>
       <c r="F218" s="176"/>
       <c r="G218" s="177" t="s">
@@ -25902,9 +25915,9 @@
     </row>
     <row r="219" spans="1:13" ht="14.25" customHeight="1">
       <c r="A219" s="181"/>
-      <c r="B219" s="307"/>
-      <c r="C219" s="312"/>
-      <c r="D219" s="316"/>
+      <c r="B219" s="313"/>
+      <c r="C219" s="309"/>
+      <c r="D219" s="304"/>
       <c r="E219" s="175"/>
       <c r="F219" s="176"/>
       <c r="G219" s="177" t="s">
@@ -25921,9 +25934,9 @@
     </row>
     <row r="220" spans="1:13" ht="14.25" customHeight="1">
       <c r="A220" s="181"/>
-      <c r="B220" s="307"/>
-      <c r="C220" s="312"/>
-      <c r="D220" s="316"/>
+      <c r="B220" s="313"/>
+      <c r="C220" s="309"/>
+      <c r="D220" s="304"/>
       <c r="E220" s="175"/>
       <c r="F220" s="176"/>
       <c r="G220" s="177" t="s">
@@ -25940,9 +25953,9 @@
     </row>
     <row r="221" spans="1:13" ht="14.25" customHeight="1">
       <c r="A221" s="181"/>
-      <c r="B221" s="307"/>
-      <c r="C221" s="312"/>
-      <c r="D221" s="316"/>
+      <c r="B221" s="313"/>
+      <c r="C221" s="309"/>
+      <c r="D221" s="304"/>
       <c r="E221" s="175"/>
       <c r="F221" s="176"/>
       <c r="G221" s="177" t="s">
@@ -25959,9 +25972,9 @@
     </row>
     <row r="222" spans="1:13" ht="14.25" customHeight="1">
       <c r="A222" s="181"/>
-      <c r="B222" s="307"/>
-      <c r="C222" s="312"/>
-      <c r="D222" s="316"/>
+      <c r="B222" s="313"/>
+      <c r="C222" s="309"/>
+      <c r="D222" s="304"/>
       <c r="E222" s="175"/>
       <c r="F222" s="176"/>
       <c r="G222" s="177" t="s">
@@ -25978,9 +25991,9 @@
     </row>
     <row r="223" spans="1:13" ht="14.25" customHeight="1">
       <c r="A223" s="181"/>
-      <c r="B223" s="307"/>
-      <c r="C223" s="312"/>
-      <c r="D223" s="316"/>
+      <c r="B223" s="313"/>
+      <c r="C223" s="309"/>
+      <c r="D223" s="304"/>
       <c r="E223" s="175"/>
       <c r="F223" s="176"/>
       <c r="G223" s="177" t="s">
@@ -25997,9 +26010,9 @@
     </row>
     <row r="224" spans="1:13" ht="14.25" customHeight="1">
       <c r="A224" s="181"/>
-      <c r="B224" s="307"/>
-      <c r="C224" s="312"/>
-      <c r="D224" s="316"/>
+      <c r="B224" s="313"/>
+      <c r="C224" s="309"/>
+      <c r="D224" s="304"/>
       <c r="E224" s="175"/>
       <c r="F224" s="176"/>
       <c r="G224" s="177" t="s">
@@ -26016,9 +26029,9 @@
     </row>
     <row r="225" spans="1:13" ht="14.25" customHeight="1">
       <c r="A225" s="181"/>
-      <c r="B225" s="307"/>
-      <c r="C225" s="312"/>
-      <c r="D225" s="316"/>
+      <c r="B225" s="313"/>
+      <c r="C225" s="309"/>
+      <c r="D225" s="304"/>
       <c r="E225" s="175"/>
       <c r="F225" s="176"/>
       <c r="G225" s="177" t="s">
@@ -26035,9 +26048,9 @@
     </row>
     <row r="226" spans="1:13" ht="14.25" customHeight="1">
       <c r="A226" s="181"/>
-      <c r="B226" s="307"/>
-      <c r="C226" s="312"/>
-      <c r="D226" s="316"/>
+      <c r="B226" s="313"/>
+      <c r="C226" s="309"/>
+      <c r="D226" s="304"/>
       <c r="E226" s="175"/>
       <c r="F226" s="176"/>
       <c r="G226" s="177" t="s">
@@ -26054,9 +26067,9 @@
     </row>
     <row r="227" spans="1:13" ht="14.25" customHeight="1">
       <c r="A227" s="181"/>
-      <c r="B227" s="307"/>
-      <c r="C227" s="312"/>
-      <c r="D227" s="316"/>
+      <c r="B227" s="313"/>
+      <c r="C227" s="309"/>
+      <c r="D227" s="304"/>
       <c r="E227" s="175"/>
       <c r="F227" s="176"/>
       <c r="G227" s="177" t="s">
@@ -26073,9 +26086,9 @@
     </row>
     <row r="228" spans="1:13" ht="14.25" customHeight="1">
       <c r="A228" s="181"/>
-      <c r="B228" s="307"/>
-      <c r="C228" s="312"/>
-      <c r="D228" s="316"/>
+      <c r="B228" s="313"/>
+      <c r="C228" s="309"/>
+      <c r="D228" s="304"/>
       <c r="E228" s="175"/>
       <c r="F228" s="176"/>
       <c r="G228" s="177" t="s">
@@ -26092,9 +26105,9 @@
     </row>
     <row r="229" spans="1:13" ht="14.25" customHeight="1">
       <c r="A229" s="181"/>
-      <c r="B229" s="307"/>
-      <c r="C229" s="312"/>
-      <c r="D229" s="316"/>
+      <c r="B229" s="313"/>
+      <c r="C229" s="309"/>
+      <c r="D229" s="304"/>
       <c r="E229" s="175"/>
       <c r="F229" s="176"/>
       <c r="G229" s="177" t="s">
@@ -26111,9 +26124,9 @@
     </row>
     <row r="230" spans="1:13" ht="14.25" customHeight="1">
       <c r="A230" s="181"/>
-      <c r="B230" s="307"/>
-      <c r="C230" s="312"/>
-      <c r="D230" s="316"/>
+      <c r="B230" s="313"/>
+      <c r="C230" s="309"/>
+      <c r="D230" s="304"/>
       <c r="E230" s="175"/>
       <c r="F230" s="176"/>
       <c r="G230" s="177" t="s">
@@ -26130,9 +26143,9 @@
     </row>
     <row r="231" spans="1:13" ht="14.25" customHeight="1">
       <c r="A231" s="181"/>
-      <c r="B231" s="307"/>
-      <c r="C231" s="312"/>
-      <c r="D231" s="316"/>
+      <c r="B231" s="313"/>
+      <c r="C231" s="309"/>
+      <c r="D231" s="304"/>
       <c r="E231" s="175"/>
       <c r="F231" s="176"/>
       <c r="G231" s="177" t="s">
@@ -26149,9 +26162,9 @@
     </row>
     <row r="232" spans="1:13" ht="14.25" customHeight="1">
       <c r="A232" s="181"/>
-      <c r="B232" s="307"/>
-      <c r="C232" s="312"/>
-      <c r="D232" s="316"/>
+      <c r="B232" s="313"/>
+      <c r="C232" s="309"/>
+      <c r="D232" s="304"/>
       <c r="E232" s="175"/>
       <c r="F232" s="176"/>
       <c r="G232" s="177" t="s">
@@ -26168,9 +26181,9 @@
     </row>
     <row r="233" spans="1:13" ht="14.25" customHeight="1">
       <c r="A233" s="181"/>
-      <c r="B233" s="307"/>
-      <c r="C233" s="312"/>
-      <c r="D233" s="316"/>
+      <c r="B233" s="313"/>
+      <c r="C233" s="309"/>
+      <c r="D233" s="304"/>
       <c r="E233" s="175"/>
       <c r="F233" s="176"/>
       <c r="G233" s="177" t="s">
@@ -26187,9 +26200,9 @@
     </row>
     <row r="234" spans="1:13" ht="14.25" customHeight="1">
       <c r="A234" s="181"/>
-      <c r="B234" s="307"/>
-      <c r="C234" s="312"/>
-      <c r="D234" s="316"/>
+      <c r="B234" s="313"/>
+      <c r="C234" s="309"/>
+      <c r="D234" s="304"/>
       <c r="E234" s="175"/>
       <c r="F234" s="176"/>
       <c r="G234" s="177" t="s">
@@ -26206,9 +26219,9 @@
     </row>
     <row r="235" spans="1:13" ht="14.25" customHeight="1">
       <c r="A235" s="181"/>
-      <c r="B235" s="307"/>
-      <c r="C235" s="312"/>
-      <c r="D235" s="316"/>
+      <c r="B235" s="313"/>
+      <c r="C235" s="309"/>
+      <c r="D235" s="304"/>
       <c r="E235" s="175"/>
       <c r="F235" s="176"/>
       <c r="G235" s="177" t="s">
@@ -26225,9 +26238,9 @@
     </row>
     <row r="236" spans="1:13" ht="14.25" customHeight="1">
       <c r="A236" s="181"/>
-      <c r="B236" s="307"/>
-      <c r="C236" s="312"/>
-      <c r="D236" s="316"/>
+      <c r="B236" s="313"/>
+      <c r="C236" s="309"/>
+      <c r="D236" s="304"/>
       <c r="E236" s="175"/>
       <c r="F236" s="176"/>
       <c r="G236" s="177" t="s">
@@ -26244,9 +26257,9 @@
     </row>
     <row r="237" spans="1:13" ht="14.25" customHeight="1">
       <c r="A237" s="181"/>
-      <c r="B237" s="307"/>
-      <c r="C237" s="312"/>
-      <c r="D237" s="316"/>
+      <c r="B237" s="313"/>
+      <c r="C237" s="309"/>
+      <c r="D237" s="304"/>
       <c r="E237" s="175"/>
       <c r="F237" s="176"/>
       <c r="G237" s="177" t="s">
@@ -26263,9 +26276,9 @@
     </row>
     <row r="238" spans="1:13" ht="14.25" customHeight="1">
       <c r="A238" s="181"/>
-      <c r="B238" s="307"/>
-      <c r="C238" s="312"/>
-      <c r="D238" s="316"/>
+      <c r="B238" s="313"/>
+      <c r="C238" s="309"/>
+      <c r="D238" s="304"/>
       <c r="E238" s="175"/>
       <c r="F238" s="176"/>
       <c r="G238" s="177" t="s">
@@ -26282,9 +26295,9 @@
     </row>
     <row r="239" spans="1:13" ht="14.25" customHeight="1">
       <c r="A239" s="181"/>
-      <c r="B239" s="307"/>
-      <c r="C239" s="312"/>
-      <c r="D239" s="316"/>
+      <c r="B239" s="313"/>
+      <c r="C239" s="309"/>
+      <c r="D239" s="304"/>
       <c r="E239" s="175"/>
       <c r="F239" s="176"/>
       <c r="G239" s="177" t="s">
@@ -26301,9 +26314,9 @@
     </row>
     <row r="240" spans="1:13" ht="14.25" customHeight="1">
       <c r="A240" s="181"/>
-      <c r="B240" s="307"/>
-      <c r="C240" s="312"/>
-      <c r="D240" s="316"/>
+      <c r="B240" s="313"/>
+      <c r="C240" s="309"/>
+      <c r="D240" s="304"/>
       <c r="E240" s="175"/>
       <c r="F240" s="176"/>
       <c r="G240" s="177" t="s">
@@ -26320,9 +26333,9 @@
     </row>
     <row r="241" spans="1:13" ht="14.25" customHeight="1">
       <c r="A241" s="181"/>
-      <c r="B241" s="307"/>
-      <c r="C241" s="313"/>
-      <c r="D241" s="315"/>
+      <c r="B241" s="313"/>
+      <c r="C241" s="310"/>
+      <c r="D241" s="305"/>
       <c r="E241" s="175"/>
       <c r="F241" s="176"/>
       <c r="G241" s="177" t="s">
@@ -26339,11 +26352,11 @@
     </row>
     <row r="242" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A242" s="289"/>
-      <c r="B242" s="307"/>
-      <c r="C242" s="335" t="s">
+      <c r="B242" s="313"/>
+      <c r="C242" s="320" t="s">
         <v>1464</v>
       </c>
-      <c r="D242" s="318" t="s">
+      <c r="D242" s="335" t="s">
         <v>133</v>
       </c>
       <c r="E242" s="290"/>
@@ -26362,9 +26375,9 @@
     </row>
     <row r="243" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A243" s="289"/>
-      <c r="B243" s="307"/>
-      <c r="C243" s="336"/>
-      <c r="D243" s="319"/>
+      <c r="B243" s="313"/>
+      <c r="C243" s="321"/>
+      <c r="D243" s="336"/>
       <c r="E243" s="290"/>
       <c r="F243" s="291"/>
       <c r="G243" s="292" t="s">
@@ -26381,9 +26394,9 @@
     </row>
     <row r="244" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A244" s="289"/>
-      <c r="B244" s="307"/>
-      <c r="C244" s="336"/>
-      <c r="D244" s="319"/>
+      <c r="B244" s="313"/>
+      <c r="C244" s="321"/>
+      <c r="D244" s="336"/>
       <c r="E244" s="290"/>
       <c r="F244" s="291"/>
       <c r="G244" s="292" t="s">
@@ -26400,9 +26413,9 @@
     </row>
     <row r="245" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A245" s="289"/>
-      <c r="B245" s="307"/>
-      <c r="C245" s="336"/>
-      <c r="D245" s="319"/>
+      <c r="B245" s="313"/>
+      <c r="C245" s="321"/>
+      <c r="D245" s="336"/>
       <c r="E245" s="290"/>
       <c r="F245" s="291"/>
       <c r="G245" s="292" t="s">
@@ -26419,9 +26432,9 @@
     </row>
     <row r="246" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A246" s="289"/>
-      <c r="B246" s="307"/>
-      <c r="C246" s="336"/>
-      <c r="D246" s="319"/>
+      <c r="B246" s="313"/>
+      <c r="C246" s="321"/>
+      <c r="D246" s="336"/>
       <c r="E246" s="290"/>
       <c r="F246" s="291"/>
       <c r="G246" s="292" t="s">
@@ -26438,9 +26451,9 @@
     </row>
     <row r="247" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A247" s="289"/>
-      <c r="B247" s="307"/>
-      <c r="C247" s="336"/>
-      <c r="D247" s="319"/>
+      <c r="B247" s="313"/>
+      <c r="C247" s="321"/>
+      <c r="D247" s="336"/>
       <c r="E247" s="290"/>
       <c r="F247" s="291"/>
       <c r="G247" s="292" t="s">
@@ -26457,9 +26470,9 @@
     </row>
     <row r="248" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A248" s="289"/>
-      <c r="B248" s="307"/>
-      <c r="C248" s="336"/>
-      <c r="D248" s="319"/>
+      <c r="B248" s="313"/>
+      <c r="C248" s="321"/>
+      <c r="D248" s="336"/>
       <c r="E248" s="290"/>
       <c r="F248" s="291"/>
       <c r="G248" s="292" t="s">
@@ -26476,9 +26489,9 @@
     </row>
     <row r="249" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A249" s="289"/>
-      <c r="B249" s="307"/>
-      <c r="C249" s="336"/>
-      <c r="D249" s="319"/>
+      <c r="B249" s="313"/>
+      <c r="C249" s="321"/>
+      <c r="D249" s="336"/>
       <c r="E249" s="290"/>
       <c r="F249" s="291"/>
       <c r="G249" s="292" t="s">
@@ -26495,9 +26508,9 @@
     </row>
     <row r="250" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A250" s="289"/>
-      <c r="B250" s="307"/>
-      <c r="C250" s="336"/>
-      <c r="D250" s="319"/>
+      <c r="B250" s="313"/>
+      <c r="C250" s="321"/>
+      <c r="D250" s="336"/>
       <c r="E250" s="290"/>
       <c r="F250" s="291"/>
       <c r="G250" s="292" t="s">
@@ -26514,9 +26527,9 @@
     </row>
     <row r="251" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A251" s="289"/>
-      <c r="B251" s="307"/>
-      <c r="C251" s="336"/>
-      <c r="D251" s="319"/>
+      <c r="B251" s="313"/>
+      <c r="C251" s="321"/>
+      <c r="D251" s="336"/>
       <c r="E251" s="290"/>
       <c r="F251" s="291"/>
       <c r="G251" s="292" t="s">
@@ -26533,9 +26546,9 @@
     </row>
     <row r="252" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A252" s="289"/>
-      <c r="B252" s="307"/>
-      <c r="C252" s="336"/>
-      <c r="D252" s="319"/>
+      <c r="B252" s="313"/>
+      <c r="C252" s="321"/>
+      <c r="D252" s="336"/>
       <c r="E252" s="290"/>
       <c r="F252" s="291"/>
       <c r="G252" s="292" t="s">
@@ -26552,9 +26565,9 @@
     </row>
     <row r="253" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A253" s="289"/>
-      <c r="B253" s="307"/>
-      <c r="C253" s="336"/>
-      <c r="D253" s="319"/>
+      <c r="B253" s="313"/>
+      <c r="C253" s="321"/>
+      <c r="D253" s="336"/>
       <c r="E253" s="290"/>
       <c r="F253" s="291"/>
       <c r="G253" s="292" t="s">
@@ -26571,9 +26584,9 @@
     </row>
     <row r="254" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A254" s="289"/>
-      <c r="B254" s="307"/>
-      <c r="C254" s="336"/>
-      <c r="D254" s="319"/>
+      <c r="B254" s="313"/>
+      <c r="C254" s="321"/>
+      <c r="D254" s="336"/>
       <c r="E254" s="290"/>
       <c r="F254" s="291"/>
       <c r="G254" s="292" t="s">
@@ -26590,9 +26603,9 @@
     </row>
     <row r="255" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A255" s="289"/>
-      <c r="B255" s="307"/>
-      <c r="C255" s="336"/>
-      <c r="D255" s="319"/>
+      <c r="B255" s="313"/>
+      <c r="C255" s="321"/>
+      <c r="D255" s="336"/>
       <c r="E255" s="290"/>
       <c r="F255" s="291"/>
       <c r="G255" s="292" t="s">
@@ -26609,9 +26622,9 @@
     </row>
     <row r="256" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A256" s="289"/>
-      <c r="B256" s="307"/>
-      <c r="C256" s="336"/>
-      <c r="D256" s="319"/>
+      <c r="B256" s="313"/>
+      <c r="C256" s="321"/>
+      <c r="D256" s="336"/>
       <c r="E256" s="290"/>
       <c r="F256" s="291"/>
       <c r="G256" s="292" t="s">
@@ -26628,9 +26641,9 @@
     </row>
     <row r="257" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A257" s="289"/>
-      <c r="B257" s="307"/>
-      <c r="C257" s="336"/>
-      <c r="D257" s="319"/>
+      <c r="B257" s="313"/>
+      <c r="C257" s="321"/>
+      <c r="D257" s="336"/>
       <c r="E257" s="290"/>
       <c r="F257" s="291"/>
       <c r="G257" s="292" t="s">
@@ -26647,9 +26660,9 @@
     </row>
     <row r="258" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A258" s="289"/>
-      <c r="B258" s="307"/>
-      <c r="C258" s="337"/>
-      <c r="D258" s="320"/>
+      <c r="B258" s="313"/>
+      <c r="C258" s="322"/>
+      <c r="D258" s="337"/>
       <c r="E258" s="290"/>
       <c r="F258" s="291"/>
       <c r="G258" s="292" t="s">
@@ -26666,11 +26679,11 @@
     </row>
     <row r="259" spans="1:13" ht="14.25" customHeight="1">
       <c r="A259" s="181"/>
-      <c r="B259" s="307"/>
-      <c r="C259" s="321" t="s">
+      <c r="B259" s="313"/>
+      <c r="C259" s="317" t="s">
         <v>126</v>
       </c>
-      <c r="D259" s="314" t="s">
+      <c r="D259" s="303" t="s">
         <v>1470</v>
       </c>
       <c r="E259" s="175"/>
@@ -26689,9 +26702,9 @@
     </row>
     <row r="260" spans="1:13" ht="14.25" customHeight="1">
       <c r="A260" s="181"/>
-      <c r="B260" s="307"/>
-      <c r="C260" s="322"/>
-      <c r="D260" s="316"/>
+      <c r="B260" s="313"/>
+      <c r="C260" s="318"/>
+      <c r="D260" s="304"/>
       <c r="E260" s="175"/>
       <c r="F260" s="175"/>
       <c r="G260" s="177" t="s">
@@ -26708,9 +26721,9 @@
     </row>
     <row r="261" spans="1:13" ht="14.25" customHeight="1">
       <c r="A261" s="181"/>
-      <c r="B261" s="307"/>
-      <c r="C261" s="322"/>
-      <c r="D261" s="316"/>
+      <c r="B261" s="313"/>
+      <c r="C261" s="318"/>
+      <c r="D261" s="304"/>
       <c r="E261" s="175"/>
       <c r="F261" s="175"/>
       <c r="G261" s="177" t="s">
@@ -26727,9 +26740,9 @@
     </row>
     <row r="262" spans="1:13" ht="14.25" customHeight="1">
       <c r="A262" s="181"/>
-      <c r="B262" s="307"/>
-      <c r="C262" s="322"/>
-      <c r="D262" s="316"/>
+      <c r="B262" s="313"/>
+      <c r="C262" s="318"/>
+      <c r="D262" s="304"/>
       <c r="E262" s="175"/>
       <c r="F262" s="175"/>
       <c r="G262" s="177" t="s">
@@ -26746,9 +26759,9 @@
     </row>
     <row r="263" spans="1:13" ht="14.25" customHeight="1">
       <c r="A263" s="181"/>
-      <c r="B263" s="307"/>
-      <c r="C263" s="322"/>
-      <c r="D263" s="316"/>
+      <c r="B263" s="313"/>
+      <c r="C263" s="318"/>
+      <c r="D263" s="304"/>
       <c r="E263" s="175"/>
       <c r="F263" s="175"/>
       <c r="G263" s="177" t="s">
@@ -26765,9 +26778,9 @@
     </row>
     <row r="264" spans="1:13" ht="14.25" customHeight="1">
       <c r="A264" s="181"/>
-      <c r="B264" s="307"/>
-      <c r="C264" s="322"/>
-      <c r="D264" s="316"/>
+      <c r="B264" s="313"/>
+      <c r="C264" s="318"/>
+      <c r="D264" s="304"/>
       <c r="E264" s="175"/>
       <c r="F264" s="175"/>
       <c r="G264" s="177" t="s">
@@ -26784,9 +26797,9 @@
     </row>
     <row r="265" spans="1:13" ht="14.25" customHeight="1">
       <c r="A265" s="181"/>
-      <c r="B265" s="307"/>
-      <c r="C265" s="322"/>
-      <c r="D265" s="316"/>
+      <c r="B265" s="313"/>
+      <c r="C265" s="318"/>
+      <c r="D265" s="304"/>
       <c r="E265" s="175"/>
       <c r="F265" s="175"/>
       <c r="G265" s="177" t="s">
@@ -26803,9 +26816,9 @@
     </row>
     <row r="266" spans="1:13" ht="14.25" customHeight="1">
       <c r="A266" s="181"/>
-      <c r="B266" s="307"/>
-      <c r="C266" s="322"/>
-      <c r="D266" s="316"/>
+      <c r="B266" s="313"/>
+      <c r="C266" s="318"/>
+      <c r="D266" s="304"/>
       <c r="E266" s="175"/>
       <c r="F266" s="175"/>
       <c r="G266" s="177" t="s">
@@ -26822,9 +26835,9 @@
     </row>
     <row r="267" spans="1:13" ht="14.25" customHeight="1">
       <c r="A267" s="181"/>
-      <c r="B267" s="307"/>
-      <c r="C267" s="322"/>
-      <c r="D267" s="316"/>
+      <c r="B267" s="313"/>
+      <c r="C267" s="318"/>
+      <c r="D267" s="304"/>
       <c r="E267" s="175"/>
       <c r="F267" s="175"/>
       <c r="G267" s="177" t="s">
@@ -26841,9 +26854,9 @@
     </row>
     <row r="268" spans="1:13" ht="14.25" customHeight="1">
       <c r="A268" s="181"/>
-      <c r="B268" s="307"/>
-      <c r="C268" s="322"/>
-      <c r="D268" s="316"/>
+      <c r="B268" s="313"/>
+      <c r="C268" s="318"/>
+      <c r="D268" s="304"/>
       <c r="E268" s="175"/>
       <c r="F268" s="175"/>
       <c r="G268" s="177" t="s">
@@ -26860,9 +26873,9 @@
     </row>
     <row r="269" spans="1:13" ht="14.25" customHeight="1">
       <c r="A269" s="181"/>
-      <c r="B269" s="307"/>
-      <c r="C269" s="322"/>
-      <c r="D269" s="316"/>
+      <c r="B269" s="313"/>
+      <c r="C269" s="318"/>
+      <c r="D269" s="304"/>
       <c r="E269" s="175"/>
       <c r="F269" s="175"/>
       <c r="G269" s="177" t="s">
@@ -26879,9 +26892,9 @@
     </row>
     <row r="270" spans="1:13" ht="14.25" customHeight="1">
       <c r="A270" s="181"/>
-      <c r="B270" s="307"/>
-      <c r="C270" s="322"/>
-      <c r="D270" s="316"/>
+      <c r="B270" s="313"/>
+      <c r="C270" s="318"/>
+      <c r="D270" s="304"/>
       <c r="E270" s="175"/>
       <c r="F270" s="175"/>
       <c r="G270" s="177" t="s">
@@ -26898,9 +26911,9 @@
     </row>
     <row r="271" spans="1:13" ht="14.25" customHeight="1">
       <c r="A271" s="181"/>
-      <c r="B271" s="307"/>
-      <c r="C271" s="322"/>
-      <c r="D271" s="316"/>
+      <c r="B271" s="313"/>
+      <c r="C271" s="318"/>
+      <c r="D271" s="304"/>
       <c r="E271" s="175"/>
       <c r="F271" s="175"/>
       <c r="G271" s="177" t="s">
@@ -26917,9 +26930,9 @@
     </row>
     <row r="272" spans="1:13" ht="14.25" customHeight="1">
       <c r="A272" s="181"/>
-      <c r="B272" s="307"/>
-      <c r="C272" s="322"/>
-      <c r="D272" s="316"/>
+      <c r="B272" s="313"/>
+      <c r="C272" s="318"/>
+      <c r="D272" s="304"/>
       <c r="E272" s="175"/>
       <c r="F272" s="175"/>
       <c r="G272" s="177" t="s">
@@ -26936,9 +26949,9 @@
     </row>
     <row r="273" spans="1:13" ht="14.25" customHeight="1">
       <c r="A273" s="181"/>
-      <c r="B273" s="307"/>
-      <c r="C273" s="322"/>
-      <c r="D273" s="316"/>
+      <c r="B273" s="313"/>
+      <c r="C273" s="318"/>
+      <c r="D273" s="304"/>
       <c r="E273" s="175"/>
       <c r="F273" s="175"/>
       <c r="G273" s="177" t="s">
@@ -26955,9 +26968,9 @@
     </row>
     <row r="274" spans="1:13" ht="14.25" customHeight="1">
       <c r="A274" s="181"/>
-      <c r="B274" s="307"/>
-      <c r="C274" s="322"/>
-      <c r="D274" s="316"/>
+      <c r="B274" s="313"/>
+      <c r="C274" s="318"/>
+      <c r="D274" s="304"/>
       <c r="E274" s="175"/>
       <c r="F274" s="175"/>
       <c r="G274" s="177" t="s">
@@ -26974,9 +26987,9 @@
     </row>
     <row r="275" spans="1:13" ht="14.25" customHeight="1">
       <c r="A275" s="181"/>
-      <c r="B275" s="307"/>
-      <c r="C275" s="322"/>
-      <c r="D275" s="316"/>
+      <c r="B275" s="313"/>
+      <c r="C275" s="318"/>
+      <c r="D275" s="304"/>
       <c r="E275" s="175"/>
       <c r="F275" s="175"/>
       <c r="G275" s="177" t="s">
@@ -26993,9 +27006,9 @@
     </row>
     <row r="276" spans="1:13" ht="14.25" customHeight="1">
       <c r="A276" s="181"/>
-      <c r="B276" s="307"/>
-      <c r="C276" s="322"/>
-      <c r="D276" s="316"/>
+      <c r="B276" s="313"/>
+      <c r="C276" s="318"/>
+      <c r="D276" s="304"/>
       <c r="E276" s="175"/>
       <c r="F276" s="175"/>
       <c r="G276" s="177" t="s">
@@ -27012,9 +27025,9 @@
     </row>
     <row r="277" spans="1:13" ht="14.25" customHeight="1">
       <c r="A277" s="181"/>
-      <c r="B277" s="307"/>
-      <c r="C277" s="322"/>
-      <c r="D277" s="316"/>
+      <c r="B277" s="313"/>
+      <c r="C277" s="318"/>
+      <c r="D277" s="304"/>
       <c r="E277" s="175"/>
       <c r="F277" s="175"/>
       <c r="G277" s="177" t="s">
@@ -27031,9 +27044,9 @@
     </row>
     <row r="278" spans="1:13" ht="14.25" customHeight="1">
       <c r="A278" s="181"/>
-      <c r="B278" s="307"/>
-      <c r="C278" s="322"/>
-      <c r="D278" s="316"/>
+      <c r="B278" s="313"/>
+      <c r="C278" s="318"/>
+      <c r="D278" s="304"/>
       <c r="E278" s="175"/>
       <c r="F278" s="175"/>
       <c r="G278" s="177" t="s">
@@ -27050,9 +27063,9 @@
     </row>
     <row r="279" spans="1:13" ht="14.25" customHeight="1">
       <c r="A279" s="181"/>
-      <c r="B279" s="307"/>
-      <c r="C279" s="323"/>
-      <c r="D279" s="315"/>
+      <c r="B279" s="313"/>
+      <c r="C279" s="319"/>
+      <c r="D279" s="305"/>
       <c r="E279" s="175"/>
       <c r="F279" s="175"/>
       <c r="G279" s="177" t="s">
@@ -27069,11 +27082,11 @@
     </row>
     <row r="280" spans="1:13" ht="14.25" customHeight="1">
       <c r="A280" s="181"/>
-      <c r="B280" s="307"/>
-      <c r="C280" s="321" t="s">
+      <c r="B280" s="313"/>
+      <c r="C280" s="317" t="s">
         <v>1485</v>
       </c>
-      <c r="D280" s="314" t="s">
+      <c r="D280" s="303" t="s">
         <v>1486</v>
       </c>
       <c r="E280" s="175"/>
@@ -27092,9 +27105,9 @@
     </row>
     <row r="281" spans="1:13" ht="14.25" customHeight="1">
       <c r="A281" s="181"/>
-      <c r="B281" s="307"/>
-      <c r="C281" s="322"/>
-      <c r="D281" s="316"/>
+      <c r="B281" s="313"/>
+      <c r="C281" s="318"/>
+      <c r="D281" s="304"/>
       <c r="E281" s="175"/>
       <c r="F281" s="175"/>
       <c r="G281" s="177" t="s">
@@ -27111,9 +27124,9 @@
     </row>
     <row r="282" spans="1:13" ht="14.25" customHeight="1">
       <c r="A282" s="181"/>
-      <c r="B282" s="307"/>
-      <c r="C282" s="322"/>
-      <c r="D282" s="316"/>
+      <c r="B282" s="313"/>
+      <c r="C282" s="318"/>
+      <c r="D282" s="304"/>
       <c r="E282" s="175"/>
       <c r="F282" s="175"/>
       <c r="G282" s="177" t="s">
@@ -27130,9 +27143,9 @@
     </row>
     <row r="283" spans="1:13" ht="14.25" customHeight="1">
       <c r="A283" s="181"/>
-      <c r="B283" s="307"/>
-      <c r="C283" s="322"/>
-      <c r="D283" s="316"/>
+      <c r="B283" s="313"/>
+      <c r="C283" s="318"/>
+      <c r="D283" s="304"/>
       <c r="E283" s="175"/>
       <c r="F283" s="175"/>
       <c r="G283" s="177" t="s">
@@ -27149,9 +27162,9 @@
     </row>
     <row r="284" spans="1:13" ht="14.25" customHeight="1">
       <c r="A284" s="181"/>
-      <c r="B284" s="307"/>
-      <c r="C284" s="322"/>
-      <c r="D284" s="316"/>
+      <c r="B284" s="313"/>
+      <c r="C284" s="318"/>
+      <c r="D284" s="304"/>
       <c r="E284" s="175"/>
       <c r="F284" s="175"/>
       <c r="G284" s="177" t="s">
@@ -27168,9 +27181,9 @@
     </row>
     <row r="285" spans="1:13" ht="14.25" customHeight="1">
       <c r="A285" s="181"/>
-      <c r="B285" s="307"/>
-      <c r="C285" s="322"/>
-      <c r="D285" s="316"/>
+      <c r="B285" s="313"/>
+      <c r="C285" s="318"/>
+      <c r="D285" s="304"/>
       <c r="E285" s="175"/>
       <c r="F285" s="175"/>
       <c r="G285" s="177" t="s">
@@ -27187,9 +27200,9 @@
     </row>
     <row r="286" spans="1:13" ht="14.25" customHeight="1">
       <c r="A286" s="181"/>
-      <c r="B286" s="307"/>
-      <c r="C286" s="322"/>
-      <c r="D286" s="316"/>
+      <c r="B286" s="313"/>
+      <c r="C286" s="318"/>
+      <c r="D286" s="304"/>
       <c r="E286" s="175"/>
       <c r="F286" s="175"/>
       <c r="G286" s="177" t="s">
@@ -27206,9 +27219,9 @@
     </row>
     <row r="287" spans="1:13" ht="14.25" customHeight="1">
       <c r="A287" s="181"/>
-      <c r="B287" s="307"/>
-      <c r="C287" s="322"/>
-      <c r="D287" s="316"/>
+      <c r="B287" s="313"/>
+      <c r="C287" s="318"/>
+      <c r="D287" s="304"/>
       <c r="E287" s="175"/>
       <c r="F287" s="175"/>
       <c r="G287" s="177" t="s">
@@ -27225,9 +27238,9 @@
     </row>
     <row r="288" spans="1:13" ht="14.25" customHeight="1">
       <c r="A288" s="181"/>
-      <c r="B288" s="307"/>
-      <c r="C288" s="322"/>
-      <c r="D288" s="316"/>
+      <c r="B288" s="313"/>
+      <c r="C288" s="318"/>
+      <c r="D288" s="304"/>
       <c r="E288" s="175"/>
       <c r="F288" s="175"/>
       <c r="G288" s="177" t="s">
@@ -27244,9 +27257,9 @@
     </row>
     <row r="289" spans="1:13" ht="14.25" customHeight="1">
       <c r="A289" s="181"/>
-      <c r="B289" s="307"/>
-      <c r="C289" s="322"/>
-      <c r="D289" s="316"/>
+      <c r="B289" s="313"/>
+      <c r="C289" s="318"/>
+      <c r="D289" s="304"/>
       <c r="E289" s="175"/>
       <c r="F289" s="175"/>
       <c r="G289" s="177" t="s">
@@ -27263,9 +27276,9 @@
     </row>
     <row r="290" spans="1:13" ht="14.25" customHeight="1">
       <c r="A290" s="181"/>
-      <c r="B290" s="307"/>
-      <c r="C290" s="322"/>
-      <c r="D290" s="316"/>
+      <c r="B290" s="313"/>
+      <c r="C290" s="318"/>
+      <c r="D290" s="304"/>
       <c r="E290" s="175"/>
       <c r="F290" s="175"/>
       <c r="G290" s="177" t="s">
@@ -27282,9 +27295,9 @@
     </row>
     <row r="291" spans="1:13" ht="14.25" customHeight="1">
       <c r="A291" s="181"/>
-      <c r="B291" s="307"/>
-      <c r="C291" s="322"/>
-      <c r="D291" s="316"/>
+      <c r="B291" s="313"/>
+      <c r="C291" s="318"/>
+      <c r="D291" s="304"/>
       <c r="E291" s="175"/>
       <c r="F291" s="175"/>
       <c r="G291" s="177" t="s">
@@ -27301,9 +27314,9 @@
     </row>
     <row r="292" spans="1:13" ht="14.25" customHeight="1">
       <c r="A292" s="181"/>
-      <c r="B292" s="307"/>
-      <c r="C292" s="322"/>
-      <c r="D292" s="316"/>
+      <c r="B292" s="313"/>
+      <c r="C292" s="318"/>
+      <c r="D292" s="304"/>
       <c r="E292" s="175"/>
       <c r="F292" s="175"/>
       <c r="G292" s="177" t="s">
@@ -27320,9 +27333,9 @@
     </row>
     <row r="293" spans="1:13" ht="14.25" customHeight="1">
       <c r="A293" s="181"/>
-      <c r="B293" s="307"/>
-      <c r="C293" s="322"/>
-      <c r="D293" s="316"/>
+      <c r="B293" s="313"/>
+      <c r="C293" s="318"/>
+      <c r="D293" s="304"/>
       <c r="E293" s="175"/>
       <c r="F293" s="175"/>
       <c r="G293" s="177" t="s">
@@ -27339,9 +27352,9 @@
     </row>
     <row r="294" spans="1:13" ht="14.25" customHeight="1">
       <c r="A294" s="181"/>
-      <c r="B294" s="307"/>
-      <c r="C294" s="322"/>
-      <c r="D294" s="316"/>
+      <c r="B294" s="313"/>
+      <c r="C294" s="318"/>
+      <c r="D294" s="304"/>
       <c r="E294" s="175"/>
       <c r="F294" s="175"/>
       <c r="G294" s="177" t="s">
@@ -27358,9 +27371,9 @@
     </row>
     <row r="295" spans="1:13" ht="14.25" customHeight="1">
       <c r="A295" s="181"/>
-      <c r="B295" s="307"/>
-      <c r="C295" s="322"/>
-      <c r="D295" s="316"/>
+      <c r="B295" s="313"/>
+      <c r="C295" s="318"/>
+      <c r="D295" s="304"/>
       <c r="E295" s="175"/>
       <c r="F295" s="175"/>
       <c r="G295" s="177" t="s">
@@ -27377,9 +27390,9 @@
     </row>
     <row r="296" spans="1:13" ht="14.25" customHeight="1">
       <c r="A296" s="181"/>
-      <c r="B296" s="307"/>
-      <c r="C296" s="322"/>
-      <c r="D296" s="316"/>
+      <c r="B296" s="313"/>
+      <c r="C296" s="318"/>
+      <c r="D296" s="304"/>
       <c r="E296" s="175"/>
       <c r="F296" s="175"/>
       <c r="G296" s="177" t="s">
@@ -27396,9 +27409,9 @@
     </row>
     <row r="297" spans="1:13" ht="14.25" customHeight="1">
       <c r="A297" s="181"/>
-      <c r="B297" s="307"/>
-      <c r="C297" s="322"/>
-      <c r="D297" s="316"/>
+      <c r="B297" s="313"/>
+      <c r="C297" s="318"/>
+      <c r="D297" s="304"/>
       <c r="E297" s="175"/>
       <c r="F297" s="175"/>
       <c r="G297" s="177" t="s">
@@ -27415,9 +27428,9 @@
     </row>
     <row r="298" spans="1:13" ht="14.25" customHeight="1">
       <c r="A298" s="181"/>
-      <c r="B298" s="307"/>
-      <c r="C298" s="322"/>
-      <c r="D298" s="316"/>
+      <c r="B298" s="313"/>
+      <c r="C298" s="318"/>
+      <c r="D298" s="304"/>
       <c r="E298" s="175"/>
       <c r="F298" s="175"/>
       <c r="G298" s="177" t="s">
@@ -27436,9 +27449,9 @@
       <c r="A299" s="183" t="s">
         <v>1487</v>
       </c>
-      <c r="B299" s="307"/>
-      <c r="C299" s="311" t="s">
-        <v>3013</v>
+      <c r="B299" s="313"/>
+      <c r="C299" s="308" t="s">
+        <v>3011</v>
       </c>
       <c r="D299" s="192" t="s">
         <v>2897</v>
@@ -27457,8 +27470,8 @@
     </row>
     <row r="300" spans="1:13" ht="14.25" customHeight="1">
       <c r="A300" s="183"/>
-      <c r="B300" s="308"/>
-      <c r="C300" s="313"/>
+      <c r="B300" s="314"/>
+      <c r="C300" s="310"/>
       <c r="D300" s="193" t="s">
         <v>2899</v>
       </c>
@@ -27478,15 +27491,15 @@
       <c r="A301" s="183"/>
       <c r="B301" s="298"/>
       <c r="C301" s="299" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="D301" s="193" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="E301" s="175"/>
       <c r="F301" s="175"/>
       <c r="G301" s="177" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="H301" s="178"/>
       <c r="I301" s="178"/>
@@ -27503,7 +27516,7 @@
       <c r="E302" s="175"/>
       <c r="F302" s="175"/>
       <c r="G302" s="177" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="H302" s="178"/>
       <c r="I302" s="178"/>
@@ -27520,7 +27533,7 @@
       <c r="E303" s="175"/>
       <c r="F303" s="175"/>
       <c r="G303" s="177" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="H303" s="178"/>
       <c r="I303" s="178"/>
@@ -27537,7 +27550,7 @@
       <c r="E304" s="175"/>
       <c r="F304" s="175"/>
       <c r="G304" s="177" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="H304" s="178"/>
       <c r="I304" s="178"/>
@@ -27554,7 +27567,7 @@
       <c r="E305" s="175"/>
       <c r="F305" s="175"/>
       <c r="G305" s="177" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="H305" s="178"/>
       <c r="I305" s="178"/>
@@ -27571,7 +27584,7 @@
       <c r="E306" s="175"/>
       <c r="F306" s="175"/>
       <c r="G306" s="177" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="H306" s="178"/>
       <c r="I306" s="178"/>
@@ -27588,7 +27601,7 @@
       <c r="E307" s="175"/>
       <c r="F307" s="175"/>
       <c r="G307" s="177" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="H307" s="178"/>
       <c r="I307" s="178"/>
@@ -27605,7 +27618,7 @@
       <c r="E308" s="175"/>
       <c r="F308" s="175"/>
       <c r="G308" s="177" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="H308" s="178"/>
       <c r="I308" s="178"/>
@@ -27622,7 +27635,7 @@
       <c r="E309" s="175"/>
       <c r="F309" s="175"/>
       <c r="G309" s="177" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="H309" s="178"/>
       <c r="I309" s="178"/>
@@ -27639,7 +27652,7 @@
       <c r="E310" s="175"/>
       <c r="F310" s="175"/>
       <c r="G310" s="177" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="H310" s="178"/>
       <c r="I310" s="178"/>
@@ -27656,7 +27669,7 @@
       <c r="E311" s="175"/>
       <c r="F311" s="175"/>
       <c r="G311" s="177" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="H311" s="178"/>
       <c r="I311" s="178"/>
@@ -27673,7 +27686,7 @@
       <c r="E312" s="175"/>
       <c r="F312" s="175"/>
       <c r="G312" s="177" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="H312" s="178"/>
       <c r="I312" s="178"/>
@@ -28081,7 +28094,7 @@
       <c r="E336" s="175"/>
       <c r="F336" s="175"/>
       <c r="G336" s="30" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="H336" s="178"/>
       <c r="I336" s="178"/>
@@ -28098,7 +28111,7 @@
       <c r="E337" s="175"/>
       <c r="F337" s="175"/>
       <c r="G337" s="30" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="H337" s="178"/>
       <c r="I337" s="178"/>
@@ -28115,7 +28128,7 @@
       <c r="E338" s="175"/>
       <c r="F338" s="175"/>
       <c r="G338" s="30" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="H338" s="178"/>
       <c r="I338" s="178"/>
@@ -28132,7 +28145,7 @@
       <c r="E339" s="175"/>
       <c r="F339" s="175"/>
       <c r="G339" s="30" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="H339" s="178"/>
       <c r="I339" s="178"/>
@@ -28143,8 +28156,8 @@
     </row>
     <row r="340" spans="1:13" ht="14.25" customHeight="1">
       <c r="A340" s="183"/>
-      <c r="B340" s="306" t="s">
-        <v>3038</v>
+      <c r="B340" s="312" t="s">
+        <v>3036</v>
       </c>
       <c r="C340" s="258" t="s">
         <v>2896</v>
@@ -28164,11 +28177,11 @@
     </row>
     <row r="341" spans="1:13" ht="14.25" customHeight="1">
       <c r="A341" s="183"/>
-      <c r="B341" s="307"/>
-      <c r="C341" s="330" t="s">
+      <c r="B341" s="313"/>
+      <c r="C341" s="311" t="s">
         <v>132</v>
       </c>
-      <c r="D341" s="314" t="s">
+      <c r="D341" s="303" t="s">
         <v>2149</v>
       </c>
       <c r="E341" s="175"/>
@@ -28185,9 +28198,9 @@
     </row>
     <row r="342" spans="1:13" ht="14.25" customHeight="1">
       <c r="A342" s="183"/>
-      <c r="B342" s="307"/>
-      <c r="C342" s="330"/>
-      <c r="D342" s="316"/>
+      <c r="B342" s="313"/>
+      <c r="C342" s="311"/>
+      <c r="D342" s="304"/>
       <c r="E342" s="175"/>
       <c r="F342" s="175"/>
       <c r="G342" s="177" t="s">
@@ -28204,9 +28217,9 @@
     </row>
     <row r="343" spans="1:13" ht="14.25" customHeight="1">
       <c r="A343" s="183"/>
-      <c r="B343" s="307"/>
-      <c r="C343" s="330"/>
-      <c r="D343" s="316"/>
+      <c r="B343" s="313"/>
+      <c r="C343" s="311"/>
+      <c r="D343" s="304"/>
       <c r="E343" s="175"/>
       <c r="F343" s="175"/>
       <c r="G343" s="177" t="s">
@@ -28223,9 +28236,9 @@
     </row>
     <row r="344" spans="1:13" ht="14.25" customHeight="1">
       <c r="A344" s="183"/>
-      <c r="B344" s="307"/>
-      <c r="C344" s="330"/>
-      <c r="D344" s="316"/>
+      <c r="B344" s="313"/>
+      <c r="C344" s="311"/>
+      <c r="D344" s="304"/>
       <c r="E344" s="174"/>
       <c r="F344" s="174"/>
       <c r="G344" s="259" t="s">
@@ -28242,9 +28255,9 @@
     </row>
     <row r="345" spans="1:13" ht="14.25" customHeight="1">
       <c r="A345" s="183"/>
-      <c r="B345" s="307"/>
-      <c r="C345" s="330"/>
-      <c r="D345" s="316"/>
+      <c r="B345" s="313"/>
+      <c r="C345" s="311"/>
+      <c r="D345" s="304"/>
       <c r="E345" s="174"/>
       <c r="F345" s="174"/>
       <c r="G345" s="259" t="s">
@@ -28261,9 +28274,9 @@
     </row>
     <row r="346" spans="1:13" ht="14.25" customHeight="1">
       <c r="A346" s="183"/>
-      <c r="B346" s="307"/>
-      <c r="C346" s="330"/>
-      <c r="D346" s="316"/>
+      <c r="B346" s="313"/>
+      <c r="C346" s="311"/>
+      <c r="D346" s="304"/>
       <c r="E346" s="174"/>
       <c r="F346" s="174"/>
       <c r="G346" s="259" t="s">
@@ -28280,9 +28293,9 @@
     </row>
     <row r="347" spans="1:13" ht="14.25" customHeight="1">
       <c r="A347" s="183"/>
-      <c r="B347" s="307"/>
-      <c r="C347" s="330"/>
-      <c r="D347" s="316"/>
+      <c r="B347" s="313"/>
+      <c r="C347" s="311"/>
+      <c r="D347" s="304"/>
       <c r="E347" s="174"/>
       <c r="F347" s="174"/>
       <c r="G347" s="259" t="s">
@@ -28299,9 +28312,9 @@
     </row>
     <row r="348" spans="1:13" ht="14.25" customHeight="1">
       <c r="A348" s="183"/>
-      <c r="B348" s="307"/>
-      <c r="C348" s="330"/>
-      <c r="D348" s="316"/>
+      <c r="B348" s="313"/>
+      <c r="C348" s="311"/>
+      <c r="D348" s="304"/>
       <c r="E348" s="174"/>
       <c r="F348" s="174"/>
       <c r="G348" s="259" t="s">
@@ -28318,9 +28331,9 @@
     </row>
     <row r="349" spans="1:13" ht="14.25" customHeight="1">
       <c r="A349" s="183"/>
-      <c r="B349" s="307"/>
-      <c r="C349" s="330"/>
-      <c r="D349" s="316"/>
+      <c r="B349" s="313"/>
+      <c r="C349" s="311"/>
+      <c r="D349" s="304"/>
       <c r="E349" s="174"/>
       <c r="F349" s="174"/>
       <c r="G349" s="259" t="s">
@@ -28337,9 +28350,9 @@
     </row>
     <row r="350" spans="1:13" ht="14.25" customHeight="1">
       <c r="A350" s="183"/>
-      <c r="B350" s="307"/>
-      <c r="C350" s="330"/>
-      <c r="D350" s="316"/>
+      <c r="B350" s="313"/>
+      <c r="C350" s="311"/>
+      <c r="D350" s="304"/>
       <c r="E350" s="174"/>
       <c r="F350" s="174"/>
       <c r="G350" s="259" t="s">
@@ -28356,9 +28369,9 @@
     </row>
     <row r="351" spans="1:13" ht="14.25" customHeight="1">
       <c r="A351" s="183"/>
-      <c r="B351" s="307"/>
-      <c r="C351" s="330"/>
-      <c r="D351" s="315"/>
+      <c r="B351" s="313"/>
+      <c r="C351" s="311"/>
+      <c r="D351" s="305"/>
       <c r="E351" s="174"/>
       <c r="F351" s="174"/>
       <c r="G351" s="259" t="s">
@@ -28375,8 +28388,8 @@
     </row>
     <row r="352" spans="1:13" ht="14.25" customHeight="1">
       <c r="A352" s="183"/>
-      <c r="B352" s="307"/>
-      <c r="C352" s="330"/>
+      <c r="B352" s="313"/>
+      <c r="C352" s="311"/>
       <c r="D352" s="260" t="s">
         <v>2160</v>
       </c>
@@ -28394,9 +28407,9 @@
     </row>
     <row r="353" spans="1:13" ht="14.25" customHeight="1">
       <c r="A353" s="183"/>
-      <c r="B353" s="307"/>
-      <c r="C353" s="330"/>
-      <c r="D353" s="309" t="s">
+      <c r="B353" s="313"/>
+      <c r="C353" s="311"/>
+      <c r="D353" s="332" t="s">
         <v>2175</v>
       </c>
       <c r="E353" s="174"/>
@@ -28417,9 +28430,9 @@
     </row>
     <row r="354" spans="1:13" ht="14.25" customHeight="1">
       <c r="A354" s="183"/>
-      <c r="B354" s="307"/>
-      <c r="C354" s="330"/>
-      <c r="D354" s="317"/>
+      <c r="B354" s="313"/>
+      <c r="C354" s="311"/>
+      <c r="D354" s="334"/>
       <c r="E354" s="174"/>
       <c r="F354" s="174"/>
       <c r="G354" s="259" t="s">
@@ -28436,9 +28449,9 @@
     </row>
     <row r="355" spans="1:13" ht="14.25" customHeight="1">
       <c r="A355" s="183"/>
-      <c r="B355" s="307"/>
-      <c r="C355" s="330"/>
-      <c r="D355" s="317"/>
+      <c r="B355" s="313"/>
+      <c r="C355" s="311"/>
+      <c r="D355" s="334"/>
       <c r="E355" s="174"/>
       <c r="F355" s="174"/>
       <c r="G355" s="259" t="s">
@@ -28457,9 +28470,9 @@
     </row>
     <row r="356" spans="1:13" ht="14.25" customHeight="1">
       <c r="A356" s="183"/>
-      <c r="B356" s="307"/>
-      <c r="C356" s="330"/>
-      <c r="D356" s="317"/>
+      <c r="B356" s="313"/>
+      <c r="C356" s="311"/>
+      <c r="D356" s="334"/>
       <c r="E356" s="174"/>
       <c r="F356" s="174"/>
       <c r="G356" s="259" t="s">
@@ -28476,9 +28489,9 @@
     </row>
     <row r="357" spans="1:13" ht="14.25" customHeight="1">
       <c r="A357" s="183"/>
-      <c r="B357" s="307"/>
-      <c r="C357" s="330"/>
-      <c r="D357" s="317"/>
+      <c r="B357" s="313"/>
+      <c r="C357" s="311"/>
+      <c r="D357" s="334"/>
       <c r="E357" s="174"/>
       <c r="F357" s="174"/>
       <c r="G357" s="259" t="s">
@@ -28497,9 +28510,9 @@
     </row>
     <row r="358" spans="1:13" ht="14.25" customHeight="1">
       <c r="A358" s="183"/>
-      <c r="B358" s="307"/>
-      <c r="C358" s="330"/>
-      <c r="D358" s="317"/>
+      <c r="B358" s="313"/>
+      <c r="C358" s="311"/>
+      <c r="D358" s="334"/>
       <c r="E358" s="174"/>
       <c r="F358" s="174"/>
       <c r="G358" s="259" t="s">
@@ -28516,9 +28529,9 @@
     </row>
     <row r="359" spans="1:13" ht="14.25" customHeight="1">
       <c r="A359" s="183"/>
-      <c r="B359" s="307"/>
-      <c r="C359" s="330"/>
-      <c r="D359" s="317"/>
+      <c r="B359" s="313"/>
+      <c r="C359" s="311"/>
+      <c r="D359" s="334"/>
       <c r="E359" s="174"/>
       <c r="F359" s="174"/>
       <c r="G359" s="259" t="s">
@@ -28537,9 +28550,9 @@
     </row>
     <row r="360" spans="1:13" ht="14.25" customHeight="1">
       <c r="A360" s="183"/>
-      <c r="B360" s="307"/>
-      <c r="C360" s="330"/>
-      <c r="D360" s="317"/>
+      <c r="B360" s="313"/>
+      <c r="C360" s="311"/>
+      <c r="D360" s="334"/>
       <c r="E360" s="174"/>
       <c r="F360" s="174"/>
       <c r="G360" s="259" t="s">
@@ -28556,9 +28569,9 @@
     </row>
     <row r="361" spans="1:13" ht="14.25" customHeight="1">
       <c r="A361" s="183"/>
-      <c r="B361" s="307"/>
-      <c r="C361" s="330"/>
-      <c r="D361" s="317"/>
+      <c r="B361" s="313"/>
+      <c r="C361" s="311"/>
+      <c r="D361" s="334"/>
       <c r="E361" s="174"/>
       <c r="F361" s="174"/>
       <c r="G361" s="259" t="s">
@@ -28577,9 +28590,9 @@
     </row>
     <row r="362" spans="1:13" ht="14.25" customHeight="1">
       <c r="A362" s="183"/>
-      <c r="B362" s="307"/>
-      <c r="C362" s="330"/>
-      <c r="D362" s="317"/>
+      <c r="B362" s="313"/>
+      <c r="C362" s="311"/>
+      <c r="D362" s="334"/>
       <c r="E362" s="174"/>
       <c r="F362" s="174"/>
       <c r="G362" s="261" t="s">
@@ -28600,9 +28613,9 @@
     </row>
     <row r="363" spans="1:13" ht="14.25" customHeight="1">
       <c r="A363" s="183"/>
-      <c r="B363" s="307"/>
-      <c r="C363" s="330"/>
-      <c r="D363" s="310"/>
+      <c r="B363" s="313"/>
+      <c r="C363" s="311"/>
+      <c r="D363" s="333"/>
       <c r="E363" s="174"/>
       <c r="F363" s="174"/>
       <c r="G363" s="261" t="s">
@@ -28621,9 +28634,9 @@
     </row>
     <row r="364" spans="1:13" ht="14.25" customHeight="1">
       <c r="A364" s="183"/>
-      <c r="B364" s="307"/>
-      <c r="C364" s="330"/>
-      <c r="D364" s="303" t="s">
+      <c r="B364" s="313"/>
+      <c r="C364" s="311"/>
+      <c r="D364" s="329" t="s">
         <v>2176</v>
       </c>
       <c r="E364" s="174"/>
@@ -28642,9 +28655,9 @@
     </row>
     <row r="365" spans="1:13" ht="14.25" customHeight="1">
       <c r="A365" s="183"/>
-      <c r="B365" s="307"/>
-      <c r="C365" s="330"/>
-      <c r="D365" s="304"/>
+      <c r="B365" s="313"/>
+      <c r="C365" s="311"/>
+      <c r="D365" s="330"/>
       <c r="E365" s="174"/>
       <c r="F365" s="174"/>
       <c r="G365" s="259" t="s">
@@ -28663,9 +28676,9 @@
     </row>
     <row r="366" spans="1:13" ht="14.25" customHeight="1">
       <c r="A366" s="183"/>
-      <c r="B366" s="307"/>
-      <c r="C366" s="330"/>
-      <c r="D366" s="304"/>
+      <c r="B366" s="313"/>
+      <c r="C366" s="311"/>
+      <c r="D366" s="330"/>
       <c r="E366" s="174"/>
       <c r="F366" s="174"/>
       <c r="G366" s="259" t="s">
@@ -28684,9 +28697,9 @@
     </row>
     <row r="367" spans="1:13" ht="14.25" customHeight="1">
       <c r="A367" s="183"/>
-      <c r="B367" s="307"/>
-      <c r="C367" s="330"/>
-      <c r="D367" s="305"/>
+      <c r="B367" s="313"/>
+      <c r="C367" s="311"/>
+      <c r="D367" s="331"/>
       <c r="E367" s="174"/>
       <c r="F367" s="174"/>
       <c r="G367" s="259" t="s">
@@ -28705,9 +28718,9 @@
     </row>
     <row r="368" spans="1:13" ht="14.25" customHeight="1">
       <c r="A368" s="183"/>
-      <c r="B368" s="307"/>
-      <c r="C368" s="330"/>
-      <c r="D368" s="303" t="s">
+      <c r="B368" s="313"/>
+      <c r="C368" s="311"/>
+      <c r="D368" s="329" t="s">
         <v>2177</v>
       </c>
       <c r="E368" s="174"/>
@@ -28728,9 +28741,9 @@
     </row>
     <row r="369" spans="1:13" ht="14.25" customHeight="1">
       <c r="A369" s="183"/>
-      <c r="B369" s="307"/>
-      <c r="C369" s="330"/>
-      <c r="D369" s="304"/>
+      <c r="B369" s="313"/>
+      <c r="C369" s="311"/>
+      <c r="D369" s="330"/>
       <c r="E369" s="174"/>
       <c r="F369" s="174"/>
       <c r="G369" s="259" t="s">
@@ -28749,9 +28762,9 @@
     </row>
     <row r="370" spans="1:13" ht="14.25" customHeight="1">
       <c r="A370" s="183"/>
-      <c r="B370" s="307"/>
-      <c r="C370" s="330"/>
-      <c r="D370" s="304"/>
+      <c r="B370" s="313"/>
+      <c r="C370" s="311"/>
+      <c r="D370" s="330"/>
       <c r="E370" s="174"/>
       <c r="F370" s="174"/>
       <c r="G370" s="259" t="s">
@@ -28770,9 +28783,9 @@
     </row>
     <row r="371" spans="1:13" ht="14.25" customHeight="1">
       <c r="A371" s="183"/>
-      <c r="B371" s="307"/>
-      <c r="C371" s="330"/>
-      <c r="D371" s="305"/>
+      <c r="B371" s="313"/>
+      <c r="C371" s="311"/>
+      <c r="D371" s="331"/>
       <c r="E371" s="174"/>
       <c r="F371" s="174"/>
       <c r="G371" s="259" t="s">
@@ -28791,9 +28804,9 @@
     </row>
     <row r="372" spans="1:13" ht="14.25" customHeight="1">
       <c r="A372" s="183"/>
-      <c r="B372" s="307"/>
-      <c r="C372" s="330"/>
-      <c r="D372" s="309" t="s">
+      <c r="B372" s="313"/>
+      <c r="C372" s="311"/>
+      <c r="D372" s="332" t="s">
         <v>2182</v>
       </c>
       <c r="E372" s="174"/>
@@ -28812,9 +28825,9 @@
     </row>
     <row r="373" spans="1:13" ht="14.25" customHeight="1">
       <c r="A373" s="183"/>
-      <c r="B373" s="307"/>
-      <c r="C373" s="330"/>
-      <c r="D373" s="310"/>
+      <c r="B373" s="313"/>
+      <c r="C373" s="311"/>
+      <c r="D373" s="333"/>
       <c r="E373" s="174"/>
       <c r="F373" s="174"/>
       <c r="G373" s="259" t="s">
@@ -28833,8 +28846,8 @@
     </row>
     <row r="374" spans="1:13" ht="14.25" customHeight="1">
       <c r="A374" s="183"/>
-      <c r="B374" s="307"/>
-      <c r="C374" s="330"/>
+      <c r="B374" s="313"/>
+      <c r="C374" s="311"/>
       <c r="D374" s="288" t="s">
         <v>2183</v>
       </c>
@@ -28846,7 +28859,7 @@
       <c r="H374" s="243"/>
       <c r="I374" s="243"/>
       <c r="J374" s="178" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="K374" s="178"/>
       <c r="L374" s="199"/>
@@ -28854,8 +28867,8 @@
     </row>
     <row r="375" spans="1:13" ht="18.95" customHeight="1">
       <c r="A375" s="183"/>
-      <c r="B375" s="307"/>
-      <c r="C375" s="330"/>
+      <c r="B375" s="313"/>
+      <c r="C375" s="311"/>
       <c r="D375" s="263" t="s">
         <v>2189</v>
       </c>
@@ -28879,8 +28892,8 @@
     </row>
     <row r="376" spans="1:13" ht="14.25" customHeight="1">
       <c r="A376" s="183"/>
-      <c r="B376" s="307"/>
-      <c r="C376" s="330"/>
+      <c r="B376" s="313"/>
+      <c r="C376" s="311"/>
       <c r="D376" s="264" t="s">
         <v>2190</v>
       </c>
@@ -28898,8 +28911,8 @@
     </row>
     <row r="377" spans="1:13" ht="14.25" customHeight="1">
       <c r="A377" s="183"/>
-      <c r="B377" s="307"/>
-      <c r="C377" s="330"/>
+      <c r="B377" s="313"/>
+      <c r="C377" s="311"/>
       <c r="D377" s="260" t="s">
         <v>2206</v>
       </c>
@@ -28919,8 +28932,8 @@
     </row>
     <row r="378" spans="1:13" ht="14.25" customHeight="1">
       <c r="A378" s="183"/>
-      <c r="B378" s="307"/>
-      <c r="C378" s="330"/>
+      <c r="B378" s="313"/>
+      <c r="C378" s="311"/>
       <c r="D378" s="260"/>
       <c r="E378" s="174"/>
       <c r="F378" s="174"/>
@@ -28940,8 +28953,8 @@
     </row>
     <row r="379" spans="1:13" ht="14.25" customHeight="1">
       <c r="A379" s="183"/>
-      <c r="B379" s="307"/>
-      <c r="C379" s="330"/>
+      <c r="B379" s="313"/>
+      <c r="C379" s="311"/>
       <c r="D379" s="260"/>
       <c r="E379" s="174"/>
       <c r="F379" s="174"/>
@@ -28959,8 +28972,8 @@
     </row>
     <row r="380" spans="1:13" ht="14.25" customHeight="1">
       <c r="A380" s="183"/>
-      <c r="B380" s="307"/>
-      <c r="C380" s="330"/>
+      <c r="B380" s="313"/>
+      <c r="C380" s="311"/>
       <c r="D380" s="260" t="s">
         <v>2215</v>
       </c>
@@ -28980,8 +28993,8 @@
     </row>
     <row r="381" spans="1:13" ht="14.25" customHeight="1">
       <c r="A381" s="183"/>
-      <c r="B381" s="307"/>
-      <c r="C381" s="330"/>
+      <c r="B381" s="313"/>
+      <c r="C381" s="311"/>
       <c r="D381" s="260"/>
       <c r="E381" s="174"/>
       <c r="F381" s="174"/>
@@ -29001,8 +29014,8 @@
     </row>
     <row r="382" spans="1:13" ht="14.25" customHeight="1">
       <c r="A382" s="183"/>
-      <c r="B382" s="307"/>
-      <c r="C382" s="330"/>
+      <c r="B382" s="313"/>
+      <c r="C382" s="311"/>
       <c r="D382" s="260"/>
       <c r="E382" s="174"/>
       <c r="F382" s="174"/>
@@ -29020,8 +29033,8 @@
     </row>
     <row r="383" spans="1:13" ht="14.25" customHeight="1">
       <c r="A383" s="183"/>
-      <c r="B383" s="307"/>
-      <c r="C383" s="330"/>
+      <c r="B383" s="313"/>
+      <c r="C383" s="311"/>
       <c r="D383" s="260" t="s">
         <v>2216</v>
       </c>
@@ -29039,8 +29052,8 @@
     </row>
     <row r="384" spans="1:13" ht="14.25" customHeight="1">
       <c r="A384" s="183"/>
-      <c r="B384" s="307"/>
-      <c r="C384" s="330"/>
+      <c r="B384" s="313"/>
+      <c r="C384" s="311"/>
       <c r="D384" s="260" t="s">
         <v>2217</v>
       </c>
@@ -29058,7 +29071,7 @@
     </row>
     <row r="385" spans="1:13" ht="14.25" customHeight="1">
       <c r="A385" s="181"/>
-      <c r="B385" s="308"/>
+      <c r="B385" s="314"/>
       <c r="C385" s="265" t="s">
         <v>2218</v>
       </c>
@@ -29226,15 +29239,48 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="D136:D143"/>
-    <mergeCell ref="D158:D167"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="C119:C143"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="D364:D367"/>
+    <mergeCell ref="D368:D371"/>
+    <mergeCell ref="B340:B385"/>
+    <mergeCell ref="D372:D373"/>
+    <mergeCell ref="C168:C184"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="B195:B300"/>
+    <mergeCell ref="D341:D351"/>
+    <mergeCell ref="D353:D363"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="C195:C210"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="D198:D200"/>
+    <mergeCell ref="D242:D258"/>
+    <mergeCell ref="C211:C241"/>
+    <mergeCell ref="D211:D241"/>
+    <mergeCell ref="C259:C279"/>
+    <mergeCell ref="D259:D279"/>
+    <mergeCell ref="C280:C298"/>
+    <mergeCell ref="D280:D298"/>
+    <mergeCell ref="D205:D210"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="C75:C100"/>
+    <mergeCell ref="C101:C118"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D21:D66"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D104:D107"/>
     <mergeCell ref="C2:C66"/>
     <mergeCell ref="C341:C384"/>
     <mergeCell ref="B2:B66"/>
@@ -29251,48 +29297,15 @@
     <mergeCell ref="D168:D176"/>
     <mergeCell ref="C242:C258"/>
     <mergeCell ref="C299:C300"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D21:D66"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="C75:C100"/>
-    <mergeCell ref="C101:C118"/>
-    <mergeCell ref="C259:C279"/>
-    <mergeCell ref="D259:D279"/>
-    <mergeCell ref="C280:C298"/>
-    <mergeCell ref="D280:D298"/>
-    <mergeCell ref="D205:D210"/>
-    <mergeCell ref="D364:D367"/>
-    <mergeCell ref="D368:D371"/>
-    <mergeCell ref="B340:B385"/>
-    <mergeCell ref="D372:D373"/>
-    <mergeCell ref="C168:C184"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="B195:B300"/>
-    <mergeCell ref="D341:D351"/>
-    <mergeCell ref="D353:D363"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="C195:C210"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="D198:D200"/>
-    <mergeCell ref="D242:D258"/>
-    <mergeCell ref="C211:C241"/>
-    <mergeCell ref="D211:D241"/>
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="D136:D143"/>
+    <mergeCell ref="D158:D167"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="C119:C143"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="D147:D148"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29328,27 +29341,27 @@
         <v>2934</v>
       </c>
       <c r="B4" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
     </row>
   </sheetData>
@@ -29725,7 +29738,7 @@
         <v>223</v>
       </c>
       <c r="E13" s="165" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="F13" s="85" t="s">
         <v>1526</v>
@@ -29752,7 +29765,7 @@
         <v>224</v>
       </c>
       <c r="E14" s="165" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="F14" s="85" t="s">
         <v>1527</v>
@@ -29779,7 +29792,7 @@
         <v>225</v>
       </c>
       <c r="E15" s="165" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="F15" s="99" t="s">
         <v>1536</v>
@@ -30059,7 +30072,7 @@
         <v>1492</v>
       </c>
       <c r="E25" s="118" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="F25" s="100" t="s">
         <v>1508</v>
@@ -30089,7 +30102,7 @@
         <v>1493</v>
       </c>
       <c r="E26" s="119" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="F26" s="85" t="s">
         <v>1509</v>
@@ -30116,7 +30129,7 @@
         <v>1494</v>
       </c>
       <c r="E27" s="119" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="F27" s="85" t="s">
         <v>1510</v>
@@ -30149,7 +30162,7 @@
         <v>1545</v>
       </c>
       <c r="E28" s="119" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="F28" s="85" t="s">
         <v>1511</v>
@@ -30179,7 +30192,7 @@
         <v>1550</v>
       </c>
       <c r="E29" s="119" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="F29" s="120" t="s">
         <v>1551</v>
@@ -30209,7 +30222,7 @@
         <v>85</v>
       </c>
       <c r="E30" s="119" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="F30" s="85"/>
       <c r="G30" s="83">
@@ -30237,7 +30250,7 @@
         <v>1531</v>
       </c>
       <c r="E31" s="119" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="F31" s="85" t="s">
         <v>1529</v>
@@ -30267,7 +30280,7 @@
         <v>1530</v>
       </c>
       <c r="E32" s="119" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="F32" s="85"/>
       <c r="G32" s="86">
@@ -30295,7 +30308,7 @@
         <v>1544</v>
       </c>
       <c r="E33" s="119" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="F33" s="85" t="s">
         <v>1532</v>
@@ -30325,7 +30338,7 @@
         <v>1533</v>
       </c>
       <c r="E34" s="119" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="F34" s="85" t="s">
         <v>1534</v>
@@ -31627,7 +31640,7 @@
         <v>821</v>
       </c>
       <c r="C2" s="347" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="D2" s="348"/>
       <c r="E2" s="348"/>
@@ -32143,7 +32156,7 @@
         <v>849</v>
       </c>
       <c r="K24" s="157" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="L24" s="54" t="s">
         <v>904</v>
@@ -33510,7 +33523,7 @@
         <v>821</v>
       </c>
       <c r="C87" s="347" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="D87" s="348"/>
       <c r="E87" s="348"/>
@@ -34545,7 +34558,7 @@
         <v>864</v>
       </c>
       <c r="K132" s="172" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="L132" s="52" t="s">
         <v>938</v>
@@ -37966,7 +37979,7 @@
         <v>821</v>
       </c>
       <c r="C309" s="347" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="D309" s="348"/>
       <c r="E309" s="348"/>
@@ -39098,7 +39111,7 @@
     </row>
     <row r="370" spans="2:13" ht="15" thickBot="1">
       <c r="J370" s="172" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="M370" s="169"/>
     </row>
@@ -39361,7 +39374,7 @@
       <c r="H383" s="50"/>
       <c r="I383" s="51"/>
       <c r="J383" s="172" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="K383" s="52" t="s">
         <v>1268</v>
@@ -39788,6 +39801,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B374:B402"/>
+    <mergeCell ref="C309:G309"/>
+    <mergeCell ref="C310:G310"/>
+    <mergeCell ref="C311:I311"/>
+    <mergeCell ref="B312:B337"/>
+    <mergeCell ref="C340:G340"/>
+    <mergeCell ref="C341:G341"/>
+    <mergeCell ref="C342:I342"/>
+    <mergeCell ref="B343:B368"/>
+    <mergeCell ref="C371:G371"/>
+    <mergeCell ref="C372:G372"/>
+    <mergeCell ref="C373:I373"/>
+    <mergeCell ref="B260:B307"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="B226:B253"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:I259"/>
+    <mergeCell ref="B167:B192"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="B90:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="B118:B161"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C166:I166"/>
     <mergeCell ref="B69:B84"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -39800,42 +39849,6 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:I68"/>
-    <mergeCell ref="B167:B192"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="B90:B112"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:B161"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B260:B307"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="B198:B220"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="B226:B253"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C259:I259"/>
-    <mergeCell ref="B374:B402"/>
-    <mergeCell ref="C309:G309"/>
-    <mergeCell ref="C310:G310"/>
-    <mergeCell ref="C311:I311"/>
-    <mergeCell ref="B312:B337"/>
-    <mergeCell ref="C340:G340"/>
-    <mergeCell ref="C341:G341"/>
-    <mergeCell ref="C342:I342"/>
-    <mergeCell ref="B343:B368"/>
-    <mergeCell ref="C371:G371"/>
-    <mergeCell ref="C372:G372"/>
-    <mergeCell ref="C373:I373"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -54393,7 +54406,7 @@
         <v>2967</v>
       </c>
       <c r="M7" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -54580,7 +54593,7 @@
         <v>2975</v>
       </c>
       <c r="I18" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -54595,60 +54608,60 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="B26" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="36.75" customHeight="1"/>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="B29" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3061</v>
+      </c>
+      <c r="D29" t="s">
         <v>3062</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>3063</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>3064</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>3065</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>3066</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>3067</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>3068</v>
-      </c>
-      <c r="I29" t="s">
-        <v>3069</v>
-      </c>
-      <c r="J29" t="s">
-        <v>3070</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="C32" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
     </row>
   </sheetData>

--- a/03.指标管理/大宗/指标定义表V2.1.4.xlsx
+++ b/03.指标管理/大宗/指标定义表V2.1.4.xlsx
@@ -19822,19 +19822,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19846,22 +19858,25 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19872,15 +19887,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19900,32 +19906,29 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -19989,9 +19992,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -20067,16 +20067,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>29634</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1892301</xdr:colOff>
       <xdr:row>240</xdr:row>
-      <xdr:rowOff>164042</xdr:rowOff>
+      <xdr:rowOff>100542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3504316</xdr:colOff>
+      <xdr:colOff>3461983</xdr:colOff>
       <xdr:row>277</xdr:row>
-      <xdr:rowOff>78316</xdr:rowOff>
+      <xdr:rowOff>14816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20099,7 +20099,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4665134" y="77094292"/>
+          <a:off x="4622801" y="77295375"/>
           <a:ext cx="7051849" cy="3512608"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20112,15 +20112,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>279</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>74082</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3514725</xdr:colOff>
-      <xdr:row>296</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11641</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>65617</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20143,8 +20143,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4629150" y="55311675"/>
-          <a:ext cx="7086600" cy="2981325"/>
+          <a:off x="4709582" y="80954033"/>
+          <a:ext cx="7091892" cy="2963334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20278,15 +20278,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>105834</xdr:colOff>
-      <xdr:row>301</xdr:row>
-      <xdr:rowOff>74083</xdr:rowOff>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>137582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1853096</xdr:colOff>
-      <xdr:row>313</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:colOff>1842513</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>52915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20309,8 +20309,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4741334" y="85100583"/>
+          <a:off x="4730751" y="86688082"/>
           <a:ext cx="8901595" cy="2254250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>42332</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2465916</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>179272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE0618A-48DD-40CF-A0C4-7F34A5238213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4677832" y="83576583"/>
+          <a:ext cx="9577917" cy="3153189"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21081,10 +21125,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J164" sqref="J164"/>
+      <selection pane="bottomLeft" activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="14.25" customHeight="1"/>
@@ -21142,13 +21186,13 @@
       <c r="A2" s="174">
         <v>1</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="307" t="s">
         <v>1334</v>
       </c>
-      <c r="C2" s="308" t="s">
+      <c r="C2" s="312" t="s">
         <v>1335</v>
       </c>
-      <c r="D2" s="306" t="s">
+      <c r="D2" s="332" t="s">
         <v>179</v>
       </c>
       <c r="E2" s="175" t="s">
@@ -21181,9 +21225,9 @@
       <c r="A3" s="174">
         <v>2</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="315"/>
+      <c r="B3" s="308"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="333"/>
       <c r="E3" s="175" t="s">
         <v>1340</v>
       </c>
@@ -21208,9 +21252,9 @@
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4" s="174"/>
-      <c r="B4" s="313"/>
-      <c r="C4" s="309"/>
-      <c r="D4" s="315"/>
+      <c r="B4" s="308"/>
+      <c r="C4" s="313"/>
+      <c r="D4" s="333"/>
       <c r="E4" s="175" t="s">
         <v>1343</v>
       </c>
@@ -21233,9 +21277,9 @@
     </row>
     <row r="5" spans="1:13" s="161" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="182"/>
-      <c r="B5" s="313"/>
-      <c r="C5" s="309"/>
-      <c r="D5" s="315"/>
+      <c r="B5" s="308"/>
+      <c r="C5" s="313"/>
+      <c r="D5" s="333"/>
       <c r="E5" s="183"/>
       <c r="F5" s="184"/>
       <c r="G5" s="177" t="s">
@@ -21260,9 +21304,9 @@
     </row>
     <row r="6" spans="1:13" ht="49.5">
       <c r="A6" s="174"/>
-      <c r="B6" s="313"/>
-      <c r="C6" s="309"/>
-      <c r="D6" s="315"/>
+      <c r="B6" s="308"/>
+      <c r="C6" s="313"/>
+      <c r="D6" s="333"/>
       <c r="E6" s="175"/>
       <c r="F6" s="176"/>
       <c r="G6" s="177" t="s">
@@ -21281,9 +21325,9 @@
     </row>
     <row r="7" spans="1:13" ht="33">
       <c r="A7" s="174"/>
-      <c r="B7" s="313"/>
-      <c r="C7" s="309"/>
-      <c r="D7" s="315"/>
+      <c r="B7" s="308"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="333"/>
       <c r="E7" s="175"/>
       <c r="F7" s="176"/>
       <c r="G7" s="177" t="s">
@@ -21302,8 +21346,8 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="174"/>
-      <c r="B8" s="313"/>
-      <c r="C8" s="309"/>
+      <c r="B8" s="308"/>
+      <c r="C8" s="313"/>
       <c r="D8" s="188"/>
       <c r="E8" s="175"/>
       <c r="F8" s="176"/>
@@ -21321,8 +21365,8 @@
     </row>
     <row r="9" spans="1:13" ht="66">
       <c r="A9" s="174"/>
-      <c r="B9" s="313"/>
-      <c r="C9" s="309"/>
+      <c r="B9" s="308"/>
+      <c r="C9" s="313"/>
       <c r="D9" s="188"/>
       <c r="E9" s="175"/>
       <c r="F9" s="176"/>
@@ -21342,8 +21386,8 @@
     </row>
     <row r="10" spans="1:13" ht="25.5" customHeight="1">
       <c r="A10" s="174"/>
-      <c r="B10" s="313"/>
-      <c r="C10" s="309"/>
+      <c r="B10" s="308"/>
+      <c r="C10" s="313"/>
       <c r="D10" s="188"/>
       <c r="E10" s="175"/>
       <c r="F10" s="176"/>
@@ -21363,8 +21407,8 @@
     </row>
     <row r="11" spans="1:13" s="161" customFormat="1" ht="87.75" customHeight="1">
       <c r="A11" s="182"/>
-      <c r="B11" s="313"/>
-      <c r="C11" s="309"/>
+      <c r="B11" s="308"/>
+      <c r="C11" s="313"/>
       <c r="D11" s="191" t="s">
         <v>0</v>
       </c>
@@ -21386,8 +21430,8 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
       <c r="A12" s="174"/>
-      <c r="B12" s="313"/>
-      <c r="C12" s="309"/>
+      <c r="B12" s="308"/>
+      <c r="C12" s="313"/>
       <c r="D12" s="192" t="s">
         <v>0</v>
       </c>
@@ -21409,8 +21453,8 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13" s="174"/>
-      <c r="B13" s="313"/>
-      <c r="C13" s="309"/>
+      <c r="B13" s="308"/>
+      <c r="C13" s="313"/>
       <c r="D13" s="192" t="s">
         <v>0</v>
       </c>
@@ -21432,8 +21476,8 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="174"/>
-      <c r="B14" s="313"/>
-      <c r="C14" s="309"/>
+      <c r="B14" s="308"/>
+      <c r="C14" s="313"/>
       <c r="D14" s="193" t="s">
         <v>2231</v>
       </c>
@@ -21457,8 +21501,8 @@
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="174"/>
-      <c r="B15" s="313"/>
-      <c r="C15" s="309"/>
+      <c r="B15" s="308"/>
+      <c r="C15" s="313"/>
       <c r="D15" s="193"/>
       <c r="E15" s="175"/>
       <c r="F15" s="176"/>
@@ -21478,9 +21522,9 @@
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" s="174"/>
-      <c r="B16" s="313"/>
-      <c r="C16" s="309"/>
-      <c r="D16" s="303" t="s">
+      <c r="B16" s="308"/>
+      <c r="C16" s="313"/>
+      <c r="D16" s="315" t="s">
         <v>1353</v>
       </c>
       <c r="E16" s="175"/>
@@ -21501,9 +21545,9 @@
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1">
       <c r="A17" s="174"/>
-      <c r="B17" s="313"/>
-      <c r="C17" s="309"/>
-      <c r="D17" s="304"/>
+      <c r="B17" s="308"/>
+      <c r="C17" s="313"/>
+      <c r="D17" s="317"/>
       <c r="E17" s="175"/>
       <c r="F17" s="176"/>
       <c r="G17" s="177" t="s">
@@ -21522,9 +21566,9 @@
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" s="174"/>
-      <c r="B18" s="313"/>
-      <c r="C18" s="309"/>
-      <c r="D18" s="305"/>
+      <c r="B18" s="308"/>
+      <c r="C18" s="313"/>
+      <c r="D18" s="316"/>
       <c r="E18" s="175"/>
       <c r="F18" s="176"/>
       <c r="G18" s="177" t="s">
@@ -21541,8 +21585,8 @@
     </row>
     <row r="19" spans="1:13" s="161" customFormat="1" ht="33">
       <c r="A19" s="182"/>
-      <c r="B19" s="313"/>
-      <c r="C19" s="309"/>
+      <c r="B19" s="308"/>
+      <c r="C19" s="313"/>
       <c r="D19" s="191" t="s">
         <v>1358</v>
       </c>
@@ -21566,8 +21610,8 @@
     </row>
     <row r="20" spans="1:13" ht="33">
       <c r="A20" s="174"/>
-      <c r="B20" s="313"/>
-      <c r="C20" s="309"/>
+      <c r="B20" s="308"/>
+      <c r="C20" s="313"/>
       <c r="D20" s="192" t="s">
         <v>1360</v>
       </c>
@@ -21591,9 +21635,9 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
       <c r="A21" s="174"/>
-      <c r="B21" s="313"/>
-      <c r="C21" s="309"/>
-      <c r="D21" s="312" t="s">
+      <c r="B21" s="308"/>
+      <c r="C21" s="313"/>
+      <c r="D21" s="307" t="s">
         <v>1362</v>
       </c>
       <c r="E21" s="175"/>
@@ -21614,9 +21658,9 @@
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
       <c r="A22" s="174"/>
-      <c r="B22" s="313"/>
-      <c r="C22" s="309"/>
-      <c r="D22" s="313"/>
+      <c r="B22" s="308"/>
+      <c r="C22" s="313"/>
+      <c r="D22" s="308"/>
       <c r="E22" s="175"/>
       <c r="F22" s="176"/>
       <c r="G22" s="177" t="s">
@@ -21635,9 +21679,9 @@
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1">
       <c r="A23" s="174"/>
-      <c r="B23" s="313"/>
-      <c r="C23" s="309"/>
-      <c r="D23" s="313"/>
+      <c r="B23" s="308"/>
+      <c r="C23" s="313"/>
+      <c r="D23" s="308"/>
       <c r="E23" s="175"/>
       <c r="F23" s="176"/>
       <c r="G23" s="177" t="s">
@@ -21658,9 +21702,9 @@
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1">
       <c r="A24" s="174"/>
-      <c r="B24" s="313"/>
-      <c r="C24" s="309"/>
-      <c r="D24" s="313"/>
+      <c r="B24" s="308"/>
+      <c r="C24" s="313"/>
+      <c r="D24" s="308"/>
       <c r="E24" s="175"/>
       <c r="F24" s="176"/>
       <c r="G24" s="177" t="s">
@@ -21681,9 +21725,9 @@
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1">
       <c r="A25" s="174"/>
-      <c r="B25" s="313"/>
-      <c r="C25" s="309"/>
-      <c r="D25" s="313"/>
+      <c r="B25" s="308"/>
+      <c r="C25" s="313"/>
+      <c r="D25" s="308"/>
       <c r="E25" s="175"/>
       <c r="F25" s="176"/>
       <c r="G25" s="177" t="s">
@@ -21702,9 +21746,9 @@
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="313"/>
-      <c r="C26" s="309"/>
-      <c r="D26" s="313"/>
+      <c r="B26" s="308"/>
+      <c r="C26" s="313"/>
+      <c r="D26" s="308"/>
       <c r="E26" s="175"/>
       <c r="F26" s="176"/>
       <c r="G26" s="177" t="s">
@@ -21725,9 +21769,9 @@
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="313"/>
-      <c r="C27" s="309"/>
-      <c r="D27" s="313"/>
+      <c r="B27" s="308"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="308"/>
       <c r="E27" s="175"/>
       <c r="F27" s="176"/>
       <c r="G27" s="197" t="s">
@@ -21748,9 +21792,9 @@
     </row>
     <row r="28" spans="1:13" ht="66">
       <c r="A28" s="174"/>
-      <c r="B28" s="313"/>
-      <c r="C28" s="309"/>
-      <c r="D28" s="313"/>
+      <c r="B28" s="308"/>
+      <c r="C28" s="313"/>
+      <c r="D28" s="308"/>
       <c r="E28" s="175"/>
       <c r="F28" s="176"/>
       <c r="G28" s="195" t="s">
@@ -21771,9 +21815,9 @@
     </row>
     <row r="29" spans="1:13" s="151" customFormat="1" ht="33">
       <c r="A29" s="199"/>
-      <c r="B29" s="313"/>
-      <c r="C29" s="309"/>
-      <c r="D29" s="313"/>
+      <c r="B29" s="308"/>
+      <c r="C29" s="313"/>
+      <c r="D29" s="308"/>
       <c r="E29" s="175"/>
       <c r="F29" s="176"/>
       <c r="G29" s="200" t="s">
@@ -21794,9 +21838,9 @@
     </row>
     <row r="30" spans="1:13" ht="49.5">
       <c r="A30" s="174"/>
-      <c r="B30" s="313"/>
-      <c r="C30" s="309"/>
-      <c r="D30" s="313"/>
+      <c r="B30" s="308"/>
+      <c r="C30" s="313"/>
+      <c r="D30" s="308"/>
       <c r="E30" s="175"/>
       <c r="F30" s="176"/>
       <c r="G30" s="195" t="s">
@@ -21817,9 +21861,9 @@
     </row>
     <row r="31" spans="1:13" ht="247.5">
       <c r="A31" s="174"/>
-      <c r="B31" s="313"/>
-      <c r="C31" s="309"/>
-      <c r="D31" s="313"/>
+      <c r="B31" s="308"/>
+      <c r="C31" s="313"/>
+      <c r="D31" s="308"/>
       <c r="E31" s="175"/>
       <c r="F31" s="176"/>
       <c r="G31" s="195" t="s">
@@ -21842,9 +21886,9 @@
     </row>
     <row r="32" spans="1:13" ht="159" customHeight="1">
       <c r="A32" s="174"/>
-      <c r="B32" s="313"/>
-      <c r="C32" s="309"/>
-      <c r="D32" s="313"/>
+      <c r="B32" s="308"/>
+      <c r="C32" s="313"/>
+      <c r="D32" s="308"/>
       <c r="E32" s="175"/>
       <c r="F32" s="176"/>
       <c r="G32" s="195" t="s">
@@ -21865,9 +21909,9 @@
     </row>
     <row r="33" spans="1:13" ht="102.75" customHeight="1">
       <c r="A33" s="174"/>
-      <c r="B33" s="313"/>
-      <c r="C33" s="309"/>
-      <c r="D33" s="313"/>
+      <c r="B33" s="308"/>
+      <c r="C33" s="313"/>
+      <c r="D33" s="308"/>
       <c r="E33" s="175"/>
       <c r="F33" s="176"/>
       <c r="G33" s="195" t="s">
@@ -21888,9 +21932,9 @@
     </row>
     <row r="34" spans="1:13" ht="83.25" customHeight="1">
       <c r="A34" s="174"/>
-      <c r="B34" s="313"/>
-      <c r="C34" s="309"/>
-      <c r="D34" s="313"/>
+      <c r="B34" s="308"/>
+      <c r="C34" s="313"/>
+      <c r="D34" s="308"/>
       <c r="E34" s="175"/>
       <c r="F34" s="176"/>
       <c r="G34" s="195" t="s">
@@ -21911,9 +21955,9 @@
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="174"/>
-      <c r="B35" s="313"/>
-      <c r="C35" s="309"/>
-      <c r="D35" s="313"/>
+      <c r="B35" s="308"/>
+      <c r="C35" s="313"/>
+      <c r="D35" s="308"/>
       <c r="E35" s="175"/>
       <c r="F35" s="176"/>
       <c r="G35" s="208" t="s">
@@ -21934,9 +21978,9 @@
     </row>
     <row r="36" spans="1:13" ht="41.25" customHeight="1">
       <c r="A36" s="174"/>
-      <c r="B36" s="313"/>
-      <c r="C36" s="309"/>
-      <c r="D36" s="313"/>
+      <c r="B36" s="308"/>
+      <c r="C36" s="313"/>
+      <c r="D36" s="308"/>
       <c r="E36" s="175"/>
       <c r="F36" s="176"/>
       <c r="G36" s="210" t="s">
@@ -21957,9 +22001,9 @@
     </row>
     <row r="37" spans="1:13" ht="45" customHeight="1">
       <c r="A37" s="174"/>
-      <c r="B37" s="313"/>
-      <c r="C37" s="309"/>
-      <c r="D37" s="313"/>
+      <c r="B37" s="308"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="308"/>
       <c r="E37" s="175"/>
       <c r="F37" s="176"/>
       <c r="G37" s="195" t="s">
@@ -21980,9 +22024,9 @@
     </row>
     <row r="38" spans="1:13" ht="43.5" customHeight="1">
       <c r="A38" s="174"/>
-      <c r="B38" s="313"/>
-      <c r="C38" s="309"/>
-      <c r="D38" s="313"/>
+      <c r="B38" s="308"/>
+      <c r="C38" s="313"/>
+      <c r="D38" s="308"/>
       <c r="E38" s="175"/>
       <c r="F38" s="176"/>
       <c r="G38" s="195" t="s">
@@ -22003,9 +22047,9 @@
     </row>
     <row r="39" spans="1:13" ht="49.5">
       <c r="A39" s="174"/>
-      <c r="B39" s="313"/>
-      <c r="C39" s="309"/>
-      <c r="D39" s="313"/>
+      <c r="B39" s="308"/>
+      <c r="C39" s="313"/>
+      <c r="D39" s="308"/>
       <c r="E39" s="175"/>
       <c r="F39" s="176"/>
       <c r="G39" s="195" t="s">
@@ -22026,9 +22070,9 @@
     </row>
     <row r="40" spans="1:13" ht="18" thickBot="1">
       <c r="A40" s="174"/>
-      <c r="B40" s="313"/>
-      <c r="C40" s="309"/>
-      <c r="D40" s="313"/>
+      <c r="B40" s="308"/>
+      <c r="C40" s="313"/>
+      <c r="D40" s="308"/>
       <c r="E40" s="175"/>
       <c r="F40" s="176"/>
       <c r="G40" s="200" t="s">
@@ -22049,9 +22093,9 @@
     </row>
     <row r="41" spans="1:13" ht="38.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="174"/>
-      <c r="B41" s="313"/>
-      <c r="C41" s="309"/>
-      <c r="D41" s="313"/>
+      <c r="B41" s="308"/>
+      <c r="C41" s="313"/>
+      <c r="D41" s="308"/>
       <c r="E41" s="175"/>
       <c r="F41" s="176"/>
       <c r="G41" s="213" t="s">
@@ -22072,9 +22116,9 @@
     </row>
     <row r="42" spans="1:13" ht="214.5">
       <c r="A42" s="174"/>
-      <c r="B42" s="313"/>
-      <c r="C42" s="309"/>
-      <c r="D42" s="313"/>
+      <c r="B42" s="308"/>
+      <c r="C42" s="313"/>
+      <c r="D42" s="308"/>
       <c r="E42" s="175"/>
       <c r="F42" s="176"/>
       <c r="G42" s="210" t="s">
@@ -22095,9 +22139,9 @@
     </row>
     <row r="43" spans="1:13" ht="120" customHeight="1">
       <c r="A43" s="174"/>
-      <c r="B43" s="313"/>
-      <c r="C43" s="309"/>
-      <c r="D43" s="313"/>
+      <c r="B43" s="308"/>
+      <c r="C43" s="313"/>
+      <c r="D43" s="308"/>
       <c r="E43" s="175"/>
       <c r="F43" s="176"/>
       <c r="G43" s="195" t="s">
@@ -22118,9 +22162,9 @@
     </row>
     <row r="44" spans="1:13" ht="106.5" customHeight="1">
       <c r="A44" s="174"/>
-      <c r="B44" s="313"/>
-      <c r="C44" s="309"/>
-      <c r="D44" s="313"/>
+      <c r="B44" s="308"/>
+      <c r="C44" s="313"/>
+      <c r="D44" s="308"/>
       <c r="E44" s="175"/>
       <c r="F44" s="176"/>
       <c r="G44" s="195" t="s">
@@ -22141,9 +22185,9 @@
     </row>
     <row r="45" spans="1:13" ht="56.1" customHeight="1">
       <c r="A45" s="174"/>
-      <c r="B45" s="313"/>
-      <c r="C45" s="309"/>
-      <c r="D45" s="313"/>
+      <c r="B45" s="308"/>
+      <c r="C45" s="313"/>
+      <c r="D45" s="308"/>
       <c r="E45" s="175"/>
       <c r="F45" s="176"/>
       <c r="G45" s="195" t="s">
@@ -22164,9 +22208,9 @@
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="174"/>
-      <c r="B46" s="313"/>
-      <c r="C46" s="309"/>
-      <c r="D46" s="313"/>
+      <c r="B46" s="308"/>
+      <c r="C46" s="313"/>
+      <c r="D46" s="308"/>
       <c r="E46" s="175"/>
       <c r="F46" s="176"/>
       <c r="G46" s="195" t="s">
@@ -22189,9 +22233,9 @@
     </row>
     <row r="47" spans="1:13" ht="26.25" hidden="1" customHeight="1">
       <c r="A47" s="174"/>
-      <c r="B47" s="313"/>
-      <c r="C47" s="309"/>
-      <c r="D47" s="313"/>
+      <c r="B47" s="308"/>
+      <c r="C47" s="313"/>
+      <c r="D47" s="308"/>
       <c r="E47" s="175"/>
       <c r="F47" s="176"/>
       <c r="G47" s="217" t="s">
@@ -22212,9 +22256,9 @@
     </row>
     <row r="48" spans="1:13" ht="25.5" hidden="1" customHeight="1">
       <c r="A48" s="174"/>
-      <c r="B48" s="313"/>
-      <c r="C48" s="309"/>
-      <c r="D48" s="313"/>
+      <c r="B48" s="308"/>
+      <c r="C48" s="313"/>
+      <c r="D48" s="308"/>
       <c r="E48" s="175"/>
       <c r="F48" s="176"/>
       <c r="G48" s="217" t="s">
@@ -22231,9 +22275,9 @@
     </row>
     <row r="49" spans="1:13" ht="78" customHeight="1" thickBot="1">
       <c r="A49" s="174"/>
-      <c r="B49" s="313"/>
-      <c r="C49" s="309"/>
-      <c r="D49" s="313"/>
+      <c r="B49" s="308"/>
+      <c r="C49" s="313"/>
+      <c r="D49" s="308"/>
       <c r="E49" s="175"/>
       <c r="F49" s="176"/>
       <c r="G49" s="208" t="s">
@@ -22254,9 +22298,9 @@
     </row>
     <row r="50" spans="1:13" ht="41.25" customHeight="1">
       <c r="A50" s="174"/>
-      <c r="B50" s="313"/>
-      <c r="C50" s="309"/>
-      <c r="D50" s="313"/>
+      <c r="B50" s="308"/>
+      <c r="C50" s="313"/>
+      <c r="D50" s="308"/>
       <c r="E50" s="175"/>
       <c r="F50" s="176"/>
       <c r="G50" s="210" t="s">
@@ -22277,9 +22321,9 @@
     </row>
     <row r="51" spans="1:13" ht="43.5" customHeight="1">
       <c r="A51" s="174"/>
-      <c r="B51" s="313"/>
-      <c r="C51" s="309"/>
-      <c r="D51" s="313"/>
+      <c r="B51" s="308"/>
+      <c r="C51" s="313"/>
+      <c r="D51" s="308"/>
       <c r="E51" s="175"/>
       <c r="F51" s="176"/>
       <c r="G51" s="195" t="s">
@@ -22300,9 +22344,9 @@
     </row>
     <row r="52" spans="1:13" ht="46.5" customHeight="1">
       <c r="A52" s="174"/>
-      <c r="B52" s="313"/>
-      <c r="C52" s="309"/>
-      <c r="D52" s="313"/>
+      <c r="B52" s="308"/>
+      <c r="C52" s="313"/>
+      <c r="D52" s="308"/>
       <c r="E52" s="175"/>
       <c r="F52" s="176"/>
       <c r="G52" s="195" t="s">
@@ -22323,9 +22367,9 @@
     </row>
     <row r="53" spans="1:13" ht="42" customHeight="1">
       <c r="A53" s="174"/>
-      <c r="B53" s="313"/>
-      <c r="C53" s="309"/>
-      <c r="D53" s="313"/>
+      <c r="B53" s="308"/>
+      <c r="C53" s="313"/>
+      <c r="D53" s="308"/>
       <c r="E53" s="175"/>
       <c r="F53" s="176"/>
       <c r="G53" s="195" t="s">
@@ -22346,9 +22390,9 @@
     </row>
     <row r="54" spans="1:13" ht="38.25" customHeight="1">
       <c r="A54" s="174"/>
-      <c r="B54" s="313"/>
-      <c r="C54" s="309"/>
-      <c r="D54" s="313"/>
+      <c r="B54" s="308"/>
+      <c r="C54" s="313"/>
+      <c r="D54" s="308"/>
       <c r="E54" s="175"/>
       <c r="F54" s="176"/>
       <c r="G54" s="195" t="s">
@@ -22364,14 +22408,14 @@
         <v>2837</v>
       </c>
       <c r="K54" s="222"/>
-      <c r="L54" s="323"/>
+      <c r="L54" s="325"/>
       <c r="M54" s="181"/>
     </row>
     <row r="55" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="174"/>
-      <c r="B55" s="313"/>
-      <c r="C55" s="309"/>
-      <c r="D55" s="313"/>
+      <c r="B55" s="308"/>
+      <c r="C55" s="313"/>
+      <c r="D55" s="308"/>
       <c r="E55" s="175"/>
       <c r="F55" s="176"/>
       <c r="G55" s="217" t="s">
@@ -22383,14 +22427,14 @@
       <c r="I55" s="201"/>
       <c r="J55" s="223"/>
       <c r="K55" s="223"/>
-      <c r="L55" s="324"/>
+      <c r="L55" s="326"/>
       <c r="M55" s="181"/>
     </row>
     <row r="56" spans="1:13" ht="33">
       <c r="A56" s="174"/>
-      <c r="B56" s="313"/>
-      <c r="C56" s="309"/>
-      <c r="D56" s="313"/>
+      <c r="B56" s="308"/>
+      <c r="C56" s="313"/>
+      <c r="D56" s="308"/>
       <c r="E56" s="175"/>
       <c r="F56" s="176"/>
       <c r="G56" s="195" t="s">
@@ -22413,9 +22457,9 @@
     </row>
     <row r="57" spans="1:13" ht="28.5" hidden="1" customHeight="1">
       <c r="A57" s="174"/>
-      <c r="B57" s="313"/>
-      <c r="C57" s="309"/>
-      <c r="D57" s="313"/>
+      <c r="B57" s="308"/>
+      <c r="C57" s="313"/>
+      <c r="D57" s="308"/>
       <c r="E57" s="175"/>
       <c r="F57" s="176"/>
       <c r="G57" s="217" t="s">
@@ -22434,9 +22478,9 @@
     </row>
     <row r="58" spans="1:13" ht="30.75" customHeight="1">
       <c r="A58" s="174"/>
-      <c r="B58" s="313"/>
-      <c r="C58" s="309"/>
-      <c r="D58" s="313"/>
+      <c r="B58" s="308"/>
+      <c r="C58" s="313"/>
+      <c r="D58" s="308"/>
       <c r="E58" s="175"/>
       <c r="F58" s="176"/>
       <c r="G58" s="195" t="s">
@@ -22457,9 +22501,9 @@
     </row>
     <row r="59" spans="1:13" ht="46.5" customHeight="1" thickBot="1">
       <c r="A59" s="174"/>
-      <c r="B59" s="313"/>
-      <c r="C59" s="309"/>
-      <c r="D59" s="313"/>
+      <c r="B59" s="308"/>
+      <c r="C59" s="313"/>
+      <c r="D59" s="308"/>
       <c r="E59" s="175"/>
       <c r="F59" s="176"/>
       <c r="G59" s="195" t="s">
@@ -22480,9 +22524,9 @@
     </row>
     <row r="60" spans="1:13" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="174"/>
-      <c r="B60" s="313"/>
-      <c r="C60" s="309"/>
-      <c r="D60" s="313"/>
+      <c r="B60" s="308"/>
+      <c r="C60" s="313"/>
+      <c r="D60" s="308"/>
       <c r="E60" s="175"/>
       <c r="F60" s="176"/>
       <c r="G60" s="213" t="s">
@@ -22501,9 +22545,9 @@
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1">
       <c r="A61" s="174"/>
-      <c r="B61" s="313"/>
-      <c r="C61" s="309"/>
-      <c r="D61" s="313"/>
+      <c r="B61" s="308"/>
+      <c r="C61" s="313"/>
+      <c r="D61" s="308"/>
       <c r="E61" s="175"/>
       <c r="F61" s="176"/>
       <c r="G61" s="210" t="s">
@@ -22524,9 +22568,9 @@
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1">
       <c r="A62" s="174"/>
-      <c r="B62" s="313"/>
-      <c r="C62" s="309"/>
-      <c r="D62" s="313"/>
+      <c r="B62" s="308"/>
+      <c r="C62" s="313"/>
+      <c r="D62" s="308"/>
       <c r="E62" s="175"/>
       <c r="F62" s="176"/>
       <c r="G62" s="195" t="s">
@@ -22545,9 +22589,9 @@
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1">
       <c r="A63" s="174"/>
-      <c r="B63" s="313"/>
-      <c r="C63" s="309"/>
-      <c r="D63" s="313"/>
+      <c r="B63" s="308"/>
+      <c r="C63" s="313"/>
+      <c r="D63" s="308"/>
       <c r="E63" s="175"/>
       <c r="F63" s="176"/>
       <c r="G63" s="195" t="s">
@@ -22566,9 +22610,9 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="174"/>
-      <c r="B64" s="313"/>
-      <c r="C64" s="309"/>
-      <c r="D64" s="313"/>
+      <c r="B64" s="308"/>
+      <c r="C64" s="313"/>
+      <c r="D64" s="308"/>
       <c r="E64" s="175"/>
       <c r="F64" s="176"/>
       <c r="G64" s="208" t="s">
@@ -22587,9 +22631,9 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1">
       <c r="A65" s="174"/>
-      <c r="B65" s="313"/>
-      <c r="C65" s="309"/>
-      <c r="D65" s="313"/>
+      <c r="B65" s="308"/>
+      <c r="C65" s="313"/>
+      <c r="D65" s="308"/>
       <c r="E65" s="175"/>
       <c r="F65" s="176"/>
       <c r="G65" s="210" t="s">
@@ -22608,9 +22652,9 @@
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="174"/>
-      <c r="B66" s="314"/>
-      <c r="C66" s="310"/>
-      <c r="D66" s="314"/>
+      <c r="B66" s="309"/>
+      <c r="C66" s="314"/>
+      <c r="D66" s="309"/>
       <c r="E66" s="175"/>
       <c r="F66" s="176"/>
       <c r="G66" s="228" t="s">
@@ -22629,13 +22673,13 @@
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="174"/>
-      <c r="B67" s="312" t="s">
+      <c r="B67" s="307" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="308" t="s">
+      <c r="C67" s="312" t="s">
         <v>1373</v>
       </c>
-      <c r="D67" s="303" t="s">
+      <c r="D67" s="315" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="175"/>
@@ -22658,9 +22702,9 @@
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1">
       <c r="A68" s="174"/>
-      <c r="B68" s="313"/>
-      <c r="C68" s="309"/>
-      <c r="D68" s="304"/>
+      <c r="B68" s="308"/>
+      <c r="C68" s="313"/>
+      <c r="D68" s="317"/>
       <c r="E68" s="175"/>
       <c r="F68" s="176"/>
       <c r="G68" s="177" t="s">
@@ -22679,9 +22723,9 @@
     </row>
     <row r="69" spans="1:13" ht="14.25" customHeight="1">
       <c r="A69" s="174"/>
-      <c r="B69" s="313"/>
-      <c r="C69" s="309"/>
-      <c r="D69" s="305"/>
+      <c r="B69" s="308"/>
+      <c r="C69" s="313"/>
+      <c r="D69" s="316"/>
       <c r="E69" s="175"/>
       <c r="F69" s="176"/>
       <c r="G69" s="177" t="s">
@@ -22704,11 +22748,11 @@
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1">
       <c r="A70" s="174"/>
-      <c r="B70" s="313"/>
-      <c r="C70" s="308" t="s">
+      <c r="B70" s="308"/>
+      <c r="C70" s="312" t="s">
         <v>1376</v>
       </c>
-      <c r="D70" s="303" t="s">
+      <c r="D70" s="315" t="s">
         <v>1377</v>
       </c>
       <c r="E70" s="175"/>
@@ -22731,9 +22775,9 @@
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1">
       <c r="A71" s="174"/>
-      <c r="B71" s="313"/>
-      <c r="C71" s="309"/>
-      <c r="D71" s="304"/>
+      <c r="B71" s="308"/>
+      <c r="C71" s="313"/>
+      <c r="D71" s="317"/>
       <c r="E71" s="175"/>
       <c r="F71" s="176"/>
       <c r="G71" s="177" t="s">
@@ -22754,9 +22798,9 @@
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1">
       <c r="A72" s="174"/>
-      <c r="B72" s="313"/>
-      <c r="C72" s="309"/>
-      <c r="D72" s="304"/>
+      <c r="B72" s="308"/>
+      <c r="C72" s="313"/>
+      <c r="D72" s="317"/>
       <c r="E72" s="175"/>
       <c r="F72" s="176"/>
       <c r="G72" s="177" t="s">
@@ -22777,9 +22821,9 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1">
       <c r="A73" s="174"/>
-      <c r="B73" s="313"/>
-      <c r="C73" s="309"/>
-      <c r="D73" s="305"/>
+      <c r="B73" s="308"/>
+      <c r="C73" s="313"/>
+      <c r="D73" s="316"/>
       <c r="E73" s="175"/>
       <c r="F73" s="176"/>
       <c r="G73" s="177" t="s">
@@ -22800,8 +22844,8 @@
     </row>
     <row r="74" spans="1:13" ht="49.5">
       <c r="A74" s="174"/>
-      <c r="B74" s="313"/>
-      <c r="C74" s="309"/>
+      <c r="B74" s="308"/>
+      <c r="C74" s="313"/>
       <c r="D74" s="231" t="s">
         <v>5</v>
       </c>
@@ -22825,10 +22869,10 @@
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
       <c r="A75" s="232"/>
-      <c r="B75" s="303" t="s">
+      <c r="B75" s="315" t="s">
         <v>1383</v>
       </c>
-      <c r="C75" s="308" t="s">
+      <c r="C75" s="312" t="s">
         <v>1384</v>
       </c>
       <c r="D75" s="192" t="s">
@@ -22852,8 +22896,8 @@
     </row>
     <row r="76" spans="1:13" ht="14.25" customHeight="1">
       <c r="A76" s="232"/>
-      <c r="B76" s="304"/>
-      <c r="C76" s="309"/>
+      <c r="B76" s="317"/>
+      <c r="C76" s="313"/>
       <c r="D76" s="193" t="s">
         <v>1577</v>
       </c>
@@ -22875,8 +22919,8 @@
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
       <c r="A77" s="232"/>
-      <c r="B77" s="304"/>
-      <c r="C77" s="309"/>
+      <c r="B77" s="317"/>
+      <c r="C77" s="313"/>
       <c r="D77" s="193" t="s">
         <v>1579</v>
       </c>
@@ -22900,9 +22944,9 @@
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
       <c r="A78" s="232"/>
-      <c r="B78" s="304"/>
-      <c r="C78" s="309"/>
-      <c r="D78" s="303" t="s">
+      <c r="B78" s="317"/>
+      <c r="C78" s="313"/>
+      <c r="D78" s="315" t="s">
         <v>1590</v>
       </c>
       <c r="E78" s="175"/>
@@ -22921,9 +22965,9 @@
     </row>
     <row r="79" spans="1:13" ht="100.5" customHeight="1">
       <c r="A79" s="232"/>
-      <c r="B79" s="304"/>
-      <c r="C79" s="309"/>
-      <c r="D79" s="304"/>
+      <c r="B79" s="317"/>
+      <c r="C79" s="313"/>
+      <c r="D79" s="317"/>
       <c r="E79" s="175"/>
       <c r="F79" s="176"/>
       <c r="G79" s="177" t="s">
@@ -22946,9 +22990,9 @@
     </row>
     <row r="80" spans="1:13" ht="91.5" customHeight="1">
       <c r="A80" s="232"/>
-      <c r="B80" s="304"/>
-      <c r="C80" s="309"/>
-      <c r="D80" s="305"/>
+      <c r="B80" s="317"/>
+      <c r="C80" s="313"/>
+      <c r="D80" s="316"/>
       <c r="E80" s="175"/>
       <c r="F80" s="176"/>
       <c r="G80" s="177" t="s">
@@ -22969,9 +23013,9 @@
     </row>
     <row r="81" spans="1:13" ht="14.25" customHeight="1">
       <c r="A81" s="232"/>
-      <c r="B81" s="304"/>
-      <c r="C81" s="309"/>
-      <c r="D81" s="303" t="s">
+      <c r="B81" s="317"/>
+      <c r="C81" s="313"/>
+      <c r="D81" s="315" t="s">
         <v>1387</v>
       </c>
       <c r="E81" s="175"/>
@@ -22996,9 +23040,9 @@
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
       <c r="A82" s="232"/>
-      <c r="B82" s="304"/>
-      <c r="C82" s="309"/>
-      <c r="D82" s="304"/>
+      <c r="B82" s="317"/>
+      <c r="C82" s="313"/>
+      <c r="D82" s="317"/>
       <c r="E82" s="175"/>
       <c r="F82" s="176"/>
       <c r="G82" s="177" t="s">
@@ -23019,9 +23063,9 @@
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1">
       <c r="A83" s="232"/>
-      <c r="B83" s="304"/>
-      <c r="C83" s="309"/>
-      <c r="D83" s="304"/>
+      <c r="B83" s="317"/>
+      <c r="C83" s="313"/>
+      <c r="D83" s="317"/>
       <c r="E83" s="175"/>
       <c r="F83" s="176"/>
       <c r="G83" s="177" t="s">
@@ -23042,9 +23086,9 @@
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1">
       <c r="A84" s="232"/>
-      <c r="B84" s="304"/>
-      <c r="C84" s="309"/>
-      <c r="D84" s="304"/>
+      <c r="B84" s="317"/>
+      <c r="C84" s="313"/>
+      <c r="D84" s="317"/>
       <c r="E84" s="175"/>
       <c r="F84" s="176"/>
       <c r="G84" s="177" t="s">
@@ -23065,9 +23109,9 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1">
       <c r="A85" s="232"/>
-      <c r="B85" s="304"/>
-      <c r="C85" s="309"/>
-      <c r="D85" s="305"/>
+      <c r="B85" s="317"/>
+      <c r="C85" s="313"/>
+      <c r="D85" s="316"/>
       <c r="E85" s="175"/>
       <c r="F85" s="176"/>
       <c r="G85" s="177" t="s">
@@ -23088,9 +23132,9 @@
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1">
       <c r="A86" s="232"/>
-      <c r="B86" s="304"/>
-      <c r="C86" s="309"/>
-      <c r="D86" s="303" t="s">
+      <c r="B86" s="317"/>
+      <c r="C86" s="313"/>
+      <c r="D86" s="315" t="s">
         <v>1394</v>
       </c>
       <c r="E86" s="175"/>
@@ -23115,9 +23159,9 @@
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1">
       <c r="A87" s="232"/>
-      <c r="B87" s="304"/>
-      <c r="C87" s="309"/>
-      <c r="D87" s="305"/>
+      <c r="B87" s="317"/>
+      <c r="C87" s="313"/>
+      <c r="D87" s="316"/>
       <c r="E87" s="175"/>
       <c r="F87" s="176"/>
       <c r="G87" s="177" t="s">
@@ -23138,8 +23182,8 @@
     </row>
     <row r="88" spans="1:13" ht="64.5" customHeight="1">
       <c r="A88" s="232"/>
-      <c r="B88" s="304"/>
-      <c r="C88" s="309"/>
+      <c r="B88" s="317"/>
+      <c r="C88" s="313"/>
       <c r="D88" s="192" t="s">
         <v>1</v>
       </c>
@@ -23165,9 +23209,9 @@
     </row>
     <row r="89" spans="1:13" ht="57" customHeight="1">
       <c r="A89" s="232"/>
-      <c r="B89" s="304"/>
-      <c r="C89" s="309"/>
-      <c r="D89" s="303" t="s">
+      <c r="B89" s="317"/>
+      <c r="C89" s="313"/>
+      <c r="D89" s="315" t="s">
         <v>1398</v>
       </c>
       <c r="E89" s="175"/>
@@ -23190,9 +23234,9 @@
     </row>
     <row r="90" spans="1:13" ht="49.5">
       <c r="A90" s="232"/>
-      <c r="B90" s="304"/>
-      <c r="C90" s="309"/>
-      <c r="D90" s="304"/>
+      <c r="B90" s="317"/>
+      <c r="C90" s="313"/>
+      <c r="D90" s="317"/>
       <c r="E90" s="175"/>
       <c r="F90" s="176"/>
       <c r="G90" s="177" t="s">
@@ -23213,9 +23257,9 @@
     </row>
     <row r="91" spans="1:13" ht="49.5">
       <c r="A91" s="232"/>
-      <c r="B91" s="304"/>
-      <c r="C91" s="309"/>
-      <c r="D91" s="304"/>
+      <c r="B91" s="317"/>
+      <c r="C91" s="313"/>
+      <c r="D91" s="317"/>
       <c r="E91" s="175"/>
       <c r="F91" s="176"/>
       <c r="G91" s="177" t="s">
@@ -23236,9 +23280,9 @@
     </row>
     <row r="92" spans="1:13" ht="49.5">
       <c r="A92" s="232"/>
-      <c r="B92" s="304"/>
-      <c r="C92" s="309"/>
-      <c r="D92" s="304"/>
+      <c r="B92" s="317"/>
+      <c r="C92" s="313"/>
+      <c r="D92" s="317"/>
       <c r="E92" s="175"/>
       <c r="F92" s="176"/>
       <c r="G92" s="177" t="s">
@@ -23259,9 +23303,9 @@
     </row>
     <row r="93" spans="1:13" ht="49.5">
       <c r="A93" s="232"/>
-      <c r="B93" s="304"/>
-      <c r="C93" s="309"/>
-      <c r="D93" s="305"/>
+      <c r="B93" s="317"/>
+      <c r="C93" s="313"/>
+      <c r="D93" s="316"/>
       <c r="E93" s="175"/>
       <c r="F93" s="176"/>
       <c r="G93" s="177" t="s">
@@ -23282,9 +23326,9 @@
     </row>
     <row r="94" spans="1:13" ht="16.5" customHeight="1">
       <c r="A94" s="232"/>
-      <c r="B94" s="304"/>
-      <c r="C94" s="309"/>
-      <c r="D94" s="303" t="s">
+      <c r="B94" s="317"/>
+      <c r="C94" s="313"/>
+      <c r="D94" s="315" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="175"/>
@@ -23307,9 +23351,9 @@
     </row>
     <row r="95" spans="1:13" ht="214.5">
       <c r="A95" s="232"/>
-      <c r="B95" s="304"/>
-      <c r="C95" s="309"/>
-      <c r="D95" s="304"/>
+      <c r="B95" s="317"/>
+      <c r="C95" s="313"/>
+      <c r="D95" s="317"/>
       <c r="E95" s="175"/>
       <c r="F95" s="176"/>
       <c r="G95" s="177" t="s">
@@ -23332,9 +23376,9 @@
     </row>
     <row r="96" spans="1:13" ht="30" customHeight="1">
       <c r="A96" s="232"/>
-      <c r="B96" s="304"/>
-      <c r="C96" s="309"/>
-      <c r="D96" s="305"/>
+      <c r="B96" s="317"/>
+      <c r="C96" s="313"/>
+      <c r="D96" s="316"/>
       <c r="E96" s="175"/>
       <c r="F96" s="176"/>
       <c r="G96" s="177" t="s">
@@ -23353,9 +23397,9 @@
     </row>
     <row r="97" spans="1:13" ht="131.25" customHeight="1">
       <c r="A97" s="232"/>
-      <c r="B97" s="304"/>
-      <c r="C97" s="309"/>
-      <c r="D97" s="303" t="s">
+      <c r="B97" s="317"/>
+      <c r="C97" s="313"/>
+      <c r="D97" s="315" t="s">
         <v>1406</v>
       </c>
       <c r="E97" s="175"/>
@@ -23378,9 +23422,9 @@
     </row>
     <row r="98" spans="1:13" ht="14.25" customHeight="1">
       <c r="A98" s="232"/>
-      <c r="B98" s="304"/>
-      <c r="C98" s="309"/>
-      <c r="D98" s="305"/>
+      <c r="B98" s="317"/>
+      <c r="C98" s="313"/>
+      <c r="D98" s="316"/>
       <c r="E98" s="175"/>
       <c r="F98" s="176"/>
       <c r="G98" s="177" t="s">
@@ -23399,9 +23443,9 @@
     </row>
     <row r="99" spans="1:13" s="161" customFormat="1" ht="214.5">
       <c r="A99" s="272"/>
-      <c r="B99" s="304"/>
-      <c r="C99" s="309"/>
-      <c r="D99" s="328" t="s">
+      <c r="B99" s="317"/>
+      <c r="C99" s="313"/>
+      <c r="D99" s="330" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="183"/>
@@ -23422,9 +23466,9 @@
     </row>
     <row r="100" spans="1:13" s="278" customFormat="1" ht="33">
       <c r="A100" s="273"/>
-      <c r="B100" s="304"/>
-      <c r="C100" s="310"/>
-      <c r="D100" s="328"/>
+      <c r="B100" s="317"/>
+      <c r="C100" s="314"/>
+      <c r="D100" s="330"/>
       <c r="E100" s="270"/>
       <c r="F100" s="274"/>
       <c r="G100" s="195" t="s">
@@ -23447,11 +23491,11 @@
     </row>
     <row r="101" spans="1:13" ht="14.25" customHeight="1">
       <c r="A101" s="232"/>
-      <c r="B101" s="304"/>
-      <c r="C101" s="308" t="s">
+      <c r="B101" s="317"/>
+      <c r="C101" s="312" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="304" t="s">
+      <c r="D101" s="317" t="s">
         <v>1589</v>
       </c>
       <c r="E101" s="175"/>
@@ -23472,9 +23516,9 @@
     </row>
     <row r="102" spans="1:13" ht="14.25" customHeight="1">
       <c r="A102" s="232"/>
-      <c r="B102" s="304"/>
-      <c r="C102" s="309"/>
-      <c r="D102" s="305"/>
+      <c r="B102" s="317"/>
+      <c r="C102" s="313"/>
+      <c r="D102" s="316"/>
       <c r="E102" s="175"/>
       <c r="F102" s="176"/>
       <c r="G102" s="177" t="s">
@@ -23493,8 +23537,8 @@
     </row>
     <row r="103" spans="1:13" ht="14.1" customHeight="1">
       <c r="A103" s="232"/>
-      <c r="B103" s="304"/>
-      <c r="C103" s="309"/>
+      <c r="B103" s="317"/>
+      <c r="C103" s="313"/>
       <c r="D103" s="192" t="s">
         <v>1412</v>
       </c>
@@ -23516,9 +23560,9 @@
     </row>
     <row r="104" spans="1:13" ht="66">
       <c r="A104" s="232"/>
-      <c r="B104" s="304"/>
-      <c r="C104" s="309"/>
-      <c r="D104" s="303" t="s">
+      <c r="B104" s="317"/>
+      <c r="C104" s="313"/>
+      <c r="D104" s="315" t="s">
         <v>1600</v>
       </c>
       <c r="E104" s="175"/>
@@ -23543,9 +23587,9 @@
     </row>
     <row r="105" spans="1:13" ht="14.25" customHeight="1">
       <c r="A105" s="232"/>
-      <c r="B105" s="304"/>
-      <c r="C105" s="309"/>
-      <c r="D105" s="304"/>
+      <c r="B105" s="317"/>
+      <c r="C105" s="313"/>
+      <c r="D105" s="317"/>
       <c r="E105" s="175"/>
       <c r="F105" s="176"/>
       <c r="G105" s="177" t="s">
@@ -23564,9 +23608,9 @@
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
       <c r="A106" s="232"/>
-      <c r="B106" s="304"/>
-      <c r="C106" s="309"/>
-      <c r="D106" s="304"/>
+      <c r="B106" s="317"/>
+      <c r="C106" s="313"/>
+      <c r="D106" s="317"/>
       <c r="E106" s="175"/>
       <c r="F106" s="176"/>
       <c r="G106" s="177" t="s">
@@ -23585,9 +23629,9 @@
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
       <c r="A107" s="232"/>
-      <c r="B107" s="304"/>
-      <c r="C107" s="309"/>
-      <c r="D107" s="305"/>
+      <c r="B107" s="317"/>
+      <c r="C107" s="313"/>
+      <c r="D107" s="316"/>
       <c r="E107" s="175"/>
       <c r="F107" s="176"/>
       <c r="G107" s="177" t="s">
@@ -23606,8 +23650,8 @@
     </row>
     <row r="108" spans="1:13" ht="14.25" customHeight="1">
       <c r="A108" s="232"/>
-      <c r="B108" s="304"/>
-      <c r="C108" s="309"/>
+      <c r="B108" s="317"/>
+      <c r="C108" s="313"/>
       <c r="D108" s="192" t="s">
         <v>1385</v>
       </c>
@@ -23629,8 +23673,8 @@
     </row>
     <row r="109" spans="1:13" ht="14.25" customHeight="1">
       <c r="A109" s="232"/>
-      <c r="B109" s="304"/>
-      <c r="C109" s="309"/>
+      <c r="B109" s="317"/>
+      <c r="C109" s="313"/>
       <c r="D109" s="300" t="s">
         <v>3039</v>
       </c>
@@ -23648,9 +23692,9 @@
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
       <c r="A110" s="232"/>
-      <c r="B110" s="304"/>
-      <c r="C110" s="309"/>
-      <c r="D110" s="303" t="s">
+      <c r="B110" s="317"/>
+      <c r="C110" s="313"/>
+      <c r="D110" s="315" t="s">
         <v>1413</v>
       </c>
       <c r="E110" s="175"/>
@@ -23673,9 +23717,9 @@
     </row>
     <row r="111" spans="1:13" ht="14.25" customHeight="1">
       <c r="A111" s="232"/>
-      <c r="B111" s="304"/>
-      <c r="C111" s="309"/>
-      <c r="D111" s="305"/>
+      <c r="B111" s="317"/>
+      <c r="C111" s="313"/>
+      <c r="D111" s="316"/>
       <c r="E111" s="175"/>
       <c r="F111" s="176"/>
       <c r="G111" s="177" t="s">
@@ -23696,9 +23740,9 @@
     </row>
     <row r="112" spans="1:13" ht="14.25" customHeight="1">
       <c r="A112" s="232"/>
-      <c r="B112" s="304"/>
-      <c r="C112" s="309"/>
-      <c r="D112" s="325" t="s">
+      <c r="B112" s="317"/>
+      <c r="C112" s="313"/>
+      <c r="D112" s="327" t="s">
         <v>1418</v>
       </c>
       <c r="E112" s="175"/>
@@ -23719,9 +23763,9 @@
     </row>
     <row r="113" spans="1:13" ht="14.25" customHeight="1">
       <c r="A113" s="232"/>
-      <c r="B113" s="304"/>
-      <c r="C113" s="309"/>
-      <c r="D113" s="326"/>
+      <c r="B113" s="317"/>
+      <c r="C113" s="313"/>
+      <c r="D113" s="328"/>
       <c r="E113" s="175"/>
       <c r="F113" s="176"/>
       <c r="G113" s="177" t="s">
@@ -23740,9 +23784,9 @@
     </row>
     <row r="114" spans="1:13" ht="14.25" customHeight="1">
       <c r="A114" s="232"/>
-      <c r="B114" s="304"/>
-      <c r="C114" s="309"/>
-      <c r="D114" s="327"/>
+      <c r="B114" s="317"/>
+      <c r="C114" s="313"/>
+      <c r="D114" s="329"/>
       <c r="E114" s="175"/>
       <c r="F114" s="176"/>
       <c r="G114" s="177" t="s">
@@ -23761,8 +23805,8 @@
     </row>
     <row r="115" spans="1:13" ht="14.25" customHeight="1">
       <c r="A115" s="232"/>
-      <c r="B115" s="304"/>
-      <c r="C115" s="309"/>
+      <c r="B115" s="317"/>
+      <c r="C115" s="313"/>
       <c r="D115" s="192" t="s">
         <v>9</v>
       </c>
@@ -23784,9 +23828,9 @@
     </row>
     <row r="116" spans="1:13" ht="33">
       <c r="A116" s="232"/>
-      <c r="B116" s="304"/>
-      <c r="C116" s="309"/>
-      <c r="D116" s="303" t="s">
+      <c r="B116" s="317"/>
+      <c r="C116" s="313"/>
+      <c r="D116" s="315" t="s">
         <v>1421</v>
       </c>
       <c r="E116" s="175"/>
@@ -23809,9 +23853,9 @@
     </row>
     <row r="117" spans="1:13" ht="14.25" customHeight="1">
       <c r="A117" s="232"/>
-      <c r="B117" s="304"/>
-      <c r="C117" s="309"/>
-      <c r="D117" s="304"/>
+      <c r="B117" s="317"/>
+      <c r="C117" s="313"/>
+      <c r="D117" s="317"/>
       <c r="E117" s="175"/>
       <c r="F117" s="176"/>
       <c r="G117" s="177" t="s">
@@ -23830,9 +23874,9 @@
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
       <c r="A118" s="232"/>
-      <c r="B118" s="304"/>
-      <c r="C118" s="310"/>
-      <c r="D118" s="305"/>
+      <c r="B118" s="317"/>
+      <c r="C118" s="314"/>
+      <c r="D118" s="316"/>
       <c r="E118" s="175"/>
       <c r="F118" s="176"/>
       <c r="G118" s="177" t="s">
@@ -23853,11 +23897,11 @@
     </row>
     <row r="119" spans="1:13" ht="14.25" customHeight="1">
       <c r="A119" s="232"/>
-      <c r="B119" s="304"/>
-      <c r="C119" s="308" t="s">
+      <c r="B119" s="317"/>
+      <c r="C119" s="312" t="s">
         <v>1427</v>
       </c>
-      <c r="D119" s="303" t="s">
+      <c r="D119" s="315" t="s">
         <v>1428</v>
       </c>
       <c r="E119" s="175"/>
@@ -23878,9 +23922,9 @@
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
       <c r="A120" s="232"/>
-      <c r="B120" s="304"/>
-      <c r="C120" s="309"/>
-      <c r="D120" s="305"/>
+      <c r="B120" s="317"/>
+      <c r="C120" s="313"/>
+      <c r="D120" s="316"/>
       <c r="E120" s="175"/>
       <c r="F120" s="176"/>
       <c r="G120" s="177" t="s">
@@ -23901,8 +23945,8 @@
     </row>
     <row r="121" spans="1:13" ht="14.25" customHeight="1">
       <c r="A121" s="181"/>
-      <c r="B121" s="304"/>
-      <c r="C121" s="309"/>
+      <c r="B121" s="317"/>
+      <c r="C121" s="313"/>
       <c r="D121" s="192" t="s">
         <v>1431</v>
       </c>
@@ -23926,8 +23970,8 @@
     </row>
     <row r="122" spans="1:13" ht="14.25" customHeight="1">
       <c r="A122" s="181"/>
-      <c r="B122" s="304"/>
-      <c r="C122" s="309"/>
+      <c r="B122" s="317"/>
+      <c r="C122" s="313"/>
       <c r="D122" s="192" t="s">
         <v>1434</v>
       </c>
@@ -23949,8 +23993,8 @@
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
       <c r="A123" s="181"/>
-      <c r="B123" s="304"/>
-      <c r="C123" s="309"/>
+      <c r="B123" s="317"/>
+      <c r="C123" s="313"/>
       <c r="D123" s="242" t="s">
         <v>1436</v>
       </c>
@@ -23974,9 +24018,9 @@
     </row>
     <row r="124" spans="1:13" ht="14.25" customHeight="1">
       <c r="A124" s="181"/>
-      <c r="B124" s="304"/>
-      <c r="C124" s="309"/>
-      <c r="D124" s="303" t="s">
+      <c r="B124" s="317"/>
+      <c r="C124" s="313"/>
+      <c r="D124" s="315" t="s">
         <v>171</v>
       </c>
       <c r="E124" s="175"/>
@@ -23997,9 +24041,9 @@
     </row>
     <row r="125" spans="1:13" ht="14.25" customHeight="1">
       <c r="A125" s="181"/>
-      <c r="B125" s="304"/>
-      <c r="C125" s="309"/>
-      <c r="D125" s="304"/>
+      <c r="B125" s="317"/>
+      <c r="C125" s="313"/>
+      <c r="D125" s="317"/>
       <c r="E125" s="175"/>
       <c r="F125" s="176"/>
       <c r="G125" s="177" t="s">
@@ -24020,9 +24064,9 @@
     </row>
     <row r="126" spans="1:13" ht="14.25" customHeight="1">
       <c r="A126" s="181"/>
-      <c r="B126" s="304"/>
-      <c r="C126" s="309"/>
-      <c r="D126" s="304"/>
+      <c r="B126" s="317"/>
+      <c r="C126" s="313"/>
+      <c r="D126" s="317"/>
       <c r="E126" s="175"/>
       <c r="F126" s="176"/>
       <c r="G126" s="177" t="s">
@@ -24041,9 +24085,9 @@
     </row>
     <row r="127" spans="1:13" ht="14.25" customHeight="1">
       <c r="A127" s="181"/>
-      <c r="B127" s="304"/>
-      <c r="C127" s="309"/>
-      <c r="D127" s="305"/>
+      <c r="B127" s="317"/>
+      <c r="C127" s="313"/>
+      <c r="D127" s="316"/>
       <c r="E127" s="175"/>
       <c r="F127" s="176"/>
       <c r="G127" s="177" t="s">
@@ -24064,9 +24108,9 @@
     </row>
     <row r="128" spans="1:13" ht="14.25" customHeight="1">
       <c r="A128" s="181"/>
-      <c r="B128" s="304"/>
-      <c r="C128" s="309"/>
-      <c r="D128" s="306" t="s">
+      <c r="B128" s="317"/>
+      <c r="C128" s="313"/>
+      <c r="D128" s="332" t="s">
         <v>1438</v>
       </c>
       <c r="E128" s="175"/>
@@ -24087,9 +24131,9 @@
     </row>
     <row r="129" spans="1:13" ht="14.25" customHeight="1">
       <c r="A129" s="181"/>
-      <c r="B129" s="304"/>
-      <c r="C129" s="309"/>
-      <c r="D129" s="307"/>
+      <c r="B129" s="317"/>
+      <c r="C129" s="313"/>
+      <c r="D129" s="335"/>
       <c r="E129" s="175"/>
       <c r="F129" s="176"/>
       <c r="G129" s="177" t="s">
@@ -24112,9 +24156,9 @@
     </row>
     <row r="130" spans="1:13" ht="14.25" customHeight="1">
       <c r="A130" s="181"/>
-      <c r="B130" s="304"/>
-      <c r="C130" s="309"/>
-      <c r="D130" s="303" t="s">
+      <c r="B130" s="317"/>
+      <c r="C130" s="313"/>
+      <c r="D130" s="315" t="s">
         <v>1441</v>
       </c>
       <c r="E130" s="175"/>
@@ -24135,9 +24179,9 @@
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
       <c r="A131" s="181"/>
-      <c r="B131" s="304"/>
-      <c r="C131" s="309"/>
-      <c r="D131" s="304"/>
+      <c r="B131" s="317"/>
+      <c r="C131" s="313"/>
+      <c r="D131" s="317"/>
       <c r="E131" s="175"/>
       <c r="F131" s="176"/>
       <c r="G131" s="197" t="s">
@@ -24156,9 +24200,9 @@
     </row>
     <row r="132" spans="1:13" ht="14.25" customHeight="1">
       <c r="A132" s="181"/>
-      <c r="B132" s="304"/>
-      <c r="C132" s="309"/>
-      <c r="D132" s="305"/>
+      <c r="B132" s="317"/>
+      <c r="C132" s="313"/>
+      <c r="D132" s="316"/>
       <c r="E132" s="175"/>
       <c r="F132" s="176"/>
       <c r="G132" s="177" t="s">
@@ -24175,9 +24219,9 @@
     </row>
     <row r="133" spans="1:13" ht="51.75" customHeight="1">
       <c r="A133" s="181"/>
-      <c r="B133" s="304"/>
-      <c r="C133" s="309"/>
-      <c r="D133" s="316" t="s">
+      <c r="B133" s="317"/>
+      <c r="C133" s="313"/>
+      <c r="D133" s="334" t="s">
         <v>166</v>
       </c>
       <c r="E133" s="175"/>
@@ -24196,9 +24240,9 @@
     </row>
     <row r="134" spans="1:13" ht="14.25" customHeight="1">
       <c r="A134" s="181"/>
-      <c r="B134" s="304"/>
-      <c r="C134" s="309"/>
-      <c r="D134" s="316"/>
+      <c r="B134" s="317"/>
+      <c r="C134" s="313"/>
+      <c r="D134" s="334"/>
       <c r="E134" s="175"/>
       <c r="F134" s="176"/>
       <c r="G134" s="177" t="s">
@@ -24215,8 +24259,8 @@
     </row>
     <row r="135" spans="1:13" ht="14.25" customHeight="1">
       <c r="A135" s="181"/>
-      <c r="B135" s="304"/>
-      <c r="C135" s="309"/>
+      <c r="B135" s="317"/>
+      <c r="C135" s="313"/>
       <c r="D135" s="191" t="s">
         <v>170</v>
       </c>
@@ -24238,9 +24282,9 @@
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
       <c r="A136" s="181"/>
-      <c r="B136" s="304"/>
-      <c r="C136" s="309"/>
-      <c r="D136" s="303" t="s">
+      <c r="B136" s="317"/>
+      <c r="C136" s="313"/>
+      <c r="D136" s="315" t="s">
         <v>13</v>
       </c>
       <c r="E136" s="175"/>
@@ -24261,9 +24305,9 @@
     </row>
     <row r="137" spans="1:13" ht="14.25" customHeight="1">
       <c r="A137" s="181"/>
-      <c r="B137" s="304"/>
-      <c r="C137" s="309"/>
-      <c r="D137" s="304"/>
+      <c r="B137" s="317"/>
+      <c r="C137" s="313"/>
+      <c r="D137" s="317"/>
       <c r="E137" s="175"/>
       <c r="F137" s="176"/>
       <c r="G137" s="177" t="s">
@@ -24282,9 +24326,9 @@
     </row>
     <row r="138" spans="1:13" ht="14.25" customHeight="1">
       <c r="A138" s="181"/>
-      <c r="B138" s="304"/>
-      <c r="C138" s="309"/>
-      <c r="D138" s="304"/>
+      <c r="B138" s="317"/>
+      <c r="C138" s="313"/>
+      <c r="D138" s="317"/>
       <c r="E138" s="175"/>
       <c r="F138" s="176"/>
       <c r="G138" s="177" t="s">
@@ -24303,9 +24347,9 @@
     </row>
     <row r="139" spans="1:13" ht="14.25" customHeight="1">
       <c r="A139" s="181"/>
-      <c r="B139" s="304"/>
-      <c r="C139" s="309"/>
-      <c r="D139" s="304"/>
+      <c r="B139" s="317"/>
+      <c r="C139" s="313"/>
+      <c r="D139" s="317"/>
       <c r="E139" s="175"/>
       <c r="F139" s="176"/>
       <c r="G139" s="177" t="s">
@@ -24324,9 +24368,9 @@
     </row>
     <row r="140" spans="1:13" ht="14.25" customHeight="1">
       <c r="A140" s="181"/>
-      <c r="B140" s="304"/>
-      <c r="C140" s="309"/>
-      <c r="D140" s="304"/>
+      <c r="B140" s="317"/>
+      <c r="C140" s="313"/>
+      <c r="D140" s="317"/>
       <c r="E140" s="175"/>
       <c r="F140" s="176"/>
       <c r="G140" s="177" t="s">
@@ -24345,9 +24389,9 @@
     </row>
     <row r="141" spans="1:13" ht="14.25" customHeight="1">
       <c r="A141" s="181"/>
-      <c r="B141" s="304"/>
-      <c r="C141" s="309"/>
-      <c r="D141" s="304"/>
+      <c r="B141" s="317"/>
+      <c r="C141" s="313"/>
+      <c r="D141" s="317"/>
       <c r="E141" s="175"/>
       <c r="F141" s="176"/>
       <c r="G141" s="177" t="s">
@@ -24366,9 +24410,9 @@
     </row>
     <row r="142" spans="1:13" ht="14.25" customHeight="1">
       <c r="A142" s="181"/>
-      <c r="B142" s="304"/>
-      <c r="C142" s="309"/>
-      <c r="D142" s="304"/>
+      <c r="B142" s="317"/>
+      <c r="C142" s="313"/>
+      <c r="D142" s="317"/>
       <c r="E142" s="175"/>
       <c r="F142" s="176"/>
       <c r="G142" s="177" t="s">
@@ -24387,9 +24431,9 @@
     </row>
     <row r="143" spans="1:13" ht="14.25" customHeight="1">
       <c r="A143" s="181"/>
-      <c r="B143" s="304"/>
-      <c r="C143" s="310"/>
-      <c r="D143" s="305"/>
+      <c r="B143" s="317"/>
+      <c r="C143" s="314"/>
+      <c r="D143" s="316"/>
       <c r="E143" s="175"/>
       <c r="F143" s="176"/>
       <c r="G143" s="177" t="s">
@@ -24408,11 +24452,11 @@
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
       <c r="A144" s="181"/>
-      <c r="B144" s="304"/>
-      <c r="C144" s="308" t="s">
+      <c r="B144" s="317"/>
+      <c r="C144" s="312" t="s">
         <v>18</v>
       </c>
-      <c r="D144" s="303" t="s">
+      <c r="D144" s="315" t="s">
         <v>19</v>
       </c>
       <c r="E144" s="175"/>
@@ -24433,9 +24477,9 @@
     </row>
     <row r="145" spans="1:13" ht="14.25" customHeight="1">
       <c r="A145" s="181"/>
-      <c r="B145" s="304"/>
-      <c r="C145" s="309"/>
-      <c r="D145" s="304"/>
+      <c r="B145" s="317"/>
+      <c r="C145" s="313"/>
+      <c r="D145" s="317"/>
       <c r="E145" s="175"/>
       <c r="F145" s="176"/>
       <c r="G145" s="177" t="s">
@@ -24454,9 +24498,9 @@
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
       <c r="A146" s="181"/>
-      <c r="B146" s="304"/>
-      <c r="C146" s="309"/>
-      <c r="D146" s="305"/>
+      <c r="B146" s="317"/>
+      <c r="C146" s="313"/>
+      <c r="D146" s="316"/>
       <c r="E146" s="175"/>
       <c r="F146" s="176"/>
       <c r="G146" s="177" t="s">
@@ -24475,9 +24519,9 @@
     </row>
     <row r="147" spans="1:13" ht="14.25" customHeight="1">
       <c r="A147" s="181"/>
-      <c r="B147" s="304"/>
-      <c r="C147" s="309"/>
-      <c r="D147" s="303" t="s">
+      <c r="B147" s="317"/>
+      <c r="C147" s="313"/>
+      <c r="D147" s="315" t="s">
         <v>21</v>
       </c>
       <c r="E147" s="175"/>
@@ -24498,9 +24542,9 @@
     </row>
     <row r="148" spans="1:13" ht="14.25" customHeight="1">
       <c r="A148" s="181"/>
-      <c r="B148" s="304"/>
-      <c r="C148" s="309"/>
-      <c r="D148" s="305"/>
+      <c r="B148" s="317"/>
+      <c r="C148" s="313"/>
+      <c r="D148" s="316"/>
       <c r="E148" s="175"/>
       <c r="F148" s="176"/>
       <c r="G148" s="177" t="s">
@@ -24519,8 +24563,8 @@
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
       <c r="A149" s="181"/>
-      <c r="B149" s="304"/>
-      <c r="C149" s="310"/>
+      <c r="B149" s="317"/>
+      <c r="C149" s="314"/>
       <c r="D149" s="192" t="s">
         <v>27</v>
       </c>
@@ -24542,11 +24586,11 @@
     </row>
     <row r="150" spans="1:13" ht="14.25" customHeight="1">
       <c r="A150" s="181"/>
-      <c r="B150" s="304"/>
-      <c r="C150" s="308" t="s">
+      <c r="B150" s="317"/>
+      <c r="C150" s="312" t="s">
         <v>29</v>
       </c>
-      <c r="D150" s="303" t="s">
+      <c r="D150" s="315" t="s">
         <v>30</v>
       </c>
       <c r="E150" s="175"/>
@@ -24567,9 +24611,9 @@
     </row>
     <row r="151" spans="1:13" ht="14.25" customHeight="1">
       <c r="A151" s="181"/>
-      <c r="B151" s="304"/>
-      <c r="C151" s="309"/>
-      <c r="D151" s="304"/>
+      <c r="B151" s="317"/>
+      <c r="C151" s="313"/>
+      <c r="D151" s="317"/>
       <c r="E151" s="175"/>
       <c r="F151" s="176"/>
       <c r="G151" s="177" t="s">
@@ -24588,9 +24632,9 @@
     </row>
     <row r="152" spans="1:13" ht="14.25" customHeight="1">
       <c r="A152" s="181"/>
-      <c r="B152" s="304"/>
-      <c r="C152" s="309"/>
-      <c r="D152" s="304"/>
+      <c r="B152" s="317"/>
+      <c r="C152" s="313"/>
+      <c r="D152" s="317"/>
       <c r="E152" s="175"/>
       <c r="F152" s="176"/>
       <c r="G152" s="177" t="s">
@@ -24609,9 +24653,9 @@
     </row>
     <row r="153" spans="1:13" ht="14.25" customHeight="1">
       <c r="A153" s="181"/>
-      <c r="B153" s="304"/>
-      <c r="C153" s="309"/>
-      <c r="D153" s="305"/>
+      <c r="B153" s="317"/>
+      <c r="C153" s="313"/>
+      <c r="D153" s="316"/>
       <c r="E153" s="175"/>
       <c r="F153" s="176"/>
       <c r="G153" s="177" t="s">
@@ -24628,9 +24672,9 @@
     </row>
     <row r="154" spans="1:13" ht="14.25" customHeight="1">
       <c r="A154" s="181"/>
-      <c r="B154" s="304"/>
-      <c r="C154" s="309"/>
-      <c r="D154" s="306" t="s">
+      <c r="B154" s="317"/>
+      <c r="C154" s="313"/>
+      <c r="D154" s="332" t="s">
         <v>35</v>
       </c>
       <c r="E154" s="244"/>
@@ -24653,9 +24697,9 @@
     </row>
     <row r="155" spans="1:13" ht="14.25" customHeight="1">
       <c r="A155" s="181"/>
-      <c r="B155" s="304"/>
-      <c r="C155" s="309"/>
-      <c r="D155" s="307"/>
+      <c r="B155" s="317"/>
+      <c r="C155" s="313"/>
+      <c r="D155" s="335"/>
       <c r="E155" s="244"/>
       <c r="F155" s="245"/>
       <c r="G155" s="177" t="s">
@@ -24674,8 +24718,8 @@
     </row>
     <row r="156" spans="1:13" ht="14.25" customHeight="1">
       <c r="A156" s="181"/>
-      <c r="B156" s="304"/>
-      <c r="C156" s="309"/>
+      <c r="B156" s="317"/>
+      <c r="C156" s="313"/>
       <c r="D156" s="192" t="s">
         <v>38</v>
       </c>
@@ -24697,8 +24741,8 @@
     </row>
     <row r="157" spans="1:13" ht="33">
       <c r="A157" s="181"/>
-      <c r="B157" s="304"/>
-      <c r="C157" s="309"/>
+      <c r="B157" s="317"/>
+      <c r="C157" s="313"/>
       <c r="D157" s="192" t="s">
         <v>40</v>
       </c>
@@ -24720,9 +24764,9 @@
     </row>
     <row r="158" spans="1:13" ht="14.25" customHeight="1">
       <c r="A158" s="181"/>
-      <c r="B158" s="304"/>
-      <c r="C158" s="309"/>
-      <c r="D158" s="303" t="s">
+      <c r="B158" s="317"/>
+      <c r="C158" s="313"/>
+      <c r="D158" s="315" t="s">
         <v>42</v>
       </c>
       <c r="E158" s="175"/>
@@ -24745,9 +24789,9 @@
     </row>
     <row r="159" spans="1:13" ht="14.25" customHeight="1">
       <c r="A159" s="181"/>
-      <c r="B159" s="304"/>
-      <c r="C159" s="309"/>
-      <c r="D159" s="304"/>
+      <c r="B159" s="317"/>
+      <c r="C159" s="313"/>
+      <c r="D159" s="317"/>
       <c r="E159" s="175"/>
       <c r="F159" s="176"/>
       <c r="G159" s="177" t="s">
@@ -24766,9 +24810,9 @@
     </row>
     <row r="160" spans="1:13" ht="33">
       <c r="A160" s="181"/>
-      <c r="B160" s="304"/>
-      <c r="C160" s="309"/>
-      <c r="D160" s="304"/>
+      <c r="B160" s="317"/>
+      <c r="C160" s="313"/>
+      <c r="D160" s="317"/>
       <c r="E160" s="175"/>
       <c r="F160" s="176"/>
       <c r="G160" s="177" t="s">
@@ -24787,9 +24831,9 @@
     </row>
     <row r="161" spans="1:13" ht="14.25" customHeight="1">
       <c r="A161" s="181"/>
-      <c r="B161" s="304"/>
-      <c r="C161" s="309"/>
-      <c r="D161" s="304"/>
+      <c r="B161" s="317"/>
+      <c r="C161" s="313"/>
+      <c r="D161" s="317"/>
       <c r="E161" s="175"/>
       <c r="F161" s="176"/>
       <c r="G161" s="177" t="s">
@@ -24808,9 +24852,9 @@
     </row>
     <row r="162" spans="1:13" s="297" customFormat="1" ht="14.25" customHeight="1">
       <c r="A162" s="289"/>
-      <c r="B162" s="304"/>
-      <c r="C162" s="309"/>
-      <c r="D162" s="304"/>
+      <c r="B162" s="317"/>
+      <c r="C162" s="313"/>
+      <c r="D162" s="317"/>
       <c r="E162" s="290"/>
       <c r="F162" s="291"/>
       <c r="G162" s="292" t="s">
@@ -24820,18 +24864,18 @@
         <v>2139</v>
       </c>
       <c r="I162" s="294"/>
-      <c r="J162" s="359" t="s">
+      <c r="J162" s="303" t="s">
         <v>2991</v>
       </c>
-      <c r="K162" s="359"/>
+      <c r="K162" s="303"/>
       <c r="L162" s="290"/>
       <c r="M162" s="289"/>
     </row>
     <row r="163" spans="1:13" ht="46.5" customHeight="1">
       <c r="A163" s="181"/>
-      <c r="B163" s="304"/>
-      <c r="C163" s="309"/>
-      <c r="D163" s="304"/>
+      <c r="B163" s="317"/>
+      <c r="C163" s="313"/>
+      <c r="D163" s="317"/>
       <c r="E163" s="175"/>
       <c r="F163" s="176"/>
       <c r="G163" s="177" t="s">
@@ -24850,9 +24894,9 @@
     </row>
     <row r="164" spans="1:13" ht="33">
       <c r="A164" s="181"/>
-      <c r="B164" s="304"/>
-      <c r="C164" s="309"/>
-      <c r="D164" s="304"/>
+      <c r="B164" s="317"/>
+      <c r="C164" s="313"/>
+      <c r="D164" s="317"/>
       <c r="E164" s="175"/>
       <c r="F164" s="176"/>
       <c r="G164" s="247" t="s">
@@ -24873,9 +24917,9 @@
     </row>
     <row r="165" spans="1:13" ht="14.25" customHeight="1">
       <c r="A165" s="181"/>
-      <c r="B165" s="304"/>
-      <c r="C165" s="309"/>
-      <c r="D165" s="304"/>
+      <c r="B165" s="317"/>
+      <c r="C165" s="313"/>
+      <c r="D165" s="317"/>
       <c r="E165" s="175"/>
       <c r="F165" s="176"/>
       <c r="G165" s="177" t="s">
@@ -24894,9 +24938,9 @@
     </row>
     <row r="166" spans="1:13" ht="14.25" customHeight="1">
       <c r="A166" s="181"/>
-      <c r="B166" s="304"/>
-      <c r="C166" s="309"/>
-      <c r="D166" s="304"/>
+      <c r="B166" s="317"/>
+      <c r="C166" s="313"/>
+      <c r="D166" s="317"/>
       <c r="E166" s="175"/>
       <c r="F166" s="176"/>
       <c r="G166" s="177" t="s">
@@ -24915,9 +24959,9 @@
     </row>
     <row r="167" spans="1:13" ht="33">
       <c r="A167" s="181"/>
-      <c r="B167" s="304"/>
-      <c r="C167" s="310"/>
-      <c r="D167" s="305"/>
+      <c r="B167" s="317"/>
+      <c r="C167" s="314"/>
+      <c r="D167" s="316"/>
       <c r="E167" s="175"/>
       <c r="F167" s="176"/>
       <c r="G167" s="177" t="s">
@@ -24936,11 +24980,11 @@
     </row>
     <row r="168" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A168" s="181"/>
-      <c r="B168" s="304"/>
-      <c r="C168" s="308" t="s">
+      <c r="B168" s="317"/>
+      <c r="C168" s="312" t="s">
         <v>53</v>
       </c>
-      <c r="D168" s="303" t="s">
+      <c r="D168" s="315" t="s">
         <v>106</v>
       </c>
       <c r="E168" s="175"/>
@@ -24957,9 +25001,9 @@
     </row>
     <row r="169" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A169" s="181"/>
-      <c r="B169" s="304"/>
-      <c r="C169" s="309"/>
-      <c r="D169" s="304"/>
+      <c r="B169" s="317"/>
+      <c r="C169" s="313"/>
+      <c r="D169" s="317"/>
       <c r="E169" s="175"/>
       <c r="F169" s="176"/>
       <c r="G169" s="177" t="s">
@@ -24974,9 +25018,9 @@
     </row>
     <row r="170" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A170" s="181"/>
-      <c r="B170" s="304"/>
-      <c r="C170" s="309"/>
-      <c r="D170" s="304"/>
+      <c r="B170" s="317"/>
+      <c r="C170" s="313"/>
+      <c r="D170" s="317"/>
       <c r="E170" s="175"/>
       <c r="F170" s="176"/>
       <c r="G170" s="177" t="s">
@@ -24991,9 +25035,9 @@
     </row>
     <row r="171" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A171" s="181"/>
-      <c r="B171" s="304"/>
-      <c r="C171" s="309"/>
-      <c r="D171" s="304"/>
+      <c r="B171" s="317"/>
+      <c r="C171" s="313"/>
+      <c r="D171" s="317"/>
       <c r="E171" s="175"/>
       <c r="F171" s="176"/>
       <c r="G171" s="177" t="s">
@@ -25008,9 +25052,9 @@
     </row>
     <row r="172" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A172" s="181"/>
-      <c r="B172" s="304"/>
-      <c r="C172" s="309"/>
-      <c r="D172" s="304"/>
+      <c r="B172" s="317"/>
+      <c r="C172" s="313"/>
+      <c r="D172" s="317"/>
       <c r="E172" s="175"/>
       <c r="F172" s="176"/>
       <c r="G172" s="177" t="s">
@@ -25025,9 +25069,9 @@
     </row>
     <row r="173" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="304"/>
-      <c r="C173" s="309"/>
-      <c r="D173" s="304"/>
+      <c r="B173" s="317"/>
+      <c r="C173" s="313"/>
+      <c r="D173" s="317"/>
       <c r="E173" s="175"/>
       <c r="F173" s="176"/>
       <c r="G173" s="177" t="s">
@@ -25042,9 +25086,9 @@
     </row>
     <row r="174" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A174" s="181"/>
-      <c r="B174" s="304"/>
-      <c r="C174" s="309"/>
-      <c r="D174" s="304"/>
+      <c r="B174" s="317"/>
+      <c r="C174" s="313"/>
+      <c r="D174" s="317"/>
       <c r="E174" s="175"/>
       <c r="F174" s="176"/>
       <c r="G174" s="177" t="s">
@@ -25059,9 +25103,9 @@
     </row>
     <row r="175" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A175" s="181"/>
-      <c r="B175" s="304"/>
-      <c r="C175" s="309"/>
-      <c r="D175" s="304"/>
+      <c r="B175" s="317"/>
+      <c r="C175" s="313"/>
+      <c r="D175" s="317"/>
       <c r="E175" s="175"/>
       <c r="F175" s="176"/>
       <c r="G175" s="177" t="s">
@@ -25076,9 +25120,9 @@
     </row>
     <row r="176" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A176" s="181"/>
-      <c r="B176" s="304"/>
-      <c r="C176" s="309"/>
-      <c r="D176" s="305"/>
+      <c r="B176" s="317"/>
+      <c r="C176" s="313"/>
+      <c r="D176" s="316"/>
       <c r="E176" s="175"/>
       <c r="F176" s="176"/>
       <c r="G176" s="177" t="s">
@@ -25093,9 +25137,9 @@
     </row>
     <row r="177" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A177" s="181"/>
-      <c r="B177" s="304"/>
-      <c r="C177" s="309"/>
-      <c r="D177" s="303" t="s">
+      <c r="B177" s="317"/>
+      <c r="C177" s="313"/>
+      <c r="D177" s="315" t="s">
         <v>108</v>
       </c>
       <c r="E177" s="175"/>
@@ -25112,9 +25156,9 @@
     </row>
     <row r="178" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A178" s="181"/>
-      <c r="B178" s="304"/>
-      <c r="C178" s="309"/>
-      <c r="D178" s="304"/>
+      <c r="B178" s="317"/>
+      <c r="C178" s="313"/>
+      <c r="D178" s="317"/>
       <c r="E178" s="175"/>
       <c r="F178" s="176"/>
       <c r="G178" s="177" t="s">
@@ -25129,9 +25173,9 @@
     </row>
     <row r="179" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A179" s="181"/>
-      <c r="B179" s="304"/>
-      <c r="C179" s="309"/>
-      <c r="D179" s="304"/>
+      <c r="B179" s="317"/>
+      <c r="C179" s="313"/>
+      <c r="D179" s="317"/>
       <c r="E179" s="175"/>
       <c r="F179" s="176"/>
       <c r="G179" s="177" t="s">
@@ -25146,9 +25190,9 @@
     </row>
     <row r="180" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A180" s="181"/>
-      <c r="B180" s="304"/>
-      <c r="C180" s="309"/>
-      <c r="D180" s="304"/>
+      <c r="B180" s="317"/>
+      <c r="C180" s="313"/>
+      <c r="D180" s="317"/>
       <c r="E180" s="175"/>
       <c r="F180" s="176"/>
       <c r="G180" s="177" t="s">
@@ -25163,9 +25207,9 @@
     </row>
     <row r="181" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A181" s="181"/>
-      <c r="B181" s="304"/>
-      <c r="C181" s="309"/>
-      <c r="D181" s="304"/>
+      <c r="B181" s="317"/>
+      <c r="C181" s="313"/>
+      <c r="D181" s="317"/>
       <c r="E181" s="175"/>
       <c r="F181" s="176"/>
       <c r="G181" s="177" t="s">
@@ -25180,9 +25224,9 @@
     </row>
     <row r="182" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A182" s="181"/>
-      <c r="B182" s="304"/>
-      <c r="C182" s="309"/>
-      <c r="D182" s="304"/>
+      <c r="B182" s="317"/>
+      <c r="C182" s="313"/>
+      <c r="D182" s="317"/>
       <c r="E182" s="175"/>
       <c r="F182" s="176"/>
       <c r="G182" s="177" t="s">
@@ -25197,9 +25241,9 @@
     </row>
     <row r="183" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A183" s="181"/>
-      <c r="B183" s="304"/>
-      <c r="C183" s="309"/>
-      <c r="D183" s="304"/>
+      <c r="B183" s="317"/>
+      <c r="C183" s="313"/>
+      <c r="D183" s="317"/>
       <c r="E183" s="175"/>
       <c r="F183" s="176"/>
       <c r="G183" s="177" t="s">
@@ -25214,9 +25258,9 @@
     </row>
     <row r="184" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A184" s="181"/>
-      <c r="B184" s="304"/>
-      <c r="C184" s="310"/>
-      <c r="D184" s="305"/>
+      <c r="B184" s="317"/>
+      <c r="C184" s="314"/>
+      <c r="D184" s="316"/>
       <c r="E184" s="175"/>
       <c r="F184" s="176"/>
       <c r="G184" s="177" t="s">
@@ -25231,8 +25275,8 @@
     </row>
     <row r="185" spans="1:13" ht="14.25" customHeight="1">
       <c r="A185" s="181"/>
-      <c r="B185" s="304"/>
-      <c r="C185" s="317" t="s">
+      <c r="B185" s="317"/>
+      <c r="C185" s="322" t="s">
         <v>54</v>
       </c>
       <c r="D185" s="192"/>
@@ -25252,8 +25296,8 @@
     </row>
     <row r="186" spans="1:13" ht="14.25" customHeight="1">
       <c r="A186" s="181"/>
-      <c r="B186" s="304"/>
-      <c r="C186" s="318"/>
+      <c r="B186" s="317"/>
+      <c r="C186" s="323"/>
       <c r="D186" s="197" t="s">
         <v>156</v>
       </c>
@@ -25273,8 +25317,8 @@
     </row>
     <row r="187" spans="1:13" ht="14.25" customHeight="1">
       <c r="A187" s="181"/>
-      <c r="B187" s="304"/>
-      <c r="C187" s="318"/>
+      <c r="B187" s="317"/>
+      <c r="C187" s="323"/>
       <c r="D187" s="252"/>
       <c r="E187" s="236"/>
       <c r="F187" s="251"/>
@@ -25292,8 +25336,8 @@
     </row>
     <row r="188" spans="1:13" ht="14.25" customHeight="1">
       <c r="A188" s="181"/>
-      <c r="B188" s="304"/>
-      <c r="C188" s="318"/>
+      <c r="B188" s="317"/>
+      <c r="C188" s="323"/>
       <c r="D188" s="193" t="s">
         <v>158</v>
       </c>
@@ -25311,8 +25355,8 @@
     </row>
     <row r="189" spans="1:13" ht="14.25" customHeight="1">
       <c r="A189" s="181"/>
-      <c r="B189" s="304"/>
-      <c r="C189" s="318"/>
+      <c r="B189" s="317"/>
+      <c r="C189" s="323"/>
       <c r="D189" s="193" t="s">
         <v>159</v>
       </c>
@@ -25330,8 +25374,8 @@
     </row>
     <row r="190" spans="1:13" ht="14.25" customHeight="1">
       <c r="A190" s="181"/>
-      <c r="B190" s="304"/>
-      <c r="C190" s="318"/>
+      <c r="B190" s="317"/>
+      <c r="C190" s="323"/>
       <c r="D190" s="193" t="s">
         <v>160</v>
       </c>
@@ -25349,8 +25393,8 @@
     </row>
     <row r="191" spans="1:13" ht="14.25" customHeight="1">
       <c r="A191" s="181"/>
-      <c r="B191" s="304"/>
-      <c r="C191" s="318"/>
+      <c r="B191" s="317"/>
+      <c r="C191" s="323"/>
       <c r="D191" s="193" t="s">
         <v>161</v>
       </c>
@@ -25368,8 +25412,8 @@
     </row>
     <row r="192" spans="1:13" ht="37.5" customHeight="1">
       <c r="A192" s="181"/>
-      <c r="B192" s="304"/>
-      <c r="C192" s="318"/>
+      <c r="B192" s="317"/>
+      <c r="C192" s="323"/>
       <c r="D192" s="254" t="s">
         <v>195</v>
       </c>
@@ -25387,8 +25431,8 @@
     </row>
     <row r="193" spans="1:13" ht="14.25" customHeight="1">
       <c r="A193" s="181"/>
-      <c r="B193" s="304"/>
-      <c r="C193" s="318"/>
+      <c r="B193" s="317"/>
+      <c r="C193" s="323"/>
       <c r="D193" s="193" t="s">
         <v>162</v>
       </c>
@@ -25406,8 +25450,8 @@
     </row>
     <row r="194" spans="1:13" ht="14.25" customHeight="1">
       <c r="A194" s="181"/>
-      <c r="B194" s="305"/>
-      <c r="C194" s="319"/>
+      <c r="B194" s="316"/>
+      <c r="C194" s="324"/>
       <c r="D194" s="193" t="s">
         <v>163</v>
       </c>
@@ -25425,13 +25469,13 @@
     </row>
     <row r="195" spans="1:13" ht="14.25" customHeight="1">
       <c r="A195" s="181"/>
-      <c r="B195" s="312" t="s">
+      <c r="B195" s="307" t="s">
         <v>128</v>
       </c>
-      <c r="C195" s="308" t="s">
+      <c r="C195" s="312" t="s">
         <v>57</v>
       </c>
-      <c r="D195" s="303" t="s">
+      <c r="D195" s="315" t="s">
         <v>56</v>
       </c>
       <c r="E195" s="175"/>
@@ -25452,9 +25496,9 @@
     </row>
     <row r="196" spans="1:13" ht="14.25" customHeight="1">
       <c r="A196" s="181"/>
-      <c r="B196" s="313"/>
-      <c r="C196" s="309"/>
-      <c r="D196" s="305"/>
+      <c r="B196" s="308"/>
+      <c r="C196" s="313"/>
+      <c r="D196" s="316"/>
       <c r="E196" s="175"/>
       <c r="F196" s="176"/>
       <c r="G196" s="177" t="s">
@@ -25473,8 +25517,8 @@
     </row>
     <row r="197" spans="1:13" ht="14.25" customHeight="1">
       <c r="A197" s="181"/>
-      <c r="B197" s="313"/>
-      <c r="C197" s="309"/>
+      <c r="B197" s="308"/>
+      <c r="C197" s="313"/>
       <c r="D197" s="255" t="s">
         <v>2878</v>
       </c>
@@ -25494,9 +25538,9 @@
     </row>
     <row r="198" spans="1:13" ht="14.25" customHeight="1">
       <c r="A198" s="181"/>
-      <c r="B198" s="313"/>
-      <c r="C198" s="309"/>
-      <c r="D198" s="303" t="s">
+      <c r="B198" s="308"/>
+      <c r="C198" s="313"/>
+      <c r="D198" s="315" t="s">
         <v>61</v>
       </c>
       <c r="E198" s="175"/>
@@ -25515,9 +25559,9 @@
     </row>
     <row r="199" spans="1:13" ht="14.25" customHeight="1">
       <c r="A199" s="181"/>
-      <c r="B199" s="313"/>
-      <c r="C199" s="309"/>
-      <c r="D199" s="304"/>
+      <c r="B199" s="308"/>
+      <c r="C199" s="313"/>
+      <c r="D199" s="317"/>
       <c r="E199" s="175"/>
       <c r="F199" s="176"/>
       <c r="G199" s="177" t="s">
@@ -25536,9 +25580,9 @@
     </row>
     <row r="200" spans="1:13" ht="14.25" customHeight="1">
       <c r="A200" s="181"/>
-      <c r="B200" s="313"/>
-      <c r="C200" s="309"/>
-      <c r="D200" s="305"/>
+      <c r="B200" s="308"/>
+      <c r="C200" s="313"/>
+      <c r="D200" s="316"/>
       <c r="E200" s="175"/>
       <c r="F200" s="176"/>
       <c r="G200" s="177" t="s">
@@ -25555,9 +25599,9 @@
     </row>
     <row r="201" spans="1:13" ht="14.25" customHeight="1">
       <c r="A201" s="181"/>
-      <c r="B201" s="313"/>
-      <c r="C201" s="309"/>
-      <c r="D201" s="303" t="s">
+      <c r="B201" s="308"/>
+      <c r="C201" s="313"/>
+      <c r="D201" s="315" t="s">
         <v>65</v>
       </c>
       <c r="E201" s="175"/>
@@ -25578,9 +25622,9 @@
     </row>
     <row r="202" spans="1:13" ht="33">
       <c r="A202" s="181"/>
-      <c r="B202" s="313"/>
-      <c r="C202" s="309"/>
-      <c r="D202" s="305"/>
+      <c r="B202" s="308"/>
+      <c r="C202" s="313"/>
+      <c r="D202" s="316"/>
       <c r="E202" s="175"/>
       <c r="F202" s="176"/>
       <c r="G202" s="177" t="s">
@@ -25597,9 +25641,9 @@
     </row>
     <row r="203" spans="1:13" ht="14.25" customHeight="1">
       <c r="A203" s="181"/>
-      <c r="B203" s="313"/>
-      <c r="C203" s="309"/>
-      <c r="D203" s="303" t="s">
+      <c r="B203" s="308"/>
+      <c r="C203" s="313"/>
+      <c r="D203" s="315" t="s">
         <v>68</v>
       </c>
       <c r="E203" s="175"/>
@@ -25618,9 +25662,9 @@
     </row>
     <row r="204" spans="1:13" ht="14.25" customHeight="1">
       <c r="A204" s="181"/>
-      <c r="B204" s="313"/>
-      <c r="C204" s="309"/>
-      <c r="D204" s="305"/>
+      <c r="B204" s="308"/>
+      <c r="C204" s="313"/>
+      <c r="D204" s="316"/>
       <c r="E204" s="175"/>
       <c r="F204" s="176"/>
       <c r="G204" s="177" t="s">
@@ -25639,9 +25683,9 @@
     </row>
     <row r="205" spans="1:13" ht="14.25" customHeight="1">
       <c r="A205" s="181"/>
-      <c r="B205" s="313"/>
-      <c r="C205" s="309"/>
-      <c r="D205" s="303" t="s">
+      <c r="B205" s="308"/>
+      <c r="C205" s="313"/>
+      <c r="D205" s="315" t="s">
         <v>70</v>
       </c>
       <c r="E205" s="175"/>
@@ -25660,9 +25704,9 @@
     </row>
     <row r="206" spans="1:13" ht="14.25" customHeight="1">
       <c r="A206" s="181"/>
-      <c r="B206" s="313"/>
-      <c r="C206" s="309"/>
-      <c r="D206" s="304"/>
+      <c r="B206" s="308"/>
+      <c r="C206" s="313"/>
+      <c r="D206" s="317"/>
       <c r="E206" s="175"/>
       <c r="F206" s="176"/>
       <c r="G206" s="177" t="s">
@@ -25681,9 +25725,9 @@
     </row>
     <row r="207" spans="1:13" ht="14.25" customHeight="1">
       <c r="A207" s="181"/>
-      <c r="B207" s="313"/>
-      <c r="C207" s="309"/>
-      <c r="D207" s="304"/>
+      <c r="B207" s="308"/>
+      <c r="C207" s="313"/>
+      <c r="D207" s="317"/>
       <c r="E207" s="175"/>
       <c r="F207" s="176"/>
       <c r="G207" s="177" t="s">
@@ -25700,9 +25744,9 @@
     </row>
     <row r="208" spans="1:13" ht="14.25" customHeight="1">
       <c r="A208" s="181"/>
-      <c r="B208" s="313"/>
-      <c r="C208" s="309"/>
-      <c r="D208" s="304"/>
+      <c r="B208" s="308"/>
+      <c r="C208" s="313"/>
+      <c r="D208" s="317"/>
       <c r="E208" s="175"/>
       <c r="F208" s="176"/>
       <c r="G208" s="177" t="s">
@@ -25719,9 +25763,9 @@
     </row>
     <row r="209" spans="1:13" ht="14.25" customHeight="1">
       <c r="A209" s="181"/>
-      <c r="B209" s="313"/>
-      <c r="C209" s="309"/>
-      <c r="D209" s="304"/>
+      <c r="B209" s="308"/>
+      <c r="C209" s="313"/>
+      <c r="D209" s="317"/>
       <c r="E209" s="175"/>
       <c r="F209" s="176"/>
       <c r="G209" s="177" t="s">
@@ -25738,9 +25782,9 @@
     </row>
     <row r="210" spans="1:13" ht="30" customHeight="1">
       <c r="A210" s="181"/>
-      <c r="B210" s="313"/>
-      <c r="C210" s="310"/>
-      <c r="D210" s="305"/>
+      <c r="B210" s="308"/>
+      <c r="C210" s="314"/>
+      <c r="D210" s="316"/>
       <c r="E210" s="175"/>
       <c r="F210" s="176"/>
       <c r="G210" s="177" t="s">
@@ -25759,11 +25803,11 @@
     </row>
     <row r="211" spans="1:13" ht="14.25" customHeight="1">
       <c r="A211" s="181"/>
-      <c r="B211" s="313"/>
-      <c r="C211" s="308" t="s">
+      <c r="B211" s="308"/>
+      <c r="C211" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="D211" s="303" t="s">
+      <c r="D211" s="315" t="s">
         <v>1446</v>
       </c>
       <c r="E211" s="175"/>
@@ -25782,9 +25826,9 @@
     </row>
     <row r="212" spans="1:13" ht="14.25" customHeight="1">
       <c r="A212" s="181"/>
-      <c r="B212" s="313"/>
-      <c r="C212" s="309"/>
-      <c r="D212" s="304"/>
+      <c r="B212" s="308"/>
+      <c r="C212" s="313"/>
+      <c r="D212" s="317"/>
       <c r="E212" s="175"/>
       <c r="F212" s="176"/>
       <c r="G212" s="177" t="s">
@@ -25801,9 +25845,9 @@
     </row>
     <row r="213" spans="1:13" ht="14.25" customHeight="1">
       <c r="A213" s="181"/>
-      <c r="B213" s="313"/>
-      <c r="C213" s="309"/>
-      <c r="D213" s="304"/>
+      <c r="B213" s="308"/>
+      <c r="C213" s="313"/>
+      <c r="D213" s="317"/>
       <c r="E213" s="175"/>
       <c r="F213" s="176"/>
       <c r="G213" s="177" t="s">
@@ -25820,9 +25864,9 @@
     </row>
     <row r="214" spans="1:13" ht="14.25" customHeight="1">
       <c r="A214" s="181"/>
-      <c r="B214" s="313"/>
-      <c r="C214" s="309"/>
-      <c r="D214" s="304"/>
+      <c r="B214" s="308"/>
+      <c r="C214" s="313"/>
+      <c r="D214" s="317"/>
       <c r="E214" s="175"/>
       <c r="F214" s="176"/>
       <c r="G214" s="177" t="s">
@@ -25839,9 +25883,9 @@
     </row>
     <row r="215" spans="1:13" ht="14.25" customHeight="1">
       <c r="A215" s="181"/>
-      <c r="B215" s="313"/>
-      <c r="C215" s="309"/>
-      <c r="D215" s="304"/>
+      <c r="B215" s="308"/>
+      <c r="C215" s="313"/>
+      <c r="D215" s="317"/>
       <c r="E215" s="175"/>
       <c r="F215" s="176"/>
       <c r="G215" s="177" t="s">
@@ -25858,9 +25902,9 @@
     </row>
     <row r="216" spans="1:13" ht="14.25" customHeight="1">
       <c r="A216" s="181"/>
-      <c r="B216" s="313"/>
-      <c r="C216" s="309"/>
-      <c r="D216" s="304"/>
+      <c r="B216" s="308"/>
+      <c r="C216" s="313"/>
+      <c r="D216" s="317"/>
       <c r="E216" s="175"/>
       <c r="F216" s="176"/>
       <c r="G216" s="177" t="s">
@@ -25877,9 +25921,9 @@
     </row>
     <row r="217" spans="1:13" ht="14.25" customHeight="1">
       <c r="A217" s="181"/>
-      <c r="B217" s="313"/>
-      <c r="C217" s="309"/>
-      <c r="D217" s="304"/>
+      <c r="B217" s="308"/>
+      <c r="C217" s="313"/>
+      <c r="D217" s="317"/>
       <c r="E217" s="175"/>
       <c r="F217" s="176"/>
       <c r="G217" s="177" t="s">
@@ -25896,9 +25940,9 @@
     </row>
     <row r="218" spans="1:13" ht="14.25" customHeight="1">
       <c r="A218" s="181"/>
-      <c r="B218" s="313"/>
-      <c r="C218" s="309"/>
-      <c r="D218" s="304"/>
+      <c r="B218" s="308"/>
+      <c r="C218" s="313"/>
+      <c r="D218" s="317"/>
       <c r="E218" s="175"/>
       <c r="F218" s="176"/>
       <c r="G218" s="177" t="s">
@@ -25915,9 +25959,9 @@
     </row>
     <row r="219" spans="1:13" ht="14.25" customHeight="1">
       <c r="A219" s="181"/>
-      <c r="B219" s="313"/>
-      <c r="C219" s="309"/>
-      <c r="D219" s="304"/>
+      <c r="B219" s="308"/>
+      <c r="C219" s="313"/>
+      <c r="D219" s="317"/>
       <c r="E219" s="175"/>
       <c r="F219" s="176"/>
       <c r="G219" s="177" t="s">
@@ -25934,9 +25978,9 @@
     </row>
     <row r="220" spans="1:13" ht="14.25" customHeight="1">
       <c r="A220" s="181"/>
-      <c r="B220" s="313"/>
-      <c r="C220" s="309"/>
-      <c r="D220" s="304"/>
+      <c r="B220" s="308"/>
+      <c r="C220" s="313"/>
+      <c r="D220" s="317"/>
       <c r="E220" s="175"/>
       <c r="F220" s="176"/>
       <c r="G220" s="177" t="s">
@@ -25953,9 +25997,9 @@
     </row>
     <row r="221" spans="1:13" ht="14.25" customHeight="1">
       <c r="A221" s="181"/>
-      <c r="B221" s="313"/>
-      <c r="C221" s="309"/>
-      <c r="D221" s="304"/>
+      <c r="B221" s="308"/>
+      <c r="C221" s="313"/>
+      <c r="D221" s="317"/>
       <c r="E221" s="175"/>
       <c r="F221" s="176"/>
       <c r="G221" s="177" t="s">
@@ -25972,9 +26016,9 @@
     </row>
     <row r="222" spans="1:13" ht="14.25" customHeight="1">
       <c r="A222" s="181"/>
-      <c r="B222" s="313"/>
-      <c r="C222" s="309"/>
-      <c r="D222" s="304"/>
+      <c r="B222" s="308"/>
+      <c r="C222" s="313"/>
+      <c r="D222" s="317"/>
       <c r="E222" s="175"/>
       <c r="F222" s="176"/>
       <c r="G222" s="177" t="s">
@@ -25991,9 +26035,9 @@
     </row>
     <row r="223" spans="1:13" ht="14.25" customHeight="1">
       <c r="A223" s="181"/>
-      <c r="B223" s="313"/>
-      <c r="C223" s="309"/>
-      <c r="D223" s="304"/>
+      <c r="B223" s="308"/>
+      <c r="C223" s="313"/>
+      <c r="D223" s="317"/>
       <c r="E223" s="175"/>
       <c r="F223" s="176"/>
       <c r="G223" s="177" t="s">
@@ -26010,9 +26054,9 @@
     </row>
     <row r="224" spans="1:13" ht="14.25" customHeight="1">
       <c r="A224" s="181"/>
-      <c r="B224" s="313"/>
-      <c r="C224" s="309"/>
-      <c r="D224" s="304"/>
+      <c r="B224" s="308"/>
+      <c r="C224" s="313"/>
+      <c r="D224" s="317"/>
       <c r="E224" s="175"/>
       <c r="F224" s="176"/>
       <c r="G224" s="177" t="s">
@@ -26029,9 +26073,9 @@
     </row>
     <row r="225" spans="1:13" ht="14.25" customHeight="1">
       <c r="A225" s="181"/>
-      <c r="B225" s="313"/>
-      <c r="C225" s="309"/>
-      <c r="D225" s="304"/>
+      <c r="B225" s="308"/>
+      <c r="C225" s="313"/>
+      <c r="D225" s="317"/>
       <c r="E225" s="175"/>
       <c r="F225" s="176"/>
       <c r="G225" s="177" t="s">
@@ -26048,9 +26092,9 @@
     </row>
     <row r="226" spans="1:13" ht="14.25" customHeight="1">
       <c r="A226" s="181"/>
-      <c r="B226" s="313"/>
-      <c r="C226" s="309"/>
-      <c r="D226" s="304"/>
+      <c r="B226" s="308"/>
+      <c r="C226" s="313"/>
+      <c r="D226" s="317"/>
       <c r="E226" s="175"/>
       <c r="F226" s="176"/>
       <c r="G226" s="177" t="s">
@@ -26067,9 +26111,9 @@
     </row>
     <row r="227" spans="1:13" ht="14.25" customHeight="1">
       <c r="A227" s="181"/>
-      <c r="B227" s="313"/>
-      <c r="C227" s="309"/>
-      <c r="D227" s="304"/>
+      <c r="B227" s="308"/>
+      <c r="C227" s="313"/>
+      <c r="D227" s="317"/>
       <c r="E227" s="175"/>
       <c r="F227" s="176"/>
       <c r="G227" s="177" t="s">
@@ -26086,9 +26130,9 @@
     </row>
     <row r="228" spans="1:13" ht="14.25" customHeight="1">
       <c r="A228" s="181"/>
-      <c r="B228" s="313"/>
-      <c r="C228" s="309"/>
-      <c r="D228" s="304"/>
+      <c r="B228" s="308"/>
+      <c r="C228" s="313"/>
+      <c r="D228" s="317"/>
       <c r="E228" s="175"/>
       <c r="F228" s="176"/>
       <c r="G228" s="177" t="s">
@@ -26105,9 +26149,9 @@
     </row>
     <row r="229" spans="1:13" ht="14.25" customHeight="1">
       <c r="A229" s="181"/>
-      <c r="B229" s="313"/>
-      <c r="C229" s="309"/>
-      <c r="D229" s="304"/>
+      <c r="B229" s="308"/>
+      <c r="C229" s="313"/>
+      <c r="D229" s="317"/>
       <c r="E229" s="175"/>
       <c r="F229" s="176"/>
       <c r="G229" s="177" t="s">
@@ -26124,9 +26168,9 @@
     </row>
     <row r="230" spans="1:13" ht="14.25" customHeight="1">
       <c r="A230" s="181"/>
-      <c r="B230" s="313"/>
-      <c r="C230" s="309"/>
-      <c r="D230" s="304"/>
+      <c r="B230" s="308"/>
+      <c r="C230" s="313"/>
+      <c r="D230" s="317"/>
       <c r="E230" s="175"/>
       <c r="F230" s="176"/>
       <c r="G230" s="177" t="s">
@@ -26143,9 +26187,9 @@
     </row>
     <row r="231" spans="1:13" ht="14.25" customHeight="1">
       <c r="A231" s="181"/>
-      <c r="B231" s="313"/>
-      <c r="C231" s="309"/>
-      <c r="D231" s="304"/>
+      <c r="B231" s="308"/>
+      <c r="C231" s="313"/>
+      <c r="D231" s="317"/>
       <c r="E231" s="175"/>
       <c r="F231" s="176"/>
       <c r="G231" s="177" t="s">
@@ -26162,9 +26206,9 @@
     </row>
     <row r="232" spans="1:13" ht="14.25" customHeight="1">
       <c r="A232" s="181"/>
-      <c r="B232" s="313"/>
-      <c r="C232" s="309"/>
-      <c r="D232" s="304"/>
+      <c r="B232" s="308"/>
+      <c r="C232" s="313"/>
+      <c r="D232" s="317"/>
       <c r="E232" s="175"/>
       <c r="F232" s="176"/>
       <c r="G232" s="177" t="s">
@@ -26181,9 +26225,9 @@
     </row>
     <row r="233" spans="1:13" ht="14.25" customHeight="1">
       <c r="A233" s="181"/>
-      <c r="B233" s="313"/>
-      <c r="C233" s="309"/>
-      <c r="D233" s="304"/>
+      <c r="B233" s="308"/>
+      <c r="C233" s="313"/>
+      <c r="D233" s="317"/>
       <c r="E233" s="175"/>
       <c r="F233" s="176"/>
       <c r="G233" s="177" t="s">
@@ -26200,9 +26244,9 @@
     </row>
     <row r="234" spans="1:13" ht="14.25" customHeight="1">
       <c r="A234" s="181"/>
-      <c r="B234" s="313"/>
-      <c r="C234" s="309"/>
-      <c r="D234" s="304"/>
+      <c r="B234" s="308"/>
+      <c r="C234" s="313"/>
+      <c r="D234" s="317"/>
       <c r="E234" s="175"/>
       <c r="F234" s="176"/>
       <c r="G234" s="177" t="s">
@@ -26219,9 +26263,9 @@
     </row>
     <row r="235" spans="1:13" ht="14.25" customHeight="1">
       <c r="A235" s="181"/>
-      <c r="B235" s="313"/>
-      <c r="C235" s="309"/>
-      <c r="D235" s="304"/>
+      <c r="B235" s="308"/>
+      <c r="C235" s="313"/>
+      <c r="D235" s="317"/>
       <c r="E235" s="175"/>
       <c r="F235" s="176"/>
       <c r="G235" s="177" t="s">
@@ -26238,9 +26282,9 @@
     </row>
     <row r="236" spans="1:13" ht="14.25" customHeight="1">
       <c r="A236" s="181"/>
-      <c r="B236" s="313"/>
-      <c r="C236" s="309"/>
-      <c r="D236" s="304"/>
+      <c r="B236" s="308"/>
+      <c r="C236" s="313"/>
+      <c r="D236" s="317"/>
       <c r="E236" s="175"/>
       <c r="F236" s="176"/>
       <c r="G236" s="177" t="s">
@@ -26257,9 +26301,9 @@
     </row>
     <row r="237" spans="1:13" ht="14.25" customHeight="1">
       <c r="A237" s="181"/>
-      <c r="B237" s="313"/>
-      <c r="C237" s="309"/>
-      <c r="D237" s="304"/>
+      <c r="B237" s="308"/>
+      <c r="C237" s="313"/>
+      <c r="D237" s="317"/>
       <c r="E237" s="175"/>
       <c r="F237" s="176"/>
       <c r="G237" s="177" t="s">
@@ -26276,9 +26320,9 @@
     </row>
     <row r="238" spans="1:13" ht="14.25" customHeight="1">
       <c r="A238" s="181"/>
-      <c r="B238" s="313"/>
-      <c r="C238" s="309"/>
-      <c r="D238" s="304"/>
+      <c r="B238" s="308"/>
+      <c r="C238" s="313"/>
+      <c r="D238" s="317"/>
       <c r="E238" s="175"/>
       <c r="F238" s="176"/>
       <c r="G238" s="177" t="s">
@@ -26295,9 +26339,9 @@
     </row>
     <row r="239" spans="1:13" ht="14.25" customHeight="1">
       <c r="A239" s="181"/>
-      <c r="B239" s="313"/>
-      <c r="C239" s="309"/>
-      <c r="D239" s="304"/>
+      <c r="B239" s="308"/>
+      <c r="C239" s="313"/>
+      <c r="D239" s="317"/>
       <c r="E239" s="175"/>
       <c r="F239" s="176"/>
       <c r="G239" s="177" t="s">
@@ -26314,9 +26358,9 @@
     </row>
     <row r="240" spans="1:13" ht="14.25" customHeight="1">
       <c r="A240" s="181"/>
-      <c r="B240" s="313"/>
-      <c r="C240" s="309"/>
-      <c r="D240" s="304"/>
+      <c r="B240" s="308"/>
+      <c r="C240" s="313"/>
+      <c r="D240" s="317"/>
       <c r="E240" s="175"/>
       <c r="F240" s="176"/>
       <c r="G240" s="177" t="s">
@@ -26333,9 +26377,9 @@
     </row>
     <row r="241" spans="1:13" ht="14.25" customHeight="1">
       <c r="A241" s="181"/>
-      <c r="B241" s="313"/>
-      <c r="C241" s="310"/>
-      <c r="D241" s="305"/>
+      <c r="B241" s="308"/>
+      <c r="C241" s="314"/>
+      <c r="D241" s="316"/>
       <c r="E241" s="175"/>
       <c r="F241" s="176"/>
       <c r="G241" s="177" t="s">
@@ -26352,11 +26396,11 @@
     </row>
     <row r="242" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A242" s="289"/>
-      <c r="B242" s="313"/>
-      <c r="C242" s="320" t="s">
+      <c r="B242" s="308"/>
+      <c r="C242" s="336" t="s">
         <v>1464</v>
       </c>
-      <c r="D242" s="335" t="s">
+      <c r="D242" s="319" t="s">
         <v>133</v>
       </c>
       <c r="E242" s="290"/>
@@ -26375,9 +26419,9 @@
     </row>
     <row r="243" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A243" s="289"/>
-      <c r="B243" s="313"/>
-      <c r="C243" s="321"/>
-      <c r="D243" s="336"/>
+      <c r="B243" s="308"/>
+      <c r="C243" s="337"/>
+      <c r="D243" s="320"/>
       <c r="E243" s="290"/>
       <c r="F243" s="291"/>
       <c r="G243" s="292" t="s">
@@ -26394,9 +26438,9 @@
     </row>
     <row r="244" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A244" s="289"/>
-      <c r="B244" s="313"/>
-      <c r="C244" s="321"/>
-      <c r="D244" s="336"/>
+      <c r="B244" s="308"/>
+      <c r="C244" s="337"/>
+      <c r="D244" s="320"/>
       <c r="E244" s="290"/>
       <c r="F244" s="291"/>
       <c r="G244" s="292" t="s">
@@ -26413,9 +26457,9 @@
     </row>
     <row r="245" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A245" s="289"/>
-      <c r="B245" s="313"/>
-      <c r="C245" s="321"/>
-      <c r="D245" s="336"/>
+      <c r="B245" s="308"/>
+      <c r="C245" s="337"/>
+      <c r="D245" s="320"/>
       <c r="E245" s="290"/>
       <c r="F245" s="291"/>
       <c r="G245" s="292" t="s">
@@ -26432,9 +26476,9 @@
     </row>
     <row r="246" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A246" s="289"/>
-      <c r="B246" s="313"/>
-      <c r="C246" s="321"/>
-      <c r="D246" s="336"/>
+      <c r="B246" s="308"/>
+      <c r="C246" s="337"/>
+      <c r="D246" s="320"/>
       <c r="E246" s="290"/>
       <c r="F246" s="291"/>
       <c r="G246" s="292" t="s">
@@ -26451,9 +26495,9 @@
     </row>
     <row r="247" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A247" s="289"/>
-      <c r="B247" s="313"/>
-      <c r="C247" s="321"/>
-      <c r="D247" s="336"/>
+      <c r="B247" s="308"/>
+      <c r="C247" s="337"/>
+      <c r="D247" s="320"/>
       <c r="E247" s="290"/>
       <c r="F247" s="291"/>
       <c r="G247" s="292" t="s">
@@ -26470,9 +26514,9 @@
     </row>
     <row r="248" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A248" s="289"/>
-      <c r="B248" s="313"/>
-      <c r="C248" s="321"/>
-      <c r="D248" s="336"/>
+      <c r="B248" s="308"/>
+      <c r="C248" s="337"/>
+      <c r="D248" s="320"/>
       <c r="E248" s="290"/>
       <c r="F248" s="291"/>
       <c r="G248" s="292" t="s">
@@ -26489,9 +26533,9 @@
     </row>
     <row r="249" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A249" s="289"/>
-      <c r="B249" s="313"/>
-      <c r="C249" s="321"/>
-      <c r="D249" s="336"/>
+      <c r="B249" s="308"/>
+      <c r="C249" s="337"/>
+      <c r="D249" s="320"/>
       <c r="E249" s="290"/>
       <c r="F249" s="291"/>
       <c r="G249" s="292" t="s">
@@ -26508,9 +26552,9 @@
     </row>
     <row r="250" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A250" s="289"/>
-      <c r="B250" s="313"/>
-      <c r="C250" s="321"/>
-      <c r="D250" s="336"/>
+      <c r="B250" s="308"/>
+      <c r="C250" s="337"/>
+      <c r="D250" s="320"/>
       <c r="E250" s="290"/>
       <c r="F250" s="291"/>
       <c r="G250" s="292" t="s">
@@ -26527,9 +26571,9 @@
     </row>
     <row r="251" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A251" s="289"/>
-      <c r="B251" s="313"/>
-      <c r="C251" s="321"/>
-      <c r="D251" s="336"/>
+      <c r="B251" s="308"/>
+      <c r="C251" s="337"/>
+      <c r="D251" s="320"/>
       <c r="E251" s="290"/>
       <c r="F251" s="291"/>
       <c r="G251" s="292" t="s">
@@ -26546,9 +26590,9 @@
     </row>
     <row r="252" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A252" s="289"/>
-      <c r="B252" s="313"/>
-      <c r="C252" s="321"/>
-      <c r="D252" s="336"/>
+      <c r="B252" s="308"/>
+      <c r="C252" s="337"/>
+      <c r="D252" s="320"/>
       <c r="E252" s="290"/>
       <c r="F252" s="291"/>
       <c r="G252" s="292" t="s">
@@ -26565,9 +26609,9 @@
     </row>
     <row r="253" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A253" s="289"/>
-      <c r="B253" s="313"/>
-      <c r="C253" s="321"/>
-      <c r="D253" s="336"/>
+      <c r="B253" s="308"/>
+      <c r="C253" s="337"/>
+      <c r="D253" s="320"/>
       <c r="E253" s="290"/>
       <c r="F253" s="291"/>
       <c r="G253" s="292" t="s">
@@ -26584,9 +26628,9 @@
     </row>
     <row r="254" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A254" s="289"/>
-      <c r="B254" s="313"/>
-      <c r="C254" s="321"/>
-      <c r="D254" s="336"/>
+      <c r="B254" s="308"/>
+      <c r="C254" s="337"/>
+      <c r="D254" s="320"/>
       <c r="E254" s="290"/>
       <c r="F254" s="291"/>
       <c r="G254" s="292" t="s">
@@ -26603,9 +26647,9 @@
     </row>
     <row r="255" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A255" s="289"/>
-      <c r="B255" s="313"/>
-      <c r="C255" s="321"/>
-      <c r="D255" s="336"/>
+      <c r="B255" s="308"/>
+      <c r="C255" s="337"/>
+      <c r="D255" s="320"/>
       <c r="E255" s="290"/>
       <c r="F255" s="291"/>
       <c r="G255" s="292" t="s">
@@ -26622,9 +26666,9 @@
     </row>
     <row r="256" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A256" s="289"/>
-      <c r="B256" s="313"/>
-      <c r="C256" s="321"/>
-      <c r="D256" s="336"/>
+      <c r="B256" s="308"/>
+      <c r="C256" s="337"/>
+      <c r="D256" s="320"/>
       <c r="E256" s="290"/>
       <c r="F256" s="291"/>
       <c r="G256" s="292" t="s">
@@ -26641,9 +26685,9 @@
     </row>
     <row r="257" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A257" s="289"/>
-      <c r="B257" s="313"/>
-      <c r="C257" s="321"/>
-      <c r="D257" s="336"/>
+      <c r="B257" s="308"/>
+      <c r="C257" s="337"/>
+      <c r="D257" s="320"/>
       <c r="E257" s="290"/>
       <c r="F257" s="291"/>
       <c r="G257" s="292" t="s">
@@ -26660,9 +26704,9 @@
     </row>
     <row r="258" spans="1:13" s="297" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A258" s="289"/>
-      <c r="B258" s="313"/>
-      <c r="C258" s="322"/>
-      <c r="D258" s="337"/>
+      <c r="B258" s="308"/>
+      <c r="C258" s="338"/>
+      <c r="D258" s="321"/>
       <c r="E258" s="290"/>
       <c r="F258" s="291"/>
       <c r="G258" s="292" t="s">
@@ -26679,11 +26723,11 @@
     </row>
     <row r="259" spans="1:13" ht="14.25" customHeight="1">
       <c r="A259" s="181"/>
-      <c r="B259" s="313"/>
-      <c r="C259" s="317" t="s">
+      <c r="B259" s="308"/>
+      <c r="C259" s="322" t="s">
         <v>126</v>
       </c>
-      <c r="D259" s="303" t="s">
+      <c r="D259" s="315" t="s">
         <v>1470</v>
       </c>
       <c r="E259" s="175"/>
@@ -26702,9 +26746,9 @@
     </row>
     <row r="260" spans="1:13" ht="14.25" customHeight="1">
       <c r="A260" s="181"/>
-      <c r="B260" s="313"/>
-      <c r="C260" s="318"/>
-      <c r="D260" s="304"/>
+      <c r="B260" s="308"/>
+      <c r="C260" s="323"/>
+      <c r="D260" s="317"/>
       <c r="E260" s="175"/>
       <c r="F260" s="175"/>
       <c r="G260" s="177" t="s">
@@ -26721,9 +26765,9 @@
     </row>
     <row r="261" spans="1:13" ht="14.25" customHeight="1">
       <c r="A261" s="181"/>
-      <c r="B261" s="313"/>
-      <c r="C261" s="318"/>
-      <c r="D261" s="304"/>
+      <c r="B261" s="308"/>
+      <c r="C261" s="323"/>
+      <c r="D261" s="317"/>
       <c r="E261" s="175"/>
       <c r="F261" s="175"/>
       <c r="G261" s="177" t="s">
@@ -26740,9 +26784,9 @@
     </row>
     <row r="262" spans="1:13" ht="14.25" customHeight="1">
       <c r="A262" s="181"/>
-      <c r="B262" s="313"/>
-      <c r="C262" s="318"/>
-      <c r="D262" s="304"/>
+      <c r="B262" s="308"/>
+      <c r="C262" s="323"/>
+      <c r="D262" s="317"/>
       <c r="E262" s="175"/>
       <c r="F262" s="175"/>
       <c r="G262" s="177" t="s">
@@ -26759,9 +26803,9 @@
     </row>
     <row r="263" spans="1:13" ht="14.25" customHeight="1">
       <c r="A263" s="181"/>
-      <c r="B263" s="313"/>
-      <c r="C263" s="318"/>
-      <c r="D263" s="304"/>
+      <c r="B263" s="308"/>
+      <c r="C263" s="323"/>
+      <c r="D263" s="317"/>
       <c r="E263" s="175"/>
       <c r="F263" s="175"/>
       <c r="G263" s="177" t="s">
@@ -26778,9 +26822,9 @@
     </row>
     <row r="264" spans="1:13" ht="14.25" customHeight="1">
       <c r="A264" s="181"/>
-      <c r="B264" s="313"/>
-      <c r="C264" s="318"/>
-      <c r="D264" s="304"/>
+      <c r="B264" s="308"/>
+      <c r="C264" s="323"/>
+      <c r="D264" s="317"/>
       <c r="E264" s="175"/>
       <c r="F264" s="175"/>
       <c r="G264" s="177" t="s">
@@ -26797,9 +26841,9 @@
     </row>
     <row r="265" spans="1:13" ht="14.25" customHeight="1">
       <c r="A265" s="181"/>
-      <c r="B265" s="313"/>
-      <c r="C265" s="318"/>
-      <c r="D265" s="304"/>
+      <c r="B265" s="308"/>
+      <c r="C265" s="323"/>
+      <c r="D265" s="317"/>
       <c r="E265" s="175"/>
       <c r="F265" s="175"/>
       <c r="G265" s="177" t="s">
@@ -26816,9 +26860,9 @@
     </row>
     <row r="266" spans="1:13" ht="14.25" customHeight="1">
       <c r="A266" s="181"/>
-      <c r="B266" s="313"/>
-      <c r="C266" s="318"/>
-      <c r="D266" s="304"/>
+      <c r="B266" s="308"/>
+      <c r="C266" s="323"/>
+      <c r="D266" s="317"/>
       <c r="E266" s="175"/>
       <c r="F266" s="175"/>
       <c r="G266" s="177" t="s">
@@ -26835,9 +26879,9 @@
     </row>
     <row r="267" spans="1:13" ht="14.25" customHeight="1">
       <c r="A267" s="181"/>
-      <c r="B267" s="313"/>
-      <c r="C267" s="318"/>
-      <c r="D267" s="304"/>
+      <c r="B267" s="308"/>
+      <c r="C267" s="323"/>
+      <c r="D267" s="317"/>
       <c r="E267" s="175"/>
       <c r="F267" s="175"/>
       <c r="G267" s="177" t="s">
@@ -26854,9 +26898,9 @@
     </row>
     <row r="268" spans="1:13" ht="14.25" customHeight="1">
       <c r="A268" s="181"/>
-      <c r="B268" s="313"/>
-      <c r="C268" s="318"/>
-      <c r="D268" s="304"/>
+      <c r="B268" s="308"/>
+      <c r="C268" s="323"/>
+      <c r="D268" s="317"/>
       <c r="E268" s="175"/>
       <c r="F268" s="175"/>
       <c r="G268" s="177" t="s">
@@ -26873,9 +26917,9 @@
     </row>
     <row r="269" spans="1:13" ht="14.25" customHeight="1">
       <c r="A269" s="181"/>
-      <c r="B269" s="313"/>
-      <c r="C269" s="318"/>
-      <c r="D269" s="304"/>
+      <c r="B269" s="308"/>
+      <c r="C269" s="323"/>
+      <c r="D269" s="317"/>
       <c r="E269" s="175"/>
       <c r="F269" s="175"/>
       <c r="G269" s="177" t="s">
@@ -26892,9 +26936,9 @@
     </row>
     <row r="270" spans="1:13" ht="14.25" customHeight="1">
       <c r="A270" s="181"/>
-      <c r="B270" s="313"/>
-      <c r="C270" s="318"/>
-      <c r="D270" s="304"/>
+      <c r="B270" s="308"/>
+      <c r="C270" s="323"/>
+      <c r="D270" s="317"/>
       <c r="E270" s="175"/>
       <c r="F270" s="175"/>
       <c r="G270" s="177" t="s">
@@ -26911,9 +26955,9 @@
     </row>
     <row r="271" spans="1:13" ht="14.25" customHeight="1">
       <c r="A271" s="181"/>
-      <c r="B271" s="313"/>
-      <c r="C271" s="318"/>
-      <c r="D271" s="304"/>
+      <c r="B271" s="308"/>
+      <c r="C271" s="323"/>
+      <c r="D271" s="317"/>
       <c r="E271" s="175"/>
       <c r="F271" s="175"/>
       <c r="G271" s="177" t="s">
@@ -26930,9 +26974,9 @@
     </row>
     <row r="272" spans="1:13" ht="14.25" customHeight="1">
       <c r="A272" s="181"/>
-      <c r="B272" s="313"/>
-      <c r="C272" s="318"/>
-      <c r="D272" s="304"/>
+      <c r="B272" s="308"/>
+      <c r="C272" s="323"/>
+      <c r="D272" s="317"/>
       <c r="E272" s="175"/>
       <c r="F272" s="175"/>
       <c r="G272" s="177" t="s">
@@ -26949,9 +26993,9 @@
     </row>
     <row r="273" spans="1:13" ht="14.25" customHeight="1">
       <c r="A273" s="181"/>
-      <c r="B273" s="313"/>
-      <c r="C273" s="318"/>
-      <c r="D273" s="304"/>
+      <c r="B273" s="308"/>
+      <c r="C273" s="323"/>
+      <c r="D273" s="317"/>
       <c r="E273" s="175"/>
       <c r="F273" s="175"/>
       <c r="G273" s="177" t="s">
@@ -26968,9 +27012,9 @@
     </row>
     <row r="274" spans="1:13" ht="14.25" customHeight="1">
       <c r="A274" s="181"/>
-      <c r="B274" s="313"/>
-      <c r="C274" s="318"/>
-      <c r="D274" s="304"/>
+      <c r="B274" s="308"/>
+      <c r="C274" s="323"/>
+      <c r="D274" s="317"/>
       <c r="E274" s="175"/>
       <c r="F274" s="175"/>
       <c r="G274" s="177" t="s">
@@ -26987,9 +27031,9 @@
     </row>
     <row r="275" spans="1:13" ht="14.25" customHeight="1">
       <c r="A275" s="181"/>
-      <c r="B275" s="313"/>
-      <c r="C275" s="318"/>
-      <c r="D275" s="304"/>
+      <c r="B275" s="308"/>
+      <c r="C275" s="323"/>
+      <c r="D275" s="317"/>
       <c r="E275" s="175"/>
       <c r="F275" s="175"/>
       <c r="G275" s="177" t="s">
@@ -27006,9 +27050,9 @@
     </row>
     <row r="276" spans="1:13" ht="14.25" customHeight="1">
       <c r="A276" s="181"/>
-      <c r="B276" s="313"/>
-      <c r="C276" s="318"/>
-      <c r="D276" s="304"/>
+      <c r="B276" s="308"/>
+      <c r="C276" s="323"/>
+      <c r="D276" s="317"/>
       <c r="E276" s="175"/>
       <c r="F276" s="175"/>
       <c r="G276" s="177" t="s">
@@ -27025,9 +27069,9 @@
     </row>
     <row r="277" spans="1:13" ht="14.25" customHeight="1">
       <c r="A277" s="181"/>
-      <c r="B277" s="313"/>
-      <c r="C277" s="318"/>
-      <c r="D277" s="304"/>
+      <c r="B277" s="308"/>
+      <c r="C277" s="323"/>
+      <c r="D277" s="317"/>
       <c r="E277" s="175"/>
       <c r="F277" s="175"/>
       <c r="G277" s="177" t="s">
@@ -27044,9 +27088,9 @@
     </row>
     <row r="278" spans="1:13" ht="14.25" customHeight="1">
       <c r="A278" s="181"/>
-      <c r="B278" s="313"/>
-      <c r="C278" s="318"/>
-      <c r="D278" s="304"/>
+      <c r="B278" s="308"/>
+      <c r="C278" s="323"/>
+      <c r="D278" s="317"/>
       <c r="E278" s="175"/>
       <c r="F278" s="175"/>
       <c r="G278" s="177" t="s">
@@ -27063,9 +27107,9 @@
     </row>
     <row r="279" spans="1:13" ht="14.25" customHeight="1">
       <c r="A279" s="181"/>
-      <c r="B279" s="313"/>
-      <c r="C279" s="319"/>
-      <c r="D279" s="305"/>
+      <c r="B279" s="308"/>
+      <c r="C279" s="324"/>
+      <c r="D279" s="316"/>
       <c r="E279" s="175"/>
       <c r="F279" s="175"/>
       <c r="G279" s="177" t="s">
@@ -27082,11 +27126,11 @@
     </row>
     <row r="280" spans="1:13" ht="14.25" customHeight="1">
       <c r="A280" s="181"/>
-      <c r="B280" s="313"/>
-      <c r="C280" s="317" t="s">
+      <c r="B280" s="308"/>
+      <c r="C280" s="322" t="s">
         <v>1485</v>
       </c>
-      <c r="D280" s="303" t="s">
+      <c r="D280" s="315" t="s">
         <v>1486</v>
       </c>
       <c r="E280" s="175"/>
@@ -27105,9 +27149,9 @@
     </row>
     <row r="281" spans="1:13" ht="14.25" customHeight="1">
       <c r="A281" s="181"/>
-      <c r="B281" s="313"/>
-      <c r="C281" s="318"/>
-      <c r="D281" s="304"/>
+      <c r="B281" s="308"/>
+      <c r="C281" s="323"/>
+      <c r="D281" s="317"/>
       <c r="E281" s="175"/>
       <c r="F281" s="175"/>
       <c r="G281" s="177" t="s">
@@ -27124,9 +27168,9 @@
     </row>
     <row r="282" spans="1:13" ht="14.25" customHeight="1">
       <c r="A282" s="181"/>
-      <c r="B282" s="313"/>
-      <c r="C282" s="318"/>
-      <c r="D282" s="304"/>
+      <c r="B282" s="308"/>
+      <c r="C282" s="323"/>
+      <c r="D282" s="317"/>
       <c r="E282" s="175"/>
       <c r="F282" s="175"/>
       <c r="G282" s="177" t="s">
@@ -27143,9 +27187,9 @@
     </row>
     <row r="283" spans="1:13" ht="14.25" customHeight="1">
       <c r="A283" s="181"/>
-      <c r="B283" s="313"/>
-      <c r="C283" s="318"/>
-      <c r="D283" s="304"/>
+      <c r="B283" s="308"/>
+      <c r="C283" s="323"/>
+      <c r="D283" s="317"/>
       <c r="E283" s="175"/>
       <c r="F283" s="175"/>
       <c r="G283" s="177" t="s">
@@ -27162,9 +27206,9 @@
     </row>
     <row r="284" spans="1:13" ht="14.25" customHeight="1">
       <c r="A284" s="181"/>
-      <c r="B284" s="313"/>
-      <c r="C284" s="318"/>
-      <c r="D284" s="304"/>
+      <c r="B284" s="308"/>
+      <c r="C284" s="323"/>
+      <c r="D284" s="317"/>
       <c r="E284" s="175"/>
       <c r="F284" s="175"/>
       <c r="G284" s="177" t="s">
@@ -27181,9 +27225,9 @@
     </row>
     <row r="285" spans="1:13" ht="14.25" customHeight="1">
       <c r="A285" s="181"/>
-      <c r="B285" s="313"/>
-      <c r="C285" s="318"/>
-      <c r="D285" s="304"/>
+      <c r="B285" s="308"/>
+      <c r="C285" s="323"/>
+      <c r="D285" s="317"/>
       <c r="E285" s="175"/>
       <c r="F285" s="175"/>
       <c r="G285" s="177" t="s">
@@ -27200,9 +27244,9 @@
     </row>
     <row r="286" spans="1:13" ht="14.25" customHeight="1">
       <c r="A286" s="181"/>
-      <c r="B286" s="313"/>
-      <c r="C286" s="318"/>
-      <c r="D286" s="304"/>
+      <c r="B286" s="308"/>
+      <c r="C286" s="323"/>
+      <c r="D286" s="317"/>
       <c r="E286" s="175"/>
       <c r="F286" s="175"/>
       <c r="G286" s="177" t="s">
@@ -27219,9 +27263,9 @@
     </row>
     <row r="287" spans="1:13" ht="14.25" customHeight="1">
       <c r="A287" s="181"/>
-      <c r="B287" s="313"/>
-      <c r="C287" s="318"/>
-      <c r="D287" s="304"/>
+      <c r="B287" s="308"/>
+      <c r="C287" s="323"/>
+      <c r="D287" s="317"/>
       <c r="E287" s="175"/>
       <c r="F287" s="175"/>
       <c r="G287" s="177" t="s">
@@ -27238,9 +27282,9 @@
     </row>
     <row r="288" spans="1:13" ht="14.25" customHeight="1">
       <c r="A288" s="181"/>
-      <c r="B288" s="313"/>
-      <c r="C288" s="318"/>
-      <c r="D288" s="304"/>
+      <c r="B288" s="308"/>
+      <c r="C288" s="323"/>
+      <c r="D288" s="317"/>
       <c r="E288" s="175"/>
       <c r="F288" s="175"/>
       <c r="G288" s="177" t="s">
@@ -27257,9 +27301,9 @@
     </row>
     <row r="289" spans="1:13" ht="14.25" customHeight="1">
       <c r="A289" s="181"/>
-      <c r="B289" s="313"/>
-      <c r="C289" s="318"/>
-      <c r="D289" s="304"/>
+      <c r="B289" s="308"/>
+      <c r="C289" s="323"/>
+      <c r="D289" s="317"/>
       <c r="E289" s="175"/>
       <c r="F289" s="175"/>
       <c r="G289" s="177" t="s">
@@ -27276,9 +27320,9 @@
     </row>
     <row r="290" spans="1:13" ht="14.25" customHeight="1">
       <c r="A290" s="181"/>
-      <c r="B290" s="313"/>
-      <c r="C290" s="318"/>
-      <c r="D290" s="304"/>
+      <c r="B290" s="308"/>
+      <c r="C290" s="323"/>
+      <c r="D290" s="317"/>
       <c r="E290" s="175"/>
       <c r="F290" s="175"/>
       <c r="G290" s="177" t="s">
@@ -27295,9 +27339,9 @@
     </row>
     <row r="291" spans="1:13" ht="14.25" customHeight="1">
       <c r="A291" s="181"/>
-      <c r="B291" s="313"/>
-      <c r="C291" s="318"/>
-      <c r="D291" s="304"/>
+      <c r="B291" s="308"/>
+      <c r="C291" s="323"/>
+      <c r="D291" s="317"/>
       <c r="E291" s="175"/>
       <c r="F291" s="175"/>
       <c r="G291" s="177" t="s">
@@ -27314,9 +27358,9 @@
     </row>
     <row r="292" spans="1:13" ht="14.25" customHeight="1">
       <c r="A292" s="181"/>
-      <c r="B292" s="313"/>
-      <c r="C292" s="318"/>
-      <c r="D292" s="304"/>
+      <c r="B292" s="308"/>
+      <c r="C292" s="323"/>
+      <c r="D292" s="317"/>
       <c r="E292" s="175"/>
       <c r="F292" s="175"/>
       <c r="G292" s="177" t="s">
@@ -27333,9 +27377,9 @@
     </row>
     <row r="293" spans="1:13" ht="14.25" customHeight="1">
       <c r="A293" s="181"/>
-      <c r="B293" s="313"/>
-      <c r="C293" s="318"/>
-      <c r="D293" s="304"/>
+      <c r="B293" s="308"/>
+      <c r="C293" s="323"/>
+      <c r="D293" s="317"/>
       <c r="E293" s="175"/>
       <c r="F293" s="175"/>
       <c r="G293" s="177" t="s">
@@ -27352,9 +27396,9 @@
     </row>
     <row r="294" spans="1:13" ht="14.25" customHeight="1">
       <c r="A294" s="181"/>
-      <c r="B294" s="313"/>
-      <c r="C294" s="318"/>
-      <c r="D294" s="304"/>
+      <c r="B294" s="308"/>
+      <c r="C294" s="323"/>
+      <c r="D294" s="317"/>
       <c r="E294" s="175"/>
       <c r="F294" s="175"/>
       <c r="G294" s="177" t="s">
@@ -27371,9 +27415,9 @@
     </row>
     <row r="295" spans="1:13" ht="14.25" customHeight="1">
       <c r="A295" s="181"/>
-      <c r="B295" s="313"/>
-      <c r="C295" s="318"/>
-      <c r="D295" s="304"/>
+      <c r="B295" s="308"/>
+      <c r="C295" s="323"/>
+      <c r="D295" s="317"/>
       <c r="E295" s="175"/>
       <c r="F295" s="175"/>
       <c r="G295" s="177" t="s">
@@ -27390,9 +27434,9 @@
     </row>
     <row r="296" spans="1:13" ht="14.25" customHeight="1">
       <c r="A296" s="181"/>
-      <c r="B296" s="313"/>
-      <c r="C296" s="318"/>
-      <c r="D296" s="304"/>
+      <c r="B296" s="308"/>
+      <c r="C296" s="323"/>
+      <c r="D296" s="317"/>
       <c r="E296" s="175"/>
       <c r="F296" s="175"/>
       <c r="G296" s="177" t="s">
@@ -27409,9 +27453,9 @@
     </row>
     <row r="297" spans="1:13" ht="14.25" customHeight="1">
       <c r="A297" s="181"/>
-      <c r="B297" s="313"/>
-      <c r="C297" s="318"/>
-      <c r="D297" s="304"/>
+      <c r="B297" s="308"/>
+      <c r="C297" s="323"/>
+      <c r="D297" s="317"/>
       <c r="E297" s="175"/>
       <c r="F297" s="175"/>
       <c r="G297" s="177" t="s">
@@ -27428,9 +27472,9 @@
     </row>
     <row r="298" spans="1:13" ht="14.25" customHeight="1">
       <c r="A298" s="181"/>
-      <c r="B298" s="313"/>
-      <c r="C298" s="318"/>
-      <c r="D298" s="304"/>
+      <c r="B298" s="308"/>
+      <c r="C298" s="323"/>
+      <c r="D298" s="317"/>
       <c r="E298" s="175"/>
       <c r="F298" s="175"/>
       <c r="G298" s="177" t="s">
@@ -27449,8 +27493,8 @@
       <c r="A299" s="183" t="s">
         <v>1487</v>
       </c>
-      <c r="B299" s="313"/>
-      <c r="C299" s="308" t="s">
+      <c r="B299" s="308"/>
+      <c r="C299" s="312" t="s">
         <v>3011</v>
       </c>
       <c r="D299" s="192" t="s">
@@ -27470,8 +27514,8 @@
     </row>
     <row r="300" spans="1:13" ht="14.25" customHeight="1">
       <c r="A300" s="183"/>
-      <c r="B300" s="314"/>
-      <c r="C300" s="310"/>
+      <c r="B300" s="309"/>
+      <c r="C300" s="314"/>
       <c r="D300" s="193" t="s">
         <v>2899</v>
       </c>
@@ -28156,7 +28200,7 @@
     </row>
     <row r="340" spans="1:13" ht="14.25" customHeight="1">
       <c r="A340" s="183"/>
-      <c r="B340" s="312" t="s">
+      <c r="B340" s="307" t="s">
         <v>3036</v>
       </c>
       <c r="C340" s="258" t="s">
@@ -28177,11 +28221,11 @@
     </row>
     <row r="341" spans="1:13" ht="14.25" customHeight="1">
       <c r="A341" s="183"/>
-      <c r="B341" s="313"/>
-      <c r="C341" s="311" t="s">
+      <c r="B341" s="308"/>
+      <c r="C341" s="331" t="s">
         <v>132</v>
       </c>
-      <c r="D341" s="303" t="s">
+      <c r="D341" s="315" t="s">
         <v>2149</v>
       </c>
       <c r="E341" s="175"/>
@@ -28198,9 +28242,9 @@
     </row>
     <row r="342" spans="1:13" ht="14.25" customHeight="1">
       <c r="A342" s="183"/>
-      <c r="B342" s="313"/>
-      <c r="C342" s="311"/>
-      <c r="D342" s="304"/>
+      <c r="B342" s="308"/>
+      <c r="C342" s="331"/>
+      <c r="D342" s="317"/>
       <c r="E342" s="175"/>
       <c r="F342" s="175"/>
       <c r="G342" s="177" t="s">
@@ -28217,9 +28261,9 @@
     </row>
     <row r="343" spans="1:13" ht="14.25" customHeight="1">
       <c r="A343" s="183"/>
-      <c r="B343" s="313"/>
-      <c r="C343" s="311"/>
-      <c r="D343" s="304"/>
+      <c r="B343" s="308"/>
+      <c r="C343" s="331"/>
+      <c r="D343" s="317"/>
       <c r="E343" s="175"/>
       <c r="F343" s="175"/>
       <c r="G343" s="177" t="s">
@@ -28236,9 +28280,9 @@
     </row>
     <row r="344" spans="1:13" ht="14.25" customHeight="1">
       <c r="A344" s="183"/>
-      <c r="B344" s="313"/>
-      <c r="C344" s="311"/>
-      <c r="D344" s="304"/>
+      <c r="B344" s="308"/>
+      <c r="C344" s="331"/>
+      <c r="D344" s="317"/>
       <c r="E344" s="174"/>
       <c r="F344" s="174"/>
       <c r="G344" s="259" t="s">
@@ -28255,9 +28299,9 @@
     </row>
     <row r="345" spans="1:13" ht="14.25" customHeight="1">
       <c r="A345" s="183"/>
-      <c r="B345" s="313"/>
-      <c r="C345" s="311"/>
-      <c r="D345" s="304"/>
+      <c r="B345" s="308"/>
+      <c r="C345" s="331"/>
+      <c r="D345" s="317"/>
       <c r="E345" s="174"/>
       <c r="F345" s="174"/>
       <c r="G345" s="259" t="s">
@@ -28274,9 +28318,9 @@
     </row>
     <row r="346" spans="1:13" ht="14.25" customHeight="1">
       <c r="A346" s="183"/>
-      <c r="B346" s="313"/>
-      <c r="C346" s="311"/>
-      <c r="D346" s="304"/>
+      <c r="B346" s="308"/>
+      <c r="C346" s="331"/>
+      <c r="D346" s="317"/>
       <c r="E346" s="174"/>
       <c r="F346" s="174"/>
       <c r="G346" s="259" t="s">
@@ -28293,9 +28337,9 @@
     </row>
     <row r="347" spans="1:13" ht="14.25" customHeight="1">
       <c r="A347" s="183"/>
-      <c r="B347" s="313"/>
-      <c r="C347" s="311"/>
-      <c r="D347" s="304"/>
+      <c r="B347" s="308"/>
+      <c r="C347" s="331"/>
+      <c r="D347" s="317"/>
       <c r="E347" s="174"/>
       <c r="F347" s="174"/>
       <c r="G347" s="259" t="s">
@@ -28312,9 +28356,9 @@
     </row>
     <row r="348" spans="1:13" ht="14.25" customHeight="1">
       <c r="A348" s="183"/>
-      <c r="B348" s="313"/>
-      <c r="C348" s="311"/>
-      <c r="D348" s="304"/>
+      <c r="B348" s="308"/>
+      <c r="C348" s="331"/>
+      <c r="D348" s="317"/>
       <c r="E348" s="174"/>
       <c r="F348" s="174"/>
       <c r="G348" s="259" t="s">
@@ -28331,9 +28375,9 @@
     </row>
     <row r="349" spans="1:13" ht="14.25" customHeight="1">
       <c r="A349" s="183"/>
-      <c r="B349" s="313"/>
-      <c r="C349" s="311"/>
-      <c r="D349" s="304"/>
+      <c r="B349" s="308"/>
+      <c r="C349" s="331"/>
+      <c r="D349" s="317"/>
       <c r="E349" s="174"/>
       <c r="F349" s="174"/>
       <c r="G349" s="259" t="s">
@@ -28350,9 +28394,9 @@
     </row>
     <row r="350" spans="1:13" ht="14.25" customHeight="1">
       <c r="A350" s="183"/>
-      <c r="B350" s="313"/>
-      <c r="C350" s="311"/>
-      <c r="D350" s="304"/>
+      <c r="B350" s="308"/>
+      <c r="C350" s="331"/>
+      <c r="D350" s="317"/>
       <c r="E350" s="174"/>
       <c r="F350" s="174"/>
       <c r="G350" s="259" t="s">
@@ -28369,9 +28413,9 @@
     </row>
     <row r="351" spans="1:13" ht="14.25" customHeight="1">
       <c r="A351" s="183"/>
-      <c r="B351" s="313"/>
-      <c r="C351" s="311"/>
-      <c r="D351" s="305"/>
+      <c r="B351" s="308"/>
+      <c r="C351" s="331"/>
+      <c r="D351" s="316"/>
       <c r="E351" s="174"/>
       <c r="F351" s="174"/>
       <c r="G351" s="259" t="s">
@@ -28388,8 +28432,8 @@
     </row>
     <row r="352" spans="1:13" ht="14.25" customHeight="1">
       <c r="A352" s="183"/>
-      <c r="B352" s="313"/>
-      <c r="C352" s="311"/>
+      <c r="B352" s="308"/>
+      <c r="C352" s="331"/>
       <c r="D352" s="260" t="s">
         <v>2160</v>
       </c>
@@ -28407,9 +28451,9 @@
     </row>
     <row r="353" spans="1:13" ht="14.25" customHeight="1">
       <c r="A353" s="183"/>
-      <c r="B353" s="313"/>
-      <c r="C353" s="311"/>
-      <c r="D353" s="332" t="s">
+      <c r="B353" s="308"/>
+      <c r="C353" s="331"/>
+      <c r="D353" s="310" t="s">
         <v>2175</v>
       </c>
       <c r="E353" s="174"/>
@@ -28430,9 +28474,9 @@
     </row>
     <row r="354" spans="1:13" ht="14.25" customHeight="1">
       <c r="A354" s="183"/>
-      <c r="B354" s="313"/>
-      <c r="C354" s="311"/>
-      <c r="D354" s="334"/>
+      <c r="B354" s="308"/>
+      <c r="C354" s="331"/>
+      <c r="D354" s="318"/>
       <c r="E354" s="174"/>
       <c r="F354" s="174"/>
       <c r="G354" s="259" t="s">
@@ -28449,9 +28493,9 @@
     </row>
     <row r="355" spans="1:13" ht="14.25" customHeight="1">
       <c r="A355" s="183"/>
-      <c r="B355" s="313"/>
-      <c r="C355" s="311"/>
-      <c r="D355" s="334"/>
+      <c r="B355" s="308"/>
+      <c r="C355" s="331"/>
+      <c r="D355" s="318"/>
       <c r="E355" s="174"/>
       <c r="F355" s="174"/>
       <c r="G355" s="259" t="s">
@@ -28470,9 +28514,9 @@
     </row>
     <row r="356" spans="1:13" ht="14.25" customHeight="1">
       <c r="A356" s="183"/>
-      <c r="B356" s="313"/>
-      <c r="C356" s="311"/>
-      <c r="D356" s="334"/>
+      <c r="B356" s="308"/>
+      <c r="C356" s="331"/>
+      <c r="D356" s="318"/>
       <c r="E356" s="174"/>
       <c r="F356" s="174"/>
       <c r="G356" s="259" t="s">
@@ -28489,9 +28533,9 @@
     </row>
     <row r="357" spans="1:13" ht="14.25" customHeight="1">
       <c r="A357" s="183"/>
-      <c r="B357" s="313"/>
-      <c r="C357" s="311"/>
-      <c r="D357" s="334"/>
+      <c r="B357" s="308"/>
+      <c r="C357" s="331"/>
+      <c r="D357" s="318"/>
       <c r="E357" s="174"/>
       <c r="F357" s="174"/>
       <c r="G357" s="259" t="s">
@@ -28510,9 +28554,9 @@
     </row>
     <row r="358" spans="1:13" ht="14.25" customHeight="1">
       <c r="A358" s="183"/>
-      <c r="B358" s="313"/>
-      <c r="C358" s="311"/>
-      <c r="D358" s="334"/>
+      <c r="B358" s="308"/>
+      <c r="C358" s="331"/>
+      <c r="D358" s="318"/>
       <c r="E358" s="174"/>
       <c r="F358" s="174"/>
       <c r="G358" s="259" t="s">
@@ -28529,9 +28573,9 @@
     </row>
     <row r="359" spans="1:13" ht="14.25" customHeight="1">
       <c r="A359" s="183"/>
-      <c r="B359" s="313"/>
-      <c r="C359" s="311"/>
-      <c r="D359" s="334"/>
+      <c r="B359" s="308"/>
+      <c r="C359" s="331"/>
+      <c r="D359" s="318"/>
       <c r="E359" s="174"/>
       <c r="F359" s="174"/>
       <c r="G359" s="259" t="s">
@@ -28550,9 +28594,9 @@
     </row>
     <row r="360" spans="1:13" ht="14.25" customHeight="1">
       <c r="A360" s="183"/>
-      <c r="B360" s="313"/>
-      <c r="C360" s="311"/>
-      <c r="D360" s="334"/>
+      <c r="B360" s="308"/>
+      <c r="C360" s="331"/>
+      <c r="D360" s="318"/>
       <c r="E360" s="174"/>
       <c r="F360" s="174"/>
       <c r="G360" s="259" t="s">
@@ -28569,9 +28613,9 @@
     </row>
     <row r="361" spans="1:13" ht="14.25" customHeight="1">
       <c r="A361" s="183"/>
-      <c r="B361" s="313"/>
-      <c r="C361" s="311"/>
-      <c r="D361" s="334"/>
+      <c r="B361" s="308"/>
+      <c r="C361" s="331"/>
+      <c r="D361" s="318"/>
       <c r="E361" s="174"/>
       <c r="F361" s="174"/>
       <c r="G361" s="259" t="s">
@@ -28590,9 +28634,9 @@
     </row>
     <row r="362" spans="1:13" ht="14.25" customHeight="1">
       <c r="A362" s="183"/>
-      <c r="B362" s="313"/>
-      <c r="C362" s="311"/>
-      <c r="D362" s="334"/>
+      <c r="B362" s="308"/>
+      <c r="C362" s="331"/>
+      <c r="D362" s="318"/>
       <c r="E362" s="174"/>
       <c r="F362" s="174"/>
       <c r="G362" s="261" t="s">
@@ -28613,9 +28657,9 @@
     </row>
     <row r="363" spans="1:13" ht="14.25" customHeight="1">
       <c r="A363" s="183"/>
-      <c r="B363" s="313"/>
-      <c r="C363" s="311"/>
-      <c r="D363" s="333"/>
+      <c r="B363" s="308"/>
+      <c r="C363" s="331"/>
+      <c r="D363" s="311"/>
       <c r="E363" s="174"/>
       <c r="F363" s="174"/>
       <c r="G363" s="261" t="s">
@@ -28634,9 +28678,9 @@
     </row>
     <row r="364" spans="1:13" ht="14.25" customHeight="1">
       <c r="A364" s="183"/>
-      <c r="B364" s="313"/>
-      <c r="C364" s="311"/>
-      <c r="D364" s="329" t="s">
+      <c r="B364" s="308"/>
+      <c r="C364" s="331"/>
+      <c r="D364" s="304" t="s">
         <v>2176</v>
       </c>
       <c r="E364" s="174"/>
@@ -28655,9 +28699,9 @@
     </row>
     <row r="365" spans="1:13" ht="14.25" customHeight="1">
       <c r="A365" s="183"/>
-      <c r="B365" s="313"/>
-      <c r="C365" s="311"/>
-      <c r="D365" s="330"/>
+      <c r="B365" s="308"/>
+      <c r="C365" s="331"/>
+      <c r="D365" s="305"/>
       <c r="E365" s="174"/>
       <c r="F365" s="174"/>
       <c r="G365" s="259" t="s">
@@ -28676,9 +28720,9 @@
     </row>
     <row r="366" spans="1:13" ht="14.25" customHeight="1">
       <c r="A366" s="183"/>
-      <c r="B366" s="313"/>
-      <c r="C366" s="311"/>
-      <c r="D366" s="330"/>
+      <c r="B366" s="308"/>
+      <c r="C366" s="331"/>
+      <c r="D366" s="305"/>
       <c r="E366" s="174"/>
       <c r="F366" s="174"/>
       <c r="G366" s="259" t="s">
@@ -28697,9 +28741,9 @@
     </row>
     <row r="367" spans="1:13" ht="14.25" customHeight="1">
       <c r="A367" s="183"/>
-      <c r="B367" s="313"/>
-      <c r="C367" s="311"/>
-      <c r="D367" s="331"/>
+      <c r="B367" s="308"/>
+      <c r="C367" s="331"/>
+      <c r="D367" s="306"/>
       <c r="E367" s="174"/>
       <c r="F367" s="174"/>
       <c r="G367" s="259" t="s">
@@ -28718,9 +28762,9 @@
     </row>
     <row r="368" spans="1:13" ht="14.25" customHeight="1">
       <c r="A368" s="183"/>
-      <c r="B368" s="313"/>
-      <c r="C368" s="311"/>
-      <c r="D368" s="329" t="s">
+      <c r="B368" s="308"/>
+      <c r="C368" s="331"/>
+      <c r="D368" s="304" t="s">
         <v>2177</v>
       </c>
       <c r="E368" s="174"/>
@@ -28741,9 +28785,9 @@
     </row>
     <row r="369" spans="1:13" ht="14.25" customHeight="1">
       <c r="A369" s="183"/>
-      <c r="B369" s="313"/>
-      <c r="C369" s="311"/>
-      <c r="D369" s="330"/>
+      <c r="B369" s="308"/>
+      <c r="C369" s="331"/>
+      <c r="D369" s="305"/>
       <c r="E369" s="174"/>
       <c r="F369" s="174"/>
       <c r="G369" s="259" t="s">
@@ -28762,9 +28806,9 @@
     </row>
     <row r="370" spans="1:13" ht="14.25" customHeight="1">
       <c r="A370" s="183"/>
-      <c r="B370" s="313"/>
-      <c r="C370" s="311"/>
-      <c r="D370" s="330"/>
+      <c r="B370" s="308"/>
+      <c r="C370" s="331"/>
+      <c r="D370" s="305"/>
       <c r="E370" s="174"/>
       <c r="F370" s="174"/>
       <c r="G370" s="259" t="s">
@@ -28783,9 +28827,9 @@
     </row>
     <row r="371" spans="1:13" ht="14.25" customHeight="1">
       <c r="A371" s="183"/>
-      <c r="B371" s="313"/>
-      <c r="C371" s="311"/>
-      <c r="D371" s="331"/>
+      <c r="B371" s="308"/>
+      <c r="C371" s="331"/>
+      <c r="D371" s="306"/>
       <c r="E371" s="174"/>
       <c r="F371" s="174"/>
       <c r="G371" s="259" t="s">
@@ -28804,9 +28848,9 @@
     </row>
     <row r="372" spans="1:13" ht="14.25" customHeight="1">
       <c r="A372" s="183"/>
-      <c r="B372" s="313"/>
-      <c r="C372" s="311"/>
-      <c r="D372" s="332" t="s">
+      <c r="B372" s="308"/>
+      <c r="C372" s="331"/>
+      <c r="D372" s="310" t="s">
         <v>2182</v>
       </c>
       <c r="E372" s="174"/>
@@ -28825,9 +28869,9 @@
     </row>
     <row r="373" spans="1:13" ht="14.25" customHeight="1">
       <c r="A373" s="183"/>
-      <c r="B373" s="313"/>
-      <c r="C373" s="311"/>
-      <c r="D373" s="333"/>
+      <c r="B373" s="308"/>
+      <c r="C373" s="331"/>
+      <c r="D373" s="311"/>
       <c r="E373" s="174"/>
       <c r="F373" s="174"/>
       <c r="G373" s="259" t="s">
@@ -28846,8 +28890,8 @@
     </row>
     <row r="374" spans="1:13" ht="14.25" customHeight="1">
       <c r="A374" s="183"/>
-      <c r="B374" s="313"/>
-      <c r="C374" s="311"/>
+      <c r="B374" s="308"/>
+      <c r="C374" s="331"/>
       <c r="D374" s="288" t="s">
         <v>2183</v>
       </c>
@@ -28867,8 +28911,8 @@
     </row>
     <row r="375" spans="1:13" ht="18.95" customHeight="1">
       <c r="A375" s="183"/>
-      <c r="B375" s="313"/>
-      <c r="C375" s="311"/>
+      <c r="B375" s="308"/>
+      <c r="C375" s="331"/>
       <c r="D375" s="263" t="s">
         <v>2189</v>
       </c>
@@ -28892,8 +28936,8 @@
     </row>
     <row r="376" spans="1:13" ht="14.25" customHeight="1">
       <c r="A376" s="183"/>
-      <c r="B376" s="313"/>
-      <c r="C376" s="311"/>
+      <c r="B376" s="308"/>
+      <c r="C376" s="331"/>
       <c r="D376" s="264" t="s">
         <v>2190</v>
       </c>
@@ -28911,8 +28955,8 @@
     </row>
     <row r="377" spans="1:13" ht="14.25" customHeight="1">
       <c r="A377" s="183"/>
-      <c r="B377" s="313"/>
-      <c r="C377" s="311"/>
+      <c r="B377" s="308"/>
+      <c r="C377" s="331"/>
       <c r="D377" s="260" t="s">
         <v>2206</v>
       </c>
@@ -28932,8 +28976,8 @@
     </row>
     <row r="378" spans="1:13" ht="14.25" customHeight="1">
       <c r="A378" s="183"/>
-      <c r="B378" s="313"/>
-      <c r="C378" s="311"/>
+      <c r="B378" s="308"/>
+      <c r="C378" s="331"/>
       <c r="D378" s="260"/>
       <c r="E378" s="174"/>
       <c r="F378" s="174"/>
@@ -28953,8 +28997,8 @@
     </row>
     <row r="379" spans="1:13" ht="14.25" customHeight="1">
       <c r="A379" s="183"/>
-      <c r="B379" s="313"/>
-      <c r="C379" s="311"/>
+      <c r="B379" s="308"/>
+      <c r="C379" s="331"/>
       <c r="D379" s="260"/>
       <c r="E379" s="174"/>
       <c r="F379" s="174"/>
@@ -28972,8 +29016,8 @@
     </row>
     <row r="380" spans="1:13" ht="14.25" customHeight="1">
       <c r="A380" s="183"/>
-      <c r="B380" s="313"/>
-      <c r="C380" s="311"/>
+      <c r="B380" s="308"/>
+      <c r="C380" s="331"/>
       <c r="D380" s="260" t="s">
         <v>2215</v>
       </c>
@@ -28993,8 +29037,8 @@
     </row>
     <row r="381" spans="1:13" ht="14.25" customHeight="1">
       <c r="A381" s="183"/>
-      <c r="B381" s="313"/>
-      <c r="C381" s="311"/>
+      <c r="B381" s="308"/>
+      <c r="C381" s="331"/>
       <c r="D381" s="260"/>
       <c r="E381" s="174"/>
       <c r="F381" s="174"/>
@@ -29014,8 +29058,8 @@
     </row>
     <row r="382" spans="1:13" ht="14.25" customHeight="1">
       <c r="A382" s="183"/>
-      <c r="B382" s="313"/>
-      <c r="C382" s="311"/>
+      <c r="B382" s="308"/>
+      <c r="C382" s="331"/>
       <c r="D382" s="260"/>
       <c r="E382" s="174"/>
       <c r="F382" s="174"/>
@@ -29033,8 +29077,8 @@
     </row>
     <row r="383" spans="1:13" ht="14.25" customHeight="1">
       <c r="A383" s="183"/>
-      <c r="B383" s="313"/>
-      <c r="C383" s="311"/>
+      <c r="B383" s="308"/>
+      <c r="C383" s="331"/>
       <c r="D383" s="260" t="s">
         <v>2216</v>
       </c>
@@ -29052,8 +29096,8 @@
     </row>
     <row r="384" spans="1:13" ht="14.25" customHeight="1">
       <c r="A384" s="183"/>
-      <c r="B384" s="313"/>
-      <c r="C384" s="311"/>
+      <c r="B384" s="308"/>
+      <c r="C384" s="331"/>
       <c r="D384" s="260" t="s">
         <v>2217</v>
       </c>
@@ -29071,7 +29115,7 @@
     </row>
     <row r="385" spans="1:13" ht="14.25" customHeight="1">
       <c r="A385" s="181"/>
-      <c r="B385" s="314"/>
+      <c r="B385" s="309"/>
       <c r="C385" s="265" t="s">
         <v>2218</v>
       </c>
@@ -29239,6 +29283,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="D136:D143"/>
+    <mergeCell ref="D158:D167"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="C119:C143"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="C2:C66"/>
+    <mergeCell ref="C341:C384"/>
+    <mergeCell ref="B2:B66"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="B75:B194"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="C150:C167"/>
+    <mergeCell ref="C185:C194"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="D177:D184"/>
+    <mergeCell ref="D168:D176"/>
+    <mergeCell ref="C242:C258"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D21:D66"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="C75:C100"/>
+    <mergeCell ref="C101:C118"/>
+    <mergeCell ref="C259:C279"/>
+    <mergeCell ref="D259:D279"/>
+    <mergeCell ref="C280:C298"/>
+    <mergeCell ref="D280:D298"/>
+    <mergeCell ref="D205:D210"/>
     <mergeCell ref="D364:D367"/>
     <mergeCell ref="D368:D371"/>
     <mergeCell ref="B340:B385"/>
@@ -29255,57 +29350,6 @@
     <mergeCell ref="D242:D258"/>
     <mergeCell ref="C211:C241"/>
     <mergeCell ref="D211:D241"/>
-    <mergeCell ref="C259:C279"/>
-    <mergeCell ref="D259:D279"/>
-    <mergeCell ref="C280:C298"/>
-    <mergeCell ref="D280:D298"/>
-    <mergeCell ref="D205:D210"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="C75:C100"/>
-    <mergeCell ref="C101:C118"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D21:D66"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="C2:C66"/>
-    <mergeCell ref="C341:C384"/>
-    <mergeCell ref="B2:B66"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="B75:B194"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="C150:C167"/>
-    <mergeCell ref="C185:C194"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="D177:D184"/>
-    <mergeCell ref="D168:D176"/>
-    <mergeCell ref="C242:C258"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="D136:D143"/>
-    <mergeCell ref="D158:D167"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="C119:C143"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="D147:D148"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29374,8 +29418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="G5" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="12.75"/>
@@ -29434,7 +29478,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="48">
-      <c r="B3" s="340" t="s">
+      <c r="B3" s="341" t="s">
         <v>198</v>
       </c>
       <c r="C3" s="82" t="s">
@@ -29466,7 +29510,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="341"/>
+      <c r="B4" s="342"/>
       <c r="C4" s="82" t="s">
         <v>74</v>
       </c>
@@ -29490,7 +29534,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="38.25">
-      <c r="B5" s="341"/>
+      <c r="B5" s="342"/>
       <c r="C5" s="82" t="s">
         <v>75</v>
       </c>
@@ -29520,7 +29564,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="60.75" customHeight="1">
-      <c r="B6" s="341"/>
+      <c r="B6" s="342"/>
       <c r="C6" s="82" t="s">
         <v>200</v>
       </c>
@@ -29550,7 +29594,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="38.25">
-      <c r="B7" s="341"/>
+      <c r="B7" s="342"/>
       <c r="C7" s="162" t="s">
         <v>76</v>
       </c>
@@ -29575,7 +29619,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="B8" s="341"/>
+      <c r="B8" s="342"/>
       <c r="C8" s="82" t="s">
         <v>201</v>
       </c>
@@ -29608,7 +29652,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="341"/>
+      <c r="B9" s="342"/>
       <c r="C9" s="82" t="s">
         <v>202</v>
       </c>
@@ -29638,7 +29682,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B10" s="342"/>
+      <c r="B10" s="343"/>
       <c r="C10" s="89" t="s">
         <v>203</v>
       </c>
@@ -29668,7 +29712,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="25.5">
-      <c r="B11" s="343" t="s">
+      <c r="B11" s="344" t="s">
         <v>244</v>
       </c>
       <c r="C11" s="94" t="s">
@@ -29700,7 +29744,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="25.5">
-      <c r="B12" s="341"/>
+      <c r="B12" s="342"/>
       <c r="C12" s="82" t="s">
         <v>216</v>
       </c>
@@ -29730,7 +29774,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="25.5">
-      <c r="B13" s="341"/>
+      <c r="B13" s="342"/>
       <c r="C13" s="82" t="s">
         <v>217</v>
       </c>
@@ -29757,7 +29801,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="25.5">
-      <c r="B14" s="341"/>
+      <c r="B14" s="342"/>
       <c r="C14" s="82" t="s">
         <v>218</v>
       </c>
@@ -29784,7 +29828,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="29.25" thickBot="1">
-      <c r="B15" s="341"/>
+      <c r="B15" s="342"/>
       <c r="C15" s="98" t="s">
         <v>226</v>
       </c>
@@ -29811,7 +29855,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="279" customFormat="1" ht="26.25" hidden="1" thickBot="1">
-      <c r="B16" s="342"/>
+      <c r="B16" s="343"/>
       <c r="C16" s="280" t="s">
         <v>78</v>
       </c>
@@ -29838,7 +29882,7 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="17.100000000000001" customHeight="1">
-      <c r="B17" s="343" t="s">
+      <c r="B17" s="344" t="s">
         <v>232</v>
       </c>
       <c r="C17" s="94" t="s">
@@ -29868,7 +29912,7 @@
       </c>
     </row>
     <row r="18" spans="2:14" s="102" customFormat="1" ht="51">
-      <c r="B18" s="341"/>
+      <c r="B18" s="342"/>
       <c r="C18" s="82" t="s">
         <v>79</v>
       </c>
@@ -29896,7 +29940,7 @@
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="341"/>
+      <c r="B19" s="342"/>
       <c r="C19" s="82" t="s">
         <v>228</v>
       </c>
@@ -29924,7 +29968,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="51">
-      <c r="B20" s="341"/>
+      <c r="B20" s="342"/>
       <c r="C20" s="82" t="s">
         <v>76</v>
       </c>
@@ -29952,7 +29996,7 @@
       </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="341"/>
+      <c r="B21" s="342"/>
       <c r="C21" s="82" t="s">
         <v>229</v>
       </c>
@@ -29980,7 +30024,7 @@
       </c>
     </row>
     <row r="22" spans="2:14" hidden="1">
-      <c r="B22" s="341"/>
+      <c r="B22" s="342"/>
       <c r="C22" s="103" t="s">
         <v>80</v>
       </c>
@@ -30008,7 +30052,7 @@
       </c>
     </row>
     <row r="23" spans="2:14" hidden="1">
-      <c r="B23" s="341"/>
+      <c r="B23" s="342"/>
       <c r="C23" s="103" t="s">
         <v>81</v>
       </c>
@@ -30034,7 +30078,7 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="26.25" thickBot="1">
-      <c r="B24" s="342"/>
+      <c r="B24" s="343"/>
       <c r="C24" s="89" t="s">
         <v>711</v>
       </c>
@@ -30062,7 +30106,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="25.5">
-      <c r="B25" s="343" t="s">
+      <c r="B25" s="344" t="s">
         <v>240</v>
       </c>
       <c r="C25" s="94" t="s">
@@ -30094,7 +30138,7 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="25.5">
-      <c r="B26" s="341"/>
+      <c r="B26" s="342"/>
       <c r="C26" s="82" t="s">
         <v>234</v>
       </c>
@@ -30121,7 +30165,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="38.25">
-      <c r="B27" s="341"/>
+      <c r="B27" s="342"/>
       <c r="C27" s="82" t="s">
         <v>235</v>
       </c>
@@ -30154,7 +30198,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="38.25">
-      <c r="B28" s="341"/>
+      <c r="B28" s="342"/>
       <c r="C28" s="82" t="s">
         <v>236</v>
       </c>
@@ -30184,7 +30228,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="25.5">
-      <c r="B29" s="341"/>
+      <c r="B29" s="342"/>
       <c r="C29" s="82" t="s">
         <v>83</v>
       </c>
@@ -30214,7 +30258,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" hidden="1">
-      <c r="B30" s="341"/>
+      <c r="B30" s="342"/>
       <c r="C30" s="103" t="s">
         <v>84</v>
       </c>
@@ -30242,7 +30286,7 @@
       </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="341"/>
+      <c r="B31" s="342"/>
       <c r="C31" s="82" t="s">
         <v>237</v>
       </c>
@@ -30272,7 +30316,7 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="25.5" hidden="1">
-      <c r="B32" s="341"/>
+      <c r="B32" s="342"/>
       <c r="C32" s="69" t="s">
         <v>238</v>
       </c>
@@ -30300,7 +30344,7 @@
       </c>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="341"/>
+      <c r="B33" s="342"/>
       <c r="C33" s="82" t="s">
         <v>88</v>
       </c>
@@ -30330,7 +30374,7 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="26.25" thickBot="1">
-      <c r="B34" s="341"/>
+      <c r="B34" s="342"/>
       <c r="C34" s="82" t="s">
         <v>239</v>
       </c>
@@ -30360,7 +30404,7 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="13.5" hidden="1" thickBot="1">
-      <c r="B35" s="342"/>
+      <c r="B35" s="343"/>
       <c r="C35" s="110" t="s">
         <v>86</v>
       </c>
@@ -30388,7 +30432,7 @@
       </c>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="343" t="s">
+      <c r="B36" s="344" t="s">
         <v>242</v>
       </c>
       <c r="C36" s="94" t="s">
@@ -30416,7 +30460,7 @@
       </c>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="341"/>
+      <c r="B37" s="342"/>
       <c r="C37" s="82" t="s">
         <v>87</v>
       </c>
@@ -30442,7 +30486,7 @@
       </c>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="341"/>
+      <c r="B38" s="342"/>
       <c r="C38" s="82" t="s">
         <v>90</v>
       </c>
@@ -30465,7 +30509,7 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="13.5" thickBot="1">
-      <c r="B39" s="342"/>
+      <c r="B39" s="343"/>
       <c r="C39" s="89" t="s">
         <v>91</v>
       </c>
@@ -30491,7 +30535,7 @@
       </c>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="338" t="s">
+      <c r="B40" s="339" t="s">
         <v>245</v>
       </c>
       <c r="C40" s="94" t="s">
@@ -30512,7 +30556,7 @@
       </c>
     </row>
     <row r="41" spans="2:14" ht="13.5" thickBot="1">
-      <c r="B41" s="339"/>
+      <c r="B41" s="340"/>
       <c r="C41" s="89" t="s">
         <v>93</v>
       </c>
@@ -31639,13 +31683,13 @@
       <c r="B2" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="C2" s="347" t="s">
+      <c r="C2" s="348" t="s">
         <v>3014</v>
       </c>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="349"/>
+      <c r="D2" s="349"/>
+      <c r="E2" s="349"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="350"/>
       <c r="H2" s="41" t="s">
         <v>822</v>
       </c>
@@ -31655,13 +31699,13 @@
       <c r="B3" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="C3" s="350" t="s">
+      <c r="C3" s="351" t="s">
         <v>824</v>
       </c>
-      <c r="D3" s="351"/>
-      <c r="E3" s="351"/>
-      <c r="F3" s="351"/>
-      <c r="G3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="353"/>
       <c r="H3" s="45" t="s">
         <v>825</v>
       </c>
@@ -31671,16 +31715,16 @@
       <c r="B4" s="44" t="s">
         <v>826</v>
       </c>
-      <c r="C4" s="353"/>
-      <c r="D4" s="354"/>
-      <c r="E4" s="354"/>
-      <c r="F4" s="354"/>
-      <c r="G4" s="354"/>
-      <c r="H4" s="354"/>
-      <c r="I4" s="355"/>
+      <c r="C4" s="354"/>
+      <c r="D4" s="355"/>
+      <c r="E4" s="355"/>
+      <c r="F4" s="355"/>
+      <c r="G4" s="355"/>
+      <c r="H4" s="355"/>
+      <c r="I4" s="356"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="356" t="s">
+      <c r="B5" s="357" t="s">
         <v>827</v>
       </c>
       <c r="C5" s="41" t="s">
@@ -31716,7 +31760,7 @@
       <c r="M5" s="169"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="357"/>
+      <c r="B6" s="358"/>
       <c r="C6" s="48" t="s">
         <v>838</v>
       </c>
@@ -31740,7 +31784,7 @@
       <c r="M6" s="169"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="357"/>
+      <c r="B7" s="358"/>
       <c r="C7" s="48" t="s">
         <v>844</v>
       </c>
@@ -31760,7 +31804,7 @@
       <c r="M7" s="169"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="357"/>
+      <c r="B8" s="358"/>
       <c r="C8" s="48" t="s">
         <v>847</v>
       </c>
@@ -31786,7 +31830,7 @@
       <c r="M8" s="169"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="357"/>
+      <c r="B9" s="358"/>
       <c r="C9" s="48" t="s">
         <v>852</v>
       </c>
@@ -31812,7 +31856,7 @@
       <c r="M9" s="169"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="357"/>
+      <c r="B10" s="358"/>
       <c r="C10" s="48" t="s">
         <v>857</v>
       </c>
@@ -31830,7 +31874,7 @@
       <c r="M10" s="169"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="357"/>
+      <c r="B11" s="358"/>
       <c r="C11" s="48" t="s">
         <v>858</v>
       </c>
@@ -31856,7 +31900,7 @@
       <c r="M11" s="169"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="357"/>
+      <c r="B12" s="358"/>
       <c r="C12" s="48" t="s">
         <v>862</v>
       </c>
@@ -31884,7 +31928,7 @@
       <c r="M12" s="169"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="357"/>
+      <c r="B13" s="358"/>
       <c r="C13" s="48" t="s">
         <v>866</v>
       </c>
@@ -31904,7 +31948,7 @@
       <c r="M13" s="169"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="357"/>
+      <c r="B14" s="358"/>
       <c r="C14" s="48" t="s">
         <v>869</v>
       </c>
@@ -31930,7 +31974,7 @@
       <c r="M14" s="169"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="357"/>
+      <c r="B15" s="358"/>
       <c r="C15" s="48" t="s">
         <v>875</v>
       </c>
@@ -31956,7 +32000,7 @@
       <c r="M15" s="169"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="357"/>
+      <c r="B16" s="358"/>
       <c r="C16" s="48" t="s">
         <v>879</v>
       </c>
@@ -31984,7 +32028,7 @@
       <c r="M16" s="169"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="357"/>
+      <c r="B17" s="358"/>
       <c r="C17" s="48" t="s">
         <v>884</v>
       </c>
@@ -32004,7 +32048,7 @@
       <c r="M17" s="169"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="357"/>
+      <c r="B18" s="358"/>
       <c r="C18" s="48" t="s">
         <v>886</v>
       </c>
@@ -32024,7 +32068,7 @@
       <c r="M18" s="169"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="357"/>
+      <c r="B19" s="358"/>
       <c r="C19" s="48" t="s">
         <v>888</v>
       </c>
@@ -32044,7 +32088,7 @@
       <c r="M19" s="169"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="357"/>
+      <c r="B20" s="358"/>
       <c r="C20" s="48" t="s">
         <v>890</v>
       </c>
@@ -32064,7 +32108,7 @@
       <c r="M20" s="169"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="357"/>
+      <c r="B21" s="358"/>
       <c r="C21" s="48" t="s">
         <v>892</v>
       </c>
@@ -32084,7 +32128,7 @@
       <c r="M21" s="169"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="357"/>
+      <c r="B22" s="358"/>
       <c r="C22" s="48" t="s">
         <v>894</v>
       </c>
@@ -32110,7 +32154,7 @@
       <c r="M22" s="169"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="357"/>
+      <c r="B23" s="358"/>
       <c r="C23" s="48" t="s">
         <v>898</v>
       </c>
@@ -32138,7 +32182,7 @@
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="357"/>
+      <c r="B24" s="358"/>
       <c r="C24" s="48" t="s">
         <v>902</v>
       </c>
@@ -32166,7 +32210,7 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="357"/>
+      <c r="B25" s="358"/>
       <c r="C25" s="48" t="s">
         <v>905</v>
       </c>
@@ -32192,7 +32236,7 @@
       <c r="M25" s="169"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="357"/>
+      <c r="B26" s="358"/>
       <c r="C26" s="48" t="s">
         <v>909</v>
       </c>
@@ -32212,7 +32256,7 @@
       <c r="M26" s="169"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="357"/>
+      <c r="B27" s="358"/>
       <c r="C27" s="48" t="s">
         <v>912</v>
       </c>
@@ -32238,7 +32282,7 @@
       <c r="M27" s="169"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="357"/>
+      <c r="B28" s="358"/>
       <c r="C28" s="48" t="s">
         <v>916</v>
       </c>
@@ -32264,7 +32308,7 @@
       <c r="M28" s="169"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="357"/>
+      <c r="B29" s="358"/>
       <c r="C29" s="48" t="s">
         <v>920</v>
       </c>
@@ -32284,7 +32328,7 @@
       <c r="M29" s="169"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="357"/>
+      <c r="B30" s="358"/>
       <c r="C30" s="48" t="s">
         <v>922</v>
       </c>
@@ -32304,7 +32348,7 @@
       <c r="M30" s="169"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="357"/>
+      <c r="B31" s="358"/>
       <c r="C31" s="48" t="s">
         <v>924</v>
       </c>
@@ -32324,7 +32368,7 @@
       <c r="M31" s="169"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="357"/>
+      <c r="B32" s="358"/>
       <c r="C32" s="48" t="s">
         <v>926</v>
       </c>
@@ -32344,7 +32388,7 @@
       <c r="M32" s="169"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="357"/>
+      <c r="B33" s="358"/>
       <c r="C33" s="48" t="s">
         <v>928</v>
       </c>
@@ -32372,7 +32416,7 @@
       <c r="M33" s="169"/>
     </row>
     <row r="34" spans="2:13" ht="15" thickBot="1">
-      <c r="B34" s="358"/>
+      <c r="B34" s="359"/>
       <c r="C34" s="55" t="s">
         <v>934</v>
       </c>
@@ -32409,13 +32453,13 @@
       <c r="B37" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="C37" s="347" t="s">
+      <c r="C37" s="348" t="s">
         <v>939</v>
       </c>
-      <c r="D37" s="348"/>
-      <c r="E37" s="348"/>
-      <c r="F37" s="348"/>
-      <c r="G37" s="349"/>
+      <c r="D37" s="349"/>
+      <c r="E37" s="349"/>
+      <c r="F37" s="349"/>
+      <c r="G37" s="350"/>
       <c r="H37" s="41" t="s">
         <v>822</v>
       </c>
@@ -32426,13 +32470,13 @@
       <c r="B38" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="C38" s="350" t="s">
+      <c r="C38" s="351" t="s">
         <v>712</v>
       </c>
-      <c r="D38" s="351"/>
-      <c r="E38" s="351"/>
-      <c r="F38" s="351"/>
-      <c r="G38" s="352"/>
+      <c r="D38" s="352"/>
+      <c r="E38" s="352"/>
+      <c r="F38" s="352"/>
+      <c r="G38" s="353"/>
       <c r="H38" s="45" t="s">
         <v>825</v>
       </c>
@@ -32443,17 +32487,17 @@
       <c r="B39" s="44" t="s">
         <v>826</v>
       </c>
-      <c r="C39" s="353"/>
-      <c r="D39" s="354"/>
-      <c r="E39" s="354"/>
-      <c r="F39" s="354"/>
-      <c r="G39" s="354"/>
-      <c r="H39" s="354"/>
-      <c r="I39" s="355"/>
+      <c r="C39" s="354"/>
+      <c r="D39" s="355"/>
+      <c r="E39" s="355"/>
+      <c r="F39" s="355"/>
+      <c r="G39" s="355"/>
+      <c r="H39" s="355"/>
+      <c r="I39" s="356"/>
       <c r="M39" s="169"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="344" t="s">
+      <c r="B40" s="345" t="s">
         <v>827</v>
       </c>
       <c r="C40" s="41" t="s">
@@ -32489,7 +32533,7 @@
       <c r="M40" s="169"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="345"/>
+      <c r="B41" s="346"/>
       <c r="C41" s="48" t="s">
         <v>847</v>
       </c>
@@ -32519,7 +32563,7 @@
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="345"/>
+      <c r="B42" s="346"/>
       <c r="C42" s="48" t="s">
         <v>942</v>
       </c>
@@ -32540,7 +32584,7 @@
       <c r="M42" s="169"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="345"/>
+      <c r="B43" s="346"/>
       <c r="C43" s="48" t="s">
         <v>844</v>
       </c>
@@ -32564,7 +32608,7 @@
       <c r="M43" s="169"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="345"/>
+      <c r="B44" s="346"/>
       <c r="C44" s="48" t="s">
         <v>852</v>
       </c>
@@ -32592,7 +32636,7 @@
       <c r="M44" s="169"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="345"/>
+      <c r="B45" s="346"/>
       <c r="C45" s="48" t="s">
         <v>948</v>
       </c>
@@ -32612,7 +32656,7 @@
       <c r="M45" s="169"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="345"/>
+      <c r="B46" s="346"/>
       <c r="C46" s="48" t="s">
         <v>858</v>
       </c>
@@ -32638,7 +32682,7 @@
       <c r="M46" s="169"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="345"/>
+      <c r="B47" s="346"/>
       <c r="C47" s="48" t="s">
         <v>951</v>
       </c>
@@ -32664,7 +32708,7 @@
       <c r="M47" s="169"/>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="345"/>
+      <c r="B48" s="346"/>
       <c r="C48" s="48" t="s">
         <v>954</v>
       </c>
@@ -32684,7 +32728,7 @@
       <c r="M48" s="169"/>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="345"/>
+      <c r="B49" s="346"/>
       <c r="C49" s="48" t="s">
         <v>957</v>
       </c>
@@ -32704,7 +32748,7 @@
       <c r="M49" s="169"/>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="345"/>
+      <c r="B50" s="346"/>
       <c r="C50" s="48" t="s">
         <v>959</v>
       </c>
@@ -32732,7 +32776,7 @@
       <c r="M50" s="169"/>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="345"/>
+      <c r="B51" s="346"/>
       <c r="C51" s="48" t="s">
         <v>963</v>
       </c>
@@ -32758,7 +32802,7 @@
       <c r="M51" s="169"/>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="345"/>
+      <c r="B52" s="346"/>
       <c r="C52" s="48" t="s">
         <v>967</v>
       </c>
@@ -32786,7 +32830,7 @@
       <c r="M52" s="169"/>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" s="345"/>
+      <c r="B53" s="346"/>
       <c r="C53" s="48" t="s">
         <v>971</v>
       </c>
@@ -32808,7 +32852,7 @@
       <c r="M53" s="169"/>
     </row>
     <row r="54" spans="2:13">
-      <c r="B54" s="345"/>
+      <c r="B54" s="346"/>
       <c r="C54" s="48" t="s">
         <v>974</v>
       </c>
@@ -32836,7 +32880,7 @@
       <c r="M54" s="169"/>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="345"/>
+      <c r="B55" s="346"/>
       <c r="C55" s="48" t="s">
         <v>977</v>
       </c>
@@ -32862,7 +32906,7 @@
       <c r="M55" s="169"/>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="345"/>
+      <c r="B56" s="346"/>
       <c r="C56" s="48" t="s">
         <v>981</v>
       </c>
@@ -32888,7 +32932,7 @@
       <c r="M56" s="169"/>
     </row>
     <row r="57" spans="2:13">
-      <c r="B57" s="345"/>
+      <c r="B57" s="346"/>
       <c r="C57" s="48" t="s">
         <v>985</v>
       </c>
@@ -32914,7 +32958,7 @@
       <c r="M57" s="169"/>
     </row>
     <row r="58" spans="2:13">
-      <c r="B58" s="345"/>
+      <c r="B58" s="346"/>
       <c r="C58" s="48" t="s">
         <v>988</v>
       </c>
@@ -32940,7 +32984,7 @@
       <c r="M58" s="169"/>
     </row>
     <row r="59" spans="2:13">
-      <c r="B59" s="345"/>
+      <c r="B59" s="346"/>
       <c r="C59" s="48" t="s">
         <v>898</v>
       </c>
@@ -32968,7 +33012,7 @@
       </c>
     </row>
     <row r="60" spans="2:13">
-      <c r="B60" s="345"/>
+      <c r="B60" s="346"/>
       <c r="C60" s="48" t="s">
         <v>902</v>
       </c>
@@ -32996,7 +33040,7 @@
       </c>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="345"/>
+      <c r="B61" s="346"/>
       <c r="C61" s="48" t="s">
         <v>905</v>
       </c>
@@ -33022,7 +33066,7 @@
       <c r="M61" s="169"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="345"/>
+      <c r="B62" s="346"/>
       <c r="C62" s="48" t="s">
         <v>912</v>
       </c>
@@ -33048,7 +33092,7 @@
       <c r="M62" s="169"/>
     </row>
     <row r="63" spans="2:13" ht="15" thickBot="1">
-      <c r="B63" s="346"/>
+      <c r="B63" s="347"/>
       <c r="C63" s="55" t="s">
         <v>909</v>
       </c>
@@ -33077,13 +33121,13 @@
       <c r="B66" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="C66" s="347" t="s">
+      <c r="C66" s="348" t="s">
         <v>991</v>
       </c>
-      <c r="D66" s="348"/>
-      <c r="E66" s="348"/>
-      <c r="F66" s="348"/>
-      <c r="G66" s="349"/>
+      <c r="D66" s="349"/>
+      <c r="E66" s="349"/>
+      <c r="F66" s="349"/>
+      <c r="G66" s="350"/>
       <c r="H66" s="41" t="s">
         <v>822</v>
       </c>
@@ -33094,13 +33138,13 @@
       <c r="B67" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="C67" s="350" t="s">
+      <c r="C67" s="351" t="s">
         <v>992</v>
       </c>
-      <c r="D67" s="351"/>
-      <c r="E67" s="351"/>
-      <c r="F67" s="351"/>
-      <c r="G67" s="352"/>
+      <c r="D67" s="352"/>
+      <c r="E67" s="352"/>
+      <c r="F67" s="352"/>
+      <c r="G67" s="353"/>
       <c r="H67" s="45" t="s">
         <v>825</v>
       </c>
@@ -33111,17 +33155,17 @@
       <c r="B68" s="44" t="s">
         <v>826</v>
       </c>
-      <c r="C68" s="353"/>
-      <c r="D68" s="354"/>
-      <c r="E68" s="354"/>
-      <c r="F68" s="354"/>
-      <c r="G68" s="354"/>
-      <c r="H68" s="354"/>
-      <c r="I68" s="355"/>
+      <c r="C68" s="354"/>
+      <c r="D68" s="355"/>
+      <c r="E68" s="355"/>
+      <c r="F68" s="355"/>
+      <c r="G68" s="355"/>
+      <c r="H68" s="355"/>
+      <c r="I68" s="356"/>
       <c r="M68" s="169"/>
     </row>
     <row r="69" spans="2:13">
-      <c r="B69" s="344" t="s">
+      <c r="B69" s="345" t="s">
         <v>827</v>
       </c>
       <c r="C69" s="41" t="s">
@@ -33157,7 +33201,7 @@
       <c r="M69" s="169"/>
     </row>
     <row r="70" spans="2:13">
-      <c r="B70" s="345"/>
+      <c r="B70" s="346"/>
       <c r="C70" s="48" t="s">
         <v>847</v>
       </c>
@@ -33185,7 +33229,7 @@
       <c r="M70" s="169"/>
     </row>
     <row r="71" spans="2:13">
-      <c r="B71" s="345"/>
+      <c r="B71" s="346"/>
       <c r="C71" s="48" t="s">
         <v>852</v>
       </c>
@@ -33213,7 +33257,7 @@
       <c r="M71" s="169"/>
     </row>
     <row r="72" spans="2:13">
-      <c r="B72" s="345"/>
+      <c r="B72" s="346"/>
       <c r="C72" s="48" t="s">
         <v>844</v>
       </c>
@@ -33235,7 +33279,7 @@
       <c r="M72" s="169"/>
     </row>
     <row r="73" spans="2:13">
-      <c r="B73" s="345"/>
+      <c r="B73" s="346"/>
       <c r="C73" s="48" t="s">
         <v>993</v>
       </c>
@@ -33261,7 +33305,7 @@
       <c r="M73" s="169"/>
     </row>
     <row r="74" spans="2:13">
-      <c r="B74" s="345"/>
+      <c r="B74" s="346"/>
       <c r="C74" s="48" t="s">
         <v>996</v>
       </c>
@@ -33289,7 +33333,7 @@
       <c r="M74" s="169"/>
     </row>
     <row r="75" spans="2:13">
-      <c r="B75" s="345"/>
+      <c r="B75" s="346"/>
       <c r="C75" s="48" t="s">
         <v>1000</v>
       </c>
@@ -33315,7 +33359,7 @@
       <c r="M75" s="169"/>
     </row>
     <row r="76" spans="2:13">
-      <c r="B76" s="345"/>
+      <c r="B76" s="346"/>
       <c r="C76" s="48" t="s">
         <v>1005</v>
       </c>
@@ -33341,7 +33385,7 @@
       <c r="M76" s="169"/>
     </row>
     <row r="77" spans="2:13">
-      <c r="B77" s="345"/>
+      <c r="B77" s="346"/>
       <c r="C77" s="48" t="s">
         <v>1009</v>
       </c>
@@ -33361,7 +33405,7 @@
       <c r="M77" s="169"/>
     </row>
     <row r="78" spans="2:13">
-      <c r="B78" s="345"/>
+      <c r="B78" s="346"/>
       <c r="C78" s="48" t="s">
         <v>1010</v>
       </c>
@@ -33381,7 +33425,7 @@
       <c r="M78" s="169"/>
     </row>
     <row r="79" spans="2:13">
-      <c r="B79" s="345"/>
+      <c r="B79" s="346"/>
       <c r="C79" s="48" t="s">
         <v>1012</v>
       </c>
@@ -33401,7 +33445,7 @@
       <c r="M79" s="169"/>
     </row>
     <row r="80" spans="2:13">
-      <c r="B80" s="345"/>
+      <c r="B80" s="346"/>
       <c r="C80" s="48" t="s">
         <v>1014</v>
       </c>
@@ -33421,7 +33465,7 @@
       <c r="M80" s="169"/>
     </row>
     <row r="81" spans="2:13">
-      <c r="B81" s="345"/>
+      <c r="B81" s="346"/>
       <c r="C81" s="48" t="s">
         <v>1017</v>
       </c>
@@ -33441,7 +33485,7 @@
       <c r="M81" s="169"/>
     </row>
     <row r="82" spans="2:13">
-      <c r="B82" s="345"/>
+      <c r="B82" s="346"/>
       <c r="C82" s="48" t="s">
         <v>905</v>
       </c>
@@ -33467,7 +33511,7 @@
       <c r="M82" s="169"/>
     </row>
     <row r="83" spans="2:13">
-      <c r="B83" s="345"/>
+      <c r="B83" s="346"/>
       <c r="C83" s="48" t="s">
         <v>909</v>
       </c>
@@ -33487,7 +33531,7 @@
       <c r="M83" s="169"/>
     </row>
     <row r="84" spans="2:13" ht="15" thickBot="1">
-      <c r="B84" s="346"/>
+      <c r="B84" s="347"/>
       <c r="C84" s="55" t="s">
         <v>912</v>
       </c>
@@ -33522,13 +33566,13 @@
       <c r="B87" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="C87" s="347" t="s">
+      <c r="C87" s="348" t="s">
         <v>3013</v>
       </c>
-      <c r="D87" s="348"/>
-      <c r="E87" s="348"/>
-      <c r="F87" s="348"/>
-      <c r="G87" s="349"/>
+      <c r="D87" s="349"/>
+      <c r="E87" s="349"/>
+      <c r="F87" s="349"/>
+      <c r="G87" s="350"/>
       <c r="H87" s="41" t="s">
         <v>822</v>
       </c>
@@ -33539,13 +33583,13 @@
       <c r="B88" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="C88" s="350" t="s">
+      <c r="C88" s="351" t="s">
         <v>1019</v>
       </c>
-      <c r="D88" s="351"/>
-      <c r="E88" s="351"/>
-      <c r="F88" s="351"/>
-      <c r="G88" s="352"/>
+      <c r="D88" s="352"/>
+      <c r="E88" s="352"/>
+      <c r="F88" s="352"/>
+      <c r="G88" s="353"/>
       <c r="H88" s="45" t="s">
         <v>825</v>
       </c>
@@ -33556,17 +33600,17 @@
       <c r="B89" s="44" t="s">
         <v>826</v>
       </c>
-      <c r="C89" s="353"/>
-      <c r="D89" s="354"/>
-      <c r="E89" s="354"/>
-      <c r="F89" s="354"/>
-      <c r="G89" s="354"/>
-      <c r="H89" s="354"/>
-      <c r="I89" s="355"/>
+      <c r="C89" s="354"/>
+      <c r="D89" s="355"/>
+      <c r="E89" s="355"/>
+      <c r="F89" s="355"/>
+      <c r="G89" s="355"/>
+      <c r="H89" s="355"/>
+      <c r="I89" s="356"/>
       <c r="M89" s="169"/>
     </row>
     <row r="90" spans="2:13">
-      <c r="B90" s="344" t="s">
+      <c r="B90" s="345" t="s">
         <v>827</v>
       </c>
       <c r="C90" s="41" t="s">
@@ -33602,7 +33646,7 @@
       <c r="M90" s="169"/>
     </row>
     <row r="91" spans="2:13">
-      <c r="B91" s="345"/>
+      <c r="B91" s="346"/>
       <c r="C91" s="48" t="s">
         <v>1020</v>
       </c>
@@ -33632,7 +33676,7 @@
       <c r="M91" s="169"/>
     </row>
     <row r="92" spans="2:13">
-      <c r="B92" s="345"/>
+      <c r="B92" s="346"/>
       <c r="C92" s="48" t="s">
         <v>862</v>
       </c>
@@ -33658,7 +33702,7 @@
       <c r="M92" s="169"/>
     </row>
     <row r="93" spans="2:13">
-      <c r="B93" s="345"/>
+      <c r="B93" s="346"/>
       <c r="C93" s="48" t="s">
         <v>847</v>
       </c>
@@ -33686,7 +33730,7 @@
       </c>
     </row>
     <row r="94" spans="2:13">
-      <c r="B94" s="345"/>
+      <c r="B94" s="346"/>
       <c r="C94" s="48" t="s">
         <v>844</v>
       </c>
@@ -33706,7 +33750,7 @@
       <c r="M94" s="169"/>
     </row>
     <row r="95" spans="2:13">
-      <c r="B95" s="345"/>
+      <c r="B95" s="346"/>
       <c r="C95" s="48" t="s">
         <v>838</v>
       </c>
@@ -33726,7 +33770,7 @@
       <c r="M95" s="169"/>
     </row>
     <row r="96" spans="2:13">
-      <c r="B96" s="345"/>
+      <c r="B96" s="346"/>
       <c r="C96" s="48" t="s">
         <v>942</v>
       </c>
@@ -33752,7 +33796,7 @@
       <c r="M96" s="169"/>
     </row>
     <row r="97" spans="2:13">
-      <c r="B97" s="345"/>
+      <c r="B97" s="346"/>
       <c r="C97" s="48" t="s">
         <v>852</v>
       </c>
@@ -33780,7 +33824,7 @@
       <c r="M97" s="169"/>
     </row>
     <row r="98" spans="2:13">
-      <c r="B98" s="345"/>
+      <c r="B98" s="346"/>
       <c r="C98" s="48" t="s">
         <v>857</v>
       </c>
@@ -33806,7 +33850,7 @@
       <c r="M98" s="169"/>
     </row>
     <row r="99" spans="2:13">
-      <c r="B99" s="345"/>
+      <c r="B99" s="346"/>
       <c r="C99" s="48" t="s">
         <v>1024</v>
       </c>
@@ -33826,7 +33870,7 @@
       <c r="M99" s="169"/>
     </row>
     <row r="100" spans="2:13">
-      <c r="B100" s="345"/>
+      <c r="B100" s="346"/>
       <c r="C100" s="48" t="s">
         <v>1028</v>
       </c>
@@ -33852,7 +33896,7 @@
       <c r="M100" s="169"/>
     </row>
     <row r="101" spans="2:13">
-      <c r="B101" s="345"/>
+      <c r="B101" s="346"/>
       <c r="C101" s="48" t="s">
         <v>1030</v>
       </c>
@@ -33878,7 +33922,7 @@
       <c r="M101" s="169"/>
     </row>
     <row r="102" spans="2:13">
-      <c r="B102" s="345"/>
+      <c r="B102" s="346"/>
       <c r="C102" s="48" t="s">
         <v>1034</v>
       </c>
@@ -33898,7 +33942,7 @@
       <c r="M102" s="169"/>
     </row>
     <row r="103" spans="2:13">
-      <c r="B103" s="345"/>
+      <c r="B103" s="346"/>
       <c r="C103" s="48" t="s">
         <v>1036</v>
       </c>
@@ -33926,7 +33970,7 @@
       </c>
     </row>
     <row r="104" spans="2:13">
-      <c r="B104" s="345"/>
+      <c r="B104" s="346"/>
       <c r="C104" s="48" t="s">
         <v>1039</v>
       </c>
@@ -33952,7 +33996,7 @@
       <c r="M104" s="169"/>
     </row>
     <row r="105" spans="2:13">
-      <c r="B105" s="345"/>
+      <c r="B105" s="346"/>
       <c r="C105" s="48" t="s">
         <v>1040</v>
       </c>
@@ -33980,7 +34024,7 @@
       </c>
     </row>
     <row r="106" spans="2:13">
-      <c r="B106" s="345"/>
+      <c r="B106" s="346"/>
       <c r="C106" s="48" t="s">
         <v>1044</v>
       </c>
@@ -34008,7 +34052,7 @@
       </c>
     </row>
     <row r="107" spans="2:13">
-      <c r="B107" s="345"/>
+      <c r="B107" s="346"/>
       <c r="C107" s="48" t="s">
         <v>981</v>
       </c>
@@ -34034,7 +34078,7 @@
       <c r="M107" s="169"/>
     </row>
     <row r="108" spans="2:13">
-      <c r="B108" s="345"/>
+      <c r="B108" s="346"/>
       <c r="C108" s="48" t="s">
         <v>934</v>
       </c>
@@ -34062,7 +34106,7 @@
       <c r="M108" s="169"/>
     </row>
     <row r="109" spans="2:13">
-      <c r="B109" s="345"/>
+      <c r="B109" s="346"/>
       <c r="C109" s="48" t="s">
         <v>909</v>
       </c>
@@ -34082,7 +34126,7 @@
       <c r="M109" s="169"/>
     </row>
     <row r="110" spans="2:13">
-      <c r="B110" s="345"/>
+      <c r="B110" s="346"/>
       <c r="C110" s="48" t="s">
         <v>912</v>
       </c>
@@ -34108,7 +34152,7 @@
       <c r="M110" s="169"/>
     </row>
     <row r="111" spans="2:13">
-      <c r="B111" s="345"/>
+      <c r="B111" s="346"/>
       <c r="C111" s="48" t="s">
         <v>1050</v>
       </c>
@@ -34128,7 +34172,7 @@
       <c r="M111" s="169"/>
     </row>
     <row r="112" spans="2:13" ht="15" thickBot="1">
-      <c r="B112" s="346"/>
+      <c r="B112" s="347"/>
       <c r="C112" s="55" t="s">
         <v>1052</v>
       </c>
@@ -34157,13 +34201,13 @@
       <c r="B115" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="C115" s="347" t="s">
+      <c r="C115" s="348" t="s">
         <v>1054</v>
       </c>
-      <c r="D115" s="348"/>
-      <c r="E115" s="348"/>
-      <c r="F115" s="348"/>
-      <c r="G115" s="349"/>
+      <c r="D115" s="349"/>
+      <c r="E115" s="349"/>
+      <c r="F115" s="349"/>
+      <c r="G115" s="350"/>
       <c r="H115" s="41" t="s">
         <v>822</v>
       </c>
@@ -34177,13 +34221,13 @@
       <c r="B116" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="C116" s="350" t="s">
+      <c r="C116" s="351" t="s">
         <v>1056</v>
       </c>
-      <c r="D116" s="351"/>
-      <c r="E116" s="351"/>
-      <c r="F116" s="351"/>
-      <c r="G116" s="352"/>
+      <c r="D116" s="352"/>
+      <c r="E116" s="352"/>
+      <c r="F116" s="352"/>
+      <c r="G116" s="353"/>
       <c r="H116" s="45" t="s">
         <v>825</v>
       </c>
@@ -34194,19 +34238,19 @@
       <c r="B117" s="44" t="s">
         <v>826</v>
       </c>
-      <c r="C117" s="353" t="s">
+      <c r="C117" s="354" t="s">
         <v>1057</v>
       </c>
-      <c r="D117" s="354"/>
-      <c r="E117" s="354"/>
-      <c r="F117" s="354"/>
-      <c r="G117" s="354"/>
-      <c r="H117" s="354"/>
-      <c r="I117" s="355"/>
+      <c r="D117" s="355"/>
+      <c r="E117" s="355"/>
+      <c r="F117" s="355"/>
+      <c r="G117" s="355"/>
+      <c r="H117" s="355"/>
+      <c r="I117" s="356"/>
       <c r="M117" s="169"/>
     </row>
     <row r="118" spans="2:13">
-      <c r="B118" s="344" t="s">
+      <c r="B118" s="345" t="s">
         <v>827</v>
       </c>
       <c r="C118" s="41" t="s">
@@ -34242,7 +34286,7 @@
       <c r="M118" s="169"/>
     </row>
     <row r="119" spans="2:13">
-      <c r="B119" s="345"/>
+      <c r="B119" s="346"/>
       <c r="C119" s="48" t="s">
         <v>1058</v>
       </c>
@@ -34272,7 +34316,7 @@
       <c r="M119" s="169"/>
     </row>
     <row r="120" spans="2:13">
-      <c r="B120" s="345"/>
+      <c r="B120" s="346"/>
       <c r="C120" s="48" t="s">
         <v>1020</v>
       </c>
@@ -34298,7 +34342,7 @@
       <c r="M120" s="169"/>
     </row>
     <row r="121" spans="2:13">
-      <c r="B121" s="345"/>
+      <c r="B121" s="346"/>
       <c r="C121" s="48" t="s">
         <v>862</v>
       </c>
@@ -34324,7 +34368,7 @@
       <c r="M121" s="169"/>
     </row>
     <row r="122" spans="2:13">
-      <c r="B122" s="345"/>
+      <c r="B122" s="346"/>
       <c r="C122" s="48" t="s">
         <v>847</v>
       </c>
@@ -34350,7 +34394,7 @@
       <c r="M122" s="169"/>
     </row>
     <row r="123" spans="2:13">
-      <c r="B123" s="345"/>
+      <c r="B123" s="346"/>
       <c r="C123" s="48" t="s">
         <v>1065</v>
       </c>
@@ -34368,7 +34412,7 @@
       <c r="M123" s="169"/>
     </row>
     <row r="124" spans="2:13">
-      <c r="B124" s="345"/>
+      <c r="B124" s="346"/>
       <c r="C124" s="48" t="s">
         <v>1067</v>
       </c>
@@ -34394,7 +34438,7 @@
       <c r="M124" s="169"/>
     </row>
     <row r="125" spans="2:13">
-      <c r="B125" s="345"/>
+      <c r="B125" s="346"/>
       <c r="C125" s="48" t="s">
         <v>1071</v>
       </c>
@@ -34420,7 +34464,7 @@
       <c r="M125" s="169"/>
     </row>
     <row r="126" spans="2:13">
-      <c r="B126" s="345"/>
+      <c r="B126" s="346"/>
       <c r="C126" s="48" t="s">
         <v>1075</v>
       </c>
@@ -34437,7 +34481,7 @@
       <c r="M126" s="169"/>
     </row>
     <row r="127" spans="2:13">
-      <c r="B127" s="345"/>
+      <c r="B127" s="346"/>
       <c r="C127" s="48" t="s">
         <v>1077</v>
       </c>
@@ -34454,7 +34498,7 @@
       <c r="M127" s="169"/>
     </row>
     <row r="128" spans="2:13">
-      <c r="B128" s="345"/>
+      <c r="B128" s="346"/>
       <c r="C128" s="48" t="s">
         <v>844</v>
       </c>
@@ -34471,7 +34515,7 @@
       <c r="M128" s="169"/>
     </row>
     <row r="129" spans="2:13">
-      <c r="B129" s="345"/>
+      <c r="B129" s="346"/>
       <c r="C129" s="48" t="s">
         <v>838</v>
       </c>
@@ -34488,7 +34532,7 @@
       <c r="M129" s="169"/>
     </row>
     <row r="130" spans="2:13">
-      <c r="B130" s="345"/>
+      <c r="B130" s="346"/>
       <c r="C130" s="48" t="s">
         <v>942</v>
       </c>
@@ -34514,7 +34558,7 @@
       <c r="M130" s="169"/>
     </row>
     <row r="131" spans="2:13">
-      <c r="B131" s="345"/>
+      <c r="B131" s="346"/>
       <c r="C131" s="48" t="s">
         <v>852</v>
       </c>
@@ -34540,7 +34584,7 @@
       <c r="M131" s="169"/>
     </row>
     <row r="132" spans="2:13">
-      <c r="B132" s="345"/>
+      <c r="B132" s="346"/>
       <c r="C132" s="48" t="s">
         <v>857</v>
       </c>
@@ -34566,7 +34610,7 @@
       <c r="M132" s="169"/>
     </row>
     <row r="133" spans="2:13">
-      <c r="B133" s="345"/>
+      <c r="B133" s="346"/>
       <c r="C133" s="48" t="s">
         <v>1024</v>
       </c>
@@ -34592,7 +34636,7 @@
       <c r="M133" s="169"/>
     </row>
     <row r="134" spans="2:13">
-      <c r="B134" s="345"/>
+      <c r="B134" s="346"/>
       <c r="C134" s="48" t="s">
         <v>1030</v>
       </c>
@@ -34618,7 +34662,7 @@
       <c r="M134" s="169"/>
     </row>
     <row r="135" spans="2:13">
-      <c r="B135" s="345"/>
+      <c r="B135" s="346"/>
       <c r="C135" s="48" t="s">
         <v>1034</v>
       </c>
@@ -34635,7 +34679,7 @@
       <c r="M135" s="169"/>
     </row>
     <row r="136" spans="2:13">
-      <c r="B136" s="345"/>
+      <c r="B136" s="346"/>
       <c r="C136" s="48" t="s">
         <v>1079</v>
       </c>
@@ -34652,7 +34696,7 @@
       <c r="M136" s="169"/>
     </row>
     <row r="137" spans="2:13">
-      <c r="B137" s="345"/>
+      <c r="B137" s="346"/>
       <c r="C137" s="48" t="s">
         <v>1081</v>
       </c>
@@ -34669,7 +34713,7 @@
       <c r="M137" s="169"/>
     </row>
     <row r="138" spans="2:13">
-      <c r="B138" s="345"/>
+      <c r="B138" s="346"/>
       <c r="C138" s="48" t="s">
         <v>1083</v>
       </c>
@@ -34686,7 +34730,7 @@
       <c r="M138" s="169"/>
     </row>
     <row r="139" spans="2:13">
-      <c r="B139" s="345"/>
+      <c r="B139" s="346"/>
       <c r="C139" s="48" t="s">
         <v>1085</v>
       </c>
@@ -34712,7 +34756,7 @@
       <c r="M139" s="169"/>
     </row>
     <row r="140" spans="2:13">
-      <c r="B140" s="345"/>
+      <c r="B140" s="346"/>
       <c r="C140" s="48" t="s">
         <v>1044</v>
       </c>
@@ -34738,7 +34782,7 @@
       <c r="M140" s="169"/>
     </row>
     <row r="141" spans="2:13">
-      <c r="B141" s="345"/>
+      <c r="B141" s="346"/>
       <c r="C141" s="48" t="s">
         <v>1092</v>
       </c>
@@ -34764,7 +34808,7 @@
       <c r="M141" s="169"/>
     </row>
     <row r="142" spans="2:13">
-      <c r="B142" s="345"/>
+      <c r="B142" s="346"/>
       <c r="C142" s="48" t="s">
         <v>1095</v>
       </c>
@@ -34790,7 +34834,7 @@
       <c r="M142" s="169"/>
     </row>
     <row r="143" spans="2:13">
-      <c r="B143" s="345"/>
+      <c r="B143" s="346"/>
       <c r="C143" s="48" t="s">
         <v>1099</v>
       </c>
@@ -34807,7 +34851,7 @@
       <c r="M143" s="169"/>
     </row>
     <row r="144" spans="2:13">
-      <c r="B144" s="345"/>
+      <c r="B144" s="346"/>
       <c r="C144" s="48" t="s">
         <v>1101</v>
       </c>
@@ -34824,7 +34868,7 @@
       <c r="M144" s="169"/>
     </row>
     <row r="145" spans="2:13">
-      <c r="B145" s="345"/>
+      <c r="B145" s="346"/>
       <c r="C145" s="48" t="s">
         <v>1103</v>
       </c>
@@ -34841,7 +34885,7 @@
       <c r="M145" s="169"/>
     </row>
     <row r="146" spans="2:13">
-      <c r="B146" s="345"/>
+      <c r="B146" s="346"/>
       <c r="C146" s="48" t="s">
         <v>1105</v>
       </c>
@@ -34858,7 +34902,7 @@
       <c r="M146" s="169"/>
     </row>
     <row r="147" spans="2:13">
-      <c r="B147" s="345"/>
+      <c r="B147" s="346"/>
       <c r="C147" s="48" t="s">
         <v>1107</v>
       </c>
@@ -34875,7 +34919,7 @@
       <c r="M147" s="169"/>
     </row>
     <row r="148" spans="2:13">
-      <c r="B148" s="345"/>
+      <c r="B148" s="346"/>
       <c r="C148" s="48" t="s">
         <v>1109</v>
       </c>
@@ -34892,7 +34936,7 @@
       <c r="M148" s="169"/>
     </row>
     <row r="149" spans="2:13">
-      <c r="B149" s="345"/>
+      <c r="B149" s="346"/>
       <c r="C149" s="48" t="s">
         <v>1111</v>
       </c>
@@ -34918,7 +34962,7 @@
       <c r="M149" s="169"/>
     </row>
     <row r="150" spans="2:13">
-      <c r="B150" s="345"/>
+      <c r="B150" s="346"/>
       <c r="C150" s="48" t="s">
         <v>1115</v>
       </c>
@@ -34935,7 +34979,7 @@
       <c r="M150" s="169"/>
     </row>
     <row r="151" spans="2:13">
-      <c r="B151" s="345"/>
+      <c r="B151" s="346"/>
       <c r="C151" s="48" t="s">
         <v>1117</v>
       </c>
@@ -34961,7 +35005,7 @@
       <c r="M151" s="169"/>
     </row>
     <row r="152" spans="2:13">
-      <c r="B152" s="345"/>
+      <c r="B152" s="346"/>
       <c r="C152" s="48" t="s">
         <v>1121</v>
       </c>
@@ -34987,7 +35031,7 @@
       <c r="M152" s="169"/>
     </row>
     <row r="153" spans="2:13">
-      <c r="B153" s="345"/>
+      <c r="B153" s="346"/>
       <c r="C153" s="48" t="s">
         <v>1125</v>
       </c>
@@ -35013,7 +35057,7 @@
       <c r="M153" s="169"/>
     </row>
     <row r="154" spans="2:13">
-      <c r="B154" s="345"/>
+      <c r="B154" s="346"/>
       <c r="C154" s="48" t="s">
         <v>1129</v>
       </c>
@@ -35039,7 +35083,7 @@
       <c r="M154" s="169"/>
     </row>
     <row r="155" spans="2:13">
-      <c r="B155" s="345"/>
+      <c r="B155" s="346"/>
       <c r="C155" s="48" t="s">
         <v>1133</v>
       </c>
@@ -35056,7 +35100,7 @@
       <c r="M155" s="169"/>
     </row>
     <row r="156" spans="2:13">
-      <c r="B156" s="345"/>
+      <c r="B156" s="346"/>
       <c r="C156" s="48" t="s">
         <v>934</v>
       </c>
@@ -35084,7 +35128,7 @@
       <c r="M156" s="169"/>
     </row>
     <row r="157" spans="2:13">
-      <c r="B157" s="345"/>
+      <c r="B157" s="346"/>
       <c r="C157" s="48" t="s">
         <v>909</v>
       </c>
@@ -35101,7 +35145,7 @@
       <c r="M157" s="169"/>
     </row>
     <row r="158" spans="2:13">
-      <c r="B158" s="345"/>
+      <c r="B158" s="346"/>
       <c r="C158" s="48" t="s">
         <v>1135</v>
       </c>
@@ -35118,7 +35162,7 @@
       <c r="M158" s="169"/>
     </row>
     <row r="159" spans="2:13">
-      <c r="B159" s="345"/>
+      <c r="B159" s="346"/>
       <c r="C159" s="48" t="s">
         <v>1137</v>
       </c>
@@ -35135,7 +35179,7 @@
       <c r="M159" s="169"/>
     </row>
     <row r="160" spans="2:13">
-      <c r="B160" s="345"/>
+      <c r="B160" s="346"/>
       <c r="C160" s="48" t="s">
         <v>1139</v>
       </c>
@@ -35152,7 +35196,7 @@
       <c r="M160" s="169"/>
     </row>
     <row r="161" spans="2:13" ht="15" thickBot="1">
-      <c r="B161" s="346"/>
+      <c r="B161" s="347"/>
       <c r="C161" s="55" t="s">
         <v>1142</v>
       </c>
@@ -35178,13 +35222,13 @@
       <c r="B164" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="C164" s="347" t="s">
+      <c r="C164" s="348" t="s">
         <v>1144</v>
       </c>
-      <c r="D164" s="348"/>
-      <c r="E164" s="348"/>
-      <c r="F164" s="348"/>
-      <c r="G164" s="349"/>
+      <c r="D164" s="349"/>
+      <c r="E164" s="349"/>
+      <c r="F164" s="349"/>
+      <c r="G164" s="350"/>
       <c r="H164" s="41" t="s">
         <v>822</v>
       </c>
@@ -35198,13 +35242,13 @@
       <c r="B165" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="C165" s="350" t="s">
+      <c r="C165" s="351" t="s">
         <v>1145</v>
       </c>
-      <c r="D165" s="351"/>
-      <c r="E165" s="351"/>
-      <c r="F165" s="351"/>
-      <c r="G165" s="352"/>
+      <c r="D165" s="352"/>
+      <c r="E165" s="352"/>
+      <c r="F165" s="352"/>
+      <c r="G165" s="353"/>
       <c r="H165" s="45" t="s">
         <v>825</v>
       </c>
@@ -35215,19 +35259,19 @@
       <c r="B166" s="44" t="s">
         <v>826</v>
       </c>
-      <c r="C166" s="353" t="s">
+      <c r="C166" s="354" t="s">
         <v>1146</v>
       </c>
-      <c r="D166" s="354"/>
-      <c r="E166" s="354"/>
-      <c r="F166" s="354"/>
-      <c r="G166" s="354"/>
-      <c r="H166" s="354"/>
-      <c r="I166" s="355"/>
+      <c r="D166" s="355"/>
+      <c r="E166" s="355"/>
+      <c r="F166" s="355"/>
+      <c r="G166" s="355"/>
+      <c r="H166" s="355"/>
+      <c r="I166" s="356"/>
       <c r="M166" s="169"/>
     </row>
     <row r="167" spans="2:13">
-      <c r="B167" s="344" t="s">
+      <c r="B167" s="345" t="s">
         <v>827</v>
       </c>
       <c r="C167" s="41" t="s">
@@ -35263,7 +35307,7 @@
       <c r="M167" s="169"/>
     </row>
     <row r="168" spans="2:13">
-      <c r="B168" s="345"/>
+      <c r="B168" s="346"/>
       <c r="C168" s="48" t="s">
         <v>1147</v>
       </c>
@@ -35289,7 +35333,7 @@
       <c r="M168" s="169"/>
     </row>
     <row r="169" spans="2:13">
-      <c r="B169" s="345"/>
+      <c r="B169" s="346"/>
       <c r="C169" s="48" t="s">
         <v>838</v>
       </c>
@@ -35306,7 +35350,7 @@
       <c r="M169" s="169"/>
     </row>
     <row r="170" spans="2:13">
-      <c r="B170" s="345"/>
+      <c r="B170" s="346"/>
       <c r="C170" s="48" t="s">
         <v>844</v>
       </c>
@@ -35323,7 +35367,7 @@
       <c r="M170" s="169"/>
     </row>
     <row r="171" spans="2:13">
-      <c r="B171" s="345"/>
+      <c r="B171" s="346"/>
       <c r="C171" s="48" t="s">
         <v>909</v>
       </c>
@@ -35340,7 +35384,7 @@
       <c r="M171" s="169"/>
     </row>
     <row r="172" spans="2:13">
-      <c r="B172" s="345"/>
+      <c r="B172" s="346"/>
       <c r="C172" s="48" t="s">
         <v>1150</v>
       </c>
@@ -35366,7 +35410,7 @@
       <c r="M172" s="169"/>
     </row>
     <row r="173" spans="2:13">
-      <c r="B173" s="345"/>
+      <c r="B173" s="346"/>
       <c r="C173" s="48" t="s">
         <v>1152</v>
       </c>
@@ -35392,7 +35436,7 @@
       <c r="M173" s="169"/>
     </row>
     <row r="174" spans="2:13">
-      <c r="B174" s="345"/>
+      <c r="B174" s="346"/>
       <c r="C174" s="48" t="s">
         <v>1154</v>
       </c>
@@ -35409,7 +35453,7 @@
       <c r="M174" s="169"/>
     </row>
     <row r="175" spans="2:13">
-      <c r="B175" s="345"/>
+      <c r="B175" s="346"/>
       <c r="C175" s="48" t="s">
         <v>852</v>
       </c>
@@ -35435,7 +35479,7 @@
       <c r="M175" s="169"/>
     </row>
     <row r="176" spans="2:13">
-      <c r="B176" s="345"/>
+      <c r="B176" s="346"/>
       <c r="C176" s="48" t="s">
         <v>858</v>
       </c>
@@ -35461,7 +35505,7 @@
       <c r="M176" s="169"/>
     </row>
     <row r="177" spans="2:13">
-      <c r="B177" s="345"/>
+      <c r="B177" s="346"/>
       <c r="C177" s="48" t="s">
         <v>857</v>
       </c>
@@ -35487,7 +35531,7 @@
       <c r="M177" s="169"/>
     </row>
     <row r="178" spans="2:13">
-      <c r="B178" s="345"/>
+      <c r="B178" s="346"/>
       <c r="C178" s="48" t="s">
         <v>847</v>
       </c>
@@ -35513,7 +35557,7 @@
       <c r="M178" s="169"/>
     </row>
     <row r="179" spans="2:13">
-      <c r="B179" s="345"/>
+      <c r="B179" s="346"/>
       <c r="C179" s="48" t="s">
         <v>1157</v>
       </c>
@@ -35530,7 +35574,7 @@
       <c r="M179" s="169"/>
     </row>
     <row r="180" spans="2:13">
-      <c r="B180" s="345"/>
+      <c r="B180" s="346"/>
       <c r="C180" s="48" t="s">
         <v>862</v>
       </c>
@@ -35556,7 +35600,7 @@
       <c r="M180" s="169"/>
     </row>
     <row r="181" spans="2:13">
-      <c r="B181" s="345"/>
+      <c r="B181" s="346"/>
       <c r="C181" s="48" t="s">
         <v>1160</v>
       </c>
@@ -35582,7 +35626,7 @@
       <c r="M181" s="169"/>
     </row>
     <row r="182" spans="2:13">
-      <c r="B182" s="345"/>
+      <c r="B182" s="346"/>
       <c r="C182" s="48" t="s">
         <v>1162</v>
       </c>
@@ -35608,7 +35652,7 @@
       <c r="M182" s="169"/>
     </row>
     <row r="183" spans="2:13">
-      <c r="B183" s="345"/>
+      <c r="B183" s="346"/>
       <c r="C183" s="48" t="s">
         <v>1137</v>
       </c>
@@ -35625,7 +35669,7 @@
       <c r="M183" s="169"/>
     </row>
     <row r="184" spans="2:13">
-      <c r="B184" s="345"/>
+      <c r="B184" s="346"/>
       <c r="C184" s="48" t="s">
         <v>1164</v>
       </c>
@@ -35651,7 +35695,7 @@
       <c r="M184" s="169"/>
     </row>
     <row r="185" spans="2:13">
-      <c r="B185" s="345"/>
+      <c r="B185" s="346"/>
       <c r="C185" s="48" t="s">
         <v>1083</v>
       </c>
@@ -35668,7 +35712,7 @@
       <c r="M185" s="169"/>
     </row>
     <row r="186" spans="2:13">
-      <c r="B186" s="345"/>
+      <c r="B186" s="346"/>
       <c r="C186" s="48" t="s">
         <v>1166</v>
       </c>
@@ -35685,7 +35729,7 @@
       <c r="M186" s="169"/>
     </row>
     <row r="187" spans="2:13">
-      <c r="B187" s="345"/>
+      <c r="B187" s="346"/>
       <c r="C187" s="48" t="s">
         <v>1168</v>
       </c>
@@ -35702,7 +35746,7 @@
       <c r="M187" s="169"/>
     </row>
     <row r="188" spans="2:13">
-      <c r="B188" s="345"/>
+      <c r="B188" s="346"/>
       <c r="C188" s="48" t="s">
         <v>1170</v>
       </c>
@@ -35719,7 +35763,7 @@
       <c r="M188" s="169"/>
     </row>
     <row r="189" spans="2:13">
-      <c r="B189" s="345"/>
+      <c r="B189" s="346"/>
       <c r="C189" s="48" t="s">
         <v>1172</v>
       </c>
@@ -35736,7 +35780,7 @@
       <c r="M189" s="169"/>
     </row>
     <row r="190" spans="2:13">
-      <c r="B190" s="345"/>
+      <c r="B190" s="346"/>
       <c r="C190" s="48" t="s">
         <v>1174</v>
       </c>
@@ -35762,7 +35806,7 @@
       <c r="M190" s="169"/>
     </row>
     <row r="191" spans="2:13">
-      <c r="B191" s="345"/>
+      <c r="B191" s="346"/>
       <c r="C191" s="48" t="s">
         <v>1176</v>
       </c>
@@ -35779,7 +35823,7 @@
       <c r="M191" s="169"/>
     </row>
     <row r="192" spans="2:13" ht="15" thickBot="1">
-      <c r="B192" s="346"/>
+      <c r="B192" s="347"/>
       <c r="C192" s="55" t="s">
         <v>1178</v>
       </c>
@@ -35805,13 +35849,13 @@
       <c r="B195" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="C195" s="347" t="s">
+      <c r="C195" s="348" t="s">
         <v>1180</v>
       </c>
-      <c r="D195" s="348"/>
-      <c r="E195" s="348"/>
-      <c r="F195" s="348"/>
-      <c r="G195" s="349"/>
+      <c r="D195" s="349"/>
+      <c r="E195" s="349"/>
+      <c r="F195" s="349"/>
+      <c r="G195" s="350"/>
       <c r="H195" s="41" t="s">
         <v>822</v>
       </c>
@@ -35822,13 +35866,13 @@
       <c r="B196" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="C196" s="350" t="s">
+      <c r="C196" s="351" t="s">
         <v>1181</v>
       </c>
-      <c r="D196" s="351"/>
-      <c r="E196" s="351"/>
-      <c r="F196" s="351"/>
-      <c r="G196" s="352"/>
+      <c r="D196" s="352"/>
+      <c r="E196" s="352"/>
+      <c r="F196" s="352"/>
+      <c r="G196" s="353"/>
       <c r="H196" s="45" t="s">
         <v>825</v>
       </c>
@@ -35839,17 +35883,17 @@
       <c r="B197" s="44" t="s">
         <v>826</v>
       </c>
-      <c r="C197" s="353"/>
-      <c r="D197" s="354"/>
-      <c r="E197" s="354"/>
-      <c r="F197" s="354"/>
-      <c r="G197" s="354"/>
-      <c r="H197" s="354"/>
-      <c r="I197" s="355"/>
+      <c r="C197" s="354"/>
+      <c r="D197" s="355"/>
+      <c r="E197" s="355"/>
+      <c r="F197" s="355"/>
+      <c r="G197" s="355"/>
+      <c r="H197" s="355"/>
+      <c r="I197" s="356"/>
       <c r="M197" s="169"/>
     </row>
     <row r="198" spans="2:13">
-      <c r="B198" s="344" t="s">
+      <c r="B198" s="345" t="s">
         <v>827</v>
       </c>
       <c r="C198" s="41" t="s">
@@ -35885,7 +35929,7 @@
       <c r="M198" s="169"/>
     </row>
     <row r="199" spans="2:13">
-      <c r="B199" s="345"/>
+      <c r="B199" s="346"/>
       <c r="C199" s="48" t="s">
         <v>1182</v>
       </c>
@@ -35902,7 +35946,7 @@
       <c r="M199" s="169"/>
     </row>
     <row r="200" spans="2:13">
-      <c r="B200" s="345"/>
+      <c r="B200" s="346"/>
       <c r="C200" s="48" t="s">
         <v>909</v>
       </c>
@@ -35919,7 +35963,7 @@
       <c r="M200" s="169"/>
     </row>
     <row r="201" spans="2:13">
-      <c r="B201" s="345"/>
+      <c r="B201" s="346"/>
       <c r="C201" s="48" t="s">
         <v>847</v>
       </c>
@@ -35936,7 +35980,7 @@
       <c r="M201" s="169"/>
     </row>
     <row r="202" spans="2:13">
-      <c r="B202" s="345"/>
+      <c r="B202" s="346"/>
       <c r="C202" s="48" t="s">
         <v>1020</v>
       </c>
@@ -35953,7 +35997,7 @@
       <c r="M202" s="169"/>
     </row>
     <row r="203" spans="2:13">
-      <c r="B203" s="345"/>
+      <c r="B203" s="346"/>
       <c r="C203" s="48" t="s">
         <v>1024</v>
       </c>
@@ -35979,7 +36023,7 @@
       <c r="M203" s="169"/>
     </row>
     <row r="204" spans="2:13">
-      <c r="B204" s="345"/>
+      <c r="B204" s="346"/>
       <c r="C204" s="48" t="s">
         <v>862</v>
       </c>
@@ -35996,7 +36040,7 @@
       <c r="M204" s="169"/>
     </row>
     <row r="205" spans="2:13">
-      <c r="B205" s="345"/>
+      <c r="B205" s="346"/>
       <c r="C205" s="48" t="s">
         <v>869</v>
       </c>
@@ -36013,7 +36057,7 @@
       <c r="M205" s="169"/>
     </row>
     <row r="206" spans="2:13">
-      <c r="B206" s="345"/>
+      <c r="B206" s="346"/>
       <c r="C206" s="48" t="s">
         <v>1186</v>
       </c>
@@ -36030,7 +36074,7 @@
       <c r="M206" s="169"/>
     </row>
     <row r="207" spans="2:13">
-      <c r="B207" s="345"/>
+      <c r="B207" s="346"/>
       <c r="C207" s="48" t="s">
         <v>879</v>
       </c>
@@ -36047,7 +36091,7 @@
       <c r="M207" s="169"/>
     </row>
     <row r="208" spans="2:13">
-      <c r="B208" s="345"/>
+      <c r="B208" s="346"/>
       <c r="C208" s="48" t="s">
         <v>884</v>
       </c>
@@ -36064,7 +36108,7 @@
       <c r="M208" s="169"/>
     </row>
     <row r="209" spans="2:13">
-      <c r="B209" s="345"/>
+      <c r="B209" s="346"/>
       <c r="C209" s="48" t="s">
         <v>886</v>
       </c>
@@ -36081,7 +36125,7 @@
       <c r="M209" s="169"/>
     </row>
     <row r="210" spans="2:13">
-      <c r="B210" s="345"/>
+      <c r="B210" s="346"/>
       <c r="C210" s="48" t="s">
         <v>888</v>
       </c>
@@ -36098,7 +36142,7 @@
       <c r="M210" s="169"/>
     </row>
     <row r="211" spans="2:13">
-      <c r="B211" s="345"/>
+      <c r="B211" s="346"/>
       <c r="C211" s="48" t="s">
         <v>890</v>
       </c>
@@ -36115,7 +36159,7 @@
       <c r="M211" s="169"/>
     </row>
     <row r="212" spans="2:13">
-      <c r="B212" s="345"/>
+      <c r="B212" s="346"/>
       <c r="C212" s="48" t="s">
         <v>892</v>
       </c>
@@ -36132,7 +36176,7 @@
       <c r="M212" s="169"/>
     </row>
     <row r="213" spans="2:13">
-      <c r="B213" s="345"/>
+      <c r="B213" s="346"/>
       <c r="C213" s="48" t="s">
         <v>1036</v>
       </c>
@@ -36149,7 +36193,7 @@
       <c r="M213" s="169"/>
     </row>
     <row r="214" spans="2:13">
-      <c r="B214" s="345"/>
+      <c r="B214" s="346"/>
       <c r="C214" s="48" t="s">
         <v>1039</v>
       </c>
@@ -36166,7 +36210,7 @@
       <c r="M214" s="169"/>
     </row>
     <row r="215" spans="2:13">
-      <c r="B215" s="345"/>
+      <c r="B215" s="346"/>
       <c r="C215" s="48" t="s">
         <v>1188</v>
       </c>
@@ -36183,7 +36227,7 @@
       <c r="M215" s="169"/>
     </row>
     <row r="216" spans="2:13">
-      <c r="B216" s="345"/>
+      <c r="B216" s="346"/>
       <c r="C216" s="48" t="s">
         <v>1189</v>
       </c>
@@ -36200,7 +36244,7 @@
       <c r="M216" s="169"/>
     </row>
     <row r="217" spans="2:13">
-      <c r="B217" s="345"/>
+      <c r="B217" s="346"/>
       <c r="C217" s="48" t="s">
         <v>1190</v>
       </c>
@@ -36217,7 +36261,7 @@
       <c r="M217" s="169"/>
     </row>
     <row r="218" spans="2:13">
-      <c r="B218" s="345"/>
+      <c r="B218" s="346"/>
       <c r="C218" s="48" t="s">
         <v>912</v>
       </c>
@@ -36234,7 +36278,7 @@
       <c r="M218" s="169"/>
     </row>
     <row r="219" spans="2:13">
-      <c r="B219" s="345"/>
+      <c r="B219" s="346"/>
       <c r="C219" s="48" t="s">
         <v>934</v>
       </c>
@@ -36251,7 +36295,7 @@
       <c r="M219" s="169"/>
     </row>
     <row r="220" spans="2:13" ht="15" thickBot="1">
-      <c r="B220" s="346"/>
+      <c r="B220" s="347"/>
       <c r="C220" s="55"/>
       <c r="D220" s="55"/>
       <c r="E220" s="56"/>
@@ -36271,13 +36315,13 @@
       <c r="B223" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="C223" s="347" t="s">
+      <c r="C223" s="348" t="s">
         <v>1191</v>
       </c>
-      <c r="D223" s="348"/>
-      <c r="E223" s="348"/>
-      <c r="F223" s="348"/>
-      <c r="G223" s="349"/>
+      <c r="D223" s="349"/>
+      <c r="E223" s="349"/>
+      <c r="F223" s="349"/>
+      <c r="G223" s="350"/>
       <c r="H223" s="41" t="s">
         <v>822</v>
       </c>
@@ -36288,13 +36332,13 @@
       <c r="B224" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="C224" s="350" t="s">
+      <c r="C224" s="351" t="s">
         <v>1192</v>
       </c>
-      <c r="D224" s="351"/>
-      <c r="E224" s="351"/>
-      <c r="F224" s="351"/>
-      <c r="G224" s="352"/>
+      <c r="D224" s="352"/>
+      <c r="E224" s="352"/>
+      <c r="F224" s="352"/>
+      <c r="G224" s="353"/>
       <c r="H224" s="45" t="s">
         <v>825</v>
       </c>
@@ -36305,17 +36349,17 @@
       <c r="B225" s="44" t="s">
         <v>826</v>
       </c>
-      <c r="C225" s="353"/>
-      <c r="D225" s="354"/>
-      <c r="E225" s="354"/>
-      <c r="F225" s="354"/>
-      <c r="G225" s="354"/>
-      <c r="H225" s="354"/>
-      <c r="I225" s="355"/>
+      <c r="C225" s="354"/>
+      <c r="D225" s="355"/>
+      <c r="E225" s="355"/>
+      <c r="F225" s="355"/>
+      <c r="G225" s="355"/>
+      <c r="H225" s="355"/>
+      <c r="I225" s="356"/>
       <c r="M225" s="169"/>
     </row>
     <row r="226" spans="2:13">
-      <c r="B226" s="344" t="s">
+      <c r="B226" s="345" t="s">
         <v>827</v>
       </c>
       <c r="C226" s="41" t="s">
@@ -36342,7 +36386,7 @@
       <c r="M226" s="169"/>
     </row>
     <row r="227" spans="2:13">
-      <c r="B227" s="345"/>
+      <c r="B227" s="346"/>
       <c r="C227" s="48" t="s">
         <v>1193</v>
       </c>
@@ -36359,7 +36403,7 @@
       <c r="M227" s="169"/>
     </row>
     <row r="228" spans="2:13">
-      <c r="B228" s="345"/>
+      <c r="B228" s="346"/>
       <c r="C228" s="48" t="s">
         <v>1147</v>
       </c>
@@ -36385,7 +36429,7 @@
       <c r="M228" s="169"/>
     </row>
     <row r="229" spans="2:13">
-      <c r="B229" s="345"/>
+      <c r="B229" s="346"/>
       <c r="C229" s="48" t="s">
         <v>838</v>
       </c>
@@ -36402,7 +36446,7 @@
       <c r="M229" s="169"/>
     </row>
     <row r="230" spans="2:13">
-      <c r="B230" s="345"/>
+      <c r="B230" s="346"/>
       <c r="C230" s="48" t="s">
         <v>844</v>
       </c>
@@ -36419,7 +36463,7 @@
       <c r="M230" s="169"/>
     </row>
     <row r="231" spans="2:13">
-      <c r="B231" s="345"/>
+      <c r="B231" s="346"/>
       <c r="C231" s="48" t="s">
         <v>909</v>
       </c>
@@ -36436,7 +36480,7 @@
       <c r="M231" s="169"/>
     </row>
     <row r="232" spans="2:13">
-      <c r="B232" s="345"/>
+      <c r="B232" s="346"/>
       <c r="C232" s="48" t="s">
         <v>1150</v>
       </c>
@@ -36462,7 +36506,7 @@
       <c r="M232" s="169"/>
     </row>
     <row r="233" spans="2:13">
-      <c r="B233" s="345"/>
+      <c r="B233" s="346"/>
       <c r="C233" s="48" t="s">
         <v>1152</v>
       </c>
@@ -36488,7 +36532,7 @@
       <c r="M233" s="169"/>
     </row>
     <row r="234" spans="2:13">
-      <c r="B234" s="345"/>
+      <c r="B234" s="346"/>
       <c r="C234" s="48" t="s">
         <v>1154</v>
       </c>
@@ -36505,7 +36549,7 @@
       <c r="M234" s="169"/>
     </row>
     <row r="235" spans="2:13">
-      <c r="B235" s="345"/>
+      <c r="B235" s="346"/>
       <c r="C235" s="48" t="s">
         <v>852</v>
       </c>
@@ -36531,7 +36575,7 @@
       <c r="M235" s="169"/>
     </row>
     <row r="236" spans="2:13">
-      <c r="B236" s="345"/>
+      <c r="B236" s="346"/>
       <c r="C236" s="48" t="s">
         <v>858</v>
       </c>
@@ -36557,7 +36601,7 @@
       <c r="M236" s="169"/>
     </row>
     <row r="237" spans="2:13">
-      <c r="B237" s="345"/>
+      <c r="B237" s="346"/>
       <c r="C237" s="48" t="s">
         <v>857</v>
       </c>
@@ -36583,7 +36627,7 @@
       <c r="M237" s="169"/>
     </row>
     <row r="238" spans="2:13">
-      <c r="B238" s="345"/>
+      <c r="B238" s="346"/>
       <c r="C238" s="48" t="s">
         <v>847</v>
       </c>
@@ -36609,7 +36653,7 @@
       <c r="M238" s="169"/>
     </row>
     <row r="239" spans="2:13">
-      <c r="B239" s="345"/>
+      <c r="B239" s="346"/>
       <c r="C239" s="48" t="s">
         <v>1157</v>
       </c>
@@ -36626,7 +36670,7 @@
       <c r="M239" s="169"/>
     </row>
     <row r="240" spans="2:13">
-      <c r="B240" s="345"/>
+      <c r="B240" s="346"/>
       <c r="C240" s="48" t="s">
         <v>862</v>
       </c>
@@ -36652,7 +36696,7 @@
       <c r="M240" s="169"/>
     </row>
     <row r="241" spans="2:13">
-      <c r="B241" s="345"/>
+      <c r="B241" s="346"/>
       <c r="C241" s="48" t="s">
         <v>1160</v>
       </c>
@@ -36678,7 +36722,7 @@
       <c r="M241" s="169"/>
     </row>
     <row r="242" spans="2:13">
-      <c r="B242" s="345"/>
+      <c r="B242" s="346"/>
       <c r="C242" s="48" t="s">
         <v>1162</v>
       </c>
@@ -36704,7 +36748,7 @@
       <c r="M242" s="169"/>
     </row>
     <row r="243" spans="2:13">
-      <c r="B243" s="345"/>
+      <c r="B243" s="346"/>
       <c r="C243" s="48" t="s">
         <v>1137</v>
       </c>
@@ -36721,7 +36765,7 @@
       <c r="M243" s="169"/>
     </row>
     <row r="244" spans="2:13">
-      <c r="B244" s="345"/>
+      <c r="B244" s="346"/>
       <c r="C244" s="48" t="s">
         <v>1164</v>
       </c>
@@ -36747,7 +36791,7 @@
       <c r="M244" s="169"/>
     </row>
     <row r="245" spans="2:13">
-      <c r="B245" s="345"/>
+      <c r="B245" s="346"/>
       <c r="C245" s="48" t="s">
         <v>1083</v>
       </c>
@@ -36764,7 +36808,7 @@
       <c r="M245" s="169"/>
     </row>
     <row r="246" spans="2:13">
-      <c r="B246" s="345"/>
+      <c r="B246" s="346"/>
       <c r="C246" s="48" t="s">
         <v>1166</v>
       </c>
@@ -36781,7 +36825,7 @@
       <c r="M246" s="169"/>
     </row>
     <row r="247" spans="2:13">
-      <c r="B247" s="345"/>
+      <c r="B247" s="346"/>
       <c r="C247" s="48" t="s">
         <v>1168</v>
       </c>
@@ -36798,7 +36842,7 @@
       <c r="M247" s="169"/>
     </row>
     <row r="248" spans="2:13">
-      <c r="B248" s="345"/>
+      <c r="B248" s="346"/>
       <c r="C248" s="48" t="s">
         <v>1170</v>
       </c>
@@ -36815,7 +36859,7 @@
       <c r="M248" s="169"/>
     </row>
     <row r="249" spans="2:13">
-      <c r="B249" s="345"/>
+      <c r="B249" s="346"/>
       <c r="C249" s="48" t="s">
         <v>1172</v>
       </c>
@@ -36832,7 +36876,7 @@
       <c r="M249" s="169"/>
     </row>
     <row r="250" spans="2:13">
-      <c r="B250" s="345"/>
+      <c r="B250" s="346"/>
       <c r="C250" s="63" t="s">
         <v>1174</v>
       </c>
@@ -36858,7 +36902,7 @@
       <c r="M250" s="169"/>
     </row>
     <row r="251" spans="2:13">
-      <c r="B251" s="345"/>
+      <c r="B251" s="346"/>
       <c r="C251" s="63" t="s">
         <v>1176</v>
       </c>
@@ -36875,7 +36919,7 @@
       <c r="M251" s="169"/>
     </row>
     <row r="252" spans="2:13">
-      <c r="B252" s="345"/>
+      <c r="B252" s="346"/>
       <c r="C252" s="63" t="s">
         <v>1178</v>
       </c>
@@ -36892,7 +36936,7 @@
       <c r="M252" s="169"/>
     </row>
     <row r="253" spans="2:13" ht="15" thickBot="1">
-      <c r="B253" s="346"/>
+      <c r="B253" s="347"/>
       <c r="C253" s="55"/>
       <c r="D253" s="55"/>
       <c r="E253" s="56"/>
@@ -36915,13 +36959,13 @@
       <c r="B257" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="C257" s="347" t="s">
+      <c r="C257" s="348" t="s">
         <v>1215</v>
       </c>
-      <c r="D257" s="348"/>
-      <c r="E257" s="348"/>
-      <c r="F257" s="348"/>
-      <c r="G257" s="349"/>
+      <c r="D257" s="349"/>
+      <c r="E257" s="349"/>
+      <c r="F257" s="349"/>
+      <c r="G257" s="350"/>
       <c r="H257" s="41" t="s">
         <v>822</v>
       </c>
@@ -36932,13 +36976,13 @@
       <c r="B258" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="C258" s="350" t="s">
+      <c r="C258" s="351" t="s">
         <v>1216</v>
       </c>
-      <c r="D258" s="351"/>
-      <c r="E258" s="351"/>
-      <c r="F258" s="351"/>
-      <c r="G258" s="352"/>
+      <c r="D258" s="352"/>
+      <c r="E258" s="352"/>
+      <c r="F258" s="352"/>
+      <c r="G258" s="353"/>
       <c r="H258" s="45" t="s">
         <v>825</v>
       </c>
@@ -36949,17 +36993,17 @@
       <c r="B259" s="44" t="s">
         <v>826</v>
       </c>
-      <c r="C259" s="353"/>
-      <c r="D259" s="354"/>
-      <c r="E259" s="354"/>
-      <c r="F259" s="354"/>
-      <c r="G259" s="354"/>
-      <c r="H259" s="354"/>
-      <c r="I259" s="355"/>
+      <c r="C259" s="354"/>
+      <c r="D259" s="355"/>
+      <c r="E259" s="355"/>
+      <c r="F259" s="355"/>
+      <c r="G259" s="355"/>
+      <c r="H259" s="355"/>
+      <c r="I259" s="356"/>
       <c r="M259" s="169"/>
     </row>
     <row r="260" spans="2:13">
-      <c r="B260" s="344" t="s">
+      <c r="B260" s="345" t="s">
         <v>827</v>
       </c>
       <c r="C260" s="41" t="s">
@@ -36995,7 +37039,7 @@
       <c r="M260" s="169"/>
     </row>
     <row r="261" spans="2:13">
-      <c r="B261" s="345"/>
+      <c r="B261" s="346"/>
       <c r="C261" s="48" t="s">
         <v>1193</v>
       </c>
@@ -37012,7 +37056,7 @@
       <c r="M261" s="169"/>
     </row>
     <row r="262" spans="2:13">
-      <c r="B262" s="345"/>
+      <c r="B262" s="346"/>
       <c r="C262" s="48" t="s">
         <v>1058</v>
       </c>
@@ -37038,7 +37082,7 @@
       <c r="M262" s="169"/>
     </row>
     <row r="263" spans="2:13">
-      <c r="B263" s="345"/>
+      <c r="B263" s="346"/>
       <c r="C263" s="48" t="s">
         <v>1020</v>
       </c>
@@ -37064,7 +37108,7 @@
       <c r="M263" s="169"/>
     </row>
     <row r="264" spans="2:13">
-      <c r="B264" s="345"/>
+      <c r="B264" s="346"/>
       <c r="C264" s="48" t="s">
         <v>862</v>
       </c>
@@ -37090,7 +37134,7 @@
       <c r="M264" s="169"/>
     </row>
     <row r="265" spans="2:13">
-      <c r="B265" s="345"/>
+      <c r="B265" s="346"/>
       <c r="C265" s="48" t="s">
         <v>847</v>
       </c>
@@ -37116,7 +37160,7 @@
       <c r="M265" s="169"/>
     </row>
     <row r="266" spans="2:13">
-      <c r="B266" s="345"/>
+      <c r="B266" s="346"/>
       <c r="C266" s="48" t="s">
         <v>1065</v>
       </c>
@@ -37134,7 +37178,7 @@
       <c r="M266" s="169"/>
     </row>
     <row r="267" spans="2:13">
-      <c r="B267" s="345"/>
+      <c r="B267" s="346"/>
       <c r="C267" s="48" t="s">
         <v>1067</v>
       </c>
@@ -37160,7 +37204,7 @@
       <c r="M267" s="169"/>
     </row>
     <row r="268" spans="2:13">
-      <c r="B268" s="345"/>
+      <c r="B268" s="346"/>
       <c r="C268" s="48" t="s">
         <v>1071</v>
       </c>
@@ -37186,7 +37230,7 @@
       <c r="M268" s="169"/>
     </row>
     <row r="269" spans="2:13">
-      <c r="B269" s="345"/>
+      <c r="B269" s="346"/>
       <c r="C269" s="48" t="s">
         <v>1075</v>
       </c>
@@ -37203,7 +37247,7 @@
       <c r="M269" s="169"/>
     </row>
     <row r="270" spans="2:13">
-      <c r="B270" s="345"/>
+      <c r="B270" s="346"/>
       <c r="C270" s="48" t="s">
         <v>1077</v>
       </c>
@@ -37220,7 +37264,7 @@
       <c r="M270" s="169"/>
     </row>
     <row r="271" spans="2:13">
-      <c r="B271" s="345"/>
+      <c r="B271" s="346"/>
       <c r="C271" s="48" t="s">
         <v>844</v>
       </c>
@@ -37237,7 +37281,7 @@
       <c r="M271" s="169"/>
     </row>
     <row r="272" spans="2:13">
-      <c r="B272" s="345"/>
+      <c r="B272" s="346"/>
       <c r="C272" s="48" t="s">
         <v>838</v>
       </c>
@@ -37254,7 +37298,7 @@
       <c r="M272" s="169"/>
     </row>
     <row r="273" spans="2:13">
-      <c r="B273" s="345"/>
+      <c r="B273" s="346"/>
       <c r="C273" s="48" t="s">
         <v>942</v>
       </c>
@@ -37280,7 +37324,7 @@
       <c r="M273" s="169"/>
     </row>
     <row r="274" spans="2:13">
-      <c r="B274" s="345"/>
+      <c r="B274" s="346"/>
       <c r="C274" s="48" t="s">
         <v>852</v>
       </c>
@@ -37306,7 +37350,7 @@
       <c r="M274" s="169"/>
     </row>
     <row r="275" spans="2:13">
-      <c r="B275" s="345"/>
+      <c r="B275" s="346"/>
       <c r="C275" s="48" t="s">
         <v>857</v>
       </c>
@@ -37332,7 +37376,7 @@
       <c r="M275" s="169"/>
     </row>
     <row r="276" spans="2:13">
-      <c r="B276" s="345"/>
+      <c r="B276" s="346"/>
       <c r="C276" s="48" t="s">
         <v>1024</v>
       </c>
@@ -37358,7 +37402,7 @@
       <c r="M276" s="169"/>
     </row>
     <row r="277" spans="2:13">
-      <c r="B277" s="345"/>
+      <c r="B277" s="346"/>
       <c r="C277" s="48" t="s">
         <v>1030</v>
       </c>
@@ -37384,7 +37428,7 @@
       <c r="M277" s="169"/>
     </row>
     <row r="278" spans="2:13">
-      <c r="B278" s="345"/>
+      <c r="B278" s="346"/>
       <c r="C278" s="48" t="s">
         <v>1034</v>
       </c>
@@ -37401,7 +37445,7 @@
       <c r="M278" s="169"/>
     </row>
     <row r="279" spans="2:13">
-      <c r="B279" s="345"/>
+      <c r="B279" s="346"/>
       <c r="C279" s="48" t="s">
         <v>1079</v>
       </c>
@@ -37418,7 +37462,7 @@
       <c r="M279" s="169"/>
     </row>
     <row r="280" spans="2:13">
-      <c r="B280" s="345"/>
+      <c r="B280" s="346"/>
       <c r="C280" s="48" t="s">
         <v>1081</v>
       </c>
@@ -37435,7 +37479,7 @@
       <c r="M280" s="169"/>
     </row>
     <row r="281" spans="2:13">
-      <c r="B281" s="345"/>
+      <c r="B281" s="346"/>
       <c r="C281" s="48" t="s">
         <v>1083</v>
       </c>
@@ -37452,7 +37496,7 @@
       <c r="M281" s="169"/>
     </row>
     <row r="282" spans="2:13">
-      <c r="B282" s="345"/>
+      <c r="B282" s="346"/>
       <c r="C282" s="48" t="s">
         <v>1085</v>
       </c>
@@ -37478,7 +37522,7 @@
       <c r="M282" s="169"/>
     </row>
     <row r="283" spans="2:13">
-      <c r="B283" s="345"/>
+      <c r="B283" s="346"/>
       <c r="C283" s="48" t="s">
         <v>1044</v>
       </c>
@@ -37504,7 +37548,7 @@
       <c r="M283" s="169"/>
     </row>
     <row r="284" spans="2:13">
-      <c r="B284" s="345"/>
+      <c r="B284" s="346"/>
       <c r="C284" s="63" t="s">
         <v>1092</v>
       </c>
@@ -37530,7 +37574,7 @@
       <c r="M284" s="169"/>
     </row>
     <row r="285" spans="2:13">
-      <c r="B285" s="345"/>
+      <c r="B285" s="346"/>
       <c r="C285" s="63" t="s">
         <v>1095</v>
       </c>
@@ -37556,7 +37600,7 @@
       <c r="M285" s="169"/>
     </row>
     <row r="286" spans="2:13">
-      <c r="B286" s="345"/>
+      <c r="B286" s="346"/>
       <c r="C286" s="63" t="s">
         <v>1099</v>
       </c>
@@ -37573,7 +37617,7 @@
       <c r="M286" s="169"/>
     </row>
     <row r="287" spans="2:13">
-      <c r="B287" s="345"/>
+      <c r="B287" s="346"/>
       <c r="C287" s="63" t="s">
         <v>1101</v>
       </c>
@@ -37590,7 +37634,7 @@
       <c r="M287" s="169"/>
     </row>
     <row r="288" spans="2:13">
-      <c r="B288" s="345"/>
+      <c r="B288" s="346"/>
       <c r="C288" s="63" t="s">
         <v>1103</v>
       </c>
@@ -37607,7 +37651,7 @@
       <c r="M288" s="169"/>
     </row>
     <row r="289" spans="2:13">
-      <c r="B289" s="345"/>
+      <c r="B289" s="346"/>
       <c r="C289" s="63" t="s">
         <v>1105</v>
       </c>
@@ -37624,7 +37668,7 @@
       <c r="M289" s="169"/>
     </row>
     <row r="290" spans="2:13">
-      <c r="B290" s="345"/>
+      <c r="B290" s="346"/>
       <c r="C290" s="63" t="s">
         <v>1107</v>
       </c>
@@ -37641,7 +37685,7 @@
       <c r="M290" s="169"/>
     </row>
     <row r="291" spans="2:13">
-      <c r="B291" s="345"/>
+      <c r="B291" s="346"/>
       <c r="C291" s="63" t="s">
         <v>1109</v>
       </c>
@@ -37658,7 +37702,7 @@
       <c r="M291" s="169"/>
     </row>
     <row r="292" spans="2:13">
-      <c r="B292" s="345"/>
+      <c r="B292" s="346"/>
       <c r="C292" s="63" t="s">
         <v>1111</v>
       </c>
@@ -37684,7 +37728,7 @@
       <c r="M292" s="169"/>
     </row>
     <row r="293" spans="2:13">
-      <c r="B293" s="345"/>
+      <c r="B293" s="346"/>
       <c r="C293" s="63" t="s">
         <v>1115</v>
       </c>
@@ -37701,7 +37745,7 @@
       <c r="M293" s="169"/>
     </row>
     <row r="294" spans="2:13">
-      <c r="B294" s="345"/>
+      <c r="B294" s="346"/>
       <c r="C294" s="63" t="s">
         <v>1117</v>
       </c>
@@ -37727,7 +37771,7 @@
       <c r="M294" s="169"/>
     </row>
     <row r="295" spans="2:13">
-      <c r="B295" s="345"/>
+      <c r="B295" s="346"/>
       <c r="C295" s="63" t="s">
         <v>1121</v>
       </c>
@@ -37753,7 +37797,7 @@
       <c r="M295" s="169"/>
     </row>
     <row r="296" spans="2:13">
-      <c r="B296" s="345"/>
+      <c r="B296" s="346"/>
       <c r="C296" s="63" t="s">
         <v>1125</v>
       </c>
@@ -37779,7 +37823,7 @@
       <c r="M296" s="169"/>
     </row>
     <row r="297" spans="2:13">
-      <c r="B297" s="345"/>
+      <c r="B297" s="346"/>
       <c r="C297" s="63" t="s">
         <v>1129</v>
       </c>
@@ -37805,7 +37849,7 @@
       <c r="M297" s="169"/>
     </row>
     <row r="298" spans="2:13">
-      <c r="B298" s="345"/>
+      <c r="B298" s="346"/>
       <c r="C298" s="63" t="s">
         <v>1133</v>
       </c>
@@ -37822,7 +37866,7 @@
       <c r="M298" s="169"/>
     </row>
     <row r="299" spans="2:13">
-      <c r="B299" s="345"/>
+      <c r="B299" s="346"/>
       <c r="C299" s="63" t="s">
         <v>934</v>
       </c>
@@ -37848,7 +37892,7 @@
       <c r="M299" s="169"/>
     </row>
     <row r="300" spans="2:13">
-      <c r="B300" s="345"/>
+      <c r="B300" s="346"/>
       <c r="C300" s="63" t="s">
         <v>909</v>
       </c>
@@ -37865,7 +37909,7 @@
       <c r="M300" s="169"/>
     </row>
     <row r="301" spans="2:13">
-      <c r="B301" s="345"/>
+      <c r="B301" s="346"/>
       <c r="C301" s="63" t="s">
         <v>1135</v>
       </c>
@@ -37882,7 +37926,7 @@
       <c r="M301" s="169"/>
     </row>
     <row r="302" spans="2:13">
-      <c r="B302" s="345"/>
+      <c r="B302" s="346"/>
       <c r="C302" s="63" t="s">
         <v>1137</v>
       </c>
@@ -37899,7 +37943,7 @@
       <c r="M302" s="169"/>
     </row>
     <row r="303" spans="2:13">
-      <c r="B303" s="345"/>
+      <c r="B303" s="346"/>
       <c r="C303" s="63" t="s">
         <v>1139</v>
       </c>
@@ -37916,7 +37960,7 @@
       <c r="M303" s="169"/>
     </row>
     <row r="304" spans="2:13">
-      <c r="B304" s="345"/>
+      <c r="B304" s="346"/>
       <c r="C304" s="63" t="s">
         <v>1142</v>
       </c>
@@ -37933,7 +37977,7 @@
       <c r="M304" s="169"/>
     </row>
     <row r="305" spans="2:13">
-      <c r="B305" s="345"/>
+      <c r="B305" s="346"/>
       <c r="C305" s="63" t="s">
         <v>1182</v>
       </c>
@@ -37950,7 +37994,7 @@
       <c r="M305" s="169"/>
     </row>
     <row r="306" spans="2:13">
-      <c r="B306" s="345"/>
+      <c r="B306" s="346"/>
       <c r="C306" s="63"/>
       <c r="D306" s="63"/>
       <c r="E306" s="49"/>
@@ -37961,7 +38005,7 @@
       <c r="M306" s="169"/>
     </row>
     <row r="307" spans="2:13" ht="15" thickBot="1">
-      <c r="B307" s="346"/>
+      <c r="B307" s="347"/>
       <c r="C307" s="55"/>
       <c r="D307" s="55"/>
       <c r="E307" s="56"/>
@@ -37978,13 +38022,13 @@
       <c r="B309" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="C309" s="347" t="s">
+      <c r="C309" s="348" t="s">
         <v>3012</v>
       </c>
-      <c r="D309" s="348"/>
-      <c r="E309" s="348"/>
-      <c r="F309" s="348"/>
-      <c r="G309" s="349"/>
+      <c r="D309" s="349"/>
+      <c r="E309" s="349"/>
+      <c r="F309" s="349"/>
+      <c r="G309" s="350"/>
       <c r="H309" s="41" t="s">
         <v>822</v>
       </c>
@@ -37995,13 +38039,13 @@
       <c r="B310" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="C310" s="350" t="s">
+      <c r="C310" s="351" t="s">
         <v>1230</v>
       </c>
-      <c r="D310" s="351"/>
-      <c r="E310" s="351"/>
-      <c r="F310" s="351"/>
-      <c r="G310" s="352"/>
+      <c r="D310" s="352"/>
+      <c r="E310" s="352"/>
+      <c r="F310" s="352"/>
+      <c r="G310" s="353"/>
       <c r="H310" s="45" t="s">
         <v>825</v>
       </c>
@@ -38012,19 +38056,19 @@
       <c r="B311" s="44" t="s">
         <v>826</v>
       </c>
-      <c r="C311" s="353" t="s">
+      <c r="C311" s="354" t="s">
         <v>1231</v>
       </c>
-      <c r="D311" s="354"/>
-      <c r="E311" s="354"/>
-      <c r="F311" s="354"/>
-      <c r="G311" s="354"/>
-      <c r="H311" s="354"/>
-      <c r="I311" s="355"/>
+      <c r="D311" s="355"/>
+      <c r="E311" s="355"/>
+      <c r="F311" s="355"/>
+      <c r="G311" s="355"/>
+      <c r="H311" s="355"/>
+      <c r="I311" s="356"/>
       <c r="M311" s="169"/>
     </row>
     <row r="312" spans="2:13">
-      <c r="B312" s="344" t="s">
+      <c r="B312" s="345" t="s">
         <v>827</v>
       </c>
       <c r="C312" s="41" t="s">
@@ -38060,7 +38104,7 @@
       <c r="M312" s="169"/>
     </row>
     <row r="313" spans="2:13">
-      <c r="B313" s="345"/>
+      <c r="B313" s="346"/>
       <c r="C313" s="48" t="s">
         <v>841</v>
       </c>
@@ -38077,7 +38121,7 @@
       <c r="M313" s="169"/>
     </row>
     <row r="314" spans="2:13">
-      <c r="B314" s="345"/>
+      <c r="B314" s="346"/>
       <c r="C314" s="48" t="s">
         <v>1232</v>
       </c>
@@ -38094,7 +38138,7 @@
       <c r="M314" s="169"/>
     </row>
     <row r="315" spans="2:13">
-      <c r="B315" s="345"/>
+      <c r="B315" s="346"/>
       <c r="C315" s="48" t="s">
         <v>1233</v>
       </c>
@@ -38111,7 +38155,7 @@
       <c r="M315" s="169"/>
     </row>
     <row r="316" spans="2:13">
-      <c r="B316" s="345"/>
+      <c r="B316" s="346"/>
       <c r="C316" s="48" t="s">
         <v>847</v>
       </c>
@@ -38128,7 +38172,7 @@
       <c r="M316" s="169"/>
     </row>
     <row r="317" spans="2:13">
-      <c r="B317" s="345"/>
+      <c r="B317" s="346"/>
       <c r="C317" s="48" t="s">
         <v>1234</v>
       </c>
@@ -38145,7 +38189,7 @@
       <c r="M317" s="169"/>
     </row>
     <row r="318" spans="2:13">
-      <c r="B318" s="345"/>
+      <c r="B318" s="346"/>
       <c r="C318" s="48" t="s">
         <v>1235</v>
       </c>
@@ -38162,7 +38206,7 @@
       <c r="M318" s="169"/>
     </row>
     <row r="319" spans="2:13">
-      <c r="B319" s="345"/>
+      <c r="B319" s="346"/>
       <c r="C319" s="48" t="s">
         <v>1237</v>
       </c>
@@ -38179,7 +38223,7 @@
       <c r="M319" s="169"/>
     </row>
     <row r="320" spans="2:13">
-      <c r="B320" s="345"/>
+      <c r="B320" s="346"/>
       <c r="C320" s="48" t="s">
         <v>1238</v>
       </c>
@@ -38196,7 +38240,7 @@
       <c r="M320" s="169"/>
     </row>
     <row r="321" spans="2:13">
-      <c r="B321" s="345"/>
+      <c r="B321" s="346"/>
       <c r="C321" s="48" t="s">
         <v>1239</v>
       </c>
@@ -38213,7 +38257,7 @@
       <c r="M321" s="169"/>
     </row>
     <row r="322" spans="2:13">
-      <c r="B322" s="345"/>
+      <c r="B322" s="346"/>
       <c r="C322" s="48" t="s">
         <v>1240</v>
       </c>
@@ -38230,7 +38274,7 @@
       <c r="M322" s="169"/>
     </row>
     <row r="323" spans="2:13">
-      <c r="B323" s="345"/>
+      <c r="B323" s="346"/>
       <c r="C323" s="48" t="s">
         <v>1241</v>
       </c>
@@ -38247,7 +38291,7 @@
       <c r="M323" s="169"/>
     </row>
     <row r="324" spans="2:13">
-      <c r="B324" s="345"/>
+      <c r="B324" s="346"/>
       <c r="C324" s="48" t="s">
         <v>1242</v>
       </c>
@@ -38264,7 +38308,7 @@
       <c r="M324" s="169"/>
     </row>
     <row r="325" spans="2:13">
-      <c r="B325" s="345"/>
+      <c r="B325" s="346"/>
       <c r="C325" s="48" t="s">
         <v>1243</v>
       </c>
@@ -38281,7 +38325,7 @@
       <c r="M325" s="169"/>
     </row>
     <row r="326" spans="2:13">
-      <c r="B326" s="345"/>
+      <c r="B326" s="346"/>
       <c r="C326" s="48" t="s">
         <v>1244</v>
       </c>
@@ -38298,7 +38342,7 @@
       <c r="M326" s="169"/>
     </row>
     <row r="327" spans="2:13">
-      <c r="B327" s="345"/>
+      <c r="B327" s="346"/>
       <c r="C327" s="48" t="s">
         <v>1245</v>
       </c>
@@ -38315,7 +38359,7 @@
       <c r="M327" s="169"/>
     </row>
     <row r="328" spans="2:13">
-      <c r="B328" s="345"/>
+      <c r="B328" s="346"/>
       <c r="C328" s="48" t="s">
         <v>1246</v>
       </c>
@@ -38332,7 +38376,7 @@
       <c r="M328" s="169"/>
     </row>
     <row r="329" spans="2:13">
-      <c r="B329" s="345"/>
+      <c r="B329" s="346"/>
       <c r="C329" s="48" t="s">
         <v>1247</v>
       </c>
@@ -38349,7 +38393,7 @@
       <c r="M329" s="169"/>
     </row>
     <row r="330" spans="2:13">
-      <c r="B330" s="345"/>
+      <c r="B330" s="346"/>
       <c r="C330" s="48" t="s">
         <v>1249</v>
       </c>
@@ -38366,7 +38410,7 @@
       <c r="M330" s="169"/>
     </row>
     <row r="331" spans="2:13">
-      <c r="B331" s="345"/>
+      <c r="B331" s="346"/>
       <c r="C331" s="48" t="s">
         <v>1250</v>
       </c>
@@ -38383,7 +38427,7 @@
       <c r="M331" s="169"/>
     </row>
     <row r="332" spans="2:13">
-      <c r="B332" s="345"/>
+      <c r="B332" s="346"/>
       <c r="C332" s="48" t="s">
         <v>1251</v>
       </c>
@@ -38400,7 +38444,7 @@
       <c r="M332" s="169"/>
     </row>
     <row r="333" spans="2:13">
-      <c r="B333" s="345"/>
+      <c r="B333" s="346"/>
       <c r="C333" s="48" t="s">
         <v>1253</v>
       </c>
@@ -38417,7 +38461,7 @@
       <c r="M333" s="169"/>
     </row>
     <row r="334" spans="2:13">
-      <c r="B334" s="345"/>
+      <c r="B334" s="346"/>
       <c r="C334" s="63" t="s">
         <v>1255</v>
       </c>
@@ -38434,7 +38478,7 @@
       <c r="M334" s="169"/>
     </row>
     <row r="335" spans="2:13">
-      <c r="B335" s="345"/>
+      <c r="B335" s="346"/>
       <c r="C335" s="63" t="s">
         <v>1129</v>
       </c>
@@ -38451,7 +38495,7 @@
       <c r="M335" s="169"/>
     </row>
     <row r="336" spans="2:13">
-      <c r="B336" s="345"/>
+      <c r="B336" s="346"/>
       <c r="C336" s="63" t="s">
         <v>1257</v>
       </c>
@@ -38468,7 +38512,7 @@
       <c r="M336" s="169"/>
     </row>
     <row r="337" spans="2:13" ht="15" thickBot="1">
-      <c r="B337" s="346"/>
+      <c r="B337" s="347"/>
       <c r="C337" s="55"/>
       <c r="D337" s="55"/>
       <c r="E337" s="56"/>
@@ -38488,13 +38532,13 @@
       <c r="B340" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="C340" s="347" t="s">
+      <c r="C340" s="348" t="s">
         <v>1258</v>
       </c>
-      <c r="D340" s="348"/>
-      <c r="E340" s="348"/>
-      <c r="F340" s="348"/>
-      <c r="G340" s="349"/>
+      <c r="D340" s="349"/>
+      <c r="E340" s="349"/>
+      <c r="F340" s="349"/>
+      <c r="G340" s="350"/>
       <c r="H340" s="41" t="s">
         <v>822</v>
       </c>
@@ -38505,13 +38549,13 @@
       <c r="B341" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="C341" s="350" t="s">
+      <c r="C341" s="351" t="s">
         <v>1259</v>
       </c>
-      <c r="D341" s="351"/>
-      <c r="E341" s="351"/>
-      <c r="F341" s="351"/>
-      <c r="G341" s="352"/>
+      <c r="D341" s="352"/>
+      <c r="E341" s="352"/>
+      <c r="F341" s="352"/>
+      <c r="G341" s="353"/>
       <c r="H341" s="45" t="s">
         <v>825</v>
       </c>
@@ -38522,17 +38566,17 @@
       <c r="B342" s="44" t="s">
         <v>826</v>
       </c>
-      <c r="C342" s="353"/>
-      <c r="D342" s="354"/>
-      <c r="E342" s="354"/>
-      <c r="F342" s="354"/>
-      <c r="G342" s="354"/>
-      <c r="H342" s="354"/>
-      <c r="I342" s="355"/>
+      <c r="C342" s="354"/>
+      <c r="D342" s="355"/>
+      <c r="E342" s="355"/>
+      <c r="F342" s="355"/>
+      <c r="G342" s="355"/>
+      <c r="H342" s="355"/>
+      <c r="I342" s="356"/>
       <c r="M342" s="169"/>
     </row>
     <row r="343" spans="2:13">
-      <c r="B343" s="344" t="s">
+      <c r="B343" s="345" t="s">
         <v>827</v>
       </c>
       <c r="C343" s="41" t="s">
@@ -38568,7 +38612,7 @@
       <c r="M343" s="169"/>
     </row>
     <row r="344" spans="2:13">
-      <c r="B344" s="345"/>
+      <c r="B344" s="346"/>
       <c r="C344" s="48" t="s">
         <v>844</v>
       </c>
@@ -38588,7 +38632,7 @@
       <c r="M344" s="169"/>
     </row>
     <row r="345" spans="2:13">
-      <c r="B345" s="345"/>
+      <c r="B345" s="346"/>
       <c r="C345" s="48" t="s">
         <v>909</v>
       </c>
@@ -38608,7 +38652,7 @@
       <c r="M345" s="169"/>
     </row>
     <row r="346" spans="2:13">
-      <c r="B346" s="345"/>
+      <c r="B346" s="346"/>
       <c r="C346" s="48" t="s">
         <v>847</v>
       </c>
@@ -38634,7 +38678,7 @@
       <c r="M346" s="169"/>
     </row>
     <row r="347" spans="2:13">
-      <c r="B347" s="345"/>
+      <c r="B347" s="346"/>
       <c r="C347" s="48" t="s">
         <v>838</v>
       </c>
@@ -38654,7 +38698,7 @@
       <c r="M347" s="169"/>
     </row>
     <row r="348" spans="2:13">
-      <c r="B348" s="345"/>
+      <c r="B348" s="346"/>
       <c r="C348" s="48" t="s">
         <v>1263</v>
       </c>
@@ -38680,7 +38724,7 @@
       <c r="M348" s="169"/>
     </row>
     <row r="349" spans="2:13">
-      <c r="B349" s="345"/>
+      <c r="B349" s="346"/>
       <c r="C349" s="48" t="s">
         <v>1233</v>
       </c>
@@ -38706,7 +38750,7 @@
       <c r="M349" s="169"/>
     </row>
     <row r="350" spans="2:13">
-      <c r="B350" s="345"/>
+      <c r="B350" s="346"/>
       <c r="C350" s="48" t="s">
         <v>1270</v>
       </c>
@@ -38732,7 +38776,7 @@
       <c r="M350" s="169"/>
     </row>
     <row r="351" spans="2:13">
-      <c r="B351" s="345"/>
+      <c r="B351" s="346"/>
       <c r="C351" s="48" t="s">
         <v>852</v>
       </c>
@@ -38758,7 +38802,7 @@
       <c r="M351" s="169"/>
     </row>
     <row r="352" spans="2:13">
-      <c r="B352" s="345"/>
+      <c r="B352" s="346"/>
       <c r="C352" s="48" t="s">
         <v>857</v>
       </c>
@@ -38784,7 +38828,7 @@
       <c r="M352" s="169"/>
     </row>
     <row r="353" spans="2:13">
-      <c r="B353" s="345"/>
+      <c r="B353" s="346"/>
       <c r="C353" s="48" t="s">
         <v>1278</v>
       </c>
@@ -38810,7 +38854,7 @@
       <c r="M353" s="169"/>
     </row>
     <row r="354" spans="2:13">
-      <c r="B354" s="345"/>
+      <c r="B354" s="346"/>
       <c r="C354" s="48" t="s">
         <v>1232</v>
       </c>
@@ -38827,7 +38871,7 @@
       <c r="M354" s="169"/>
     </row>
     <row r="355" spans="2:13">
-      <c r="B355" s="345"/>
+      <c r="B355" s="346"/>
       <c r="C355" s="48" t="s">
         <v>1282</v>
       </c>
@@ -38844,7 +38888,7 @@
       <c r="M355" s="169"/>
     </row>
     <row r="356" spans="2:13">
-      <c r="B356" s="345"/>
+      <c r="B356" s="346"/>
       <c r="C356" s="48" t="s">
         <v>1284</v>
       </c>
@@ -38870,7 +38914,7 @@
       <c r="M356" s="169"/>
     </row>
     <row r="357" spans="2:13">
-      <c r="B357" s="345"/>
+      <c r="B357" s="346"/>
       <c r="C357" s="48" t="s">
         <v>1288</v>
       </c>
@@ -38896,7 +38940,7 @@
       <c r="M357" s="169"/>
     </row>
     <row r="358" spans="2:13">
-      <c r="B358" s="345"/>
+      <c r="B358" s="346"/>
       <c r="C358" s="48" t="s">
         <v>1292</v>
       </c>
@@ -38922,7 +38966,7 @@
       <c r="M358" s="169"/>
     </row>
     <row r="359" spans="2:13">
-      <c r="B359" s="345"/>
+      <c r="B359" s="346"/>
       <c r="C359" s="48" t="s">
         <v>1295</v>
       </c>
@@ -38948,7 +38992,7 @@
       <c r="M359" s="169"/>
     </row>
     <row r="360" spans="2:13">
-      <c r="B360" s="345"/>
+      <c r="B360" s="346"/>
       <c r="C360" s="48" t="s">
         <v>1300</v>
       </c>
@@ -38974,7 +39018,7 @@
       <c r="M360" s="169"/>
     </row>
     <row r="361" spans="2:13">
-      <c r="B361" s="345"/>
+      <c r="B361" s="346"/>
       <c r="C361" s="48" t="s">
         <v>1302</v>
       </c>
@@ -38991,7 +39035,7 @@
       <c r="M361" s="169"/>
     </row>
     <row r="362" spans="2:13">
-      <c r="B362" s="345"/>
+      <c r="B362" s="346"/>
       <c r="C362" s="48" t="s">
         <v>1304</v>
       </c>
@@ -39008,7 +39052,7 @@
       <c r="M362" s="169"/>
     </row>
     <row r="363" spans="2:13">
-      <c r="B363" s="345"/>
+      <c r="B363" s="346"/>
       <c r="C363" s="48" t="s">
         <v>1306</v>
       </c>
@@ -39034,7 +39078,7 @@
       <c r="M363" s="169"/>
     </row>
     <row r="364" spans="2:13">
-      <c r="B364" s="345"/>
+      <c r="B364" s="346"/>
       <c r="C364" s="48" t="s">
         <v>1310</v>
       </c>
@@ -39051,7 +39095,7 @@
       <c r="M364" s="169"/>
     </row>
     <row r="365" spans="2:13">
-      <c r="B365" s="345"/>
+      <c r="B365" s="346"/>
       <c r="C365" s="63" t="s">
         <v>1313</v>
       </c>
@@ -39068,7 +39112,7 @@
       <c r="M365" s="169"/>
     </row>
     <row r="366" spans="2:13">
-      <c r="B366" s="345"/>
+      <c r="B366" s="346"/>
       <c r="C366" s="63" t="s">
         <v>1085</v>
       </c>
@@ -39085,7 +39129,7 @@
       <c r="M366" s="169"/>
     </row>
     <row r="367" spans="2:13">
-      <c r="B367" s="345"/>
+      <c r="B367" s="346"/>
       <c r="C367" s="63"/>
       <c r="D367" s="63"/>
       <c r="E367" s="64"/>
@@ -39096,7 +39140,7 @@
       <c r="M367" s="169"/>
     </row>
     <row r="368" spans="2:13" ht="15" thickBot="1">
-      <c r="B368" s="346"/>
+      <c r="B368" s="347"/>
       <c r="C368" s="55"/>
       <c r="D368" s="55"/>
       <c r="E368" s="56"/>
@@ -39119,13 +39163,13 @@
       <c r="B371" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="C371" s="347" t="s">
+      <c r="C371" s="348" t="s">
         <v>1315</v>
       </c>
-      <c r="D371" s="348"/>
-      <c r="E371" s="348"/>
-      <c r="F371" s="348"/>
-      <c r="G371" s="349"/>
+      <c r="D371" s="349"/>
+      <c r="E371" s="349"/>
+      <c r="F371" s="349"/>
+      <c r="G371" s="350"/>
       <c r="H371" s="41" t="s">
         <v>822</v>
       </c>
@@ -39136,13 +39180,13 @@
       <c r="B372" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="C372" s="350" t="s">
+      <c r="C372" s="351" t="s">
         <v>1316</v>
       </c>
-      <c r="D372" s="351"/>
-      <c r="E372" s="351"/>
-      <c r="F372" s="351"/>
-      <c r="G372" s="352"/>
+      <c r="D372" s="352"/>
+      <c r="E372" s="352"/>
+      <c r="F372" s="352"/>
+      <c r="G372" s="353"/>
       <c r="H372" s="45" t="s">
         <v>825</v>
       </c>
@@ -39153,17 +39197,17 @@
       <c r="B373" s="44" t="s">
         <v>826</v>
       </c>
-      <c r="C373" s="353"/>
-      <c r="D373" s="354"/>
-      <c r="E373" s="354"/>
-      <c r="F373" s="354"/>
-      <c r="G373" s="354"/>
-      <c r="H373" s="354"/>
-      <c r="I373" s="355"/>
+      <c r="C373" s="354"/>
+      <c r="D373" s="355"/>
+      <c r="E373" s="355"/>
+      <c r="F373" s="355"/>
+      <c r="G373" s="355"/>
+      <c r="H373" s="355"/>
+      <c r="I373" s="356"/>
       <c r="M373" s="169"/>
     </row>
     <row r="374" spans="2:13">
-      <c r="B374" s="344" t="s">
+      <c r="B374" s="345" t="s">
         <v>827</v>
       </c>
       <c r="C374" s="41" t="s">
@@ -39190,7 +39234,7 @@
       <c r="M374" s="169"/>
     </row>
     <row r="375" spans="2:13">
-      <c r="B375" s="345"/>
+      <c r="B375" s="346"/>
       <c r="C375" s="48" t="s">
         <v>1193</v>
       </c>
@@ -39210,7 +39254,7 @@
       <c r="M375" s="169"/>
     </row>
     <row r="376" spans="2:13">
-      <c r="B376" s="345"/>
+      <c r="B376" s="346"/>
       <c r="C376" s="48" t="s">
         <v>1147</v>
       </c>
@@ -39230,7 +39274,7 @@
       <c r="M376" s="169"/>
     </row>
     <row r="377" spans="2:13">
-      <c r="B377" s="345"/>
+      <c r="B377" s="346"/>
       <c r="C377" s="48" t="s">
         <v>1318</v>
       </c>
@@ -39247,7 +39291,7 @@
       <c r="M377" s="169"/>
     </row>
     <row r="378" spans="2:13">
-      <c r="B378" s="345"/>
+      <c r="B378" s="346"/>
       <c r="C378" s="48" t="s">
         <v>909</v>
       </c>
@@ -39267,7 +39311,7 @@
       <c r="M378" s="169"/>
     </row>
     <row r="379" spans="2:13">
-      <c r="B379" s="345"/>
+      <c r="B379" s="346"/>
       <c r="C379" s="48" t="s">
         <v>844</v>
       </c>
@@ -39287,7 +39331,7 @@
       <c r="M379" s="169"/>
     </row>
     <row r="380" spans="2:13">
-      <c r="B380" s="345"/>
+      <c r="B380" s="346"/>
       <c r="C380" s="48" t="s">
         <v>838</v>
       </c>
@@ -39307,7 +39351,7 @@
       <c r="M380" s="169"/>
     </row>
     <row r="381" spans="2:13">
-      <c r="B381" s="345"/>
+      <c r="B381" s="346"/>
       <c r="C381" s="48" t="s">
         <v>852</v>
       </c>
@@ -39333,7 +39377,7 @@
       <c r="M381" s="169"/>
     </row>
     <row r="382" spans="2:13">
-      <c r="B382" s="345"/>
+      <c r="B382" s="346"/>
       <c r="C382" s="48" t="s">
         <v>1263</v>
       </c>
@@ -39359,7 +39403,7 @@
       <c r="M382" s="169"/>
     </row>
     <row r="383" spans="2:13">
-      <c r="B383" s="345"/>
+      <c r="B383" s="346"/>
       <c r="C383" s="48" t="s">
         <v>1233</v>
       </c>
@@ -39385,7 +39429,7 @@
       <c r="M383" s="169"/>
     </row>
     <row r="384" spans="2:13">
-      <c r="B384" s="345"/>
+      <c r="B384" s="346"/>
       <c r="C384" s="48" t="s">
         <v>847</v>
       </c>
@@ -39411,7 +39455,7 @@
       <c r="M384" s="169"/>
     </row>
     <row r="385" spans="2:13">
-      <c r="B385" s="345"/>
+      <c r="B385" s="346"/>
       <c r="C385" s="48" t="s">
         <v>1270</v>
       </c>
@@ -39437,7 +39481,7 @@
       <c r="M385" s="169"/>
     </row>
     <row r="386" spans="2:13">
-      <c r="B386" s="345"/>
+      <c r="B386" s="346"/>
       <c r="C386" s="48" t="s">
         <v>857</v>
       </c>
@@ -39463,7 +39507,7 @@
       <c r="M386" s="169"/>
     </row>
     <row r="387" spans="2:13">
-      <c r="B387" s="345"/>
+      <c r="B387" s="346"/>
       <c r="C387" s="48" t="s">
         <v>1278</v>
       </c>
@@ -39489,7 +39533,7 @@
       <c r="M387" s="169"/>
     </row>
     <row r="388" spans="2:13">
-      <c r="B388" s="345"/>
+      <c r="B388" s="346"/>
       <c r="C388" s="48" t="s">
         <v>1232</v>
       </c>
@@ -39506,7 +39550,7 @@
       <c r="M388" s="169"/>
     </row>
     <row r="389" spans="2:13">
-      <c r="B389" s="345"/>
+      <c r="B389" s="346"/>
       <c r="C389" s="48" t="s">
         <v>1282</v>
       </c>
@@ -39523,7 +39567,7 @@
       <c r="M389" s="169"/>
     </row>
     <row r="390" spans="2:13">
-      <c r="B390" s="345"/>
+      <c r="B390" s="346"/>
       <c r="C390" s="48" t="s">
         <v>1284</v>
       </c>
@@ -39549,7 +39593,7 @@
       <c r="M390" s="169"/>
     </row>
     <row r="391" spans="2:13">
-      <c r="B391" s="345"/>
+      <c r="B391" s="346"/>
       <c r="C391" s="48" t="s">
         <v>1288</v>
       </c>
@@ -39575,7 +39619,7 @@
       <c r="M391" s="169"/>
     </row>
     <row r="392" spans="2:13">
-      <c r="B392" s="345"/>
+      <c r="B392" s="346"/>
       <c r="C392" s="48" t="s">
         <v>1292</v>
       </c>
@@ -39601,7 +39645,7 @@
       <c r="M392" s="169"/>
     </row>
     <row r="393" spans="2:13">
-      <c r="B393" s="345"/>
+      <c r="B393" s="346"/>
       <c r="C393" s="48" t="s">
         <v>1295</v>
       </c>
@@ -39627,7 +39671,7 @@
       <c r="M393" s="169"/>
     </row>
     <row r="394" spans="2:13">
-      <c r="B394" s="345"/>
+      <c r="B394" s="346"/>
       <c r="C394" s="48" t="s">
         <v>1300</v>
       </c>
@@ -39653,7 +39697,7 @@
       <c r="M394" s="169"/>
     </row>
     <row r="395" spans="2:13">
-      <c r="B395" s="345"/>
+      <c r="B395" s="346"/>
       <c r="C395" s="48" t="s">
         <v>1302</v>
       </c>
@@ -39670,7 +39714,7 @@
       <c r="M395" s="169"/>
     </row>
     <row r="396" spans="2:13">
-      <c r="B396" s="345"/>
+      <c r="B396" s="346"/>
       <c r="C396" s="63" t="s">
         <v>1304</v>
       </c>
@@ -39687,7 +39731,7 @@
       <c r="M396" s="169"/>
     </row>
     <row r="397" spans="2:13">
-      <c r="B397" s="345"/>
+      <c r="B397" s="346"/>
       <c r="C397" s="63" t="s">
         <v>1306</v>
       </c>
@@ -39713,7 +39757,7 @@
       <c r="M397" s="169"/>
     </row>
     <row r="398" spans="2:13">
-      <c r="B398" s="345"/>
+      <c r="B398" s="346"/>
       <c r="C398" s="63" t="s">
         <v>1310</v>
       </c>
@@ -39730,7 +39774,7 @@
       <c r="M398" s="169"/>
     </row>
     <row r="399" spans="2:13">
-      <c r="B399" s="345"/>
+      <c r="B399" s="346"/>
       <c r="C399" s="63" t="s">
         <v>1313</v>
       </c>
@@ -39756,7 +39800,7 @@
       <c r="M399" s="169"/>
     </row>
     <row r="400" spans="2:13">
-      <c r="B400" s="345"/>
+      <c r="B400" s="346"/>
       <c r="C400" s="63" t="s">
         <v>1085</v>
       </c>
@@ -39773,7 +39817,7 @@
       <c r="M400" s="169"/>
     </row>
     <row r="401" spans="2:13">
-      <c r="B401" s="345"/>
+      <c r="B401" s="346"/>
       <c r="C401" s="63"/>
       <c r="D401" s="63"/>
       <c r="E401" s="64"/>
@@ -39784,7 +39828,7 @@
       <c r="M401" s="169"/>
     </row>
     <row r="402" spans="2:13" ht="15" thickBot="1">
-      <c r="B402" s="346"/>
+      <c r="B402" s="347"/>
       <c r="C402" s="55"/>
       <c r="D402" s="55"/>
       <c r="E402" s="56"/>
@@ -39801,6 +39845,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B69:B84"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B5:B34"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="B40:B63"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:I68"/>
+    <mergeCell ref="B167:B192"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="B90:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="B118:B161"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C166:I166"/>
+    <mergeCell ref="B260:B307"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="B226:B253"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:I259"/>
     <mergeCell ref="B374:B402"/>
     <mergeCell ref="C309:G309"/>
     <mergeCell ref="C310:G310"/>
@@ -39813,42 +39893,6 @@
     <mergeCell ref="C371:G371"/>
     <mergeCell ref="C372:G372"/>
     <mergeCell ref="C373:I373"/>
-    <mergeCell ref="B260:B307"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="B198:B220"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="B226:B253"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C259:I259"/>
-    <mergeCell ref="B167:B192"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="B90:B112"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:B161"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B69:B84"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B5:B34"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="B40:B63"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:I68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -39861,7 +39905,7 @@
   <dimension ref="A1:H414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
@@ -45477,7 +45521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -54286,8 +54330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M11" sqref="L11:M11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/03.指标管理/大宗/指标定义表V2.1.4.xlsx
+++ b/03.指标管理/大宗/指标定义表V2.1.4.xlsx
@@ -19835,28 +19835,28 @@
     <xf numFmtId="0" fontId="40" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19868,34 +19868,22 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19906,6 +19894,15 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19925,28 +19922,31 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -21145,9 +21145,9 @@
   <dimension ref="A1:M412"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G219" sqref="G219"/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="14.25" customHeight="1"/>
@@ -21205,13 +21205,13 @@
       <c r="A2" s="174">
         <v>1</v>
       </c>
-      <c r="B2" s="308" t="s">
+      <c r="B2" s="317" t="s">
         <v>1334</v>
       </c>
       <c r="C2" s="313" t="s">
         <v>1335</v>
       </c>
-      <c r="D2" s="336" t="s">
+      <c r="D2" s="308" t="s">
         <v>179</v>
       </c>
       <c r="E2" s="175" t="s">
@@ -21244,9 +21244,9 @@
       <c r="A3" s="174">
         <v>2</v>
       </c>
-      <c r="B3" s="309"/>
+      <c r="B3" s="318"/>
       <c r="C3" s="314"/>
-      <c r="D3" s="337"/>
+      <c r="D3" s="320"/>
       <c r="E3" s="175" t="s">
         <v>1340</v>
       </c>
@@ -21271,9 +21271,9 @@
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4" s="174"/>
-      <c r="B4" s="309"/>
+      <c r="B4" s="318"/>
       <c r="C4" s="314"/>
-      <c r="D4" s="337"/>
+      <c r="D4" s="320"/>
       <c r="E4" s="175" t="s">
         <v>1343</v>
       </c>
@@ -21296,9 +21296,9 @@
     </row>
     <row r="5" spans="1:13" s="161" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="182"/>
-      <c r="B5" s="309"/>
+      <c r="B5" s="318"/>
       <c r="C5" s="314"/>
-      <c r="D5" s="337"/>
+      <c r="D5" s="320"/>
       <c r="E5" s="183"/>
       <c r="F5" s="184"/>
       <c r="G5" s="177" t="s">
@@ -21323,9 +21323,9 @@
     </row>
     <row r="6" spans="1:13" ht="49.5">
       <c r="A6" s="174"/>
-      <c r="B6" s="309"/>
+      <c r="B6" s="318"/>
       <c r="C6" s="314"/>
-      <c r="D6" s="337"/>
+      <c r="D6" s="320"/>
       <c r="E6" s="175"/>
       <c r="F6" s="176"/>
       <c r="G6" s="177" t="s">
@@ -21344,9 +21344,9 @@
     </row>
     <row r="7" spans="1:13" ht="33">
       <c r="A7" s="174"/>
-      <c r="B7" s="309"/>
+      <c r="B7" s="318"/>
       <c r="C7" s="314"/>
-      <c r="D7" s="337"/>
+      <c r="D7" s="320"/>
       <c r="E7" s="175"/>
       <c r="F7" s="176"/>
       <c r="G7" s="177" t="s">
@@ -21365,7 +21365,7 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="174"/>
-      <c r="B8" s="309"/>
+      <c r="B8" s="318"/>
       <c r="C8" s="314"/>
       <c r="D8" s="188"/>
       <c r="E8" s="175"/>
@@ -21384,7 +21384,7 @@
     </row>
     <row r="9" spans="1:13" ht="66">
       <c r="A9" s="174"/>
-      <c r="B9" s="309"/>
+      <c r="B9" s="318"/>
       <c r="C9" s="314"/>
       <c r="D9" s="188"/>
       <c r="E9" s="175"/>
@@ -21405,7 +21405,7 @@
     </row>
     <row r="10" spans="1:13" ht="25.5" customHeight="1">
       <c r="A10" s="174"/>
-      <c r="B10" s="309"/>
+      <c r="B10" s="318"/>
       <c r="C10" s="314"/>
       <c r="D10" s="188"/>
       <c r="E10" s="175"/>
@@ -21426,7 +21426,7 @@
     </row>
     <row r="11" spans="1:13" s="161" customFormat="1" ht="87.75" customHeight="1">
       <c r="A11" s="182"/>
-      <c r="B11" s="309"/>
+      <c r="B11" s="318"/>
       <c r="C11" s="314"/>
       <c r="D11" s="191" t="s">
         <v>0</v>
@@ -21449,7 +21449,7 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
       <c r="A12" s="174"/>
-      <c r="B12" s="309"/>
+      <c r="B12" s="318"/>
       <c r="C12" s="314"/>
       <c r="D12" s="192" t="s">
         <v>0</v>
@@ -21472,7 +21472,7 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13" s="174"/>
-      <c r="B13" s="309"/>
+      <c r="B13" s="318"/>
       <c r="C13" s="314"/>
       <c r="D13" s="192" t="s">
         <v>0</v>
@@ -21495,7 +21495,7 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="174"/>
-      <c r="B14" s="309"/>
+      <c r="B14" s="318"/>
       <c r="C14" s="314"/>
       <c r="D14" s="193" t="s">
         <v>2230</v>
@@ -21520,7 +21520,7 @@
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="174"/>
-      <c r="B15" s="309"/>
+      <c r="B15" s="318"/>
       <c r="C15" s="314"/>
       <c r="D15" s="193"/>
       <c r="E15" s="175"/>
@@ -21541,9 +21541,9 @@
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" s="174"/>
-      <c r="B16" s="309"/>
+      <c r="B16" s="318"/>
       <c r="C16" s="314"/>
-      <c r="D16" s="318" t="s">
+      <c r="D16" s="305" t="s">
         <v>1353</v>
       </c>
       <c r="E16" s="175"/>
@@ -21564,9 +21564,9 @@
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1">
       <c r="A17" s="174"/>
-      <c r="B17" s="309"/>
+      <c r="B17" s="318"/>
       <c r="C17" s="314"/>
-      <c r="D17" s="319"/>
+      <c r="D17" s="306"/>
       <c r="E17" s="175"/>
       <c r="F17" s="176"/>
       <c r="G17" s="177" t="s">
@@ -21585,9 +21585,9 @@
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" s="174"/>
-      <c r="B18" s="309"/>
+      <c r="B18" s="318"/>
       <c r="C18" s="314"/>
-      <c r="D18" s="320"/>
+      <c r="D18" s="307"/>
       <c r="E18" s="175"/>
       <c r="F18" s="176"/>
       <c r="G18" s="177" t="s">
@@ -21604,7 +21604,7 @@
     </row>
     <row r="19" spans="1:13" s="161" customFormat="1" ht="33">
       <c r="A19" s="182"/>
-      <c r="B19" s="309"/>
+      <c r="B19" s="318"/>
       <c r="C19" s="314"/>
       <c r="D19" s="191" t="s">
         <v>1358</v>
@@ -21629,7 +21629,7 @@
     </row>
     <row r="20" spans="1:13" ht="33">
       <c r="A20" s="174"/>
-      <c r="B20" s="309"/>
+      <c r="B20" s="318"/>
       <c r="C20" s="314"/>
       <c r="D20" s="192" t="s">
         <v>1360</v>
@@ -21654,9 +21654,9 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
       <c r="A21" s="174"/>
-      <c r="B21" s="309"/>
+      <c r="B21" s="318"/>
       <c r="C21" s="314"/>
-      <c r="D21" s="308" t="s">
+      <c r="D21" s="317" t="s">
         <v>1362</v>
       </c>
       <c r="E21" s="175"/>
@@ -21677,9 +21677,9 @@
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
       <c r="A22" s="174"/>
-      <c r="B22" s="309"/>
+      <c r="B22" s="318"/>
       <c r="C22" s="314"/>
-      <c r="D22" s="309"/>
+      <c r="D22" s="318"/>
       <c r="E22" s="175"/>
       <c r="F22" s="176"/>
       <c r="G22" s="177" t="s">
@@ -21698,9 +21698,9 @@
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1">
       <c r="A23" s="174"/>
-      <c r="B23" s="309"/>
+      <c r="B23" s="318"/>
       <c r="C23" s="314"/>
-      <c r="D23" s="309"/>
+      <c r="D23" s="318"/>
       <c r="E23" s="175"/>
       <c r="F23" s="176"/>
       <c r="G23" s="177" t="s">
@@ -21721,9 +21721,9 @@
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1">
       <c r="A24" s="174"/>
-      <c r="B24" s="309"/>
+      <c r="B24" s="318"/>
       <c r="C24" s="314"/>
-      <c r="D24" s="309"/>
+      <c r="D24" s="318"/>
       <c r="E24" s="175"/>
       <c r="F24" s="176"/>
       <c r="G24" s="177" t="s">
@@ -21744,9 +21744,9 @@
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1">
       <c r="A25" s="174"/>
-      <c r="B25" s="309"/>
+      <c r="B25" s="318"/>
       <c r="C25" s="314"/>
-      <c r="D25" s="309"/>
+      <c r="D25" s="318"/>
       <c r="E25" s="175"/>
       <c r="F25" s="176"/>
       <c r="G25" s="177" t="s">
@@ -21765,9 +21765,9 @@
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="309"/>
+      <c r="B26" s="318"/>
       <c r="C26" s="314"/>
-      <c r="D26" s="309"/>
+      <c r="D26" s="318"/>
       <c r="E26" s="175"/>
       <c r="F26" s="176"/>
       <c r="G26" s="177" t="s">
@@ -21788,9 +21788,9 @@
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="309"/>
+      <c r="B27" s="318"/>
       <c r="C27" s="314"/>
-      <c r="D27" s="309"/>
+      <c r="D27" s="318"/>
       <c r="E27" s="175"/>
       <c r="F27" s="176"/>
       <c r="G27" s="197" t="s">
@@ -21811,9 +21811,9 @@
     </row>
     <row r="28" spans="1:13" ht="66">
       <c r="A28" s="174"/>
-      <c r="B28" s="309"/>
+      <c r="B28" s="318"/>
       <c r="C28" s="314"/>
-      <c r="D28" s="309"/>
+      <c r="D28" s="318"/>
       <c r="E28" s="175"/>
       <c r="F28" s="176"/>
       <c r="G28" s="195" t="s">
@@ -21834,9 +21834,9 @@
     </row>
     <row r="29" spans="1:13" s="151" customFormat="1" ht="33">
       <c r="A29" s="199"/>
-      <c r="B29" s="309"/>
+      <c r="B29" s="318"/>
       <c r="C29" s="314"/>
-      <c r="D29" s="309"/>
+      <c r="D29" s="318"/>
       <c r="E29" s="175"/>
       <c r="F29" s="176"/>
       <c r="G29" s="200" t="s">
@@ -21857,9 +21857,9 @@
     </row>
     <row r="30" spans="1:13" ht="49.5">
       <c r="A30" s="174"/>
-      <c r="B30" s="309"/>
+      <c r="B30" s="318"/>
       <c r="C30" s="314"/>
-      <c r="D30" s="309"/>
+      <c r="D30" s="318"/>
       <c r="E30" s="175"/>
       <c r="F30" s="176"/>
       <c r="G30" s="195" t="s">
@@ -21880,9 +21880,9 @@
     </row>
     <row r="31" spans="1:13" ht="247.5">
       <c r="A31" s="174"/>
-      <c r="B31" s="309"/>
+      <c r="B31" s="318"/>
       <c r="C31" s="314"/>
-      <c r="D31" s="309"/>
+      <c r="D31" s="318"/>
       <c r="E31" s="175"/>
       <c r="F31" s="176"/>
       <c r="G31" s="195" t="s">
@@ -21905,9 +21905,9 @@
     </row>
     <row r="32" spans="1:13" ht="159" customHeight="1">
       <c r="A32" s="174"/>
-      <c r="B32" s="309"/>
+      <c r="B32" s="318"/>
       <c r="C32" s="314"/>
-      <c r="D32" s="309"/>
+      <c r="D32" s="318"/>
       <c r="E32" s="175"/>
       <c r="F32" s="176"/>
       <c r="G32" s="195" t="s">
@@ -21928,9 +21928,9 @@
     </row>
     <row r="33" spans="1:13" ht="102.75" customHeight="1">
       <c r="A33" s="174"/>
-      <c r="B33" s="309"/>
+      <c r="B33" s="318"/>
       <c r="C33" s="314"/>
-      <c r="D33" s="309"/>
+      <c r="D33" s="318"/>
       <c r="E33" s="175"/>
       <c r="F33" s="176"/>
       <c r="G33" s="195" t="s">
@@ -21951,9 +21951,9 @@
     </row>
     <row r="34" spans="1:13" ht="83.25" customHeight="1">
       <c r="A34" s="174"/>
-      <c r="B34" s="309"/>
+      <c r="B34" s="318"/>
       <c r="C34" s="314"/>
-      <c r="D34" s="309"/>
+      <c r="D34" s="318"/>
       <c r="E34" s="175"/>
       <c r="F34" s="176"/>
       <c r="G34" s="195" t="s">
@@ -21974,9 +21974,9 @@
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="174"/>
-      <c r="B35" s="309"/>
+      <c r="B35" s="318"/>
       <c r="C35" s="314"/>
-      <c r="D35" s="309"/>
+      <c r="D35" s="318"/>
       <c r="E35" s="175"/>
       <c r="F35" s="176"/>
       <c r="G35" s="208" t="s">
@@ -21997,9 +21997,9 @@
     </row>
     <row r="36" spans="1:13" ht="41.25" customHeight="1">
       <c r="A36" s="174"/>
-      <c r="B36" s="309"/>
+      <c r="B36" s="318"/>
       <c r="C36" s="314"/>
-      <c r="D36" s="309"/>
+      <c r="D36" s="318"/>
       <c r="E36" s="175"/>
       <c r="F36" s="176"/>
       <c r="G36" s="210" t="s">
@@ -22020,9 +22020,9 @@
     </row>
     <row r="37" spans="1:13" ht="45" customHeight="1">
       <c r="A37" s="174"/>
-      <c r="B37" s="309"/>
+      <c r="B37" s="318"/>
       <c r="C37" s="314"/>
-      <c r="D37" s="309"/>
+      <c r="D37" s="318"/>
       <c r="E37" s="175"/>
       <c r="F37" s="176"/>
       <c r="G37" s="195" t="s">
@@ -22043,9 +22043,9 @@
     </row>
     <row r="38" spans="1:13" ht="43.5" customHeight="1">
       <c r="A38" s="174"/>
-      <c r="B38" s="309"/>
+      <c r="B38" s="318"/>
       <c r="C38" s="314"/>
-      <c r="D38" s="309"/>
+      <c r="D38" s="318"/>
       <c r="E38" s="175"/>
       <c r="F38" s="176"/>
       <c r="G38" s="195" t="s">
@@ -22066,9 +22066,9 @@
     </row>
     <row r="39" spans="1:13" ht="49.5">
       <c r="A39" s="174"/>
-      <c r="B39" s="309"/>
+      <c r="B39" s="318"/>
       <c r="C39" s="314"/>
-      <c r="D39" s="309"/>
+      <c r="D39" s="318"/>
       <c r="E39" s="175"/>
       <c r="F39" s="176"/>
       <c r="G39" s="195" t="s">
@@ -22089,9 +22089,9 @@
     </row>
     <row r="40" spans="1:13" ht="18" thickBot="1">
       <c r="A40" s="174"/>
-      <c r="B40" s="309"/>
+      <c r="B40" s="318"/>
       <c r="C40" s="314"/>
-      <c r="D40" s="309"/>
+      <c r="D40" s="318"/>
       <c r="E40" s="175"/>
       <c r="F40" s="176"/>
       <c r="G40" s="200" t="s">
@@ -22112,9 +22112,9 @@
     </row>
     <row r="41" spans="1:13" ht="38.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="174"/>
-      <c r="B41" s="309"/>
+      <c r="B41" s="318"/>
       <c r="C41" s="314"/>
-      <c r="D41" s="309"/>
+      <c r="D41" s="318"/>
       <c r="E41" s="175"/>
       <c r="F41" s="176"/>
       <c r="G41" s="213" t="s">
@@ -22135,9 +22135,9 @@
     </row>
     <row r="42" spans="1:13" ht="214.5">
       <c r="A42" s="174"/>
-      <c r="B42" s="309"/>
+      <c r="B42" s="318"/>
       <c r="C42" s="314"/>
-      <c r="D42" s="309"/>
+      <c r="D42" s="318"/>
       <c r="E42" s="175"/>
       <c r="F42" s="176"/>
       <c r="G42" s="210" t="s">
@@ -22158,9 +22158,9 @@
     </row>
     <row r="43" spans="1:13" ht="120" customHeight="1">
       <c r="A43" s="174"/>
-      <c r="B43" s="309"/>
+      <c r="B43" s="318"/>
       <c r="C43" s="314"/>
-      <c r="D43" s="309"/>
+      <c r="D43" s="318"/>
       <c r="E43" s="175"/>
       <c r="F43" s="176"/>
       <c r="G43" s="195" t="s">
@@ -22181,9 +22181,9 @@
     </row>
     <row r="44" spans="1:13" ht="106.5" customHeight="1">
       <c r="A44" s="174"/>
-      <c r="B44" s="309"/>
+      <c r="B44" s="318"/>
       <c r="C44" s="314"/>
-      <c r="D44" s="309"/>
+      <c r="D44" s="318"/>
       <c r="E44" s="175"/>
       <c r="F44" s="176"/>
       <c r="G44" s="195" t="s">
@@ -22204,9 +22204,9 @@
     </row>
     <row r="45" spans="1:13" ht="56.1" customHeight="1">
       <c r="A45" s="174"/>
-      <c r="B45" s="309"/>
+      <c r="B45" s="318"/>
       <c r="C45" s="314"/>
-      <c r="D45" s="309"/>
+      <c r="D45" s="318"/>
       <c r="E45" s="175"/>
       <c r="F45" s="176"/>
       <c r="G45" s="195" t="s">
@@ -22227,9 +22227,9 @@
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="174"/>
-      <c r="B46" s="309"/>
+      <c r="B46" s="318"/>
       <c r="C46" s="314"/>
-      <c r="D46" s="309"/>
+      <c r="D46" s="318"/>
       <c r="E46" s="175"/>
       <c r="F46" s="176"/>
       <c r="G46" s="195" t="s">
@@ -22252,9 +22252,9 @@
     </row>
     <row r="47" spans="1:13" ht="26.25" hidden="1" customHeight="1">
       <c r="A47" s="174"/>
-      <c r="B47" s="309"/>
+      <c r="B47" s="318"/>
       <c r="C47" s="314"/>
-      <c r="D47" s="309"/>
+      <c r="D47" s="318"/>
       <c r="E47" s="175"/>
       <c r="F47" s="176"/>
       <c r="G47" s="217" t="s">
@@ -22275,9 +22275,9 @@
     </row>
     <row r="48" spans="1:13" ht="25.5" hidden="1" customHeight="1">
       <c r="A48" s="174"/>
-      <c r="B48" s="309"/>
+      <c r="B48" s="318"/>
       <c r="C48" s="314"/>
-      <c r="D48" s="309"/>
+      <c r="D48" s="318"/>
       <c r="E48" s="175"/>
       <c r="F48" s="176"/>
       <c r="G48" s="217" t="s">
@@ -22294,9 +22294,9 @@
     </row>
     <row r="49" spans="1:13" ht="78" customHeight="1" thickBot="1">
       <c r="A49" s="174"/>
-      <c r="B49" s="309"/>
+      <c r="B49" s="318"/>
       <c r="C49" s="314"/>
-      <c r="D49" s="309"/>
+      <c r="D49" s="318"/>
       <c r="E49" s="175"/>
       <c r="F49" s="176"/>
       <c r="G49" s="208" t="s">
@@ -22317,9 +22317,9 @@
     </row>
     <row r="50" spans="1:13" ht="41.25" customHeight="1">
       <c r="A50" s="174"/>
-      <c r="B50" s="309"/>
+      <c r="B50" s="318"/>
       <c r="C50" s="314"/>
-      <c r="D50" s="309"/>
+      <c r="D50" s="318"/>
       <c r="E50" s="175"/>
       <c r="F50" s="176"/>
       <c r="G50" s="210" t="s">
@@ -22340,9 +22340,9 @@
     </row>
     <row r="51" spans="1:13" ht="43.5" customHeight="1">
       <c r="A51" s="174"/>
-      <c r="B51" s="309"/>
+      <c r="B51" s="318"/>
       <c r="C51" s="314"/>
-      <c r="D51" s="309"/>
+      <c r="D51" s="318"/>
       <c r="E51" s="175"/>
       <c r="F51" s="176"/>
       <c r="G51" s="195" t="s">
@@ -22363,9 +22363,9 @@
     </row>
     <row r="52" spans="1:13" ht="46.5" customHeight="1">
       <c r="A52" s="174"/>
-      <c r="B52" s="309"/>
+      <c r="B52" s="318"/>
       <c r="C52" s="314"/>
-      <c r="D52" s="309"/>
+      <c r="D52" s="318"/>
       <c r="E52" s="175"/>
       <c r="F52" s="176"/>
       <c r="G52" s="195" t="s">
@@ -22386,9 +22386,9 @@
     </row>
     <row r="53" spans="1:13" ht="42" customHeight="1">
       <c r="A53" s="174"/>
-      <c r="B53" s="309"/>
+      <c r="B53" s="318"/>
       <c r="C53" s="314"/>
-      <c r="D53" s="309"/>
+      <c r="D53" s="318"/>
       <c r="E53" s="175"/>
       <c r="F53" s="176"/>
       <c r="G53" s="195" t="s">
@@ -22409,9 +22409,9 @@
     </row>
     <row r="54" spans="1:13" ht="38.25" customHeight="1">
       <c r="A54" s="174"/>
-      <c r="B54" s="309"/>
+      <c r="B54" s="318"/>
       <c r="C54" s="314"/>
-      <c r="D54" s="309"/>
+      <c r="D54" s="318"/>
       <c r="E54" s="175"/>
       <c r="F54" s="176"/>
       <c r="G54" s="195" t="s">
@@ -22427,14 +22427,14 @@
         <v>2836</v>
       </c>
       <c r="K54" s="222"/>
-      <c r="L54" s="329"/>
+      <c r="L54" s="328"/>
       <c r="M54" s="181"/>
     </row>
     <row r="55" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="174"/>
-      <c r="B55" s="309"/>
+      <c r="B55" s="318"/>
       <c r="C55" s="314"/>
-      <c r="D55" s="309"/>
+      <c r="D55" s="318"/>
       <c r="E55" s="175"/>
       <c r="F55" s="176"/>
       <c r="G55" s="217" t="s">
@@ -22446,14 +22446,14 @@
       <c r="I55" s="201"/>
       <c r="J55" s="223"/>
       <c r="K55" s="223"/>
-      <c r="L55" s="330"/>
+      <c r="L55" s="329"/>
       <c r="M55" s="181"/>
     </row>
     <row r="56" spans="1:13" ht="33">
       <c r="A56" s="174"/>
-      <c r="B56" s="309"/>
+      <c r="B56" s="318"/>
       <c r="C56" s="314"/>
-      <c r="D56" s="309"/>
+      <c r="D56" s="318"/>
       <c r="E56" s="175"/>
       <c r="F56" s="176"/>
       <c r="G56" s="195" t="s">
@@ -22476,9 +22476,9 @@
     </row>
     <row r="57" spans="1:13" ht="28.5" hidden="1" customHeight="1">
       <c r="A57" s="174"/>
-      <c r="B57" s="309"/>
+      <c r="B57" s="318"/>
       <c r="C57" s="314"/>
-      <c r="D57" s="309"/>
+      <c r="D57" s="318"/>
       <c r="E57" s="175"/>
       <c r="F57" s="176"/>
       <c r="G57" s="217" t="s">
@@ -22497,9 +22497,9 @@
     </row>
     <row r="58" spans="1:13" ht="30.75" customHeight="1">
       <c r="A58" s="174"/>
-      <c r="B58" s="309"/>
+      <c r="B58" s="318"/>
       <c r="C58" s="314"/>
-      <c r="D58" s="309"/>
+      <c r="D58" s="318"/>
       <c r="E58" s="175"/>
       <c r="F58" s="176"/>
       <c r="G58" s="195" t="s">
@@ -22520,9 +22520,9 @@
     </row>
     <row r="59" spans="1:13" ht="46.5" customHeight="1" thickBot="1">
       <c r="A59" s="174"/>
-      <c r="B59" s="309"/>
+      <c r="B59" s="318"/>
       <c r="C59" s="314"/>
-      <c r="D59" s="309"/>
+      <c r="D59" s="318"/>
       <c r="E59" s="175"/>
       <c r="F59" s="176"/>
       <c r="G59" s="195" t="s">
@@ -22543,9 +22543,9 @@
     </row>
     <row r="60" spans="1:13" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="174"/>
-      <c r="B60" s="309"/>
+      <c r="B60" s="318"/>
       <c r="C60" s="314"/>
-      <c r="D60" s="309"/>
+      <c r="D60" s="318"/>
       <c r="E60" s="175"/>
       <c r="F60" s="176"/>
       <c r="G60" s="213" t="s">
@@ -22564,9 +22564,9 @@
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1">
       <c r="A61" s="174"/>
-      <c r="B61" s="309"/>
+      <c r="B61" s="318"/>
       <c r="C61" s="314"/>
-      <c r="D61" s="309"/>
+      <c r="D61" s="318"/>
       <c r="E61" s="175"/>
       <c r="F61" s="176"/>
       <c r="G61" s="210" t="s">
@@ -22587,9 +22587,9 @@
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1">
       <c r="A62" s="174"/>
-      <c r="B62" s="309"/>
+      <c r="B62" s="318"/>
       <c r="C62" s="314"/>
-      <c r="D62" s="309"/>
+      <c r="D62" s="318"/>
       <c r="E62" s="175"/>
       <c r="F62" s="176"/>
       <c r="G62" s="195" t="s">
@@ -22608,9 +22608,9 @@
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1">
       <c r="A63" s="174"/>
-      <c r="B63" s="309"/>
+      <c r="B63" s="318"/>
       <c r="C63" s="314"/>
-      <c r="D63" s="309"/>
+      <c r="D63" s="318"/>
       <c r="E63" s="175"/>
       <c r="F63" s="176"/>
       <c r="G63" s="195" t="s">
@@ -22629,9 +22629,9 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="174"/>
-      <c r="B64" s="309"/>
+      <c r="B64" s="318"/>
       <c r="C64" s="314"/>
-      <c r="D64" s="309"/>
+      <c r="D64" s="318"/>
       <c r="E64" s="175"/>
       <c r="F64" s="176"/>
       <c r="G64" s="208" t="s">
@@ -22650,9 +22650,9 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1">
       <c r="A65" s="174"/>
-      <c r="B65" s="309"/>
+      <c r="B65" s="318"/>
       <c r="C65" s="314"/>
-      <c r="D65" s="309"/>
+      <c r="D65" s="318"/>
       <c r="E65" s="175"/>
       <c r="F65" s="176"/>
       <c r="G65" s="210" t="s">
@@ -22671,9 +22671,9 @@
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="174"/>
-      <c r="B66" s="310"/>
+      <c r="B66" s="319"/>
       <c r="C66" s="315"/>
-      <c r="D66" s="310"/>
+      <c r="D66" s="319"/>
       <c r="E66" s="175"/>
       <c r="F66" s="176"/>
       <c r="G66" s="228" t="s">
@@ -22692,13 +22692,13 @@
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="174"/>
-      <c r="B67" s="308" t="s">
+      <c r="B67" s="317" t="s">
         <v>127</v>
       </c>
       <c r="C67" s="313" t="s">
         <v>1373</v>
       </c>
-      <c r="D67" s="318" t="s">
+      <c r="D67" s="305" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="175"/>
@@ -22721,9 +22721,9 @@
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1">
       <c r="A68" s="174"/>
-      <c r="B68" s="309"/>
+      <c r="B68" s="318"/>
       <c r="C68" s="314"/>
-      <c r="D68" s="319"/>
+      <c r="D68" s="306"/>
       <c r="E68" s="175"/>
       <c r="F68" s="176"/>
       <c r="G68" s="177" t="s">
@@ -22742,9 +22742,9 @@
     </row>
     <row r="69" spans="1:13" ht="14.25" customHeight="1">
       <c r="A69" s="174"/>
-      <c r="B69" s="309"/>
+      <c r="B69" s="318"/>
       <c r="C69" s="314"/>
-      <c r="D69" s="320"/>
+      <c r="D69" s="307"/>
       <c r="E69" s="175"/>
       <c r="F69" s="176"/>
       <c r="G69" s="177" t="s">
@@ -22767,11 +22767,11 @@
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1">
       <c r="A70" s="174"/>
-      <c r="B70" s="309"/>
+      <c r="B70" s="318"/>
       <c r="C70" s="313" t="s">
         <v>1376</v>
       </c>
-      <c r="D70" s="318" t="s">
+      <c r="D70" s="305" t="s">
         <v>1377</v>
       </c>
       <c r="E70" s="175"/>
@@ -22794,9 +22794,9 @@
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1">
       <c r="A71" s="174"/>
-      <c r="B71" s="309"/>
+      <c r="B71" s="318"/>
       <c r="C71" s="314"/>
-      <c r="D71" s="319"/>
+      <c r="D71" s="306"/>
       <c r="E71" s="175"/>
       <c r="F71" s="176"/>
       <c r="G71" s="177" t="s">
@@ -22817,9 +22817,9 @@
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1">
       <c r="A72" s="174"/>
-      <c r="B72" s="309"/>
+      <c r="B72" s="318"/>
       <c r="C72" s="314"/>
-      <c r="D72" s="319"/>
+      <c r="D72" s="306"/>
       <c r="E72" s="175"/>
       <c r="F72" s="176"/>
       <c r="G72" s="177" t="s">
@@ -22840,9 +22840,9 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1">
       <c r="A73" s="174"/>
-      <c r="B73" s="309"/>
+      <c r="B73" s="318"/>
       <c r="C73" s="314"/>
-      <c r="D73" s="320"/>
+      <c r="D73" s="307"/>
       <c r="E73" s="175"/>
       <c r="F73" s="176"/>
       <c r="G73" s="177" t="s">
@@ -22863,7 +22863,7 @@
     </row>
     <row r="74" spans="1:13" ht="49.5">
       <c r="A74" s="174"/>
-      <c r="B74" s="309"/>
+      <c r="B74" s="318"/>
       <c r="C74" s="314"/>
       <c r="D74" s="231" t="s">
         <v>5</v>
@@ -22888,7 +22888,7 @@
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
       <c r="A75" s="232"/>
-      <c r="B75" s="318" t="s">
+      <c r="B75" s="305" t="s">
         <v>1383</v>
       </c>
       <c r="C75" s="313" t="s">
@@ -22915,7 +22915,7 @@
     </row>
     <row r="76" spans="1:13" ht="14.25" customHeight="1">
       <c r="A76" s="232"/>
-      <c r="B76" s="319"/>
+      <c r="B76" s="306"/>
       <c r="C76" s="314"/>
       <c r="D76" s="193" t="s">
         <v>1576</v>
@@ -22938,7 +22938,7 @@
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
       <c r="A77" s="232"/>
-      <c r="B77" s="319"/>
+      <c r="B77" s="306"/>
       <c r="C77" s="314"/>
       <c r="D77" s="193" t="s">
         <v>1578</v>
@@ -22963,9 +22963,9 @@
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
       <c r="A78" s="232"/>
-      <c r="B78" s="319"/>
+      <c r="B78" s="306"/>
       <c r="C78" s="314"/>
-      <c r="D78" s="318" t="s">
+      <c r="D78" s="305" t="s">
         <v>1589</v>
       </c>
       <c r="E78" s="175"/>
@@ -22984,9 +22984,9 @@
     </row>
     <row r="79" spans="1:13" ht="100.5" customHeight="1">
       <c r="A79" s="232"/>
-      <c r="B79" s="319"/>
+      <c r="B79" s="306"/>
       <c r="C79" s="314"/>
-      <c r="D79" s="319"/>
+      <c r="D79" s="306"/>
       <c r="E79" s="175"/>
       <c r="F79" s="176"/>
       <c r="G79" s="177" t="s">
@@ -23009,9 +23009,9 @@
     </row>
     <row r="80" spans="1:13" ht="91.5" customHeight="1">
       <c r="A80" s="232"/>
-      <c r="B80" s="319"/>
+      <c r="B80" s="306"/>
       <c r="C80" s="314"/>
-      <c r="D80" s="320"/>
+      <c r="D80" s="307"/>
       <c r="E80" s="175"/>
       <c r="F80" s="176"/>
       <c r="G80" s="177" t="s">
@@ -23032,9 +23032,9 @@
     </row>
     <row r="81" spans="1:13" ht="14.25" customHeight="1">
       <c r="A81" s="232"/>
-      <c r="B81" s="319"/>
+      <c r="B81" s="306"/>
       <c r="C81" s="314"/>
-      <c r="D81" s="318" t="s">
+      <c r="D81" s="305" t="s">
         <v>1387</v>
       </c>
       <c r="E81" s="175"/>
@@ -23059,9 +23059,9 @@
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
       <c r="A82" s="232"/>
-      <c r="B82" s="319"/>
+      <c r="B82" s="306"/>
       <c r="C82" s="314"/>
-      <c r="D82" s="319"/>
+      <c r="D82" s="306"/>
       <c r="E82" s="175"/>
       <c r="F82" s="176"/>
       <c r="G82" s="177" t="s">
@@ -23082,9 +23082,9 @@
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1">
       <c r="A83" s="232"/>
-      <c r="B83" s="319"/>
+      <c r="B83" s="306"/>
       <c r="C83" s="314"/>
-      <c r="D83" s="319"/>
+      <c r="D83" s="306"/>
       <c r="E83" s="175"/>
       <c r="F83" s="176"/>
       <c r="G83" s="177" t="s">
@@ -23105,9 +23105,9 @@
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1">
       <c r="A84" s="232"/>
-      <c r="B84" s="319"/>
+      <c r="B84" s="306"/>
       <c r="C84" s="314"/>
-      <c r="D84" s="319"/>
+      <c r="D84" s="306"/>
       <c r="E84" s="175"/>
       <c r="F84" s="176"/>
       <c r="G84" s="177" t="s">
@@ -23128,9 +23128,9 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1">
       <c r="A85" s="232"/>
-      <c r="B85" s="319"/>
+      <c r="B85" s="306"/>
       <c r="C85" s="314"/>
-      <c r="D85" s="320"/>
+      <c r="D85" s="307"/>
       <c r="E85" s="175"/>
       <c r="F85" s="176"/>
       <c r="G85" s="177" t="s">
@@ -23151,9 +23151,9 @@
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1">
       <c r="A86" s="232"/>
-      <c r="B86" s="319"/>
+      <c r="B86" s="306"/>
       <c r="C86" s="314"/>
-      <c r="D86" s="318" t="s">
+      <c r="D86" s="305" t="s">
         <v>1394</v>
       </c>
       <c r="E86" s="175"/>
@@ -23178,9 +23178,9 @@
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1">
       <c r="A87" s="232"/>
-      <c r="B87" s="319"/>
+      <c r="B87" s="306"/>
       <c r="C87" s="314"/>
-      <c r="D87" s="320"/>
+      <c r="D87" s="307"/>
       <c r="E87" s="175"/>
       <c r="F87" s="176"/>
       <c r="G87" s="177" t="s">
@@ -23201,7 +23201,7 @@
     </row>
     <row r="88" spans="1:13" ht="64.5" customHeight="1">
       <c r="A88" s="232"/>
-      <c r="B88" s="319"/>
+      <c r="B88" s="306"/>
       <c r="C88" s="314"/>
       <c r="D88" s="192" t="s">
         <v>1</v>
@@ -23228,9 +23228,9 @@
     </row>
     <row r="89" spans="1:13" ht="57" customHeight="1">
       <c r="A89" s="232"/>
-      <c r="B89" s="319"/>
+      <c r="B89" s="306"/>
       <c r="C89" s="314"/>
-      <c r="D89" s="318" t="s">
+      <c r="D89" s="305" t="s">
         <v>1398</v>
       </c>
       <c r="E89" s="175"/>
@@ -23253,9 +23253,9 @@
     </row>
     <row r="90" spans="1:13" ht="49.5">
       <c r="A90" s="232"/>
-      <c r="B90" s="319"/>
+      <c r="B90" s="306"/>
       <c r="C90" s="314"/>
-      <c r="D90" s="319"/>
+      <c r="D90" s="306"/>
       <c r="E90" s="175"/>
       <c r="F90" s="176"/>
       <c r="G90" s="177" t="s">
@@ -23276,9 +23276,9 @@
     </row>
     <row r="91" spans="1:13" ht="49.5">
       <c r="A91" s="232"/>
-      <c r="B91" s="319"/>
+      <c r="B91" s="306"/>
       <c r="C91" s="314"/>
-      <c r="D91" s="319"/>
+      <c r="D91" s="306"/>
       <c r="E91" s="175"/>
       <c r="F91" s="176"/>
       <c r="G91" s="177" t="s">
@@ -23299,9 +23299,9 @@
     </row>
     <row r="92" spans="1:13" ht="49.5">
       <c r="A92" s="232"/>
-      <c r="B92" s="319"/>
+      <c r="B92" s="306"/>
       <c r="C92" s="314"/>
-      <c r="D92" s="319"/>
+      <c r="D92" s="306"/>
       <c r="E92" s="175"/>
       <c r="F92" s="176"/>
       <c r="G92" s="177" t="s">
@@ -23322,9 +23322,9 @@
     </row>
     <row r="93" spans="1:13" ht="49.5">
       <c r="A93" s="232"/>
-      <c r="B93" s="319"/>
+      <c r="B93" s="306"/>
       <c r="C93" s="314"/>
-      <c r="D93" s="320"/>
+      <c r="D93" s="307"/>
       <c r="E93" s="175"/>
       <c r="F93" s="176"/>
       <c r="G93" s="177" t="s">
@@ -23345,9 +23345,9 @@
     </row>
     <row r="94" spans="1:13" ht="16.5" customHeight="1">
       <c r="A94" s="232"/>
-      <c r="B94" s="319"/>
+      <c r="B94" s="306"/>
       <c r="C94" s="314"/>
-      <c r="D94" s="318" t="s">
+      <c r="D94" s="305" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="175"/>
@@ -23370,9 +23370,9 @@
     </row>
     <row r="95" spans="1:13" ht="214.5">
       <c r="A95" s="232"/>
-      <c r="B95" s="319"/>
+      <c r="B95" s="306"/>
       <c r="C95" s="314"/>
-      <c r="D95" s="319"/>
+      <c r="D95" s="306"/>
       <c r="E95" s="175"/>
       <c r="F95" s="176"/>
       <c r="G95" s="177" t="s">
@@ -23395,9 +23395,9 @@
     </row>
     <row r="96" spans="1:13" ht="30" customHeight="1">
       <c r="A96" s="232"/>
-      <c r="B96" s="319"/>
+      <c r="B96" s="306"/>
       <c r="C96" s="314"/>
-      <c r="D96" s="320"/>
+      <c r="D96" s="307"/>
       <c r="E96" s="175"/>
       <c r="F96" s="176"/>
       <c r="G96" s="177" t="s">
@@ -23416,9 +23416,9 @@
     </row>
     <row r="97" spans="1:13" ht="131.25" customHeight="1">
       <c r="A97" s="232"/>
-      <c r="B97" s="319"/>
+      <c r="B97" s="306"/>
       <c r="C97" s="314"/>
-      <c r="D97" s="318" t="s">
+      <c r="D97" s="305" t="s">
         <v>1406</v>
       </c>
       <c r="E97" s="175"/>
@@ -23441,9 +23441,9 @@
     </row>
     <row r="98" spans="1:13" ht="14.25" customHeight="1">
       <c r="A98" s="232"/>
-      <c r="B98" s="319"/>
+      <c r="B98" s="306"/>
       <c r="C98" s="314"/>
-      <c r="D98" s="320"/>
+      <c r="D98" s="307"/>
       <c r="E98" s="175"/>
       <c r="F98" s="176"/>
       <c r="G98" s="177" t="s">
@@ -23462,9 +23462,9 @@
     </row>
     <row r="99" spans="1:13" s="161" customFormat="1" ht="214.5">
       <c r="A99" s="271"/>
-      <c r="B99" s="319"/>
+      <c r="B99" s="306"/>
       <c r="C99" s="314"/>
-      <c r="D99" s="334" t="s">
+      <c r="D99" s="333" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="183"/>
@@ -23485,9 +23485,9 @@
     </row>
     <row r="100" spans="1:13" s="277" customFormat="1" ht="33">
       <c r="A100" s="272"/>
-      <c r="B100" s="319"/>
+      <c r="B100" s="306"/>
       <c r="C100" s="315"/>
-      <c r="D100" s="334"/>
+      <c r="D100" s="333"/>
       <c r="E100" s="269"/>
       <c r="F100" s="273"/>
       <c r="G100" s="195" t="s">
@@ -23510,11 +23510,11 @@
     </row>
     <row r="101" spans="1:13" ht="14.25" customHeight="1">
       <c r="A101" s="232"/>
-      <c r="B101" s="319"/>
+      <c r="B101" s="306"/>
       <c r="C101" s="313" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="319" t="s">
+      <c r="D101" s="306" t="s">
         <v>1588</v>
       </c>
       <c r="E101" s="175"/>
@@ -23535,9 +23535,9 @@
     </row>
     <row r="102" spans="1:13" ht="14.25" customHeight="1">
       <c r="A102" s="232"/>
-      <c r="B102" s="319"/>
+      <c r="B102" s="306"/>
       <c r="C102" s="314"/>
-      <c r="D102" s="320"/>
+      <c r="D102" s="307"/>
       <c r="E102" s="175"/>
       <c r="F102" s="176"/>
       <c r="G102" s="177" t="s">
@@ -23556,7 +23556,7 @@
     </row>
     <row r="103" spans="1:13" ht="14.1" customHeight="1">
       <c r="A103" s="232"/>
-      <c r="B103" s="319"/>
+      <c r="B103" s="306"/>
       <c r="C103" s="314"/>
       <c r="D103" s="192" t="s">
         <v>1412</v>
@@ -23579,9 +23579,9 @@
     </row>
     <row r="104" spans="1:13" ht="66">
       <c r="A104" s="232"/>
-      <c r="B104" s="319"/>
+      <c r="B104" s="306"/>
       <c r="C104" s="314"/>
-      <c r="D104" s="318" t="s">
+      <c r="D104" s="305" t="s">
         <v>1599</v>
       </c>
       <c r="E104" s="175"/>
@@ -23606,9 +23606,9 @@
     </row>
     <row r="105" spans="1:13" ht="14.25" customHeight="1">
       <c r="A105" s="232"/>
-      <c r="B105" s="319"/>
+      <c r="B105" s="306"/>
       <c r="C105" s="314"/>
-      <c r="D105" s="319"/>
+      <c r="D105" s="306"/>
       <c r="E105" s="175"/>
       <c r="F105" s="176"/>
       <c r="G105" s="177" t="s">
@@ -23627,9 +23627,9 @@
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
       <c r="A106" s="232"/>
-      <c r="B106" s="319"/>
+      <c r="B106" s="306"/>
       <c r="C106" s="314"/>
-      <c r="D106" s="319"/>
+      <c r="D106" s="306"/>
       <c r="E106" s="175"/>
       <c r="F106" s="176"/>
       <c r="G106" s="177" t="s">
@@ -23648,9 +23648,9 @@
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
       <c r="A107" s="232"/>
-      <c r="B107" s="319"/>
+      <c r="B107" s="306"/>
       <c r="C107" s="314"/>
-      <c r="D107" s="320"/>
+      <c r="D107" s="307"/>
       <c r="E107" s="175"/>
       <c r="F107" s="176"/>
       <c r="G107" s="177" t="s">
@@ -23669,7 +23669,7 @@
     </row>
     <row r="108" spans="1:13" ht="14.25" customHeight="1">
       <c r="A108" s="232"/>
-      <c r="B108" s="319"/>
+      <c r="B108" s="306"/>
       <c r="C108" s="314"/>
       <c r="D108" s="192" t="s">
         <v>1385</v>
@@ -23692,7 +23692,7 @@
     </row>
     <row r="109" spans="1:13" ht="14.25" customHeight="1">
       <c r="A109" s="232"/>
-      <c r="B109" s="319"/>
+      <c r="B109" s="306"/>
       <c r="C109" s="314"/>
       <c r="D109" s="299" t="s">
         <v>3038</v>
@@ -23711,9 +23711,9 @@
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
       <c r="A110" s="232"/>
-      <c r="B110" s="319"/>
+      <c r="B110" s="306"/>
       <c r="C110" s="314"/>
-      <c r="D110" s="318" t="s">
+      <c r="D110" s="305" t="s">
         <v>1413</v>
       </c>
       <c r="E110" s="175"/>
@@ -23736,9 +23736,9 @@
     </row>
     <row r="111" spans="1:13" ht="14.25" customHeight="1">
       <c r="A111" s="232"/>
-      <c r="B111" s="319"/>
+      <c r="B111" s="306"/>
       <c r="C111" s="314"/>
-      <c r="D111" s="320"/>
+      <c r="D111" s="307"/>
       <c r="E111" s="175"/>
       <c r="F111" s="176"/>
       <c r="G111" s="177" t="s">
@@ -23759,9 +23759,9 @@
     </row>
     <row r="112" spans="1:13" ht="14.25" customHeight="1">
       <c r="A112" s="232"/>
-      <c r="B112" s="319"/>
+      <c r="B112" s="306"/>
       <c r="C112" s="314"/>
-      <c r="D112" s="331" t="s">
+      <c r="D112" s="330" t="s">
         <v>1418</v>
       </c>
       <c r="E112" s="175"/>
@@ -23782,9 +23782,9 @@
     </row>
     <row r="113" spans="1:13" ht="14.25" customHeight="1">
       <c r="A113" s="232"/>
-      <c r="B113" s="319"/>
+      <c r="B113" s="306"/>
       <c r="C113" s="314"/>
-      <c r="D113" s="332"/>
+      <c r="D113" s="331"/>
       <c r="E113" s="175"/>
       <c r="F113" s="176"/>
       <c r="G113" s="177" t="s">
@@ -23803,9 +23803,9 @@
     </row>
     <row r="114" spans="1:13" ht="14.25" customHeight="1">
       <c r="A114" s="232"/>
-      <c r="B114" s="319"/>
+      <c r="B114" s="306"/>
       <c r="C114" s="314"/>
-      <c r="D114" s="333"/>
+      <c r="D114" s="332"/>
       <c r="E114" s="175"/>
       <c r="F114" s="176"/>
       <c r="G114" s="177" t="s">
@@ -23824,7 +23824,7 @@
     </row>
     <row r="115" spans="1:13" ht="14.25" customHeight="1">
       <c r="A115" s="232"/>
-      <c r="B115" s="319"/>
+      <c r="B115" s="306"/>
       <c r="C115" s="314"/>
       <c r="D115" s="192" t="s">
         <v>9</v>
@@ -23847,9 +23847,9 @@
     </row>
     <row r="116" spans="1:13" ht="33">
       <c r="A116" s="232"/>
-      <c r="B116" s="319"/>
+      <c r="B116" s="306"/>
       <c r="C116" s="314"/>
-      <c r="D116" s="318" t="s">
+      <c r="D116" s="305" t="s">
         <v>1421</v>
       </c>
       <c r="E116" s="175"/>
@@ -23872,9 +23872,9 @@
     </row>
     <row r="117" spans="1:13" ht="14.25" customHeight="1">
       <c r="A117" s="232"/>
-      <c r="B117" s="319"/>
+      <c r="B117" s="306"/>
       <c r="C117" s="314"/>
-      <c r="D117" s="319"/>
+      <c r="D117" s="306"/>
       <c r="E117" s="175"/>
       <c r="F117" s="176"/>
       <c r="G117" s="177" t="s">
@@ -23893,9 +23893,9 @@
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
       <c r="A118" s="232"/>
-      <c r="B118" s="319"/>
+      <c r="B118" s="306"/>
       <c r="C118" s="315"/>
-      <c r="D118" s="320"/>
+      <c r="D118" s="307"/>
       <c r="E118" s="175"/>
       <c r="F118" s="176"/>
       <c r="G118" s="177" t="s">
@@ -23916,11 +23916,11 @@
     </row>
     <row r="119" spans="1:13" ht="14.25" customHeight="1">
       <c r="A119" s="232"/>
-      <c r="B119" s="319"/>
+      <c r="B119" s="306"/>
       <c r="C119" s="313" t="s">
         <v>1427</v>
       </c>
-      <c r="D119" s="318" t="s">
+      <c r="D119" s="305" t="s">
         <v>1428</v>
       </c>
       <c r="E119" s="175"/>
@@ -23941,9 +23941,9 @@
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
       <c r="A120" s="232"/>
-      <c r="B120" s="319"/>
+      <c r="B120" s="306"/>
       <c r="C120" s="314"/>
-      <c r="D120" s="320"/>
+      <c r="D120" s="307"/>
       <c r="E120" s="175"/>
       <c r="F120" s="176"/>
       <c r="G120" s="177" t="s">
@@ -23964,7 +23964,7 @@
     </row>
     <row r="121" spans="1:13" ht="14.25" customHeight="1">
       <c r="A121" s="181"/>
-      <c r="B121" s="319"/>
+      <c r="B121" s="306"/>
       <c r="C121" s="314"/>
       <c r="D121" s="192" t="s">
         <v>1431</v>
@@ -23989,7 +23989,7 @@
     </row>
     <row r="122" spans="1:13" ht="14.25" customHeight="1">
       <c r="A122" s="181"/>
-      <c r="B122" s="319"/>
+      <c r="B122" s="306"/>
       <c r="C122" s="314"/>
       <c r="D122" s="192" t="s">
         <v>1434</v>
@@ -24012,7 +24012,7 @@
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
       <c r="A123" s="181"/>
-      <c r="B123" s="319"/>
+      <c r="B123" s="306"/>
       <c r="C123" s="314"/>
       <c r="D123" s="303" t="s">
         <v>1436</v>
@@ -24037,9 +24037,9 @@
     </row>
     <row r="124" spans="1:13" ht="14.25" customHeight="1">
       <c r="A124" s="181"/>
-      <c r="B124" s="319"/>
+      <c r="B124" s="306"/>
       <c r="C124" s="314"/>
-      <c r="D124" s="316" t="s">
+      <c r="D124" s="310" t="s">
         <v>171</v>
       </c>
       <c r="E124" s="175"/>
@@ -24060,9 +24060,9 @@
     </row>
     <row r="125" spans="1:13" ht="14.25" customHeight="1">
       <c r="A125" s="181"/>
-      <c r="B125" s="319"/>
+      <c r="B125" s="306"/>
       <c r="C125" s="314"/>
-      <c r="D125" s="322"/>
+      <c r="D125" s="311"/>
       <c r="E125" s="175"/>
       <c r="F125" s="176"/>
       <c r="G125" s="177" t="s">
@@ -24083,9 +24083,9 @@
     </row>
     <row r="126" spans="1:13" ht="14.25" customHeight="1">
       <c r="A126" s="181"/>
-      <c r="B126" s="319"/>
+      <c r="B126" s="306"/>
       <c r="C126" s="314"/>
-      <c r="D126" s="322"/>
+      <c r="D126" s="311"/>
       <c r="E126" s="175"/>
       <c r="F126" s="176"/>
       <c r="G126" s="177" t="s">
@@ -24104,9 +24104,9 @@
     </row>
     <row r="127" spans="1:13" ht="14.25" customHeight="1">
       <c r="A127" s="181"/>
-      <c r="B127" s="319"/>
+      <c r="B127" s="306"/>
       <c r="C127" s="314"/>
-      <c r="D127" s="317"/>
+      <c r="D127" s="312"/>
       <c r="E127" s="175"/>
       <c r="F127" s="176"/>
       <c r="G127" s="177" t="s">
@@ -24127,9 +24127,9 @@
     </row>
     <row r="128" spans="1:13" ht="14.25" customHeight="1">
       <c r="A128" s="181"/>
-      <c r="B128" s="319"/>
+      <c r="B128" s="306"/>
       <c r="C128" s="314"/>
-      <c r="D128" s="316" t="s">
+      <c r="D128" s="310" t="s">
         <v>1438</v>
       </c>
       <c r="E128" s="175"/>
@@ -24150,9 +24150,9 @@
     </row>
     <row r="129" spans="1:13" ht="14.25" customHeight="1">
       <c r="A129" s="181"/>
-      <c r="B129" s="319"/>
+      <c r="B129" s="306"/>
       <c r="C129" s="314"/>
-      <c r="D129" s="317"/>
+      <c r="D129" s="312"/>
       <c r="E129" s="175"/>
       <c r="F129" s="176"/>
       <c r="G129" s="177" t="s">
@@ -24175,9 +24175,9 @@
     </row>
     <row r="130" spans="1:13" ht="14.25" customHeight="1">
       <c r="A130" s="181"/>
-      <c r="B130" s="319"/>
+      <c r="B130" s="306"/>
       <c r="C130" s="314"/>
-      <c r="D130" s="316" t="s">
+      <c r="D130" s="310" t="s">
         <v>1441</v>
       </c>
       <c r="E130" s="175"/>
@@ -24198,9 +24198,9 @@
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
       <c r="A131" s="181"/>
-      <c r="B131" s="319"/>
+      <c r="B131" s="306"/>
       <c r="C131" s="314"/>
-      <c r="D131" s="322"/>
+      <c r="D131" s="311"/>
       <c r="E131" s="175"/>
       <c r="F131" s="176"/>
       <c r="G131" s="197" t="s">
@@ -24219,9 +24219,9 @@
     </row>
     <row r="132" spans="1:13" ht="14.25" customHeight="1">
       <c r="A132" s="181"/>
-      <c r="B132" s="319"/>
+      <c r="B132" s="306"/>
       <c r="C132" s="314"/>
-      <c r="D132" s="317"/>
+      <c r="D132" s="312"/>
       <c r="E132" s="175"/>
       <c r="F132" s="176"/>
       <c r="G132" s="177" t="s">
@@ -24238,9 +24238,9 @@
     </row>
     <row r="133" spans="1:13" ht="51.75" customHeight="1">
       <c r="A133" s="181"/>
-      <c r="B133" s="319"/>
+      <c r="B133" s="306"/>
       <c r="C133" s="314"/>
-      <c r="D133" s="338" t="s">
+      <c r="D133" s="321" t="s">
         <v>166</v>
       </c>
       <c r="E133" s="175"/>
@@ -24259,9 +24259,9 @@
     </row>
     <row r="134" spans="1:13" ht="14.25" customHeight="1">
       <c r="A134" s="181"/>
-      <c r="B134" s="319"/>
+      <c r="B134" s="306"/>
       <c r="C134" s="314"/>
-      <c r="D134" s="338"/>
+      <c r="D134" s="321"/>
       <c r="E134" s="175"/>
       <c r="F134" s="176"/>
       <c r="G134" s="177" t="s">
@@ -24278,7 +24278,7 @@
     </row>
     <row r="135" spans="1:13" ht="14.25" customHeight="1">
       <c r="A135" s="181"/>
-      <c r="B135" s="319"/>
+      <c r="B135" s="306"/>
       <c r="C135" s="314"/>
       <c r="D135" s="304" t="s">
         <v>170</v>
@@ -24301,9 +24301,9 @@
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
       <c r="A136" s="181"/>
-      <c r="B136" s="319"/>
+      <c r="B136" s="306"/>
       <c r="C136" s="314"/>
-      <c r="D136" s="316" t="s">
+      <c r="D136" s="310" t="s">
         <v>13</v>
       </c>
       <c r="E136" s="175"/>
@@ -24324,9 +24324,9 @@
     </row>
     <row r="137" spans="1:13" ht="14.25" customHeight="1">
       <c r="A137" s="181"/>
-      <c r="B137" s="319"/>
+      <c r="B137" s="306"/>
       <c r="C137" s="314"/>
-      <c r="D137" s="322"/>
+      <c r="D137" s="311"/>
       <c r="E137" s="175"/>
       <c r="F137" s="176"/>
       <c r="G137" s="177" t="s">
@@ -24345,9 +24345,9 @@
     </row>
     <row r="138" spans="1:13" ht="14.25" customHeight="1">
       <c r="A138" s="181"/>
-      <c r="B138" s="319"/>
+      <c r="B138" s="306"/>
       <c r="C138" s="314"/>
-      <c r="D138" s="322"/>
+      <c r="D138" s="311"/>
       <c r="E138" s="175"/>
       <c r="F138" s="176"/>
       <c r="G138" s="177" t="s">
@@ -24366,9 +24366,9 @@
     </row>
     <row r="139" spans="1:13" ht="14.25" customHeight="1">
       <c r="A139" s="181"/>
-      <c r="B139" s="319"/>
+      <c r="B139" s="306"/>
       <c r="C139" s="314"/>
-      <c r="D139" s="322"/>
+      <c r="D139" s="311"/>
       <c r="E139" s="175"/>
       <c r="F139" s="176"/>
       <c r="G139" s="177" t="s">
@@ -24387,9 +24387,9 @@
     </row>
     <row r="140" spans="1:13" ht="14.25" customHeight="1">
       <c r="A140" s="181"/>
-      <c r="B140" s="319"/>
+      <c r="B140" s="306"/>
       <c r="C140" s="314"/>
-      <c r="D140" s="322"/>
+      <c r="D140" s="311"/>
       <c r="E140" s="175"/>
       <c r="F140" s="176"/>
       <c r="G140" s="177" t="s">
@@ -24408,9 +24408,9 @@
     </row>
     <row r="141" spans="1:13" ht="14.25" customHeight="1">
       <c r="A141" s="181"/>
-      <c r="B141" s="319"/>
+      <c r="B141" s="306"/>
       <c r="C141" s="314"/>
-      <c r="D141" s="322"/>
+      <c r="D141" s="311"/>
       <c r="E141" s="175"/>
       <c r="F141" s="176"/>
       <c r="G141" s="177" t="s">
@@ -24429,9 +24429,9 @@
     </row>
     <row r="142" spans="1:13" ht="14.25" customHeight="1">
       <c r="A142" s="181"/>
-      <c r="B142" s="319"/>
+      <c r="B142" s="306"/>
       <c r="C142" s="314"/>
-      <c r="D142" s="322"/>
+      <c r="D142" s="311"/>
       <c r="E142" s="175"/>
       <c r="F142" s="176"/>
       <c r="G142" s="177" t="s">
@@ -24450,9 +24450,9 @@
     </row>
     <row r="143" spans="1:13" ht="14.25" customHeight="1">
       <c r="A143" s="181"/>
-      <c r="B143" s="319"/>
+      <c r="B143" s="306"/>
       <c r="C143" s="315"/>
-      <c r="D143" s="317"/>
+      <c r="D143" s="312"/>
       <c r="E143" s="175"/>
       <c r="F143" s="176"/>
       <c r="G143" s="177" t="s">
@@ -24471,11 +24471,11 @@
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
       <c r="A144" s="181"/>
-      <c r="B144" s="319"/>
+      <c r="B144" s="306"/>
       <c r="C144" s="313" t="s">
         <v>18</v>
       </c>
-      <c r="D144" s="318" t="s">
+      <c r="D144" s="305" t="s">
         <v>19</v>
       </c>
       <c r="E144" s="175"/>
@@ -24496,9 +24496,9 @@
     </row>
     <row r="145" spans="1:13" ht="14.25" customHeight="1">
       <c r="A145" s="181"/>
-      <c r="B145" s="319"/>
+      <c r="B145" s="306"/>
       <c r="C145" s="314"/>
-      <c r="D145" s="319"/>
+      <c r="D145" s="306"/>
       <c r="E145" s="175"/>
       <c r="F145" s="176"/>
       <c r="G145" s="177" t="s">
@@ -24517,9 +24517,9 @@
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
       <c r="A146" s="181"/>
-      <c r="B146" s="319"/>
+      <c r="B146" s="306"/>
       <c r="C146" s="314"/>
-      <c r="D146" s="320"/>
+      <c r="D146" s="307"/>
       <c r="E146" s="175"/>
       <c r="F146" s="176"/>
       <c r="G146" s="177" t="s">
@@ -24538,9 +24538,9 @@
     </row>
     <row r="147" spans="1:13" ht="14.25" customHeight="1">
       <c r="A147" s="181"/>
-      <c r="B147" s="319"/>
+      <c r="B147" s="306"/>
       <c r="C147" s="314"/>
-      <c r="D147" s="318" t="s">
+      <c r="D147" s="305" t="s">
         <v>21</v>
       </c>
       <c r="E147" s="175"/>
@@ -24561,9 +24561,9 @@
     </row>
     <row r="148" spans="1:13" ht="14.25" customHeight="1">
       <c r="A148" s="181"/>
-      <c r="B148" s="319"/>
+      <c r="B148" s="306"/>
       <c r="C148" s="314"/>
-      <c r="D148" s="320"/>
+      <c r="D148" s="307"/>
       <c r="E148" s="175"/>
       <c r="F148" s="176"/>
       <c r="G148" s="177" t="s">
@@ -24582,7 +24582,7 @@
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
       <c r="A149" s="181"/>
-      <c r="B149" s="319"/>
+      <c r="B149" s="306"/>
       <c r="C149" s="315"/>
       <c r="D149" s="192" t="s">
         <v>27</v>
@@ -24605,11 +24605,11 @@
     </row>
     <row r="150" spans="1:13" ht="14.25" customHeight="1">
       <c r="A150" s="181"/>
-      <c r="B150" s="319"/>
+      <c r="B150" s="306"/>
       <c r="C150" s="313" t="s">
         <v>29</v>
       </c>
-      <c r="D150" s="318" t="s">
+      <c r="D150" s="305" t="s">
         <v>30</v>
       </c>
       <c r="E150" s="175"/>
@@ -24630,9 +24630,9 @@
     </row>
     <row r="151" spans="1:13" ht="14.25" customHeight="1">
       <c r="A151" s="181"/>
-      <c r="B151" s="319"/>
+      <c r="B151" s="306"/>
       <c r="C151" s="314"/>
-      <c r="D151" s="319"/>
+      <c r="D151" s="306"/>
       <c r="E151" s="175"/>
       <c r="F151" s="176"/>
       <c r="G151" s="177" t="s">
@@ -24651,9 +24651,9 @@
     </row>
     <row r="152" spans="1:13" ht="14.25" customHeight="1">
       <c r="A152" s="181"/>
-      <c r="B152" s="319"/>
+      <c r="B152" s="306"/>
       <c r="C152" s="314"/>
-      <c r="D152" s="319"/>
+      <c r="D152" s="306"/>
       <c r="E152" s="175"/>
       <c r="F152" s="176"/>
       <c r="G152" s="177" t="s">
@@ -24672,9 +24672,9 @@
     </row>
     <row r="153" spans="1:13" ht="14.25" customHeight="1">
       <c r="A153" s="181"/>
-      <c r="B153" s="319"/>
+      <c r="B153" s="306"/>
       <c r="C153" s="314"/>
-      <c r="D153" s="320"/>
+      <c r="D153" s="307"/>
       <c r="E153" s="175"/>
       <c r="F153" s="176"/>
       <c r="G153" s="177" t="s">
@@ -24691,9 +24691,9 @@
     </row>
     <row r="154" spans="1:13" ht="14.25" customHeight="1">
       <c r="A154" s="181"/>
-      <c r="B154" s="319"/>
+      <c r="B154" s="306"/>
       <c r="C154" s="314"/>
-      <c r="D154" s="336" t="s">
+      <c r="D154" s="308" t="s">
         <v>35</v>
       </c>
       <c r="E154" s="243"/>
@@ -24716,9 +24716,9 @@
     </row>
     <row r="155" spans="1:13" ht="14.25" customHeight="1">
       <c r="A155" s="181"/>
-      <c r="B155" s="319"/>
+      <c r="B155" s="306"/>
       <c r="C155" s="314"/>
-      <c r="D155" s="342"/>
+      <c r="D155" s="309"/>
       <c r="E155" s="243"/>
       <c r="F155" s="244"/>
       <c r="G155" s="177" t="s">
@@ -24737,7 +24737,7 @@
     </row>
     <row r="156" spans="1:13" ht="14.25" customHeight="1">
       <c r="A156" s="181"/>
-      <c r="B156" s="319"/>
+      <c r="B156" s="306"/>
       <c r="C156" s="314"/>
       <c r="D156" s="192" t="s">
         <v>38</v>
@@ -24760,7 +24760,7 @@
     </row>
     <row r="157" spans="1:13" ht="33">
       <c r="A157" s="181"/>
-      <c r="B157" s="319"/>
+      <c r="B157" s="306"/>
       <c r="C157" s="314"/>
       <c r="D157" s="192" t="s">
         <v>40</v>
@@ -24783,9 +24783,9 @@
     </row>
     <row r="158" spans="1:13" ht="14.25" customHeight="1">
       <c r="A158" s="181"/>
-      <c r="B158" s="319"/>
+      <c r="B158" s="306"/>
       <c r="C158" s="314"/>
-      <c r="D158" s="318" t="s">
+      <c r="D158" s="305" t="s">
         <v>42</v>
       </c>
       <c r="E158" s="175"/>
@@ -24808,9 +24808,9 @@
     </row>
     <row r="159" spans="1:13" ht="14.25" customHeight="1">
       <c r="A159" s="181"/>
-      <c r="B159" s="319"/>
+      <c r="B159" s="306"/>
       <c r="C159" s="314"/>
-      <c r="D159" s="319"/>
+      <c r="D159" s="306"/>
       <c r="E159" s="175"/>
       <c r="F159" s="176"/>
       <c r="G159" s="177" t="s">
@@ -24829,9 +24829,9 @@
     </row>
     <row r="160" spans="1:13" ht="33">
       <c r="A160" s="181"/>
-      <c r="B160" s="319"/>
+      <c r="B160" s="306"/>
       <c r="C160" s="314"/>
-      <c r="D160" s="319"/>
+      <c r="D160" s="306"/>
       <c r="E160" s="175"/>
       <c r="F160" s="176"/>
       <c r="G160" s="177" t="s">
@@ -24850,9 +24850,9 @@
     </row>
     <row r="161" spans="1:13" ht="14.25" customHeight="1">
       <c r="A161" s="181"/>
-      <c r="B161" s="319"/>
+      <c r="B161" s="306"/>
       <c r="C161" s="314"/>
-      <c r="D161" s="319"/>
+      <c r="D161" s="306"/>
       <c r="E161" s="175"/>
       <c r="F161" s="176"/>
       <c r="G161" s="177" t="s">
@@ -24871,9 +24871,9 @@
     </row>
     <row r="162" spans="1:13" s="296" customFormat="1" ht="14.25" customHeight="1">
       <c r="A162" s="288"/>
-      <c r="B162" s="319"/>
+      <c r="B162" s="306"/>
       <c r="C162" s="314"/>
-      <c r="D162" s="319"/>
+      <c r="D162" s="306"/>
       <c r="E162" s="289"/>
       <c r="F162" s="290"/>
       <c r="G162" s="291" t="s">
@@ -24892,9 +24892,9 @@
     </row>
     <row r="163" spans="1:13" ht="46.5" customHeight="1">
       <c r="A163" s="181"/>
-      <c r="B163" s="319"/>
+      <c r="B163" s="306"/>
       <c r="C163" s="314"/>
-      <c r="D163" s="319"/>
+      <c r="D163" s="306"/>
       <c r="E163" s="175"/>
       <c r="F163" s="176"/>
       <c r="G163" s="177" t="s">
@@ -24913,9 +24913,9 @@
     </row>
     <row r="164" spans="1:13" ht="33">
       <c r="A164" s="181"/>
-      <c r="B164" s="319"/>
+      <c r="B164" s="306"/>
       <c r="C164" s="314"/>
-      <c r="D164" s="319"/>
+      <c r="D164" s="306"/>
       <c r="E164" s="175"/>
       <c r="F164" s="176"/>
       <c r="G164" s="246" t="s">
@@ -24936,9 +24936,9 @@
     </row>
     <row r="165" spans="1:13" ht="14.25" customHeight="1">
       <c r="A165" s="181"/>
-      <c r="B165" s="319"/>
+      <c r="B165" s="306"/>
       <c r="C165" s="314"/>
-      <c r="D165" s="319"/>
+      <c r="D165" s="306"/>
       <c r="E165" s="175"/>
       <c r="F165" s="176"/>
       <c r="G165" s="177" t="s">
@@ -24957,9 +24957,9 @@
     </row>
     <row r="166" spans="1:13" ht="14.25" customHeight="1">
       <c r="A166" s="181"/>
-      <c r="B166" s="319"/>
+      <c r="B166" s="306"/>
       <c r="C166" s="314"/>
-      <c r="D166" s="319"/>
+      <c r="D166" s="306"/>
       <c r="E166" s="175"/>
       <c r="F166" s="176"/>
       <c r="G166" s="177" t="s">
@@ -24978,9 +24978,9 @@
     </row>
     <row r="167" spans="1:13" ht="33">
       <c r="A167" s="181"/>
-      <c r="B167" s="319"/>
+      <c r="B167" s="306"/>
       <c r="C167" s="315"/>
-      <c r="D167" s="320"/>
+      <c r="D167" s="307"/>
       <c r="E167" s="175"/>
       <c r="F167" s="176"/>
       <c r="G167" s="177" t="s">
@@ -24999,11 +24999,11 @@
     </row>
     <row r="168" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A168" s="181"/>
-      <c r="B168" s="319"/>
+      <c r="B168" s="306"/>
       <c r="C168" s="313" t="s">
         <v>53</v>
       </c>
-      <c r="D168" s="318" t="s">
+      <c r="D168" s="305" t="s">
         <v>106</v>
       </c>
       <c r="E168" s="175"/>
@@ -25020,9 +25020,9 @@
     </row>
     <row r="169" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A169" s="181"/>
-      <c r="B169" s="319"/>
+      <c r="B169" s="306"/>
       <c r="C169" s="314"/>
-      <c r="D169" s="319"/>
+      <c r="D169" s="306"/>
       <c r="E169" s="175"/>
       <c r="F169" s="176"/>
       <c r="G169" s="177" t="s">
@@ -25037,9 +25037,9 @@
     </row>
     <row r="170" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A170" s="181"/>
-      <c r="B170" s="319"/>
+      <c r="B170" s="306"/>
       <c r="C170" s="314"/>
-      <c r="D170" s="319"/>
+      <c r="D170" s="306"/>
       <c r="E170" s="175"/>
       <c r="F170" s="176"/>
       <c r="G170" s="177" t="s">
@@ -25054,9 +25054,9 @@
     </row>
     <row r="171" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A171" s="181"/>
-      <c r="B171" s="319"/>
+      <c r="B171" s="306"/>
       <c r="C171" s="314"/>
-      <c r="D171" s="319"/>
+      <c r="D171" s="306"/>
       <c r="E171" s="175"/>
       <c r="F171" s="176"/>
       <c r="G171" s="177" t="s">
@@ -25071,9 +25071,9 @@
     </row>
     <row r="172" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A172" s="181"/>
-      <c r="B172" s="319"/>
+      <c r="B172" s="306"/>
       <c r="C172" s="314"/>
-      <c r="D172" s="319"/>
+      <c r="D172" s="306"/>
       <c r="E172" s="175"/>
       <c r="F172" s="176"/>
       <c r="G172" s="177" t="s">
@@ -25088,9 +25088,9 @@
     </row>
     <row r="173" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="319"/>
+      <c r="B173" s="306"/>
       <c r="C173" s="314"/>
-      <c r="D173" s="319"/>
+      <c r="D173" s="306"/>
       <c r="E173" s="175"/>
       <c r="F173" s="176"/>
       <c r="G173" s="177" t="s">
@@ -25105,9 +25105,9 @@
     </row>
     <row r="174" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A174" s="181"/>
-      <c r="B174" s="319"/>
+      <c r="B174" s="306"/>
       <c r="C174" s="314"/>
-      <c r="D174" s="319"/>
+      <c r="D174" s="306"/>
       <c r="E174" s="175"/>
       <c r="F174" s="176"/>
       <c r="G174" s="177" t="s">
@@ -25122,9 +25122,9 @@
     </row>
     <row r="175" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A175" s="181"/>
-      <c r="B175" s="319"/>
+      <c r="B175" s="306"/>
       <c r="C175" s="314"/>
-      <c r="D175" s="319"/>
+      <c r="D175" s="306"/>
       <c r="E175" s="175"/>
       <c r="F175" s="176"/>
       <c r="G175" s="177" t="s">
@@ -25139,9 +25139,9 @@
     </row>
     <row r="176" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A176" s="181"/>
-      <c r="B176" s="319"/>
+      <c r="B176" s="306"/>
       <c r="C176" s="314"/>
-      <c r="D176" s="320"/>
+      <c r="D176" s="307"/>
       <c r="E176" s="175"/>
       <c r="F176" s="176"/>
       <c r="G176" s="177" t="s">
@@ -25156,9 +25156,9 @@
     </row>
     <row r="177" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A177" s="181"/>
-      <c r="B177" s="319"/>
+      <c r="B177" s="306"/>
       <c r="C177" s="314"/>
-      <c r="D177" s="318" t="s">
+      <c r="D177" s="305" t="s">
         <v>108</v>
       </c>
       <c r="E177" s="175"/>
@@ -25175,9 +25175,9 @@
     </row>
     <row r="178" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A178" s="181"/>
-      <c r="B178" s="319"/>
+      <c r="B178" s="306"/>
       <c r="C178" s="314"/>
-      <c r="D178" s="319"/>
+      <c r="D178" s="306"/>
       <c r="E178" s="175"/>
       <c r="F178" s="176"/>
       <c r="G178" s="177" t="s">
@@ -25192,9 +25192,9 @@
     </row>
     <row r="179" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A179" s="181"/>
-      <c r="B179" s="319"/>
+      <c r="B179" s="306"/>
       <c r="C179" s="314"/>
-      <c r="D179" s="319"/>
+      <c r="D179" s="306"/>
       <c r="E179" s="175"/>
       <c r="F179" s="176"/>
       <c r="G179" s="177" t="s">
@@ -25209,9 +25209,9 @@
     </row>
     <row r="180" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A180" s="181"/>
-      <c r="B180" s="319"/>
+      <c r="B180" s="306"/>
       <c r="C180" s="314"/>
-      <c r="D180" s="319"/>
+      <c r="D180" s="306"/>
       <c r="E180" s="175"/>
       <c r="F180" s="176"/>
       <c r="G180" s="177" t="s">
@@ -25226,9 +25226,9 @@
     </row>
     <row r="181" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A181" s="181"/>
-      <c r="B181" s="319"/>
+      <c r="B181" s="306"/>
       <c r="C181" s="314"/>
-      <c r="D181" s="319"/>
+      <c r="D181" s="306"/>
       <c r="E181" s="175"/>
       <c r="F181" s="176"/>
       <c r="G181" s="177" t="s">
@@ -25243,9 +25243,9 @@
     </row>
     <row r="182" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A182" s="181"/>
-      <c r="B182" s="319"/>
+      <c r="B182" s="306"/>
       <c r="C182" s="314"/>
-      <c r="D182" s="319"/>
+      <c r="D182" s="306"/>
       <c r="E182" s="175"/>
       <c r="F182" s="176"/>
       <c r="G182" s="177" t="s">
@@ -25260,9 +25260,9 @@
     </row>
     <row r="183" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A183" s="181"/>
-      <c r="B183" s="319"/>
+      <c r="B183" s="306"/>
       <c r="C183" s="314"/>
-      <c r="D183" s="319"/>
+      <c r="D183" s="306"/>
       <c r="E183" s="175"/>
       <c r="F183" s="176"/>
       <c r="G183" s="177" t="s">
@@ -25277,9 +25277,9 @@
     </row>
     <row r="184" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A184" s="181"/>
-      <c r="B184" s="319"/>
+      <c r="B184" s="306"/>
       <c r="C184" s="315"/>
-      <c r="D184" s="320"/>
+      <c r="D184" s="307"/>
       <c r="E184" s="175"/>
       <c r="F184" s="176"/>
       <c r="G184" s="177" t="s">
@@ -25294,8 +25294,8 @@
     </row>
     <row r="185" spans="1:13" ht="14.25" customHeight="1">
       <c r="A185" s="181"/>
-      <c r="B185" s="319"/>
-      <c r="C185" s="326" t="s">
+      <c r="B185" s="306"/>
+      <c r="C185" s="322" t="s">
         <v>54</v>
       </c>
       <c r="D185" s="192"/>
@@ -25315,8 +25315,8 @@
     </row>
     <row r="186" spans="1:13" ht="14.25" customHeight="1">
       <c r="A186" s="181"/>
-      <c r="B186" s="319"/>
-      <c r="C186" s="327"/>
+      <c r="B186" s="306"/>
+      <c r="C186" s="323"/>
       <c r="D186" s="197" t="s">
         <v>156</v>
       </c>
@@ -25336,8 +25336,8 @@
     </row>
     <row r="187" spans="1:13" ht="14.25" customHeight="1">
       <c r="A187" s="181"/>
-      <c r="B187" s="319"/>
-      <c r="C187" s="327"/>
+      <c r="B187" s="306"/>
+      <c r="C187" s="323"/>
       <c r="D187" s="251"/>
       <c r="E187" s="236"/>
       <c r="F187" s="250"/>
@@ -25355,8 +25355,8 @@
     </row>
     <row r="188" spans="1:13" ht="14.25" customHeight="1">
       <c r="A188" s="181"/>
-      <c r="B188" s="319"/>
-      <c r="C188" s="327"/>
+      <c r="B188" s="306"/>
+      <c r="C188" s="323"/>
       <c r="D188" s="193" t="s">
         <v>158</v>
       </c>
@@ -25374,8 +25374,8 @@
     </row>
     <row r="189" spans="1:13" ht="14.25" customHeight="1">
       <c r="A189" s="181"/>
-      <c r="B189" s="319"/>
-      <c r="C189" s="327"/>
+      <c r="B189" s="306"/>
+      <c r="C189" s="323"/>
       <c r="D189" s="193" t="s">
         <v>159</v>
       </c>
@@ -25393,8 +25393,8 @@
     </row>
     <row r="190" spans="1:13" ht="14.25" customHeight="1">
       <c r="A190" s="181"/>
-      <c r="B190" s="319"/>
-      <c r="C190" s="327"/>
+      <c r="B190" s="306"/>
+      <c r="C190" s="323"/>
       <c r="D190" s="193" t="s">
         <v>160</v>
       </c>
@@ -25412,8 +25412,8 @@
     </row>
     <row r="191" spans="1:13" ht="14.25" customHeight="1">
       <c r="A191" s="181"/>
-      <c r="B191" s="319"/>
-      <c r="C191" s="327"/>
+      <c r="B191" s="306"/>
+      <c r="C191" s="323"/>
       <c r="D191" s="193" t="s">
         <v>161</v>
       </c>
@@ -25431,8 +25431,8 @@
     </row>
     <row r="192" spans="1:13" ht="37.5" customHeight="1">
       <c r="A192" s="181"/>
-      <c r="B192" s="319"/>
-      <c r="C192" s="327"/>
+      <c r="B192" s="306"/>
+      <c r="C192" s="323"/>
       <c r="D192" s="253" t="s">
         <v>195</v>
       </c>
@@ -25450,8 +25450,8 @@
     </row>
     <row r="193" spans="1:13" ht="14.25" customHeight="1">
       <c r="A193" s="181"/>
-      <c r="B193" s="319"/>
-      <c r="C193" s="327"/>
+      <c r="B193" s="306"/>
+      <c r="C193" s="323"/>
       <c r="D193" s="193" t="s">
         <v>162</v>
       </c>
@@ -25469,8 +25469,8 @@
     </row>
     <row r="194" spans="1:13" ht="14.25" customHeight="1">
       <c r="A194" s="181"/>
-      <c r="B194" s="320"/>
-      <c r="C194" s="328"/>
+      <c r="B194" s="307"/>
+      <c r="C194" s="324"/>
       <c r="D194" s="193" t="s">
         <v>163</v>
       </c>
@@ -25488,13 +25488,13 @@
     </row>
     <row r="195" spans="1:13" ht="14.25" customHeight="1">
       <c r="A195" s="181"/>
-      <c r="B195" s="308" t="s">
+      <c r="B195" s="317" t="s">
         <v>128</v>
       </c>
       <c r="C195" s="313" t="s">
         <v>57</v>
       </c>
-      <c r="D195" s="318" t="s">
+      <c r="D195" s="305" t="s">
         <v>56</v>
       </c>
       <c r="E195" s="175"/>
@@ -25515,9 +25515,9 @@
     </row>
     <row r="196" spans="1:13" ht="14.25" customHeight="1">
       <c r="A196" s="181"/>
-      <c r="B196" s="309"/>
+      <c r="B196" s="318"/>
       <c r="C196" s="314"/>
-      <c r="D196" s="320"/>
+      <c r="D196" s="307"/>
       <c r="E196" s="175"/>
       <c r="F196" s="176"/>
       <c r="G196" s="177" t="s">
@@ -25536,7 +25536,7 @@
     </row>
     <row r="197" spans="1:13" ht="14.25" customHeight="1">
       <c r="A197" s="181"/>
-      <c r="B197" s="309"/>
+      <c r="B197" s="318"/>
       <c r="C197" s="314"/>
       <c r="D197" s="254" t="s">
         <v>2877</v>
@@ -25557,9 +25557,9 @@
     </row>
     <row r="198" spans="1:13" ht="14.25" customHeight="1">
       <c r="A198" s="181"/>
-      <c r="B198" s="309"/>
+      <c r="B198" s="318"/>
       <c r="C198" s="314"/>
-      <c r="D198" s="316" t="s">
+      <c r="D198" s="310" t="s">
         <v>61</v>
       </c>
       <c r="E198" s="175"/>
@@ -25578,9 +25578,9 @@
     </row>
     <row r="199" spans="1:13" ht="14.25" customHeight="1">
       <c r="A199" s="181"/>
-      <c r="B199" s="309"/>
+      <c r="B199" s="318"/>
       <c r="C199" s="314"/>
-      <c r="D199" s="322"/>
+      <c r="D199" s="311"/>
       <c r="E199" s="175"/>
       <c r="F199" s="176"/>
       <c r="G199" s="177" t="s">
@@ -25599,9 +25599,9 @@
     </row>
     <row r="200" spans="1:13" ht="14.25" customHeight="1">
       <c r="A200" s="181"/>
-      <c r="B200" s="309"/>
+      <c r="B200" s="318"/>
       <c r="C200" s="314"/>
-      <c r="D200" s="317"/>
+      <c r="D200" s="312"/>
       <c r="E200" s="175"/>
       <c r="F200" s="176"/>
       <c r="G200" s="177" t="s">
@@ -25618,9 +25618,9 @@
     </row>
     <row r="201" spans="1:13" ht="14.25" customHeight="1">
       <c r="A201" s="181"/>
-      <c r="B201" s="309"/>
+      <c r="B201" s="318"/>
       <c r="C201" s="314"/>
-      <c r="D201" s="316" t="s">
+      <c r="D201" s="310" t="s">
         <v>65</v>
       </c>
       <c r="E201" s="175"/>
@@ -25641,9 +25641,9 @@
     </row>
     <row r="202" spans="1:13" ht="33">
       <c r="A202" s="181"/>
-      <c r="B202" s="309"/>
+      <c r="B202" s="318"/>
       <c r="C202" s="314"/>
-      <c r="D202" s="317"/>
+      <c r="D202" s="312"/>
       <c r="E202" s="175"/>
       <c r="F202" s="176"/>
       <c r="G202" s="177" t="s">
@@ -25660,9 +25660,9 @@
     </row>
     <row r="203" spans="1:13" ht="14.25" customHeight="1">
       <c r="A203" s="181"/>
-      <c r="B203" s="309"/>
+      <c r="B203" s="318"/>
       <c r="C203" s="314"/>
-      <c r="D203" s="316" t="s">
+      <c r="D203" s="310" t="s">
         <v>68</v>
       </c>
       <c r="E203" s="175"/>
@@ -25681,9 +25681,9 @@
     </row>
     <row r="204" spans="1:13" ht="14.25" customHeight="1">
       <c r="A204" s="181"/>
-      <c r="B204" s="309"/>
+      <c r="B204" s="318"/>
       <c r="C204" s="314"/>
-      <c r="D204" s="317"/>
+      <c r="D204" s="312"/>
       <c r="E204" s="175"/>
       <c r="F204" s="176"/>
       <c r="G204" s="177" t="s">
@@ -25702,9 +25702,9 @@
     </row>
     <row r="205" spans="1:13" ht="14.25" customHeight="1">
       <c r="A205" s="181"/>
-      <c r="B205" s="309"/>
+      <c r="B205" s="318"/>
       <c r="C205" s="314"/>
-      <c r="D205" s="316" t="s">
+      <c r="D205" s="310" t="s">
         <v>70</v>
       </c>
       <c r="E205" s="175"/>
@@ -25723,9 +25723,9 @@
     </row>
     <row r="206" spans="1:13" ht="14.25" customHeight="1">
       <c r="A206" s="181"/>
-      <c r="B206" s="309"/>
+      <c r="B206" s="318"/>
       <c r="C206" s="314"/>
-      <c r="D206" s="322"/>
+      <c r="D206" s="311"/>
       <c r="E206" s="175"/>
       <c r="F206" s="176"/>
       <c r="G206" s="177" t="s">
@@ -25744,9 +25744,9 @@
     </row>
     <row r="207" spans="1:13" ht="14.25" customHeight="1">
       <c r="A207" s="181"/>
-      <c r="B207" s="309"/>
+      <c r="B207" s="318"/>
       <c r="C207" s="314"/>
-      <c r="D207" s="322"/>
+      <c r="D207" s="311"/>
       <c r="E207" s="175"/>
       <c r="F207" s="176"/>
       <c r="G207" s="177" t="s">
@@ -25763,9 +25763,9 @@
     </row>
     <row r="208" spans="1:13" ht="14.25" customHeight="1">
       <c r="A208" s="181"/>
-      <c r="B208" s="309"/>
+      <c r="B208" s="318"/>
       <c r="C208" s="314"/>
-      <c r="D208" s="322"/>
+      <c r="D208" s="311"/>
       <c r="E208" s="175"/>
       <c r="F208" s="176"/>
       <c r="G208" s="177" t="s">
@@ -25782,9 +25782,9 @@
     </row>
     <row r="209" spans="1:13" ht="14.25" customHeight="1">
       <c r="A209" s="181"/>
-      <c r="B209" s="309"/>
+      <c r="B209" s="318"/>
       <c r="C209" s="314"/>
-      <c r="D209" s="322"/>
+      <c r="D209" s="311"/>
       <c r="E209" s="175"/>
       <c r="F209" s="176"/>
       <c r="G209" s="177" t="s">
@@ -25801,9 +25801,9 @@
     </row>
     <row r="210" spans="1:13" ht="30" customHeight="1">
       <c r="A210" s="181"/>
-      <c r="B210" s="309"/>
+      <c r="B210" s="318"/>
       <c r="C210" s="315"/>
-      <c r="D210" s="317"/>
+      <c r="D210" s="312"/>
       <c r="E210" s="175"/>
       <c r="F210" s="176"/>
       <c r="G210" s="177" t="s">
@@ -25822,11 +25822,11 @@
     </row>
     <row r="211" spans="1:13" ht="14.25" customHeight="1">
       <c r="A211" s="181"/>
-      <c r="B211" s="309"/>
+      <c r="B211" s="318"/>
       <c r="C211" s="313" t="s">
         <v>112</v>
       </c>
-      <c r="D211" s="318" t="s">
+      <c r="D211" s="305" t="s">
         <v>1446</v>
       </c>
       <c r="E211" s="175"/>
@@ -25845,9 +25845,9 @@
     </row>
     <row r="212" spans="1:13" ht="14.25" customHeight="1">
       <c r="A212" s="181"/>
-      <c r="B212" s="309"/>
+      <c r="B212" s="318"/>
       <c r="C212" s="314"/>
-      <c r="D212" s="319"/>
+      <c r="D212" s="306"/>
       <c r="E212" s="175"/>
       <c r="F212" s="176"/>
       <c r="G212" s="177" t="s">
@@ -25864,9 +25864,9 @@
     </row>
     <row r="213" spans="1:13" ht="14.25" customHeight="1">
       <c r="A213" s="181"/>
-      <c r="B213" s="309"/>
+      <c r="B213" s="318"/>
       <c r="C213" s="314"/>
-      <c r="D213" s="319"/>
+      <c r="D213" s="306"/>
       <c r="E213" s="175"/>
       <c r="F213" s="176"/>
       <c r="G213" s="177" t="s">
@@ -25883,9 +25883,9 @@
     </row>
     <row r="214" spans="1:13" ht="14.25" customHeight="1">
       <c r="A214" s="181"/>
-      <c r="B214" s="309"/>
+      <c r="B214" s="318"/>
       <c r="C214" s="314"/>
-      <c r="D214" s="319"/>
+      <c r="D214" s="306"/>
       <c r="E214" s="175"/>
       <c r="F214" s="176"/>
       <c r="G214" s="177" t="s">
@@ -25902,9 +25902,9 @@
     </row>
     <row r="215" spans="1:13" ht="14.25" customHeight="1">
       <c r="A215" s="181"/>
-      <c r="B215" s="309"/>
+      <c r="B215" s="318"/>
       <c r="C215" s="314"/>
-      <c r="D215" s="319"/>
+      <c r="D215" s="306"/>
       <c r="E215" s="175"/>
       <c r="F215" s="176"/>
       <c r="G215" s="177" t="s">
@@ -25921,9 +25921,9 @@
     </row>
     <row r="216" spans="1:13" ht="14.25" customHeight="1">
       <c r="A216" s="181"/>
-      <c r="B216" s="309"/>
+      <c r="B216" s="318"/>
       <c r="C216" s="314"/>
-      <c r="D216" s="319"/>
+      <c r="D216" s="306"/>
       <c r="E216" s="175"/>
       <c r="F216" s="176"/>
       <c r="G216" s="177" t="s">
@@ -25940,9 +25940,9 @@
     </row>
     <row r="217" spans="1:13" ht="14.25" customHeight="1">
       <c r="A217" s="181"/>
-      <c r="B217" s="309"/>
+      <c r="B217" s="318"/>
       <c r="C217" s="314"/>
-      <c r="D217" s="319"/>
+      <c r="D217" s="306"/>
       <c r="E217" s="175"/>
       <c r="F217" s="176"/>
       <c r="G217" s="177" t="s">
@@ -25959,9 +25959,9 @@
     </row>
     <row r="218" spans="1:13" ht="14.25" customHeight="1">
       <c r="A218" s="181"/>
-      <c r="B218" s="309"/>
+      <c r="B218" s="318"/>
       <c r="C218" s="314"/>
-      <c r="D218" s="319"/>
+      <c r="D218" s="306"/>
       <c r="E218" s="175"/>
       <c r="F218" s="176"/>
       <c r="G218" s="177" t="s">
@@ -25978,9 +25978,9 @@
     </row>
     <row r="219" spans="1:13" ht="14.25" customHeight="1">
       <c r="A219" s="181"/>
-      <c r="B219" s="309"/>
+      <c r="B219" s="318"/>
       <c r="C219" s="314"/>
-      <c r="D219" s="319"/>
+      <c r="D219" s="306"/>
       <c r="E219" s="175"/>
       <c r="F219" s="176"/>
       <c r="G219" s="177" t="s">
@@ -25997,9 +25997,9 @@
     </row>
     <row r="220" spans="1:13" ht="14.25" customHeight="1">
       <c r="A220" s="181"/>
-      <c r="B220" s="309"/>
+      <c r="B220" s="318"/>
       <c r="C220" s="314"/>
-      <c r="D220" s="319"/>
+      <c r="D220" s="306"/>
       <c r="E220" s="175"/>
       <c r="F220" s="176"/>
       <c r="G220" s="177" t="s">
@@ -26016,9 +26016,9 @@
     </row>
     <row r="221" spans="1:13" ht="14.25" customHeight="1">
       <c r="A221" s="181"/>
-      <c r="B221" s="309"/>
+      <c r="B221" s="318"/>
       <c r="C221" s="314"/>
-      <c r="D221" s="319"/>
+      <c r="D221" s="306"/>
       <c r="E221" s="175"/>
       <c r="F221" s="176"/>
       <c r="G221" s="177" t="s">
@@ -26035,9 +26035,9 @@
     </row>
     <row r="222" spans="1:13" ht="14.25" customHeight="1">
       <c r="A222" s="181"/>
-      <c r="B222" s="309"/>
+      <c r="B222" s="318"/>
       <c r="C222" s="314"/>
-      <c r="D222" s="319"/>
+      <c r="D222" s="306"/>
       <c r="E222" s="175"/>
       <c r="F222" s="176"/>
       <c r="G222" s="177" t="s">
@@ -26054,9 +26054,9 @@
     </row>
     <row r="223" spans="1:13" ht="14.25" customHeight="1">
       <c r="A223" s="181"/>
-      <c r="B223" s="309"/>
+      <c r="B223" s="318"/>
       <c r="C223" s="314"/>
-      <c r="D223" s="319"/>
+      <c r="D223" s="306"/>
       <c r="E223" s="175"/>
       <c r="F223" s="176"/>
       <c r="G223" s="177" t="s">
@@ -26073,9 +26073,9 @@
     </row>
     <row r="224" spans="1:13" ht="14.25" customHeight="1">
       <c r="A224" s="181"/>
-      <c r="B224" s="309"/>
+      <c r="B224" s="318"/>
       <c r="C224" s="314"/>
-      <c r="D224" s="319"/>
+      <c r="D224" s="306"/>
       <c r="E224" s="175"/>
       <c r="F224" s="176"/>
       <c r="G224" s="177" t="s">
@@ -26092,9 +26092,9 @@
     </row>
     <row r="225" spans="1:13" ht="14.25" customHeight="1">
       <c r="A225" s="181"/>
-      <c r="B225" s="309"/>
+      <c r="B225" s="318"/>
       <c r="C225" s="314"/>
-      <c r="D225" s="319"/>
+      <c r="D225" s="306"/>
       <c r="E225" s="175"/>
       <c r="F225" s="176"/>
       <c r="G225" s="177" t="s">
@@ -26111,9 +26111,9 @@
     </row>
     <row r="226" spans="1:13" ht="14.25" customHeight="1">
       <c r="A226" s="181"/>
-      <c r="B226" s="309"/>
+      <c r="B226" s="318"/>
       <c r="C226" s="314"/>
-      <c r="D226" s="319"/>
+      <c r="D226" s="306"/>
       <c r="E226" s="175"/>
       <c r="F226" s="176"/>
       <c r="G226" s="177" t="s">
@@ -26130,9 +26130,9 @@
     </row>
     <row r="227" spans="1:13" ht="14.25" customHeight="1">
       <c r="A227" s="181"/>
-      <c r="B227" s="309"/>
+      <c r="B227" s="318"/>
       <c r="C227" s="314"/>
-      <c r="D227" s="319"/>
+      <c r="D227" s="306"/>
       <c r="E227" s="175"/>
       <c r="F227" s="176"/>
       <c r="G227" s="177" t="s">
@@ -26149,9 +26149,9 @@
     </row>
     <row r="228" spans="1:13" ht="14.25" customHeight="1">
       <c r="A228" s="181"/>
-      <c r="B228" s="309"/>
+      <c r="B228" s="318"/>
       <c r="C228" s="314"/>
-      <c r="D228" s="319"/>
+      <c r="D228" s="306"/>
       <c r="E228" s="175"/>
       <c r="F228" s="176"/>
       <c r="G228" s="177" t="s">
@@ -26168,9 +26168,9 @@
     </row>
     <row r="229" spans="1:13" ht="14.25" customHeight="1">
       <c r="A229" s="181"/>
-      <c r="B229" s="309"/>
+      <c r="B229" s="318"/>
       <c r="C229" s="314"/>
-      <c r="D229" s="319"/>
+      <c r="D229" s="306"/>
       <c r="E229" s="175"/>
       <c r="F229" s="176"/>
       <c r="G229" s="177" t="s">
@@ -26187,9 +26187,9 @@
     </row>
     <row r="230" spans="1:13" ht="14.25" customHeight="1">
       <c r="A230" s="181"/>
-      <c r="B230" s="309"/>
+      <c r="B230" s="318"/>
       <c r="C230" s="314"/>
-      <c r="D230" s="319"/>
+      <c r="D230" s="306"/>
       <c r="E230" s="175"/>
       <c r="F230" s="176"/>
       <c r="G230" s="177" t="s">
@@ -26206,9 +26206,9 @@
     </row>
     <row r="231" spans="1:13" ht="14.25" customHeight="1">
       <c r="A231" s="181"/>
-      <c r="B231" s="309"/>
+      <c r="B231" s="318"/>
       <c r="C231" s="314"/>
-      <c r="D231" s="319"/>
+      <c r="D231" s="306"/>
       <c r="E231" s="175"/>
       <c r="F231" s="176"/>
       <c r="G231" s="177" t="s">
@@ -26225,9 +26225,9 @@
     </row>
     <row r="232" spans="1:13" ht="14.25" customHeight="1">
       <c r="A232" s="181"/>
-      <c r="B232" s="309"/>
+      <c r="B232" s="318"/>
       <c r="C232" s="314"/>
-      <c r="D232" s="319"/>
+      <c r="D232" s="306"/>
       <c r="E232" s="175"/>
       <c r="F232" s="176"/>
       <c r="G232" s="177" t="s">
@@ -26244,9 +26244,9 @@
     </row>
     <row r="233" spans="1:13" ht="14.25" customHeight="1">
       <c r="A233" s="181"/>
-      <c r="B233" s="309"/>
+      <c r="B233" s="318"/>
       <c r="C233" s="314"/>
-      <c r="D233" s="319"/>
+      <c r="D233" s="306"/>
       <c r="E233" s="175"/>
       <c r="F233" s="176"/>
       <c r="G233" s="177" t="s">
@@ -26263,9 +26263,9 @@
     </row>
     <row r="234" spans="1:13" ht="14.25" customHeight="1">
       <c r="A234" s="181"/>
-      <c r="B234" s="309"/>
+      <c r="B234" s="318"/>
       <c r="C234" s="314"/>
-      <c r="D234" s="319"/>
+      <c r="D234" s="306"/>
       <c r="E234" s="175"/>
       <c r="F234" s="176"/>
       <c r="G234" s="177" t="s">
@@ -26282,9 +26282,9 @@
     </row>
     <row r="235" spans="1:13" ht="14.25" customHeight="1">
       <c r="A235" s="181"/>
-      <c r="B235" s="309"/>
+      <c r="B235" s="318"/>
       <c r="C235" s="314"/>
-      <c r="D235" s="319"/>
+      <c r="D235" s="306"/>
       <c r="E235" s="175"/>
       <c r="F235" s="176"/>
       <c r="G235" s="177" t="s">
@@ -26301,9 +26301,9 @@
     </row>
     <row r="236" spans="1:13" ht="14.25" customHeight="1">
       <c r="A236" s="181"/>
-      <c r="B236" s="309"/>
+      <c r="B236" s="318"/>
       <c r="C236" s="314"/>
-      <c r="D236" s="319"/>
+      <c r="D236" s="306"/>
       <c r="E236" s="175"/>
       <c r="F236" s="176"/>
       <c r="G236" s="177" t="s">
@@ -26320,9 +26320,9 @@
     </row>
     <row r="237" spans="1:13" ht="14.25" customHeight="1">
       <c r="A237" s="181"/>
-      <c r="B237" s="309"/>
+      <c r="B237" s="318"/>
       <c r="C237" s="314"/>
-      <c r="D237" s="319"/>
+      <c r="D237" s="306"/>
       <c r="E237" s="175"/>
       <c r="F237" s="176"/>
       <c r="G237" s="177" t="s">
@@ -26339,9 +26339,9 @@
     </row>
     <row r="238" spans="1:13" ht="14.25" customHeight="1">
       <c r="A238" s="181"/>
-      <c r="B238" s="309"/>
+      <c r="B238" s="318"/>
       <c r="C238" s="314"/>
-      <c r="D238" s="319"/>
+      <c r="D238" s="306"/>
       <c r="E238" s="175"/>
       <c r="F238" s="176"/>
       <c r="G238" s="177" t="s">
@@ -26358,9 +26358,9 @@
     </row>
     <row r="239" spans="1:13" ht="14.25" customHeight="1">
       <c r="A239" s="181"/>
-      <c r="B239" s="309"/>
+      <c r="B239" s="318"/>
       <c r="C239" s="314"/>
-      <c r="D239" s="319"/>
+      <c r="D239" s="306"/>
       <c r="E239" s="175"/>
       <c r="F239" s="176"/>
       <c r="G239" s="177" t="s">
@@ -26377,9 +26377,9 @@
     </row>
     <row r="240" spans="1:13" ht="14.25" customHeight="1">
       <c r="A240" s="181"/>
-      <c r="B240" s="309"/>
+      <c r="B240" s="318"/>
       <c r="C240" s="314"/>
-      <c r="D240" s="319"/>
+      <c r="D240" s="306"/>
       <c r="E240" s="175"/>
       <c r="F240" s="176"/>
       <c r="G240" s="177" t="s">
@@ -26396,9 +26396,9 @@
     </row>
     <row r="241" spans="1:13" ht="14.25" customHeight="1">
       <c r="A241" s="181"/>
-      <c r="B241" s="309"/>
+      <c r="B241" s="318"/>
       <c r="C241" s="315"/>
-      <c r="D241" s="320"/>
+      <c r="D241" s="307"/>
       <c r="E241" s="175"/>
       <c r="F241" s="176"/>
       <c r="G241" s="177" t="s">
@@ -26415,11 +26415,11 @@
     </row>
     <row r="242" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A242" s="288"/>
-      <c r="B242" s="309"/>
-      <c r="C242" s="339" t="s">
+      <c r="B242" s="318"/>
+      <c r="C242" s="325" t="s">
         <v>1463</v>
       </c>
-      <c r="D242" s="323" t="s">
+      <c r="D242" s="340" t="s">
         <v>133</v>
       </c>
       <c r="E242" s="289"/>
@@ -26438,9 +26438,9 @@
     </row>
     <row r="243" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A243" s="288"/>
-      <c r="B243" s="309"/>
-      <c r="C243" s="340"/>
-      <c r="D243" s="324"/>
+      <c r="B243" s="318"/>
+      <c r="C243" s="326"/>
+      <c r="D243" s="341"/>
       <c r="E243" s="289"/>
       <c r="F243" s="290"/>
       <c r="G243" s="291" t="s">
@@ -26457,9 +26457,9 @@
     </row>
     <row r="244" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A244" s="288"/>
-      <c r="B244" s="309"/>
-      <c r="C244" s="340"/>
-      <c r="D244" s="324"/>
+      <c r="B244" s="318"/>
+      <c r="C244" s="326"/>
+      <c r="D244" s="341"/>
       <c r="E244" s="289"/>
       <c r="F244" s="290"/>
       <c r="G244" s="291" t="s">
@@ -26476,9 +26476,9 @@
     </row>
     <row r="245" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A245" s="288"/>
-      <c r="B245" s="309"/>
-      <c r="C245" s="340"/>
-      <c r="D245" s="324"/>
+      <c r="B245" s="318"/>
+      <c r="C245" s="326"/>
+      <c r="D245" s="341"/>
       <c r="E245" s="289"/>
       <c r="F245" s="290"/>
       <c r="G245" s="291" t="s">
@@ -26495,9 +26495,9 @@
     </row>
     <row r="246" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A246" s="288"/>
-      <c r="B246" s="309"/>
-      <c r="C246" s="340"/>
-      <c r="D246" s="324"/>
+      <c r="B246" s="318"/>
+      <c r="C246" s="326"/>
+      <c r="D246" s="341"/>
       <c r="E246" s="289"/>
       <c r="F246" s="290"/>
       <c r="G246" s="291" t="s">
@@ -26514,9 +26514,9 @@
     </row>
     <row r="247" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A247" s="288"/>
-      <c r="B247" s="309"/>
-      <c r="C247" s="340"/>
-      <c r="D247" s="324"/>
+      <c r="B247" s="318"/>
+      <c r="C247" s="326"/>
+      <c r="D247" s="341"/>
       <c r="E247" s="289"/>
       <c r="F247" s="290"/>
       <c r="G247" s="291" t="s">
@@ -26533,9 +26533,9 @@
     </row>
     <row r="248" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A248" s="288"/>
-      <c r="B248" s="309"/>
-      <c r="C248" s="340"/>
-      <c r="D248" s="324"/>
+      <c r="B248" s="318"/>
+      <c r="C248" s="326"/>
+      <c r="D248" s="341"/>
       <c r="E248" s="289"/>
       <c r="F248" s="290"/>
       <c r="G248" s="291" t="s">
@@ -26552,9 +26552,9 @@
     </row>
     <row r="249" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A249" s="288"/>
-      <c r="B249" s="309"/>
-      <c r="C249" s="340"/>
-      <c r="D249" s="324"/>
+      <c r="B249" s="318"/>
+      <c r="C249" s="326"/>
+      <c r="D249" s="341"/>
       <c r="E249" s="289"/>
       <c r="F249" s="290"/>
       <c r="G249" s="291" t="s">
@@ -26571,9 +26571,9 @@
     </row>
     <row r="250" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A250" s="288"/>
-      <c r="B250" s="309"/>
-      <c r="C250" s="340"/>
-      <c r="D250" s="324"/>
+      <c r="B250" s="318"/>
+      <c r="C250" s="326"/>
+      <c r="D250" s="341"/>
       <c r="E250" s="289"/>
       <c r="F250" s="290"/>
       <c r="G250" s="291" t="s">
@@ -26590,9 +26590,9 @@
     </row>
     <row r="251" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A251" s="288"/>
-      <c r="B251" s="309"/>
-      <c r="C251" s="340"/>
-      <c r="D251" s="324"/>
+      <c r="B251" s="318"/>
+      <c r="C251" s="326"/>
+      <c r="D251" s="341"/>
       <c r="E251" s="289"/>
       <c r="F251" s="290"/>
       <c r="G251" s="291" t="s">
@@ -26609,9 +26609,9 @@
     </row>
     <row r="252" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A252" s="288"/>
-      <c r="B252" s="309"/>
-      <c r="C252" s="340"/>
-      <c r="D252" s="324"/>
+      <c r="B252" s="318"/>
+      <c r="C252" s="326"/>
+      <c r="D252" s="341"/>
       <c r="E252" s="289"/>
       <c r="F252" s="290"/>
       <c r="G252" s="291" t="s">
@@ -26628,9 +26628,9 @@
     </row>
     <row r="253" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A253" s="288"/>
-      <c r="B253" s="309"/>
-      <c r="C253" s="340"/>
-      <c r="D253" s="324"/>
+      <c r="B253" s="318"/>
+      <c r="C253" s="326"/>
+      <c r="D253" s="341"/>
       <c r="E253" s="289"/>
       <c r="F253" s="290"/>
       <c r="G253" s="291" t="s">
@@ -26647,9 +26647,9 @@
     </row>
     <row r="254" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A254" s="288"/>
-      <c r="B254" s="309"/>
-      <c r="C254" s="340"/>
-      <c r="D254" s="324"/>
+      <c r="B254" s="318"/>
+      <c r="C254" s="326"/>
+      <c r="D254" s="341"/>
       <c r="E254" s="289"/>
       <c r="F254" s="290"/>
       <c r="G254" s="291" t="s">
@@ -26666,9 +26666,9 @@
     </row>
     <row r="255" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A255" s="288"/>
-      <c r="B255" s="309"/>
-      <c r="C255" s="340"/>
-      <c r="D255" s="324"/>
+      <c r="B255" s="318"/>
+      <c r="C255" s="326"/>
+      <c r="D255" s="341"/>
       <c r="E255" s="289"/>
       <c r="F255" s="290"/>
       <c r="G255" s="291" t="s">
@@ -26685,9 +26685,9 @@
     </row>
     <row r="256" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A256" s="288"/>
-      <c r="B256" s="309"/>
-      <c r="C256" s="340"/>
-      <c r="D256" s="324"/>
+      <c r="B256" s="318"/>
+      <c r="C256" s="326"/>
+      <c r="D256" s="341"/>
       <c r="E256" s="289"/>
       <c r="F256" s="290"/>
       <c r="G256" s="291" t="s">
@@ -26704,9 +26704,9 @@
     </row>
     <row r="257" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A257" s="288"/>
-      <c r="B257" s="309"/>
-      <c r="C257" s="340"/>
-      <c r="D257" s="324"/>
+      <c r="B257" s="318"/>
+      <c r="C257" s="326"/>
+      <c r="D257" s="341"/>
       <c r="E257" s="289"/>
       <c r="F257" s="290"/>
       <c r="G257" s="291" t="s">
@@ -26723,9 +26723,9 @@
     </row>
     <row r="258" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A258" s="288"/>
-      <c r="B258" s="309"/>
-      <c r="C258" s="341"/>
-      <c r="D258" s="325"/>
+      <c r="B258" s="318"/>
+      <c r="C258" s="327"/>
+      <c r="D258" s="342"/>
       <c r="E258" s="289"/>
       <c r="F258" s="290"/>
       <c r="G258" s="291" t="s">
@@ -26742,11 +26742,11 @@
     </row>
     <row r="259" spans="1:13" ht="14.25" customHeight="1">
       <c r="A259" s="181"/>
-      <c r="B259" s="309"/>
-      <c r="C259" s="326" t="s">
+      <c r="B259" s="318"/>
+      <c r="C259" s="322" t="s">
         <v>126</v>
       </c>
-      <c r="D259" s="318" t="s">
+      <c r="D259" s="305" t="s">
         <v>1469</v>
       </c>
       <c r="E259" s="175"/>
@@ -26765,9 +26765,9 @@
     </row>
     <row r="260" spans="1:13" ht="14.25" customHeight="1">
       <c r="A260" s="181"/>
-      <c r="B260" s="309"/>
-      <c r="C260" s="327"/>
-      <c r="D260" s="319"/>
+      <c r="B260" s="318"/>
+      <c r="C260" s="323"/>
+      <c r="D260" s="306"/>
       <c r="E260" s="175"/>
       <c r="F260" s="175"/>
       <c r="G260" s="177" t="s">
@@ -26784,9 +26784,9 @@
     </row>
     <row r="261" spans="1:13" ht="14.25" customHeight="1">
       <c r="A261" s="181"/>
-      <c r="B261" s="309"/>
-      <c r="C261" s="327"/>
-      <c r="D261" s="319"/>
+      <c r="B261" s="318"/>
+      <c r="C261" s="323"/>
+      <c r="D261" s="306"/>
       <c r="E261" s="175"/>
       <c r="F261" s="175"/>
       <c r="G261" s="177" t="s">
@@ -26803,9 +26803,9 @@
     </row>
     <row r="262" spans="1:13" ht="14.25" customHeight="1">
       <c r="A262" s="181"/>
-      <c r="B262" s="309"/>
-      <c r="C262" s="327"/>
-      <c r="D262" s="319"/>
+      <c r="B262" s="318"/>
+      <c r="C262" s="323"/>
+      <c r="D262" s="306"/>
       <c r="E262" s="175"/>
       <c r="F262" s="175"/>
       <c r="G262" s="177" t="s">
@@ -26822,9 +26822,9 @@
     </row>
     <row r="263" spans="1:13" ht="14.25" customHeight="1">
       <c r="A263" s="181"/>
-      <c r="B263" s="309"/>
-      <c r="C263" s="327"/>
-      <c r="D263" s="319"/>
+      <c r="B263" s="318"/>
+      <c r="C263" s="323"/>
+      <c r="D263" s="306"/>
       <c r="E263" s="175"/>
       <c r="F263" s="175"/>
       <c r="G263" s="177" t="s">
@@ -26841,9 +26841,9 @@
     </row>
     <row r="264" spans="1:13" ht="14.25" customHeight="1">
       <c r="A264" s="181"/>
-      <c r="B264" s="309"/>
-      <c r="C264" s="327"/>
-      <c r="D264" s="319"/>
+      <c r="B264" s="318"/>
+      <c r="C264" s="323"/>
+      <c r="D264" s="306"/>
       <c r="E264" s="175"/>
       <c r="F264" s="175"/>
       <c r="G264" s="177" t="s">
@@ -26860,9 +26860,9 @@
     </row>
     <row r="265" spans="1:13" ht="14.25" customHeight="1">
       <c r="A265" s="181"/>
-      <c r="B265" s="309"/>
-      <c r="C265" s="327"/>
-      <c r="D265" s="319"/>
+      <c r="B265" s="318"/>
+      <c r="C265" s="323"/>
+      <c r="D265" s="306"/>
       <c r="E265" s="175"/>
       <c r="F265" s="175"/>
       <c r="G265" s="177" t="s">
@@ -26879,9 +26879,9 @@
     </row>
     <row r="266" spans="1:13" ht="14.25" customHeight="1">
       <c r="A266" s="181"/>
-      <c r="B266" s="309"/>
-      <c r="C266" s="327"/>
-      <c r="D266" s="319"/>
+      <c r="B266" s="318"/>
+      <c r="C266" s="323"/>
+      <c r="D266" s="306"/>
       <c r="E266" s="175"/>
       <c r="F266" s="175"/>
       <c r="G266" s="177" t="s">
@@ -26898,9 +26898,9 @@
     </row>
     <row r="267" spans="1:13" ht="14.25" customHeight="1">
       <c r="A267" s="181"/>
-      <c r="B267" s="309"/>
-      <c r="C267" s="327"/>
-      <c r="D267" s="319"/>
+      <c r="B267" s="318"/>
+      <c r="C267" s="323"/>
+      <c r="D267" s="306"/>
       <c r="E267" s="175"/>
       <c r="F267" s="175"/>
       <c r="G267" s="177" t="s">
@@ -26917,9 +26917,9 @@
     </row>
     <row r="268" spans="1:13" ht="14.25" customHeight="1">
       <c r="A268" s="181"/>
-      <c r="B268" s="309"/>
-      <c r="C268" s="327"/>
-      <c r="D268" s="319"/>
+      <c r="B268" s="318"/>
+      <c r="C268" s="323"/>
+      <c r="D268" s="306"/>
       <c r="E268" s="175"/>
       <c r="F268" s="175"/>
       <c r="G268" s="177" t="s">
@@ -26936,9 +26936,9 @@
     </row>
     <row r="269" spans="1:13" ht="14.25" customHeight="1">
       <c r="A269" s="181"/>
-      <c r="B269" s="309"/>
-      <c r="C269" s="327"/>
-      <c r="D269" s="319"/>
+      <c r="B269" s="318"/>
+      <c r="C269" s="323"/>
+      <c r="D269" s="306"/>
       <c r="E269" s="175"/>
       <c r="F269" s="175"/>
       <c r="G269" s="177" t="s">
@@ -26955,9 +26955,9 @@
     </row>
     <row r="270" spans="1:13" ht="14.25" customHeight="1">
       <c r="A270" s="181"/>
-      <c r="B270" s="309"/>
-      <c r="C270" s="327"/>
-      <c r="D270" s="319"/>
+      <c r="B270" s="318"/>
+      <c r="C270" s="323"/>
+      <c r="D270" s="306"/>
       <c r="E270" s="175"/>
       <c r="F270" s="175"/>
       <c r="G270" s="177" t="s">
@@ -26974,9 +26974,9 @@
     </row>
     <row r="271" spans="1:13" ht="14.25" customHeight="1">
       <c r="A271" s="181"/>
-      <c r="B271" s="309"/>
-      <c r="C271" s="327"/>
-      <c r="D271" s="319"/>
+      <c r="B271" s="318"/>
+      <c r="C271" s="323"/>
+      <c r="D271" s="306"/>
       <c r="E271" s="175"/>
       <c r="F271" s="175"/>
       <c r="G271" s="177" t="s">
@@ -26993,9 +26993,9 @@
     </row>
     <row r="272" spans="1:13" ht="14.25" customHeight="1">
       <c r="A272" s="181"/>
-      <c r="B272" s="309"/>
-      <c r="C272" s="327"/>
-      <c r="D272" s="319"/>
+      <c r="B272" s="318"/>
+      <c r="C272" s="323"/>
+      <c r="D272" s="306"/>
       <c r="E272" s="175"/>
       <c r="F272" s="175"/>
       <c r="G272" s="177" t="s">
@@ -27012,9 +27012,9 @@
     </row>
     <row r="273" spans="1:13" ht="14.25" customHeight="1">
       <c r="A273" s="181"/>
-      <c r="B273" s="309"/>
-      <c r="C273" s="327"/>
-      <c r="D273" s="319"/>
+      <c r="B273" s="318"/>
+      <c r="C273" s="323"/>
+      <c r="D273" s="306"/>
       <c r="E273" s="175"/>
       <c r="F273" s="175"/>
       <c r="G273" s="177" t="s">
@@ -27031,9 +27031,9 @@
     </row>
     <row r="274" spans="1:13" ht="14.25" customHeight="1">
       <c r="A274" s="181"/>
-      <c r="B274" s="309"/>
-      <c r="C274" s="327"/>
-      <c r="D274" s="319"/>
+      <c r="B274" s="318"/>
+      <c r="C274" s="323"/>
+      <c r="D274" s="306"/>
       <c r="E274" s="175"/>
       <c r="F274" s="175"/>
       <c r="G274" s="177" t="s">
@@ -27050,9 +27050,9 @@
     </row>
     <row r="275" spans="1:13" ht="14.25" customHeight="1">
       <c r="A275" s="181"/>
-      <c r="B275" s="309"/>
-      <c r="C275" s="327"/>
-      <c r="D275" s="319"/>
+      <c r="B275" s="318"/>
+      <c r="C275" s="323"/>
+      <c r="D275" s="306"/>
       <c r="E275" s="175"/>
       <c r="F275" s="175"/>
       <c r="G275" s="177" t="s">
@@ -27069,9 +27069,9 @@
     </row>
     <row r="276" spans="1:13" ht="14.25" customHeight="1">
       <c r="A276" s="181"/>
-      <c r="B276" s="309"/>
-      <c r="C276" s="327"/>
-      <c r="D276" s="319"/>
+      <c r="B276" s="318"/>
+      <c r="C276" s="323"/>
+      <c r="D276" s="306"/>
       <c r="E276" s="175"/>
       <c r="F276" s="175"/>
       <c r="G276" s="177" t="s">
@@ -27088,9 +27088,9 @@
     </row>
     <row r="277" spans="1:13" ht="14.25" customHeight="1">
       <c r="A277" s="181"/>
-      <c r="B277" s="309"/>
-      <c r="C277" s="327"/>
-      <c r="D277" s="319"/>
+      <c r="B277" s="318"/>
+      <c r="C277" s="323"/>
+      <c r="D277" s="306"/>
       <c r="E277" s="175"/>
       <c r="F277" s="175"/>
       <c r="G277" s="177" t="s">
@@ -27107,9 +27107,9 @@
     </row>
     <row r="278" spans="1:13" ht="14.25" customHeight="1">
       <c r="A278" s="181"/>
-      <c r="B278" s="309"/>
-      <c r="C278" s="327"/>
-      <c r="D278" s="319"/>
+      <c r="B278" s="318"/>
+      <c r="C278" s="323"/>
+      <c r="D278" s="306"/>
       <c r="E278" s="175"/>
       <c r="F278" s="175"/>
       <c r="G278" s="177" t="s">
@@ -27126,9 +27126,9 @@
     </row>
     <row r="279" spans="1:13" ht="14.25" customHeight="1">
       <c r="A279" s="181"/>
-      <c r="B279" s="309"/>
-      <c r="C279" s="328"/>
-      <c r="D279" s="320"/>
+      <c r="B279" s="318"/>
+      <c r="C279" s="324"/>
+      <c r="D279" s="307"/>
       <c r="E279" s="175"/>
       <c r="F279" s="175"/>
       <c r="G279" s="177" t="s">
@@ -27145,11 +27145,11 @@
     </row>
     <row r="280" spans="1:13" ht="14.25" customHeight="1">
       <c r="A280" s="181"/>
-      <c r="B280" s="309"/>
-      <c r="C280" s="326" t="s">
+      <c r="B280" s="318"/>
+      <c r="C280" s="322" t="s">
         <v>1484</v>
       </c>
-      <c r="D280" s="318" t="s">
+      <c r="D280" s="305" t="s">
         <v>1485</v>
       </c>
       <c r="E280" s="175"/>
@@ -27168,9 +27168,9 @@
     </row>
     <row r="281" spans="1:13" ht="14.25" customHeight="1">
       <c r="A281" s="181"/>
-      <c r="B281" s="309"/>
-      <c r="C281" s="327"/>
-      <c r="D281" s="319"/>
+      <c r="B281" s="318"/>
+      <c r="C281" s="323"/>
+      <c r="D281" s="306"/>
       <c r="E281" s="175"/>
       <c r="F281" s="175"/>
       <c r="G281" s="177" t="s">
@@ -27187,9 +27187,9 @@
     </row>
     <row r="282" spans="1:13" ht="14.25" customHeight="1">
       <c r="A282" s="181"/>
-      <c r="B282" s="309"/>
-      <c r="C282" s="327"/>
-      <c r="D282" s="319"/>
+      <c r="B282" s="318"/>
+      <c r="C282" s="323"/>
+      <c r="D282" s="306"/>
       <c r="E282" s="175"/>
       <c r="F282" s="175"/>
       <c r="G282" s="177" t="s">
@@ -27206,9 +27206,9 @@
     </row>
     <row r="283" spans="1:13" ht="14.25" customHeight="1">
       <c r="A283" s="181"/>
-      <c r="B283" s="309"/>
-      <c r="C283" s="327"/>
-      <c r="D283" s="319"/>
+      <c r="B283" s="318"/>
+      <c r="C283" s="323"/>
+      <c r="D283" s="306"/>
       <c r="E283" s="175"/>
       <c r="F283" s="175"/>
       <c r="G283" s="177" t="s">
@@ -27225,9 +27225,9 @@
     </row>
     <row r="284" spans="1:13" ht="14.25" customHeight="1">
       <c r="A284" s="181"/>
-      <c r="B284" s="309"/>
-      <c r="C284" s="327"/>
-      <c r="D284" s="319"/>
+      <c r="B284" s="318"/>
+      <c r="C284" s="323"/>
+      <c r="D284" s="306"/>
       <c r="E284" s="175"/>
       <c r="F284" s="175"/>
       <c r="G284" s="177" t="s">
@@ -27244,9 +27244,9 @@
     </row>
     <row r="285" spans="1:13" ht="14.25" customHeight="1">
       <c r="A285" s="181"/>
-      <c r="B285" s="309"/>
-      <c r="C285" s="327"/>
-      <c r="D285" s="319"/>
+      <c r="B285" s="318"/>
+      <c r="C285" s="323"/>
+      <c r="D285" s="306"/>
       <c r="E285" s="175"/>
       <c r="F285" s="175"/>
       <c r="G285" s="177" t="s">
@@ -27263,9 +27263,9 @@
     </row>
     <row r="286" spans="1:13" ht="14.25" customHeight="1">
       <c r="A286" s="181"/>
-      <c r="B286" s="309"/>
-      <c r="C286" s="327"/>
-      <c r="D286" s="319"/>
+      <c r="B286" s="318"/>
+      <c r="C286" s="323"/>
+      <c r="D286" s="306"/>
       <c r="E286" s="175"/>
       <c r="F286" s="175"/>
       <c r="G286" s="177" t="s">
@@ -27282,9 +27282,9 @@
     </row>
     <row r="287" spans="1:13" ht="14.25" customHeight="1">
       <c r="A287" s="181"/>
-      <c r="B287" s="309"/>
-      <c r="C287" s="327"/>
-      <c r="D287" s="319"/>
+      <c r="B287" s="318"/>
+      <c r="C287" s="323"/>
+      <c r="D287" s="306"/>
       <c r="E287" s="175"/>
       <c r="F287" s="175"/>
       <c r="G287" s="177" t="s">
@@ -27301,9 +27301,9 @@
     </row>
     <row r="288" spans="1:13" ht="14.25" customHeight="1">
       <c r="A288" s="181"/>
-      <c r="B288" s="309"/>
-      <c r="C288" s="327"/>
-      <c r="D288" s="319"/>
+      <c r="B288" s="318"/>
+      <c r="C288" s="323"/>
+      <c r="D288" s="306"/>
       <c r="E288" s="175"/>
       <c r="F288" s="175"/>
       <c r="G288" s="177" t="s">
@@ -27320,9 +27320,9 @@
     </row>
     <row r="289" spans="1:13" ht="14.25" customHeight="1">
       <c r="A289" s="181"/>
-      <c r="B289" s="309"/>
-      <c r="C289" s="327"/>
-      <c r="D289" s="319"/>
+      <c r="B289" s="318"/>
+      <c r="C289" s="323"/>
+      <c r="D289" s="306"/>
       <c r="E289" s="175"/>
       <c r="F289" s="175"/>
       <c r="G289" s="177" t="s">
@@ -27339,9 +27339,9 @@
     </row>
     <row r="290" spans="1:13" ht="14.25" customHeight="1">
       <c r="A290" s="181"/>
-      <c r="B290" s="309"/>
-      <c r="C290" s="327"/>
-      <c r="D290" s="319"/>
+      <c r="B290" s="318"/>
+      <c r="C290" s="323"/>
+      <c r="D290" s="306"/>
       <c r="E290" s="175"/>
       <c r="F290" s="175"/>
       <c r="G290" s="177" t="s">
@@ -27358,9 +27358,9 @@
     </row>
     <row r="291" spans="1:13" ht="14.25" customHeight="1">
       <c r="A291" s="181"/>
-      <c r="B291" s="309"/>
-      <c r="C291" s="327"/>
-      <c r="D291" s="319"/>
+      <c r="B291" s="318"/>
+      <c r="C291" s="323"/>
+      <c r="D291" s="306"/>
       <c r="E291" s="175"/>
       <c r="F291" s="175"/>
       <c r="G291" s="177" t="s">
@@ -27377,9 +27377,9 @@
     </row>
     <row r="292" spans="1:13" ht="14.25" customHeight="1">
       <c r="A292" s="181"/>
-      <c r="B292" s="309"/>
-      <c r="C292" s="327"/>
-      <c r="D292" s="319"/>
+      <c r="B292" s="318"/>
+      <c r="C292" s="323"/>
+      <c r="D292" s="306"/>
       <c r="E292" s="175"/>
       <c r="F292" s="175"/>
       <c r="G292" s="177" t="s">
@@ -27396,9 +27396,9 @@
     </row>
     <row r="293" spans="1:13" ht="14.25" customHeight="1">
       <c r="A293" s="181"/>
-      <c r="B293" s="309"/>
-      <c r="C293" s="327"/>
-      <c r="D293" s="319"/>
+      <c r="B293" s="318"/>
+      <c r="C293" s="323"/>
+      <c r="D293" s="306"/>
       <c r="E293" s="175"/>
       <c r="F293" s="175"/>
       <c r="G293" s="177" t="s">
@@ -27415,9 +27415,9 @@
     </row>
     <row r="294" spans="1:13" ht="14.25" customHeight="1">
       <c r="A294" s="181"/>
-      <c r="B294" s="309"/>
-      <c r="C294" s="327"/>
-      <c r="D294" s="319"/>
+      <c r="B294" s="318"/>
+      <c r="C294" s="323"/>
+      <c r="D294" s="306"/>
       <c r="E294" s="175"/>
       <c r="F294" s="175"/>
       <c r="G294" s="177" t="s">
@@ -27434,9 +27434,9 @@
     </row>
     <row r="295" spans="1:13" ht="14.25" customHeight="1">
       <c r="A295" s="181"/>
-      <c r="B295" s="309"/>
-      <c r="C295" s="327"/>
-      <c r="D295" s="319"/>
+      <c r="B295" s="318"/>
+      <c r="C295" s="323"/>
+      <c r="D295" s="306"/>
       <c r="E295" s="175"/>
       <c r="F295" s="175"/>
       <c r="G295" s="177" t="s">
@@ -27453,9 +27453,9 @@
     </row>
     <row r="296" spans="1:13" ht="14.25" customHeight="1">
       <c r="A296" s="181"/>
-      <c r="B296" s="309"/>
-      <c r="C296" s="327"/>
-      <c r="D296" s="319"/>
+      <c r="B296" s="318"/>
+      <c r="C296" s="323"/>
+      <c r="D296" s="306"/>
       <c r="E296" s="175"/>
       <c r="F296" s="175"/>
       <c r="G296" s="177" t="s">
@@ -27472,9 +27472,9 @@
     </row>
     <row r="297" spans="1:13" ht="14.25" customHeight="1">
       <c r="A297" s="181"/>
-      <c r="B297" s="309"/>
-      <c r="C297" s="327"/>
-      <c r="D297" s="319"/>
+      <c r="B297" s="318"/>
+      <c r="C297" s="323"/>
+      <c r="D297" s="306"/>
       <c r="E297" s="175"/>
       <c r="F297" s="175"/>
       <c r="G297" s="177" t="s">
@@ -27491,9 +27491,9 @@
     </row>
     <row r="298" spans="1:13" ht="14.25" customHeight="1">
       <c r="A298" s="181"/>
-      <c r="B298" s="309"/>
-      <c r="C298" s="327"/>
-      <c r="D298" s="319"/>
+      <c r="B298" s="318"/>
+      <c r="C298" s="323"/>
+      <c r="D298" s="306"/>
       <c r="E298" s="175"/>
       <c r="F298" s="175"/>
       <c r="G298" s="177" t="s">
@@ -27512,7 +27512,7 @@
       <c r="A299" s="183" t="s">
         <v>1486</v>
       </c>
-      <c r="B299" s="309"/>
+      <c r="B299" s="318"/>
       <c r="C299" s="313" t="s">
         <v>3010</v>
       </c>
@@ -27533,7 +27533,7 @@
     </row>
     <row r="300" spans="1:13" ht="14.25" customHeight="1">
       <c r="A300" s="183"/>
-      <c r="B300" s="310"/>
+      <c r="B300" s="319"/>
       <c r="C300" s="315"/>
       <c r="D300" s="193" t="s">
         <v>2898</v>
@@ -28219,7 +28219,7 @@
     </row>
     <row r="340" spans="1:13" ht="14.25" customHeight="1">
       <c r="A340" s="183"/>
-      <c r="B340" s="308" t="s">
+      <c r="B340" s="317" t="s">
         <v>3035</v>
       </c>
       <c r="C340" s="257" t="s">
@@ -28240,11 +28240,11 @@
     </row>
     <row r="341" spans="1:13" ht="14.25" customHeight="1">
       <c r="A341" s="183"/>
-      <c r="B341" s="309"/>
-      <c r="C341" s="335" t="s">
+      <c r="B341" s="318"/>
+      <c r="C341" s="316" t="s">
         <v>132</v>
       </c>
-      <c r="D341" s="318" t="s">
+      <c r="D341" s="305" t="s">
         <v>2148</v>
       </c>
       <c r="E341" s="175"/>
@@ -28261,9 +28261,9 @@
     </row>
     <row r="342" spans="1:13" ht="14.25" customHeight="1">
       <c r="A342" s="183"/>
-      <c r="B342" s="309"/>
-      <c r="C342" s="335"/>
-      <c r="D342" s="319"/>
+      <c r="B342" s="318"/>
+      <c r="C342" s="316"/>
+      <c r="D342" s="306"/>
       <c r="E342" s="175"/>
       <c r="F342" s="175"/>
       <c r="G342" s="177" t="s">
@@ -28280,9 +28280,9 @@
     </row>
     <row r="343" spans="1:13" ht="14.25" customHeight="1">
       <c r="A343" s="183"/>
-      <c r="B343" s="309"/>
-      <c r="C343" s="335"/>
-      <c r="D343" s="319"/>
+      <c r="B343" s="318"/>
+      <c r="C343" s="316"/>
+      <c r="D343" s="306"/>
       <c r="E343" s="175"/>
       <c r="F343" s="175"/>
       <c r="G343" s="177" t="s">
@@ -28299,9 +28299,9 @@
     </row>
     <row r="344" spans="1:13" ht="14.25" customHeight="1">
       <c r="A344" s="183"/>
-      <c r="B344" s="309"/>
-      <c r="C344" s="335"/>
-      <c r="D344" s="319"/>
+      <c r="B344" s="318"/>
+      <c r="C344" s="316"/>
+      <c r="D344" s="306"/>
       <c r="E344" s="174"/>
       <c r="F344" s="174"/>
       <c r="G344" s="258" t="s">
@@ -28318,9 +28318,9 @@
     </row>
     <row r="345" spans="1:13" ht="14.25" customHeight="1">
       <c r="A345" s="183"/>
-      <c r="B345" s="309"/>
-      <c r="C345" s="335"/>
-      <c r="D345" s="319"/>
+      <c r="B345" s="318"/>
+      <c r="C345" s="316"/>
+      <c r="D345" s="306"/>
       <c r="E345" s="174"/>
       <c r="F345" s="174"/>
       <c r="G345" s="258" t="s">
@@ -28337,9 +28337,9 @@
     </row>
     <row r="346" spans="1:13" ht="14.25" customHeight="1">
       <c r="A346" s="183"/>
-      <c r="B346" s="309"/>
-      <c r="C346" s="335"/>
-      <c r="D346" s="319"/>
+      <c r="B346" s="318"/>
+      <c r="C346" s="316"/>
+      <c r="D346" s="306"/>
       <c r="E346" s="174"/>
       <c r="F346" s="174"/>
       <c r="G346" s="258" t="s">
@@ -28356,9 +28356,9 @@
     </row>
     <row r="347" spans="1:13" ht="14.25" customHeight="1">
       <c r="A347" s="183"/>
-      <c r="B347" s="309"/>
-      <c r="C347" s="335"/>
-      <c r="D347" s="319"/>
+      <c r="B347" s="318"/>
+      <c r="C347" s="316"/>
+      <c r="D347" s="306"/>
       <c r="E347" s="174"/>
       <c r="F347" s="174"/>
       <c r="G347" s="258" t="s">
@@ -28375,9 +28375,9 @@
     </row>
     <row r="348" spans="1:13" ht="14.25" customHeight="1">
       <c r="A348" s="183"/>
-      <c r="B348" s="309"/>
-      <c r="C348" s="335"/>
-      <c r="D348" s="319"/>
+      <c r="B348" s="318"/>
+      <c r="C348" s="316"/>
+      <c r="D348" s="306"/>
       <c r="E348" s="174"/>
       <c r="F348" s="174"/>
       <c r="G348" s="258" t="s">
@@ -28394,9 +28394,9 @@
     </row>
     <row r="349" spans="1:13" ht="14.25" customHeight="1">
       <c r="A349" s="183"/>
-      <c r="B349" s="309"/>
-      <c r="C349" s="335"/>
-      <c r="D349" s="319"/>
+      <c r="B349" s="318"/>
+      <c r="C349" s="316"/>
+      <c r="D349" s="306"/>
       <c r="E349" s="174"/>
       <c r="F349" s="174"/>
       <c r="G349" s="258" t="s">
@@ -28413,9 +28413,9 @@
     </row>
     <row r="350" spans="1:13" ht="14.25" customHeight="1">
       <c r="A350" s="183"/>
-      <c r="B350" s="309"/>
-      <c r="C350" s="335"/>
-      <c r="D350" s="319"/>
+      <c r="B350" s="318"/>
+      <c r="C350" s="316"/>
+      <c r="D350" s="306"/>
       <c r="E350" s="174"/>
       <c r="F350" s="174"/>
       <c r="G350" s="258" t="s">
@@ -28432,9 +28432,9 @@
     </row>
     <row r="351" spans="1:13" ht="14.25" customHeight="1">
       <c r="A351" s="183"/>
-      <c r="B351" s="309"/>
-      <c r="C351" s="335"/>
-      <c r="D351" s="320"/>
+      <c r="B351" s="318"/>
+      <c r="C351" s="316"/>
+      <c r="D351" s="307"/>
       <c r="E351" s="174"/>
       <c r="F351" s="174"/>
       <c r="G351" s="258" t="s">
@@ -28451,8 +28451,8 @@
     </row>
     <row r="352" spans="1:13" ht="14.25" customHeight="1">
       <c r="A352" s="183"/>
-      <c r="B352" s="309"/>
-      <c r="C352" s="335"/>
+      <c r="B352" s="318"/>
+      <c r="C352" s="316"/>
       <c r="D352" s="259" t="s">
         <v>2159</v>
       </c>
@@ -28470,9 +28470,9 @@
     </row>
     <row r="353" spans="1:13" ht="14.25" customHeight="1">
       <c r="A353" s="183"/>
-      <c r="B353" s="309"/>
-      <c r="C353" s="335"/>
-      <c r="D353" s="311" t="s">
+      <c r="B353" s="318"/>
+      <c r="C353" s="316"/>
+      <c r="D353" s="337" t="s">
         <v>2174</v>
       </c>
       <c r="E353" s="174"/>
@@ -28493,9 +28493,9 @@
     </row>
     <row r="354" spans="1:13" ht="14.25" customHeight="1">
       <c r="A354" s="183"/>
-      <c r="B354" s="309"/>
-      <c r="C354" s="335"/>
-      <c r="D354" s="321"/>
+      <c r="B354" s="318"/>
+      <c r="C354" s="316"/>
+      <c r="D354" s="339"/>
       <c r="E354" s="174"/>
       <c r="F354" s="174"/>
       <c r="G354" s="258" t="s">
@@ -28512,9 +28512,9 @@
     </row>
     <row r="355" spans="1:13" ht="14.25" customHeight="1">
       <c r="A355" s="183"/>
-      <c r="B355" s="309"/>
-      <c r="C355" s="335"/>
-      <c r="D355" s="321"/>
+      <c r="B355" s="318"/>
+      <c r="C355" s="316"/>
+      <c r="D355" s="339"/>
       <c r="E355" s="174"/>
       <c r="F355" s="174"/>
       <c r="G355" s="258" t="s">
@@ -28533,9 +28533,9 @@
     </row>
     <row r="356" spans="1:13" ht="14.25" customHeight="1">
       <c r="A356" s="183"/>
-      <c r="B356" s="309"/>
-      <c r="C356" s="335"/>
-      <c r="D356" s="321"/>
+      <c r="B356" s="318"/>
+      <c r="C356" s="316"/>
+      <c r="D356" s="339"/>
       <c r="E356" s="174"/>
       <c r="F356" s="174"/>
       <c r="G356" s="258" t="s">
@@ -28552,9 +28552,9 @@
     </row>
     <row r="357" spans="1:13" ht="14.25" customHeight="1">
       <c r="A357" s="183"/>
-      <c r="B357" s="309"/>
-      <c r="C357" s="335"/>
-      <c r="D357" s="321"/>
+      <c r="B357" s="318"/>
+      <c r="C357" s="316"/>
+      <c r="D357" s="339"/>
       <c r="E357" s="174"/>
       <c r="F357" s="174"/>
       <c r="G357" s="258" t="s">
@@ -28573,9 +28573,9 @@
     </row>
     <row r="358" spans="1:13" ht="14.25" customHeight="1">
       <c r="A358" s="183"/>
-      <c r="B358" s="309"/>
-      <c r="C358" s="335"/>
-      <c r="D358" s="321"/>
+      <c r="B358" s="318"/>
+      <c r="C358" s="316"/>
+      <c r="D358" s="339"/>
       <c r="E358" s="174"/>
       <c r="F358" s="174"/>
       <c r="G358" s="258" t="s">
@@ -28592,9 +28592,9 @@
     </row>
     <row r="359" spans="1:13" ht="14.25" customHeight="1">
       <c r="A359" s="183"/>
-      <c r="B359" s="309"/>
-      <c r="C359" s="335"/>
-      <c r="D359" s="321"/>
+      <c r="B359" s="318"/>
+      <c r="C359" s="316"/>
+      <c r="D359" s="339"/>
       <c r="E359" s="174"/>
       <c r="F359" s="174"/>
       <c r="G359" s="258" t="s">
@@ -28613,9 +28613,9 @@
     </row>
     <row r="360" spans="1:13" ht="14.25" customHeight="1">
       <c r="A360" s="183"/>
-      <c r="B360" s="309"/>
-      <c r="C360" s="335"/>
-      <c r="D360" s="321"/>
+      <c r="B360" s="318"/>
+      <c r="C360" s="316"/>
+      <c r="D360" s="339"/>
       <c r="E360" s="174"/>
       <c r="F360" s="174"/>
       <c r="G360" s="258" t="s">
@@ -28632,9 +28632,9 @@
     </row>
     <row r="361" spans="1:13" ht="14.25" customHeight="1">
       <c r="A361" s="183"/>
-      <c r="B361" s="309"/>
-      <c r="C361" s="335"/>
-      <c r="D361" s="321"/>
+      <c r="B361" s="318"/>
+      <c r="C361" s="316"/>
+      <c r="D361" s="339"/>
       <c r="E361" s="174"/>
       <c r="F361" s="174"/>
       <c r="G361" s="258" t="s">
@@ -28653,9 +28653,9 @@
     </row>
     <row r="362" spans="1:13" ht="14.25" customHeight="1">
       <c r="A362" s="183"/>
-      <c r="B362" s="309"/>
-      <c r="C362" s="335"/>
-      <c r="D362" s="321"/>
+      <c r="B362" s="318"/>
+      <c r="C362" s="316"/>
+      <c r="D362" s="339"/>
       <c r="E362" s="174"/>
       <c r="F362" s="174"/>
       <c r="G362" s="260" t="s">
@@ -28676,9 +28676,9 @@
     </row>
     <row r="363" spans="1:13" ht="14.25" customHeight="1">
       <c r="A363" s="183"/>
-      <c r="B363" s="309"/>
-      <c r="C363" s="335"/>
-      <c r="D363" s="312"/>
+      <c r="B363" s="318"/>
+      <c r="C363" s="316"/>
+      <c r="D363" s="338"/>
       <c r="E363" s="174"/>
       <c r="F363" s="174"/>
       <c r="G363" s="260" t="s">
@@ -28697,9 +28697,9 @@
     </row>
     <row r="364" spans="1:13" ht="14.25" customHeight="1">
       <c r="A364" s="183"/>
-      <c r="B364" s="309"/>
-      <c r="C364" s="335"/>
-      <c r="D364" s="305" t="s">
+      <c r="B364" s="318"/>
+      <c r="C364" s="316"/>
+      <c r="D364" s="334" t="s">
         <v>2175</v>
       </c>
       <c r="E364" s="174"/>
@@ -28718,9 +28718,9 @@
     </row>
     <row r="365" spans="1:13" ht="14.25" customHeight="1">
       <c r="A365" s="183"/>
-      <c r="B365" s="309"/>
-      <c r="C365" s="335"/>
-      <c r="D365" s="306"/>
+      <c r="B365" s="318"/>
+      <c r="C365" s="316"/>
+      <c r="D365" s="335"/>
       <c r="E365" s="174"/>
       <c r="F365" s="174"/>
       <c r="G365" s="258" t="s">
@@ -28739,9 +28739,9 @@
     </row>
     <row r="366" spans="1:13" ht="14.25" customHeight="1">
       <c r="A366" s="183"/>
-      <c r="B366" s="309"/>
-      <c r="C366" s="335"/>
-      <c r="D366" s="306"/>
+      <c r="B366" s="318"/>
+      <c r="C366" s="316"/>
+      <c r="D366" s="335"/>
       <c r="E366" s="174"/>
       <c r="F366" s="174"/>
       <c r="G366" s="258" t="s">
@@ -28760,9 +28760,9 @@
     </row>
     <row r="367" spans="1:13" ht="14.25" customHeight="1">
       <c r="A367" s="183"/>
-      <c r="B367" s="309"/>
-      <c r="C367" s="335"/>
-      <c r="D367" s="307"/>
+      <c r="B367" s="318"/>
+      <c r="C367" s="316"/>
+      <c r="D367" s="336"/>
       <c r="E367" s="174"/>
       <c r="F367" s="174"/>
       <c r="G367" s="258" t="s">
@@ -28781,9 +28781,9 @@
     </row>
     <row r="368" spans="1:13" ht="14.25" customHeight="1">
       <c r="A368" s="183"/>
-      <c r="B368" s="309"/>
-      <c r="C368" s="335"/>
-      <c r="D368" s="305" t="s">
+      <c r="B368" s="318"/>
+      <c r="C368" s="316"/>
+      <c r="D368" s="334" t="s">
         <v>2176</v>
       </c>
       <c r="E368" s="174"/>
@@ -28804,9 +28804,9 @@
     </row>
     <row r="369" spans="1:13" ht="14.25" customHeight="1">
       <c r="A369" s="183"/>
-      <c r="B369" s="309"/>
-      <c r="C369" s="335"/>
-      <c r="D369" s="306"/>
+      <c r="B369" s="318"/>
+      <c r="C369" s="316"/>
+      <c r="D369" s="335"/>
       <c r="E369" s="174"/>
       <c r="F369" s="174"/>
       <c r="G369" s="258" t="s">
@@ -28825,9 +28825,9 @@
     </row>
     <row r="370" spans="1:13" ht="14.25" customHeight="1">
       <c r="A370" s="183"/>
-      <c r="B370" s="309"/>
-      <c r="C370" s="335"/>
-      <c r="D370" s="306"/>
+      <c r="B370" s="318"/>
+      <c r="C370" s="316"/>
+      <c r="D370" s="335"/>
       <c r="E370" s="174"/>
       <c r="F370" s="174"/>
       <c r="G370" s="258" t="s">
@@ -28846,9 +28846,9 @@
     </row>
     <row r="371" spans="1:13" ht="14.25" customHeight="1">
       <c r="A371" s="183"/>
-      <c r="B371" s="309"/>
-      <c r="C371" s="335"/>
-      <c r="D371" s="307"/>
+      <c r="B371" s="318"/>
+      <c r="C371" s="316"/>
+      <c r="D371" s="336"/>
       <c r="E371" s="174"/>
       <c r="F371" s="174"/>
       <c r="G371" s="258" t="s">
@@ -28867,9 +28867,9 @@
     </row>
     <row r="372" spans="1:13" ht="14.25" customHeight="1">
       <c r="A372" s="183"/>
-      <c r="B372" s="309"/>
-      <c r="C372" s="335"/>
-      <c r="D372" s="311" t="s">
+      <c r="B372" s="318"/>
+      <c r="C372" s="316"/>
+      <c r="D372" s="337" t="s">
         <v>2181</v>
       </c>
       <c r="E372" s="174"/>
@@ -28888,9 +28888,9 @@
     </row>
     <row r="373" spans="1:13" ht="14.25" customHeight="1">
       <c r="A373" s="183"/>
-      <c r="B373" s="309"/>
-      <c r="C373" s="335"/>
-      <c r="D373" s="312"/>
+      <c r="B373" s="318"/>
+      <c r="C373" s="316"/>
+      <c r="D373" s="338"/>
       <c r="E373" s="174"/>
       <c r="F373" s="174"/>
       <c r="G373" s="258" t="s">
@@ -28909,8 +28909,8 @@
     </row>
     <row r="374" spans="1:13" ht="14.25" customHeight="1">
       <c r="A374" s="183"/>
-      <c r="B374" s="309"/>
-      <c r="C374" s="335"/>
+      <c r="B374" s="318"/>
+      <c r="C374" s="316"/>
       <c r="D374" s="287" t="s">
         <v>2182</v>
       </c>
@@ -28930,8 +28930,8 @@
     </row>
     <row r="375" spans="1:13" ht="18.95" customHeight="1">
       <c r="A375" s="183"/>
-      <c r="B375" s="309"/>
-      <c r="C375" s="335"/>
+      <c r="B375" s="318"/>
+      <c r="C375" s="316"/>
       <c r="D375" s="262" t="s">
         <v>2188</v>
       </c>
@@ -28955,8 +28955,8 @@
     </row>
     <row r="376" spans="1:13" ht="14.25" customHeight="1">
       <c r="A376" s="183"/>
-      <c r="B376" s="309"/>
-      <c r="C376" s="335"/>
+      <c r="B376" s="318"/>
+      <c r="C376" s="316"/>
       <c r="D376" s="263" t="s">
         <v>2189</v>
       </c>
@@ -28974,8 +28974,8 @@
     </row>
     <row r="377" spans="1:13" ht="14.25" customHeight="1">
       <c r="A377" s="183"/>
-      <c r="B377" s="309"/>
-      <c r="C377" s="335"/>
+      <c r="B377" s="318"/>
+      <c r="C377" s="316"/>
       <c r="D377" s="259" t="s">
         <v>2205</v>
       </c>
@@ -28995,8 +28995,8 @@
     </row>
     <row r="378" spans="1:13" ht="14.25" customHeight="1">
       <c r="A378" s="183"/>
-      <c r="B378" s="309"/>
-      <c r="C378" s="335"/>
+      <c r="B378" s="318"/>
+      <c r="C378" s="316"/>
       <c r="D378" s="259"/>
       <c r="E378" s="174"/>
       <c r="F378" s="174"/>
@@ -29016,8 +29016,8 @@
     </row>
     <row r="379" spans="1:13" ht="14.25" customHeight="1">
       <c r="A379" s="183"/>
-      <c r="B379" s="309"/>
-      <c r="C379" s="335"/>
+      <c r="B379" s="318"/>
+      <c r="C379" s="316"/>
       <c r="D379" s="259"/>
       <c r="E379" s="174"/>
       <c r="F379" s="174"/>
@@ -29035,8 +29035,8 @@
     </row>
     <row r="380" spans="1:13" ht="14.25" customHeight="1">
       <c r="A380" s="183"/>
-      <c r="B380" s="309"/>
-      <c r="C380" s="335"/>
+      <c r="B380" s="318"/>
+      <c r="C380" s="316"/>
       <c r="D380" s="259" t="s">
         <v>2214</v>
       </c>
@@ -29056,8 +29056,8 @@
     </row>
     <row r="381" spans="1:13" ht="14.25" customHeight="1">
       <c r="A381" s="183"/>
-      <c r="B381" s="309"/>
-      <c r="C381" s="335"/>
+      <c r="B381" s="318"/>
+      <c r="C381" s="316"/>
       <c r="D381" s="259"/>
       <c r="E381" s="174"/>
       <c r="F381" s="174"/>
@@ -29077,8 +29077,8 @@
     </row>
     <row r="382" spans="1:13" ht="14.25" customHeight="1">
       <c r="A382" s="183"/>
-      <c r="B382" s="309"/>
-      <c r="C382" s="335"/>
+      <c r="B382" s="318"/>
+      <c r="C382" s="316"/>
       <c r="D382" s="259"/>
       <c r="E382" s="174"/>
       <c r="F382" s="174"/>
@@ -29096,8 +29096,8 @@
     </row>
     <row r="383" spans="1:13" ht="14.25" customHeight="1">
       <c r="A383" s="183"/>
-      <c r="B383" s="309"/>
-      <c r="C383" s="335"/>
+      <c r="B383" s="318"/>
+      <c r="C383" s="316"/>
       <c r="D383" s="259" t="s">
         <v>2215</v>
       </c>
@@ -29115,8 +29115,8 @@
     </row>
     <row r="384" spans="1:13" ht="14.25" customHeight="1">
       <c r="A384" s="183"/>
-      <c r="B384" s="309"/>
-      <c r="C384" s="335"/>
+      <c r="B384" s="318"/>
+      <c r="C384" s="316"/>
       <c r="D384" s="259" t="s">
         <v>2216</v>
       </c>
@@ -29134,7 +29134,7 @@
     </row>
     <row r="385" spans="1:13" ht="14.25" customHeight="1">
       <c r="A385" s="181"/>
-      <c r="B385" s="310"/>
+      <c r="B385" s="319"/>
       <c r="C385" s="264" t="s">
         <v>2217</v>
       </c>
@@ -29302,15 +29302,48 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="D136:D143"/>
-    <mergeCell ref="D158:D167"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="C119:C143"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="D364:D367"/>
+    <mergeCell ref="D368:D371"/>
+    <mergeCell ref="B340:B385"/>
+    <mergeCell ref="D372:D373"/>
+    <mergeCell ref="C168:C184"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="B195:B300"/>
+    <mergeCell ref="D341:D351"/>
+    <mergeCell ref="D353:D363"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="C195:C210"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="D198:D200"/>
+    <mergeCell ref="D242:D258"/>
+    <mergeCell ref="C211:C241"/>
+    <mergeCell ref="D211:D241"/>
+    <mergeCell ref="C259:C279"/>
+    <mergeCell ref="D259:D279"/>
+    <mergeCell ref="C280:C298"/>
+    <mergeCell ref="D280:D298"/>
+    <mergeCell ref="D205:D210"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="C75:C100"/>
+    <mergeCell ref="C101:C118"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D21:D66"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D104:D107"/>
     <mergeCell ref="C2:C66"/>
     <mergeCell ref="C341:C384"/>
     <mergeCell ref="B2:B66"/>
@@ -29327,48 +29360,15 @@
     <mergeCell ref="D168:D176"/>
     <mergeCell ref="C242:C258"/>
     <mergeCell ref="C299:C300"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D21:D66"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="C75:C100"/>
-    <mergeCell ref="C101:C118"/>
-    <mergeCell ref="C259:C279"/>
-    <mergeCell ref="D259:D279"/>
-    <mergeCell ref="C280:C298"/>
-    <mergeCell ref="D280:D298"/>
-    <mergeCell ref="D205:D210"/>
-    <mergeCell ref="D364:D367"/>
-    <mergeCell ref="D368:D371"/>
-    <mergeCell ref="B340:B385"/>
-    <mergeCell ref="D372:D373"/>
-    <mergeCell ref="C168:C184"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="B195:B300"/>
-    <mergeCell ref="D341:D351"/>
-    <mergeCell ref="D353:D363"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="C195:C210"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="D198:D200"/>
-    <mergeCell ref="D242:D258"/>
-    <mergeCell ref="C211:C241"/>
-    <mergeCell ref="D211:D241"/>
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="D136:D143"/>
+    <mergeCell ref="D158:D167"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="C119:C143"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="D147:D148"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29381,7 +29381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -40268,6 +40268,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B374:B402"/>
+    <mergeCell ref="C309:G309"/>
+    <mergeCell ref="C310:G310"/>
+    <mergeCell ref="C311:I311"/>
+    <mergeCell ref="B312:B337"/>
+    <mergeCell ref="C340:G340"/>
+    <mergeCell ref="C341:G341"/>
+    <mergeCell ref="C342:I342"/>
+    <mergeCell ref="B343:B368"/>
+    <mergeCell ref="C371:G371"/>
+    <mergeCell ref="C372:G372"/>
+    <mergeCell ref="C373:I373"/>
+    <mergeCell ref="B260:B307"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="B226:B253"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:I259"/>
+    <mergeCell ref="B167:B192"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="B90:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="B118:B161"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C166:I166"/>
     <mergeCell ref="B69:B84"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
@@ -40280,42 +40316,6 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:I68"/>
-    <mergeCell ref="B167:B192"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="B90:B112"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:B161"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B260:B307"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="B198:B220"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="B226:B253"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C259:I259"/>
-    <mergeCell ref="B374:B402"/>
-    <mergeCell ref="C309:G309"/>
-    <mergeCell ref="C310:G310"/>
-    <mergeCell ref="C311:I311"/>
-    <mergeCell ref="B312:B337"/>
-    <mergeCell ref="C340:G340"/>
-    <mergeCell ref="C341:G341"/>
-    <mergeCell ref="C342:I342"/>
-    <mergeCell ref="B343:B368"/>
-    <mergeCell ref="C371:G371"/>
-    <mergeCell ref="C372:G372"/>
-    <mergeCell ref="C373:I373"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/03.指标管理/大宗/指标定义表V2.1.4.xlsx
+++ b/03.指标管理/大宗/指标定义表V2.1.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="705"/>
+    <workbookView minimized="1" xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685" tabRatio="705"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -19835,28 +19835,28 @@
     <xf numFmtId="0" fontId="40" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19868,22 +19868,34 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19894,15 +19906,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19922,31 +19925,28 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -21144,10 +21144,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomLeft" activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="14.25" customHeight="1"/>
@@ -21205,13 +21205,13 @@
       <c r="A2" s="174">
         <v>1</v>
       </c>
-      <c r="B2" s="317" t="s">
+      <c r="B2" s="308" t="s">
         <v>1334</v>
       </c>
       <c r="C2" s="313" t="s">
         <v>1335</v>
       </c>
-      <c r="D2" s="308" t="s">
+      <c r="D2" s="336" t="s">
         <v>179</v>
       </c>
       <c r="E2" s="175" t="s">
@@ -21244,9 +21244,9 @@
       <c r="A3" s="174">
         <v>2</v>
       </c>
-      <c r="B3" s="318"/>
+      <c r="B3" s="309"/>
       <c r="C3" s="314"/>
-      <c r="D3" s="320"/>
+      <c r="D3" s="337"/>
       <c r="E3" s="175" t="s">
         <v>1340</v>
       </c>
@@ -21271,9 +21271,9 @@
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4" s="174"/>
-      <c r="B4" s="318"/>
+      <c r="B4" s="309"/>
       <c r="C4" s="314"/>
-      <c r="D4" s="320"/>
+      <c r="D4" s="337"/>
       <c r="E4" s="175" t="s">
         <v>1343</v>
       </c>
@@ -21296,9 +21296,9 @@
     </row>
     <row r="5" spans="1:13" s="161" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="182"/>
-      <c r="B5" s="318"/>
+      <c r="B5" s="309"/>
       <c r="C5" s="314"/>
-      <c r="D5" s="320"/>
+      <c r="D5" s="337"/>
       <c r="E5" s="183"/>
       <c r="F5" s="184"/>
       <c r="G5" s="177" t="s">
@@ -21323,9 +21323,9 @@
     </row>
     <row r="6" spans="1:13" ht="49.5">
       <c r="A6" s="174"/>
-      <c r="B6" s="318"/>
+      <c r="B6" s="309"/>
       <c r="C6" s="314"/>
-      <c r="D6" s="320"/>
+      <c r="D6" s="337"/>
       <c r="E6" s="175"/>
       <c r="F6" s="176"/>
       <c r="G6" s="177" t="s">
@@ -21344,9 +21344,9 @@
     </row>
     <row r="7" spans="1:13" ht="33">
       <c r="A7" s="174"/>
-      <c r="B7" s="318"/>
+      <c r="B7" s="309"/>
       <c r="C7" s="314"/>
-      <c r="D7" s="320"/>
+      <c r="D7" s="337"/>
       <c r="E7" s="175"/>
       <c r="F7" s="176"/>
       <c r="G7" s="177" t="s">
@@ -21365,7 +21365,7 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="174"/>
-      <c r="B8" s="318"/>
+      <c r="B8" s="309"/>
       <c r="C8" s="314"/>
       <c r="D8" s="188"/>
       <c r="E8" s="175"/>
@@ -21384,7 +21384,7 @@
     </row>
     <row r="9" spans="1:13" ht="66">
       <c r="A9" s="174"/>
-      <c r="B9" s="318"/>
+      <c r="B9" s="309"/>
       <c r="C9" s="314"/>
       <c r="D9" s="188"/>
       <c r="E9" s="175"/>
@@ -21405,7 +21405,7 @@
     </row>
     <row r="10" spans="1:13" ht="25.5" customHeight="1">
       <c r="A10" s="174"/>
-      <c r="B10" s="318"/>
+      <c r="B10" s="309"/>
       <c r="C10" s="314"/>
       <c r="D10" s="188"/>
       <c r="E10" s="175"/>
@@ -21426,7 +21426,7 @@
     </row>
     <row r="11" spans="1:13" s="161" customFormat="1" ht="87.75" customHeight="1">
       <c r="A11" s="182"/>
-      <c r="B11" s="318"/>
+      <c r="B11" s="309"/>
       <c r="C11" s="314"/>
       <c r="D11" s="191" t="s">
         <v>0</v>
@@ -21449,7 +21449,7 @@
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
       <c r="A12" s="174"/>
-      <c r="B12" s="318"/>
+      <c r="B12" s="309"/>
       <c r="C12" s="314"/>
       <c r="D12" s="192" t="s">
         <v>0</v>
@@ -21472,7 +21472,7 @@
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13" s="174"/>
-      <c r="B13" s="318"/>
+      <c r="B13" s="309"/>
       <c r="C13" s="314"/>
       <c r="D13" s="192" t="s">
         <v>0</v>
@@ -21495,7 +21495,7 @@
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="174"/>
-      <c r="B14" s="318"/>
+      <c r="B14" s="309"/>
       <c r="C14" s="314"/>
       <c r="D14" s="193" t="s">
         <v>2230</v>
@@ -21520,7 +21520,7 @@
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="174"/>
-      <c r="B15" s="318"/>
+      <c r="B15" s="309"/>
       <c r="C15" s="314"/>
       <c r="D15" s="193"/>
       <c r="E15" s="175"/>
@@ -21541,9 +21541,9 @@
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" s="174"/>
-      <c r="B16" s="318"/>
+      <c r="B16" s="309"/>
       <c r="C16" s="314"/>
-      <c r="D16" s="305" t="s">
+      <c r="D16" s="318" t="s">
         <v>1353</v>
       </c>
       <c r="E16" s="175"/>
@@ -21564,9 +21564,9 @@
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1">
       <c r="A17" s="174"/>
-      <c r="B17" s="318"/>
+      <c r="B17" s="309"/>
       <c r="C17" s="314"/>
-      <c r="D17" s="306"/>
+      <c r="D17" s="319"/>
       <c r="E17" s="175"/>
       <c r="F17" s="176"/>
       <c r="G17" s="177" t="s">
@@ -21585,9 +21585,9 @@
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" s="174"/>
-      <c r="B18" s="318"/>
+      <c r="B18" s="309"/>
       <c r="C18" s="314"/>
-      <c r="D18" s="307"/>
+      <c r="D18" s="320"/>
       <c r="E18" s="175"/>
       <c r="F18" s="176"/>
       <c r="G18" s="177" t="s">
@@ -21604,7 +21604,7 @@
     </row>
     <row r="19" spans="1:13" s="161" customFormat="1" ht="33">
       <c r="A19" s="182"/>
-      <c r="B19" s="318"/>
+      <c r="B19" s="309"/>
       <c r="C19" s="314"/>
       <c r="D19" s="191" t="s">
         <v>1358</v>
@@ -21629,7 +21629,7 @@
     </row>
     <row r="20" spans="1:13" ht="33">
       <c r="A20" s="174"/>
-      <c r="B20" s="318"/>
+      <c r="B20" s="309"/>
       <c r="C20" s="314"/>
       <c r="D20" s="192" t="s">
         <v>1360</v>
@@ -21654,9 +21654,9 @@
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
       <c r="A21" s="174"/>
-      <c r="B21" s="318"/>
+      <c r="B21" s="309"/>
       <c r="C21" s="314"/>
-      <c r="D21" s="317" t="s">
+      <c r="D21" s="308" t="s">
         <v>1362</v>
       </c>
       <c r="E21" s="175"/>
@@ -21677,9 +21677,9 @@
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
       <c r="A22" s="174"/>
-      <c r="B22" s="318"/>
+      <c r="B22" s="309"/>
       <c r="C22" s="314"/>
-      <c r="D22" s="318"/>
+      <c r="D22" s="309"/>
       <c r="E22" s="175"/>
       <c r="F22" s="176"/>
       <c r="G22" s="177" t="s">
@@ -21698,9 +21698,9 @@
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1">
       <c r="A23" s="174"/>
-      <c r="B23" s="318"/>
+      <c r="B23" s="309"/>
       <c r="C23" s="314"/>
-      <c r="D23" s="318"/>
+      <c r="D23" s="309"/>
       <c r="E23" s="175"/>
       <c r="F23" s="176"/>
       <c r="G23" s="177" t="s">
@@ -21721,9 +21721,9 @@
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1">
       <c r="A24" s="174"/>
-      <c r="B24" s="318"/>
+      <c r="B24" s="309"/>
       <c r="C24" s="314"/>
-      <c r="D24" s="318"/>
+      <c r="D24" s="309"/>
       <c r="E24" s="175"/>
       <c r="F24" s="176"/>
       <c r="G24" s="177" t="s">
@@ -21744,9 +21744,9 @@
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1">
       <c r="A25" s="174"/>
-      <c r="B25" s="318"/>
+      <c r="B25" s="309"/>
       <c r="C25" s="314"/>
-      <c r="D25" s="318"/>
+      <c r="D25" s="309"/>
       <c r="E25" s="175"/>
       <c r="F25" s="176"/>
       <c r="G25" s="177" t="s">
@@ -21765,9 +21765,9 @@
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1">
       <c r="A26" s="174"/>
-      <c r="B26" s="318"/>
+      <c r="B26" s="309"/>
       <c r="C26" s="314"/>
-      <c r="D26" s="318"/>
+      <c r="D26" s="309"/>
       <c r="E26" s="175"/>
       <c r="F26" s="176"/>
       <c r="G26" s="177" t="s">
@@ -21788,9 +21788,9 @@
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1">
       <c r="A27" s="174"/>
-      <c r="B27" s="318"/>
+      <c r="B27" s="309"/>
       <c r="C27" s="314"/>
-      <c r="D27" s="318"/>
+      <c r="D27" s="309"/>
       <c r="E27" s="175"/>
       <c r="F27" s="176"/>
       <c r="G27" s="197" t="s">
@@ -21811,9 +21811,9 @@
     </row>
     <row r="28" spans="1:13" ht="66">
       <c r="A28" s="174"/>
-      <c r="B28" s="318"/>
+      <c r="B28" s="309"/>
       <c r="C28" s="314"/>
-      <c r="D28" s="318"/>
+      <c r="D28" s="309"/>
       <c r="E28" s="175"/>
       <c r="F28" s="176"/>
       <c r="G28" s="195" t="s">
@@ -21834,9 +21834,9 @@
     </row>
     <row r="29" spans="1:13" s="151" customFormat="1" ht="33">
       <c r="A29" s="199"/>
-      <c r="B29" s="318"/>
+      <c r="B29" s="309"/>
       <c r="C29" s="314"/>
-      <c r="D29" s="318"/>
+      <c r="D29" s="309"/>
       <c r="E29" s="175"/>
       <c r="F29" s="176"/>
       <c r="G29" s="200" t="s">
@@ -21857,9 +21857,9 @@
     </row>
     <row r="30" spans="1:13" ht="49.5">
       <c r="A30" s="174"/>
-      <c r="B30" s="318"/>
+      <c r="B30" s="309"/>
       <c r="C30" s="314"/>
-      <c r="D30" s="318"/>
+      <c r="D30" s="309"/>
       <c r="E30" s="175"/>
       <c r="F30" s="176"/>
       <c r="G30" s="195" t="s">
@@ -21880,9 +21880,9 @@
     </row>
     <row r="31" spans="1:13" ht="247.5">
       <c r="A31" s="174"/>
-      <c r="B31" s="318"/>
+      <c r="B31" s="309"/>
       <c r="C31" s="314"/>
-      <c r="D31" s="318"/>
+      <c r="D31" s="309"/>
       <c r="E31" s="175"/>
       <c r="F31" s="176"/>
       <c r="G31" s="195" t="s">
@@ -21905,9 +21905,9 @@
     </row>
     <row r="32" spans="1:13" ht="159" customHeight="1">
       <c r="A32" s="174"/>
-      <c r="B32" s="318"/>
+      <c r="B32" s="309"/>
       <c r="C32" s="314"/>
-      <c r="D32" s="318"/>
+      <c r="D32" s="309"/>
       <c r="E32" s="175"/>
       <c r="F32" s="176"/>
       <c r="G32" s="195" t="s">
@@ -21928,9 +21928,9 @@
     </row>
     <row r="33" spans="1:13" ht="102.75" customHeight="1">
       <c r="A33" s="174"/>
-      <c r="B33" s="318"/>
+      <c r="B33" s="309"/>
       <c r="C33" s="314"/>
-      <c r="D33" s="318"/>
+      <c r="D33" s="309"/>
       <c r="E33" s="175"/>
       <c r="F33" s="176"/>
       <c r="G33" s="195" t="s">
@@ -21951,9 +21951,9 @@
     </row>
     <row r="34" spans="1:13" ht="83.25" customHeight="1">
       <c r="A34" s="174"/>
-      <c r="B34" s="318"/>
+      <c r="B34" s="309"/>
       <c r="C34" s="314"/>
-      <c r="D34" s="318"/>
+      <c r="D34" s="309"/>
       <c r="E34" s="175"/>
       <c r="F34" s="176"/>
       <c r="G34" s="195" t="s">
@@ -21974,9 +21974,9 @@
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="174"/>
-      <c r="B35" s="318"/>
+      <c r="B35" s="309"/>
       <c r="C35" s="314"/>
-      <c r="D35" s="318"/>
+      <c r="D35" s="309"/>
       <c r="E35" s="175"/>
       <c r="F35" s="176"/>
       <c r="G35" s="208" t="s">
@@ -21997,9 +21997,9 @@
     </row>
     <row r="36" spans="1:13" ht="41.25" customHeight="1">
       <c r="A36" s="174"/>
-      <c r="B36" s="318"/>
+      <c r="B36" s="309"/>
       <c r="C36" s="314"/>
-      <c r="D36" s="318"/>
+      <c r="D36" s="309"/>
       <c r="E36" s="175"/>
       <c r="F36" s="176"/>
       <c r="G36" s="210" t="s">
@@ -22020,9 +22020,9 @@
     </row>
     <row r="37" spans="1:13" ht="45" customHeight="1">
       <c r="A37" s="174"/>
-      <c r="B37" s="318"/>
+      <c r="B37" s="309"/>
       <c r="C37" s="314"/>
-      <c r="D37" s="318"/>
+      <c r="D37" s="309"/>
       <c r="E37" s="175"/>
       <c r="F37" s="176"/>
       <c r="G37" s="195" t="s">
@@ -22043,9 +22043,9 @@
     </row>
     <row r="38" spans="1:13" ht="43.5" customHeight="1">
       <c r="A38" s="174"/>
-      <c r="B38" s="318"/>
+      <c r="B38" s="309"/>
       <c r="C38" s="314"/>
-      <c r="D38" s="318"/>
+      <c r="D38" s="309"/>
       <c r="E38" s="175"/>
       <c r="F38" s="176"/>
       <c r="G38" s="195" t="s">
@@ -22066,9 +22066,9 @@
     </row>
     <row r="39" spans="1:13" ht="49.5">
       <c r="A39" s="174"/>
-      <c r="B39" s="318"/>
+      <c r="B39" s="309"/>
       <c r="C39" s="314"/>
-      <c r="D39" s="318"/>
+      <c r="D39" s="309"/>
       <c r="E39" s="175"/>
       <c r="F39" s="176"/>
       <c r="G39" s="195" t="s">
@@ -22089,9 +22089,9 @@
     </row>
     <row r="40" spans="1:13" ht="18" thickBot="1">
       <c r="A40" s="174"/>
-      <c r="B40" s="318"/>
+      <c r="B40" s="309"/>
       <c r="C40" s="314"/>
-      <c r="D40" s="318"/>
+      <c r="D40" s="309"/>
       <c r="E40" s="175"/>
       <c r="F40" s="176"/>
       <c r="G40" s="200" t="s">
@@ -22112,9 +22112,9 @@
     </row>
     <row r="41" spans="1:13" ht="38.1" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="174"/>
-      <c r="B41" s="318"/>
+      <c r="B41" s="309"/>
       <c r="C41" s="314"/>
-      <c r="D41" s="318"/>
+      <c r="D41" s="309"/>
       <c r="E41" s="175"/>
       <c r="F41" s="176"/>
       <c r="G41" s="213" t="s">
@@ -22135,9 +22135,9 @@
     </row>
     <row r="42" spans="1:13" ht="214.5">
       <c r="A42" s="174"/>
-      <c r="B42" s="318"/>
+      <c r="B42" s="309"/>
       <c r="C42" s="314"/>
-      <c r="D42" s="318"/>
+      <c r="D42" s="309"/>
       <c r="E42" s="175"/>
       <c r="F42" s="176"/>
       <c r="G42" s="210" t="s">
@@ -22158,9 +22158,9 @@
     </row>
     <row r="43" spans="1:13" ht="120" customHeight="1">
       <c r="A43" s="174"/>
-      <c r="B43" s="318"/>
+      <c r="B43" s="309"/>
       <c r="C43" s="314"/>
-      <c r="D43" s="318"/>
+      <c r="D43" s="309"/>
       <c r="E43" s="175"/>
       <c r="F43" s="176"/>
       <c r="G43" s="195" t="s">
@@ -22181,9 +22181,9 @@
     </row>
     <row r="44" spans="1:13" ht="106.5" customHeight="1">
       <c r="A44" s="174"/>
-      <c r="B44" s="318"/>
+      <c r="B44" s="309"/>
       <c r="C44" s="314"/>
-      <c r="D44" s="318"/>
+      <c r="D44" s="309"/>
       <c r="E44" s="175"/>
       <c r="F44" s="176"/>
       <c r="G44" s="195" t="s">
@@ -22204,9 +22204,9 @@
     </row>
     <row r="45" spans="1:13" ht="56.1" customHeight="1">
       <c r="A45" s="174"/>
-      <c r="B45" s="318"/>
+      <c r="B45" s="309"/>
       <c r="C45" s="314"/>
-      <c r="D45" s="318"/>
+      <c r="D45" s="309"/>
       <c r="E45" s="175"/>
       <c r="F45" s="176"/>
       <c r="G45" s="195" t="s">
@@ -22227,9 +22227,9 @@
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1">
       <c r="A46" s="174"/>
-      <c r="B46" s="318"/>
+      <c r="B46" s="309"/>
       <c r="C46" s="314"/>
-      <c r="D46" s="318"/>
+      <c r="D46" s="309"/>
       <c r="E46" s="175"/>
       <c r="F46" s="176"/>
       <c r="G46" s="195" t="s">
@@ -22252,9 +22252,9 @@
     </row>
     <row r="47" spans="1:13" ht="26.25" hidden="1" customHeight="1">
       <c r="A47" s="174"/>
-      <c r="B47" s="318"/>
+      <c r="B47" s="309"/>
       <c r="C47" s="314"/>
-      <c r="D47" s="318"/>
+      <c r="D47" s="309"/>
       <c r="E47" s="175"/>
       <c r="F47" s="176"/>
       <c r="G47" s="217" t="s">
@@ -22275,9 +22275,9 @@
     </row>
     <row r="48" spans="1:13" ht="25.5" hidden="1" customHeight="1">
       <c r="A48" s="174"/>
-      <c r="B48" s="318"/>
+      <c r="B48" s="309"/>
       <c r="C48" s="314"/>
-      <c r="D48" s="318"/>
+      <c r="D48" s="309"/>
       <c r="E48" s="175"/>
       <c r="F48" s="176"/>
       <c r="G48" s="217" t="s">
@@ -22294,9 +22294,9 @@
     </row>
     <row r="49" spans="1:13" ht="78" customHeight="1" thickBot="1">
       <c r="A49" s="174"/>
-      <c r="B49" s="318"/>
+      <c r="B49" s="309"/>
       <c r="C49" s="314"/>
-      <c r="D49" s="318"/>
+      <c r="D49" s="309"/>
       <c r="E49" s="175"/>
       <c r="F49" s="176"/>
       <c r="G49" s="208" t="s">
@@ -22317,9 +22317,9 @@
     </row>
     <row r="50" spans="1:13" ht="41.25" customHeight="1">
       <c r="A50" s="174"/>
-      <c r="B50" s="318"/>
+      <c r="B50" s="309"/>
       <c r="C50" s="314"/>
-      <c r="D50" s="318"/>
+      <c r="D50" s="309"/>
       <c r="E50" s="175"/>
       <c r="F50" s="176"/>
       <c r="G50" s="210" t="s">
@@ -22340,9 +22340,9 @@
     </row>
     <row r="51" spans="1:13" ht="43.5" customHeight="1">
       <c r="A51" s="174"/>
-      <c r="B51" s="318"/>
+      <c r="B51" s="309"/>
       <c r="C51" s="314"/>
-      <c r="D51" s="318"/>
+      <c r="D51" s="309"/>
       <c r="E51" s="175"/>
       <c r="F51" s="176"/>
       <c r="G51" s="195" t="s">
@@ -22363,9 +22363,9 @@
     </row>
     <row r="52" spans="1:13" ht="46.5" customHeight="1">
       <c r="A52" s="174"/>
-      <c r="B52" s="318"/>
+      <c r="B52" s="309"/>
       <c r="C52" s="314"/>
-      <c r="D52" s="318"/>
+      <c r="D52" s="309"/>
       <c r="E52" s="175"/>
       <c r="F52" s="176"/>
       <c r="G52" s="195" t="s">
@@ -22386,9 +22386,9 @@
     </row>
     <row r="53" spans="1:13" ht="42" customHeight="1">
       <c r="A53" s="174"/>
-      <c r="B53" s="318"/>
+      <c r="B53" s="309"/>
       <c r="C53" s="314"/>
-      <c r="D53" s="318"/>
+      <c r="D53" s="309"/>
       <c r="E53" s="175"/>
       <c r="F53" s="176"/>
       <c r="G53" s="195" t="s">
@@ -22409,9 +22409,9 @@
     </row>
     <row r="54" spans="1:13" ht="38.25" customHeight="1">
       <c r="A54" s="174"/>
-      <c r="B54" s="318"/>
+      <c r="B54" s="309"/>
       <c r="C54" s="314"/>
-      <c r="D54" s="318"/>
+      <c r="D54" s="309"/>
       <c r="E54" s="175"/>
       <c r="F54" s="176"/>
       <c r="G54" s="195" t="s">
@@ -22427,14 +22427,14 @@
         <v>2836</v>
       </c>
       <c r="K54" s="222"/>
-      <c r="L54" s="328"/>
+      <c r="L54" s="329"/>
       <c r="M54" s="181"/>
     </row>
     <row r="55" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="174"/>
-      <c r="B55" s="318"/>
+      <c r="B55" s="309"/>
       <c r="C55" s="314"/>
-      <c r="D55" s="318"/>
+      <c r="D55" s="309"/>
       <c r="E55" s="175"/>
       <c r="F55" s="176"/>
       <c r="G55" s="217" t="s">
@@ -22446,14 +22446,14 @@
       <c r="I55" s="201"/>
       <c r="J55" s="223"/>
       <c r="K55" s="223"/>
-      <c r="L55" s="329"/>
+      <c r="L55" s="330"/>
       <c r="M55" s="181"/>
     </row>
     <row r="56" spans="1:13" ht="33">
       <c r="A56" s="174"/>
-      <c r="B56" s="318"/>
+      <c r="B56" s="309"/>
       <c r="C56" s="314"/>
-      <c r="D56" s="318"/>
+      <c r="D56" s="309"/>
       <c r="E56" s="175"/>
       <c r="F56" s="176"/>
       <c r="G56" s="195" t="s">
@@ -22476,9 +22476,9 @@
     </row>
     <row r="57" spans="1:13" ht="28.5" hidden="1" customHeight="1">
       <c r="A57" s="174"/>
-      <c r="B57" s="318"/>
+      <c r="B57" s="309"/>
       <c r="C57" s="314"/>
-      <c r="D57" s="318"/>
+      <c r="D57" s="309"/>
       <c r="E57" s="175"/>
       <c r="F57" s="176"/>
       <c r="G57" s="217" t="s">
@@ -22497,9 +22497,9 @@
     </row>
     <row r="58" spans="1:13" ht="30.75" customHeight="1">
       <c r="A58" s="174"/>
-      <c r="B58" s="318"/>
+      <c r="B58" s="309"/>
       <c r="C58" s="314"/>
-      <c r="D58" s="318"/>
+      <c r="D58" s="309"/>
       <c r="E58" s="175"/>
       <c r="F58" s="176"/>
       <c r="G58" s="195" t="s">
@@ -22520,9 +22520,9 @@
     </row>
     <row r="59" spans="1:13" ht="46.5" customHeight="1" thickBot="1">
       <c r="A59" s="174"/>
-      <c r="B59" s="318"/>
+      <c r="B59" s="309"/>
       <c r="C59" s="314"/>
-      <c r="D59" s="318"/>
+      <c r="D59" s="309"/>
       <c r="E59" s="175"/>
       <c r="F59" s="176"/>
       <c r="G59" s="195" t="s">
@@ -22543,9 +22543,9 @@
     </row>
     <row r="60" spans="1:13" ht="13.5" hidden="1" customHeight="1" thickBot="1">
       <c r="A60" s="174"/>
-      <c r="B60" s="318"/>
+      <c r="B60" s="309"/>
       <c r="C60" s="314"/>
-      <c r="D60" s="318"/>
+      <c r="D60" s="309"/>
       <c r="E60" s="175"/>
       <c r="F60" s="176"/>
       <c r="G60" s="213" t="s">
@@ -22564,9 +22564,9 @@
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1">
       <c r="A61" s="174"/>
-      <c r="B61" s="318"/>
+      <c r="B61" s="309"/>
       <c r="C61" s="314"/>
-      <c r="D61" s="318"/>
+      <c r="D61" s="309"/>
       <c r="E61" s="175"/>
       <c r="F61" s="176"/>
       <c r="G61" s="210" t="s">
@@ -22587,9 +22587,9 @@
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1">
       <c r="A62" s="174"/>
-      <c r="B62" s="318"/>
+      <c r="B62" s="309"/>
       <c r="C62" s="314"/>
-      <c r="D62" s="318"/>
+      <c r="D62" s="309"/>
       <c r="E62" s="175"/>
       <c r="F62" s="176"/>
       <c r="G62" s="195" t="s">
@@ -22608,9 +22608,9 @@
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1">
       <c r="A63" s="174"/>
-      <c r="B63" s="318"/>
+      <c r="B63" s="309"/>
       <c r="C63" s="314"/>
-      <c r="D63" s="318"/>
+      <c r="D63" s="309"/>
       <c r="E63" s="175"/>
       <c r="F63" s="176"/>
       <c r="G63" s="195" t="s">
@@ -22629,9 +22629,9 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="174"/>
-      <c r="B64" s="318"/>
+      <c r="B64" s="309"/>
       <c r="C64" s="314"/>
-      <c r="D64" s="318"/>
+      <c r="D64" s="309"/>
       <c r="E64" s="175"/>
       <c r="F64" s="176"/>
       <c r="G64" s="208" t="s">
@@ -22650,9 +22650,9 @@
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1">
       <c r="A65" s="174"/>
-      <c r="B65" s="318"/>
+      <c r="B65" s="309"/>
       <c r="C65" s="314"/>
-      <c r="D65" s="318"/>
+      <c r="D65" s="309"/>
       <c r="E65" s="175"/>
       <c r="F65" s="176"/>
       <c r="G65" s="210" t="s">
@@ -22671,9 +22671,9 @@
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="174"/>
-      <c r="B66" s="319"/>
+      <c r="B66" s="310"/>
       <c r="C66" s="315"/>
-      <c r="D66" s="319"/>
+      <c r="D66" s="310"/>
       <c r="E66" s="175"/>
       <c r="F66" s="176"/>
       <c r="G66" s="228" t="s">
@@ -22692,13 +22692,13 @@
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="174"/>
-      <c r="B67" s="317" t="s">
+      <c r="B67" s="308" t="s">
         <v>127</v>
       </c>
       <c r="C67" s="313" t="s">
         <v>1373</v>
       </c>
-      <c r="D67" s="305" t="s">
+      <c r="D67" s="318" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="175"/>
@@ -22721,9 +22721,9 @@
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1">
       <c r="A68" s="174"/>
-      <c r="B68" s="318"/>
+      <c r="B68" s="309"/>
       <c r="C68" s="314"/>
-      <c r="D68" s="306"/>
+      <c r="D68" s="319"/>
       <c r="E68" s="175"/>
       <c r="F68" s="176"/>
       <c r="G68" s="177" t="s">
@@ -22742,9 +22742,9 @@
     </row>
     <row r="69" spans="1:13" ht="14.25" customHeight="1">
       <c r="A69" s="174"/>
-      <c r="B69" s="318"/>
+      <c r="B69" s="309"/>
       <c r="C69" s="314"/>
-      <c r="D69" s="307"/>
+      <c r="D69" s="320"/>
       <c r="E69" s="175"/>
       <c r="F69" s="176"/>
       <c r="G69" s="177" t="s">
@@ -22767,11 +22767,11 @@
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1">
       <c r="A70" s="174"/>
-      <c r="B70" s="318"/>
+      <c r="B70" s="309"/>
       <c r="C70" s="313" t="s">
         <v>1376</v>
       </c>
-      <c r="D70" s="305" t="s">
+      <c r="D70" s="318" t="s">
         <v>1377</v>
       </c>
       <c r="E70" s="175"/>
@@ -22794,9 +22794,9 @@
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1">
       <c r="A71" s="174"/>
-      <c r="B71" s="318"/>
+      <c r="B71" s="309"/>
       <c r="C71" s="314"/>
-      <c r="D71" s="306"/>
+      <c r="D71" s="319"/>
       <c r="E71" s="175"/>
       <c r="F71" s="176"/>
       <c r="G71" s="177" t="s">
@@ -22817,9 +22817,9 @@
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1">
       <c r="A72" s="174"/>
-      <c r="B72" s="318"/>
+      <c r="B72" s="309"/>
       <c r="C72" s="314"/>
-      <c r="D72" s="306"/>
+      <c r="D72" s="319"/>
       <c r="E72" s="175"/>
       <c r="F72" s="176"/>
       <c r="G72" s="177" t="s">
@@ -22840,9 +22840,9 @@
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1">
       <c r="A73" s="174"/>
-      <c r="B73" s="318"/>
+      <c r="B73" s="309"/>
       <c r="C73" s="314"/>
-      <c r="D73" s="307"/>
+      <c r="D73" s="320"/>
       <c r="E73" s="175"/>
       <c r="F73" s="176"/>
       <c r="G73" s="177" t="s">
@@ -22863,7 +22863,7 @@
     </row>
     <row r="74" spans="1:13" ht="49.5">
       <c r="A74" s="174"/>
-      <c r="B74" s="318"/>
+      <c r="B74" s="309"/>
       <c r="C74" s="314"/>
       <c r="D74" s="231" t="s">
         <v>5</v>
@@ -22888,7 +22888,7 @@
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
       <c r="A75" s="232"/>
-      <c r="B75" s="305" t="s">
+      <c r="B75" s="318" t="s">
         <v>1383</v>
       </c>
       <c r="C75" s="313" t="s">
@@ -22915,7 +22915,7 @@
     </row>
     <row r="76" spans="1:13" ht="14.25" customHeight="1">
       <c r="A76" s="232"/>
-      <c r="B76" s="306"/>
+      <c r="B76" s="319"/>
       <c r="C76" s="314"/>
       <c r="D76" s="193" t="s">
         <v>1576</v>
@@ -22938,7 +22938,7 @@
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
       <c r="A77" s="232"/>
-      <c r="B77" s="306"/>
+      <c r="B77" s="319"/>
       <c r="C77" s="314"/>
       <c r="D77" s="193" t="s">
         <v>1578</v>
@@ -22963,9 +22963,9 @@
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
       <c r="A78" s="232"/>
-      <c r="B78" s="306"/>
+      <c r="B78" s="319"/>
       <c r="C78" s="314"/>
-      <c r="D78" s="305" t="s">
+      <c r="D78" s="318" t="s">
         <v>1589</v>
       </c>
       <c r="E78" s="175"/>
@@ -22984,9 +22984,9 @@
     </row>
     <row r="79" spans="1:13" ht="100.5" customHeight="1">
       <c r="A79" s="232"/>
-      <c r="B79" s="306"/>
+      <c r="B79" s="319"/>
       <c r="C79" s="314"/>
-      <c r="D79" s="306"/>
+      <c r="D79" s="319"/>
       <c r="E79" s="175"/>
       <c r="F79" s="176"/>
       <c r="G79" s="177" t="s">
@@ -23009,9 +23009,9 @@
     </row>
     <row r="80" spans="1:13" ht="91.5" customHeight="1">
       <c r="A80" s="232"/>
-      <c r="B80" s="306"/>
+      <c r="B80" s="319"/>
       <c r="C80" s="314"/>
-      <c r="D80" s="307"/>
+      <c r="D80" s="320"/>
       <c r="E80" s="175"/>
       <c r="F80" s="176"/>
       <c r="G80" s="177" t="s">
@@ -23032,9 +23032,9 @@
     </row>
     <row r="81" spans="1:13" ht="14.25" customHeight="1">
       <c r="A81" s="232"/>
-      <c r="B81" s="306"/>
+      <c r="B81" s="319"/>
       <c r="C81" s="314"/>
-      <c r="D81" s="305" t="s">
+      <c r="D81" s="318" t="s">
         <v>1387</v>
       </c>
       <c r="E81" s="175"/>
@@ -23059,9 +23059,9 @@
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
       <c r="A82" s="232"/>
-      <c r="B82" s="306"/>
+      <c r="B82" s="319"/>
       <c r="C82" s="314"/>
-      <c r="D82" s="306"/>
+      <c r="D82" s="319"/>
       <c r="E82" s="175"/>
       <c r="F82" s="176"/>
       <c r="G82" s="177" t="s">
@@ -23082,9 +23082,9 @@
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1">
       <c r="A83" s="232"/>
-      <c r="B83" s="306"/>
+      <c r="B83" s="319"/>
       <c r="C83" s="314"/>
-      <c r="D83" s="306"/>
+      <c r="D83" s="319"/>
       <c r="E83" s="175"/>
       <c r="F83" s="176"/>
       <c r="G83" s="177" t="s">
@@ -23105,9 +23105,9 @@
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1">
       <c r="A84" s="232"/>
-      <c r="B84" s="306"/>
+      <c r="B84" s="319"/>
       <c r="C84" s="314"/>
-      <c r="D84" s="306"/>
+      <c r="D84" s="319"/>
       <c r="E84" s="175"/>
       <c r="F84" s="176"/>
       <c r="G84" s="177" t="s">
@@ -23128,9 +23128,9 @@
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1">
       <c r="A85" s="232"/>
-      <c r="B85" s="306"/>
+      <c r="B85" s="319"/>
       <c r="C85" s="314"/>
-      <c r="D85" s="307"/>
+      <c r="D85" s="320"/>
       <c r="E85" s="175"/>
       <c r="F85" s="176"/>
       <c r="G85" s="177" t="s">
@@ -23151,9 +23151,9 @@
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1">
       <c r="A86" s="232"/>
-      <c r="B86" s="306"/>
+      <c r="B86" s="319"/>
       <c r="C86" s="314"/>
-      <c r="D86" s="305" t="s">
+      <c r="D86" s="318" t="s">
         <v>1394</v>
       </c>
       <c r="E86" s="175"/>
@@ -23178,9 +23178,9 @@
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1">
       <c r="A87" s="232"/>
-      <c r="B87" s="306"/>
+      <c r="B87" s="319"/>
       <c r="C87" s="314"/>
-      <c r="D87" s="307"/>
+      <c r="D87" s="320"/>
       <c r="E87" s="175"/>
       <c r="F87" s="176"/>
       <c r="G87" s="177" t="s">
@@ -23201,7 +23201,7 @@
     </row>
     <row r="88" spans="1:13" ht="64.5" customHeight="1">
       <c r="A88" s="232"/>
-      <c r="B88" s="306"/>
+      <c r="B88" s="319"/>
       <c r="C88" s="314"/>
       <c r="D88" s="192" t="s">
         <v>1</v>
@@ -23228,9 +23228,9 @@
     </row>
     <row r="89" spans="1:13" ht="57" customHeight="1">
       <c r="A89" s="232"/>
-      <c r="B89" s="306"/>
+      <c r="B89" s="319"/>
       <c r="C89" s="314"/>
-      <c r="D89" s="305" t="s">
+      <c r="D89" s="318" t="s">
         <v>1398</v>
       </c>
       <c r="E89" s="175"/>
@@ -23253,9 +23253,9 @@
     </row>
     <row r="90" spans="1:13" ht="49.5">
       <c r="A90" s="232"/>
-      <c r="B90" s="306"/>
+      <c r="B90" s="319"/>
       <c r="C90" s="314"/>
-      <c r="D90" s="306"/>
+      <c r="D90" s="319"/>
       <c r="E90" s="175"/>
       <c r="F90" s="176"/>
       <c r="G90" s="177" t="s">
@@ -23276,9 +23276,9 @@
     </row>
     <row r="91" spans="1:13" ht="49.5">
       <c r="A91" s="232"/>
-      <c r="B91" s="306"/>
+      <c r="B91" s="319"/>
       <c r="C91" s="314"/>
-      <c r="D91" s="306"/>
+      <c r="D91" s="319"/>
       <c r="E91" s="175"/>
       <c r="F91" s="176"/>
       <c r="G91" s="177" t="s">
@@ -23299,9 +23299,9 @@
     </row>
     <row r="92" spans="1:13" ht="49.5">
       <c r="A92" s="232"/>
-      <c r="B92" s="306"/>
+      <c r="B92" s="319"/>
       <c r="C92" s="314"/>
-      <c r="D92" s="306"/>
+      <c r="D92" s="319"/>
       <c r="E92" s="175"/>
       <c r="F92" s="176"/>
       <c r="G92" s="177" t="s">
@@ -23322,9 +23322,9 @@
     </row>
     <row r="93" spans="1:13" ht="49.5">
       <c r="A93" s="232"/>
-      <c r="B93" s="306"/>
+      <c r="B93" s="319"/>
       <c r="C93" s="314"/>
-      <c r="D93" s="307"/>
+      <c r="D93" s="320"/>
       <c r="E93" s="175"/>
       <c r="F93" s="176"/>
       <c r="G93" s="177" t="s">
@@ -23345,9 +23345,9 @@
     </row>
     <row r="94" spans="1:13" ht="16.5" customHeight="1">
       <c r="A94" s="232"/>
-      <c r="B94" s="306"/>
+      <c r="B94" s="319"/>
       <c r="C94" s="314"/>
-      <c r="D94" s="305" t="s">
+      <c r="D94" s="318" t="s">
         <v>2</v>
       </c>
       <c r="E94" s="175"/>
@@ -23370,9 +23370,9 @@
     </row>
     <row r="95" spans="1:13" ht="214.5">
       <c r="A95" s="232"/>
-      <c r="B95" s="306"/>
+      <c r="B95" s="319"/>
       <c r="C95" s="314"/>
-      <c r="D95" s="306"/>
+      <c r="D95" s="319"/>
       <c r="E95" s="175"/>
       <c r="F95" s="176"/>
       <c r="G95" s="177" t="s">
@@ -23395,9 +23395,9 @@
     </row>
     <row r="96" spans="1:13" ht="30" customHeight="1">
       <c r="A96" s="232"/>
-      <c r="B96" s="306"/>
+      <c r="B96" s="319"/>
       <c r="C96" s="314"/>
-      <c r="D96" s="307"/>
+      <c r="D96" s="320"/>
       <c r="E96" s="175"/>
       <c r="F96" s="176"/>
       <c r="G96" s="177" t="s">
@@ -23416,9 +23416,9 @@
     </row>
     <row r="97" spans="1:13" ht="131.25" customHeight="1">
       <c r="A97" s="232"/>
-      <c r="B97" s="306"/>
+      <c r="B97" s="319"/>
       <c r="C97" s="314"/>
-      <c r="D97" s="305" t="s">
+      <c r="D97" s="318" t="s">
         <v>1406</v>
       </c>
       <c r="E97" s="175"/>
@@ -23441,9 +23441,9 @@
     </row>
     <row r="98" spans="1:13" ht="14.25" customHeight="1">
       <c r="A98" s="232"/>
-      <c r="B98" s="306"/>
+      <c r="B98" s="319"/>
       <c r="C98" s="314"/>
-      <c r="D98" s="307"/>
+      <c r="D98" s="320"/>
       <c r="E98" s="175"/>
       <c r="F98" s="176"/>
       <c r="G98" s="177" t="s">
@@ -23462,9 +23462,9 @@
     </row>
     <row r="99" spans="1:13" s="161" customFormat="1" ht="214.5">
       <c r="A99" s="271"/>
-      <c r="B99" s="306"/>
+      <c r="B99" s="319"/>
       <c r="C99" s="314"/>
-      <c r="D99" s="333" t="s">
+      <c r="D99" s="334" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="183"/>
@@ -23485,9 +23485,9 @@
     </row>
     <row r="100" spans="1:13" s="277" customFormat="1" ht="33">
       <c r="A100" s="272"/>
-      <c r="B100" s="306"/>
+      <c r="B100" s="319"/>
       <c r="C100" s="315"/>
-      <c r="D100" s="333"/>
+      <c r="D100" s="334"/>
       <c r="E100" s="269"/>
       <c r="F100" s="273"/>
       <c r="G100" s="195" t="s">
@@ -23510,11 +23510,11 @@
     </row>
     <row r="101" spans="1:13" ht="14.25" customHeight="1">
       <c r="A101" s="232"/>
-      <c r="B101" s="306"/>
+      <c r="B101" s="319"/>
       <c r="C101" s="313" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="306" t="s">
+      <c r="D101" s="319" t="s">
         <v>1588</v>
       </c>
       <c r="E101" s="175"/>
@@ -23535,9 +23535,9 @@
     </row>
     <row r="102" spans="1:13" ht="14.25" customHeight="1">
       <c r="A102" s="232"/>
-      <c r="B102" s="306"/>
+      <c r="B102" s="319"/>
       <c r="C102" s="314"/>
-      <c r="D102" s="307"/>
+      <c r="D102" s="320"/>
       <c r="E102" s="175"/>
       <c r="F102" s="176"/>
       <c r="G102" s="177" t="s">
@@ -23556,7 +23556,7 @@
     </row>
     <row r="103" spans="1:13" ht="14.1" customHeight="1">
       <c r="A103" s="232"/>
-      <c r="B103" s="306"/>
+      <c r="B103" s="319"/>
       <c r="C103" s="314"/>
       <c r="D103" s="192" t="s">
         <v>1412</v>
@@ -23579,9 +23579,9 @@
     </row>
     <row r="104" spans="1:13" ht="66">
       <c r="A104" s="232"/>
-      <c r="B104" s="306"/>
+      <c r="B104" s="319"/>
       <c r="C104" s="314"/>
-      <c r="D104" s="305" t="s">
+      <c r="D104" s="318" t="s">
         <v>1599</v>
       </c>
       <c r="E104" s="175"/>
@@ -23606,9 +23606,9 @@
     </row>
     <row r="105" spans="1:13" ht="14.25" customHeight="1">
       <c r="A105" s="232"/>
-      <c r="B105" s="306"/>
+      <c r="B105" s="319"/>
       <c r="C105" s="314"/>
-      <c r="D105" s="306"/>
+      <c r="D105" s="319"/>
       <c r="E105" s="175"/>
       <c r="F105" s="176"/>
       <c r="G105" s="177" t="s">
@@ -23627,9 +23627,9 @@
     </row>
     <row r="106" spans="1:13" ht="14.25" customHeight="1">
       <c r="A106" s="232"/>
-      <c r="B106" s="306"/>
+      <c r="B106" s="319"/>
       <c r="C106" s="314"/>
-      <c r="D106" s="306"/>
+      <c r="D106" s="319"/>
       <c r="E106" s="175"/>
       <c r="F106" s="176"/>
       <c r="G106" s="177" t="s">
@@ -23648,9 +23648,9 @@
     </row>
     <row r="107" spans="1:13" ht="14.25" customHeight="1">
       <c r="A107" s="232"/>
-      <c r="B107" s="306"/>
+      <c r="B107" s="319"/>
       <c r="C107" s="314"/>
-      <c r="D107" s="307"/>
+      <c r="D107" s="320"/>
       <c r="E107" s="175"/>
       <c r="F107" s="176"/>
       <c r="G107" s="177" t="s">
@@ -23669,7 +23669,7 @@
     </row>
     <row r="108" spans="1:13" ht="14.25" customHeight="1">
       <c r="A108" s="232"/>
-      <c r="B108" s="306"/>
+      <c r="B108" s="319"/>
       <c r="C108" s="314"/>
       <c r="D108" s="192" t="s">
         <v>1385</v>
@@ -23692,7 +23692,7 @@
     </row>
     <row r="109" spans="1:13" ht="14.25" customHeight="1">
       <c r="A109" s="232"/>
-      <c r="B109" s="306"/>
+      <c r="B109" s="319"/>
       <c r="C109" s="314"/>
       <c r="D109" s="299" t="s">
         <v>3038</v>
@@ -23711,9 +23711,9 @@
     </row>
     <row r="110" spans="1:13" ht="14.25" customHeight="1">
       <c r="A110" s="232"/>
-      <c r="B110" s="306"/>
+      <c r="B110" s="319"/>
       <c r="C110" s="314"/>
-      <c r="D110" s="305" t="s">
+      <c r="D110" s="318" t="s">
         <v>1413</v>
       </c>
       <c r="E110" s="175"/>
@@ -23736,9 +23736,9 @@
     </row>
     <row r="111" spans="1:13" ht="14.25" customHeight="1">
       <c r="A111" s="232"/>
-      <c r="B111" s="306"/>
+      <c r="B111" s="319"/>
       <c r="C111" s="314"/>
-      <c r="D111" s="307"/>
+      <c r="D111" s="320"/>
       <c r="E111" s="175"/>
       <c r="F111" s="176"/>
       <c r="G111" s="177" t="s">
@@ -23759,9 +23759,9 @@
     </row>
     <row r="112" spans="1:13" ht="14.25" customHeight="1">
       <c r="A112" s="232"/>
-      <c r="B112" s="306"/>
+      <c r="B112" s="319"/>
       <c r="C112" s="314"/>
-      <c r="D112" s="330" t="s">
+      <c r="D112" s="331" t="s">
         <v>1418</v>
       </c>
       <c r="E112" s="175"/>
@@ -23782,9 +23782,9 @@
     </row>
     <row r="113" spans="1:13" ht="14.25" customHeight="1">
       <c r="A113" s="232"/>
-      <c r="B113" s="306"/>
+      <c r="B113" s="319"/>
       <c r="C113" s="314"/>
-      <c r="D113" s="331"/>
+      <c r="D113" s="332"/>
       <c r="E113" s="175"/>
       <c r="F113" s="176"/>
       <c r="G113" s="177" t="s">
@@ -23803,9 +23803,9 @@
     </row>
     <row r="114" spans="1:13" ht="14.25" customHeight="1">
       <c r="A114" s="232"/>
-      <c r="B114" s="306"/>
+      <c r="B114" s="319"/>
       <c r="C114" s="314"/>
-      <c r="D114" s="332"/>
+      <c r="D114" s="333"/>
       <c r="E114" s="175"/>
       <c r="F114" s="176"/>
       <c r="G114" s="177" t="s">
@@ -23824,7 +23824,7 @@
     </row>
     <row r="115" spans="1:13" ht="14.25" customHeight="1">
       <c r="A115" s="232"/>
-      <c r="B115" s="306"/>
+      <c r="B115" s="319"/>
       <c r="C115" s="314"/>
       <c r="D115" s="192" t="s">
         <v>9</v>
@@ -23847,9 +23847,9 @@
     </row>
     <row r="116" spans="1:13" ht="33">
       <c r="A116" s="232"/>
-      <c r="B116" s="306"/>
+      <c r="B116" s="319"/>
       <c r="C116" s="314"/>
-      <c r="D116" s="305" t="s">
+      <c r="D116" s="318" t="s">
         <v>1421</v>
       </c>
       <c r="E116" s="175"/>
@@ -23872,9 +23872,9 @@
     </row>
     <row r="117" spans="1:13" ht="14.25" customHeight="1">
       <c r="A117" s="232"/>
-      <c r="B117" s="306"/>
+      <c r="B117" s="319"/>
       <c r="C117" s="314"/>
-      <c r="D117" s="306"/>
+      <c r="D117" s="319"/>
       <c r="E117" s="175"/>
       <c r="F117" s="176"/>
       <c r="G117" s="177" t="s">
@@ -23893,9 +23893,9 @@
     </row>
     <row r="118" spans="1:13" ht="14.25" customHeight="1">
       <c r="A118" s="232"/>
-      <c r="B118" s="306"/>
+      <c r="B118" s="319"/>
       <c r="C118" s="315"/>
-      <c r="D118" s="307"/>
+      <c r="D118" s="320"/>
       <c r="E118" s="175"/>
       <c r="F118" s="176"/>
       <c r="G118" s="177" t="s">
@@ -23916,11 +23916,11 @@
     </row>
     <row r="119" spans="1:13" ht="14.25" customHeight="1">
       <c r="A119" s="232"/>
-      <c r="B119" s="306"/>
+      <c r="B119" s="319"/>
       <c r="C119" s="313" t="s">
         <v>1427</v>
       </c>
-      <c r="D119" s="305" t="s">
+      <c r="D119" s="318" t="s">
         <v>1428</v>
       </c>
       <c r="E119" s="175"/>
@@ -23941,9 +23941,9 @@
     </row>
     <row r="120" spans="1:13" ht="14.25" customHeight="1">
       <c r="A120" s="232"/>
-      <c r="B120" s="306"/>
+      <c r="B120" s="319"/>
       <c r="C120" s="314"/>
-      <c r="D120" s="307"/>
+      <c r="D120" s="320"/>
       <c r="E120" s="175"/>
       <c r="F120" s="176"/>
       <c r="G120" s="177" t="s">
@@ -23964,7 +23964,7 @@
     </row>
     <row r="121" spans="1:13" ht="14.25" customHeight="1">
       <c r="A121" s="181"/>
-      <c r="B121" s="306"/>
+      <c r="B121" s="319"/>
       <c r="C121" s="314"/>
       <c r="D121" s="192" t="s">
         <v>1431</v>
@@ -23989,7 +23989,7 @@
     </row>
     <row r="122" spans="1:13" ht="14.25" customHeight="1">
       <c r="A122" s="181"/>
-      <c r="B122" s="306"/>
+      <c r="B122" s="319"/>
       <c r="C122" s="314"/>
       <c r="D122" s="192" t="s">
         <v>1434</v>
@@ -24012,7 +24012,7 @@
     </row>
     <row r="123" spans="1:13" ht="14.25" customHeight="1">
       <c r="A123" s="181"/>
-      <c r="B123" s="306"/>
+      <c r="B123" s="319"/>
       <c r="C123" s="314"/>
       <c r="D123" s="303" t="s">
         <v>1436</v>
@@ -24037,9 +24037,9 @@
     </row>
     <row r="124" spans="1:13" ht="14.25" customHeight="1">
       <c r="A124" s="181"/>
-      <c r="B124" s="306"/>
+      <c r="B124" s="319"/>
       <c r="C124" s="314"/>
-      <c r="D124" s="310" t="s">
+      <c r="D124" s="316" t="s">
         <v>171</v>
       </c>
       <c r="E124" s="175"/>
@@ -24060,9 +24060,9 @@
     </row>
     <row r="125" spans="1:13" ht="14.25" customHeight="1">
       <c r="A125" s="181"/>
-      <c r="B125" s="306"/>
+      <c r="B125" s="319"/>
       <c r="C125" s="314"/>
-      <c r="D125" s="311"/>
+      <c r="D125" s="322"/>
       <c r="E125" s="175"/>
       <c r="F125" s="176"/>
       <c r="G125" s="177" t="s">
@@ -24083,9 +24083,9 @@
     </row>
     <row r="126" spans="1:13" ht="14.25" customHeight="1">
       <c r="A126" s="181"/>
-      <c r="B126" s="306"/>
+      <c r="B126" s="319"/>
       <c r="C126" s="314"/>
-      <c r="D126" s="311"/>
+      <c r="D126" s="322"/>
       <c r="E126" s="175"/>
       <c r="F126" s="176"/>
       <c r="G126" s="177" t="s">
@@ -24104,9 +24104,9 @@
     </row>
     <row r="127" spans="1:13" ht="14.25" customHeight="1">
       <c r="A127" s="181"/>
-      <c r="B127" s="306"/>
+      <c r="B127" s="319"/>
       <c r="C127" s="314"/>
-      <c r="D127" s="312"/>
+      <c r="D127" s="317"/>
       <c r="E127" s="175"/>
       <c r="F127" s="176"/>
       <c r="G127" s="177" t="s">
@@ -24127,9 +24127,9 @@
     </row>
     <row r="128" spans="1:13" ht="14.25" customHeight="1">
       <c r="A128" s="181"/>
-      <c r="B128" s="306"/>
+      <c r="B128" s="319"/>
       <c r="C128" s="314"/>
-      <c r="D128" s="310" t="s">
+      <c r="D128" s="316" t="s">
         <v>1438</v>
       </c>
       <c r="E128" s="175"/>
@@ -24150,9 +24150,9 @@
     </row>
     <row r="129" spans="1:13" ht="14.25" customHeight="1">
       <c r="A129" s="181"/>
-      <c r="B129" s="306"/>
+      <c r="B129" s="319"/>
       <c r="C129" s="314"/>
-      <c r="D129" s="312"/>
+      <c r="D129" s="317"/>
       <c r="E129" s="175"/>
       <c r="F129" s="176"/>
       <c r="G129" s="177" t="s">
@@ -24175,9 +24175,9 @@
     </row>
     <row r="130" spans="1:13" ht="14.25" customHeight="1">
       <c r="A130" s="181"/>
-      <c r="B130" s="306"/>
+      <c r="B130" s="319"/>
       <c r="C130" s="314"/>
-      <c r="D130" s="310" t="s">
+      <c r="D130" s="316" t="s">
         <v>1441</v>
       </c>
       <c r="E130" s="175"/>
@@ -24198,9 +24198,9 @@
     </row>
     <row r="131" spans="1:13" ht="14.25" customHeight="1">
       <c r="A131" s="181"/>
-      <c r="B131" s="306"/>
+      <c r="B131" s="319"/>
       <c r="C131" s="314"/>
-      <c r="D131" s="311"/>
+      <c r="D131" s="322"/>
       <c r="E131" s="175"/>
       <c r="F131" s="176"/>
       <c r="G131" s="197" t="s">
@@ -24219,9 +24219,9 @@
     </row>
     <row r="132" spans="1:13" ht="14.25" customHeight="1">
       <c r="A132" s="181"/>
-      <c r="B132" s="306"/>
+      <c r="B132" s="319"/>
       <c r="C132" s="314"/>
-      <c r="D132" s="312"/>
+      <c r="D132" s="317"/>
       <c r="E132" s="175"/>
       <c r="F132" s="176"/>
       <c r="G132" s="177" t="s">
@@ -24238,9 +24238,9 @@
     </row>
     <row r="133" spans="1:13" ht="51.75" customHeight="1">
       <c r="A133" s="181"/>
-      <c r="B133" s="306"/>
+      <c r="B133" s="319"/>
       <c r="C133" s="314"/>
-      <c r="D133" s="321" t="s">
+      <c r="D133" s="338" t="s">
         <v>166</v>
       </c>
       <c r="E133" s="175"/>
@@ -24259,9 +24259,9 @@
     </row>
     <row r="134" spans="1:13" ht="14.25" customHeight="1">
       <c r="A134" s="181"/>
-      <c r="B134" s="306"/>
+      <c r="B134" s="319"/>
       <c r="C134" s="314"/>
-      <c r="D134" s="321"/>
+      <c r="D134" s="338"/>
       <c r="E134" s="175"/>
       <c r="F134" s="176"/>
       <c r="G134" s="177" t="s">
@@ -24278,7 +24278,7 @@
     </row>
     <row r="135" spans="1:13" ht="14.25" customHeight="1">
       <c r="A135" s="181"/>
-      <c r="B135" s="306"/>
+      <c r="B135" s="319"/>
       <c r="C135" s="314"/>
       <c r="D135" s="304" t="s">
         <v>170</v>
@@ -24301,9 +24301,9 @@
     </row>
     <row r="136" spans="1:13" ht="14.25" customHeight="1">
       <c r="A136" s="181"/>
-      <c r="B136" s="306"/>
+      <c r="B136" s="319"/>
       <c r="C136" s="314"/>
-      <c r="D136" s="310" t="s">
+      <c r="D136" s="316" t="s">
         <v>13</v>
       </c>
       <c r="E136" s="175"/>
@@ -24324,9 +24324,9 @@
     </row>
     <row r="137" spans="1:13" ht="14.25" customHeight="1">
       <c r="A137" s="181"/>
-      <c r="B137" s="306"/>
+      <c r="B137" s="319"/>
       <c r="C137" s="314"/>
-      <c r="D137" s="311"/>
+      <c r="D137" s="322"/>
       <c r="E137" s="175"/>
       <c r="F137" s="176"/>
       <c r="G137" s="177" t="s">
@@ -24345,9 +24345,9 @@
     </row>
     <row r="138" spans="1:13" ht="14.25" customHeight="1">
       <c r="A138" s="181"/>
-      <c r="B138" s="306"/>
+      <c r="B138" s="319"/>
       <c r="C138" s="314"/>
-      <c r="D138" s="311"/>
+      <c r="D138" s="322"/>
       <c r="E138" s="175"/>
       <c r="F138" s="176"/>
       <c r="G138" s="177" t="s">
@@ -24366,9 +24366,9 @@
     </row>
     <row r="139" spans="1:13" ht="14.25" customHeight="1">
       <c r="A139" s="181"/>
-      <c r="B139" s="306"/>
+      <c r="B139" s="319"/>
       <c r="C139" s="314"/>
-      <c r="D139" s="311"/>
+      <c r="D139" s="322"/>
       <c r="E139" s="175"/>
       <c r="F139" s="176"/>
       <c r="G139" s="177" t="s">
@@ -24387,9 +24387,9 @@
     </row>
     <row r="140" spans="1:13" ht="14.25" customHeight="1">
       <c r="A140" s="181"/>
-      <c r="B140" s="306"/>
+      <c r="B140" s="319"/>
       <c r="C140" s="314"/>
-      <c r="D140" s="311"/>
+      <c r="D140" s="322"/>
       <c r="E140" s="175"/>
       <c r="F140" s="176"/>
       <c r="G140" s="177" t="s">
@@ -24408,9 +24408,9 @@
     </row>
     <row r="141" spans="1:13" ht="14.25" customHeight="1">
       <c r="A141" s="181"/>
-      <c r="B141" s="306"/>
+      <c r="B141" s="319"/>
       <c r="C141" s="314"/>
-      <c r="D141" s="311"/>
+      <c r="D141" s="322"/>
       <c r="E141" s="175"/>
       <c r="F141" s="176"/>
       <c r="G141" s="177" t="s">
@@ -24429,9 +24429,9 @@
     </row>
     <row r="142" spans="1:13" ht="14.25" customHeight="1">
       <c r="A142" s="181"/>
-      <c r="B142" s="306"/>
+      <c r="B142" s="319"/>
       <c r="C142" s="314"/>
-      <c r="D142" s="311"/>
+      <c r="D142" s="322"/>
       <c r="E142" s="175"/>
       <c r="F142" s="176"/>
       <c r="G142" s="177" t="s">
@@ -24450,9 +24450,9 @@
     </row>
     <row r="143" spans="1:13" ht="14.25" customHeight="1">
       <c r="A143" s="181"/>
-      <c r="B143" s="306"/>
+      <c r="B143" s="319"/>
       <c r="C143" s="315"/>
-      <c r="D143" s="312"/>
+      <c r="D143" s="317"/>
       <c r="E143" s="175"/>
       <c r="F143" s="176"/>
       <c r="G143" s="177" t="s">
@@ -24471,11 +24471,11 @@
     </row>
     <row r="144" spans="1:13" ht="14.25" customHeight="1">
       <c r="A144" s="181"/>
-      <c r="B144" s="306"/>
+      <c r="B144" s="319"/>
       <c r="C144" s="313" t="s">
         <v>18</v>
       </c>
-      <c r="D144" s="305" t="s">
+      <c r="D144" s="318" t="s">
         <v>19</v>
       </c>
       <c r="E144" s="175"/>
@@ -24496,9 +24496,9 @@
     </row>
     <row r="145" spans="1:13" ht="14.25" customHeight="1">
       <c r="A145" s="181"/>
-      <c r="B145" s="306"/>
+      <c r="B145" s="319"/>
       <c r="C145" s="314"/>
-      <c r="D145" s="306"/>
+      <c r="D145" s="319"/>
       <c r="E145" s="175"/>
       <c r="F145" s="176"/>
       <c r="G145" s="177" t="s">
@@ -24517,9 +24517,9 @@
     </row>
     <row r="146" spans="1:13" ht="14.25" customHeight="1">
       <c r="A146" s="181"/>
-      <c r="B146" s="306"/>
+      <c r="B146" s="319"/>
       <c r="C146" s="314"/>
-      <c r="D146" s="307"/>
+      <c r="D146" s="320"/>
       <c r="E146" s="175"/>
       <c r="F146" s="176"/>
       <c r="G146" s="177" t="s">
@@ -24538,9 +24538,9 @@
     </row>
     <row r="147" spans="1:13" ht="14.25" customHeight="1">
       <c r="A147" s="181"/>
-      <c r="B147" s="306"/>
+      <c r="B147" s="319"/>
       <c r="C147" s="314"/>
-      <c r="D147" s="305" t="s">
+      <c r="D147" s="318" t="s">
         <v>21</v>
       </c>
       <c r="E147" s="175"/>
@@ -24561,9 +24561,9 @@
     </row>
     <row r="148" spans="1:13" ht="14.25" customHeight="1">
       <c r="A148" s="181"/>
-      <c r="B148" s="306"/>
+      <c r="B148" s="319"/>
       <c r="C148" s="314"/>
-      <c r="D148" s="307"/>
+      <c r="D148" s="320"/>
       <c r="E148" s="175"/>
       <c r="F148" s="176"/>
       <c r="G148" s="177" t="s">
@@ -24582,7 +24582,7 @@
     </row>
     <row r="149" spans="1:13" ht="14.25" customHeight="1">
       <c r="A149" s="181"/>
-      <c r="B149" s="306"/>
+      <c r="B149" s="319"/>
       <c r="C149" s="315"/>
       <c r="D149" s="192" t="s">
         <v>27</v>
@@ -24605,11 +24605,11 @@
     </row>
     <row r="150" spans="1:13" ht="14.25" customHeight="1">
       <c r="A150" s="181"/>
-      <c r="B150" s="306"/>
+      <c r="B150" s="319"/>
       <c r="C150" s="313" t="s">
         <v>29</v>
       </c>
-      <c r="D150" s="305" t="s">
+      <c r="D150" s="318" t="s">
         <v>30</v>
       </c>
       <c r="E150" s="175"/>
@@ -24630,9 +24630,9 @@
     </row>
     <row r="151" spans="1:13" ht="14.25" customHeight="1">
       <c r="A151" s="181"/>
-      <c r="B151" s="306"/>
+      <c r="B151" s="319"/>
       <c r="C151" s="314"/>
-      <c r="D151" s="306"/>
+      <c r="D151" s="319"/>
       <c r="E151" s="175"/>
       <c r="F151" s="176"/>
       <c r="G151" s="177" t="s">
@@ -24651,9 +24651,9 @@
     </row>
     <row r="152" spans="1:13" ht="14.25" customHeight="1">
       <c r="A152" s="181"/>
-      <c r="B152" s="306"/>
+      <c r="B152" s="319"/>
       <c r="C152" s="314"/>
-      <c r="D152" s="306"/>
+      <c r="D152" s="319"/>
       <c r="E152" s="175"/>
       <c r="F152" s="176"/>
       <c r="G152" s="177" t="s">
@@ -24672,9 +24672,9 @@
     </row>
     <row r="153" spans="1:13" ht="14.25" customHeight="1">
       <c r="A153" s="181"/>
-      <c r="B153" s="306"/>
+      <c r="B153" s="319"/>
       <c r="C153" s="314"/>
-      <c r="D153" s="307"/>
+      <c r="D153" s="320"/>
       <c r="E153" s="175"/>
       <c r="F153" s="176"/>
       <c r="G153" s="177" t="s">
@@ -24691,9 +24691,9 @@
     </row>
     <row r="154" spans="1:13" ht="14.25" customHeight="1">
       <c r="A154" s="181"/>
-      <c r="B154" s="306"/>
+      <c r="B154" s="319"/>
       <c r="C154" s="314"/>
-      <c r="D154" s="308" t="s">
+      <c r="D154" s="336" t="s">
         <v>35</v>
       </c>
       <c r="E154" s="243"/>
@@ -24716,9 +24716,9 @@
     </row>
     <row r="155" spans="1:13" ht="14.25" customHeight="1">
       <c r="A155" s="181"/>
-      <c r="B155" s="306"/>
+      <c r="B155" s="319"/>
       <c r="C155" s="314"/>
-      <c r="D155" s="309"/>
+      <c r="D155" s="342"/>
       <c r="E155" s="243"/>
       <c r="F155" s="244"/>
       <c r="G155" s="177" t="s">
@@ -24737,7 +24737,7 @@
     </row>
     <row r="156" spans="1:13" ht="14.25" customHeight="1">
       <c r="A156" s="181"/>
-      <c r="B156" s="306"/>
+      <c r="B156" s="319"/>
       <c r="C156" s="314"/>
       <c r="D156" s="192" t="s">
         <v>38</v>
@@ -24760,7 +24760,7 @@
     </row>
     <row r="157" spans="1:13" ht="33">
       <c r="A157" s="181"/>
-      <c r="B157" s="306"/>
+      <c r="B157" s="319"/>
       <c r="C157" s="314"/>
       <c r="D157" s="192" t="s">
         <v>40</v>
@@ -24783,9 +24783,9 @@
     </row>
     <row r="158" spans="1:13" ht="14.25" customHeight="1">
       <c r="A158" s="181"/>
-      <c r="B158" s="306"/>
+      <c r="B158" s="319"/>
       <c r="C158" s="314"/>
-      <c r="D158" s="305" t="s">
+      <c r="D158" s="318" t="s">
         <v>42</v>
       </c>
       <c r="E158" s="175"/>
@@ -24808,9 +24808,9 @@
     </row>
     <row r="159" spans="1:13" ht="14.25" customHeight="1">
       <c r="A159" s="181"/>
-      <c r="B159" s="306"/>
+      <c r="B159" s="319"/>
       <c r="C159" s="314"/>
-      <c r="D159" s="306"/>
+      <c r="D159" s="319"/>
       <c r="E159" s="175"/>
       <c r="F159" s="176"/>
       <c r="G159" s="177" t="s">
@@ -24829,9 +24829,9 @@
     </row>
     <row r="160" spans="1:13" ht="33">
       <c r="A160" s="181"/>
-      <c r="B160" s="306"/>
+      <c r="B160" s="319"/>
       <c r="C160" s="314"/>
-      <c r="D160" s="306"/>
+      <c r="D160" s="319"/>
       <c r="E160" s="175"/>
       <c r="F160" s="176"/>
       <c r="G160" s="177" t="s">
@@ -24850,9 +24850,9 @@
     </row>
     <row r="161" spans="1:13" ht="14.25" customHeight="1">
       <c r="A161" s="181"/>
-      <c r="B161" s="306"/>
+      <c r="B161" s="319"/>
       <c r="C161" s="314"/>
-      <c r="D161" s="306"/>
+      <c r="D161" s="319"/>
       <c r="E161" s="175"/>
       <c r="F161" s="176"/>
       <c r="G161" s="177" t="s">
@@ -24871,9 +24871,9 @@
     </row>
     <row r="162" spans="1:13" s="296" customFormat="1" ht="14.25" customHeight="1">
       <c r="A162" s="288"/>
-      <c r="B162" s="306"/>
+      <c r="B162" s="319"/>
       <c r="C162" s="314"/>
-      <c r="D162" s="306"/>
+      <c r="D162" s="319"/>
       <c r="E162" s="289"/>
       <c r="F162" s="290"/>
       <c r="G162" s="291" t="s">
@@ -24892,9 +24892,9 @@
     </row>
     <row r="163" spans="1:13" ht="46.5" customHeight="1">
       <c r="A163" s="181"/>
-      <c r="B163" s="306"/>
+      <c r="B163" s="319"/>
       <c r="C163" s="314"/>
-      <c r="D163" s="306"/>
+      <c r="D163" s="319"/>
       <c r="E163" s="175"/>
       <c r="F163" s="176"/>
       <c r="G163" s="177" t="s">
@@ -24913,9 +24913,9 @@
     </row>
     <row r="164" spans="1:13" ht="33">
       <c r="A164" s="181"/>
-      <c r="B164" s="306"/>
+      <c r="B164" s="319"/>
       <c r="C164" s="314"/>
-      <c r="D164" s="306"/>
+      <c r="D164" s="319"/>
       <c r="E164" s="175"/>
       <c r="F164" s="176"/>
       <c r="G164" s="246" t="s">
@@ -24936,9 +24936,9 @@
     </row>
     <row r="165" spans="1:13" ht="14.25" customHeight="1">
       <c r="A165" s="181"/>
-      <c r="B165" s="306"/>
+      <c r="B165" s="319"/>
       <c r="C165" s="314"/>
-      <c r="D165" s="306"/>
+      <c r="D165" s="319"/>
       <c r="E165" s="175"/>
       <c r="F165" s="176"/>
       <c r="G165" s="177" t="s">
@@ -24957,9 +24957,9 @@
     </row>
     <row r="166" spans="1:13" ht="14.25" customHeight="1">
       <c r="A166" s="181"/>
-      <c r="B166" s="306"/>
+      <c r="B166" s="319"/>
       <c r="C166" s="314"/>
-      <c r="D166" s="306"/>
+      <c r="D166" s="319"/>
       <c r="E166" s="175"/>
       <c r="F166" s="176"/>
       <c r="G166" s="177" t="s">
@@ -24978,9 +24978,9 @@
     </row>
     <row r="167" spans="1:13" ht="33">
       <c r="A167" s="181"/>
-      <c r="B167" s="306"/>
+      <c r="B167" s="319"/>
       <c r="C167" s="315"/>
-      <c r="D167" s="307"/>
+      <c r="D167" s="320"/>
       <c r="E167" s="175"/>
       <c r="F167" s="176"/>
       <c r="G167" s="177" t="s">
@@ -24999,11 +24999,11 @@
     </row>
     <row r="168" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A168" s="181"/>
-      <c r="B168" s="306"/>
+      <c r="B168" s="319"/>
       <c r="C168" s="313" t="s">
         <v>53</v>
       </c>
-      <c r="D168" s="305" t="s">
+      <c r="D168" s="318" t="s">
         <v>106</v>
       </c>
       <c r="E168" s="175"/>
@@ -25020,9 +25020,9 @@
     </row>
     <row r="169" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A169" s="181"/>
-      <c r="B169" s="306"/>
+      <c r="B169" s="319"/>
       <c r="C169" s="314"/>
-      <c r="D169" s="306"/>
+      <c r="D169" s="319"/>
       <c r="E169" s="175"/>
       <c r="F169" s="176"/>
       <c r="G169" s="177" t="s">
@@ -25037,9 +25037,9 @@
     </row>
     <row r="170" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A170" s="181"/>
-      <c r="B170" s="306"/>
+      <c r="B170" s="319"/>
       <c r="C170" s="314"/>
-      <c r="D170" s="306"/>
+      <c r="D170" s="319"/>
       <c r="E170" s="175"/>
       <c r="F170" s="176"/>
       <c r="G170" s="177" t="s">
@@ -25054,9 +25054,9 @@
     </row>
     <row r="171" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A171" s="181"/>
-      <c r="B171" s="306"/>
+      <c r="B171" s="319"/>
       <c r="C171" s="314"/>
-      <c r="D171" s="306"/>
+      <c r="D171" s="319"/>
       <c r="E171" s="175"/>
       <c r="F171" s="176"/>
       <c r="G171" s="177" t="s">
@@ -25071,9 +25071,9 @@
     </row>
     <row r="172" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A172" s="181"/>
-      <c r="B172" s="306"/>
+      <c r="B172" s="319"/>
       <c r="C172" s="314"/>
-      <c r="D172" s="306"/>
+      <c r="D172" s="319"/>
       <c r="E172" s="175"/>
       <c r="F172" s="176"/>
       <c r="G172" s="177" t="s">
@@ -25088,9 +25088,9 @@
     </row>
     <row r="173" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A173" s="181"/>
-      <c r="B173" s="306"/>
+      <c r="B173" s="319"/>
       <c r="C173" s="314"/>
-      <c r="D173" s="306"/>
+      <c r="D173" s="319"/>
       <c r="E173" s="175"/>
       <c r="F173" s="176"/>
       <c r="G173" s="177" t="s">
@@ -25105,9 +25105,9 @@
     </row>
     <row r="174" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A174" s="181"/>
-      <c r="B174" s="306"/>
+      <c r="B174" s="319"/>
       <c r="C174" s="314"/>
-      <c r="D174" s="306"/>
+      <c r="D174" s="319"/>
       <c r="E174" s="175"/>
       <c r="F174" s="176"/>
       <c r="G174" s="177" t="s">
@@ -25122,9 +25122,9 @@
     </row>
     <row r="175" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A175" s="181"/>
-      <c r="B175" s="306"/>
+      <c r="B175" s="319"/>
       <c r="C175" s="314"/>
-      <c r="D175" s="306"/>
+      <c r="D175" s="319"/>
       <c r="E175" s="175"/>
       <c r="F175" s="176"/>
       <c r="G175" s="177" t="s">
@@ -25139,9 +25139,9 @@
     </row>
     <row r="176" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A176" s="181"/>
-      <c r="B176" s="306"/>
+      <c r="B176" s="319"/>
       <c r="C176" s="314"/>
-      <c r="D176" s="307"/>
+      <c r="D176" s="320"/>
       <c r="E176" s="175"/>
       <c r="F176" s="176"/>
       <c r="G176" s="177" t="s">
@@ -25156,9 +25156,9 @@
     </row>
     <row r="177" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A177" s="181"/>
-      <c r="B177" s="306"/>
+      <c r="B177" s="319"/>
       <c r="C177" s="314"/>
-      <c r="D177" s="305" t="s">
+      <c r="D177" s="318" t="s">
         <v>108</v>
       </c>
       <c r="E177" s="175"/>
@@ -25175,9 +25175,9 @@
     </row>
     <row r="178" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A178" s="181"/>
-      <c r="B178" s="306"/>
+      <c r="B178" s="319"/>
       <c r="C178" s="314"/>
-      <c r="D178" s="306"/>
+      <c r="D178" s="319"/>
       <c r="E178" s="175"/>
       <c r="F178" s="176"/>
       <c r="G178" s="177" t="s">
@@ -25192,9 +25192,9 @@
     </row>
     <row r="179" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A179" s="181"/>
-      <c r="B179" s="306"/>
+      <c r="B179" s="319"/>
       <c r="C179" s="314"/>
-      <c r="D179" s="306"/>
+      <c r="D179" s="319"/>
       <c r="E179" s="175"/>
       <c r="F179" s="176"/>
       <c r="G179" s="177" t="s">
@@ -25209,9 +25209,9 @@
     </row>
     <row r="180" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A180" s="181"/>
-      <c r="B180" s="306"/>
+      <c r="B180" s="319"/>
       <c r="C180" s="314"/>
-      <c r="D180" s="306"/>
+      <c r="D180" s="319"/>
       <c r="E180" s="175"/>
       <c r="F180" s="176"/>
       <c r="G180" s="177" t="s">
@@ -25226,9 +25226,9 @@
     </row>
     <row r="181" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A181" s="181"/>
-      <c r="B181" s="306"/>
+      <c r="B181" s="319"/>
       <c r="C181" s="314"/>
-      <c r="D181" s="306"/>
+      <c r="D181" s="319"/>
       <c r="E181" s="175"/>
       <c r="F181" s="176"/>
       <c r="G181" s="177" t="s">
@@ -25243,9 +25243,9 @@
     </row>
     <row r="182" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A182" s="181"/>
-      <c r="B182" s="306"/>
+      <c r="B182" s="319"/>
       <c r="C182" s="314"/>
-      <c r="D182" s="306"/>
+      <c r="D182" s="319"/>
       <c r="E182" s="175"/>
       <c r="F182" s="176"/>
       <c r="G182" s="177" t="s">
@@ -25260,9 +25260,9 @@
     </row>
     <row r="183" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A183" s="181"/>
-      <c r="B183" s="306"/>
+      <c r="B183" s="319"/>
       <c r="C183" s="314"/>
-      <c r="D183" s="306"/>
+      <c r="D183" s="319"/>
       <c r="E183" s="175"/>
       <c r="F183" s="176"/>
       <c r="G183" s="177" t="s">
@@ -25277,9 +25277,9 @@
     </row>
     <row r="184" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A184" s="181"/>
-      <c r="B184" s="306"/>
+      <c r="B184" s="319"/>
       <c r="C184" s="315"/>
-      <c r="D184" s="307"/>
+      <c r="D184" s="320"/>
       <c r="E184" s="175"/>
       <c r="F184" s="176"/>
       <c r="G184" s="177" t="s">
@@ -25294,8 +25294,8 @@
     </row>
     <row r="185" spans="1:13" ht="14.25" customHeight="1">
       <c r="A185" s="181"/>
-      <c r="B185" s="306"/>
-      <c r="C185" s="322" t="s">
+      <c r="B185" s="319"/>
+      <c r="C185" s="326" t="s">
         <v>54</v>
       </c>
       <c r="D185" s="192"/>
@@ -25315,8 +25315,8 @@
     </row>
     <row r="186" spans="1:13" ht="14.25" customHeight="1">
       <c r="A186" s="181"/>
-      <c r="B186" s="306"/>
-      <c r="C186" s="323"/>
+      <c r="B186" s="319"/>
+      <c r="C186" s="327"/>
       <c r="D186" s="197" t="s">
         <v>156</v>
       </c>
@@ -25336,8 +25336,8 @@
     </row>
     <row r="187" spans="1:13" ht="14.25" customHeight="1">
       <c r="A187" s="181"/>
-      <c r="B187" s="306"/>
-      <c r="C187" s="323"/>
+      <c r="B187" s="319"/>
+      <c r="C187" s="327"/>
       <c r="D187" s="251"/>
       <c r="E187" s="236"/>
       <c r="F187" s="250"/>
@@ -25355,8 +25355,8 @@
     </row>
     <row r="188" spans="1:13" ht="14.25" customHeight="1">
       <c r="A188" s="181"/>
-      <c r="B188" s="306"/>
-      <c r="C188" s="323"/>
+      <c r="B188" s="319"/>
+      <c r="C188" s="327"/>
       <c r="D188" s="193" t="s">
         <v>158</v>
       </c>
@@ -25374,8 +25374,8 @@
     </row>
     <row r="189" spans="1:13" ht="14.25" customHeight="1">
       <c r="A189" s="181"/>
-      <c r="B189" s="306"/>
-      <c r="C189" s="323"/>
+      <c r="B189" s="319"/>
+      <c r="C189" s="327"/>
       <c r="D189" s="193" t="s">
         <v>159</v>
       </c>
@@ -25393,8 +25393,8 @@
     </row>
     <row r="190" spans="1:13" ht="14.25" customHeight="1">
       <c r="A190" s="181"/>
-      <c r="B190" s="306"/>
-      <c r="C190" s="323"/>
+      <c r="B190" s="319"/>
+      <c r="C190" s="327"/>
       <c r="D190" s="193" t="s">
         <v>160</v>
       </c>
@@ -25412,8 +25412,8 @@
     </row>
     <row r="191" spans="1:13" ht="14.25" customHeight="1">
       <c r="A191" s="181"/>
-      <c r="B191" s="306"/>
-      <c r="C191" s="323"/>
+      <c r="B191" s="319"/>
+      <c r="C191" s="327"/>
       <c r="D191" s="193" t="s">
         <v>161</v>
       </c>
@@ -25431,8 +25431,8 @@
     </row>
     <row r="192" spans="1:13" ht="37.5" customHeight="1">
       <c r="A192" s="181"/>
-      <c r="B192" s="306"/>
-      <c r="C192" s="323"/>
+      <c r="B192" s="319"/>
+      <c r="C192" s="327"/>
       <c r="D192" s="253" t="s">
         <v>195</v>
       </c>
@@ -25450,8 +25450,8 @@
     </row>
     <row r="193" spans="1:13" ht="14.25" customHeight="1">
       <c r="A193" s="181"/>
-      <c r="B193" s="306"/>
-      <c r="C193" s="323"/>
+      <c r="B193" s="319"/>
+      <c r="C193" s="327"/>
       <c r="D193" s="193" t="s">
         <v>162</v>
       </c>
@@ -25469,8 +25469,8 @@
     </row>
     <row r="194" spans="1:13" ht="14.25" customHeight="1">
       <c r="A194" s="181"/>
-      <c r="B194" s="307"/>
-      <c r="C194" s="324"/>
+      <c r="B194" s="320"/>
+      <c r="C194" s="328"/>
       <c r="D194" s="193" t="s">
         <v>163</v>
       </c>
@@ -25488,13 +25488,13 @@
     </row>
     <row r="195" spans="1:13" ht="14.25" customHeight="1">
       <c r="A195" s="181"/>
-      <c r="B195" s="317" t="s">
+      <c r="B195" s="308" t="s">
         <v>128</v>
       </c>
       <c r="C195" s="313" t="s">
         <v>57</v>
       </c>
-      <c r="D195" s="305" t="s">
+      <c r="D195" s="318" t="s">
         <v>56</v>
       </c>
       <c r="E195" s="175"/>
@@ -25515,9 +25515,9 @@
     </row>
     <row r="196" spans="1:13" ht="14.25" customHeight="1">
       <c r="A196" s="181"/>
-      <c r="B196" s="318"/>
+      <c r="B196" s="309"/>
       <c r="C196" s="314"/>
-      <c r="D196" s="307"/>
+      <c r="D196" s="320"/>
       <c r="E196" s="175"/>
       <c r="F196" s="176"/>
       <c r="G196" s="177" t="s">
@@ -25536,7 +25536,7 @@
     </row>
     <row r="197" spans="1:13" ht="14.25" customHeight="1">
       <c r="A197" s="181"/>
-      <c r="B197" s="318"/>
+      <c r="B197" s="309"/>
       <c r="C197" s="314"/>
       <c r="D197" s="254" t="s">
         <v>2877</v>
@@ -25557,9 +25557,9 @@
     </row>
     <row r="198" spans="1:13" ht="14.25" customHeight="1">
       <c r="A198" s="181"/>
-      <c r="B198" s="318"/>
+      <c r="B198" s="309"/>
       <c r="C198" s="314"/>
-      <c r="D198" s="310" t="s">
+      <c r="D198" s="316" t="s">
         <v>61</v>
       </c>
       <c r="E198" s="175"/>
@@ -25578,9 +25578,9 @@
     </row>
     <row r="199" spans="1:13" ht="14.25" customHeight="1">
       <c r="A199" s="181"/>
-      <c r="B199" s="318"/>
+      <c r="B199" s="309"/>
       <c r="C199" s="314"/>
-      <c r="D199" s="311"/>
+      <c r="D199" s="322"/>
       <c r="E199" s="175"/>
       <c r="F199" s="176"/>
       <c r="G199" s="177" t="s">
@@ -25599,9 +25599,9 @@
     </row>
     <row r="200" spans="1:13" ht="14.25" customHeight="1">
       <c r="A200" s="181"/>
-      <c r="B200" s="318"/>
+      <c r="B200" s="309"/>
       <c r="C200" s="314"/>
-      <c r="D200" s="312"/>
+      <c r="D200" s="317"/>
       <c r="E200" s="175"/>
       <c r="F200" s="176"/>
       <c r="G200" s="177" t="s">
@@ -25618,9 +25618,9 @@
     </row>
     <row r="201" spans="1:13" ht="14.25" customHeight="1">
       <c r="A201" s="181"/>
-      <c r="B201" s="318"/>
+      <c r="B201" s="309"/>
       <c r="C201" s="314"/>
-      <c r="D201" s="310" t="s">
+      <c r="D201" s="316" t="s">
         <v>65</v>
       </c>
       <c r="E201" s="175"/>
@@ -25641,9 +25641,9 @@
     </row>
     <row r="202" spans="1:13" ht="33">
       <c r="A202" s="181"/>
-      <c r="B202" s="318"/>
+      <c r="B202" s="309"/>
       <c r="C202" s="314"/>
-      <c r="D202" s="312"/>
+      <c r="D202" s="317"/>
       <c r="E202" s="175"/>
       <c r="F202" s="176"/>
       <c r="G202" s="177" t="s">
@@ -25660,9 +25660,9 @@
     </row>
     <row r="203" spans="1:13" ht="14.25" customHeight="1">
       <c r="A203" s="181"/>
-      <c r="B203" s="318"/>
+      <c r="B203" s="309"/>
       <c r="C203" s="314"/>
-      <c r="D203" s="310" t="s">
+      <c r="D203" s="316" t="s">
         <v>68</v>
       </c>
       <c r="E203" s="175"/>
@@ -25681,9 +25681,9 @@
     </row>
     <row r="204" spans="1:13" ht="14.25" customHeight="1">
       <c r="A204" s="181"/>
-      <c r="B204" s="318"/>
+      <c r="B204" s="309"/>
       <c r="C204" s="314"/>
-      <c r="D204" s="312"/>
+      <c r="D204" s="317"/>
       <c r="E204" s="175"/>
       <c r="F204" s="176"/>
       <c r="G204" s="177" t="s">
@@ -25702,9 +25702,9 @@
     </row>
     <row r="205" spans="1:13" ht="14.25" customHeight="1">
       <c r="A205" s="181"/>
-      <c r="B205" s="318"/>
+      <c r="B205" s="309"/>
       <c r="C205" s="314"/>
-      <c r="D205" s="310" t="s">
+      <c r="D205" s="316" t="s">
         <v>70</v>
       </c>
       <c r="E205" s="175"/>
@@ -25723,9 +25723,9 @@
     </row>
     <row r="206" spans="1:13" ht="14.25" customHeight="1">
       <c r="A206" s="181"/>
-      <c r="B206" s="318"/>
+      <c r="B206" s="309"/>
       <c r="C206" s="314"/>
-      <c r="D206" s="311"/>
+      <c r="D206" s="322"/>
       <c r="E206" s="175"/>
       <c r="F206" s="176"/>
       <c r="G206" s="177" t="s">
@@ -25744,9 +25744,9 @@
     </row>
     <row r="207" spans="1:13" ht="14.25" customHeight="1">
       <c r="A207" s="181"/>
-      <c r="B207" s="318"/>
+      <c r="B207" s="309"/>
       <c r="C207" s="314"/>
-      <c r="D207" s="311"/>
+      <c r="D207" s="322"/>
       <c r="E207" s="175"/>
       <c r="F207" s="176"/>
       <c r="G207" s="177" t="s">
@@ -25763,9 +25763,9 @@
     </row>
     <row r="208" spans="1:13" ht="14.25" customHeight="1">
       <c r="A208" s="181"/>
-      <c r="B208" s="318"/>
+      <c r="B208" s="309"/>
       <c r="C208" s="314"/>
-      <c r="D208" s="311"/>
+      <c r="D208" s="322"/>
       <c r="E208" s="175"/>
       <c r="F208" s="176"/>
       <c r="G208" s="177" t="s">
@@ -25782,9 +25782,9 @@
     </row>
     <row r="209" spans="1:13" ht="14.25" customHeight="1">
       <c r="A209" s="181"/>
-      <c r="B209" s="318"/>
+      <c r="B209" s="309"/>
       <c r="C209" s="314"/>
-      <c r="D209" s="311"/>
+      <c r="D209" s="322"/>
       <c r="E209" s="175"/>
       <c r="F209" s="176"/>
       <c r="G209" s="177" t="s">
@@ -25801,9 +25801,9 @@
     </row>
     <row r="210" spans="1:13" ht="30" customHeight="1">
       <c r="A210" s="181"/>
-      <c r="B210" s="318"/>
+      <c r="B210" s="309"/>
       <c r="C210" s="315"/>
-      <c r="D210" s="312"/>
+      <c r="D210" s="317"/>
       <c r="E210" s="175"/>
       <c r="F210" s="176"/>
       <c r="G210" s="177" t="s">
@@ -25822,11 +25822,11 @@
     </row>
     <row r="211" spans="1:13" ht="14.25" customHeight="1">
       <c r="A211" s="181"/>
-      <c r="B211" s="318"/>
+      <c r="B211" s="309"/>
       <c r="C211" s="313" t="s">
         <v>112</v>
       </c>
-      <c r="D211" s="305" t="s">
+      <c r="D211" s="318" t="s">
         <v>1446</v>
       </c>
       <c r="E211" s="175"/>
@@ -25845,9 +25845,9 @@
     </row>
     <row r="212" spans="1:13" ht="14.25" customHeight="1">
       <c r="A212" s="181"/>
-      <c r="B212" s="318"/>
+      <c r="B212" s="309"/>
       <c r="C212" s="314"/>
-      <c r="D212" s="306"/>
+      <c r="D212" s="319"/>
       <c r="E212" s="175"/>
       <c r="F212" s="176"/>
       <c r="G212" s="177" t="s">
@@ -25864,9 +25864,9 @@
     </row>
     <row r="213" spans="1:13" ht="14.25" customHeight="1">
       <c r="A213" s="181"/>
-      <c r="B213" s="318"/>
+      <c r="B213" s="309"/>
       <c r="C213" s="314"/>
-      <c r="D213" s="306"/>
+      <c r="D213" s="319"/>
       <c r="E213" s="175"/>
       <c r="F213" s="176"/>
       <c r="G213" s="177" t="s">
@@ -25883,9 +25883,9 @@
     </row>
     <row r="214" spans="1:13" ht="14.25" customHeight="1">
       <c r="A214" s="181"/>
-      <c r="B214" s="318"/>
+      <c r="B214" s="309"/>
       <c r="C214" s="314"/>
-      <c r="D214" s="306"/>
+      <c r="D214" s="319"/>
       <c r="E214" s="175"/>
       <c r="F214" s="176"/>
       <c r="G214" s="177" t="s">
@@ -25902,9 +25902,9 @@
     </row>
     <row r="215" spans="1:13" ht="14.25" customHeight="1">
       <c r="A215" s="181"/>
-      <c r="B215" s="318"/>
+      <c r="B215" s="309"/>
       <c r="C215" s="314"/>
-      <c r="D215" s="306"/>
+      <c r="D215" s="319"/>
       <c r="E215" s="175"/>
       <c r="F215" s="176"/>
       <c r="G215" s="177" t="s">
@@ -25921,9 +25921,9 @@
     </row>
     <row r="216" spans="1:13" ht="14.25" customHeight="1">
       <c r="A216" s="181"/>
-      <c r="B216" s="318"/>
+      <c r="B216" s="309"/>
       <c r="C216" s="314"/>
-      <c r="D216" s="306"/>
+      <c r="D216" s="319"/>
       <c r="E216" s="175"/>
       <c r="F216" s="176"/>
       <c r="G216" s="177" t="s">
@@ -25940,9 +25940,9 @@
     </row>
     <row r="217" spans="1:13" ht="14.25" customHeight="1">
       <c r="A217" s="181"/>
-      <c r="B217" s="318"/>
+      <c r="B217" s="309"/>
       <c r="C217" s="314"/>
-      <c r="D217" s="306"/>
+      <c r="D217" s="319"/>
       <c r="E217" s="175"/>
       <c r="F217" s="176"/>
       <c r="G217" s="177" t="s">
@@ -25959,9 +25959,9 @@
     </row>
     <row r="218" spans="1:13" ht="14.25" customHeight="1">
       <c r="A218" s="181"/>
-      <c r="B218" s="318"/>
+      <c r="B218" s="309"/>
       <c r="C218" s="314"/>
-      <c r="D218" s="306"/>
+      <c r="D218" s="319"/>
       <c r="E218" s="175"/>
       <c r="F218" s="176"/>
       <c r="G218" s="177" t="s">
@@ -25978,9 +25978,9 @@
     </row>
     <row r="219" spans="1:13" ht="14.25" customHeight="1">
       <c r="A219" s="181"/>
-      <c r="B219" s="318"/>
+      <c r="B219" s="309"/>
       <c r="C219" s="314"/>
-      <c r="D219" s="306"/>
+      <c r="D219" s="319"/>
       <c r="E219" s="175"/>
       <c r="F219" s="176"/>
       <c r="G219" s="177" t="s">
@@ -25997,9 +25997,9 @@
     </row>
     <row r="220" spans="1:13" ht="14.25" customHeight="1">
       <c r="A220" s="181"/>
-      <c r="B220" s="318"/>
+      <c r="B220" s="309"/>
       <c r="C220" s="314"/>
-      <c r="D220" s="306"/>
+      <c r="D220" s="319"/>
       <c r="E220" s="175"/>
       <c r="F220" s="176"/>
       <c r="G220" s="177" t="s">
@@ -26016,9 +26016,9 @@
     </row>
     <row r="221" spans="1:13" ht="14.25" customHeight="1">
       <c r="A221" s="181"/>
-      <c r="B221" s="318"/>
+      <c r="B221" s="309"/>
       <c r="C221" s="314"/>
-      <c r="D221" s="306"/>
+      <c r="D221" s="319"/>
       <c r="E221" s="175"/>
       <c r="F221" s="176"/>
       <c r="G221" s="177" t="s">
@@ -26035,9 +26035,9 @@
     </row>
     <row r="222" spans="1:13" ht="14.25" customHeight="1">
       <c r="A222" s="181"/>
-      <c r="B222" s="318"/>
+      <c r="B222" s="309"/>
       <c r="C222" s="314"/>
-      <c r="D222" s="306"/>
+      <c r="D222" s="319"/>
       <c r="E222" s="175"/>
       <c r="F222" s="176"/>
       <c r="G222" s="177" t="s">
@@ -26054,9 +26054,9 @@
     </row>
     <row r="223" spans="1:13" ht="14.25" customHeight="1">
       <c r="A223" s="181"/>
-      <c r="B223" s="318"/>
+      <c r="B223" s="309"/>
       <c r="C223" s="314"/>
-      <c r="D223" s="306"/>
+      <c r="D223" s="319"/>
       <c r="E223" s="175"/>
       <c r="F223" s="176"/>
       <c r="G223" s="177" t="s">
@@ -26073,9 +26073,9 @@
     </row>
     <row r="224" spans="1:13" ht="14.25" customHeight="1">
       <c r="A224" s="181"/>
-      <c r="B224" s="318"/>
+      <c r="B224" s="309"/>
       <c r="C224" s="314"/>
-      <c r="D224" s="306"/>
+      <c r="D224" s="319"/>
       <c r="E224" s="175"/>
       <c r="F224" s="176"/>
       <c r="G224" s="177" t="s">
@@ -26092,9 +26092,9 @@
     </row>
     <row r="225" spans="1:13" ht="14.25" customHeight="1">
       <c r="A225" s="181"/>
-      <c r="B225" s="318"/>
+      <c r="B225" s="309"/>
       <c r="C225" s="314"/>
-      <c r="D225" s="306"/>
+      <c r="D225" s="319"/>
       <c r="E225" s="175"/>
       <c r="F225" s="176"/>
       <c r="G225" s="177" t="s">
@@ -26111,9 +26111,9 @@
     </row>
     <row r="226" spans="1:13" ht="14.25" customHeight="1">
       <c r="A226" s="181"/>
-      <c r="B226" s="318"/>
+      <c r="B226" s="309"/>
       <c r="C226" s="314"/>
-      <c r="D226" s="306"/>
+      <c r="D226" s="319"/>
       <c r="E226" s="175"/>
       <c r="F226" s="176"/>
       <c r="G226" s="177" t="s">
@@ -26130,9 +26130,9 @@
     </row>
     <row r="227" spans="1:13" ht="14.25" customHeight="1">
       <c r="A227" s="181"/>
-      <c r="B227" s="318"/>
+      <c r="B227" s="309"/>
       <c r="C227" s="314"/>
-      <c r="D227" s="306"/>
+      <c r="D227" s="319"/>
       <c r="E227" s="175"/>
       <c r="F227" s="176"/>
       <c r="G227" s="177" t="s">
@@ -26149,9 +26149,9 @@
     </row>
     <row r="228" spans="1:13" ht="14.25" customHeight="1">
       <c r="A228" s="181"/>
-      <c r="B228" s="318"/>
+      <c r="B228" s="309"/>
       <c r="C228" s="314"/>
-      <c r="D228" s="306"/>
+      <c r="D228" s="319"/>
       <c r="E228" s="175"/>
       <c r="F228" s="176"/>
       <c r="G228" s="177" t="s">
@@ -26168,9 +26168,9 @@
     </row>
     <row r="229" spans="1:13" ht="14.25" customHeight="1">
       <c r="A229" s="181"/>
-      <c r="B229" s="318"/>
+      <c r="B229" s="309"/>
       <c r="C229" s="314"/>
-      <c r="D229" s="306"/>
+      <c r="D229" s="319"/>
       <c r="E229" s="175"/>
       <c r="F229" s="176"/>
       <c r="G229" s="177" t="s">
@@ -26187,9 +26187,9 @@
     </row>
     <row r="230" spans="1:13" ht="14.25" customHeight="1">
       <c r="A230" s="181"/>
-      <c r="B230" s="318"/>
+      <c r="B230" s="309"/>
       <c r="C230" s="314"/>
-      <c r="D230" s="306"/>
+      <c r="D230" s="319"/>
       <c r="E230" s="175"/>
       <c r="F230" s="176"/>
       <c r="G230" s="177" t="s">
@@ -26206,9 +26206,9 @@
     </row>
     <row r="231" spans="1:13" ht="14.25" customHeight="1">
       <c r="A231" s="181"/>
-      <c r="B231" s="318"/>
+      <c r="B231" s="309"/>
       <c r="C231" s="314"/>
-      <c r="D231" s="306"/>
+      <c r="D231" s="319"/>
       <c r="E231" s="175"/>
       <c r="F231" s="176"/>
       <c r="G231" s="177" t="s">
@@ -26225,9 +26225,9 @@
     </row>
     <row r="232" spans="1:13" ht="14.25" customHeight="1">
       <c r="A232" s="181"/>
-      <c r="B232" s="318"/>
+      <c r="B232" s="309"/>
       <c r="C232" s="314"/>
-      <c r="D232" s="306"/>
+      <c r="D232" s="319"/>
       <c r="E232" s="175"/>
       <c r="F232" s="176"/>
       <c r="G232" s="177" t="s">
@@ -26244,9 +26244,9 @@
     </row>
     <row r="233" spans="1:13" ht="14.25" customHeight="1">
       <c r="A233" s="181"/>
-      <c r="B233" s="318"/>
+      <c r="B233" s="309"/>
       <c r="C233" s="314"/>
-      <c r="D233" s="306"/>
+      <c r="D233" s="319"/>
       <c r="E233" s="175"/>
       <c r="F233" s="176"/>
       <c r="G233" s="177" t="s">
@@ -26263,9 +26263,9 @@
     </row>
     <row r="234" spans="1:13" ht="14.25" customHeight="1">
       <c r="A234" s="181"/>
-      <c r="B234" s="318"/>
+      <c r="B234" s="309"/>
       <c r="C234" s="314"/>
-      <c r="D234" s="306"/>
+      <c r="D234" s="319"/>
       <c r="E234" s="175"/>
       <c r="F234" s="176"/>
       <c r="G234" s="177" t="s">
@@ -26282,9 +26282,9 @@
     </row>
     <row r="235" spans="1:13" ht="14.25" customHeight="1">
       <c r="A235" s="181"/>
-      <c r="B235" s="318"/>
+      <c r="B235" s="309"/>
       <c r="C235" s="314"/>
-      <c r="D235" s="306"/>
+      <c r="D235" s="319"/>
       <c r="E235" s="175"/>
       <c r="F235" s="176"/>
       <c r="G235" s="177" t="s">
@@ -26301,9 +26301,9 @@
     </row>
     <row r="236" spans="1:13" ht="14.25" customHeight="1">
       <c r="A236" s="181"/>
-      <c r="B236" s="318"/>
+      <c r="B236" s="309"/>
       <c r="C236" s="314"/>
-      <c r="D236" s="306"/>
+      <c r="D236" s="319"/>
       <c r="E236" s="175"/>
       <c r="F236" s="176"/>
       <c r="G236" s="177" t="s">
@@ -26320,9 +26320,9 @@
     </row>
     <row r="237" spans="1:13" ht="14.25" customHeight="1">
       <c r="A237" s="181"/>
-      <c r="B237" s="318"/>
+      <c r="B237" s="309"/>
       <c r="C237" s="314"/>
-      <c r="D237" s="306"/>
+      <c r="D237" s="319"/>
       <c r="E237" s="175"/>
       <c r="F237" s="176"/>
       <c r="G237" s="177" t="s">
@@ -26339,9 +26339,9 @@
     </row>
     <row r="238" spans="1:13" ht="14.25" customHeight="1">
       <c r="A238" s="181"/>
-      <c r="B238" s="318"/>
+      <c r="B238" s="309"/>
       <c r="C238" s="314"/>
-      <c r="D238" s="306"/>
+      <c r="D238" s="319"/>
       <c r="E238" s="175"/>
       <c r="F238" s="176"/>
       <c r="G238" s="177" t="s">
@@ -26358,9 +26358,9 @@
     </row>
     <row r="239" spans="1:13" ht="14.25" customHeight="1">
       <c r="A239" s="181"/>
-      <c r="B239" s="318"/>
+      <c r="B239" s="309"/>
       <c r="C239" s="314"/>
-      <c r="D239" s="306"/>
+      <c r="D239" s="319"/>
       <c r="E239" s="175"/>
       <c r="F239" s="176"/>
       <c r="G239" s="177" t="s">
@@ -26377,9 +26377,9 @@
     </row>
     <row r="240" spans="1:13" ht="14.25" customHeight="1">
       <c r="A240" s="181"/>
-      <c r="B240" s="318"/>
+      <c r="B240" s="309"/>
       <c r="C240" s="314"/>
-      <c r="D240" s="306"/>
+      <c r="D240" s="319"/>
       <c r="E240" s="175"/>
       <c r="F240" s="176"/>
       <c r="G240" s="177" t="s">
@@ -26396,9 +26396,9 @@
     </row>
     <row r="241" spans="1:13" ht="14.25" customHeight="1">
       <c r="A241" s="181"/>
-      <c r="B241" s="318"/>
+      <c r="B241" s="309"/>
       <c r="C241" s="315"/>
-      <c r="D241" s="307"/>
+      <c r="D241" s="320"/>
       <c r="E241" s="175"/>
       <c r="F241" s="176"/>
       <c r="G241" s="177" t="s">
@@ -26415,11 +26415,11 @@
     </row>
     <row r="242" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A242" s="288"/>
-      <c r="B242" s="318"/>
-      <c r="C242" s="325" t="s">
+      <c r="B242" s="309"/>
+      <c r="C242" s="339" t="s">
         <v>1463</v>
       </c>
-      <c r="D242" s="340" t="s">
+      <c r="D242" s="323" t="s">
         <v>133</v>
       </c>
       <c r="E242" s="289"/>
@@ -26438,9 +26438,9 @@
     </row>
     <row r="243" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A243" s="288"/>
-      <c r="B243" s="318"/>
-      <c r="C243" s="326"/>
-      <c r="D243" s="341"/>
+      <c r="B243" s="309"/>
+      <c r="C243" s="340"/>
+      <c r="D243" s="324"/>
       <c r="E243" s="289"/>
       <c r="F243" s="290"/>
       <c r="G243" s="291" t="s">
@@ -26457,9 +26457,9 @@
     </row>
     <row r="244" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A244" s="288"/>
-      <c r="B244" s="318"/>
-      <c r="C244" s="326"/>
-      <c r="D244" s="341"/>
+      <c r="B244" s="309"/>
+      <c r="C244" s="340"/>
+      <c r="D244" s="324"/>
       <c r="E244" s="289"/>
       <c r="F244" s="290"/>
       <c r="G244" s="291" t="s">
@@ -26476,9 +26476,9 @@
     </row>
     <row r="245" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A245" s="288"/>
-      <c r="B245" s="318"/>
-      <c r="C245" s="326"/>
-      <c r="D245" s="341"/>
+      <c r="B245" s="309"/>
+      <c r="C245" s="340"/>
+      <c r="D245" s="324"/>
       <c r="E245" s="289"/>
       <c r="F245" s="290"/>
       <c r="G245" s="291" t="s">
@@ -26495,9 +26495,9 @@
     </row>
     <row r="246" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A246" s="288"/>
-      <c r="B246" s="318"/>
-      <c r="C246" s="326"/>
-      <c r="D246" s="341"/>
+      <c r="B246" s="309"/>
+      <c r="C246" s="340"/>
+      <c r="D246" s="324"/>
       <c r="E246" s="289"/>
       <c r="F246" s="290"/>
       <c r="G246" s="291" t="s">
@@ -26514,9 +26514,9 @@
     </row>
     <row r="247" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A247" s="288"/>
-      <c r="B247" s="318"/>
-      <c r="C247" s="326"/>
-      <c r="D247" s="341"/>
+      <c r="B247" s="309"/>
+      <c r="C247" s="340"/>
+      <c r="D247" s="324"/>
       <c r="E247" s="289"/>
       <c r="F247" s="290"/>
       <c r="G247" s="291" t="s">
@@ -26533,9 +26533,9 @@
     </row>
     <row r="248" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A248" s="288"/>
-      <c r="B248" s="318"/>
-      <c r="C248" s="326"/>
-      <c r="D248" s="341"/>
+      <c r="B248" s="309"/>
+      <c r="C248" s="340"/>
+      <c r="D248" s="324"/>
       <c r="E248" s="289"/>
       <c r="F248" s="290"/>
       <c r="G248" s="291" t="s">
@@ -26552,9 +26552,9 @@
     </row>
     <row r="249" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A249" s="288"/>
-      <c r="B249" s="318"/>
-      <c r="C249" s="326"/>
-      <c r="D249" s="341"/>
+      <c r="B249" s="309"/>
+      <c r="C249" s="340"/>
+      <c r="D249" s="324"/>
       <c r="E249" s="289"/>
       <c r="F249" s="290"/>
       <c r="G249" s="291" t="s">
@@ -26571,9 +26571,9 @@
     </row>
     <row r="250" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A250" s="288"/>
-      <c r="B250" s="318"/>
-      <c r="C250" s="326"/>
-      <c r="D250" s="341"/>
+      <c r="B250" s="309"/>
+      <c r="C250" s="340"/>
+      <c r="D250" s="324"/>
       <c r="E250" s="289"/>
       <c r="F250" s="290"/>
       <c r="G250" s="291" t="s">
@@ -26590,9 +26590,9 @@
     </row>
     <row r="251" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A251" s="288"/>
-      <c r="B251" s="318"/>
-      <c r="C251" s="326"/>
-      <c r="D251" s="341"/>
+      <c r="B251" s="309"/>
+      <c r="C251" s="340"/>
+      <c r="D251" s="324"/>
       <c r="E251" s="289"/>
       <c r="F251" s="290"/>
       <c r="G251" s="291" t="s">
@@ -26609,9 +26609,9 @@
     </row>
     <row r="252" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A252" s="288"/>
-      <c r="B252" s="318"/>
-      <c r="C252" s="326"/>
-      <c r="D252" s="341"/>
+      <c r="B252" s="309"/>
+      <c r="C252" s="340"/>
+      <c r="D252" s="324"/>
       <c r="E252" s="289"/>
       <c r="F252" s="290"/>
       <c r="G252" s="291" t="s">
@@ -26628,9 +26628,9 @@
     </row>
     <row r="253" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A253" s="288"/>
-      <c r="B253" s="318"/>
-      <c r="C253" s="326"/>
-      <c r="D253" s="341"/>
+      <c r="B253" s="309"/>
+      <c r="C253" s="340"/>
+      <c r="D253" s="324"/>
       <c r="E253" s="289"/>
       <c r="F253" s="290"/>
       <c r="G253" s="291" t="s">
@@ -26647,9 +26647,9 @@
     </row>
     <row r="254" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A254" s="288"/>
-      <c r="B254" s="318"/>
-      <c r="C254" s="326"/>
-      <c r="D254" s="341"/>
+      <c r="B254" s="309"/>
+      <c r="C254" s="340"/>
+      <c r="D254" s="324"/>
       <c r="E254" s="289"/>
       <c r="F254" s="290"/>
       <c r="G254" s="291" t="s">
@@ -26666,9 +26666,9 @@
     </row>
     <row r="255" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A255" s="288"/>
-      <c r="B255" s="318"/>
-      <c r="C255" s="326"/>
-      <c r="D255" s="341"/>
+      <c r="B255" s="309"/>
+      <c r="C255" s="340"/>
+      <c r="D255" s="324"/>
       <c r="E255" s="289"/>
       <c r="F255" s="290"/>
       <c r="G255" s="291" t="s">
@@ -26685,9 +26685,9 @@
     </row>
     <row r="256" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A256" s="288"/>
-      <c r="B256" s="318"/>
-      <c r="C256" s="326"/>
-      <c r="D256" s="341"/>
+      <c r="B256" s="309"/>
+      <c r="C256" s="340"/>
+      <c r="D256" s="324"/>
       <c r="E256" s="289"/>
       <c r="F256" s="290"/>
       <c r="G256" s="291" t="s">
@@ -26704,9 +26704,9 @@
     </row>
     <row r="257" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A257" s="288"/>
-      <c r="B257" s="318"/>
-      <c r="C257" s="326"/>
-      <c r="D257" s="341"/>
+      <c r="B257" s="309"/>
+      <c r="C257" s="340"/>
+      <c r="D257" s="324"/>
       <c r="E257" s="289"/>
       <c r="F257" s="290"/>
       <c r="G257" s="291" t="s">
@@ -26723,9 +26723,9 @@
     </row>
     <row r="258" spans="1:13" s="296" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A258" s="288"/>
-      <c r="B258" s="318"/>
-      <c r="C258" s="327"/>
-      <c r="D258" s="342"/>
+      <c r="B258" s="309"/>
+      <c r="C258" s="341"/>
+      <c r="D258" s="325"/>
       <c r="E258" s="289"/>
       <c r="F258" s="290"/>
       <c r="G258" s="291" t="s">
@@ -26742,11 +26742,11 @@
     </row>
     <row r="259" spans="1:13" ht="14.25" customHeight="1">
       <c r="A259" s="181"/>
-      <c r="B259" s="318"/>
-      <c r="C259" s="322" t="s">
+      <c r="B259" s="309"/>
+      <c r="C259" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="D259" s="305" t="s">
+      <c r="D259" s="318" t="s">
         <v>1469</v>
       </c>
       <c r="E259" s="175"/>
@@ -26765,9 +26765,9 @@
     </row>
     <row r="260" spans="1:13" ht="14.25" customHeight="1">
       <c r="A260" s="181"/>
-      <c r="B260" s="318"/>
-      <c r="C260" s="323"/>
-      <c r="D260" s="306"/>
+      <c r="B260" s="309"/>
+      <c r="C260" s="327"/>
+      <c r="D260" s="319"/>
       <c r="E260" s="175"/>
       <c r="F260" s="175"/>
       <c r="G260" s="177" t="s">
@@ -26784,9 +26784,9 @@
     </row>
     <row r="261" spans="1:13" ht="14.25" customHeight="1">
       <c r="A261" s="181"/>
-      <c r="B261" s="318"/>
-      <c r="C261" s="323"/>
-      <c r="D261" s="306"/>
+      <c r="B261" s="309"/>
+      <c r="C261" s="327"/>
+      <c r="D261" s="319"/>
       <c r="E261" s="175"/>
       <c r="F261" s="175"/>
       <c r="G261" s="177" t="s">
@@ -26803,9 +26803,9 @@
     </row>
     <row r="262" spans="1:13" ht="14.25" customHeight="1">
       <c r="A262" s="181"/>
-      <c r="B262" s="318"/>
-      <c r="C262" s="323"/>
-      <c r="D262" s="306"/>
+      <c r="B262" s="309"/>
+      <c r="C262" s="327"/>
+      <c r="D262" s="319"/>
       <c r="E262" s="175"/>
       <c r="F262" s="175"/>
       <c r="G262" s="177" t="s">
@@ -26822,9 +26822,9 @@
     </row>
     <row r="263" spans="1:13" ht="14.25" customHeight="1">
       <c r="A263" s="181"/>
-      <c r="B263" s="318"/>
-      <c r="C263" s="323"/>
-      <c r="D263" s="306"/>
+      <c r="B263" s="309"/>
+      <c r="C263" s="327"/>
+      <c r="D263" s="319"/>
       <c r="E263" s="175"/>
       <c r="F263" s="175"/>
       <c r="G263" s="177" t="s">
@@ -26841,9 +26841,9 @@
     </row>
     <row r="264" spans="1:13" ht="14.25" customHeight="1">
       <c r="A264" s="181"/>
-      <c r="B264" s="318"/>
-      <c r="C264" s="323"/>
-      <c r="D264" s="306"/>
+      <c r="B264" s="309"/>
+      <c r="C264" s="327"/>
+      <c r="D264" s="319"/>
       <c r="E264" s="175"/>
       <c r="F264" s="175"/>
       <c r="G264" s="177" t="s">
@@ -26860,9 +26860,9 @@
     </row>
     <row r="265" spans="1:13" ht="14.25" customHeight="1">
       <c r="A265" s="181"/>
-      <c r="B265" s="318"/>
-      <c r="C265" s="323"/>
-      <c r="D265" s="306"/>
+      <c r="B265" s="309"/>
+      <c r="C265" s="327"/>
+      <c r="D265" s="319"/>
       <c r="E265" s="175"/>
       <c r="F265" s="175"/>
       <c r="G265" s="177" t="s">
@@ -26879,9 +26879,9 @@
     </row>
     <row r="266" spans="1:13" ht="14.25" customHeight="1">
       <c r="A266" s="181"/>
-      <c r="B266" s="318"/>
-      <c r="C266" s="323"/>
-      <c r="D266" s="306"/>
+      <c r="B266" s="309"/>
+      <c r="C266" s="327"/>
+      <c r="D266" s="319"/>
       <c r="E266" s="175"/>
       <c r="F266" s="175"/>
       <c r="G266" s="177" t="s">
@@ -26898,9 +26898,9 @@
     </row>
     <row r="267" spans="1:13" ht="14.25" customHeight="1">
       <c r="A267" s="181"/>
-      <c r="B267" s="318"/>
-      <c r="C267" s="323"/>
-      <c r="D267" s="306"/>
+      <c r="B267" s="309"/>
+      <c r="C267" s="327"/>
+      <c r="D267" s="319"/>
       <c r="E267" s="175"/>
       <c r="F267" s="175"/>
       <c r="G267" s="177" t="s">
@@ -26917,9 +26917,9 @@
     </row>
     <row r="268" spans="1:13" ht="14.25" customHeight="1">
       <c r="A268" s="181"/>
-      <c r="B268" s="318"/>
-      <c r="C268" s="323"/>
-      <c r="D268" s="306"/>
+      <c r="B268" s="309"/>
+      <c r="C268" s="327"/>
+      <c r="D268" s="319"/>
       <c r="E268" s="175"/>
       <c r="F268" s="175"/>
       <c r="G268" s="177" t="s">
@@ -26936,9 +26936,9 @@
     </row>
     <row r="269" spans="1:13" ht="14.25" customHeight="1">
       <c r="A269" s="181"/>
-      <c r="B269" s="318"/>
-      <c r="C269" s="323"/>
-      <c r="D269" s="306"/>
+      <c r="B269" s="309"/>
+      <c r="C269" s="327"/>
+      <c r="D269" s="319"/>
       <c r="E269" s="175"/>
       <c r="F269" s="175"/>
       <c r="G269" s="177" t="s">
@@ -26955,9 +26955,9 @@
     </row>
     <row r="270" spans="1:13" ht="14.25" customHeight="1">
       <c r="A270" s="181"/>
-      <c r="B270" s="318"/>
-      <c r="C270" s="323"/>
-      <c r="D270" s="306"/>
+      <c r="B270" s="309"/>
+      <c r="C270" s="327"/>
+      <c r="D270" s="319"/>
       <c r="E270" s="175"/>
       <c r="F270" s="175"/>
       <c r="G270" s="177" t="s">
@@ -26974,9 +26974,9 @@
     </row>
     <row r="271" spans="1:13" ht="14.25" customHeight="1">
       <c r="A271" s="181"/>
-      <c r="B271" s="318"/>
-      <c r="C271" s="323"/>
-      <c r="D271" s="306"/>
+      <c r="B271" s="309"/>
+      <c r="C271" s="327"/>
+      <c r="D271" s="319"/>
       <c r="E271" s="175"/>
       <c r="F271" s="175"/>
       <c r="G271" s="177" t="s">
@@ -26993,9 +26993,9 @@
     </row>
     <row r="272" spans="1:13" ht="14.25" customHeight="1">
       <c r="A272" s="181"/>
-      <c r="B272" s="318"/>
-      <c r="C272" s="323"/>
-      <c r="D272" s="306"/>
+      <c r="B272" s="309"/>
+      <c r="C272" s="327"/>
+      <c r="D272" s="319"/>
       <c r="E272" s="175"/>
       <c r="F272" s="175"/>
       <c r="G272" s="177" t="s">
@@ -27012,9 +27012,9 @@
     </row>
     <row r="273" spans="1:13" ht="14.25" customHeight="1">
       <c r="A273" s="181"/>
-      <c r="B273" s="318"/>
-      <c r="C273" s="323"/>
-      <c r="D273" s="306"/>
+      <c r="B273" s="309"/>
+      <c r="C273" s="327"/>
+      <c r="D273" s="319"/>
       <c r="E273" s="175"/>
       <c r="F273" s="175"/>
       <c r="G273" s="177" t="s">
@@ -27031,9 +27031,9 @@
     </row>
     <row r="274" spans="1:13" ht="14.25" customHeight="1">
       <c r="A274" s="181"/>
-      <c r="B274" s="318"/>
-      <c r="C274" s="323"/>
-      <c r="D274" s="306"/>
+      <c r="B274" s="309"/>
+      <c r="C274" s="327"/>
+      <c r="D274" s="319"/>
       <c r="E274" s="175"/>
       <c r="F274" s="175"/>
       <c r="G274" s="177" t="s">
@@ -27050,9 +27050,9 @@
     </row>
     <row r="275" spans="1:13" ht="14.25" customHeight="1">
       <c r="A275" s="181"/>
-      <c r="B275" s="318"/>
-      <c r="C275" s="323"/>
-      <c r="D275" s="306"/>
+      <c r="B275" s="309"/>
+      <c r="C275" s="327"/>
+      <c r="D275" s="319"/>
       <c r="E275" s="175"/>
       <c r="F275" s="175"/>
       <c r="G275" s="177" t="s">
@@ -27069,9 +27069,9 @@
     </row>
     <row r="276" spans="1:13" ht="14.25" customHeight="1">
       <c r="A276" s="181"/>
-      <c r="B276" s="318"/>
-      <c r="C276" s="323"/>
-      <c r="D276" s="306"/>
+      <c r="B276" s="309"/>
+      <c r="C276" s="327"/>
+      <c r="D276" s="319"/>
       <c r="E276" s="175"/>
       <c r="F276" s="175"/>
       <c r="G276" s="177" t="s">
@@ -27088,9 +27088,9 @@
     </row>
     <row r="277" spans="1:13" ht="14.25" customHeight="1">
       <c r="A277" s="181"/>
-      <c r="B277" s="318"/>
-      <c r="C277" s="323"/>
-      <c r="D277" s="306"/>
+      <c r="B277" s="309"/>
+      <c r="C277" s="327"/>
+      <c r="D277" s="319"/>
       <c r="E277" s="175"/>
       <c r="F277" s="175"/>
       <c r="G277" s="177" t="s">
@@ -27107,9 +27107,9 @@
     </row>
     <row r="278" spans="1:13" ht="14.25" customHeight="1">
       <c r="A278" s="181"/>
-      <c r="B278" s="318"/>
-      <c r="C278" s="323"/>
-      <c r="D278" s="306"/>
+      <c r="B278" s="309"/>
+      <c r="C278" s="327"/>
+      <c r="D278" s="319"/>
       <c r="E278" s="175"/>
       <c r="F278" s="175"/>
       <c r="G278" s="177" t="s">
@@ -27126,9 +27126,9 @@
     </row>
     <row r="279" spans="1:13" ht="14.25" customHeight="1">
       <c r="A279" s="181"/>
-      <c r="B279" s="318"/>
-      <c r="C279" s="324"/>
-      <c r="D279" s="307"/>
+      <c r="B279" s="309"/>
+      <c r="C279" s="328"/>
+      <c r="D279" s="320"/>
       <c r="E279" s="175"/>
       <c r="F279" s="175"/>
       <c r="G279" s="177" t="s">
@@ -27145,11 +27145,11 @@
     </row>
     <row r="280" spans="1:13" ht="14.25" customHeight="1">
       <c r="A280" s="181"/>
-      <c r="B280" s="318"/>
-      <c r="C280" s="322" t="s">
+      <c r="B280" s="309"/>
+      <c r="C280" s="326" t="s">
         <v>1484</v>
       </c>
-      <c r="D280" s="305" t="s">
+      <c r="D280" s="318" t="s">
         <v>1485</v>
       </c>
       <c r="E280" s="175"/>
@@ -27168,9 +27168,9 @@
     </row>
     <row r="281" spans="1:13" ht="14.25" customHeight="1">
       <c r="A281" s="181"/>
-      <c r="B281" s="318"/>
-      <c r="C281" s="323"/>
-      <c r="D281" s="306"/>
+      <c r="B281" s="309"/>
+      <c r="C281" s="327"/>
+      <c r="D281" s="319"/>
       <c r="E281" s="175"/>
       <c r="F281" s="175"/>
       <c r="G281" s="177" t="s">
@@ -27187,9 +27187,9 @@
     </row>
     <row r="282" spans="1:13" ht="14.25" customHeight="1">
       <c r="A282" s="181"/>
-      <c r="B282" s="318"/>
-      <c r="C282" s="323"/>
-      <c r="D282" s="306"/>
+      <c r="B282" s="309"/>
+      <c r="C282" s="327"/>
+      <c r="D282" s="319"/>
       <c r="E282" s="175"/>
       <c r="F282" s="175"/>
       <c r="G282" s="177" t="s">
@@ -27206,9 +27206,9 @@
     </row>
     <row r="283" spans="1:13" ht="14.25" customHeight="1">
       <c r="A283" s="181"/>
-      <c r="B283" s="318"/>
-      <c r="C283" s="323"/>
-      <c r="D283" s="306"/>
+      <c r="B283" s="309"/>
+      <c r="C283" s="327"/>
+      <c r="D283" s="319"/>
       <c r="E283" s="175"/>
       <c r="F283" s="175"/>
       <c r="G283" s="177" t="s">
@@ -27225,9 +27225,9 @@
     </row>
     <row r="284" spans="1:13" ht="14.25" customHeight="1">
       <c r="A284" s="181"/>
-      <c r="B284" s="318"/>
-      <c r="C284" s="323"/>
-      <c r="D284" s="306"/>
+      <c r="B284" s="309"/>
+      <c r="C284" s="327"/>
+      <c r="D284" s="319"/>
       <c r="E284" s="175"/>
       <c r="F284" s="175"/>
       <c r="G284" s="177" t="s">
@@ -27244,9 +27244,9 @@
     </row>
     <row r="285" spans="1:13" ht="14.25" customHeight="1">
       <c r="A285" s="181"/>
-      <c r="B285" s="318"/>
-      <c r="C285" s="323"/>
-      <c r="D285" s="306"/>
+      <c r="B285" s="309"/>
+      <c r="C285" s="327"/>
+      <c r="D285" s="319"/>
       <c r="E285" s="175"/>
       <c r="F285" s="175"/>
       <c r="G285" s="177" t="s">
@@ -27263,9 +27263,9 @@
     </row>
     <row r="286" spans="1:13" ht="14.25" customHeight="1">
       <c r="A286" s="181"/>
-      <c r="B286" s="318"/>
-      <c r="C286" s="323"/>
-      <c r="D286" s="306"/>
+      <c r="B286" s="309"/>
+      <c r="C286" s="327"/>
+      <c r="D286" s="319"/>
       <c r="E286" s="175"/>
       <c r="F286" s="175"/>
       <c r="G286" s="177" t="s">
@@ -27282,9 +27282,9 @@
     </row>
     <row r="287" spans="1:13" ht="14.25" customHeight="1">
       <c r="A287" s="181"/>
-      <c r="B287" s="318"/>
-      <c r="C287" s="323"/>
-      <c r="D287" s="306"/>
+      <c r="B287" s="309"/>
+      <c r="C287" s="327"/>
+      <c r="D287" s="319"/>
       <c r="E287" s="175"/>
       <c r="F287" s="175"/>
       <c r="G287" s="177" t="s">
@@ -27301,9 +27301,9 @@
     </row>
     <row r="288" spans="1:13" ht="14.25" customHeight="1">
       <c r="A288" s="181"/>
-      <c r="B288" s="318"/>
-      <c r="C288" s="323"/>
-      <c r="D288" s="306"/>
+      <c r="B288" s="309"/>
+      <c r="C288" s="327"/>
+      <c r="D288" s="319"/>
       <c r="E288" s="175"/>
       <c r="F288" s="175"/>
       <c r="G288" s="177" t="s">
@@ -27320,9 +27320,9 @@
     </row>
     <row r="289" spans="1:13" ht="14.25" customHeight="1">
       <c r="A289" s="181"/>
-      <c r="B289" s="318"/>
-      <c r="C289" s="323"/>
-      <c r="D289" s="306"/>
+      <c r="B289" s="309"/>
+      <c r="C289" s="327"/>
+      <c r="D289" s="319"/>
       <c r="E289" s="175"/>
       <c r="F289" s="175"/>
       <c r="G289" s="177" t="s">
@@ -27339,9 +27339,9 @@
     </row>
     <row r="290" spans="1:13" ht="14.25" customHeight="1">
       <c r="A290" s="181"/>
-      <c r="B290" s="318"/>
-      <c r="C290" s="323"/>
-      <c r="D290" s="306"/>
+      <c r="B290" s="309"/>
+      <c r="C290" s="327"/>
+      <c r="D290" s="319"/>
       <c r="E290" s="175"/>
       <c r="F290" s="175"/>
       <c r="G290" s="177" t="s">
@@ -27358,9 +27358,9 @@
     </row>
     <row r="291" spans="1:13" ht="14.25" customHeight="1">
       <c r="A291" s="181"/>
-      <c r="B291" s="318"/>
-      <c r="C291" s="323"/>
-      <c r="D291" s="306"/>
+      <c r="B291" s="309"/>
+      <c r="C291" s="327"/>
+      <c r="D291" s="319"/>
       <c r="E291" s="175"/>
       <c r="F291" s="175"/>
       <c r="G291" s="177" t="s">
@@ -27377,9 +27377,9 @@
     </row>
     <row r="292" spans="1:13" ht="14.25" customHeight="1">
       <c r="A292" s="181"/>
-      <c r="B292" s="318"/>
-      <c r="C292" s="323"/>
-      <c r="D292" s="306"/>
+      <c r="B292" s="309"/>
+      <c r="C292" s="327"/>
+      <c r="D292" s="319"/>
       <c r="E292" s="175"/>
       <c r="F292" s="175"/>
       <c r="G292" s="177" t="s">
@@ -27396,9 +27396,9 @@
     </row>
     <row r="293" spans="1:13" ht="14.25" customHeight="1">
       <c r="A293" s="181"/>
-      <c r="B293" s="318"/>
-      <c r="C293" s="323"/>
-      <c r="D293" s="306"/>
+      <c r="B293" s="309"/>
+      <c r="C293" s="327"/>
+      <c r="D293" s="319"/>
       <c r="E293" s="175"/>
       <c r="F293" s="175"/>
       <c r="G293" s="177" t="s">
@@ -27415,9 +27415,9 @@
     </row>
     <row r="294" spans="1:13" ht="14.25" customHeight="1">
       <c r="A294" s="181"/>
-      <c r="B294" s="318"/>
-      <c r="C294" s="323"/>
-      <c r="D294" s="306"/>
+      <c r="B294" s="309"/>
+      <c r="C294" s="327"/>
+      <c r="D294" s="319"/>
       <c r="E294" s="175"/>
       <c r="F294" s="175"/>
       <c r="G294" s="177" t="s">
@@ -27434,9 +27434,9 @@
     </row>
     <row r="295" spans="1:13" ht="14.25" customHeight="1">
       <c r="A295" s="181"/>
-      <c r="B295" s="318"/>
-      <c r="C295" s="323"/>
-      <c r="D295" s="306"/>
+      <c r="B295" s="309"/>
+      <c r="C295" s="327"/>
+      <c r="D295" s="319"/>
       <c r="E295" s="175"/>
       <c r="F295" s="175"/>
       <c r="G295" s="177" t="s">
@@ -27453,9 +27453,9 @@
     </row>
     <row r="296" spans="1:13" ht="14.25" customHeight="1">
       <c r="A296" s="181"/>
-      <c r="B296" s="318"/>
-      <c r="C296" s="323"/>
-      <c r="D296" s="306"/>
+      <c r="B296" s="309"/>
+      <c r="C296" s="327"/>
+      <c r="D296" s="319"/>
       <c r="E296" s="175"/>
       <c r="F296" s="175"/>
       <c r="G296" s="177" t="s">
@@ -27472,9 +27472,9 @@
     </row>
     <row r="297" spans="1:13" ht="14.25" customHeight="1">
       <c r="A297" s="181"/>
-      <c r="B297" s="318"/>
-      <c r="C297" s="323"/>
-      <c r="D297" s="306"/>
+      <c r="B297" s="309"/>
+      <c r="C297" s="327"/>
+      <c r="D297" s="319"/>
       <c r="E297" s="175"/>
       <c r="F297" s="175"/>
       <c r="G297" s="177" t="s">
@@ -27491,9 +27491,9 @@
     </row>
     <row r="298" spans="1:13" ht="14.25" customHeight="1">
       <c r="A298" s="181"/>
-      <c r="B298" s="318"/>
-      <c r="C298" s="323"/>
-      <c r="D298" s="306"/>
+      <c r="B298" s="309"/>
+      <c r="C298" s="327"/>
+      <c r="D298" s="319"/>
       <c r="E298" s="175"/>
       <c r="F298" s="175"/>
       <c r="G298" s="177" t="s">
@@ -27512,7 +27512,7 @@
       <c r="A299" s="183" t="s">
         <v>1486</v>
       </c>
-      <c r="B299" s="318"/>
+      <c r="B299" s="309"/>
       <c r="C299" s="313" t="s">
         <v>3010</v>
       </c>
@@ -27533,7 +27533,7 @@
     </row>
     <row r="300" spans="1:13" ht="14.25" customHeight="1">
       <c r="A300" s="183"/>
-      <c r="B300" s="319"/>
+      <c r="B300" s="310"/>
       <c r="C300" s="315"/>
       <c r="D300" s="193" t="s">
         <v>2898</v>
@@ -28219,7 +28219,7 @@
     </row>
     <row r="340" spans="1:13" ht="14.25" customHeight="1">
       <c r="A340" s="183"/>
-      <c r="B340" s="317" t="s">
+      <c r="B340" s="308" t="s">
         <v>3035</v>
       </c>
       <c r="C340" s="257" t="s">
@@ -28240,11 +28240,11 @@
     </row>
     <row r="341" spans="1:13" ht="14.25" customHeight="1">
       <c r="A341" s="183"/>
-      <c r="B341" s="318"/>
-      <c r="C341" s="316" t="s">
+      <c r="B341" s="309"/>
+      <c r="C341" s="335" t="s">
         <v>132</v>
       </c>
-      <c r="D341" s="305" t="s">
+      <c r="D341" s="318" t="s">
         <v>2148</v>
       </c>
       <c r="E341" s="175"/>
@@ -28261,9 +28261,9 @@
     </row>
     <row r="342" spans="1:13" ht="14.25" customHeight="1">
       <c r="A342" s="183"/>
-      <c r="B342" s="318"/>
-      <c r="C342" s="316"/>
-      <c r="D342" s="306"/>
+      <c r="B342" s="309"/>
+      <c r="C342" s="335"/>
+      <c r="D342" s="319"/>
       <c r="E342" s="175"/>
       <c r="F342" s="175"/>
       <c r="G342" s="177" t="s">
@@ -28280,9 +28280,9 @@
     </row>
     <row r="343" spans="1:13" ht="14.25" customHeight="1">
       <c r="A343" s="183"/>
-      <c r="B343" s="318"/>
-      <c r="C343" s="316"/>
-      <c r="D343" s="306"/>
+      <c r="B343" s="309"/>
+      <c r="C343" s="335"/>
+      <c r="D343" s="319"/>
       <c r="E343" s="175"/>
       <c r="F343" s="175"/>
       <c r="G343" s="177" t="s">
@@ -28299,9 +28299,9 @@
     </row>
     <row r="344" spans="1:13" ht="14.25" customHeight="1">
       <c r="A344" s="183"/>
-      <c r="B344" s="318"/>
-      <c r="C344" s="316"/>
-      <c r="D344" s="306"/>
+      <c r="B344" s="309"/>
+      <c r="C344" s="335"/>
+      <c r="D344" s="319"/>
       <c r="E344" s="174"/>
       <c r="F344" s="174"/>
       <c r="G344" s="258" t="s">
@@ -28318,9 +28318,9 @@
     </row>
     <row r="345" spans="1:13" ht="14.25" customHeight="1">
       <c r="A345" s="183"/>
-      <c r="B345" s="318"/>
-      <c r="C345" s="316"/>
-      <c r="D345" s="306"/>
+      <c r="B345" s="309"/>
+      <c r="C345" s="335"/>
+      <c r="D345" s="319"/>
       <c r="E345" s="174"/>
       <c r="F345" s="174"/>
       <c r="G345" s="258" t="s">
@@ -28337,9 +28337,9 @@
     </row>
     <row r="346" spans="1:13" ht="14.25" customHeight="1">
       <c r="A346" s="183"/>
-      <c r="B346" s="318"/>
-      <c r="C346" s="316"/>
-      <c r="D346" s="306"/>
+      <c r="B346" s="309"/>
+      <c r="C346" s="335"/>
+      <c r="D346" s="319"/>
       <c r="E346" s="174"/>
       <c r="F346" s="174"/>
       <c r="G346" s="258" t="s">
@@ -28356,9 +28356,9 @@
     </row>
     <row r="347" spans="1:13" ht="14.25" customHeight="1">
       <c r="A347" s="183"/>
-      <c r="B347" s="318"/>
-      <c r="C347" s="316"/>
-      <c r="D347" s="306"/>
+      <c r="B347" s="309"/>
+      <c r="C347" s="335"/>
+      <c r="D347" s="319"/>
       <c r="E347" s="174"/>
       <c r="F347" s="174"/>
       <c r="G347" s="258" t="s">
@@ -28375,9 +28375,9 @@
     </row>
     <row r="348" spans="1:13" ht="14.25" customHeight="1">
       <c r="A348" s="183"/>
-      <c r="B348" s="318"/>
-      <c r="C348" s="316"/>
-      <c r="D348" s="306"/>
+      <c r="B348" s="309"/>
+      <c r="C348" s="335"/>
+      <c r="D348" s="319"/>
       <c r="E348" s="174"/>
       <c r="F348" s="174"/>
       <c r="G348" s="258" t="s">
@@ -28394,9 +28394,9 @@
     </row>
     <row r="349" spans="1:13" ht="14.25" customHeight="1">
       <c r="A349" s="183"/>
-      <c r="B349" s="318"/>
-      <c r="C349" s="316"/>
-      <c r="D349" s="306"/>
+      <c r="B349" s="309"/>
+      <c r="C349" s="335"/>
+      <c r="D349" s="319"/>
       <c r="E349" s="174"/>
       <c r="F349" s="174"/>
       <c r="G349" s="258" t="s">
@@ -28413,9 +28413,9 @@
     </row>
     <row r="350" spans="1:13" ht="14.25" customHeight="1">
       <c r="A350" s="183"/>
-      <c r="B350" s="318"/>
-      <c r="C350" s="316"/>
-      <c r="D350" s="306"/>
+      <c r="B350" s="309"/>
+      <c r="C350" s="335"/>
+      <c r="D350" s="319"/>
       <c r="E350" s="174"/>
       <c r="F350" s="174"/>
       <c r="G350" s="258" t="s">
@@ -28432,9 +28432,9 @@
     </row>
     <row r="351" spans="1:13" ht="14.25" customHeight="1">
       <c r="A351" s="183"/>
-      <c r="B351" s="318"/>
-      <c r="C351" s="316"/>
-      <c r="D351" s="307"/>
+      <c r="B351" s="309"/>
+      <c r="C351" s="335"/>
+      <c r="D351" s="320"/>
       <c r="E351" s="174"/>
       <c r="F351" s="174"/>
       <c r="G351" s="258" t="s">
@@ -28451,8 +28451,8 @@
     </row>
     <row r="352" spans="1:13" ht="14.25" customHeight="1">
       <c r="A352" s="183"/>
-      <c r="B352" s="318"/>
-      <c r="C352" s="316"/>
+      <c r="B352" s="309"/>
+      <c r="C352" s="335"/>
       <c r="D352" s="259" t="s">
         <v>2159</v>
       </c>
@@ -28470,9 +28470,9 @@
     </row>
     <row r="353" spans="1:13" ht="14.25" customHeight="1">
       <c r="A353" s="183"/>
-      <c r="B353" s="318"/>
-      <c r="C353" s="316"/>
-      <c r="D353" s="337" t="s">
+      <c r="B353" s="309"/>
+      <c r="C353" s="335"/>
+      <c r="D353" s="311" t="s">
         <v>2174</v>
       </c>
       <c r="E353" s="174"/>
@@ -28493,9 +28493,9 @@
     </row>
     <row r="354" spans="1:13" ht="14.25" customHeight="1">
       <c r="A354" s="183"/>
-      <c r="B354" s="318"/>
-      <c r="C354" s="316"/>
-      <c r="D354" s="339"/>
+      <c r="B354" s="309"/>
+      <c r="C354" s="335"/>
+      <c r="D354" s="321"/>
       <c r="E354" s="174"/>
       <c r="F354" s="174"/>
       <c r="G354" s="258" t="s">
@@ -28512,9 +28512,9 @@
     </row>
     <row r="355" spans="1:13" ht="14.25" customHeight="1">
       <c r="A355" s="183"/>
-      <c r="B355" s="318"/>
-      <c r="C355" s="316"/>
-      <c r="D355" s="339"/>
+      <c r="B355" s="309"/>
+      <c r="C355" s="335"/>
+      <c r="D355" s="321"/>
       <c r="E355" s="174"/>
       <c r="F355" s="174"/>
       <c r="G355" s="258" t="s">
@@ -28533,9 +28533,9 @@
     </row>
     <row r="356" spans="1:13" ht="14.25" customHeight="1">
       <c r="A356" s="183"/>
-      <c r="B356" s="318"/>
-      <c r="C356" s="316"/>
-      <c r="D356" s="339"/>
+      <c r="B356" s="309"/>
+      <c r="C356" s="335"/>
+      <c r="D356" s="321"/>
       <c r="E356" s="174"/>
       <c r="F356" s="174"/>
       <c r="G356" s="258" t="s">
@@ -28552,9 +28552,9 @@
     </row>
     <row r="357" spans="1:13" ht="14.25" customHeight="1">
       <c r="A357" s="183"/>
-      <c r="B357" s="318"/>
-      <c r="C357" s="316"/>
-      <c r="D357" s="339"/>
+      <c r="B357" s="309"/>
+      <c r="C357" s="335"/>
+      <c r="D357" s="321"/>
       <c r="E357" s="174"/>
       <c r="F357" s="174"/>
       <c r="G357" s="258" t="s">
@@ -28573,9 +28573,9 @@
     </row>
     <row r="358" spans="1:13" ht="14.25" customHeight="1">
       <c r="A358" s="183"/>
-      <c r="B358" s="318"/>
-      <c r="C358" s="316"/>
-      <c r="D358" s="339"/>
+      <c r="B358" s="309"/>
+      <c r="C358" s="335"/>
+      <c r="D358" s="321"/>
       <c r="E358" s="174"/>
       <c r="F358" s="174"/>
       <c r="G358" s="258" t="s">
@@ -28592,9 +28592,9 @@
     </row>
     <row r="359" spans="1:13" ht="14.25" customHeight="1">
       <c r="A359" s="183"/>
-      <c r="B359" s="318"/>
-      <c r="C359" s="316"/>
-      <c r="D359" s="339"/>
+      <c r="B359" s="309"/>
+      <c r="C359" s="335"/>
+      <c r="D359" s="321"/>
       <c r="E359" s="174"/>
       <c r="F359" s="174"/>
       <c r="G359" s="258" t="s">
@@ -28613,9 +28613,9 @@
     </row>
     <row r="360" spans="1:13" ht="14.25" customHeight="1">
       <c r="A360" s="183"/>
-      <c r="B360" s="318"/>
-      <c r="C360" s="316"/>
-      <c r="D360" s="339"/>
+      <c r="B360" s="309"/>
+      <c r="C360" s="335"/>
+      <c r="D360" s="321"/>
       <c r="E360" s="174"/>
       <c r="F360" s="174"/>
       <c r="G360" s="258" t="s">
@@ -28632,9 +28632,9 @@
     </row>
     <row r="361" spans="1:13" ht="14.25" customHeight="1">
       <c r="A361" s="183"/>
-      <c r="B361" s="318"/>
-      <c r="C361" s="316"/>
-      <c r="D361" s="339"/>
+      <c r="B361" s="309"/>
+      <c r="C361" s="335"/>
+      <c r="D361" s="321"/>
       <c r="E361" s="174"/>
       <c r="F361" s="174"/>
       <c r="G361" s="258" t="s">
@@ -28653,9 +28653,9 @@
     </row>
     <row r="362" spans="1:13" ht="14.25" customHeight="1">
       <c r="A362" s="183"/>
-      <c r="B362" s="318"/>
-      <c r="C362" s="316"/>
-      <c r="D362" s="339"/>
+      <c r="B362" s="309"/>
+      <c r="C362" s="335"/>
+      <c r="D362" s="321"/>
       <c r="E362" s="174"/>
       <c r="F362" s="174"/>
       <c r="G362" s="260" t="s">
@@ -28676,9 +28676,9 @@
     </row>
     <row r="363" spans="1:13" ht="14.25" customHeight="1">
       <c r="A363" s="183"/>
-      <c r="B363" s="318"/>
-      <c r="C363" s="316"/>
-      <c r="D363" s="338"/>
+      <c r="B363" s="309"/>
+      <c r="C363" s="335"/>
+      <c r="D363" s="312"/>
       <c r="E363" s="174"/>
       <c r="F363" s="174"/>
       <c r="G363" s="260" t="s">
@@ -28697,9 +28697,9 @@
     </row>
     <row r="364" spans="1:13" ht="14.25" customHeight="1">
       <c r="A364" s="183"/>
-      <c r="B364" s="318"/>
-      <c r="C364" s="316"/>
-      <c r="D364" s="334" t="s">
+      <c r="B364" s="309"/>
+      <c r="C364" s="335"/>
+      <c r="D364" s="305" t="s">
         <v>2175</v>
       </c>
       <c r="E364" s="174"/>
@@ -28718,9 +28718,9 @@
     </row>
     <row r="365" spans="1:13" ht="14.25" customHeight="1">
       <c r="A365" s="183"/>
-      <c r="B365" s="318"/>
-      <c r="C365" s="316"/>
-      <c r="D365" s="335"/>
+      <c r="B365" s="309"/>
+      <c r="C365" s="335"/>
+      <c r="D365" s="306"/>
       <c r="E365" s="174"/>
       <c r="F365" s="174"/>
       <c r="G365" s="258" t="s">
@@ -28739,9 +28739,9 @@
     </row>
     <row r="366" spans="1:13" ht="14.25" customHeight="1">
       <c r="A366" s="183"/>
-      <c r="B366" s="318"/>
-      <c r="C366" s="316"/>
-      <c r="D366" s="335"/>
+      <c r="B366" s="309"/>
+      <c r="C366" s="335"/>
+      <c r="D366" s="306"/>
       <c r="E366" s="174"/>
       <c r="F366" s="174"/>
       <c r="G366" s="258" t="s">
@@ -28760,9 +28760,9 @@
     </row>
     <row r="367" spans="1:13" ht="14.25" customHeight="1">
       <c r="A367" s="183"/>
-      <c r="B367" s="318"/>
-      <c r="C367" s="316"/>
-      <c r="D367" s="336"/>
+      <c r="B367" s="309"/>
+      <c r="C367" s="335"/>
+      <c r="D367" s="307"/>
       <c r="E367" s="174"/>
       <c r="F367" s="174"/>
       <c r="G367" s="258" t="s">
@@ -28781,9 +28781,9 @@
     </row>
     <row r="368" spans="1:13" ht="14.25" customHeight="1">
       <c r="A368" s="183"/>
-      <c r="B368" s="318"/>
-      <c r="C368" s="316"/>
-      <c r="D368" s="334" t="s">
+      <c r="B368" s="309"/>
+      <c r="C368" s="335"/>
+      <c r="D368" s="305" t="s">
         <v>2176</v>
       </c>
       <c r="E368" s="174"/>
@@ -28804,9 +28804,9 @@
     </row>
     <row r="369" spans="1:13" ht="14.25" customHeight="1">
       <c r="A369" s="183"/>
-      <c r="B369" s="318"/>
-      <c r="C369" s="316"/>
-      <c r="D369" s="335"/>
+      <c r="B369" s="309"/>
+      <c r="C369" s="335"/>
+      <c r="D369" s="306"/>
       <c r="E369" s="174"/>
       <c r="F369" s="174"/>
       <c r="G369" s="258" t="s">
@@ -28825,9 +28825,9 @@
     </row>
     <row r="370" spans="1:13" ht="14.25" customHeight="1">
       <c r="A370" s="183"/>
-      <c r="B370" s="318"/>
-      <c r="C370" s="316"/>
-      <c r="D370" s="335"/>
+      <c r="B370" s="309"/>
+      <c r="C370" s="335"/>
+      <c r="D370" s="306"/>
       <c r="E370" s="174"/>
       <c r="F370" s="174"/>
       <c r="G370" s="258" t="s">
@@ -28846,9 +28846,9 @@
     </row>
     <row r="371" spans="1:13" ht="14.25" customHeight="1">
       <c r="A371" s="183"/>
-      <c r="B371" s="318"/>
-      <c r="C371" s="316"/>
-      <c r="D371" s="336"/>
+      <c r="B371" s="309"/>
+      <c r="C371" s="335"/>
+      <c r="D371" s="307"/>
       <c r="E371" s="174"/>
       <c r="F371" s="174"/>
       <c r="G371" s="258" t="s">
@@ -28867,9 +28867,9 @@
     </row>
     <row r="372" spans="1:13" ht="14.25" customHeight="1">
       <c r="A372" s="183"/>
-      <c r="B372" s="318"/>
-      <c r="C372" s="316"/>
-      <c r="D372" s="337" t="s">
+      <c r="B372" s="309"/>
+      <c r="C372" s="335"/>
+      <c r="D372" s="311" t="s">
         <v>2181</v>
       </c>
       <c r="E372" s="174"/>
@@ -28888,9 +28888,9 @@
     </row>
     <row r="373" spans="1:13" ht="14.25" customHeight="1">
       <c r="A373" s="183"/>
-      <c r="B373" s="318"/>
-      <c r="C373" s="316"/>
-      <c r="D373" s="338"/>
+      <c r="B373" s="309"/>
+      <c r="C373" s="335"/>
+      <c r="D373" s="312"/>
       <c r="E373" s="174"/>
       <c r="F373" s="174"/>
       <c r="G373" s="258" t="s">
@@ -28909,8 +28909,8 @@
     </row>
     <row r="374" spans="1:13" ht="14.25" customHeight="1">
       <c r="A374" s="183"/>
-      <c r="B374" s="318"/>
-      <c r="C374" s="316"/>
+      <c r="B374" s="309"/>
+      <c r="C374" s="335"/>
       <c r="D374" s="287" t="s">
         <v>2182</v>
       </c>
@@ -28930,8 +28930,8 @@
     </row>
     <row r="375" spans="1:13" ht="18.95" customHeight="1">
       <c r="A375" s="183"/>
-      <c r="B375" s="318"/>
-      <c r="C375" s="316"/>
+      <c r="B375" s="309"/>
+      <c r="C375" s="335"/>
       <c r="D375" s="262" t="s">
         <v>2188</v>
       </c>
@@ -28955,8 +28955,8 @@
     </row>
     <row r="376" spans="1:13" ht="14.25" customHeight="1">
       <c r="A376" s="183"/>
-      <c r="B376" s="318"/>
-      <c r="C376" s="316"/>
+      <c r="B376" s="309"/>
+      <c r="C376" s="335"/>
       <c r="D376" s="263" t="s">
         <v>2189</v>
       </c>
@@ -28974,8 +28974,8 @@
     </row>
     <row r="377" spans="1:13" ht="14.25" customHeight="1">
       <c r="A377" s="183"/>
-      <c r="B377" s="318"/>
-      <c r="C377" s="316"/>
+      <c r="B377" s="309"/>
+      <c r="C377" s="335"/>
       <c r="D377" s="259" t="s">
         <v>2205</v>
       </c>
@@ -28995,8 +28995,8 @@
     </row>
     <row r="378" spans="1:13" ht="14.25" customHeight="1">
       <c r="A378" s="183"/>
-      <c r="B378" s="318"/>
-      <c r="C378" s="316"/>
+      <c r="B378" s="309"/>
+      <c r="C378" s="335"/>
       <c r="D378" s="259"/>
       <c r="E378" s="174"/>
       <c r="F378" s="174"/>
@@ -29016,8 +29016,8 @@
     </row>
     <row r="379" spans="1:13" ht="14.25" customHeight="1">
       <c r="A379" s="183"/>
-      <c r="B379" s="318"/>
-      <c r="C379" s="316"/>
+      <c r="B379" s="309"/>
+      <c r="C379" s="335"/>
       <c r="D379" s="259"/>
       <c r="E379" s="174"/>
       <c r="F379" s="174"/>
@@ -29035,8 +29035,8 @@
     </row>
     <row r="380" spans="1:13" ht="14.25" customHeight="1">
       <c r="A380" s="183"/>
-      <c r="B380" s="318"/>
-      <c r="C380" s="316"/>
+      <c r="B380" s="309"/>
+      <c r="C380" s="335"/>
       <c r="D380" s="259" t="s">
         <v>2214</v>
       </c>
@@ -29056,8 +29056,8 @@
     </row>
     <row r="381" spans="1:13" ht="14.25" customHeight="1">
       <c r="A381" s="183"/>
-      <c r="B381" s="318"/>
-      <c r="C381" s="316"/>
+      <c r="B381" s="309"/>
+      <c r="C381" s="335"/>
       <c r="D381" s="259"/>
       <c r="E381" s="174"/>
       <c r="F381" s="174"/>
@@ -29077,8 +29077,8 @@
     </row>
     <row r="382" spans="1:13" ht="14.25" customHeight="1">
       <c r="A382" s="183"/>
-      <c r="B382" s="318"/>
-      <c r="C382" s="316"/>
+      <c r="B382" s="309"/>
+      <c r="C382" s="335"/>
       <c r="D382" s="259"/>
       <c r="E382" s="174"/>
       <c r="F382" s="174"/>
@@ -29096,8 +29096,8 @@
     </row>
     <row r="383" spans="1:13" ht="14.25" customHeight="1">
       <c r="A383" s="183"/>
-      <c r="B383" s="318"/>
-      <c r="C383" s="316"/>
+      <c r="B383" s="309"/>
+      <c r="C383" s="335"/>
       <c r="D383" s="259" t="s">
         <v>2215</v>
       </c>
@@ -29115,8 +29115,8 @@
     </row>
     <row r="384" spans="1:13" ht="14.25" customHeight="1">
       <c r="A384" s="183"/>
-      <c r="B384" s="318"/>
-      <c r="C384" s="316"/>
+      <c r="B384" s="309"/>
+      <c r="C384" s="335"/>
       <c r="D384" s="259" t="s">
         <v>2216</v>
       </c>
@@ -29134,7 +29134,7 @@
     </row>
     <row r="385" spans="1:13" ht="14.25" customHeight="1">
       <c r="A385" s="181"/>
-      <c r="B385" s="319"/>
+      <c r="B385" s="310"/>
       <c r="C385" s="264" t="s">
         <v>2217</v>
       </c>
@@ -29302,6 +29302,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D150:D153"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="D136:D143"/>
+    <mergeCell ref="D158:D167"/>
+    <mergeCell ref="C144:C149"/>
+    <mergeCell ref="C119:C143"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D144:D146"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="C2:C66"/>
+    <mergeCell ref="C341:C384"/>
+    <mergeCell ref="B2:B66"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="B75:B194"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="C150:C167"/>
+    <mergeCell ref="C185:C194"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="D177:D184"/>
+    <mergeCell ref="D168:D176"/>
+    <mergeCell ref="C242:C258"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D21:D66"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="C75:C100"/>
+    <mergeCell ref="C101:C118"/>
+    <mergeCell ref="C259:C279"/>
+    <mergeCell ref="D259:D279"/>
+    <mergeCell ref="C280:C298"/>
+    <mergeCell ref="D280:D298"/>
+    <mergeCell ref="D205:D210"/>
     <mergeCell ref="D364:D367"/>
     <mergeCell ref="D368:D371"/>
     <mergeCell ref="B340:B385"/>
@@ -29318,57 +29369,6 @@
     <mergeCell ref="D242:D258"/>
     <mergeCell ref="C211:C241"/>
     <mergeCell ref="D211:D241"/>
-    <mergeCell ref="C259:C279"/>
-    <mergeCell ref="D259:D279"/>
-    <mergeCell ref="C280:C298"/>
-    <mergeCell ref="D280:D298"/>
-    <mergeCell ref="D205:D210"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="C75:C100"/>
-    <mergeCell ref="C101:C118"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D21:D66"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="C2:C66"/>
-    <mergeCell ref="C341:C384"/>
-    <mergeCell ref="B2:B66"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="B75:B194"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="C150:C167"/>
-    <mergeCell ref="C185:C194"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="D177:D184"/>
-    <mergeCell ref="D168:D176"/>
-    <mergeCell ref="C242:C258"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="D150:D153"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="D136:D143"/>
-    <mergeCell ref="D158:D167"/>
-    <mergeCell ref="C144:C149"/>
-    <mergeCell ref="C119:C143"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D144:D146"/>
-    <mergeCell ref="D147:D148"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40268,6 +40268,42 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B69:B84"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B5:B34"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="B40:B63"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:I68"/>
+    <mergeCell ref="B167:B192"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="B90:B112"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="B118:B161"/>
+    <mergeCell ref="C164:G164"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="C166:I166"/>
+    <mergeCell ref="B260:B307"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="C197:I197"/>
+    <mergeCell ref="B198:B220"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C225:I225"/>
+    <mergeCell ref="B226:B253"/>
+    <mergeCell ref="C257:G257"/>
+    <mergeCell ref="C258:G258"/>
+    <mergeCell ref="C259:I259"/>
     <mergeCell ref="B374:B402"/>
     <mergeCell ref="C309:G309"/>
     <mergeCell ref="C310:G310"/>
@@ -40280,42 +40316,6 @@
     <mergeCell ref="C371:G371"/>
     <mergeCell ref="C372:G372"/>
     <mergeCell ref="C373:I373"/>
-    <mergeCell ref="B260:B307"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="C197:I197"/>
-    <mergeCell ref="B198:B220"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C225:I225"/>
-    <mergeCell ref="B226:B253"/>
-    <mergeCell ref="C257:G257"/>
-    <mergeCell ref="C258:G258"/>
-    <mergeCell ref="C259:I259"/>
-    <mergeCell ref="B167:B192"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="B90:B112"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
-    <mergeCell ref="C117:I117"/>
-    <mergeCell ref="B118:B161"/>
-    <mergeCell ref="C164:G164"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="C166:I166"/>
-    <mergeCell ref="B69:B84"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B5:B34"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="B40:B63"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:I68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
